--- a/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
+++ b/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoruihua/Documents/成品号资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\jym_product_manage\Doc\交易猫提供文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABF3CFF-E30D-2741-A1A9-C7B091C411A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5A85BB-0126-44B6-A5FF-9580C99A7B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="35840" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$45</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -735,21 +736,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -757,14 +758,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -772,7 +773,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -996,6 +997,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,48 +1051,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1356,23 +1357,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.3125" customWidth="1"/>
+    <col min="2" max="2" width="10.3125" customWidth="1"/>
+    <col min="3" max="3" width="21.68359375" customWidth="1"/>
+    <col min="4" max="4" width="23.68359375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
-    <col min="11" max="11" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83984375" customWidth="1"/>
+    <col min="8" max="8" width="19.47265625" customWidth="1"/>
+    <col min="9" max="9" width="14.3125" customWidth="1"/>
+    <col min="10" max="10" width="17.83984375" customWidth="1"/>
+    <col min="11" max="11" width="38.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1411,10 +1410,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1446,8 +1445,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1477,8 +1476,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1510,8 +1509,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
@@ -1541,10 +1540,10 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1576,8 +1575,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1607,8 +1606,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1640,8 +1639,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1671,10 +1670,10 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1706,8 +1705,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1737,8 +1736,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1770,8 +1769,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1801,10 +1800,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1836,8 +1835,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1867,8 +1866,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1900,8 +1899,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1930,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1966,7 +1965,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="20"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2002,7 +2001,7 @@
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2037,7 +2036,7 @@
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -2070,7 +2069,7 @@
       <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
@@ -2103,7 +2102,7 @@
       <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
         <v>77</v>
       </c>
@@ -2136,7 +2135,7 @@
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
@@ -2169,7 +2168,7 @@
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
@@ -2199,10 +2198,10 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
@@ -2234,8 +2233,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -2265,8 +2264,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="24"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -2295,8 +2294,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -2326,7 +2325,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B30" t="s">
@@ -2361,7 +2360,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="24"/>
+      <c r="A31" s="18"/>
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -2428,11 +2427,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:11" ht="14.1">
+      <c r="A33" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="26" t="s">
         <v>152</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -2463,9 +2462,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+    <row r="34" spans="1:11" ht="14.1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="10" t="s">
         <v>142</v>
       </c>
@@ -2494,9 +2493,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="1:11" ht="14.1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -2527,9 +2526,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+    <row r="36" spans="1:11" ht="14.1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="10" t="s">
         <v>144</v>
       </c>
@@ -2558,11 +2557,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:11" ht="14.1">
+      <c r="A37" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -2593,9 +2592,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+    <row r="38" spans="1:11" ht="14.1">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="12" t="s">
         <v>147</v>
       </c>
@@ -2624,9 +2623,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+    <row r="39" spans="1:11" ht="14.1">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
@@ -2655,9 +2654,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:11" ht="14.1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -2689,26 +2688,26 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:11" ht="15">
-      <c r="A42" s="26" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+    </row>
+    <row r="42" spans="1:11" ht="14.1">
+      <c r="A42" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="16" t="s">
         <v>178</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="16" t="s">
         <v>178</v>
       </c>
       <c r="G42">
@@ -2727,19 +2726,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="27" t="s">
+    <row r="43" spans="1:11" ht="14.1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="15" t="s">
         <v>177</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G43">
@@ -2758,21 +2757,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15">
-      <c r="A44" s="24"/>
-      <c r="B44" s="23" t="s">
+    <row r="44" spans="1:11" ht="14.1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="14" t="s">
         <v>176</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G44">
@@ -2791,19 +2790,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="27" t="s">
+    <row r="45" spans="1:11" ht="14.1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="14" t="s">
         <v>175</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="14" t="s">
         <v>182</v>
       </c>
       <c r="G45">
@@ -2823,14 +2822,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="27">
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
@@ -2840,11 +2838,13 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B34"/>
@@ -2854,34 +2854,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
+++ b/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\jym_product_manage\Doc\交易猫提供文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5A85BB-0126-44B6-A5FF-9580C99A7B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1C1CE-CF39-47F0-B374-2CAC74B0651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,6 +1009,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,18 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,7 +1357,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
   <cols>
@@ -1410,10 +1413,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1445,8 +1448,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="25"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1476,8 +1479,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1509,8 +1512,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
@@ -1540,10 +1543,10 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1575,8 +1578,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="25"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1606,8 +1609,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1639,8 +1642,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1670,10 +1673,10 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1705,8 +1708,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="25"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1736,8 +1739,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="25"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1769,8 +1772,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1800,10 +1803,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1835,8 +1838,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="25"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1866,8 +1869,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1899,8 +1902,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +1933,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1965,7 +1968,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="23"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2001,7 +2004,7 @@
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2036,7 +2039,7 @@
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -2069,7 +2072,7 @@
       <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
@@ -2102,7 +2105,7 @@
       <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="9" t="s">
         <v>77</v>
       </c>
@@ -2135,7 +2138,7 @@
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
@@ -2168,7 +2171,7 @@
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
@@ -2198,10 +2201,10 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
@@ -2233,8 +2236,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="22"/>
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -2264,8 +2267,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -2294,8 +2297,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -2325,7 +2328,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B30" t="s">
@@ -2360,7 +2363,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="18"/>
+      <c r="A31" s="22"/>
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -2692,10 +2695,10 @@
       <c r="B41" s="30"/>
     </row>
     <row r="42" spans="1:11" ht="14.1">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -2727,8 +2730,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="13" t="s">
         <v>142</v>
       </c>
@@ -2758,8 +2761,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -2791,8 +2794,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="13" t="s">
         <v>142</v>
       </c>
@@ -2824,20 +2827,6 @@
   </sheetData>
   <autoFilter ref="A1:K45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="27">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
@@ -2851,6 +2840,20 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
+++ b/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\jym_product_manage\Doc\交易猫提供文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1C1CE-CF39-47F0-B374-2CAC74B0651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D8C9F-CD9D-405B-94E1-FE1A9CE5EE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="184">
   <si>
     <t>游戏名称</t>
   </si>
@@ -957,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,47 +1009,53 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,11 +1361,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
@@ -1412,11 +1419,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:11" hidden="1">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1447,9 +1454,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+    <row r="3" spans="1:11" hidden="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1478,9 +1485,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1511,9 +1518,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
@@ -1542,11 +1549,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1577,9 +1584,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1608,9 +1615,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:11" hidden="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1641,9 +1648,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+    <row r="9" spans="1:11" hidden="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1672,11 +1679,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:11" hidden="1">
+      <c r="A10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1707,9 +1714,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1738,9 +1745,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:11" hidden="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1771,9 +1778,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+    <row r="13" spans="1:11" hidden="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1802,11 +1809,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:11" hidden="1">
+      <c r="A14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1837,9 +1844,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1868,9 +1875,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20" t="s">
+    <row r="16" spans="1:11" hidden="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1901,9 +1908,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1932,8 +1939,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:11" hidden="1">
+      <c r="A18" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1967,8 +1974,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2000,11 +2009,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2035,11 +2044,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -2068,11 +2077,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
@@ -2101,11 +2110,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="9" t="s">
         <v>77</v>
       </c>
@@ -2134,11 +2143,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
@@ -2167,11 +2176,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
@@ -2200,11 +2209,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:11" hidden="1">
+      <c r="A26" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
@@ -2235,9 +2244,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="23"/>
-      <c r="B27" s="22"/>
+    <row r="27" spans="1:11" hidden="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -2266,9 +2275,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23" t="s">
+    <row r="28" spans="1:11" hidden="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -2296,9 +2305,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+    <row r="29" spans="1:11" hidden="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -2327,8 +2336,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:11" hidden="1">
+      <c r="A30" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B30" t="s">
@@ -2362,8 +2371,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="22"/>
+    <row r="31" spans="1:11" hidden="1">
+      <c r="A31" s="18"/>
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -2395,7 +2404,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -2430,11 +2439,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.1">
-      <c r="A33" s="26" t="s">
+    <row r="33" spans="1:11" ht="14.1" hidden="1">
+      <c r="A33" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -2465,9 +2474,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
+    <row r="34" spans="1:11" ht="14.1" hidden="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="10" t="s">
         <v>142</v>
       </c>
@@ -2496,9 +2505,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="26" t="s">
+    <row r="35" spans="1:11" ht="14.1" hidden="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -2529,9 +2538,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+    <row r="36" spans="1:11" ht="14.1" hidden="1">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="10" t="s">
         <v>144</v>
       </c>
@@ -2561,10 +2570,10 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.1">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -2596,8 +2605,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="23"/>
       <c r="C38" s="12" t="s">
         <v>147</v>
       </c>
@@ -2627,8 +2638,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="23"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
@@ -2658,8 +2671,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="26" t="s">
+      <c r="A40" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -2690,15 +2705,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-    </row>
-    <row r="42" spans="1:11" ht="14.1">
-      <c r="A42" s="21" t="s">
+    <row r="41" spans="1:11" ht="12.9" customHeight="1">
+      <c r="A41" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="26"/>
+    </row>
+    <row r="42" spans="1:11" ht="14.1" hidden="1">
+      <c r="A42" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -2729,9 +2746,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
+    <row r="43" spans="1:11" ht="14.1" hidden="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="13" t="s">
         <v>142</v>
       </c>
@@ -2760,9 +2777,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23" t="s">
+    <row r="44" spans="1:11" ht="14.1" hidden="1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -2793,9 +2810,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
+    <row r="45" spans="1:11" ht="14.1" hidden="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="13" t="s">
         <v>142</v>
       </c>
@@ -2825,8 +2842,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="27">
+  <autoFilter ref="A1:K45" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="原神（优质卖家）"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="25">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
@@ -2838,22 +2874,7 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A41"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
+++ b/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\jym_product_manage\Doc\交易猫提供文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8DE057-041E-4D96-AB3A-CF0CBAE2309F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5668D-2AB4-4AF5-908E-28FD81D9A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="哔哩帐号1642583177628183" sheetId="3" r:id="rId3"/>
     <sheet name="安官帐号1642583217534208" sheetId="4" r:id="rId4"/>
     <sheet name="苹官帐号1642583633272220" sheetId="6" r:id="rId5"/>
+    <sheet name="分析关系" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$45</definedName>
@@ -26,12 +27,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">苹官帐号1642583633272220!$A$1:$U$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">哔哩帐号1642583177628183!$A$1:$U$68</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="733">
   <si>
     <t>游戏名称</t>
   </si>
@@ -3756,6 +3767,448 @@
   </si>
   <si>
     <t>1642583633568610</t>
+  </si>
+  <si>
+    <t>alibaba.jym.item.external.goods.batch.modifyprice</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>alibaba.jym.item.external.goods.batch.onsale</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>alibaba.jym.item.external.goods.batchtask.query</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>alibaba.jym.item.external.goods.detail.query</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>alibaba.jym.item.external.goods.status.batch.query</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>alibaba.jym.item.external.goods.batch.offsale</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>alibaba.jym.item.external.goods.batch.publish</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>待运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>营审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>已上架</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>您⾃⼰操作下架</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>超出商品有效期</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>商品已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>售完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毕</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>商品信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核不通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核下架</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停交易</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布撤回</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>待提交</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号安全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核不通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全信息超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下
+架</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全信息不完
+整下架</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>待系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全</t>
+    </r>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -4055,7 +4508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4152,17 +4605,11 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4194,11 +4641,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4215,6 +4680,1194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>227824</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6A0F65-9614-45C7-9351-5FD524CE3A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15240"/>
+          <a:ext cx="2148064" cy="1920240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDC4027-95AB-4DDE-BBDE-852ED188C788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="125730"/>
+          <a:ext cx="1668780" cy="407670"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 23864"/>
+            <a:gd name="adj4" fmla="val -46690"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>sellerAccountProperties</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48365986-2EF1-419B-87B8-0E72C2E2BA01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2148840" y="1615440"/>
+          <a:ext cx="1813560" cy="529590"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 23864"/>
+            <a:gd name="adj4" fmla="val -46690"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>sellerAccountProperties</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>parentId</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 線 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C27B344-5373-4A8D-92A9-F32CB372B778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935480" y="689610"/>
+          <a:ext cx="1668780" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 23864"/>
+            <a:gd name="adj4" fmla="val -46690"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>实际工作室录入值</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193808</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA169CD-A63F-4F42-97D7-54657ACC9EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2438401"/>
+          <a:ext cx="2114048" cy="1973580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 線 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549B40E3-D54D-4F24-9161-1A99265B4330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339340" y="2552700"/>
+          <a:ext cx="1668780" cy="407670"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 23864"/>
+            <a:gd name="adj4" fmla="val -46690"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>extProperties</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 線 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0AC748-1421-4373-82E6-15C1CA30AB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2125980" y="4107180"/>
+          <a:ext cx="1813560" cy="529590"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 23864"/>
+            <a:gd name="adj4" fmla="val -46690"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>extProperties</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>parentId</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 線 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116DD3DE-3D34-4159-9FCB-9459BFDE97A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2080260" y="3131820"/>
+          <a:ext cx="2145030" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 23864"/>
+            <a:gd name="adj4" fmla="val -46690"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>extProperties</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>opthions.value</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30074</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>278784</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED17097B-6A21-460F-AE22-8E264409C438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7711034" y="815340"/>
+          <a:ext cx="3449110" cy="1973580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>107688</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>8371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA674CF-1257-4739-A7F0-401E0979E1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="4429772"/>
+          <a:ext cx="3951978" cy="2950949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>88585</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>140379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EECBB8E-0B9B-4003-A283-FE3A895061CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7722870" y="7714901"/>
+          <a:ext cx="3887155" cy="2419108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550329</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>602940</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30F212D-6D43-4D8B-B455-42B38AC7A4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6951129" y="2990850"/>
+          <a:ext cx="3253011" cy="2211063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>263934</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5264E89F-3E82-4711-98AF-469825F312AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="3750764"/>
+          <a:ext cx="2778534" cy="1302797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 線 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4E52AB-7C69-42C0-9066-70F0C19D560A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11369040" y="3051810"/>
+          <a:ext cx="2324100" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 192357"/>
+            <a:gd name="adj4" fmla="val -30788"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>0=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>任务已创建，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>1=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>任务成功，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>-1=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>任务失败 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>29800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>505982</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>148338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5616C108-F1E2-48FA-8FC2-38AB3176B0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11479530" y="9531940"/>
+          <a:ext cx="3748292" cy="1265348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="吹き出し: 線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591DE56F-373B-4E7B-B731-02034B82EAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="11224260"/>
+          <a:ext cx="1173480" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -2192277"/>
+            <a:gd name="adj4" fmla="val 9680"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550329</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5995ECA-040C-451D-846A-D325D9AC3EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6157489" y="2374791"/>
+          <a:ext cx="2515232" cy="927951"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 757"/>
+            <a:gd name="adj2" fmla="val 175958"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>51940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83823</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806B33BC-4FD8-4B7D-A724-22C0FD5846ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9614466" y="4702115"/>
+          <a:ext cx="749311" cy="671963"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552076</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>29800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74305ED9-6C72-4DD0-9492-756C177645D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9523248" y="5701512"/>
+          <a:ext cx="4853260" cy="2807596"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2270"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4507,9 +6160,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
@@ -4563,10 +6216,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4598,8 +6251,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4629,8 +6282,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4662,8 +6315,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
@@ -4693,10 +6346,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4728,8 +6381,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4759,8 +6412,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="47" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4792,8 +6445,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4823,10 +6476,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4858,8 +6511,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -4889,8 +6542,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="47" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4922,8 +6575,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -4953,10 +6606,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4988,8 +6641,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -5019,8 +6672,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="47" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5052,8 +6705,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
@@ -5156,7 +6809,7 @@
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5191,7 +6844,7 @@
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -5224,7 +6877,7 @@
       <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
@@ -5257,7 +6910,7 @@
       <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="9" t="s">
         <v>77</v>
       </c>
@@ -5290,7 +6943,7 @@
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
@@ -5323,7 +6976,7 @@
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
@@ -5353,10 +7006,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
@@ -5388,8 +7041,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="35"/>
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -5419,8 +7072,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -5449,8 +7102,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -5480,7 +7133,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="36" t="s">
         <v>113</v>
       </c>
       <c r="B30" t="s">
@@ -5515,7 +7168,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1">
-      <c r="A31" s="37"/>
+      <c r="A31" s="35"/>
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -5583,10 +7236,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.1" hidden="1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>151</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -5618,8 +7271,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.1" hidden="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="10" t="s">
         <v>142</v>
       </c>
@@ -5649,8 +7302,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.1" hidden="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -5682,8 +7335,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.1" hidden="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="10" t="s">
         <v>144</v>
       </c>
@@ -5716,7 +7369,7 @@
       <c r="A37" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -5751,7 +7404,7 @@
       <c r="A38" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="12" t="s">
         <v>147</v>
       </c>
@@ -5784,7 +7437,7 @@
       <c r="A39" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
@@ -5817,7 +7470,7 @@
       <c r="A40" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -5852,13 +7505,13 @@
       <c r="A41" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="43"/>
     </row>
     <row r="42" spans="1:11" ht="14.1" hidden="1">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="34" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -5890,8 +7543,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.1" hidden="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="13" t="s">
         <v>142</v>
       </c>
@@ -5921,8 +7574,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.1" hidden="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -5954,8 +7607,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.1" hidden="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="13" t="s">
         <v>142</v>
       </c>
@@ -5993,6 +7646,19 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
@@ -6005,19 +7671,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6032,90 +7685,91 @@
   </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="12.9" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.83984375" style="19"/>
     <col min="2" max="2" width="13.734375" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.15625" style="19" customWidth="1"/>
     <col min="4" max="4" width="16.1015625" style="19" customWidth="1"/>
     <col min="5" max="5" width="8.15625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="7.3125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="7.41796875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.26171875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.9453125" style="19" customWidth="1"/>
-    <col min="11" max="17" width="8.83984375" style="19"/>
+    <col min="6" max="6" width="6.68359375" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.3125" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7.41796875" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.26171875" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="7.9453125" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.83984375" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="17" width="8.83984375" style="19"/>
     <col min="18" max="19" width="17.3125" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.83984375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="47" customFormat="1" ht="36.9" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21" s="33" customFormat="1" ht="36.9" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="32" t="s">
         <v>232</v>
       </c>
     </row>
@@ -9631,7 +11285,7 @@
       </c>
     </row>
     <row r="76" spans="2:21">
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="48" t="s">
         <v>391</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -10065,22 +11719,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="12.9" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.83984375" style="19"/>
     <col min="2" max="2" width="13.734375" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.15625" style="19" customWidth="1"/>
     <col min="4" max="4" width="16.1015625" style="19" customWidth="1"/>
     <col min="5" max="5" width="8.15625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="7.3125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="7.41796875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.26171875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.9453125" style="19" customWidth="1"/>
-    <col min="11" max="17" width="8.83984375" style="19"/>
+    <col min="6" max="6" width="6.68359375" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.3125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7.41796875" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.26171875" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="7.9453125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="0" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="8.83984375" style="19" collapsed="1"/>
+    <col min="13" max="17" width="8.83984375" style="19"/>
     <col min="18" max="19" width="17.3125" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.83984375" style="19"/>
   </cols>
@@ -14096,22 +15752,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="12.9" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.83984375" style="19"/>
     <col min="2" max="2" width="13.734375" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.15625" style="19" customWidth="1"/>
     <col min="4" max="4" width="16.1015625" style="19" customWidth="1"/>
     <col min="5" max="5" width="8.15625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="7.3125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="7.41796875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.26171875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.9453125" style="19" customWidth="1"/>
-    <col min="11" max="17" width="8.83984375" style="19"/>
+    <col min="6" max="6" width="6.68359375" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.3125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7.41796875" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.26171875" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="7.9453125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="0" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="8.83984375" style="19" collapsed="1"/>
+    <col min="13" max="17" width="8.83984375" style="19"/>
     <col min="18" max="19" width="17.3125" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.83984375" style="19"/>
   </cols>
@@ -18186,24 +19844,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656AC8D2-3DC2-4042-BC7B-2C2328C97D54}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="12.9" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.83984375" style="19"/>
     <col min="2" max="2" width="13.734375" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.15625" style="19" customWidth="1"/>
     <col min="4" max="4" width="16.1015625" style="19" customWidth="1"/>
     <col min="5" max="5" width="8.15625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="7.3125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="7.41796875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.26171875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.9453125" style="19" customWidth="1"/>
-    <col min="11" max="17" width="8.83984375" style="19"/>
+    <col min="6" max="6" width="6.68359375" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.3125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7.41796875" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.26171875" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="7.9453125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="0" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="8.83984375" style="19" collapsed="1"/>
+    <col min="13" max="17" width="8.83984375" style="19"/>
     <col min="18" max="19" width="17.3125" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.83984375" style="19"/>
   </cols>
@@ -22154,4 +23814,186 @@
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0176187F-DC31-4CF0-B866-A70992D73C90}">
+  <dimension ref="F1:T85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetData>
+    <row r="1" spans="6:11">
+      <c r="K1" s="49" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2" spans="6:11">
+      <c r="K2" s="49" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="6:11">
+      <c r="F3" s="49"/>
+      <c r="K3" s="49" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="6:11">
+      <c r="K4" s="49" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" s="49" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="49" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" s="49" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="70" spans="19:20">
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70" s="49" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="71" spans="19:20">
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71" s="49" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="72" spans="19:20">
+      <c r="S72">
+        <v>3</v>
+      </c>
+      <c r="T72" s="49" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="73" spans="19:20">
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73" s="49" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74" spans="19:20">
+      <c r="S74">
+        <v>5</v>
+      </c>
+      <c r="T74" s="49" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="75" spans="19:20">
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75" s="49" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="76" spans="19:20">
+      <c r="S76">
+        <v>7</v>
+      </c>
+      <c r="T76" s="49" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="77" spans="19:20">
+      <c r="S77">
+        <v>8</v>
+      </c>
+      <c r="T77" s="49" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="78" spans="19:20">
+      <c r="S78">
+        <v>9</v>
+      </c>
+      <c r="T78" s="49" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="79" spans="19:20">
+      <c r="S79">
+        <v>10</v>
+      </c>
+      <c r="T79" s="49" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="80" spans="19:20">
+      <c r="S80">
+        <v>11</v>
+      </c>
+      <c r="T80" s="49" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="81" spans="19:20">
+      <c r="S81">
+        <v>12</v>
+      </c>
+      <c r="T81" s="49" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="82" spans="19:20">
+      <c r="S82">
+        <v>13</v>
+      </c>
+      <c r="T82" s="49" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="83" spans="19:20">
+      <c r="S83">
+        <v>14</v>
+      </c>
+      <c r="T83" s="51" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="84" spans="19:20">
+      <c r="S84">
+        <v>15</v>
+      </c>
+      <c r="T84" s="51" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="85" spans="19:20">
+      <c r="S85">
+        <v>16</v>
+      </c>
+      <c r="T85" s="51" t="s">
+        <v>732</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
+++ b/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\jym_product_manage\Doc\交易猫提供文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5668D-2AB4-4AF5-908E-28FD81D9A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BC2A7E-CBD2-461F-B762-BD855B306353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="746">
   <si>
     <t>游戏名称</t>
   </si>
@@ -90,501 +90,501 @@
   </si>
   <si>
     <t>firstCategoryId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>secondCategoryId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1440407481127586</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>platformId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>clientId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>serverIdList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1531903059072340, 1520564679426026, 1517377231343510, 1517377231343504, 1517377231343501, 1517377231343493, 1517377231342492, 1517377231342482, 1517377231342481, 1517377231342479, 1517377231342477, 1517377231342471, 1517377231341467, 1517377231341465, 1517377231341461, 1517377231341459, 1517377231341456, 1517377231340452, 1517377231340449, 1517377231340448, 1517377231340441, 1517377231340434, 1517377231339429, 1517377231339424, 1517377231339421, 1517377231339419, 1517377231339412, 1517377231338408, 1517377231338402, 1517377231338395, 1517377231338394, 1517377231338392, 1517377231338388, 1517377231337385, 1517377231337381, 1517377231337377, 1517377231337371, 1517377231337368, 1517377231336363, 1517377231336358, 1517377231336355, 1517377231336351, 1517377231336349, 1517377231335346, 1517377231335344, 1517377231335342, 1517377231335340, 1517377231335338, 1517377231335333, 1517377231334331, 1517377231334327, 1517377231334321, 1513927206134583, 1513927206133579, 1513927206133578, 1513927206133577, 1513927206132575, 1513927206132572, 1513927206132571, 1513927206132570, 1513927206132568, 1513927206132566, 1513927206132565, 1513927206131564, 1513927206131563, 1513927206131561, 1513927206131560, 1513927206131558, 1513927206131552, 1513927206130551, 1513927206130550, 1513927206130549, 1513927206130547, 1513927206130546, 1513927206130545, 1513927206130543, 1513927206129542, 1513927206129541, 1513927206129540, 1513927206129538, 1513927206129536, 1513927206129535, 1513927206128534, 1513927206128532, 1513927206128530, 1513927206127528, 1513927206127526, 1513927206127525, 1513927206127524, 1513927206127523, 1513927206127522, 1513927206127520, 1513927206126519, 1513927206126518, 1513927206126514, 1513927206126513, 1513927206126512, 1513927206126510, 1513927206125509, 1513927206125508, 1513927206125507, 1513927206125506, 1513927161515401, 1513927161514400, 1513927161514397, 1513927161514396, 1513927161514395, 1513927161514394, 1513927161514392, 1513927161514389, 1513927161513387, 1513927161513386, 1513927161513385, 1513927161513384, 1513927161513382, 1513927161513381, 1513927161513380, 1513927161512379, 1513927161512378, 1513927161512377, 1513927161512376, 1513927161512375, 1513927161512374, 1513927161512373, 1513927161512371, 1513927161511370, 1513927161511369, 1513927161511367, 1513927161511365, 1513927161511363, 1513927161511362, 1513927161511361, 1513927161510360, 1513927161510358, 1513927161510357, 1513927161510356, 1513927161510354, 1513927161510352, 1513927161509350, 1513927161509349, 1513927161509348, 1513927161509347, 1513927161509345, 1513927161509344, 1513927161509343, 1513927161508342, 1513927161508341, 1513927161508340, 1513927161508339, 1513927161508337, 1513927161508336, 1513927161507334, 1512550100923871, 1213664, 1213663, 1213662, 1213661, 1213660, 1213659, 1213658, 1213657, 1213656, 1213655, 1213654, 1213653, 1213652, 1213651, 1213650, 1213649, 1213648, 1213647, 1213646, 1213645, 1213644, 1213643, 1213642, 1213641, 1213640, 1213639, 1213638, 1213637, 1213636, 1213635, 1213634, 1213633, 1213632, 1213631, 1213630, 1213629, 1213628, 1213627, 1213626, 1213625, 1213624, 1213623, 1213622, 1213621, 937470, 937469, 937468, 937467, 937466, 937465, 937464, 937463, 937462, 937461, 937460, 937459, 937458, 937457, 937456, 937455, 937454, 937453, 937452, 937451, 937450, 937449, 937448, 937447, 937446, 937445, 937444, 937443, 937442, 937441, 937440, 937439, 937438, 937437, 937436, 937435, 937434, 937433, 937432, 937431, 937430, 937429, 937428, 937427, 937426, 937425, 937424, 937423, 937422, 937421, 937420, 937419, 937418, 937417, 937416, 937415, 937414, 937413, 937412, 937411, 937410, 937409, 937408, 937407, 937406, 937405, 849912, 849911, 849910, 849909, 849908, 849907, 849906, 849905, 849904, 849903, 849902, 849901, 849900, 849899, 849898, 849897, 849896, 849895, 849894, 849893, 849892, 849891, 849890, 849889, 849888, 849887, 849886, 849885, 849884, 849883, 849882, 849881, 849880, 849879, 849878,849877, 849876, 849875, 849874, 849873, 767437, 767436, 767435, 767434, 767433, 767432, 767431, 767430, 767429, 767428, 767427, 767426, 767425, 767424, 767423, 767422, 767421, 767420, 767419, 767418, 767417, 767416, 767415, 767414, 767413, 767412, 767411, 767410, 767409, 767408, 724467, 724466, 724465, 724464, 724463, 724462, 724461, 724460, 724459, 724458, 724457, 724456, 724455, 724454, 724453, 724452, 724451, 724450, 724449, 724448, 724447, 724446, 724445, 724444, 724443, 724442, 724441, 724440, 724439, 724438, 724437, 724436, 724435, 724434, 724433, 724432, 724431, 724430, 724429, 724428, 629740, 629739, 629738, 629737, 629736, 629735, 629734, 629733, 629732, 629731, 629730, 629729, 629728, 629727, 629726, 629725, 629724, 629723, 629722, 629721, 629720, 629719, 629718, 629717, 629716, 629715, 629714, 629713, 629712, 629711]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>gameId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1470047033047733</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1531903059072340, 1520565457289056, 1520565457289055, 1520565457289053, 1520565457289052, 1520565457289051, 1520565457289049, 1520565457289048, 1520565457288047, 1520565457288046, 1520565457288045, 1520565457288044, 1520565457288043, 1520565457288042, 1520565457288041, 1520565457287040, 1520565457287038, 1520565457287035, 1520565457287032, 1520565457287031, 1520565457287028, 1520565457287027, 1520565457287025, 1520565457286024, 1520565457286023, 1520565457286022, 1520565457286021, 1520565457286020, 1520565457286019, 1520565457286017, 1520565457286016, 1520565457285015, 1520565457285014, 1520565457285010, 1520565457285009, 1520565457284003, 1520565457284999, 1520565457284998, 1520565457284997, 1520565457284996, 1520565457284994, 1520565457283993, 1520565457283990, 1520565457283989, 1520565457283985, 1520565457283984, 1520565457283982, 1520565457283981, 1520565457282980, 1520565457282979, 1520565457282976, 1520565437178021, 1520565437178019, 1520565437178017, 1520565437178016, 1520565437178012, 1520565437177011, 1520565437177010, 1520565437176004, 1520565437176001, 1520565437175999, 1520565437175998, 1520565437175994, 1520565437175990, 1520565437174987, 1520565437174985, 1520565437174984, 1520565437174982, 1520565437174980, 1520565437174978, 1520565437174976, 1520565437173973, 1520565437173970, 1520565437173968, 1520565437173967, 1520565437173966, 1520565437173963, 1520565437172962, 1520565437172961, 1520565437172959, 1520565437172956, 1520565437172954, 1520565437172953, 1520565437172952, 1520565437171951, 1520565437171949, 1520565437171946, 1520565437171943, 1520565437171941, 1520565437171940, 1520565437170937, 1520565437170936, 1520565437170935, 1520565437170933, 1520565437170932, 1520565437170927, 1520565437169924, 1520565437169921, 1520565437169919, 1520565437169918, 1520565437169917, 1520565413160035, 1520565413160034, 1520565413160033, 1520565413160031, 1520565413160030, 1520565413160029, 1520565413160028, 1520565413160027, 1520565413159026, 1520565413159024, 1520565413159023, 1520565413159022, 1520565413159021, 1520565413159020, 1520565413159019, 1520565413159018, 1520565413159017, 1520565413159016, 1520565413159015, 1520565413158014, 1520565413158013, 1520565413158012, 1520565413158011, 1520565413158010, 1520565413158009, 1520565413158008, 1520565413158007, 1520565413158006, 1520565413158004, 1520565413158003, 1520565413157002, 1520565413157001, 1520565413157999, 1520565413157998, 1520565413157997, 1520565413156995, 1520565413156994, 1520565413156993, 1520565413156992, 1520565413156990, 1520565413156987, 1520565413156986, 1520565413156985, 1520565413156984, 1520565413155983, 1520565413155982, 1520565413155980, 1520565413155979, 1520565413155978, 1520565413155977, 1520565387477445, 1520565387477443, 1520565387476441, 1520565387476440, 1520565387476438, 1520565387476437, 1520565387476434, 1520565387476432, 1520565387476430, 1520565387476429, 1520565387476427, 1520565387475423, 1520565387475422, 1520565387475421, 1520565387475419, 1520565387475418, 1520565387475414, 1520565387475412, 1520565387475411, 1520565387475409, 1520564772841752, 1512550113721286, 1510736392178892, 1510736392178890, 1510736392178889, 1510736392178888, 1510736392178886, 1510736392177883, 1510736392177880, 1510736392177879, 1510736392177877, 1510736392177876, 1510736392176875, 1510736392176873, 1510736392176871, 1510736392176869, 1510736392176867, 1510736392176865, 1510736392175864, 1510736392175862, 1510736392175860, 1510736392175859, 1510736392175858, 1510736392175856, 1510736392175855, 1510736392174853, 1510736392174852, 1510736392174851, 1510736392174850, 1510736392174846, 1510736392173844, 1510736392173842, 1510736392173838, 1510736392173835, 1510736392173833, 1510736392173831, 1510736392172829, 1510736392172828, 1510736392172826, 1510736392172824, 1510736392172823, 1510736392172821, 1510736392172820, 1510736392172819, 1510736392171818, 1510736392171817, 1510736392171814, 1510736392171812, 1510736392170807, 1510736392170802, 1510736392170801, 1510736392170799, 1510736392170797, 1510736212235743, 1510736212235742, 1510736212235741, 1510736212235740, 1510736212234739, 1510736212234737, 1510736212234735, 1510736212234731, 1510736212234730, 1510736212234728, 1510736212233726, 1510736212233725, 1510736212233724, 1510736212233722, 1510736212233721, 1510736212233720, 1510736212232719, 1510736212232717, 1510736212232715, 1510736212232713, 1510736212232712, 1510736212232709, 1510736212231707, 1510736212231705, 1510736212231702, 1510736212231701, 1510736212231700, 1510736212231697, 1510736212231694, 1510736212230693, 1510736212230692, 1510736212230691, 1510736212230690, 1510736212230689, 1510736212230688, 1510736212230685, 1510736212229684, 1510736212229682, 1510736212229680, 1510736212229678, 1510736212229675, 1510736212229674, 1510736212229673, 1510736212229670, 1510736212228669, 1510736212228668, 1510736212228667, 1510736212228666, 1510736212228664, 1498479823532088, 1498479823532086, 1498479823532085, 1498479823532084, 1498479823532083, 1498479823532081, 1498479823532080, 1498479823531078, 1498479823531076, 1498479823531072, 1498479823531070, 1498479823531068, 1498479823531067, 1498479823531066, 1498479823530065, 1498479823530064, 1498479823530063, 1498479823530062, 1498479823530061, 1498479823530060, 1498479823530059, 1498479823530056, 1498479823529055, 1498479823529054, 1498479823529053, 1498479823529052, 1498479823529050, 1498479823529046, 1498479823528045, 1498479823528044, 1498479823528042, 1498479823528040, 1498479823528039, 1498479823528038, 1498479823528037, 1498479823527036, 1498479823527035, 1498479823527034, 1498479823527033, 1498479823527032, 1487511934651655, 1487511934651654, 1487511934651652, 1487511934650651, 1487511934650650, 1487511934650649, 1487511934650648, 1487511934650646, 1487511934650644, 1487511934650643, 1472176401666367, 1472176401666366, 1472176401666365, 1472176401666364, 1472176401666363, 1472176401666361, 1472176401666360, 1472176401665359, 1472176401665358, 1472176401665357, 1472176401665356, 1472176401665355, 1472176401665354, 1472176401665353, 1472176401664351, 1472176401664350, 1472176401664348, 1472176401664347, 1472176401664346, 1472176401664345, 1472176401664344, 1472176401663343, 1472176401663342, 1472176401663341, 1472176401663340, 1472176401663339, 1472176401663338, 1472176401663337, 1472176401662336, 1472176401662335, 1472176401662334, 1472176401662333, 1472176401662332, 1472176401662331, 1472176401662329, 1472176401662328, 1472176401661327, 1472176401661326, 1472176401661325, 1472176401661324, 1472176401661323, 1472176401661322, 1472176401661321, 1472176401661319, 1472176401660317, 1472176401660316, 1472176401660315, 1472176401660314, 1472176401660313, 1472176401660312, 1472176401660310, 1472176401659309, 1472176401659308, 1472176401659307, 1472176401659306, 1472176401659305, 1472176401659304, 1472176401659303, 1472176401659302, 1472176401658300, 1472176401658299, 1472176401658298, 1472176401658297, 1472176401658296, 1472176401658295, 1472176401658294, 1472176401658293, 1472176401657292, 1472176401657291, 1472176401657290, 1472176401657289, 1472176401657288, 1472176401657287, 1472176401657286, 1472176401657284, 1472176401656283, 1472176401656282, 1472176401656280, 1472176401656279, 1472176401656278, 817904]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1470047031280559</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1446451048723803</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1531903070868728, 1520565340141895, 1520565340141894, 1520565340141893, 1520565340141892, 1520565340140891, 1520565340140889, 1520565340140887, 1520565340140885, 1520565340140882, 1520565340140879, 1520565340140878, 1520565340139877, 1520565340139876, 1520565340139873, 1520565340139872, 1520565340139871, 1520565340139870, 1520565340138869, 1520565340138868, 1520565340138866, 1520565340138863, 1520565340138861, 1520565340138857, 1520565340137856, 1520565340137855, 1520565340137853, 1520565340137849, 1520565340136841, 1520565340136840, 1520565340136839, 1520565340136837, 1520565340136836, 1520565340136833, 1520565340136830, 1520565340135829, 1520565340135827, 1520565340135821, 1520565340135820, 1520565340135819, 1520565340135818, 1520565340135815, 1520565340134814, 1520565340134813, 1520565340134812, 1520565340134809, 1520565340134806, 1520565340134804, 1520565340134802, 1520565340134800, 1520565340133799, 1520565305855966, 1520565305854964, 1520565305854963, 1520565305854961, 1520565305854960, 1520565305854959, 1520565305853956, 1520565305853949, 1520565305853947, 1520565305853944, 1520565305853943, 1520565305853941, 1520565305852938, 1520565305852935, 1520565305852934, 1520565305852932, 1520565305852930, 1520565305852928, 1520565305852927, 1520565305852926, 1520565305851925, 1520565305851924, 1520565305851919, 1520565305851917, 1520565305851915, 1520565305851912, 1520565305851910, 1520565305850909, 1520565305850907, 1520565305850903, 1520565305850901, 1520565305850900, 1520565305850898, 1520565305849893, 1520565305849892, 1520565305849890, 1520565305849888, 1520565305849887, 1520565305849885, 1520565305849884, 1520565305848880, 1520565305848877, 1520565305848876, 1520565305848875, 1520565305848873, 1520565305848872, 1520565305847868, 1520565305847867, 1520565305847866, 1520565305847865, 1520564679426026, 1517377426627295, 1517377426627294, 1517377426627292, 1517377426627291, 1517377426627289, 1517377426626288, 1517377426626286, 1517377426626285, 1517377426626282, 1517377426626280, 1517377426626279, 1517377426625277, 1517377426625276, 1517377426625275, 1517377426625274, 1517377426625273, 1517377426625270, 1517377426624267, 1517377426624261, 1517377426624259, 1517377426623258, 1517377426623257, 1517377426623256, 1517377426623255, 1517377426623253, 1517377426623250, 1517377426622249, 1517377426622246, 1517377426622245, 1517377426622244, 1517377426622241, 1517377426622239, 1517377426621238, 1517377426621237, 1517377426621236, 1517377426621234, 1517377426621230, 1517377426620224, 1517377426620223, 1517377426620222, 1517377426620221, 1517377426620219, 1517377426620216, 1517377426619214, 1517377426619213, 1517377426619211, 1517377426619209, 1517377426619206, 1517377426619205, 1517377426618202, 1517377383212286, 1517377383212281, 1517377383212280, 1517377383212279, 1517377383212278, 1517377383212275, 1517377383211273, 1517377383211272, 1517377383211269, 1517377383211268, 1517377383211266, 1517377383211262, 1517377383211261, 1517377383211259, 1517377383211257, 1517377383210256, 1517377383210254, 1517377383210251, 1517377383210250, 1517377383210249, 1517377383210248, 1517377383210247, 1517377383210245, 1517377383210244, 1517377383210243, 1517377383209240, 1517377383209236, 1517377383209234, 1517377383209232, 1517377383209230, 1517377383209228, 1517377383209226, 1517377383209225, 1517377383209224, 1517377383208223, 1517377383208222, 1517377383208220, 1517377383208217, 1517377383208215, 1517377383208214, 1517377383208211, 1517377383208210, 1517377383208209, 1517377383208208, 1517377383207205, 1517377383207203, 1517377383207201, 1517377383207200, 1517377383207197, 1517377383207195, 1513927335090886, 1513927335090885, 1513927335090884, 1513927335090882, 1513927335090881, 1513927335090880, 1513927335090879, 1513927335090877, 1513927335090874, 1513927335090872, 1513927335089871, 1513927335089870, 1513927335089869, 1513927335089868, 1513927335089867, 1513927335089866, 1513927335089864, 1513927335089862, 1513927335089860, 1513927335089858, 1513927335088857, 1513927335088856, 1513927335088855, 1513927335088854, 1513927335088853, 1513927335088851, 1513927335088850, 1513927335088849, 1513927335088847, 1513927335087845, 1513927335087843, 1513927335087840, 1513927335087837, 1513927335087836, 1513927335087835, 1513927335087834, 1513927335087833, 1513927335087832, 1513927335086830, 1513927335086828, 1513927335086827, 1513927335086826, 1513927335086825, 1513927335086824, 1513927335086823, 1513927335086822, 1513927335086821, 1513927335086820, 1513927335085819, 1513927335085818, 1513927318881507, 1513927318880506, 1513927318880505, 1513927318880504, 1513927318880503, 1513927318880502, 1513927318880501, 1513927318880499, 1513927318879496, 1513927318879493, 1513927318879490, 1513927318879489, 1513927318879488, 1513927318879487, 1513927318879486, 1513927318878485, 1513927318878484, 1513927318878481, 1513927318878479, 1513927318878476, 1513927318878475, 1513927318878474, 1513927318877472, 1513927318877468, 1513927318877466, 1513927318877465, 1513927318877464, 1513927318877463, 1513927318877462, 1513927318877461, 1513927318876460, 1513927318876459, 1513927318876458, 1513927318876457, 1513927318876456, 1513927318876454, 1513927318876452, 1513927318876451, 1513927318875450, 1513927318875449, 1513927318875447, 1513927318875444, 1513927318875443, 1513927318875441, 1513927318875439, 1513927318874438, 1513927318874437, 1513927318874436, 1513927318874435, 1513927318874434, 1510736613738838, 1510736613738837, 1510736613738836, 1510736613738835, 1510736613738834, 1510736613738833, 1510736613738830, 1510736613738829, 1510736613738828, 1510736613737824, 1510736613737823, 1510736613737822, 1510736613737821, 1510736613737820, 1510736613737819, 1510736613737818, 1510736613737816, 1510736613737815, 1510736613736812, 1510736613736810, 1498479938502429, 1498479938502428, 1498479938502427, 1498479938501426, 1498479938501425, 1498479938501423, 1498479938501421, 1498479938501420, 1498479938501419, 1498479938501418, 1498479938501417, 1498479938501415, 1498479938501412, 1498479938500410, 1498479938500409, 1498479938500407, 1498479938500406, 1498479938500404, 1498479938500403, 1498479938500402, 1498479938500401, 1498479938500400, 1498479938499399, 1498479938499398, 1498479938499396, 1498479938499395, 1498479938499394, 1498479938499393, 1498479938499392, 1498479938499391, 1498479881164324, 1498479881164323, 1498479881164322, 1498479881164321, 1498479881164319, 1498479881164318, 1498479881164317, 1498479881164315, 1498479881163314, 1498479881163313, 1498479881163312, 1498479881163310, 1498479881163309, 1498479881163308, 1498479881163306, 1498479881162304, 1498479881162302, 1498479881162299, 1498479881162298, 1498479881162297, 1498479881161294, 817861, 817860, 817859, 817858, 817857, 817856, 817855, 817854, 817853, 817852, 817851, 817850, 817849, 817848, 817847, 817846, 817845, 817844, 817843, 817842, 817841, 817840, 817839, 817838, 817837, 817836, 817835, 817834, 718033, 817833, 718032, 718031, 718030, 718029, 718028, 718027, 718026, 718025, 718024, 718023, 718022, 718021, 718020, 718019, 718018, 718017, 718016,718015, 718014, 718013, 718012, 718011, 718010, 718009, 718008, 718007, 718006, 718005, 718004]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1513923383295718</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1499667551454656</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1531903070868728, 1520565539285187, 1520565539285185, 1520565539285184, 1520565539285180, 1520565539284179, 1520565539284178, 1520565539284177, 1520565539284175, 1520565539284173, 1520565539284172, 1520565539284171, 1520565539283169, 1520565539283168, 1520565539283164, 1520565539283162, 1520565539283161, 1520565539283159, 1520565539282157, 1520565539282153, 1520565539282152, 1520565539282151, 1520565539282149, 1520565539282147, 1520565539281145, 1520565539281143, 1520565539281140, 1520565539281138, 1520565539281135, 1520565539281134, 1520565539280133, 1520565539280132, 1520565539280129, 1520565539280127, 1520565539280125, 1520565539279122, 1520565539279120, 1520565539279118, 1520565539279115, 1520565539278112, 1520565539278107, 1520565539278106, 1520565539278103, 1520565539278102, 1520565539278100, 1520565539277099, 1520565539277096, 1520565539277093, 1520565539277091, 1520565539277089, 1520565539277086, 1520565519651677, 1520565519651676, 1520565519651675, 1520565519650674, 1520565519650672, 1520565519650671, 1520565519650670, 1520565519650667, 1520565519650665, 1520565519650664, 1520565519649663, 1520565519649662, 1520565519649660, 1520565519649659, 1520565519649658, 1520565519649655, 1520565519649652, 1520565519648651, 1520565519648650, 1520565519648649, 1520565519648648, 1520565519648646, 1520565519648645, 1520565519648643, 1520565519647642, 1520565519647639, 1520565519647638, 1520565519646636, 1520565519646634, 1520565519646631, 1520565519645629, 1520565519645626, 1520565519645624, 1520565519645623, 1520565519645622, 1520565519645621, 1520565519645620, 1520565519644618, 1520565519644617, 1520565519644616, 1520565519644615, 1520565519644612, 1520565519643611, 1520565519643610, 1520565519643608, 1520565519643606, 1520565519643605, 1520565519643603, 1520565519642602, 1520565519642600, 1520565499183983, 1520565499183982, 1520565499183980, 1520565499183978, 1520565499183977, 1520565499182975, 1520565499182973, 1520565499182971, 1520565499182970, 1520565499182969, 1520565499182968, 1520565499182967, 1520565499182966, 1520565499182963, 1520565499182961, 1520565499181960, 1520565499181959, 1520565499181957, 1520565499181956, 1520565499181955, 1520565499181953, 1520565499181951, 1520565499181950, 1520565499181949, 1520565499180946, 1520565499180945, 1520565499180943, 1520565499180942, 1520565499180940, 1520565499180939, 1520565499180938, 1520565499180937, 1520565499180935, 1520565499179934, 1520565499179932, 1520565499179931, 1520565499179929, 1520565499179927, 1520565499179926, 1520565499179924, 1520565499179923, 1520565499179922, 1520565499179921, 1520565499179920, 1520565499178918, 1520565499178917, 1520565499178916, 1520565499178915, 1520565499178914, 1520565499178910, 1520565482676345, 1520565482676344, 1520565482676343, 1520565482676342, 1520565482676341, 1520565482675339, 1520565482675336, 1520565482675334, 1520565482674333, 1520565482674331, 1520565482674327, 1520565482673326, 1520565482673325, 1520565482673321, 1520565482672320, 1520565482672318, 1520565482672317, 1520565482671314, 1520565482670311, 1520565482670309, 1520565482670307, 1520565482670306, 1520565482669303, 1520565482669300, 1520565482669298, 1520565482669296, 1520565482669295, 1520565482669294, 1520565482668293, 1520565482668292, 1520565482668290, 1520565482668288, 1520565482668285, 1520565482668283, 1520565482667279, 1520565482667278, 1520565482667277, 1520565482667276, 1520565482667275, 1520565482667274, 1520565482667273, 1520565482666272, 1520565482666271, 1520565482666267, 1520565482666264, 1520565482666262, 1520565482665260, 1520565482665258, 1520565482665257, 1520565482664254, 1520564772841752, 1513927403776737, 1513927403776733, 1513927403776729, 1513927403776727, 1513927403775725, 1513927403775722, 1513927403775720, 1513927403775718, 1513927403775717, 1513927403775715, 1513927403774714, 1513927403774712, 1513927403774711, 1513927403774709, 1513927403774708, 1513927403774704, 1513927403774702, 1513927403773700, 1513927403773699, 1513927403773698, 1513927403773695, 1513927403772694, 1513927403772692, 1513927403772691, 1513927403772689, 1513927403772686, 1513927403772685, 1513927403772683, 1513927403772682, 1513927403771680, 1513927403771679, 1513927403771678, 1513927403771677, 1513927403771676, 1513927403771675, 1513927403770673, 1513927403770671, 1513927403770670, 1513927403770668, 1513927403770667, 1513927403770664, 1513927403770663, 1513927403769661, 1513927403769660, 1513927403769659, 1513927403769658, 1513927403769657, 1513927403769655, 1513927403769654, 1513927403768651, 1513927388418232, 1513927388418231, 1513927388417229, 1513927388417227, 1513927388417225, 1513927388417224, 1513927388417223, 1513927388417221, 1513927388416220, 1513927388416219, 1513927388416218, 1513927388416216, 1513927388416211, 1513927388415209, 1513927388415208, 1513927388415206, 1513927388415205, 1513927388415203, 1513927388415202, 1513927388415201, 1513927388415200, 1513927388414198, 1513927388414196, 1513927388414195, 1513927388414193, 1513927388414191, 1513927388414189, 1513927388414187, 1513927388413184, 1513927388413183, 1513927388413182, 1513927388413181, 1513927388413178, 1513927388413177, 1513927388412176, 1513927388412174, 1513927388412173, 1513927388412172, 1513927388412171, 1513927388412170, 1513927388412168, 1513927388412167, 1513927388411166, 1513927388411164, 1513927388411161, 1513927388411159, 1513927388411156, 1513927388411155, 1513927388410154, 1513927388410153, 1510736665094776, 1510736665093774, 1510736665093773, 1510736665093772, 1510736665093770, 1510736665093769, 1510736665093768, 1510736665092766, 1510736665092765, 1510736665092764, 1510736665092763, 1510736665092762, 1510736665092760, 1510736665092758, 1510736665091757, 1510736665091756, 1510736665091755, 1510736665091752, 1510736665091751, 1510736665091750, 1498479938502429, 1498479938502428, 1498479938502427, 1498479938501426, 1498479938501425, 1498479938501423, 1498479938501421, 1498479938501420, 1498479938501419, 1498479938501418, 1498479938501417, 1498479938501415, 1498479938501412, 1498479938500410, 1498479938500409, 1498479938500407, 1498479938500406, 1498479938500404, 1498479938500403, 1498479938500402, 1498479938500401, 1498479938500400, 1498479938499399, 1498479938499398, 1498479938499396, 1498479938499395, 1498479938499394, 1498479938499393, 1498479938499392, 1498479938499391, 1495881343246451, 1495881343246449, 1495881343246447, 1495881343246446, 1495881343246445, 1495881343246444, 1495881343246443, 1495881343245442, 1495881343245441, 1495881343245440, 1495881343245439, 1495881343245438, 1495881343245436, 1495881343245435, 1495881343245434, 1495881343244432, 1495881343244431, 1495881343244430, 1495881343244429, 1495881343244428, 1495881343244426, 1495881343244425, 1495881343244424, 1495881343244423, 1495881343243422, 1495881343243421, 1495881343243420, 1495881343243419, 1495881343243418, 1495881343243417, 1495881343243416, 1495881343243415, 1495881343242414, 1495881343242413, 1495881343242411, 1495881343242410, 1495881343242409, 1495881343242408, 1495881343242406, 1495881343241405, 1495881343241404, 1495881343241403, 1495881343241399, 1495881343240398, 1495881343240396, 1495881343240395, 1495881343240394, 1495881343240393, 1495881343240392, 1495881343239391]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1518150861770568</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1470047031091455</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1555490599140856, 1539844286658920]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1557369570062607</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1535364157745866]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1518150879547002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1535364178344308]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1557369978908154</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1539844295575679]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1443494924291413</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[680750]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1499674340602797</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1513664764829926, 1499673572723335]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1449207252156632</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[769229]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1499674486180184</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1499673599536190]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1452156620238384</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1625831741020732, 1625831741019728, 1625831741018723, 1625831741018711, 1625831741017703, 1625831741016697, 1625831741015692, 1625831741015689, 1625831741014683, 1625831741013676, 1625831741013672, 1625831741012664, 1625831741011654, 1625831741010650, 1625831741010644, 1625831741009636, 1625831741008633, 1625831741008631, 1625831741007628, 1625831741006618, 1625831741006612, 1625831741005608, 1625831741004600, 1625831741003593, 1625831741003585, 1625831741002582, 1625831741001577, 1625831741001568, 1625831741000557, 1625831740999553, 1625831740999546, 1625831740998535, 1625831740997530, 1625831740996526, 1625831740996522, 1625831740995515, 1625831740994508, 1625831740994505, 1625831740993503, 1625831740992496, 1625831740992491, 1625831740991487, 1625831740990482, 1625831740989477, 1625831740989466, 1625831740988458, 1625831740987451, 1625831740986446, 1625831740986441, 1625831740985438, 1625831740984430, 1625831740984425, 1625831740983422, 1625831740982418, 1625831740982409, 1625831740981405, 1625831740980395, 1625831740979389, 1625831740979379, 1625831740978368, 1625831740977365, 1625831740977361, 1625831740976358, 1625831740975352, 1625831740975349, 1625831740974346, 1625831740973340, 1625831740972337, 1625831740972332, 1625831740971326, 1625831740970322, 1625831740970315, 1625831740969309, 1625831740968302, 1625831740967298, 1625831740967296, 1625831740966293, 1625831740965289, 1625831740965283, 1625831740964278, 1625831740963274, 1625831740963270, 1625831740962266, 1625831740961260, 1625831740960256, 1625831740960252, 1625831740959245, 1625831740958240, 1625831740958233, 1625831740957231, 1625831740956226, 1625831740956216, 1625831740955210, 1625831740954208, 1625831740953200, 1625831740953196, 1625831740952189, 1625831740951179, 1625831740951177, 1625831740950164, 1625831704909362, 1625831704908358, 1625831704907354, 1625831704907351, 1625831704906345, 1625831704906340, 1625831704905335, 1625831704904332, 1625831704904318, 1625831704903310, 1625831704903305, 1625831704902301, 1625831704902298, 1625831704901288, 1625831704900285, 1625831704900281, 1625831704899273, 1625831704898269, 1625831704898262, 1625831704897256, 1625831704897250, 1625831704896247, 1625831704895240, 1625831704895233, 1625831704894228, 1625831704894225, 1625831704893221, 1625831704892215, 1625831704892211, 1625831704891207, 1625831704891200, 1625831704890199, 1625831704889196, 1625831704889193, 1625831704888190, 1625831704887184, 1625831704887177, 1625831704886175, 1625831704886169, 1625831704885163, 1625831704884158, 1625831704884156, 1625831704883152, 1625831704883147, 1625831704882145, 1625831704882140, 1625831704881135, 1625831704880127, 1625831704880124, 1625831704879120, 1625831704879115, 1625831704878106, 1625831704877104, 1625831704877101, 1625831704876096, 1625831704876090, 1625831704875085, 1625831704874079, 1625831704874073, 1625831704873068, 1625831704873062, 1625831704872059, 1625831704871053, 1625831704871046, 1625831704870042, 1625831704870038, 1625831704869035, 1625831704868034, 1625831704868025, 1625831704867019, 1625831704867013, 1625831704866009, 1625831704865007, 1625831704865000, 1625831704864993, 1625831704863987, 1625831704862981, 1625831704862977, 1625831704861972, 1625831704861970, 1625831704860967, 1625831704859961, 1625831704859956, 1625831704858946, 1625831704858944, 1625831704857941, 1625831704857937, 1625831704856928, 1625831704855926, 1625831704855923, 1625831704854918, 1625831704853913, 1625831704853908, 1625831704852901, 1625831704852898, 1625831704851892, 1625831704850889, 1625831704850885, 1625831704849884, 1625831704849880, 1625831640306208, 1625831640305206, 1625831640305198, 1625831640304192, 1625831640303187, 1625831640303176, 1625831640302172, 1625831640302167, 1625831640301162, 1625831640300159, 1625831640300151, 1625831640299147, 1625831640299140, 1625831640298134, 1625831640297125, 1625831640297123, 1625831640296119, 1625831640296107, 1625831640295102, 1625831640294097, 1625831640294095, 1625831640293091, 1625831640293088, 1625831640292081, 1625831640291078, 1625831640291075, 1625831640290073, 1625831640290069, 1625831640289067, 1625831640288062, 1625831640288058, 1625831640287052, 1625831640287046, 1625831640286041, 1625831640285040, 1625831640285033, 1625831640284026, 1625831640279001, 1625831640279000, 1625831640277995, 1625831640277989, 1625831640276987, 1625831640275984, 1625831640275981, 1625831640274978, 1625831640274974, 1625831640273969, 1625831640273966, 1625831640272962, 1625831640271958, 1625831640271952, 1625831640270950, 1625831640270948, 1625831640269944, 1625831640268940, 1625831640268937, 1625831640267935, 1625831640267933, 1625831640266931, 1625831640266928, 1625831640265927, 1625831640264924, 1625831640264919, 1625831640263913, 1625831640263907, 1625831640262902, 1625831640261898, 1625831640261895, 1625831640260890, 1625831640260885, 1625831640259883, 1625831640258876, 1625831640258871, 1625831640257868, 1625831640257867, 1625831640256860, 1625831640255854, 1625831640255849, 1625831640254846, 1625831640254841, 1625831640253834, 1625831640252826, 1625831640252819, 1625831640251815, 1625831640251807, 1625831640250804, 1625831640250801, 1625831640249798, 1625831640248794, 1625831640248790, 1625831640247786, 1625831640247782, 1625831640246779, 1625831640245775, 1625831640245771, 1625831640244765, 1625831640244760, 1625831640243756, 1625831640242754, 1625831640242751, 1608606707083750, 1608606707082747, 1608606707082741, 1608606707081737, 1608606707081732, 1608606707080728, 1608606707080725, 1608606707079722, 1608606707079716, 1608606707079711, 1608606707078707, 1608606707078706, 1608606707077699, 1608606707077693, 1608606707076690, 1608606707076687, 1608606707075681, 1608606707074671, 1608606707074669, 1608606707073668, 1608606707073663, 1608606707072660, 1608606707072657, 1608606707071654, 1608606707071651, 1608606707070649, 1608606707070645, 1608606707069642, 1608606707069639, 1608606707068637, 1608606707068632, 1608606707068629, 1608606707067627, 1608606707067624, 1608606707066622, 1608606707066616, 1608606707065611, 1608606707065604, 1608606707064601, 1608606707064598, 1608606707063594, 1608606707063591, 1608606707062587, 1608606707062584, 1608606707061582, 1608606707061578, 1608606707060575, 1608606707060573, 1608606707059568, 1608606707059561, 1608606707058556, 1608606707058552, 1608606707057550, 1608606707057546, 1608606707056544, 1608606707056537, 1608606707055532, 1608606707055528, 1608606707054525, 1608606707054520, 1608606707053516, 1608606707053512, 1608606707052508, 1608606707052503, 1608606707051496, 1608606707051495, 1608606707050492, 1608606707050490, 1608606707049488, 1608606707049485, 1608606707048482, 1608606707048478, 1608606707048470, 1608606707047466, 1608606707047462, 1608606707046458, 1608606707046452, 1608606707045449, 1608606707045442, 1608606707044440, 1608606707044433, 1608606707043431, 1608606682162443, 1608606682161439, 1608606682161434, 1608606682160433, 1608606682160430, 1608606682159423, 1608606682159419, 1608606682158415, 1608606682158412, 1608606682157405, 1608606682156400, 1608606682156394, 1608606682155389, 1608606682155384, 1608606682154380, 1608606682154369, 1608606682153361, 1608606682152354, 1608606682152350, 1608606682151342, 1608606682151340, 1608606682150338, 1608606682150335, 1608606682149332, 1608606682149328, 1608606682148324, 1608606682148323, 1608606682147317, 1608606682147314, 1608606682146309, 1608606682146308, 1608606682145303, 1608606682144300, 1608606682144297, 1608606682143293, 1608606682143284, 1608606682142279, 1608606682142277, 1608606682141275, 1608606682141271, 1608606682140267, 1608606682140262, 1608606682139256, 1608606682138252, 1608606682138250, 1608606682137246, 1608606682137233, 1608606682136229, 1608606682136226, 1608606682135224, 1608606682135222, 1608606682134217, 1608606682134215, 1608606682133213, 1608606682133211, 1608606682132209, 1608606682131207, 1608606682131202, 1608606682130201, 1608606682130199, 1608606682129194, 1608606682129192, 1608606682128190, 1608606682128187, 1608606682127185, 1608606682127182, 1608606682126181, 1608606682126180, 1608606682125178, 1608606682125176, 1608606682124175, 1608606682124173, 1608606682123170, 1608606682122166, 1608606682122163, 1608606682121160, 1608606682121158, 1608606682120154, 1608606682120152, 1608606682119148, 1608606682119143, 1608606682118142, 1608606682118141, 1608606682117139, 1608606682117137, 1608606682116135, 1608606682116132, 1608606682115130, 1608606682115125, 1608606682114119, 1608606682113116, 1608606682113106, 1608606682112096, 1608606623964887, 1608606623963884, 1608606623963880, 1608606623962876, 1608606623962873, 1608606623961869, 1608606623960866, 1608606623960864, 1608606623959858, 1608606623958856, 1608606623958852, 1608606623957847, 1608606623957842, 1608606623956840, 1608606623955836, 1608606623955834, 1608606623954828, 1608606623954825, 1608606623953820, 1608606623952818, 1608606623952816, 1608606623951811, 1608606623950807, 1608606623950804, 1608606623949799, 1608606623949797, 1608606623948791, 1608606623947787, 1608606623947782, 1608606623946780, 1608606623945776, 1608606623945773, 1608606623944768, 1608606623944766, 1608606623943761, 1608606623942755, 1608606623942752, 1608606623941749, 1608606623940747, 1608606623940739, 1608606623939736, 1608606623938734, 1608606623938726, 1608606623937719, 1608606623936716, 1608606623936712, 1608606623935708, 1608606623935703, 1608606623934700, 1608606623933694, 1608606623933689, 1608606623932679, 1608606623931674, 1608606623931667, 1608606623930662, 1608606623929658, 1608606623929654, 1608606623928649, 1608606623928639, 1608606623927636, 1608606623926630, 1608606623926623, 1608606623925615, 1608606623924610, 1608606623924606, 1608606623923601, 1608606623923595, 1608606623922589, 1608606623921582, 1608606623921577, 1608606623920575, 1608606623920571, 1608606623919565, 1608606623918560, 1608606623918546, 1608606623917540, 1608606623916536, 1608606623916532, 1608606623915528, 1608606623914522, 1608606623914517, 1608606623913514, 1608606623913507, 1608606623912499, 1608606623911491, 1608606623911487, 1608606623910482, 1608606623910477, 1608606623909471, 1608606623908467, 1608606623908458, 1608606623907453, 1608606623906449, 1608606623906445, 1608606623905443, 1608606623905441, 1608606623904437, 1608606623903431, 1608606623903427, 1608606623902426, 1593604931016369, 1593604931016366, 1593604931016362, 1593604931015359, 1593604931015356, 1593604931014354, 1593604931014348, 1593604931014344, 1593604931013341, 1593604931013337, 1593604931013332, 1593604931012329, 1593604931012327, 1593604931011325, 1593604931011321, 1593604931009316, 1593604931009301, 1593604931009300, 1593604931008297, 1593604931008295, 1593604931008293, 1593604931007292, 1593604931007289, 1593604931007287, 1593604931006283, 1593604928419462, 1593604928418457, 1593604928418451, 1593604928418449, 1593604928417448, 1593604928417445, 1593604928417444, 1593604928417443, 1593604928416442, 1593604928416439, 1593604928416437, 1593604928415431, 1593604928415430, 1593604928414429, 1593604928414426, 1593604928414423, 1593604928413416, 1593604928413414, 1593604928413412, 1593604928413411, 1593604925333973, 1593604925333964, 1593604925332961, 1593604925332958, 1593604925332954, 1593604925331949, 1593604925331944, 1593604925331940, 1593604925330932, 1593604925330928, 1593604925329921, 1593604925329919, 1593604925329917, 1593604925328914, 1593604925328909, 1593604925328905, 1593604925327902, 1593604925327901, 1593604925327900, 1593604925326898, 1593604925326893, 1593604925326889, 1593604925326888, 1593604925325887, 1593604925325885, 1593604922179405, 1593604922179402, 1593604922178399, 1593604922178395, 1593604922178391, 1593604922177387, 1593604922177382, 1593604922177377, 1593604922177374, 1593604922176372, 1593604922176366, 1593604922176364, 1593604922175359, 1593604922175354, 1593604922174348, 1593604922174343, 1593604922173337, 1593604922173331, 1593604922173319, 1593604922173314, 1593604922172310, 1593604922172306, 1593604922172300, 1593604922172297, 1593604922171292, 1593604919089418, 1593604919088416, 1593604919088413, 1593604919087409, 1593604919087404, 1593604919087400, 1593604919086395, 1593604919086390, 1593604919086386, 1593604919086379, 1593604919085376, 1593604919085372, 1593604919085370, 1593604919084367, 1593604919084364, 1593604919084360, 1593604919083355, 1593604919083354, 1593604919083353, 1593604919083352, 1593604919082351, 1593604919082350, 1593604919082349, 1593604919082347, 1593604919082343, 1593604916077878, 1593604916076875, 1593604916075871, 1593604916075869, 1593604916074862, 1593604916074858, 1593604916074856, 1593604916074855, 1593604916074854, 1593604916073850, 1593604916073848, 1593604916072845, 1593604916072843, 1593604916072837, 1593604916071834, 1593604916071831, 1593604916071826, 1593604916071824, 1593604916070822, 1593604916070820, 1593604916070818, 1593604916070814, 1593604916069813, 1593604916069811, 1593604916068809, 1593604913114907, 1593604913114902, 1593604913114897, 1593604913114895, 1593604913113893, 1593604913113890, 1593604913112886, 1593604913112884, 1593604913112883, 1593604913112877, 1593604913111873, 1593604913111867, 1593604913111861, 1593604913110856, 1593604913110846, 1593604913110842, 1593604913109839, 1593604913109834, 1593604913109828, 1593604913109821, 1593604913108817, 1593604913108815, 1593604913108812, 1593604913107809, 1593604913107805, 1593604910064643, 1593604910063639, 1593604910062636, 1593604910062632, 1593604910062629, 1593604910062626, 1593604910062622, 1593604910061621, 1593604910061618, 1593604910060614, 1593604910060609, 1593604910060608, 1593604910059606, 1593604910059604, 1593604910059601, 1593604910058595, 1593604910055567, 1593604910055565, 1593604910054564, 1593604910054561, 1593604910054555, 1593604910054551, 1593604910053548, 1593604910053544, 1593604910053540, 1593604907028186, 1593604907028183, 1593604907027177, 1593604907027171, 1593604907027168, 1593604907026166, 1593604907026165, 1593604907026163, 1593604907026161, 1593604907025157, 1593604907024149, 1593604907023145, 1593604907023141, 1593604907022138, 1593604907022134, 1593604907022129, 1593604907021126, 1593604907021121, 1593604907020116, 1593604907020112, 1593604907019106, 1593604907016081, 1593604907015079, 1593604907015074, 1593604907014066, 1580807438689338, 1580807438688330, 1580807438681326, 1580807438681279, 1580807438681276, 1580807438680273, 1580807438680271, 1580807438680267, 1580807438680264, 1580807438679261, 1580807438679259, 1580807438679254, 1580807438678245, 1580807438678238, 1580807438678231, 1580807438678226, 1580807438677222, 1580807438677220, 1580807438677217, 1580807438677213, 1580807438676211, 1580807438676209, 1580807438676205, 1580807438676201, 1580807438675193, 1580807438675187, 1580807438675181, 1580807438674178, 1580807438674173, 1580807438674170, 1580807438673168, 1580807438673165, 1580807438673162, 1580807438673157, 1580807438672147, 1580807438672144, 1580807438672143, 1580807438671139, 1580807438671135, 1580807438671125, 1580807438671121, 1580807438670118, 1580807438670114, 1580807438670111, 1580807438669108, 1580807438669105, 1580807438669103, 1580807438669097, 1580807438668094, 1580807438668090, 1580807438668085, 1580807438667081, 1580807438667076, 1580807438667074, 1580807438666068, 1580807438666066, 1580807438666063, 1580807438666059, 1580807438665057, 1580807438665054, 1580807438664051, 1580807438664048, 1580807438664045, 1580807438663041, 1580807438663033, 1580807438663027, 1580807438662023, 1580807438662018, 1580807438662015, 1580807438661012, 1580807438661010, 1580807438661009, 1580807438661007, 1580807438661004, 1580807438661005, 1580807438660997, 1580807438659991, 1580807438659986, 1580807438659980, 1580807438658977, 1580807438658974, 1580807438658966, 1580807438658963, 1580807438658961, 1580807438657959, 1580807438657955, 1580807438656947, 1580807438656943, 1580807438655939, 1580807438655935, 1580807438655932, 1580807438655931, 1580807438655929, 1580807438654925, 1580807438654923, 1580807438654918, 1580807438653913, 1580807438653907, 1580807438653905, 1580807438653902, 1564041731593319, 1564041731592318, 1564041731592315, 1564041731592314, 1564041731592313, 1564041731591311, 1564041731591309, 1564041731591307, 1564041731591303, 1564041731591302, 1564041731590301, 1564041731590296, 1564041731590295, 1564041731589289, 1564041731589285, 1564041731589283, 1564041731589282, 1564041731588280, 1564041731588278, 1564041731588276, 1564041731588275, 1564041731588274, 1564041731587272, 1564041731587267, 1564041731587266, 1564041731587265, 1564041731586263, 1564041731586258, 1564041731586256, 1564041731586254, 1564041731586252, 1564041731585250, 1564041731585248, 1564041731585246, 1564041731585244, 1564041731585242, 1564041731584241, 1564041731584239, 1564041731584234, 1564041731584231, 1564041731584229, 1564041731583227, 1564041731583225, 1564041731583223, 1564041731583220, 1564041731583217, 1564041731583215, 1564041731582214, 1564041731582212, 1564041731582210, 1564041731582206, 1564041731582204, 1564041731581199, 1564041731581194, 1564041731581192, 1564041731581189, 1564041731580188, 1564041731580185, 1564041731580184, 1564041731580182, 1564041731580180, 1564041731579175, 1564041731579171, 1564041731579167, 1564041731579166, 1564041731578165, 1564041731578162, 1564041731578156, 1564041731578154, 1564041731577148, 1564041731577146, 1564041731577142, 1564041731576138, 1564041731576133, 1564041731576129, 1564041731575118, 1564041731575114, 1564041731575112, 1564041731574108, 1564041731574106, 1564041731574101, 1564041731574099, 1564041731574095, 1564041731573088, 1564041731573087, 1564041731573084, 1564041731573079, 1564041731572076, 1564041731572072, 1564041731571063, 1564041731571060, 1564041731570057, 1564041731570051, 1564041731570044, 1564041731570041, 1564041731569039, 1564041731569030, 1564041731569025, 1564041731569021, 1564041731569018, 1564041690938295, 1564041690938292, 1564041690937290, 1564041690937288, 1564041690937285, 1564041690937284, 1564041690937282, 1564041690937281, 1564041690936279, 1564041690936275, 1564041690936273, 1564041690936271, 1564041690936267, 1564041690935265, 1564041690935262, 1564041690935259, 1564041690935258, 1564041690935257, 1564041690935256, 1564041690934252, 1564041690934249, 1564041690934247, 1564041690934241, 1564041690933240, 1564041690933238, 1564041690933236, 1564041690933235, 1564041690933231, 1564041690933228, 1564041690932226, 1564041690932225, 1564041690932220, 1564041690932217, 1564041690932213, 1564041690931207, 1564041690931206, 1564041690931204, 1564041690931202, 1564041690931200, 1564041690931196, 1564041690930194, 1564041690930192, 1564041690930189, 1564041690930185, 1564041690930183, 1564041690930179, 1564041690929176, 1564041690929175, 1564041690929171, 1564041690929168, 1564041690929165, 1564041690928164, 1564041690928162, 1564041690928159, 1564041690928156, 1564041690928155, 1564041690928153, 1564041690927151, 1564041690927148, 1564041690927145, 1564041690927143, 1564041690927139, 1564041690927137, 1564041690926133, 1564041690926132, 1564041690926129, 1564041690926124, 1564041690926119, 1564041690925117, 1564041690925114, 1564041690925112, 1564041690925111, 1564041690925108, 1564041690925106, 1564041690924104, 1564041690924102, 1564041690924100, 1564041690924097, 1564041690924091, 1564041690924090, 1564041690924089, 1564041690923087, 1564041690923085, 1564041690923082, 1564041690923080, 1564041690923077, 1564041690923076, 1564041690922075, 1564041690922074, 1564041690922069, 1564041690922064, 1564041690922062, 1564041690921060, 1564041690921059, 1564041690921057, 1564041690921056, 1564041690921054, 1564041690921053, 1564041690920051, 1564041690920047, 1564041652437527, 1564041652437525, 1564041652437521, 1564041652437517, 1564041652437514, 1564041652436513, 1564041652436509, 1564041652436506, 1564041652436503, 1564041652436501, 1564041652435500, 1564041652435497, 1564041652435494, 1564041652435491, 1564041652434489, 1564041652434484, 1564041652434480, 1564041652434476, 1564041652433474, 1564041652433469, 1564041652433467, 1564041652433466, 1564041652433463, 1564041652432462, 1564041652432461, 1564041652432458, 1564041652432455, 1564041652432454, 1564041652431452, 1564041652431450, 1564041652431448, 1564041652431447, 1564041652431442, 1564041652430436, 1564041652430434, 1564041652430432, 1564041652430431, 1564041652430429, 1564041652429428, 1564041652429425, 1564041652429421, 1564041652429417, 1564041652429413, 1564041652428410, 1564041652428409, 1564041652428408, 1564041652428404, 1564041652428402, 1564041652427400, 1564041652427397, 1564041652427393, 1564041652427391, 1564041652427389, 1564041652426386, 1564041652426382, 1564041652426380, 1564041652426378, 1564041652426377, 1564041652425375, 1564041652425370, 1564041652425367, 1564041652425365, 1564041652425364, 1564041652425361, 1564041652424357, 1564041652424354, 1564041652424350, 1564041652424348, 1564041652424345, 1564041652423343, 1564041652423340, 1564041652423339, 1564041652423336, 1564041652423333, 1564041652423330, 1564041652422329, 1564041652422326, 1564041652422325, 1564041652422320, 1564041652422319, 1564041652421315, 1564041652421314, 1564041652421309, 1564041652421307, 1564041652421303, 1564041652420302, 1564041652420301, 1564041652420298, 1564041652420297, 1564041652420296, 1564041652420293, 1564041652419291, 1564041652419286, 1564041652419283, 1564041652419282, 1564041652419278, 1564041652418273, 1564041652418271, 1564041652418268, 1564041652418266, 1564041629335098, 1564041629334097, 1564041629334095, 1564041629334093, 1564041629334092, 1564041629334091, 1564041629333087, 1564041629333085, 1564041629333082, 1564041629333081, 1564041629333079, 1564041629333078, 1564041629332077, 1564041629332073, 1564041629332071, 1564041629332069, 1564041629332066, 1564041629331061, 1564041629331060, 1564041629331059, 1564041629331058, 1564041629331056, 1564041629331055, 1564041629330054, 1564041629330051, 1564041629330049, 1564041629330046, 1564041629330045, 1564041629330043, 1564041629329042, 1564041629329041, 1564041629329039, 1564041629329033, 1564041629329030, 1564041629328029, 1564041629328027, 1564041629328025, 1564041629328024, 1564041629328023, 1564041629328021, 1564041629327020, 1564041629327019, 1564041629327018, 1564041629327015, 1564041629327013, 1564041629326012, 1564041629326011, 1564041629326010, 1564041629326009, 1564041629326005, 1564041629325001, 1564041629325999, 1564041629325997, 1564041629325995, 1564041629324993, 1564041629324992, 1564041629324990, 1564041629324988, 1564041629324986, 1564041629323982, 1564041629323981, 1564041629323977, 1564041629323974, 1564041629323973, 1564041629322972, 1564041629322970, 1564041629322969, 1564041629322968, 1564041629322966, 1564041629322964, 1564041629321962, 1564041629321960, 1564041629321957, 1564041629321956, 1564041629321954, 1564041629320953, 1564041629320952, 1564041629320949, 1564041629320947, 1564041629320946, 1564041629319944, 1564041629319941, 1564041629319938, 1564041629319937, 1564041629319934, 1564041629319932, 1564041629318931, 1564041629318930, 1564041629318928, 1564041629318925, 1564041629318923, 1564041629317920, 1564041629317919, 1564041629317918, 1564041629317916, 1564041629317915, 1564041629317914, 1564041629316912, 1564041629316910, 1564041629316906, 1564041599156332, 1564041599156329, 1564041599156327, 1564041599156324, 1564041599155323, 1564041599155321, 1564041599155319, 1564041599155315, 1564041599155313, 1564041599155312, 1564041599154309, 1564041599154307, 1564041599154305, 1564041599154302, 1564041599154300, 1564041599154297, 1564041599153296, 1564041599153294, 1564041599153293, 1564041599153292, 1564041599153290, 1564041599153289, 1564041599152288, 1564041599152287, 1564041599152285, 1564041599152284, 1564041599152282, 1564041599152281, 1564041599151280, 1564041599151276, 1564041599151274, 1564041599151273, 1564041599151271, 1564041599151270, 1564041599150269, 1564041599150266, 1564041599150265, 1564041599150263, 1564041599150262, 1564041599150258, 1564041599149256, 1564041599149255, 1564041599149253, 1564041599149251, 1564041599149250, 1564041599149249, 1564041599148247, 1564041599148246, 1564041599148245, 1564041599148244, 1564041599148243, 1564041599148239, 1564041599147235, 1564041599147233, 1564041599147231, 1564041599147230, 1564041599147228, 1564041599147226, 1564041599146225, 1564041599146221, 1564041599146219, 1564041599146218, 1564041599146216, 1564041599146215, 1564041599145214, 1564041599145212, 1564041599145211, 1564041599145210, 1564041599145209, 1564041599145207, 1564041599144205, 1564041599144204, 1564041599144203, 1564041599144201, 1564041599144200, 1564041599144199, 1564041599143198, 1564041599143196, 1564041599143195, 1564041599143193, 1564041599143191, 1564041599143190, 1564041599142189, 1564041599142187, 1564041599142186, 1564041599142185, 1564041599142183, 1564041599141180, 1564041599141178, 1564041599141176, 1564041599141174, 1564041599141172, 1564041599141171, 1564041599140169, 1564041599140168, 1564041599140165, 1564041599140164, 1564041599140163, 1564041599140161, 1564041599139160, 1520840317758960, 1520840317758958, 1520840317758956, 1520840317758954, 1520840317758952, 1520840317758950, 1520840317757949, 1520840317757945, 1520840317757943, 1520840317757942, 1520840317757941, 1520840317757936, 1520840317756935, 1520840317756931, 1520840317756927, 1520840317755923, 1520840317755919, 1520840317755918, 1520840317755916, 1520840317755912, 1520840317755909, 1520840317754907, 1520840317754906, 1520840317754904, 1520840317754902, 1520840317754900, 1520840317754899, 1520840317754898, 1520840317753895, 1520840317753893, 1520840317753888, 1520840317753886, 1520840317753884, 1520840317752883, 1520840317752881, 1520840317752880, 1520840317752878, 1520840317752876, 1520840317752873, 1520840317751869, 1520840317751866, 1520840317751864, 1520840317751862, 1520840317751860, 1520840317751858, 1520840317750855, 1520840317750852, 1520840317750849, 1520840317750847, 1520840317750844, 1510051341917159, 1510051341916158, 1510051341916154, 1510051341916153, 1510051341916151, 1510051341916150, 1510051341916148, 1510051341916147, 1510051341915146, 1510051341915145, 1510051341915144, 1510051341915143, 1510051341915142, 1510051341915141, 1510051341915139, 1510051341915137, 1510051341914134, 1510051341914133, 1510051341914130, 1510051341914129, 1510051341914128, 1510051341914127, 1510051341913126, 1510051341913124, 1510051341913123, 1510051341913121, 1510051341913120, 1510051341913119, 1510051341912117, 1510051341912116, 1510051341912115, 1510051341912114, 1510051341912113, 1510051341912112, 1510051341912111, 1510051341911109, 1510051341911107, 1510051341911106, 1510051341911105, 1510051341911102, 1510051341911100, 1510051341910098, 1510051341910097, 1510051341910096, 1510051341910095, 1510051341910093, 1510051341910092, 1510051341909088, 1510051341909085, 1510051341909084, 1510051341909082, 1510051341909080, 1510051341909078, 1510051341908076, 1510051341908074, 1510051341908073, 1510051341908071, 1510051341908068, 1510051341908066, 1510051341907065, 1510051341907062, 1510051341907061, 1510051341907060, 1510051341907058, 1510051341907057, 1510051341907056, 1510051341906055, 1510051341906053, 1510051341906051, 1510051341906049, 1510051341906046, 1510051341905043, 1510051341905042, 1510051341905040, 1510051341905037, 1510051341905035, 1510051341904033, 1510051341904030, 1510051341904028, 1510051341904026, 1510051341904023, 1510051341903022, 1510051341903019, 1510051341903017, 1510051341903014, 1510051341902012, 1510051341902011, 1510051341902010, 1510051341902008, 1510051341901006, 1510051341901999, 1510051341900998, 1510051341900995, 1510051341900994, 1510051341900992, 1510051341900990, 1510051341899989, 1510051341899988, 1510051341899984, 1510051341899980, 1505299735861183, 1505299735861182, 1505299735861181, 1505299735861180, 1505299735861179, 1505299735861177, 1505299735860176, 1505299735860175, 1505299735860174, 1505299735860173, 1505299735860172, 1505299735860171, 1505299735860170, 1505299735860169, 1505299735860167, 1505299735860166, 1505299735860165, 1505299735859164, 1505299735859163, 1505299735859162, 1505299735859160, 1505299735859159, 1505299735859158, 1505299735859157, 1505299735859154, 1505299735859153, 1505299735859152, 1505299735858151, 1505299735858150, 1505299735858149, 1505299735858148, 1505299735858147, 1505299735858146, 1505299735858145, 1505299735858144, 1505299735858141, 1505299735858139, 1505299735858138, 1505299735857137, 1505299735857136, 1505299735857135, 1505299735857134, 1505299735857133, 1505299735857132, 1505299735857129, 1505299735857127, 1505299735857126, 1505299735856125, 1505299735856124, 1505299735856123, 1505299735856122, 1505299735856121, 1505299735856120, 1505299735856118, 1505299735856117, 1505299735856116, 1505299735856115, 1505299735855114, 1505299735855113, 1505299735855111, 1505299735855110, 1505299735855109, 1505299735855108, 1505299735855107, 1505299735855106, 1505299735855105, 1505299735855104, 1505299735855102, 1505299735854101, 1505299735854100, 1505299735854099, 1505299735854098, 1505299735854097, 1505299735854096, 1505299735854095, 1505299735854093, 1505299735853091, 1505299735853090, 1505299735853089, 1505299735853088, 1505299735853087, 1505299735853086, 1505299735853085, 1505299735853084, 1505299735853083, 1505299735853082, 1505299735853081, 1505299735852080, 1505299735852079, 1505299735852078, 1505299735852077, 1505299735852076, 1505299735852074, 1505299735852073, 1505299735852072, 1505299735852071, 1505299735852070, 1505299735851069, 1505299735851066, 1505299735851065, 1493708945034759, 1493708945034758, 1493708945034757, 1493708945034756, 1493708945034754, 1493708945033753, 1493708945033752, 1493708945033749, 1493708945033748, 1493708945033747, 1493708945033746, 1493708945033745, 1493708945033744, 1493708945033743, 1493708945032742, 1493708945032741, 1493708945032740, 1493708945032739, 1493708945032737, 1493708945032736, 1493708945032735, 1493708945032734, 1493708945032733, 1493708945032732, 1493708945031730, 1493708945031728, 1493708945031727, 1493708945031726, 1493708945031725, 1493708945031723, 1493708945031722, 1493708945031721, 1493708945031720, 1493708945030719, 1493708945030718, 1493708945030717, 1493708945030716, 1493708945030715, 1493708945030714, 1493708945030713, 1493708945030712, 1493708945030711, 1493708945030709, 1493708945030708, 1493708945029707, 1493708945029706, 1493708945029705, 1493708945029704, 1493708945029703, 1493708945029702, 1493708899793951, 1493708899793949, 1493708899793948, 1493708899793947, 1493708899793946, 1493708899792944, 1493708899792942, 1493708899792940, 1493708899792939, 1493708899792938, 1493708899792936, 1493708899792935, 1493708899792934, 1493708899791931, 1493708899791930, 1493708899791929, 1493708899791927, 1493708899791926, 1493708899791924, 1493708899791923, 1493708899791921, 1493708899791919, 1493708899791918, 1493708899790917, 1493708899790916, 1493708899790915, 1493708899790914, 1493708899790912, 1493708899790909, 1493708899790908, 1493708899790907, 1493708899790906, 1493708899789905, 1493708899789904, 1493708899789903, 1493708899789902, 1493708899789900, 1493708899789897, 1493708899789895, 1493708899789894, 1493708899788892, 1493708899788891, 1493708899788890, 1493708899788889, 1493708899788888, 1493708899788887, 1493708899788886, 1493708899788885, 1493708899788884, 1493708899787883, 1493708899787882, 1493708899787881, 1493708899787880, 1493708899787879, 1493708899787877, 1493708899787875, 1493708899787874, 1493708899786873, 1493708899786872, 1493708899786871, 1493708899786870, 1493708899786869, 1493708899786868, 1493708899786865, 1493708899786864, 1493708899786863, 1493708899785862, 1493708899785861, 1493708899785860, 1493708899785859, 1493708899785858, 1493708899785857, 1493708899785856, 1493708899785855, 1493708899785854, 1493708899784853, 1493708899784852, 1493708899784850, 1493708899784849, 1493708899784848, 1493708899784847, 1493708899784846, 1493708899784845, 1493708899784844, 1493708899784843, 1493708899783842, 1493708899783841, 1493708899783840, 1493708899783839, 1493708899783838, 1493708899783837, 1493708899783836, 1493708899783835, 1493708899783832, 1493708899782831, 1493708899782828, 1493708899782826, 1493708899782825, 1493708899782824, 1493708899782822, 1493708795734192, 1493708795734191, 1493708795734190, 1493708795734189, 1493708795733185, 1493708795733183, 1493708795733181, 1493708795733180, 1493708795733179, 1493708795733175, 1493708795733174, 1493708795732173, 1493708795732172, 1493708795732171, 1493708795732170, 1493708795732168, 1493708795732166, 1493708795732165, 1493708795731164, 1493708795731163, 1493708795731162, 1493708795731160, 1493708795731159, 1493708795731157, 1493708795731156, 149370</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1515759758426819</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1625831861467590, 1625831861466587, 1625831861466585, 1625831861465579, 1625831861464573, 1625831861464566, 1625831861463560, 1625831861463557, 1625831861462552, 1625831861461550, 1625831861461547, 1625831861460543, 1625831861459542, 1625831861459540, 1625831861458537, 1625831861458531, 1625831861457530, 1625831861456527, 1625831861456522, 1625831861455518, 1625831861455515, 1625831861454514, 1625831861453512, 1625831861453510, 1625831861452506, 1625831861451504, 1625831861451500, 1625831861450497, 1625831861450495, 1625831861449491, 1625831861448489, 1625831861448484, 1625831861447480, 1625831861447477, 1625831861446474, 1625831861445469, 1625831861445465, 1625831861444461, 1625831861444458, 1625831861443454, 1625831861442453, 1625831861442447, 1625831861441443, 1625831861440441, 1625831861440437, 1625831861439434, 1625831861439426, 1625831861438424, 1625831861437419, 1625831861437414, 1625831861436409, 1625831861436406, 1625831861435405, 1625831861434399, 1625831861434397, 1625831861433390, 1625831861432386, 1625831861432384, 1625831861431381, 1625831861431377, 1625831861430371, 1625831847330632, 1625831847329631, 1625831847329626, 1625831847328618, 1625831847328610, 1625831847327605, 1625831847326601, 1625831847326598, 1625831847325593, 1625831847325590, 1625831847324584, 1625831847323579, 1625831847323577, 1625831847322575, 1625831847322569, 1625831847321565, 1625831847321561, 1625831847320556, 1625831847319553, 1625831847319550, 1625831847318548, 1625831847318541, 1625831847317538, 1625831847317531, 1625831847316527, 1625831847315518, 1625831847315514, 1625831847314509, 1625831847314505, 1625831847313501, 1625831847312493, 1625831847312490, 1625831847311487, 1625831847311480, 1625831847310476, 1625831847310469, 1625831847309463, 1625831847308459, 1625831847308453, 1625831847307451, 1625831847307445, 1625831847306442, 1625831847305438, 1625831847305432, 1625831847304428, 1625831847304423, 1625831847303420, 1625831847303417, 1625831847302410, 1625831847301407, 1625831847301403, 1625831847300396, 1625831847300394, 1625831847299391, 1625831847298388, 1625831847298381, 1625831847297378, 1625831847297372, 1625831847296367, 1625831826786799, 1625831826785795, 1625831826785791, 1625831826784786, 1625831826783777, 1625831826783773, 1625831826782767, 1625831826781764, 1625831826780758, 1625831826780751, 1625831826779746, 1625831826778742, 1625831826777733, 1625831826777726, 1625831826776719, 1625831826775711, 1625831826775704, 1625831826774698, 1625831826773682, 1625831826773673, 1625831826772668, 1625831826771667, 1625831826770663, 1625831826770658, 1625831826769656, 1625831826768651, 1625831826768648, 1625831826767643, 1625831826766639, 1625831826765631, 1625831826765626, 1625831826764620, 1625831826763615, 1625831826763609, 1625831826762606, 1625831826761604, 1625831826760598, 1625831826760594, 1625831826759592, 1625831826758589, 1625831826758586, 1625831826757580, 1625831826756575, 1625831826755573, 1625831826755570, 1625831826754565, 1625831826753563, 1625831826753553, 1625831826752549, 1625831826751546, 1625831826750542, 1625831826750540, 1625831826749534, 1625831826748531, 1625831826748524, 1625831826747521, 1625831826746517, 1625831826745511, 1625831826745508, 1625831826744501, 1625831809074102, 1625831809073094, 1625831809073090, 1625831809072080, 1625831809072076, 1625831809071072, 1625831809070067, 1625831809070065, 1625831809069062, 1625831809069059, 1625831809068050, 1625831809068047, 1625831809067045, 1625831809066039, 1625831809066037, 1625831809065034, 1625831809065032, 1625831809064028, 1625831809064021, 1625831809063017, 1625831809062014, 1625831809062003, 1625831809061001, 1625831809061003, 1625831809059995, 1625831809059991, 1625831809058987, 1625831809058983, 1625831809057979, 1625831809057974, 1625831809056969, 1625831809055966, 1625831809055961, 1625831809054955, 1625831809054952, 1625831809053940, 1625831809053936, 1625831809052929, 1625831809051924, 1625831809051920, 1625831809050914, 1625831809050909, 1625831809049904, 1625831809049897, 1625831809048889, 1625831809047877, 1625831809047863, 1625831809046851, 1625831809046844, 1625831809045840, 1625831809044833, 1625831809044824, 1625831809043823, 1625831809043818, 1625831809042816, 1625831809041809, 1625831809041804, 1625831809040801, 1625831809040798, 1625831809039788, 1625831776241677, 1625831776241671, 1625831776240665, 1625831776239659, 1625831776239650, 1625831776238646, 1625831776237640, 1625831776237639, 1625831776236636, 1625831776236632, 1625831776235626, 1625831776234623, 1625831776234618, 1625831776233614, 1625831776232609, 1625831776232605, 1625831776231596, 1625831776231595, 1625831776230590, 1625831776229584, 1625831776229582, 1625831776228576, 1625831776227567, 1625831776227561, 1625831776226556, 1625831776225554, 1625831776225550, 1625831776224545, 1625831776224541, 1625831776223537, 1625831776222534, 1625831776222530, 1625831776221525, 1625831776220521, 1625831776220518, 1625831776219513, 1625831776218508, 1625831776218504, 1625831776217500, 1625831776217497, 1625831776216495, 1625831776215492, 1625831776215487, 1625831776214484, 1625831776213480, 1625831776213475, 1625831776212472, 1625831776212467, 1625831776211466, 1625831776210463, 1625831776210457, 1625831776209454, 1625831776209451, 1625831776208447, 1625831776207441, 1625831776207434, 1625831776206428, 1625831776205421, 1625831776205414, 1625831776204410, 1608607145407336, 1608607145406330, 1608607145405326, 1608607145405321, 1608607145404319, 1608607145403316, 1608607145403314, 1608607145402306, 1608607145401303, 1608607145401298, 1608607145400296, 1608607145400293, 1608607145399287, 1608607145398282, 1608607145398277, 1608607145397271, 1608607145396264, 1608607145396258, 1608607145395253, 1608607145394251, 1608607145394243, 1608607145393238, 1608607145392234, 1608607145391229, 1608607145391227, 1608607145390224, 1608607145389218, 1608607145389214, 1608607145388210, 1608607145387204, 1608607145387194, 1608607145386188, 1608607145385183, 1608607145385171, 1608607145384165, 1608607145383160, 1608607145383155, 1608607145382145, 1608607145382143, 1608607145381140, 1608607145380135, 1608607145379125, 1608607145379122, 1608607145378119, 1608607145377115, 1608607145377112, 1608607145376105, 1608607145376102, 1608607145375098, 1608607145374093, 1608607132292924, 1608607132292921, 1608607132291915, 1608607132291911, 1608607132290909, 1608607132290906, 1608607132289901, 1608607132289897, 1608607132288896, 1608607132287894, 1608607132287889, 1608607132286886, 1608607132286885, 1608607132285877, 1608607132285873, 1608607132284871, 1608607132284868, 1608607132283866, 1608607132283863, 1608607132282862, 1608607132282860, 1608607132281856, 1608607132280853, 1608607132280848, 1608607132279844, 1608607132279839, 1608607132278837, 1608607132278832, 1608607132277827, 1608607132277825, 1608607132276823, 1608607132275820, 1608607132275816, 1608607132274812, 1608607132274810, 1608607132273804, 1608607132273803, 1608607132272799, 1608607132272796, 1608607132271792, 1608607132271790, 1608607132270785, 1608607132270781, 1608607132269778, 1608607132269775, 1608607132268768, 1608607132267764, 1608607132267758, 1608607132266751, 1608607132266748, 1608607096197667, 1608607096197662, 1608607096196659, 1608607096195655, 1608607096195649, 1608607096194645, 1608607096194639, 1608607096193637, 1608607096192632, 1608607096192628, 1608607096191623, 1608607096190618, 1608607096190614, 1608607096189612, 1608607096188598, 1608607096188595, 1608607096187588, 1608607096186583, 1608607096186574, 1608607096185544, 1608607096156428, 1608607096156425, 1608607096155422, 1608607096154420, 1608607096154418, 1608607096153415, 1608607096152411, 1608607096152408, 1608607096151407, 1608607096150402, 1608607096150401, 1608607096149399, 1608607096148394, 1608607096148390, 1608607096147384, 1608607096147378, 1608607096146376, 1608607096145371, 1608607096145370, 1608607096144368, 1608607096143362, 1608607096143353, 1608607096142345, 1608607096141340, 1608607096141336, 1608607096140331, 1608607096139328, 1608607096139327, 1608607096138324, 1608607096137316, 1608607080357515, 1608607080356509, 1608607080356500, 1608607080355494, 1608607080355491, 1608607080355487, 1608607080354483, 1608607080353475, 1608607080353469, 1608607080352459, 1608607080352455, 1608607080351449, 1608607080351447, 1608607080351442, 1608607080350440, 1608607080349437, 1608607080349428, 1608607080348421, 1608607080348417, 1608607080348413, 1608607080347409, 1608607080346404, 1608607080346399, 1608607080345395, 1608607080345388, 1608607080344381, 1608607080344376, 1608607080343371, 1608607080343364, 1608607080342357, 1608607080342353, 1608607080341352, 1608607080341351, 1608607080340347, 1608607080340344, 1608607080339339, 1608607080339334, 1608607080339331, 1608607080338330, 1608607080338328, 1608607080337323, 1608607080337319, 1608607080336315, 1608607080336310, 1608607080335307, 1608607080335304, 1608607080334299, 1608607080334297, 1608607080333292, 1608607080333288, 1608606957805614, 1608606957805612, 1608606957804607, 1608606957804605, 1608606957803601, 1608606957803598, 1608606957802593, 1608606957802586, 1608606957801583, 1608606957801581, 1608606957800576, 1608606957800574, 1608606957799572, 1608606957799569, 1608606957798564, 1608606957798561, 1608606957797555, 1608606957797553, 1608606957796551, 1608606957796546, 1608606957795541, 1608606957795538, 1608606957794534, 1608606957794532, 1608606957793530, 1608606957793526, 1608606957792522, 1608606957792518, 1608606957791515, 1608606957791511, 1608606957790508, 1608606957790503, 1608606957789497, 1608606957789494, 1608606957788492, 1608606957788488, 1608606957787484, 1608606957787479, 1608606957786475, 1608606957786473, 1608606957785469, 1608606957785465, 1608606957784463, 1608606957784462, 1608606957784460, 1608606957783458, 1608606957783454, 1608606957782452, 1608606957782449, 1608606957781447, 1608606940282648, 1608606940282645, 1608606940281640, 1608606940280636, 1608606940280631, 1608606940279626, 1608606940278619, 1608606940278617, 1608606940277611, 1608606940277606, 1608606940276602, 1608606940275598, 1608606940275595, 1608606940274592, 1608606940273586, 1608606940273582, 1608606940272577, 1608606940272573, 1608606940271567, 1608606940270564, 1608606940270559, 1608606940269554, 1608606940268549, 1608606940268538, 1608606940267535, 1608606940267530, 1608606940266524, 1608606940265517, 1608606940265514, 1608606940264510, 1608606940263508, 1608606940263503, 1608606940262499, 1608606940262495, 1608606940261492, 1608606940260490, 1608606940260489, 1608606940259486, 1608606940258478, 1608606940258473, 1608606940257467, 1608606940256462, 1608606940256455, 1608606940255454, 1608606940255452, 1608606940254446, 1608606940253438, 1608606940253434, 1608606940252431, 1608606940252428, 1608606903185549, 1608606903185545, 1608606903185543, 1608606903184538, 1608606903184534, 1608606903183533, 1608606903183530, 1608606903182526, 1608606903182523, 1608606903181518, 1608606903181514, 1608606903180511, 1608606903180508, 1608606903179504, 1608606903179501, 1608606903178495, 1608606903177487, 1608606903177483, 1608606903177481, 1608606903176478, 1608606903176475, 1608606903175471, 1608606903175468, 1608606903174464, 1608606903174460, 1608606903173456, 1608606903173452, 1608606903172448, 1608606903172447, 1608606903171443, 1608606903171439, 1608606903170435, 1608606903170428, 1608606903169423, 1608606903169417, 1608606903169414, 1608606903168411, 1608606903168409, 1608606903167407, 1608606903167404, 1608606903166397, 1608606903166393, 1608606903165387, 1608606903165383, 1608606903164379, 1608606903164375, 1608606903163373, 1608606903163371, 1608606903163369, 1608606903162367, 1608606888588263, 1608606888588259, 1608606888587255, 1608606888586253, 1608606888586248, 1608606888585244, 1608606888585242, 1608606888584237, 1608606888584235, 1608606888583231, 1608606888583228, 1608606888582224, 1608606888582219, 1608606888581215, 1608606888580212, 1608606888580207, 1608606888579204, 1608606888579199, 1608606888578195, 1608606888577189, 1608606888577185, 1608606888576183, 1608606888576176, 1608606888575172, 1608606888575164, 1608606888574157, 1608606888573145, 1608606888573132, 1608606888572121, 1608606888572111, 1608606888571104, 1608606888570097, 1608606888570092, 1608606888569091, 1608606888569085, 1608606888568082, 1608606888568080, 1608606888567074, 1608606888566072, 1608606888566068, 1608606888565062, 1608606888565061, 1608606888564053, 1608606888564049, 1608606888563047, 1608606888563042, 1608606888562034, 1608606888561033, 1608606888561032, 1608606888560028, 1608606868636525, 1608606868635518, 1608606868635512, 1608606868634508, 1608606868634497, 1608606868633493, 1608606868632492, 1608606868632490, 1608606868631486, 1608606868630478, 1608606868630476, 1608606868629475, 1608606868629471, 1608606868628467, 1608606868627460, 1608606868627455, 1608606868626449, 1608606868625443, 1608606868625442, 1608606868624440, 1608606868623437, 1608606868623433, 1608606868622427, 1608606868621419, 1608606868621416, 1608606868620412, 1608606868620408, 1608606868619405, 1608606868618401, 1608606868618397, 1608606868617389, 1608606868616386, 1608606868616385, 1608606868615377, 1608606868615374, 1608606868614369, 1608606868613365, 1608606868613363, 1608606868612356, 1608606868612353, 1608606868611349, 1608606868610345, 1608606868610340, 1608606868609336, 1608606868609332, 1608606868608328, 1608606868607324, 1608606868607321, 1608606868606313, 1608606868605307, 1608606831246593, 1608606831245591, 1608606831245590, 1608606831244587, 1608606831243584, 1608606831243580, 1608606831242577, 1608606831242574, 1608606831241570, 1608606831240565, 1608606831240561, 1608606831239557, 1608606831239555, 1608606831238552, 1608606831237549, 1608606831237546, 1608606831236544, 1608606831236538, 1608606831235536, 1608606831234532, 1608606831234526, 1608606831233524, 1608606831232516, 1608606831232514, 1608606831231513, 1608606831231511, 1608606831230508, 1608606831229505, 1608606831229500, 1608606831228493, 1608606831228487, 1608606831227481, 1608606831226476, 1608606831226470, 1608606831225468, 1608606831224466, 1608606831224459, 1608606831223455, 1608606831223451, 1608606831222445, 1608606831221442, 1608606831221436, 1608606831220434, 1608606831219431, 1608606831219428, 1608606831218424, 1608606831218417, 1608606831217413, 1608606831216408, 1608606831216404, 1580807499725856, 1580807499725846, 1580807499724842, 1580807499724838, 1580807499724827, 1580807499723816, 1580807499723809, 1580807499723799, 1580807499723795, 1580807499722788, 1580807499722779, 1580807499722772, 1580807499721767, 1580807499721758, 1580807499720752, 1580807499720744, 1580807499720735, 1580807499720728, 1580807499719724, 1580807499719718, 1580807499718706, 1580807499718700, 1580807499718692, 1580807499718687, 1580807499717684, 1580807499717680, 1580807499717678, 1580807499717672, 1580807499716664, 1580807499716659, 1580807499716651, 1580807499715646, 1580807499715635, 1580807499715633, 1580807499714631, 1580807499714626, 1580807499714619, 1580807499714614, 1580807499713611, 1580807499713607, 1580807470249235, 1580807470248228, 1580807470248224, 1580807470248219, 1580807470247211, 1580807470247206, 1580807470246194, 1580807470246186, 1580807470246178, 1580807470245176, 1580807470245168, 1580807470244162, 1580807470244151, 1580807470244144, 1580807470243140, 1580807470243137, 1580807470243134, 1580807470242130, 1580807470242127, 1580807470242125, 1580807470242122, 1580807470241117, 1580807470241111, 1580807470241108, 1580807470240105, 1580807470240095, 1580807470239088, 1580807470239084, 1580807470239081, 1580807470238076, 1580807470238071, 1580807470238069, 1580807470238062, 1580807470237058, 1580807470237050, 1580807470237047, 1580807470236044, 1580807470236040, 1580807470236034, 1580807470235026, 1580807470235023, 1580807470235013, 1580807470234009, 1580807470234003, 1580807470235001, 1580807470233997, 1580807470233992, 1580807470233988, 1580807470233985, 1580807470232984, 1580807470232982, 1580807470232979, 1580807470232973, 1580807470231969, 1580807470231965, 1580807470231962, 1580807470230958, 1580807470230953, 1580807470229945, 1580807470229943, 1564042246450727, 1564042246450723, 1564042246450720, 1564042246450715, 1564042246449710, 1564042246449706, 1564042246449704, 1564042246449701, 1564042246449698, 1564042246448694, 1564042246448693, 1564042246448689, 1564042246448686, 1564042246448682, 1564042246448680, 1564042246447676, 1564042246447674, 1564042246447672, 1564042246447663, 1564042246447662, 1564042246446660, 1564042246446655, 1564042246446651, 1564042246446649, 1564042246446647, 1564042246446643, 1564042246445641, 1564042246445640, 1564042246445635, 1564042246445633, 1564042246445632, 1564042246444630, 1564042246444628, 1564042246444627, 1564042246444623, 1564042246444621, 1564042246444617, 1564042246443615, 1564042246443612, 1564042246443610, 1564042246443606, 1564042246443605, 1564042246442603, 1564042246442600, 1564042246442596, 1564042246442592, 1564042246442590, 1564042246441587, 1564042246441584, 1564042246441582, 1564042246441581, 1564042246441580, 1564042246441578, 1564042246440573, 1564042246440572, 1564042246440570, 1564042246440568, 1564042246440564, 1564042246440559, 1564042246439557, 1564042223481005, 1564042223481004, 1564042223482000, 1564042223481998, 1564042223481995, 1564042223480992, 1564042223480991, 1564042223480988, 1564042223480987, 1564042223480985, 1564042223479984, 1564042223479982, 1564042223479981, 1564042223479977, 1564042223479973, 1564042223478972, 1564042223478970, 1564042223478967, 1564042223478965, 1564042223478962, 1564042223478959, 1564042223477957, 1564042223477953, 1564042223477952, 1564042223477950, 1564042223477949, 1564042223476947, 1564042223476943, 1564042223476942, 1564042223476941, 1564042223476940, 1564042223476937, 1564042223476934, 1564042223475931, 1564042223475930, 1564042223475928, 1564042223475927, 1564042223475923, 1564042223475919, 1564042223474917, 1564042223474915, 1564042223474908, 1564042223474907, 1564042223474905, 1564042223474904, 1564042223473903, 1564042223473902, 1564042223473899, 1564042223473897, 1564042223473895, 1564042223472892, 1564042223472891, 1564042223472889, 1564042223472887, 1564042223472886, 1564042223472884, 1564042223471882, 1564042223471880, 1564042223471878, 1564042223471877, 1564042223471874, 1564042223470871, 1564042223470867, 1564042223470866, 1564042223470863, 1564042223470862, 1564042223470861, 1564042223469859, 1564042223469856, 1564042223469854, 1564042223469849, 1564042223469848, 1564042223468843, 1564042223468839, 1564042223468838, 1564042223468836, 1564042223468835, 1564042223468833, 1564042223467832, 1564042223467830, 1564042188192289, 1564042188192288, 1564042188192285, 1564042188192282, 1564042188192281, 1564042188192279, 1564042188191278, 1564042188191276, 1564042188191273, 1564042188191271, 1564042188191270, 1564042188191268, 1564042188190264, 1564042188190262, 1564042188190259, 1564042188190257, 1564042188190256, 1564042188190254, 1564042188189252, 1564042188189250, 1564042188189248, 1564042188189247, 1564042188189246, 1564042188188244, 1564042188188242, 1564042188188240, 1564042188188237, 1564042188188236, 1564042188188234, 1564042188187233, 1564042188187232, 1564042188187230, 1564042188187229, 1564042188187228, 1564042188186225, 1564042188186222, 1564042188186220, 1564042188186218, 1564042188186216, 1564042188186215, 1564042188185212, 1564042188185211, 1564042188185208, 1564042188185207, 1564042188185205, 1564042188185203, 1564042188184201, 1564042188184200, 1564042188184196, 1564042188184195, 1564042188184193, 1564042188184192, 1564042188183189, 1564042188183187, 1564042188183186, 1564042188183185, 1564042188183181, 1564042188183179, 1564042188182178, 1564042188182176, 1564042188182174, 1564042188182171, 1564042188182166, 1564042188181164, 1564042188181163, 1564042188181162, 1564042188181161, 1564042188181159, 1564042188181158, 1564042188180156, 1564042188180151, 1564042188180149, 1564042188180148, 1564042188180145, 1564042188180143, 1564042188179141, 1564042188179138, 1564042188179137, 1564042188179136, 1564042188179135, 1564042133781866, 1564042133781864, 1564042133781862, 1564042133781860, 1564042133781858, 1564042133781856, 1564042133780854, 1564042133780853, 1564042133780852, 1564042133780851, 1564042133780850, 1564042133780849, 1564042133779848, 1564042133779847, 1564042133779845, 1564042133779843, 1564042133779841, 1564042133778838, 1564042133778834, 1564042133778833, 1564042133778832, 1564042133778829, 1564042133778828, 1564042133777826, 1564042133777824, 1564042133777822, 1564042133777818, 1564042133777817, 1564042133776814, 1564042133776813, 1564042133776810, 1564042133776808, 1564042133776806, 1564042133776805, 1564042133775804, 1564042133775801, 1564042133775799, 1564042133775798, 1564042133774797, 1564042133774795, 1564042133774791, 1564042133774789, 1564042133774788, 1564042133773786, 1564042133773784, 1564042133773782, 1564042133773781, 1564042133773780, 1564042133773779, 1564042133772778, 1564042133772777, 1564042133772772, 1564042133772770, 1564042133772768, 1564042133771767, 1564042133771763, 1564042133771761, 1564042133771759, 1564042133771755, 1564042133770754, 1564042133770753, 1564042133770751, 1564042133770747, 1564042133770744, 1564042133769741, 1564042133769740, 1564042133769739, 1564042133769737, 1564042133769734, 1564042133768732, 1564042133768729, 1564042133768727, 1564042133768726, 1564042133768725, 1564042133768724, 1564042133767721, 1564042133767719, 1564042133767717, 1564042133767716, 1564042133767714, 1564041968281391, 1564041968281390, 1564041968281389, 1564041968280388, 1564041968280386, 1564041968280385, 1564041968280382, 1564041968280380, 1564041968279377, 1564041968279374, 1564041968279372, 1564041968279371, 1564041968279370, 1564041968279369, 1564041968278367, 1564041968278366, 1564041968278365, 1564041968278361, 1564041968278359, 1564041968277355, 1564041968277354, 1564041968277353, 1564041968277352, 1564041968277350, 1564041968277348, 1564041968276346, 1564041968276343, 1564041968276342, 1564041968276340, 1564041968276337, 1564041968275334, 1564041968275333, 1564041968275331, 1564041968275328, 1564041968275327, 1564041968275326, 1564041968274324, 1564041968274323, 1564041968274319, 1564041968274318, 1564041968274317, 1564041968274315, 1564041968273312, 1564041968273311, 1564041968273308, 1564041968273306, 1564041968273304, 1564041968273303, 1564041968272301, 1564041968272299, 1564041968272297, 1564041968272294, 1564041968272293, 1564041968272292, 1564041968271291, 1564041968271290, 1564041968271287, 1564041968271286, 1564041968271283, 1564041968271282, 1564041968270281, 1564041968270280, 1564041968270278, 1564041968270277, 1564041968270276, 1564041968270274, 1564041968269272, 1564041968269271, 1564041968269269, 1564041968269266, 1564041968269263, 1564041968268260, 1564041968268259, 1564041968268258, 1564041968268257, 1564041968268255, 1564041968268253, 1564041968267252, 1564041968267250, 1564041968267249, 1564041783903454, 1564041783903453, 1564041783903450, 1564041783902448, 1564041783902444, 1564041783902440, 1564041783902437, 1564041783902435, 1564041783901431, 1564041783901430, 1564041783901429, 1564041783901426, 1564041783901425, 1564041783901424, 1564041783901423, 1564041783900422, 1564041783900420, 1564041783900418, 1564041783900416, 1564041783900412, 1564041783899408, 1564041783899407, 1564041783899403, 1564041783899401, 1564041783899399, 1564041783898398, 1564041783898397, 1564041783898392, 1564041783898391, 1564041783898390, 1564041783898388, 1564041783897383, 1564041783897381, 1564041783897379, 1564041783897377, 1564041783896375, 1564041783896373, 1564041783896372, 1564041783896369, 1564041783896366, 1564041783896365, 1564041783895363, 1564041783895360, 1564041783895357, 1564041783895355, 1564041783895353, 1564041783895350, 1564041783894348, 1564041783894347, 1564041783894344, 1564041783894341, 1564041783894339, 1564041783894337, 1564041783893336, 1564041783893335, 1564041783893332, 1564041783893331, 1564041783893330, 1564041783892328, 1564041783892326, 1564041763364645, 1564041763364644, 1564041763364642, 1564041763364639, 1564041763364637, 1564041763364636, 1564041763363634, 1564041763363630, 1564041763363629, 1564041763363628, 1564041763363627, 1564041763363626, 1564041763362623, 1564041763362621, 1564041763362619, 1564041763362617, 1564041763362615, 1564041763362614, 1564041763361611, 1564041763361609, 1564041763361605, 1564041763361601, 1564041763361600, 1564041763361599, 1564041763360593, 1564041763360590, 1564041763360589, 1564041763360588, 1564041763360587, 1564041763360585, 1564041763359583, 1564041763359582, 1564041763359581, 1564041763359579, 1564041763359577, 1564041763359575, 1564041763358572, 1564041763358571, 1564041763358568, 1564041763358566, 1564041763358563, 1564041763358561, 1564041763357560, 1564041763357558, 1564041763357554, 1564041763357553, 1564041763357549, 1564041763356546, 1564041763356544, 1564041763356540, 1564041763356537, 1564041763356531, 1564041763356529, 1564041763355526, 1564041763355523, 1564041763355519, 1564041763355518, 1564041763355517, 1564041763355514, 1564041763354512, 1515759744738048, 1515759744738047, 1515759744737046, 1515759744737045, 1515759744737044, 1515759744737042, 1515759744737041, 1515759744737040, 1515759744737039, 1515759744736038, 1515759744736037, 1515759744736035, 1515759744736033, 1515759744736030, 1515759744736028, 1515759744735025, 1515759744735024, 1515759744735022, 1515759744735021, 1515759744735020, 1515759744735017, 1515759744735014, 1515759744734012, 1515759744734010, 1515759744734009, 1515759744734008, 1515759744734007, 1515759744734006, 1515759744733003, 1515759744733001, 1515759744733999, 1515759744733998, 1515759744733997, 1515759744732996, 1515759744732995, 1515759744732992, 1515759744732990, 1515759744732988, 1515759744732987, 1515759744732985, 1515759744731983, 1515759744731980, 1515759744731979, 1515759744731976, 1515759744731975, 1515759744731972, 1515759744730970, 1515759744730967, 1515759744730965, 1515759744730964, 1515759744730962, 1515759744729958, 1515759744729955, 1515759744729953, 1515759744729952, 1515759744729951, 1515759744729950, 1515759744728946, 1515759744728943, 1515759744728942, 1515759732735528, 1515759732735522, 1515759732735519, 1515759732734513, 1515759732734509, 1515759732734505, 1515759732734504, 1515759732734498, 1515759732734491, 1515759732733488, 1515759732733485, 1515759732733483, 1515759732733481, 1515759732732477, 1515759732732468, 1515759732732466, 1515759732732465, 1515759732732463, 1515759732732462, 1515759732732461, 1515759732731459, 1515759732731454, 1515759732731451, 1515759732731449, 1515759732731446, 1515759732731444, 1515759732730442, 1515759732730439, 1515759732730434, 1515759732730431, 1515759732730428, 1515759732730426, 1515759732729423, 1515759732729418, 1515759732729416, 1515759732729412, 1515759732729410, 1515759732728408, 1515759732728404, 1515759732728401, 1515759732728397, 1515759732728395, 1515759732728394, 1515759732727392, 1515759732727391, 1515759732727384, 1515759732727380, 1515759732727376, 1515759732726375, 1515759732726373, 1515759732726369, 1515759732726363, 1515759732726361, 1515759732725358, 1515759732725354, 1515759732725352, 1515759732725350, 1515759732725346, 1515759732725343, 1515759732724338, 1515759719249006, 1515759719250003, 1515759719249998, 1515759719249996, 1515759719249994, 1515759719248992, 1515759719248988, 1515759719248987, 1515759719248984, 1515759719248981, 1515759719248980, 1515759719248979, 1515759719248978, 1515759719248977, 1515759719248976, 1515759719247975, 1515759719247974, 1515759719247973, 1515759719247972, 1515759719247969, 1515759719247968, 1515759719247967, 1515759719247963, 1515759719246960, 1515759719246958, 1515759719246955, 1515759719246954, 1515759719246953, 1515759719246951, 1515759719246947, 1515759719245943, 1515759719245941, 1515759719245939, 1515759719245933, 1515759719245930, 1515759719245928, 1515759719244927, 1515759719244924, 1515759719244923, 1515759719244921, 1515759719244918, 1515759719244916, 1515759719244915, 1515759719243910, 1515759719243905, 1515759719243903, 1515759719243901, 1515759719243899, 1515759719243895, 1515759719243893, 1515759719242891, 1515759719242889, 1515759719242888, 1515759719242885, 1515759719242883, 1515759719242880, 1515759719242878, 1515759719242877, 1515759719242875, 1515759719242874, 1515759719241873, 1515759719241870, 1515759719241868, 1515759719241867, 1515759719241865, 1515759719241863, 1515759719241862, 1515759719241857, 1515759719241855, 1515759719240853, 1515759719240850, 1515759719240849, 1515759719240846, 1515759719240845, 1515759719240843, 1515759719240840, 1515759719239835, 1515759719239829, 1515759719239825, 1515759719239824, 1515759699631935, 1515759699631932, 1515759699631928, 1515759699630925, 1515759699630923, 1515759699630919, 1515759699630918, 1515759699630917, 1515759699630916, 1515759699630915, 1515759699629914, 1515759699629913, 1515759699629912, 1515759699629911, 1515759699629910, 1515759699629906, 1515759699628898, 1515759699628895, 1515759699628893, 1515759699628892, 1515759699628890, 1515759699627889, 1515759699627882, 1515759699627876, 1515759699627874, 1515759699627871, 1515759699627870, 1515759699627868, 1515759699626867, 1515759699626866, 1515759699626863, 1515759699626861, 1515759699626857, 1515759699626855, 1515759699625849, 1515759699625848, 1515759699625845, 1515759699625844, 1515759699625842, 1515759699624840, 1515759699624837, 1515759699624834, 1515759699624829, 1515759699624825, 1515759699624820, 1515759699623813, 1515759699623811, 1515759699623804, 1515759699622800, 1515759699622796, 1515759699622793, 1515759699622787, 1515759699622786, 1515759699621784, 1515759699621783, 1515759699621781, 1515759699621778, 1515759699621775, 1515759699621771, 1515759699620766, 1515759699620763, 1515759699620760, 1515759699620758, 1515759699620756, 1515759699620748, 1515759699619745, 1515759699619743, 1515759699619740, 1515759699619738, 1515759699619735, 1515759699618730, 1515759699618727, 1515759699618725, 1515759699618722, 1515759699618720, 1515759699618717, 1515759699617715, 1515759699617712, 1515759699617710, 1515759699617705, 1515759675935960, 1515759675935956, 1515759675935953, 1515759675935952, 1515759675935945, 1515759675934939, 1515759675934938, 1515759675934937, 1515759675934936, 1515759675934935, 1515759675933932, 1515759675933931, 1515759675933929, 1515759675933928, 1515759675933927, 1515759675933925, 1515759675933923, 1515759675932921, 1515759675932918, 1515759675932916, 1515759675932913, 1515759675932909, 1515759675931908, 1515759675931905, 1515759675931903, 1515759675931901, 1515759675931899, 1515759675930898, 1515759675930895, 1515759675930893, 1515759675930891, 1515759675930889, 1515759675930888, 1515759675930887, 1515759675929884, 1515759675929882, 1515759675929879, 1515759675929877, 1515759675929875, 1515759675929874, 1515759675928872, 1515759675928871, 1515759675928870, 1515759675928869, 1515759675928864, 1515759675928863, 1515759675927862, 1515759675927860, 1515759675927858, 1515759675927856, 1515759675927855, 1515759675927853, 1515759675926849, 1515759675926848, 1515759675926847, 1515759675926845, 1515759675926844, 1515759675926843, 1515759675926839, 1515759675925838, 1515759657126709, 1515759657126707, 1515759657126706, 1515759657126704, 1515759657126703, 1515759657126701, 1515759657126698, 1515759657126697, 1515759657126694, 1515759657125691, 1515759657125689, 1515759657125687, 1515759657125684, 1515759657125683, 1515759657125682, 1515759657125681, 1515759657125680, 1515759657125676, 1515759657124674, 1515759657124673, 1515759657124671, 1515759657124670, 1515759657124668, 1515759657124667, 1515759657124666, 1515759657124665, 1515759657124663, 1515759657124662, 1515759657124659, 1515759657123657, 1515759657123654, 1515759657123652, 1515759657123651, 1515759657123649, 1515759657123647, 1515759657123646, 1515759657123644, 1515759657122640, 1515759657122639, 1515759657122638, 1515759657122636, 1515759657122634, 1515759657122633, 1515759657122631, 1515759657122628, 1515759657122626, 1515759657122624, 1515759657121622, 1515759657121621, 1515759657121619, 1515759657121617, 1515759657121616, 1515759657121615, 1515759657121612, 1515759657120609, 1515759657120604, 1515759657120601, 1515759657120599, 1515759657120598, 1515759657120597, 1515759657120596, 1515759657120595, 1515759657120594, 1515759657120592, 1515759657119591, 1515759657119589, 1515759657119586, 1515759657119584, 1515759657119582, 1515759657119581, 1515759657119579, 1515759657119577, 1515759657119576, 1515759657118574, 1515759657118572, 1515759657118567, 1515759657118565, 1515759657117563, 1515759657117558, 1515759657117556, 151575</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1452156921629495</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1515759886924018</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1600047282383754</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1475997234386789</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1580902730218531]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1592828023532047</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1470047031112667</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1501069458181312</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1530758082299235, 1501051257602094, 1501051257602090, 1501051197474015, 1501051197474014, 1501051197474013, 1501051197474012, 1501051197474011, 1501051197474010, 1501051132449793, 1501051132449791, 1501051132449789, 1501051132449787, 1501051132449785, 1501051132449784, 1501051132448782, 1501051073342404, 1501051073342401, 1501051017017822, 1501050932015509, 1501050932015508, 1501050932015507, 1501050874688565, 1501050831078064, 1501050831078061, 1501050831078059, 1501050751335326, 1501050751335324, 1501050751335322, 1501050751334321, 1501050679283231, 1501050338811072, 1501050338810069, 1501050338810067, 1501050338810062, 1501050268534588, 1501050268534587, 1501050268534586, 1501050268533585, 1501050063367901, 1501050028147949, 1501050028147948, 1501049979598398, 1501049979598395, 1501049979598394, 1501049979597393, 1501049979597392, 1501049979597391, 1501049910905449, 1501049910905448, 1501049910904447, 1501049836058480, 1501049836058479, 1501049786098329, 1501049786097328, 1501049786097326, 1501049742285472, 1501049742285471, 1501049686959801, 1501049686958799, 1501049686958798, 1501049646837709, 1501049646837708, 1501049646836707, 1501049598987188, 1501049598987187, 1501049598987186, 1501049549654454, 1501049549654453, 1501049549654452, 1501049549653451, 1501049549653450, 1501049549653449, 1501049484283627, 1501049484283626, 1501049484283625, 1501049484283624, 1501049484282623, 1501049484282622, 1501049484282621, 1501049402062054, 1501049402062052, 1501049402062051, 1501049402061050, 1501048949557040, 1501048949557039, 1501048949556036, 1501048949556035, 1501048949556034, 1501048949556032, 1501048949556031, 1501048949556030, 1501048899370292, 1501048899370290, 1501048899370289, 1501048899370288, 1501048899370287, 1501048899369286, 1501048899369284, 1501048841454611, 1501048841454610, 1501048841454609, 1501048841454607, 1501048653182276, 1501048653181275, 1501048653181274, 1501048653181273, 1501048653181272, 1501048653181270, 1501048653181268, 1501048653180267, 1501048653180266, 1501048653180264, 1501048653180263, 1501048653180262, 1501048653180261, 1501048653180259]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1500465026108124</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1472625225736942</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1517384142749498, 1500544100659844, 1500544100659842, 1500530737314623, 1500530737313622, 1500530737313621, 1500530737313620, 1500530737313618, 1500530737313615, 1500530737313614, 1500530737313612, 1500530737312610, 1500530737312608, 1500530737312607, 1500530737312603, 1500530737312601, 1500450488530356, 1500450488530355, 1500450488530354, 1500450488530353, 1500450488530352, 1500450488529351, 1500450488529349, 1500450488529347, 1500450488529346, 1500450488529344, 1500450488529342, 1500450488529341, 1500450488528338]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1502711710536136</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1502794170131901, 1502794170131900, 1502794134890016, 1502793781464216, 1502793781464213, 1502793781463212, 1502793781463211, 1502793568305748, 1502793568305747, 1502793568305746, 1502793568305745, 1502793568305744, 1502793568305743, 1502793528987110, 1502793528986109, 1502793528986107, 1502793528986106, 1502793528986105, 1502793488311854, 1502793488310852, 1502793465928256, 1502793465928255, 1502793465927253, 1502793465927252, 1502793465927251, 1502793432508973, 1502793432508972, 1502793432507970, 1502793432507968, 1502793432507967, 1502793432507966, 1502793358964061, 1502793358964059, 1502793358964058, 1502793358963056, 1502793358963055, 1502793358963053, 1502793115319926, 1502793115319925, 1502793115318924, 1502793115318922, 1502793115318921]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1603009208674567</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1513934520563789</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1626244142769441, 1625551737217697, 1625193787211941, 1619601521876510, 1619598039033759, 1603009174104697, 1603009174104695, 1603009174104692, 1603009174104691, 1603009174103689, 1603009174103688, 1603009174103685, 1603009174103684, 1603009174103681, 1603009174102678, 1603009174102677]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1628833462316548</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1503978198947252</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1628833427073986, 1628833427072973, 1628833427072957, 1628833427071950, 1628833427071942]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1566980103287826</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1483440944168883</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1585625760885898, 1585624934358848, 1575947453297773, 1572838069026832, 1572838069026831, 1572838069026829, 1572838069025828, 1572838069025826, 1572838069025824, 1572838069024821, 1572838069024817, 1572838069024815, 1572838069023812, 1572838069023810, 1572838069023809, 1572838069023806, 1572838069022804, 1572838069021802, 1572838069021800, 1572838069021799, 1572838069021795, 1572838069020791, 1572838069020788, 1572838069020787, 1572838069020783, 1572838069019781, 1572838069019779, 1572838069019778, 1572838069019777, 1572838069018774, 1572838069018772, 1572838069018770, 1566978493087351, 1566978493087349, 1566978493087343, 1566978493086342, 1566978493086339, 1566978493086337, 1566978493086336, 1566978493086334, 1566978493086332, 1566978493085329, 1566978493085327, 1566978493085326, 1566978493085323, 1566978493085321, 1566978493085320, 1566978493084318, 1566978493084316, 1566978493084312, 1566978493084309, 1566978493084306, 1566978493084302, 1566978493083301, 1566978493083300, 1566978493083296, 1566978493083294, 1566978493083291, 1566978493083289, 1566978493082286, 1566978493082283, 1566978493082282, 1566978493082280, 1566978493082278, 1566978493082276, 1566978493081273, 1566978493081268, 1566978493081266, 1566978493081263, 1566978493081260]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>永恒之塔怀旧服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新天龙八部怀旧服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>畅游帐号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>穿越火线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄联盟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>地下城与勇士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原神</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>QQ帐号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1498637774415673</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战网帐号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>盛趣帐号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>米哈游帐号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>苹果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>安卓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>微信帐号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>serverId与服务器名称映射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903059072340, name=安卓全平台通用), GoodsServerSimpleDTO(id=1520565457289056, name=安卓微信400区), GoodsServerSimpleDTO(id=1520565457289055, name=安卓微信399区), GoodsServerSimpleDTO(id=1520565457289053, name=安卓微信398区), GoodsServerSimpleDTO(id=1520565457289052, name=安卓微信397区), GoodsServerSimpleDTO(id=1520565457289051, name=安卓微信396区), GoodsServerSimpleDTO(id=1520565457289049, name=安卓微信395区), GoodsServerSimpleDTO(id=1520565457289048, name=安卓微信394区), GoodsServerSimpleDTO(id=1520565457288047, name=安卓微信393区), GoodsServerSimpleDTO(id=1520565457288046, name=安卓微信392区), GoodsServerSimpleDTO(id=1520565457288045, name=安卓微信391区), GoodsServerSimpleDTO(id=1520565457288044, name=安卓微信390区), GoodsServerSimpleDTO(id=1520565457288043, name=安卓微信389区), GoodsServerSimpleDTO(id=1520565457288042, name=安卓微信388区), GoodsServerSimpleDTO(id=1520565457288041, name=安卓微信387区), GoodsServerSimpleDTO(id=1520565457287040, name=安卓微信386区), GoodsServerSimpleDTO(id=1520565457287038, name=安卓微信385区), GoodsServerSimpleDTO(id=1520565457287035, name=安卓微信384区), GoodsServerSimpleDTO(id=1520565457287032, name=安卓微信383区), GoodsServerSimpleDTO(id=1520565457287031, name=安卓微信382区), GoodsServerSimpleDTO(id=1520565457287028, name=安卓微信381区), GoodsServerSimpleDTO(id=1520565457287027, name=安卓微信380区), GoodsServerSimpleDTO(id=1520565457287025, name=安卓微信379区), GoodsServerSimpleDTO(id=1520565457286024, name=安卓微信378区), GoodsServerSimpleDTO(id=1520565457286023, name=安卓微信377区), GoodsServerSimpleDTO(id=1520565457286022, name=安卓微信376区), GoodsServerSimpleDTO(id=1520565457286021, name=安卓微信375区), GoodsServerSimpleDTO(id=1520565457286020, name=安卓微信374区), GoodsServerSimpleDTO(id=1520565457286019, name=安卓微信373区), GoodsServerSimpleDTO(id=1520565457286017, name=安卓微信372区), GoodsServerSimpleDTO(id=1520565457286016, name=安卓微信371区), GoodsServerSimpleDTO(id=1520565457285015, name=安卓微信370区), GoodsServerSimpleDTO(id=1520565457285014, name=安卓微信369区), GoodsServerSimpleDTO(id=1520565457285010, name=安卓微信368区), GoodsServerSimpleDTO(id=1520565457285009,name=安卓微信367区), GoodsServerSimpleDTO(id=1520565457284003, name=安卓微信366区), GoodsServerSimpleDTO(id=1520565457284999, name=安卓微信365区), GoodsServerSimpleDTO(id=1520565457284998, name=安卓微信364区), GoodsServerSimpleDTO(id=1520565457284997, name=安卓微信363区), GoodsServerSimpleDTO(id=1520565457284996, name=安卓微信362区), GoodsServerSimpleDTO(id=1520565457284994, name=安卓微信361区), GoodsServerSimpleDTO(id=1520565457283993, name=安卓微信360区), GoodsServerSimpleDTO(id=1520565457283990, name=安卓微信359区), GoodsServerSimpleDTO(id=1520565457283989, name=安卓微信358区), GoodsServerSimpleDTO(id=1520565457283985, name=安卓微信357区), GoodsServerSimpleDTO(id=1520565457283984, name=安卓微信356区), GoodsServerSimpleDTO(id=1520565457283982, name=安卓微信355区), GoodsServerSimpleDTO(id=1520565457283981, name=安卓微信354区), GoodsServerSimpleDTO(id=1520565457282980, name=安卓微信353区), GoodsServerSimpleDTO(id=1520565457282979, name=安卓微信352区), GoodsServerSimpleDTO(id=1520565457282976, name=安卓微信351区), GoodsServerSimpleDTO(id=1520565437178021, name=安卓微信350区), GoodsServerSimpleDTO(id=1520565437178019, name=安卓微信349区), GoodsServerSimpleDTO(id=1520565437178017, name=安卓微信348区), GoodsServerSimpleDTO(id=1520565437178016, name=安卓微信347区), GoodsServerSimpleDTO(id=1520565437178012, name=安卓微信346区), GoodsServerSimpleDTO(id=1520565437177011, name=安卓微信345区), GoodsServerSimpleDTO(id=1520565437177010, name=安卓微信344区), GoodsServerSimpleDTO(id=1520565437176004, name=安卓微信343区), GoodsServerSimpleDTO(id=1520565437176001, name=安卓微信342区), GoodsServerSimpleDTO(id=1520565437175999, name=安卓微信341区), GoodsServerSimpleDTO(id=1520565437175998, name=安卓微信340区), GoodsServerSimpleDTO(id=1520565437175994, name=安卓微信339区), GoodsServerSimpleDTO(id=1520565437175990,name=安卓微信338区), GoodsServerSimpleDTO(id=1520565437174987, name=安卓微信337区), GoodsServerSimpleDTO(id=1520565437174985, name=安卓微信336区), GoodsServerSimpleDTO(id=1520565437174984, name=安卓微信335区), GoodsServerSimpleDTO(id=1520565437174982, name=安卓微信334区), GoodsServerSimpleDTO(id=1520565437174980, name=安卓微信333区), GoodsServerSimpleDTO(id=1520565437174978, name=安卓微信332区), GoodsServerSimpleDTO(id=1520565437174976, name=安卓微信331区), GoodsServerSimpleDTO(id=1520565437173973, name=安卓微信330区), GoodsServerSimpleDTO(id=1520565437173970, name=安卓微信329区), GoodsServerSimpleDTO(id=1520565437173968, name=安卓微信328区), GoodsServerSimpleDTO(id=1520565437173967, name=安卓微信327区), GoodsServerSimpleDTO(id=1520565437173966, name=安卓微信326区), GoodsServerSimpleDTO(id=1520565437173963, name=安卓微信325区), GoodsServerSimpleDTO(id=1520565437172962, name=安卓微信324区), GoodsServerSimpleDTO(id=1520565437172961, name=安卓微信323区), GoodsServerSimpleDTO(id=1520565437172959, name=安卓微信322区), GoodsServerSimpleDTO(id=1520565437172956, name=安卓微信321区), GoodsServerSimpleDTO(id=1520565437172954, name=安卓微信320区), GoodsServerSimpleDTO(id=1520565437172953, name=安卓微信319区), GoodsServerSimpleDTO(id=1520565437172952, name=安卓微信318区), GoodsServerSimpleDTO(id=1520565437171951, name=安卓微信317区), GoodsServerSimpleDTO(id=1520565437171949, name=安卓微信316区), GoodsServerSimpleDTO(id=1520565437171946, name=安卓微信315区), GoodsServerSimpleDTO(id=1520565437171943, name=安卓微信314区), GoodsServerSimpleDTO(id=1520565437171941, name=安卓微信313区), GoodsServerSimpleDTO(id=1520565437171940, name=安卓微信312区), GoodsServerSimpleDTO(id=1520565437170937, name=安卓微信311区), GoodsServerSimpleDTO(id=1520565437170936, name=安卓微信310区), GoodsServerSimpleDTO(id=1520565437170935,name=安卓微信309区), GoodsServerSimpleDTO(id=1520565437170933, name=安卓微信308区), GoodsServerSimpleDTO(id=1520565437170932, name=安卓微信307区), GoodsServerSimpleDTO(id=1520565437170927, name=安卓微信306区), GoodsServerSimpleDTO(id=1520565437169924, name=安卓微信305区), GoodsServerSimpleDTO(id=1520565437169921, name=安卓微信304区), GoodsServerSimpleDTO(id=1520565437169919, name=安卓微信303区), GoodsServerSimpleDTO(id=1520565437169918, name=安卓微信302区), GoodsServerSimpleDTO(id=1520565437169917, name=安卓微信301区), GoodsServerSimpleDTO(id=1520565413160035, name=安卓微信300区), GoodsServerSimpleDTO(id=1520565413160034, name=安卓微信299区), GoodsServerSimpleDTO(id=1520565413160033, name=安卓微信298区), GoodsServerSimpleDTO(id=1520565413160031, name=安卓微信297区), GoodsServerSimpleDTO(id=1520565413160030, name=安卓微信296区), GoodsServerSimpleDTO(id=1520565413160029, name=安卓微信295区), GoodsServerSimpleDTO(id=1520565413160028, name=安卓微信294区), GoodsServerSimpleDTO(id=1520565413160027, name=安卓微信293区), GoodsServerSimpleDTO(id=1520565413159026, name=安卓微信292区), GoodsServerSimpleDTO(id=1520565413159024, name=安卓微信291区), GoodsServerSimpleDTO(id=1520565413159023, name=安卓微信290区), GoodsServerSimpleDTO(id=1520565413159022, name=安卓微信289区), GoodsServerSimpleDTO(id=1520565413159021, name=安卓微信288区), GoodsServerSimpleDTO(id=1520565413159020, name=安卓微信287区), GoodsServerSimpleDTO(id=1520565413159019, name=安卓微信286区), GoodsServerSimpleDTO(id=1520565413159018, name=安卓微信285区), GoodsServerSimpleDTO(id=1520565413159017, name=安卓微信284区), GoodsServerSimpleDTO(id=1520565413159016, name=安卓微信283区), GoodsServerSimpleDTO(id=1520565413159015, name=安卓微信282区), GoodsServerSimpleDTO(id=1520565413158014, name=安卓微信281区), GoodsServerSimpleDTO(id=1520565413158013,name=安卓微信280区), GoodsServerSimpleDTO(id=1520565413158012, name=安卓微信279区), GoodsServerSimpleDTO(id=1520565413158011, name=安卓微信278区), GoodsServerSimpleDTO(id=1520565413158010, name=安卓微信277区), GoodsServerSimpleDTO(id=1520565413158009, name=安卓微信276区), GoodsServerSimpleDTO(id=1520565413158008, name=安卓微信275区), GoodsServerSimpleDTO(id=1520565413158007, name=安卓微信274区), GoodsServerSimpleDTO(id=1520565413158006, name=安卓微信273区), GoodsServerSimpleDTO(id=1520565413158004, name=安卓微信272区), GoodsServerSimpleDTO(id=1520565413158003, name=安卓微信271区), GoodsServerSimpleDTO(id=1520565413157002, name=安卓微信270区), GoodsServerSimpleDTO(id=1520565413157001, name=安卓微信269区), GoodsServerSimpleDTO(id=1520565413157999, name=安卓微信268区), GoodsServerSimpleDTO(id=1520565413157998, name=安卓微信267区), GoodsServerSimpleDTO(id=1520565413157997, name=安卓微信266区), GoodsServerSimpleDTO(id=1520565413156995, name=安卓微信265区), GoodsServerSimpleDTO(id=1520565413156994, name=安卓微信264区), GoodsServerSimpleDTO(id=1520565413156993, name=安卓微信263区), GoodsServerSimpleDTO(id=1520565413156992, name=安卓微信262区), GoodsServerSimpleDTO(id=1520565413156990, name=安卓微信261区), GoodsServerSimpleDTO(id=1520565413156987, name=安卓微信260区), GoodsServerSimpleDTO(id=1520565413156986, name=安卓微信259区), GoodsServerSimpleDTO(id=1520565413156985, name=安卓微信258区), GoodsServerSimpleDTO(id=1520565413156984, name=安卓微信257区), GoodsServerSimpleDTO(id=1520565413155983, name=安卓微信256区), GoodsServerSimpleDTO(id=1520565413155982, name=安卓微信255区), GoodsServerSimpleDTO(id=1520565413155980, name=安卓微信254区), GoodsServerSimpleDTO(id=1520565413155979, name=安卓微信253区), GoodsServerSimpleDTO(id=1520565413155978, name=安卓微信252区), GoodsServerSimpleDTO(id=1520565413155977,name=安卓微信251区), GoodsServerSimpleDTO(id=1520565387477445, name=安卓微信250区), GoodsServerSimpleDTO(id=1520565387477443, name=安卓微信249区), GoodsServerSimpleDTO(id=1520565387476441, name=安卓微信248区), GoodsServerSimpleDTO(id=1520565387476440, name=安卓微信247区), GoodsServerSimpleDTO(id=1520565387476438, name=安卓微信246区), GoodsServerSimpleDTO(id=1520565387476437, name=安卓微信245区), GoodsServerSimpleDTO(id=1520565387476434, name=安卓微信244区), GoodsServerSimpleDTO(id=1520565387476432, name=安卓微信243区), GoodsServerSimpleDTO(id=1520565387476430, name=安卓微信242区), GoodsServerSimpleDTO(id=1520565387476429, name=安卓微信241区), GoodsServerSimpleDTO(id=1520565387476427, name=安卓微信240区), GoodsServerSimpleDTO(id=1520565387475423, name=安卓微信239区), GoodsServerSimpleDTO(id=1520565387475422, name=安卓微信238区), GoodsServerSimpleDTO(id=1520565387475421, name=安卓微信237区), GoodsServerSimpleDTO(id=1520565387475419, name=安卓微信236区), GoodsServerSimpleDTO(id=1520565387475418, name=安卓微信235区), GoodsServerSimpleDTO(id=1520565387475414, name=安卓微信234区), GoodsServerSimpleDTO(id=1520565387475412, name=安卓微信233区), GoodsServerSimpleDTO(id=1520565387475411, name=安卓微信232区), GoodsServerSimpleDTO(id=1520565387475409, name=安卓微信231区), GoodsServerSimpleDTO(id=1520564772841752, name=微信全服通用), GoodsServerSimpleDTO(id=1512550113721286, name=王者抢先服), GoodsServerSimpleDTO(id=1510736392178892, name=安卓微信230区), GoodsServerSimpleDTO(id=1510736392178890, name=安卓微信229区), GoodsServerSimpleDTO(id=1510736392178889, name=安卓微信228区), GoodsServerSimpleDTO(id=1510736392178888, name=安卓微信227区), GoodsServerSimpleDTO(id=1510736392178886, name=安卓微信226区), GoodsServerSimpleDTO(id=1510736392177883, name=安卓微信225区), GoodsServerSimpleDTO(id=1510736392177880, name=安卓微信224区), GoodsServerSimpleDTO(id=1510736392177879, name=安卓微信223区), GoodsServerSimpleDTO(id=1510736392177877, name=安卓微信222区), GoodsServerSimpleDTO(id=1510736392177876, name=安卓微信221区), GoodsServerSimpleDTO(id=1510736392176875, name=安卓微信220区), GoodsServerSimpleDTO(id=1510736392176873, name=安卓微信219区), GoodsServerSimpleDTO(id=1510736392176871, name=安卓微信218区), GoodsServerSimpleDTO(id=1510736392176869, name=安卓微信217区), GoodsServerSimpleDTO(id=1510736392176867, name=安卓微信216区), GoodsServerSimpleDTO(id=1510736392176865, name=安卓微信215区), GoodsServerSimpleDTO(id=1510736392175864, name=安卓微信214区), GoodsServerSimpleDTO(id=1510736392175862, name=安卓微信213区), GoodsServerSimpleDTO(id=1510736392175860, name=安卓微信212区), GoodsServerSimpleDTO(id=1510736392175859, name=安卓微信211区), GoodsServerSimpleDTO(id=1510736392175858, name=安卓微信210区), GoodsServerSimpleDTO(id=1510736392175856, name=安卓微信209区), GoodsServerSimpleDTO(id=1510736392175855, name=安卓微信208区), GoodsServerSimpleDTO(id=1510736392174853, name=安卓微信207区), GoodsServerSimpleDTO(id=1510736392174852, name=安卓微信206区), GoodsServerSimpleDTO(id=1510736392174851, name=安卓微信205区), GoodsServerSimpleDTO(id=1510736392174850, name=安卓微信204区), GoodsServerSimpleDTO(id=1510736392174846, name=安卓微信203区), GoodsServerSimpleDTO(id=1510736392173844, name=安卓微信202区), GoodsServerSimpleDTO(id=1510736392173842, name=安卓微信201区), GoodsServerSimpleDTO(id=1510736392173838, name=安卓微信200区), GoodsServerSimpleDTO(id=1510736392173835, name=安卓微信199区), GoodsServerSimpleDTO(id=1510736392173833, name=安卓微信198区), GoodsServerSimpleDTO(id=1510736392173831, name=安卓微信197区), GoodsServerSimpleDTO(id=1510736392172829, name=安卓微信196区), GoodsServerSimpleDTO(id=1510736392172828, name=安卓微信195区), GoodsServerSimpleDTO(id=1510736392172826, name=安卓微信194区), GoodsServerSimpleDTO(id=1510736392172824, name=安卓微信193区), GoodsServerSimpleDTO(id=1510736392172823, name=安卓微信192区), GoodsServerSimpleDTO(id=1510736392172821, name=安卓微信191区), GoodsServerSimpleDTO(id=1510736392172820, name=安卓微信190区), GoodsServerSimpleDTO(id=1510736392172819, name=安卓微信189区), GoodsServerSimpleDTO(id=1510736392171818, name=安卓微信188区), GoodsServerSimpleDTO(id=1510736392171817, name=安卓微信187区), GoodsServerSimpleDTO(id=1510736392171814, name=安卓微信186区), GoodsServerSimpleDTO(id=1510736392171812, name=安卓微信185区), GoodsServerSimpleDTO(id=1510736392170807, name=安卓微信184区), GoodsServerSimpleDTO(id=1510736392170802, name=安卓微信183区), GoodsServerSimpleDTO(id=1510736392170801, name=安卓微信182区), GoodsServerSimpleDTO(id=1510736392170799, name=安卓微信181区), GoodsServerSimpleDTO(id=1510736392170797, name=安卓微信180区), GoodsServerSimpleDTO(id=1510736212235743, name=安卓微信179区), GoodsServerSimpleDTO(id=1510736212235742, name=安卓微信178区), GoodsServerSimpleDTO(id=1510736212235741, name=安卓微信177区), GoodsServerSimpleDTO(id=1510736212235740, name=安卓微信176区), GoodsServerSimpleDTO(id=1510736212234739, name=安卓微信175区), GoodsServerSimpleDTO(id=1510736212234737, name=安卓微信174区), GoodsServerSimpleDTO(id=1510736212234735, name=安卓微信173区), GoodsServerSimpleDTO(id=1510736212234731, name=安卓微信172区), GoodsServerSimpleDTO(id=1510736212234730, name=安卓微信171区), GoodsServerSimpleDTO(id=1510736212234728, name=安卓微信170区), GoodsServerSimpleDTO(id=1510736212233726, name=安卓微信169区), GoodsServerSimpleDTO(id=1510736212233725, name=安卓微信168区), GoodsServerSimpleDTO(id=1510736212233724, name=安卓微信167区), GoodsServerSimpleDTO(id=1510736212233722, name=安卓微信166区), GoodsServerSimpleDTO(id=1510736212233721, name=安卓微信165区), GoodsServerSimpleDTO(id=1510736212233720, name=安卓微信164区), GoodsServerSimpleDTO(id=1510736212232719, name=安卓微信163区), GoodsServerSimpleDTO(id=1510736212232717, name=安卓微信162区), GoodsServerSimpleDTO(id=1510736212232715, name=安卓微信161区), GoodsServerSimpleDTO(id=1510736212232713, name=安卓微信160区), GoodsServerSimpleDTO(id=1510736212232712, name=安卓微信159区), GoodsServerSimpleDTO(id=1510736212232709, name=安卓微信158区), GoodsServerSimpleDTO(id=1510736212231707, name=安卓微信157区), GoodsServerSimpleDTO(id=1510736212231705, name=安卓微信156区), GoodsServerSimpleDTO(id=1510736212231702, name=安卓微信155区), GoodsServerSimpleDTO(id=1510736212231701, name=安卓微信154区), GoodsServerSimpleDTO(id=1510736212231700, name=安卓微信153区), GoodsServerSimpleDTO(id=1510736212231697, name=安卓微信152区), GoodsServerSimpleDTO(id=1510736212231694, name=安卓微信151区), GoodsServerSimpleDTO(id=1510736212230693, name=安卓微信150区), GoodsServerSimpleDTO(id=1510736212230692, name=安卓微信149区), GoodsServerSimpleDTO(id=1510736212230691, name=安卓微信148区), GoodsServerSimpleDTO(id=1510736212230690, name=安卓微信147区), GoodsServerSimpleDTO(id=1510736212230689, name=安卓微信146区), GoodsServerSimpleDTO(id=1510736212230688, name=安卓微信145区), GoodsServerSimpleDTO(id=1510736212230685, name=安卓微信144区), GoodsServerSimpleDTO(id=1510736212229684, name=安卓微信143区), GoodsServerSimpleDTO(id=1510736212229682, name=安卓微信142区), GoodsServerSimpleDTO(id=1510736212229680, name=安卓微信141区), GoodsServerSimpleDTO(id=1510736212229678, name=安卓微信140区), GoodsServerSimpleDTO(id=1510736212229675, name=安卓微信139区), GoodsServerSimpleDTO(id=1510736212229674, name=安卓微信138区), GoodsServerSimpleDTO(id=1510736212229673, name=安卓微信137区), GoodsServerSimpleDTO(id=1510736212229670, name=安卓微信136区), GoodsServerSimpleDTO(id=1510736212228669, name=安卓微信135区), GoodsServerSimpleDTO(id=1510736212228668, name=安卓微信134区), GoodsServerSimpleDTO(id=1510736212228667, name=安卓微信133区), GoodsServerSimpleDTO(id=1510736212228666, name=安卓微信132区), GoodsServerSimpleDTO(id=1510736212228664, name=安卓微信131区), GoodsServerSimpleDTO(id=1498479823532088, name=安卓微信130区), GoodsServerSimpleDTO(id=1498479823532086, name=安卓微信129区), GoodsServerSimpleDTO(id=1498479823532085, name=安卓微信128区), GoodsServerSimpleDTO(id=1498479823532084, name=安卓微信127区), GoodsServerSimpleDTO(id=1498479823532083, name=安卓微信126区), GoodsServerSimpleDTO(id=1498479823532081, name=安卓微信125区), GoodsServerSimpleDTO(id=1498479823532080, name=安卓微信124区), GoodsServerSimpleDTO(id=1498479823531078, name=安卓微信123区), GoodsServerSimpleDTO(id=1498479823531076, name=安卓微信122区), GoodsServerSimpleDTO(id=1498479823531072, name=安卓微信121区), GoodsServerSimpleDTO(id=1498479823531070, name=安卓微信120区), GoodsServerSimpleDTO(id=1498479823531068, name=安卓微信119区), GoodsServerSimpleDTO(id=1498479823531067, name=安卓微信118区), GoodsServerSimpleDTO(id=1498479823531066, name=安卓微信117区), GoodsServerSimpleDTO(id=1498479823530065, name=安卓微信116区), GoodsServerSimpleDTO(id=1498479823530064, name=安卓微信115区), GoodsServerSimpleDTO(id=1498479823530063, name=安卓微信114区), GoodsServerSimpleDTO(id=1498479823530062, name=安卓微信113区), GoodsServerSimpleDTO(id=1498479823530061, name=安卓微信112区), GoodsServerSimpleDTO(id=1498479823530060, name=安卓微信111区), GoodsServerSimpleDTO(id=1498479823530059, name=安卓微信110区), GoodsServerSimpleDTO(id=1498479823530056, name=安卓微信109区), GoodsServerSimpleDTO(id=1498479823529055, name=安卓微信108区), GoodsServerSimpleDTO(id=1498479823529054, name=安卓微信107区), GoodsServerSimpleDTO(id=1498479823529053, name=安卓微信106区), GoodsServerSimpleDTO(id=1498479823529052, name=安卓微信105区), GoodsServerSimpleDTO(id=1498479823529050, name=安卓微信104区), GoodsServerSimpleDTO(id=1498479823529046, name=安卓微信103区), GoodsServerSimpleDTO(id=1498479823528045, name=安卓微信102区), GoodsServerSimpleDTO(id=1498479823528044, name=安卓微信101区), GoodsServerSimpleDTO(id=1498479823528042, name=安卓微信100区), GoodsServerSimpleDTO(id=1498479823528040, name=安卓微信99区), GoodsServerSimpleDTO(id=1498479823528039, name=安卓微信98区), GoodsServerSimpleDTO(id=1498479823528038, name=安卓微信97区), GoodsServerSimpleDTO(id=1498479823528037, name=安卓微信96区), GoodsServerSimpleDTO(id=1498479823527036, name=安卓微信95区), GoodsServerSimpleDTO(id=1498479823527035, name=安卓微信94区), GoodsServerSimpleDTO(id=1498479823527034, name=安卓微信93区), GoodsServerSimpleDTO(id=1498479823527033, name=安卓微信92区), GoodsServerSimpleDTO(id=1498479823527032, name=安卓微信91区), GoodsServerSimpleDTO(id=1487511934651655, name=安卓微信90区), GoodsServerSimpleDTO(id=1487511934651654, name=安卓微信89区), GoodsServerSimpleDTO(id=1487511934651652, name=安卓微信88区), GoodsServerSimpleDTO(id=1487511934650651, name=安卓微信87区), GoodsServerSimpleDTO(id=1487511934650650, name=安卓微信86区), GoodsServerSimpleDTO(id=1487511934650649, name=安卓微信85区), GoodsServerSimpleDTO(id=1487511934650648, name=安卓微信84区), GoodsServerSimpleDTO(id=1487511934650646, name=安卓微信83区), GoodsServerSimpleDTO(id=1487511934650644, name=安卓微信82区), GoodsServerSimpleDTO(id=1487511934650643, name=安卓微信81区), GoodsServerSimpleDTO(id=1472176401666367, name=安卓微信80区), GoodsServerSimpleDTO(id=1472176401666366, name=安卓微信79区), GoodsServerSimpleDTO(id=1472176401666365, name=安卓微信78区), GoodsServerSimpleDTO(id=1472176401666364, name=安卓微信77区), GoodsServerSimpleDTO(id=1472176401666363, name=安卓微信76区), GoodsServerSimpleDTO(id=1472176401666361, name=安卓微信75区), GoodsServerSimpleDTO(id=1472176401666360, name=安卓微信74区), GoodsServerSimpleDTO(id=1472176401665359, name=安卓微信73区), GoodsServerSimpleDTO(id=1472176401665358, name=安卓微信72区), GoodsServerSimpleDTO(id=1472176401665357, name=安卓微信71区), GoodsServerSimpleDTO(id=1472176401665356, name=安卓微信70区), GoodsServerSimpleDTO(id=1472176401665355, name=安卓微信69区), GoodsServerSimpleDTO(id=1472176401665354, name=安卓微信68区), GoodsServerSimpleDTO(id=1472176401665353, name=安卓微信67区), GoodsServerSimpleDTO(id=1472176401664351, name=安卓微信66区), GoodsServerSimpleDTO(id=1472176401664350, name=安卓微信65区), GoodsServerSimpleDTO(id=1472176401664348, name=安卓微信64区), GoodsServerSimpleDTO(id=1472176401664347, name=安卓微信63区), GoodsServerSimpleDTO(id=1472176401664346, name=安卓微信62区), GoodsServerSimpleDTO(id=1472176401664345, name=安卓微信61区), GoodsServerSimpleDTO(id=1472176401664344, name=安卓微信60区), GoodsServerSimpleDTO(id=1472176401663343, name=安卓微信59区), GoodsServerSimpleDTO(id=1472176401663342, name=安卓微信58区), GoodsServerSimpleDTO(id=1472176401663341, name=安卓微信57区), GoodsServerSimpleDTO(id=1472176401663340, name=安卓微信56区), GoodsServerSimpleDTO(id=1472176401663339, name=安卓微信55区), GoodsServerSimpleDTO(id=1472176401663338, name=安卓微信54区), GoodsServerSimpleDTO(id=1472176401663337, name=安卓微信53区), GoodsServerSimpleDTO(id=1472176401662336, name=安卓微信52区), GoodsServerSimpleDTO(id=1472176401662335, name=安卓微信51区), GoodsServerSimpleDTO(id=1472176401662334, name=安卓微信50区), GoodsServerSimpleDTO(id=1472176401662333, name=安卓微信49区), GoodsServerSimpleDTO(id=1472176401662332, name=安卓微信48区), GoodsServerSimpleDTO(id=1472176401662331, name=安卓微信47区), GoodsServerSimpleDTO(id=1472176401662329, name=安卓微信46区), GoodsServerSimpleDTO(id=1472176401662328, name=安卓微信45区), GoodsServerSimpleDTO(id=1472176401661327, name=安卓微信44区), GoodsServerSimpleDTO(id=1472176401661326, name=安卓微信43区), GoodsServerSimpleDTO(id=1472176401661325, name=安卓微信42区), GoodsServerSimpleDTO(id=1472176401661324, name=安卓微信41区), GoodsServerSimpleDTO(id=1472176401661323, name=安卓微信40区), GoodsServerSimpleDTO(id=1472176401661322, name=安卓微信39区), GoodsServerSimpleDTO(id=1472176401661321, name=安卓微信38区), GoodsServerSimpleDTO(id=1472176401661319, name=安卓微信37区), GoodsServerSimpleDTO(id=1472176401660317, name=安卓微信36区), GoodsServerSimpleDTO(id=1472176401660316, name=安卓微信35区), GoodsServerSimpleDTO(id=1472176401660315, name=安卓微信34区), GoodsServerSimpleDTO(id=1472176401660314, name=安卓微信33区), GoodsServerSimpleDTO(id=1472176401660313, name=安卓微信32区), GoodsServerSimpleDTO(id=1472176401660312, name=安卓微信31区), GoodsServerSimpleDTO(id=1472176401660310, name=安卓微信30区), GoodsServerSimpleDTO(id=1472176401659309, name=安卓微信29区), GoodsServerSimpleDTO(id=1472176401659308, name=安卓微信28区), GoodsServerSimpleDTO(id=1472176401659307, name=安卓微信27区), GoodsServerSimpleDTO(id=1472176401659306, name=安卓微信26区), GoodsServerSimpleDTO(id=1472176401659305, name=安卓微信25区), GoodsServerSimpleDTO(id=1472176401659304, name=安卓微信24区), GoodsServerSimpleDTO(id=1472176401659303, name=安卓微信23区), GoodsServerSimpleDTO(id=1472176401659302, name=安卓微信22区), GoodsServerSimpleDTO(id=1472176401658300, name=安卓微信21区), GoodsServerSimpleDTO(id=1472176401658299, name=安卓微信20区),GoodsServerSimpleDTO(id=1472176401658298, name=安卓微信19区), GoodsServerSimpleDTO(id=1472176401658297, name=安卓微信18区), GoodsServerSimpleDTO(id=1472176401658296, name=安卓微信17区), GoodsServerSimpleDTO(id=1472176401658295, name=安卓微信16区), GoodsServerSimpleDTO(id=1472176401658294, name=安卓微信15区), GoodsServerSimpleDTO(id=1472176401658293, name=安卓微信14区), GoodsServerSimpleDTO(id=1472176401657292, name=安卓微信13区), GoodsServerSimpleDTO(id=1472176401657291, name=安卓微信12区), GoodsServerSimpleDTO(id=1472176401657290, name=安卓微信11区), GoodsServerSimpleDTO(id=1472176401657289, name=安卓微信10区), GoodsServerSimpleDTO(id=1472176401657288, name=安卓微信9区), GoodsServerSimpleDTO(id=1472176401657287, name=安卓微信8区), GoodsServerSimpleDTO(id=1472176401657286, name=安卓微信7区), GoodsServerSimpleDTO(id=1472176401657284, name=安卓微信6区), GoodsServerSimpleDTO(id=1472176401656283, name=安卓微信5区), GoodsServerSimpleDTO(id=1472176401656282, name=安卓微信4区), GoodsServerSimpleDTO(id=1472176401656280, name=安卓微信3区), GoodsServerSimpleDTO(id=1472176401656279, name=安卓微信2区), GoodsServerSimpleDTO(id=1472176401656278, name=安卓微信1区), GoodsServerSimpleDTO(id=817904, name=新区预售)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903059072340, name=安卓全平台通用), GoodsServerSimpleDTO(id=1520564679426026, name=手Q全服通用), GoodsServerSimpleDTO(id=1517377231343510, name=手Q400区), GoodsServerSimpleDTO(id=1517377231343504, name=手Q399区), GoodsServerSimpleDTO(id=1517377231343501, name=手Q398区), GoodsServerSimpleDTO(id=1517377231343493, name=手Q397区), GoodsServerSimpleDTO(id=1517377231342492, name=手Q396区), GoodsServerSimpleDTO(id=1517377231342482, name=手Q395区), GoodsServerSimpleDTO(id=1517377231342481, name=手Q394区), GoodsServerSimpleDTO(id=1517377231342479, name=手Q393区), GoodsServerSimpleDTO(id=1517377231342477, name=手Q392区), GoodsServerSimpleDTO(id=1517377231342471, name=手Q391区), GoodsServerSimpleDTO(id=1517377231341467, name=手Q390区), GoodsServerSimpleDTO(id=1517377231341465, name=手Q389区), GoodsServerSimpleDTO(id=1517377231341461, name=手Q388区), GoodsServerSimpleDTO(id=1517377231341459, name=手Q387区), GoodsServerSimpleDTO(id=1517377231341456, name=手Q386区), GoodsServerSimpleDTO(id=1517377231340452, name=手Q385区), GoodsServerSimpleDTO(id=1517377231340449, name=手Q384区), GoodsServerSimpleDTO(id=1517377231340448, name=手Q383区), GoodsServerSimpleDTO(id=1517377231340441, name=手Q382区), GoodsServerSimpleDTO(id=1517377231340434, name=手Q381区), GoodsServerSimpleDTO(id=1517377231339429, name=手Q380区), GoodsServerSimpleDTO(id=1517377231339424, name=手Q379区), GoodsServerSimpleDTO(id=1517377231339421, name=手Q378区), GoodsServerSimpleDTO(id=1517377231339419, name=手Q377区), GoodsServerSimpleDTO(id=1517377231339412, name=手Q376区), GoodsServerSimpleDTO(id=1517377231338408, name=手Q375区), GoodsServerSimpleDTO(id=1517377231338402, name=手Q374区), GoodsServerSimpleDTO(id=1517377231338395, name=手Q373区), GoodsServerSimpleDTO(id=1517377231338394, name=手Q372区), GoodsServerSimpleDTO(id=1517377231338392, name=手Q371区), GoodsServerSimpleDTO(id=1517377231338388, name=手Q370区), GoodsServerSimpleDTO(id=1517377231337385, name=手Q369区), GoodsServerSimpleDTO(id=1517377231337381, name=手Q368区), GoodsServerSimpleDTO(id=1517377231337377, name=手Q367区), GoodsServerSimpleDTO(id=1517377231337371, name=手Q366区), GoodsServerSimpleDTO(id=1517377231337368, name=手Q365区), GoodsServerSimpleDTO(id=1517377231336363, name=手Q364区), GoodsServerSimpleDTO(id=1517377231336358, name=手Q363区), GoodsServerSimpleDTO(id=1517377231336355, name=手Q362区), GoodsServerSimpleDTO(id=1517377231336351, name=手Q361区), GoodsServerSimpleDTO(id=1517377231336349, name=手Q360区), GoodsServerSimpleDTO(id=1517377231335346, name=手Q359区), GoodsServerSimpleDTO(id=1517377231335344, name=手Q358区), GoodsServerSimpleDTO(id=1517377231335342, name=手Q357区), GoodsServerSimpleDTO(id=1517377231335340, name=手Q356区), GoodsServerSimpleDTO(id=1517377231335338, name=手Q355区), GoodsServerSimpleDTO(id=1517377231335333, name=手Q354区), GoodsServerSimpleDTO(id=1517377231334331, name=手Q353区), GoodsServerSimpleDTO(id=1517377231334327, name=手Q352区), GoodsServerSimpleDTO(id=1517377231334321, name=手Q351区), GoodsServerSimpleDTO(id=1513927206134583, name=手Q350区), GoodsServerSimpleDTO(id=1513927206133579, name=手Q349区), GoodsServerSimpleDTO(id=1513927206133578, name=手Q348区), GoodsServerSimpleDTO(id=1513927206133577, name=手Q347区), GoodsServerSimpleDTO(id=1513927206132575, name=手Q346区), GoodsServerSimpleDTO(id=1513927206132572, name=手Q345区), GoodsServerSimpleDTO(id=1513927206132571, name=手Q344区), GoodsServerSimpleDTO(id=1513927206132570, name=手Q343区), GoodsServerSimpleDTO(id=1513927206132568, name=手Q342区), GoodsServerSimpleDTO(id=1513927206132566, name=手Q341区), GoodsServerSimpleDTO(id=1513927206132565, name=手Q340区), GoodsServerSimpleDTO(id=1513927206131564, name=手Q339区), GoodsServerSimpleDTO(id=1513927206131563, name=手Q338区), GoodsServerSimpleDTO(id=1513927206131561, name=手Q337区), GoodsServerSimpleDTO(id=1513927206131560, name=手Q336区), GoodsServerSimpleDTO(id=1513927206131558, name=手Q335区), GoodsServerSimpleDTO(id=1513927206131552, name=手Q334区), GoodsServerSimpleDTO(id=1513927206130551, name=手Q333区), GoodsServerSimpleDTO(id=1513927206130550, name=手Q332区), GoodsServerSimpleDTO(id=1513927206130549, name=手Q331区), GoodsServerSimpleDTO(id=1513927206130547, name=手Q330区), GoodsServerSimpleDTO(id=1513927206130546, name=手Q329区), GoodsServerSimpleDTO(id=1513927206130545, name=手Q328区), GoodsServerSimpleDTO(id=1513927206130543, name=手Q327区), GoodsServerSimpleDTO(id=1513927206129542, name=手Q326区), GoodsServerSimpleDTO(id=1513927206129541, name=手Q325区), GoodsServerSimpleDTO(id=1513927206129540, name=手Q324区), GoodsServerSimpleDTO(id=1513927206129538, name=手Q323区), GoodsServerSimpleDTO(id=1513927206129536, name=手Q322区), GoodsServerSimpleDTO(id=1513927206129535, name=手Q321区), GoodsServerSimpleDTO(id=1513927206128534, name=手Q320区), GoodsServerSimpleDTO(id=1513927206128532, name=手Q319区), GoodsServerSimpleDTO(id=1513927206128530, name=手Q318区), GoodsServerSimpleDTO(id=1513927206127528, name=手Q317区), GoodsServerSimpleDTO(id=1513927206127526, name=手Q316区), GoodsServerSimpleDTO(id=1513927206127525, name=手Q315区), GoodsServerSimpleDTO(id=1513927206127524, name=手Q314区), GoodsServerSimpleDTO(id=1513927206127523, name=手Q313区), GoodsServerSimpleDTO(id=1513927206127522, name=手Q312区), GoodsServerSimpleDTO(id=1513927206127520, name=手Q311区), GoodsServerSimpleDTO(id=1513927206126519, name=手Q310区), GoodsServerSimpleDTO(id=1513927206126518, name=手Q309区), GoodsServerSimpleDTO(id=1513927206126514, name=手Q308区), GoodsServerSimpleDTO(id=1513927206126513, name=手Q307区), GoodsServerSimpleDTO(id=1513927206126512, name=手Q306区), GoodsServerSimpleDTO(id=1513927206126510, name=手Q305区), GoodsServerSimpleDTO(id=1513927206125509, name=手Q304区), GoodsServerSimpleDTO(id=1513927206125508, name=手Q303区), GoodsServerSimpleDTO(id=1513927206125507, name=手Q302区), GoodsServerSimpleDTO(id=1513927206125506, name=手Q301区), GoodsServerSimpleDTO(id=1513927161515401, name=手Q300区), GoodsServerSimpleDTO(id=1513927161514400, name=手Q299区), GoodsServerSimpleDTO(id=1513927161514397, name=手Q298区), GoodsServerSimpleDTO(id=1513927161514396, name=手Q297区), GoodsServerSimpleDTO(id=1513927161514395, name=手Q296区), GoodsServerSimpleDTO(id=1513927161514394, name=手Q295区), GoodsServerSimpleDTO(id=1513927161514392, name=手Q294区), GoodsServerSimpleDTO(id=1513927161514389, name=手Q293区), GoodsServerSimpleDTO(id=1513927161513387, name=手Q292区), GoodsServerSimpleDTO(id=1513927161513386, name=手Q291区), GoodsServerSimpleDTO(id=1513927161513385, name=手Q290区), GoodsServerSimpleDTO(id=1513927161513384, name=手Q289区), GoodsServerSimpleDTO(id=1513927161513382, name=手Q288区), GoodsServerSimpleDTO(id=1513927161513381, name=手Q287区), GoodsServerSimpleDTO(id=1513927161513380, name=手Q286区), GoodsServerSimpleDTO(id=1513927161512379, name=手Q285区), GoodsServerSimpleDTO(id=1513927161512378, name=手Q284区), GoodsServerSimpleDTO(id=1513927161512377, name=手Q283区), GoodsServerSimpleDTO(id=1513927161512376, name=手Q282区), GoodsServerSimpleDTO(id=1513927161512375, name=手Q281区), GoodsServerSimpleDTO(id=1513927161512374, name=手Q280区), GoodsServerSimpleDTO(id=1513927161512373, name=手Q279区), GoodsServerSimpleDTO(id=1513927161512371, name=手Q278区), GoodsServerSimpleDTO(id=1513927161511370, name=手Q277区), GoodsServerSimpleDTO(id=1513927161511369, name=手Q276区), GoodsServerSimpleDTO(id=1513927161511367, name=手Q275区), GoodsServerSimpleDTO(id=1513927161511365, name=手Q274区), GoodsServerSimpleDTO(id=1513927161511363, name=手Q273区), GoodsServerSimpleDTO(id=1513927161511362, name=手Q272区), GoodsServerSimpleDTO(id=1513927161511361, name=手Q271区), GoodsServerSimpleDTO(id=1513927161510360, name=手Q270区), GoodsServerSimpleDTO(id=1513927161510358, name=手Q269区), GoodsServerSimpleDTO(id=1513927161510357, name=手Q268区), GoodsServerSimpleDTO(id=1513927161510356, name=手Q267区), GoodsServerSimpleDTO(id=1513927161510354, name=手Q266区), GoodsServerSimpleDTO(id=1513927161510352, name=手Q265区), GoodsServerSimpleDTO(id=1513927161509350, name=手Q264区), GoodsServerSimpleDTO(id=1513927161509349, name=手Q263区), GoodsServerSimpleDTO(id=1513927161509348, name=手Q262区), GoodsServerSimpleDTO(id=1513927161509347, name=手Q261区), GoodsServerSimpleDTO(id=1513927161509345, name=手Q260区), GoodsServerSimpleDTO(id=1513927161509344, name=手Q259区), GoodsServerSimpleDTO(id=1513927161509343, name=手Q258区), GoodsServerSimpleDTO(id=1513927161508342, name=手Q257区), GoodsServerSimpleDTO(id=1513927161508341, name=手Q256区), GoodsServerSimpleDTO(id=1513927161508340, name=手Q255区), GoodsServerSimpleDTO(id=1513927161508339, name=手Q254区), GoodsServerSimpleDTO(id=1513927161508337, name=手Q253区), GoodsServerSimpleDTO(id=1513927161508336, name=手Q252区), GoodsServerSimpleDTO(id=1513927161507334, name=手Q251区), GoodsServerSimpleDTO(id=1512550100923871, name=QQ王者抢先服), GoodsServerSimpleDTO(id=1213664, name=手Q250区), GoodsServerSimpleDTO(id=1213663, name=手Q249区), GoodsServerSimpleDTO(id=1213662, name=手Q248区), GoodsServerSimpleDTO(id=1213661, name=手Q247区), GoodsServerSimpleDTO(id=1213660, name=手Q246区), GoodsServerSimpleDTO(id=1213659, name=手Q245区), GoodsServerSimpleDTO(id=1213658, name=手Q244区), GoodsServerSimpleDTO(id=1213657, name=手Q243区), GoodsServerSimpleDTO(id=1213656, name=手Q242区), GoodsServerSimpleDTO(id=1213655, name=手Q241区), GoodsServerSimpleDTO(id=1213654, name=手Q240区), GoodsServerSimpleDTO(id=1213653, name=手Q239区), GoodsServerSimpleDTO(id=1213652, name=手Q238区), GoodsServerSimpleDTO(id=1213651, name=手Q237区), GoodsServerSimpleDTO(id=1213650, name=手Q236区), GoodsServerSimpleDTO(id=1213649, name=手Q235区), GoodsServerSimpleDTO(id=1213648, name=手Q234区), GoodsServerSimpleDTO(id=1213647, name=手Q233区), GoodsServerSimpleDTO(id=1213646, name=手Q232区), GoodsServerSimpleDTO(id=1213645, name=手Q231区), GoodsServerSimpleDTO(id=1213644, name=手Q230区), GoodsServerSimpleDTO(id=1213643, name=手Q229区), GoodsServerSimpleDTO(id=1213642, name=手Q228区), GoodsServerSimpleDTO(id=1213641, name=手Q227区), GoodsServerSimpleDTO(id=1213640, name=手Q226区), GoodsServerSimpleDTO(id=1213639, name=手Q225区), GoodsServerSimpleDTO(id=1213638, name=手Q224区), GoodsServerSimpleDTO(id=1213637, name=手Q223区), GoodsServerSimpleDTO(id=1213636, name=手Q222区), GoodsServerSimpleDTO(id=1213635, name=手Q221区), GoodsServerSimpleDTO(id=1213634, name=手Q220区), GoodsServerSimpleDTO(id=1213633, name=手Q219区), GoodsServerSimpleDTO(id=1213632, name=手Q218区), GoodsServerSimpleDTO(id=1213631, name=手Q217区), GoodsServerSimpleDTO(id=1213630, name=手Q216区), GoodsServerSimpleDTO(id=1213629, name=手Q215区), GoodsServerSimpleDTO(id=1213628, name=手Q214区), GoodsServerSimpleDTO(id=1213627, name=手Q213区), GoodsServerSimpleDTO(id=1213626, name=手Q212区), GoodsServerSimpleDTO(id=1213625, name=手Q211区), GoodsServerSimpleDTO(id=1213624, name=手Q210区), GoodsServerSimpleDTO(id=1213623, name=手Q209区), GoodsServerSimpleDTO(id=1213622, name=手Q208区), GoodsServerSimpleDTO(id=1213621, name=手Q207区), GoodsServerSimpleDTO(id=937470, name=手Q206区), GoodsServerSimpleDTO(id=937469, name=手Q205区), GoodsServerSimpleDTO(id=937468, name=手Q204区), GoodsServerSimpleDTO(id=937467, name=手Q203区), GoodsServerSimpleDTO(id=937466, name=手Q202区), GoodsServerSimpleDTO(id=937465, name=手Q201区), GoodsServerSimpleDTO(id=937464, name=手Q200区), GoodsServerSimpleDTO(id=937463, name=手Q199区), GoodsServerSimpleDTO(id=937462, name=手Q198区), GoodsServerSimpleDTO(id=937461, name=手Q197区), GoodsServerSimpleDTO(id=937460, name=手Q196区), GoodsServerSimpleDTO(id=937459, name=手Q195区), GoodsServerSimpleDTO(id=937458, name=手Q194区), GoodsServerSimpleDTO(id=937457, name=手Q193区), GoodsServerSimpleDTO(id=937456, name=手Q192区), GoodsServerSimpleDTO(id=937455, name=手Q191区), GoodsServerSimpleDTO(id=937454, name=手Q190区), GoodsServerSimpleDTO(id=937453, name=手Q189区), GoodsServerSimpleDTO(id=937452, name=手Q188区), GoodsServerSimpleDTO(id=937451, name=手Q187区), GoodsServerSimpleDTO(id=937450, name=手Q186区), GoodsServerSimpleDTO(id=937449, name=手Q185区), GoodsServerSimpleDTO(id=937448, name=手Q184区), GoodsServerSimpleDTO(id=937447, name=手Q183区), GoodsServerSimpleDTO(id=937446, name=手Q182区), GoodsServerSimpleDTO(id=937445, name=手Q181区), GoodsServerSimpleDTO(id=937444, name=手Q180区), GoodsServerSimpleDTO(id=937443, name=手Q179区), GoodsServerSimpleDTO(id=937442, name=手Q178区), GoodsServerSimpleDTO(id=937441, name=手Q177区), GoodsServerSimpleDTO(id=937440, name=手Q176区), GoodsServerSimpleDTO(id=937439, name=手Q175区), GoodsServerSimpleDTO(id=937438, name=手Q174区), GoodsServerSimpleDTO(id=937437, name=手Q173区), GoodsServerSimpleDTO(id=937436, name=手Q172区), GoodsServerSimpleDTO(id=937435, name=手Q171区), GoodsServerSimpleDTO(id=937434, name=手Q170区), GoodsServerSimpleDTO(id=937433, name=手Q169区), GoodsServerSimpleDTO(id=937432, name=手Q168区), GoodsServerSimpleDTO(id=937431, name=手Q167区), GoodsServerSimpleDTO(id=937430, name=手Q166区), GoodsServerSimpleDTO(id=937429, name=手Q165区), GoodsServerSimpleDTO(id=937428, name=手Q164区), GoodsServerSimpleDTO(id=937427, name=手Q163区), GoodsServerSimpleDTO(id=937426, name=手Q162区), GoodsServerSimpleDTO(id=937425, name=手Q161区), GoodsServerSimpleDTO(id=937424, name=手Q160区), GoodsServerSimpleDTO(id=937423, name=手Q159区), GoodsServerSimpleDTO(id=937422, name=手Q158区), GoodsServerSimpleDTO(id=937421, name=手Q157区), GoodsServerSimpleDTO(id=937420, name=手Q156区), GoodsServerSimpleDTO(id=937419, name=手Q155区), GoodsServerSimpleDTO(id=937418, name=手Q154区), GoodsServerSimpleDTO(id=937417, name=手Q153区), GoodsServerSimpleDTO(id=937416, name=手Q152区), GoodsServerSimpleDTO(id=937415, name=手Q151区), GoodsServerSimpleDTO(id=937414, name=手Q150区), GoodsServerSimpleDTO(id=937413, name=手Q149区), GoodsServerSimpleDTO(id=937412, name=手Q148区), GoodsServerSimpleDTO(id=937411, name=手Q147区), GoodsServerSimpleDTO(id=937410, name=手Q146区), GoodsServerSimpleDTO(id=937409, name=手Q145区), GoodsServerSimpleDTO(id=937408, name=手Q144区), GoodsServerSimpleDTO(id=937407, name=手Q143区), GoodsServerSimpleDTO(id=937406, name=手Q142区), GoodsServerSimpleDTO(id=937405, name=手Q141区), GoodsServerSimpleDTO(id=849912, name=手Q140区), GoodsServerSimpleDTO(id=849911, name=手Q139区), GoodsServerSimpleDTO(id=849910, name=手Q138区), GoodsServerSimpleDTO(id=849909, name=手Q137区), GoodsServerSimpleDTO(id=849908, name=手Q136区), GoodsServerSimpleDTO(id=849907, name=手Q135区), GoodsServerSimpleDTO(id=849906, name=手Q134区), GoodsServerSimpleDTO(id=849905, name=手Q133区), GoodsServerSimpleDTO(id=849904, name=手Q132区), GoodsServerSimpleDTO(id=849903, name=手Q131区), GoodsServerSimpleDTO(id=849902, name=手Q130区), GoodsServerSimpleDTO(id=849901, name=手Q129区), GoodsServerSimpleDTO(id=849900, name=手Q128区), GoodsServerSimpleDTO(id=849899, name=手Q127区), GoodsServerSimpleDTO(id=849898, name=手Q126区), GoodsServerSimpleDTO(id=849897, name=手Q125区), GoodsServerSimpleDTO(id=849896, name=手Q124区), GoodsServerSimpleDTO(id=849895, name=手Q123区), GoodsServerSimpleDTO(id=849894, name=手Q122区), GoodsServerSimpleDTO(id=849893, name=手Q121区), GoodsServerSimpleDTO(id=849892, name=手Q120区), GoodsServerSimpleDTO(id=849891, name=手Q119区), GoodsServerSimpleDTO(id=849890, name=手Q118区), GoodsServerSimpleDTO(id=849889, name=手Q117区), GoodsServerSimpleDTO(id=849888, name=手Q116区), GoodsServerSimpleDTO(id=849887, name=手Q115区), GoodsServerSimpleDTO(id=849886, name=手Q114区), GoodsServerSimpleDTO(id=849885, name=手Q113区), GoodsServerSimpleDTO(id=849884, name=手Q112区), GoodsServerSimpleDTO(id=849883, name=手Q111区), GoodsServerSimpleDTO(id=849882, name=手Q110区), GoodsServerSimpleDTO(id=849881, name=手Q109区), GoodsServerSimpleDTO(id=849880, name=手Q108区), GoodsServerSimpleDTO(id=849879, name=手Q107区), GoodsServerSimpleDTO(id=849878, name=手Q106区), GoodsServerSimpleDTO(id=849877, name=手Q105区), GoodsServerSimpleDTO(id=849876, name=手Q104区), GoodsServerSimpleDTO(id=849875, name=手Q103区), GoodsServerSimpleDTO(id=849874, name=手Q102区), GoodsServerSimpleDTO(id=849873, name=手Q101区), GoodsServerSimpleDTO(id=767437, name=手Q100区), GoodsServerSimpleDTO(id=767436, name=手Q99区), GoodsServerSimpleDTO(id=767435, name=手Q98区), GoodsServerSimpleDTO(id=767434, name=手Q97区), GoodsServerSimpleDTO(id=767433, name=手Q96区), GoodsServerSimpleDTO(id=767432, name=手Q95区), GoodsServerSimpleDTO(id=767431, name=手Q94区), GoodsServerSimpleDTO(id=767430, name=手Q93区), GoodsServerSimpleDTO(id=767429,name=手Q92区), GoodsServerSimpleDTO(id=767428, name=手Q91区), GoodsServerSimpleDTO(id=767427, name=手Q90区), GoodsServerSimpleDTO(id=767426, name=手Q89区), GoodsServerSimpleDTO(id=767425, name=手Q88区), GoodsServerSimpleDTO(id=767424, name=手Q87区), GoodsServerSimpleDTO(id=767423, name=手Q86区), GoodsServerSimpleDTO(id=767422, name=手Q85区), GoodsServerSimpleDTO(id=767421, name=手Q84区), GoodsServerSimpleDTO(id=767420, name=手Q83区), GoodsServerSimpleDTO(id=767419, name=手Q82区), GoodsServerSimpleDTO(id=767418, name=手Q81区), GoodsServerSimpleDTO(id=767417, name=手Q80区), GoodsServerSimpleDTO(id=767416, name=手Q79区), GoodsServerSimpleDTO(id=767415, name=手Q78区), GoodsServerSimpleDTO(id=767414, name=手Q77区), GoodsServerSimpleDTO(id=767413, name=手Q76区), GoodsServerSimpleDTO(id=767412, name=手Q75区), GoodsServerSimpleDTO(id=767411, name=手Q74区), GoodsServerSimpleDTO(id=767410, name=手Q73区), GoodsServerSimpleDTO(id=767409, name=手Q72区), GoodsServerSimpleDTO(id=767408, name=手Q71区), GoodsServerSimpleDTO(id=724467, name=手Q70区), GoodsServerSimpleDTO(id=724466, name=手Q69区), GoodsServerSimpleDTO(id=724465, name=手Q68区), GoodsServerSimpleDTO(id=724464, name=手Q67区), GoodsServerSimpleDTO(id=724463, name=手Q66区), GoodsServerSimpleDTO(id=724462, name=手Q65区), GoodsServerSimpleDTO(id=724461, name=手Q64区), GoodsServerSimpleDTO(id=724460, name=手Q63区), GoodsServerSimpleDTO(id=724459, name=手Q62区), GoodsServerSimpleDTO(id=724458, name=手Q61区), GoodsServerSimpleDTO(id=724457, name=手Q60区), GoodsServerSimpleDTO(id=724456, name=手Q59区),GoodsServerSimpleDTO(id=724455, name=手Q58区), GoodsServerSimpleDTO(id=724454, name=手Q57区), GoodsServerSimpleDTO(id=724453, name=手Q56区), GoodsServerSimpleDTO(id=724452, name=手Q55区), GoodsServerSimpleDTO(id=724451, name=手Q54区), GoodsServerSimpleDTO(id=724450, name=手Q53区), GoodsServerSimpleDTO(id=724449, name=手Q52区), GoodsServerSimpleDTO(id=724448, name=手Q51区), GoodsServerSimpleDTO(id=724447, name=手Q50区), GoodsServerSimpleDTO(id=724446, name=手Q49区), GoodsServerSimpleDTO(id=724445, name=手Q48区), GoodsServerSimpleDTO(id=724444, name=手Q47区), GoodsServerSimpleDTO(id=724443, name=手Q46区), GoodsServerSimpleDTO(id=724442, name=手Q45区), GoodsServerSimpleDTO(id=724441, name=手Q44区), GoodsServerSimpleDTO(id=724440, name=手Q43区), GoodsServerSimpleDTO(id=724439, name=手Q42区), GoodsServerSimpleDTO(id=724438, name=手Q41区), GoodsServerSimpleDTO(id=724437, name=手Q40区), GoodsServerSimpleDTO(id=724436, name=手Q39区), GoodsServerSimpleDTO(id=724435, name=手Q38区), GoodsServerSimpleDTO(id=724434, name=手Q37区), GoodsServerSimpleDTO(id=724433, name=手Q36区), GoodsServerSimpleDTO(id=724432, name=手Q35区), GoodsServerSimpleDTO(id=724431, name=手Q34区), GoodsServerSimpleDTO(id=724430, name=手Q33区), GoodsServerSimpleDTO(id=724429, name=手Q32区), GoodsServerSimpleDTO(id=724428, name=手Q31区), GoodsServerSimpleDTO(id=629740, name=手Q30区), GoodsServerSimpleDTO(id=629739, name=手Q29区), GoodsServerSimpleDTO(id=629738, name=手Q28区), GoodsServerSimpleDTO(id=629737, name=手Q27区), GoodsServerSimpleDTO(id=629736, name=手Q26区), GoodsServerSimpleDTO(id=629735, name=手Q25区), GoodsServerSimpleDTO(id=629734, name=手Q24区), GoodsServerSimpleDTO(id=629733, name=手Q23区), GoodsServerSimpleDTO(id=629732, name=手Q22区), GoodsServerSimpleDTO(id=629731, name=手Q21区), GoodsServerSimpleDTO(id=629730, name=手Q20区), GoodsServerSimpleDTO(id=629729, name=手Q19区), GoodsServerSimpleDTO(id=629728, name=手Q18区), GoodsServerSimpleDTO(id=629727, name=手Q17区), GoodsServerSimpleDTO(id=629726, name=手Q16区), GoodsServerSimpleDTO(id=629725, name=手Q15区), GoodsServerSimpleDTO(id=629724, name=手Q14区), GoodsServerSimpleDTO(id=629723, name=手Q13区), GoodsServerSimpleDTO(id=629722, name=手Q12区), GoodsServerSimpleDTO(id=629721, name=手Q11区), GoodsServerSimpleDTO(id=629720, name=手Q10区), GoodsServerSimpleDTO(id=629719, name=手Q9区),GoodsServerSimpleDTO(id=629718, name=手Q8区), GoodsServerSimpleDTO(id=629717, name=手Q7区), GoodsServerSimpleDTO(id=629716, name=手Q6区), GoodsServerSimpleDTO(id=629715, name=手Q5区), GoodsServerSimpleDTO(id=629714, name=手Q4区), GoodsServerSimpleDTO(id=629713, name=手Q3区), GoodsServerSimpleDTO(id=629712, name=手Q2区), GoodsServerSimpleDTO(id=629711, name=手Q1区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903070868728, name=全平台通用), GoodsServerSimpleDTO(id=1520565340141895, name=苹果QQ400区), GoodsServerSimpleDTO(id=1520565340141894, name=苹果QQ399区), GoodsServerSimpleDTO(id=1520565340141893, name=苹果QQ398区), GoodsServerSimpleDTO(id=1520565340141892, name=苹果QQ397区), GoodsServerSimpleDTO(id=1520565340140891, name=苹果QQ396区), GoodsServerSimpleDTO(id=1520565340140889, name=苹果QQ395区), GoodsServerSimpleDTO(id=1520565340140887, name=苹果QQ394区), GoodsServerSimpleDTO(id=1520565340140885, name=苹果QQ393区), GoodsServerSimpleDTO(id=1520565340140882, name=苹果QQ392区), GoodsServerSimpleDTO(id=1520565340140879, name=苹果QQ391区), GoodsServerSimpleDTO(id=1520565340140878, name=苹果QQ390区), GoodsServerSimpleDTO(id=1520565340139877, name=苹果QQ389区), GoodsServerSimpleDTO(id=1520565340139876, name=苹果QQ388区), GoodsServerSimpleDTO(id=1520565340139873, name=苹果QQ387区), GoodsServerSimpleDTO(id=1520565340139872, name=苹果QQ386区), GoodsServerSimpleDTO(id=1520565340139871, name=苹果QQ385区), GoodsServerSimpleDTO(id=1520565340139870, name=苹果QQ384区), GoodsServerSimpleDTO(id=1520565340138869, name=苹果QQ383区), GoodsServerSimpleDTO(id=1520565340138868, name=苹果QQ382区), GoodsServerSimpleDTO(id=1520565340138866, name=苹果QQ381区), GoodsServerSimpleDTO(id=1520565340138863, name=苹果QQ380区), GoodsServerSimpleDTO(id=1520565340138861, name=苹果QQ379区), GoodsServerSimpleDTO(id=1520565340138857, name=苹果QQ378区), GoodsServerSimpleDTO(id=1520565340137856, name=苹果QQ377区), GoodsServerSimpleDTO(id=1520565340137855, name=苹果QQ376区), GoodsServerSimpleDTO(id=1520565340137853, name=苹果QQ375区), GoodsServerSimpleDTO(id=1520565340137849, name=苹果QQ374区), GoodsServerSimpleDTO(id=1520565340136841, name=苹果QQ373区), GoodsServerSimpleDTO(id=1520565340136840, name=苹果QQ372区), GoodsServerSimpleDTO(id=1520565340136839, name=苹果QQ371区), GoodsServerSimpleDTO(id=1520565340136837, name=苹果QQ370区), GoodsServerSimpleDTO(id=1520565340136836, name=苹果QQ369区), GoodsServerSimpleDTO(id=1520565340136833, name=苹果QQ368区), GoodsServerSimpleDTO(id=1520565340136830, name=苹果QQ367区), GoodsServerSimpleDTO(id=1520565340135829, name=苹果QQ366区), GoodsServerSimpleDTO(id=1520565340135827, name=苹果QQ365区), GoodsServerSimpleDTO(id=1520565340135821, name=苹果QQ364区), GoodsServerSimpleDTO(id=1520565340135820, name=苹果QQ363区), GoodsServerSimpleDTO(id=1520565340135819, name=苹果QQ362区), GoodsServerSimpleDTO(id=1520565340135818, name=苹果QQ361区), GoodsServerSimpleDTO(id=1520565340135815, name=苹果QQ360区), GoodsServerSimpleDTO(id=1520565340134814, name=苹果QQ359区), GoodsServerSimpleDTO(id=1520565340134813, name=苹果QQ358区), GoodsServerSimpleDTO(id=1520565340134812, name=苹果QQ357区), GoodsServerSimpleDTO(id=1520565340134809, name=苹果QQ356区), GoodsServerSimpleDTO(id=1520565340134806, name=苹果QQ355区), GoodsServerSimpleDTO(id=1520565340134804, name=苹果QQ354区), GoodsServerSimpleDTO(id=1520565340134802,name=苹果QQ353区), GoodsServerSimpleDTO(id=1520565340134800, name=苹果QQ352区), GoodsServerSimpleDTO(id=1520565340133799, name=苹果QQ351区), GoodsServerSimpleDTO(id=1520565305855966, name=苹果QQ350区), GoodsServerSimpleDTO(id=1520565305854964, name=苹果QQ349区), GoodsServerSimpleDTO(id=1520565305854963, name=苹果QQ348区), GoodsServerSimpleDTO(id=1520565305854961, name=苹果QQ347区), GoodsServerSimpleDTO(id=1520565305854960, name=苹果QQ346区), GoodsServerSimpleDTO(id=1520565305854959, name=苹果QQ345区), GoodsServerSimpleDTO(id=1520565305853956, name=苹果QQ344区), GoodsServerSimpleDTO(id=1520565305853949, name=苹果QQ343区), GoodsServerSimpleDTO(id=1520565305853947, name=苹果QQ342区), GoodsServerSimpleDTO(id=1520565305853944, name=苹果QQ341区), GoodsServerSimpleDTO(id=1520565305853943, name=苹果QQ340区), GoodsServerSimpleDTO(id=1520565305853941, name=苹果QQ339区), GoodsServerSimpleDTO(id=1520565305852938, name=苹果QQ338区), GoodsServerSimpleDTO(id=1520565305852935, name=苹果QQ337区), GoodsServerSimpleDTO(id=1520565305852934, name=苹果QQ336区), GoodsServerSimpleDTO(id=1520565305852932, name=苹果QQ335区), GoodsServerSimpleDTO(id=1520565305852930, name=苹果QQ334区), GoodsServerSimpleDTO(id=1520565305852928, name=苹果QQ333区), GoodsServerSimpleDTO(id=1520565305852927, name=苹果QQ332区), GoodsServerSimpleDTO(id=1520565305852926, name=苹果QQ331区), GoodsServerSimpleDTO(id=1520565305851925, name=苹果QQ330区), GoodsServerSimpleDTO(id=1520565305851924, name=苹果QQ329区), GoodsServerSimpleDTO(id=1520565305851919, name=苹果QQ328区), GoodsServerSimpleDTO(id=1520565305851917, name=苹果QQ327区), GoodsServerSimpleDTO(id=1520565305851915, name=苹果QQ326区), GoodsServerSimpleDTO(id=1520565305851912, name=苹果QQ325区), GoodsServerSimpleDTO(id=1520565305851910, name=苹果QQ324区), GoodsServerSimpleDTO(id=1520565305850909, name=苹果QQ323区), GoodsServerSimpleDTO(id=1520565305850907, name=苹果QQ322区), GoodsServerSimpleDTO(id=1520565305850903, name=苹果QQ321区), GoodsServerSimpleDTO(id=1520565305850901, name=苹果QQ320区), GoodsServerSimpleDTO(id=1520565305850900, name=苹果QQ319区), GoodsServerSimpleDTO(id=1520565305850898, name=苹果QQ318区), GoodsServerSimpleDTO(id=1520565305849893, name=苹果QQ317区), GoodsServerSimpleDTO(id=1520565305849892, name=苹果QQ316区), GoodsServerSimpleDTO(id=1520565305849890, name=苹果QQ315区), GoodsServerSimpleDTO(id=1520565305849888, name=苹果QQ314区), GoodsServerSimpleDTO(id=1520565305849887, name=苹果QQ313区), GoodsServerSimpleDTO(id=1520565305849885, name=苹果QQ312区), GoodsServerSimpleDTO(id=1520565305849884, name=苹果QQ311区), GoodsServerSimpleDTO(id=1520565305848880, name=苹果QQ310区), GoodsServerSimpleDTO(id=1520565305848877, name=苹果QQ309区), GoodsServerSimpleDTO(id=1520565305848876, name=苹果QQ308区), GoodsServerSimpleDTO(id=1520565305848875, name=苹果QQ307区), GoodsServerSimpleDTO(id=1520565305848873, name=苹果QQ306区), GoodsServerSimpleDTO(id=1520565305848872, name=苹果QQ305区), GoodsServerSimpleDTO(id=1520565305847868, name=苹果QQ304区), GoodsServerSimpleDTO(id=1520565305847867, name=苹果QQ303区), GoodsServerSimpleDTO(id=1520565305847866, name=苹果QQ302区), GoodsServerSimpleDTO(id=1520565305847865, name=苹果QQ301区), GoodsServerSimpleDTO(id=1520564679426026, name=手Q全服通用), GoodsServerSimpleDTO(id=1517377426627295, name=苹果QQ300区), GoodsServerSimpleDTO(id=1517377426627294, name=苹果QQ299区), GoodsServerSimpleDTO(id=1517377426627292, name=苹果QQ298区), GoodsServerSimpleDTO(id=1517377426627291, name=苹果QQ297区), GoodsServerSimpleDTO(id=1517377426627289, name=苹果QQ296区), GoodsServerSimpleDTO(id=1517377426626288, name=苹果QQ295区), GoodsServerSimpleDTO(id=1517377426626286, name=苹果QQ294区), GoodsServerSimpleDTO(id=1517377426626285, name=苹果QQ293区), GoodsServerSimpleDTO(id=1517377426626282, name=苹果QQ292区), GoodsServerSimpleDTO(id=1517377426626280, name=苹果QQ291区), GoodsServerSimpleDTO(id=1517377426626279, name=苹果QQ290区), GoodsServerSimpleDTO(id=1517377426625277, name=苹果QQ289区), GoodsServerSimpleDTO(id=1517377426625276, name=苹果QQ288区), GoodsServerSimpleDTO(id=1517377426625275, name=苹果QQ287区), GoodsServerSimpleDTO(id=1517377426625274, name=苹果QQ286区), GoodsServerSimpleDTO(id=1517377426625273, name=苹果QQ285区), GoodsServerSimpleDTO(id=1517377426625270, name=苹果QQ284区), GoodsServerSimpleDTO(id=1517377426624267, name=苹果QQ283区), GoodsServerSimpleDTO(id=1517377426624261, name=苹果QQ282区), GoodsServerSimpleDTO(id=1517377426624259, name=苹果QQ281区), GoodsServerSimpleDTO(id=1517377426623258, name=苹果QQ280区), GoodsServerSimpleDTO(id=1517377426623257, name=苹果QQ279区), GoodsServerSimpleDTO(id=1517377426623256, name=苹果QQ278区), GoodsServerSimpleDTO(id=1517377426623255, name=苹果QQ277区), GoodsServerSimpleDTO(id=1517377426623253, name=苹果QQ276区), GoodsServerSimpleDTO(id=1517377426623250, name=苹果QQ275区), GoodsServerSimpleDTO(id=1517377426622249, name=苹果QQ274区), GoodsServerSimpleDTO(id=1517377426622246, name=苹果QQ273区), GoodsServerSimpleDTO(id=1517377426622245, name=苹果QQ272区), GoodsServerSimpleDTO(id=1517377426622244, name=苹果QQ271区), GoodsServerSimpleDTO(id=1517377426622241, name=苹果QQ270区), GoodsServerSimpleDTO(id=1517377426622239, name=苹果QQ269区), GoodsServerSimpleDTO(id=1517377426621238, name=苹果QQ268区), GoodsServerSimpleDTO(id=1517377426621237, name=苹果QQ267区), GoodsServerSimpleDTO(id=1517377426621236, name=苹果QQ266区), GoodsServerSimpleDTO(id=1517377426621234, name=苹果QQ265区), GoodsServerSimpleDTO(id=1517377426621230, name=苹果QQ264区), GoodsServerSimpleDTO(id=1517377426620224, name=苹果QQ263区), GoodsServerSimpleDTO(id=1517377426620223, name=苹果QQ262区), GoodsServerSimpleDTO(id=1517377426620222, name=苹果QQ261区), GoodsServerSimpleDTO(id=1517377426620221, name=苹果QQ260区), GoodsServerSimpleDTO(id=1517377426620219, name=苹果QQ259区), GoodsServerSimpleDTO(id=1517377426620216, name=苹果QQ258区), GoodsServerSimpleDTO(id=1517377426619214, name=苹果QQ257区), GoodsServerSimpleDTO(id=1517377426619213, name=苹果QQ256区), GoodsServerSimpleDTO(id=1517377426619211, name=苹果QQ255区), GoodsServerSimpleDTO(id=1517377426619209, name=苹果QQ254区), GoodsServerSimpleDTO(id=1517377426619206, name=苹果QQ253区), GoodsServerSimpleDTO(id=1517377426619205, name=苹果QQ252区), GoodsServerSimpleDTO(id=1517377426618202, name=苹果QQ251区), GoodsServerSimpleDTO(id=1517377383212286, name=苹果QQ250区), GoodsServerSimpleDTO(id=1517377383212281, name=苹果QQ249区), GoodsServerSimpleDTO(id=1517377383212280, name=苹果QQ248区), GoodsServerSimpleDTO(id=1517377383212279, name=苹果QQ247区), GoodsServerSimpleDTO(id=1517377383212278, name=苹果QQ246区), GoodsServerSimpleDTO(id=1517377383212275, name=苹果QQ245区), GoodsServerSimpleDTO(id=1517377383211273, name=苹果QQ244区), GoodsServerSimpleDTO(id=1517377383211272, name=苹果QQ243区), GoodsServerSimpleDTO(id=1517377383211269, name=苹果QQ242区), GoodsServerSimpleDTO(id=1517377383211268, name=苹果QQ241区), GoodsServerSimpleDTO(id=1517377383211266, name=苹果QQ240区), GoodsServerSimpleDTO(id=1517377383211262, name=苹果QQ239区), GoodsServerSimpleDTO(id=1517377383211261, name=苹果QQ238区), GoodsServerSimpleDTO(id=1517377383211259, name=苹果QQ237区), GoodsServerSimpleDTO(id=1517377383211257, name=苹果QQ236区), GoodsServerSimpleDTO(id=1517377383210256, name=苹果QQ235区), GoodsServerSimpleDTO(id=1517377383210254, name=苹果QQ234区), GoodsServerSimpleDTO(id=1517377383210251, name=苹果QQ233区), GoodsServerSimpleDTO(id=1517377383210250, name=苹果QQ232区), GoodsServerSimpleDTO(id=1517377383210249, name=苹果QQ231区), GoodsServerSimpleDTO(id=1517377383210248, name=苹果QQ230区), GoodsServerSimpleDTO(id=1517377383210247, name=苹果QQ229区), GoodsServerSimpleDTO(id=1517377383210245, name=苹果QQ228区), GoodsServerSimpleDTO(id=1517377383210244, name=苹果QQ227区), GoodsServerSimpleDTO(id=1517377383210243, name=苹果QQ226区), GoodsServerSimpleDTO(id=1517377383209240, name=苹果QQ225区), GoodsServerSimpleDTO(id=1517377383209236, name=苹果QQ224区), GoodsServerSimpleDTO(id=1517377383209234, name=苹果QQ223区), GoodsServerSimpleDTO(id=1517377383209232, name=苹果QQ222区), GoodsServerSimpleDTO(id=1517377383209230, name=苹果QQ221区), GoodsServerSimpleDTO(id=1517377383209228, name=苹果QQ220区), GoodsServerSimpleDTO(id=1517377383209226, name=苹果QQ219区), GoodsServerSimpleDTO(id=1517377383209225, name=苹果QQ218区), GoodsServerSimpleDTO(id=1517377383209224, name=苹果QQ217区), GoodsServerSimpleDTO(id=1517377383208223, name=苹果QQ216区), GoodsServerSimpleDTO(id=1517377383208222, name=苹果QQ215区), GoodsServerSimpleDTO(id=1517377383208220, name=苹果QQ214区), GoodsServerSimpleDTO(id=1517377383208217, name=苹果QQ213区), GoodsServerSimpleDTO(id=1517377383208215, name=苹果QQ212区), GoodsServerSimpleDTO(id=1517377383208214, name=苹果QQ211区), GoodsServerSimpleDTO(id=1517377383208211, name=苹果QQ210区), GoodsServerSimpleDTO(id=1517377383208210, name=苹果QQ209区), GoodsServerSimpleDTO(id=1517377383208209, name=苹果QQ208区), GoodsServerSimpleDTO(id=1517377383208208, name=苹果QQ207区), GoodsServerSimpleDTO(id=1517377383207205, name=苹果QQ206区), GoodsServerSimpleDTO(id=1517377383207203, name=苹果QQ205区), GoodsServerSimpleDTO(id=1517377383207201, name=苹果QQ204区), GoodsServerSimpleDTO(id=1517377383207200, name=苹果QQ203区), GoodsServerSimpleDTO(id=1517377383207197, name=苹果QQ202区), GoodsServerSimpleDTO(id=1517377383207195, name=苹果QQ201区), GoodsServerSimpleDTO(id=1513927335090886, name=苹果QQ200区), GoodsServerSimpleDTO(id=1513927335090885, name=苹果QQ199区), GoodsServerSimpleDTO(id=1513927335090884, name=苹果QQ198区), GoodsServerSimpleDTO(id=1513927335090882, name=苹果QQ197区), GoodsServerSimpleDTO(id=1513927335090881, name=苹果QQ196区), GoodsServerSimpleDTO(id=1513927335090880, name=苹果QQ195区), GoodsServerSimpleDTO(id=1513927335090879, name=苹果QQ194区), GoodsServerSimpleDTO(id=1513927335090877, name=苹果QQ193区), GoodsServerSimpleDTO(id=1513927335090874, name=苹果QQ192区), GoodsServerSimpleDTO(id=1513927335090872, name=苹果QQ191区), GoodsServerSimpleDTO(id=1513927335089871, name=苹果QQ190区), GoodsServerSimpleDTO(id=1513927335089870, name=苹果QQ189区), GoodsServerSimpleDTO(id=1513927335089869, name=苹果QQ188区), GoodsServerSimpleDTO(id=1513927335089868, name=苹果QQ187区), GoodsServerSimpleDTO(id=1513927335089867, name=苹果QQ186区), GoodsServerSimpleDTO(id=1513927335089866, name=苹果QQ185区), GoodsServerSimpleDTO(id=1513927335089864, name=苹果QQ184区), GoodsServerSimpleDTO(id=1513927335089862, name=苹果QQ183区), GoodsServerSimpleDTO(id=1513927335089860, name=苹果QQ182区), GoodsServerSimpleDTO(id=1513927335089858, name=苹果QQ181区), GoodsServerSimpleDTO(id=1513927335088857, name=苹果QQ180区), GoodsServerSimpleDTO(id=1513927335088856, name=苹果QQ179区), GoodsServerSimpleDTO(id=1513927335088855, name=苹果QQ178区), GoodsServerSimpleDTO(id=1513927335088854, name=苹果QQ177区), GoodsServerSimpleDTO(id=1513927335088853, name=苹果QQ176区), GoodsServerSimpleDTO(id=1513927335088851, name=苹果QQ175区), GoodsServerSimpleDTO(id=1513927335088850, name=苹果QQ174区), GoodsServerSimpleDTO(id=1513927335088849, name=苹果QQ173区), GoodsServerSimpleDTO(id=1513927335088847, name=苹果QQ172区), GoodsServerSimpleDTO(id=1513927335087845, name=苹果QQ171区), GoodsServerSimpleDTO(id=1513927335087843, name=苹果QQ170区), GoodsServerSimpleDTO(id=1513927335087840, name=苹果QQ169区), GoodsServerSimpleDTO(id=1513927335087837, name=苹果QQ168区), GoodsServerSimpleDTO(id=1513927335087836, name=苹果QQ167区), GoodsServerSimpleDTO(id=1513927335087835, name=苹果QQ166区), GoodsServerSimpleDTO(id=1513927335087834, name=苹果QQ165区), GoodsServerSimpleDTO(id=1513927335087833, name=苹果QQ164区), GoodsServerSimpleDTO(id=1513927335087832, name=苹果QQ163区), GoodsServerSimpleDTO(id=1513927335086830, name=苹果QQ162区), GoodsServerSimpleDTO(id=1513927335086828, name=苹果QQ161区), GoodsServerSimpleDTO(id=1513927335086827, name=苹果QQ160区), GoodsServerSimpleDTO(id=1513927335086826, name=苹果QQ159区), GoodsServerSimpleDTO(id=1513927335086825, name=苹果QQ158区), GoodsServerSimpleDTO(id=1513927335086824, name=苹果QQ157区), GoodsServerSimpleDTO(id=1513927335086823, name=苹果QQ156区), GoodsServerSimpleDTO(id=1513927335086822, name=苹果QQ155区), GoodsServerSimpleDTO(id=1513927335086821, name=苹果QQ154区), GoodsServerSimpleDTO(id=1513927335086820, name=苹果QQ153区), GoodsServerSimpleDTO(id=1513927335085819, name=苹果QQ152区), GoodsServerSimpleDTO(id=1513927335085818, name=苹果QQ151区), GoodsServerSimpleDTO(id=1513927318881507, name=苹果QQ150区), GoodsServerSimpleDTO(id=1513927318880506, name=苹果QQ149区), GoodsServerSimpleDTO(id=1513927318880505, name=苹果QQ148区), GoodsServerSimpleDTO(id=1513927318880504, name=苹果QQ147区), GoodsServerSimpleDTO(id=1513927318880503, name=苹果QQ146区), GoodsServerSimpleDTO(id=1513927318880502, name=苹果QQ145区), GoodsServerSimpleDTO(id=1513927318880501, name=苹果QQ144区), GoodsServerSimpleDTO(id=1513927318880499, name=苹果QQ143区), GoodsServerSimpleDTO(id=1513927318879496, name=苹果QQ142区), GoodsServerSimpleDTO(id=1513927318879493, name=苹果QQ141区), GoodsServerSimpleDTO(id=1513927318879490, name=苹果QQ140区), GoodsServerSimpleDTO(id=1513927318879489, name=苹果QQ139区), GoodsServerSimpleDTO(id=1513927318879488, name=苹果QQ138区), GoodsServerSimpleDTO(id=1513927318879487, name=苹果QQ137区), GoodsServerSimpleDTO(id=1513927318879486, name=苹果QQ136区), GoodsServerSimpleDTO(id=1513927318878485, name=苹果QQ135区), GoodsServerSimpleDTO(id=1513927318878484, name=苹果QQ134区), GoodsServerSimpleDTO(id=1513927318878481, name=苹果QQ133区), GoodsServerSimpleDTO(id=1513927318878479, name=苹果QQ132区), GoodsServerSimpleDTO(id=1513927318878476, name=苹果QQ131区), GoodsServerSimpleDTO(id=1513927318878475, name=苹果QQ130区), GoodsServerSimpleDTO(id=1513927318878474, name=苹果QQ129区), GoodsServerSimpleDTO(id=1513927318877472, name=苹果QQ128区), GoodsServerSimpleDTO(id=1513927318877468, name=苹果QQ127区), GoodsServerSimpleDTO(id=1513927318877466, name=苹果QQ126区), GoodsServerSimpleDTO(id=1513927318877465, name=苹果QQ125区), GoodsServerSimpleDTO(id=1513927318877464, name=苹果QQ124区), GoodsServerSimpleDTO(id=1513927318877463, name=苹果QQ123区), GoodsServerSimpleDTO(id=1513927318877462, name=苹果QQ122区), GoodsServerSimpleDTO(id=1513927318877461, name=苹果QQ121区), GoodsServerSimpleDTO(id=1513927318876460, name=苹果QQ120区), GoodsServerSimpleDTO(id=1513927318876459, name=苹果QQ119区), GoodsServerSimpleDTO(id=1513927318876458, name=苹果QQ118区), GoodsServerSimpleDTO(id=1513927318876457, name=苹果QQ117区), GoodsServerSimpleDTO(id=1513927318876456, name=苹果QQ116区), GoodsServerSimpleDTO(id=1513927318876454, name=苹果QQ115区), GoodsServerSimpleDTO(id=1513927318876452, name=苹果QQ114区), GoodsServerSimpleDTO(id=1513927318876451, name=苹果QQ113区), GoodsServerSimpleDTO(id=1513927318875450, name=苹果QQ112区), GoodsServerSimpleDTO(id=1513927318875449, name=苹果QQ111区), GoodsServerSimpleDTO(id=1513927318875447, name=苹果QQ110区), GoodsServerSimpleDTO(id=1513927318875444, name=苹果QQ109区), GoodsServerSimpleDTO(id=1513927318875443, name=苹果QQ108区), GoodsServerSimpleDTO(id=1513927318875441, name=苹果QQ107区), GoodsServerSimpleDTO(id=1513927318875439, name=苹果QQ106区), GoodsServerSimpleDTO(id=1513927318874438, name=苹果QQ105区), GoodsServerSimpleDTO(id=1513927318874437, name=苹果QQ104区), GoodsServerSimpleDTO(id=1513927318874436, name=苹果QQ103区), GoodsServerSimpleDTO(id=1513927318874435, name=苹果QQ102区), GoodsServerSimpleDTO(id=1513927318874434, name=苹果QQ101区), GoodsServerSimpleDTO(id=1510736613738838, name=苹果QQ100区), GoodsServerSimpleDTO(id=1510736613738837, name=苹果QQ99区), GoodsServerSimpleDTO(id=1510736613738836, name=苹果QQ98区), GoodsServerSimpleDTO(id=1510736613738835, name=苹果QQ97区), GoodsServerSimpleDTO(id=1510736613738834, name=苹果QQ96区), GoodsServerSimpleDTO(id=1510736613738833, name=苹果QQ95区), GoodsServerSimpleDTO(id=1510736613738830, name=苹果QQ94区), GoodsServerSimpleDTO(id=1510736613738829, name=苹果QQ93区), GoodsServerSimpleDTO(id=1510736613738828, name=苹果QQ92区), GoodsServerSimpleDTO(id=1510736613737824, name=苹果QQ91区), GoodsServerSimpleDTO(id=1510736613737823, name=苹果QQ90区), GoodsServerSimpleDTO(id=1510736613737822, name=苹果QQ89区), GoodsServerSimpleDTO(id=1510736613737821, name=苹果QQ88区), GoodsServerSimpleDTO(id=1510736613737820, name=苹果QQ87区), GoodsServerSimpleDTO(id=1510736613737819, name=苹果QQ86区), GoodsServerSimpleDTO(id=1510736613737818, name=苹果QQ85区), GoodsServerSimpleDTO(id=1510736613737816, name=苹果QQ84区), GoodsServerSimpleDTO(id=1510736613737815, name=苹果QQ83区), GoodsServerSimpleDTO(id=1510736613736812, name=苹果QQ82区), GoodsServerSimpleDTO(id=1510736613736810, name=苹果QQ81区), GoodsServerSimpleDTO(id=1498479938502429, name=苹果微信80区), GoodsServerSimpleDTO(id=1498479938502428, name=苹果微信79区), GoodsServerSimpleDTO(id=1498479938502427, name=苹果微信78区), GoodsServerSimpleDTO(id=1498479938501426, name=苹果微信77区), GoodsServerSimpleDTO(id=1498479938501425, name=苹果微信76区), GoodsServerSimpleDTO(id=1498479938501423, name=苹果微信75区), GoodsServerSimpleDTO(id=1498479938501421, name=苹果微信74区), GoodsServerSimpleDTO(id=1498479938501420, name=苹果微信73区), GoodsServerSimpleDTO(id=1498479938501419, name=苹果微信72区), GoodsServerSimpleDTO(id=1498479938501418, name=苹果微信71区), GoodsServerSimpleDTO(id=1498479938501417, name=苹果微信70区), GoodsServerSimpleDTO(id=1498479938501415, name=苹果微信69区), GoodsServerSimpleDTO(id=1498479938501412, name=苹果微信68区), GoodsServerSimpleDTO(id=1498479938500410, name=苹果微信67区), GoodsServerSimpleDTO(id=1498479938500409, name=苹果微信66区), GoodsServerSimpleDTO(id=1498479938500407, name=苹果微信65区), GoodsServerSimpleDTO(id=1498479938500406, name=苹果微信64区), GoodsServerSimpleDTO(id=1498479938500404, name=苹果微信63区), GoodsServerSimpleDTO(id=1498479938500403, name=苹果微信62区), GoodsServerSimpleDTO(id=1498479938500402, name=苹果微信61区), GoodsServerSimpleDTO(id=1498479938500401, name=苹果微信60区), GoodsServerSimpleDTO(id=1498479938500400, name=59区), GoodsServerSimpleDTO(id=1498479938499399, name=58区), GoodsServerSimpleDTO(id=1498479938499398, name=57区), GoodsServerSimpleDTO(id=1498479938499396, name=56区), GoodsServerSimpleDTO(id=1498479938499395, name=55区), GoodsServerSimpleDTO(id=1498479938499394, name=54区), GoodsServerSimpleDTO(id=1498479938499393, name=53区), GoodsServerSimpleDTO(id=1498479938499392, name=52区), GoodsServerSimpleDTO(id=1498479938499391, name=51区), GoodsServerSimpleDTO(id=1498479881164324, name=苹果QQ80区), GoodsServerSimpleDTO(id=1498479881164323, name=苹果QQ79区), GoodsServerSimpleDTO(id=1498479881164322, name=苹果QQ78区), GoodsServerSimpleDTO(id=1498479881164321, name=苹果QQ77区), GoodsServerSimpleDTO(id=1498479881164319, name=苹果QQ76区), GoodsServerSimpleDTO(id=1498479881164318, name=苹果QQ75区), GoodsServerSimpleDTO(id=1498479881164317, name=苹果QQ74区), GoodsServerSimpleDTO(id=1498479881164315, name=苹果QQ73区), GoodsServerSimpleDTO(id=1498479881163314, name=苹果QQ72区), GoodsServerSimpleDTO(id=1498479881163313, name=苹果QQ71区), GoodsServerSimpleDTO(id=1498479881163312, name=苹果QQ70区), GoodsServerSimpleDTO(id=1498479881163310, name=苹果QQ69区), GoodsServerSimpleDTO(id=1498479881163309, name=苹果QQ68区), GoodsServerSimpleDTO(id=1498479881163308, name=苹果QQ67区), GoodsServerSimpleDTO(id=1498479881163306, name=苹果QQ66区), GoodsServerSimpleDTO(id=1498479881162304, name=苹果QQ65区), GoodsServerSimpleDTO(id=1498479881162302, name=苹果QQ64区), GoodsServerSimpleDTO(id=1498479881162299, name=苹果QQ63区), GoodsServerSimpleDTO(id=1498479881162298, name=苹果QQ62区), GoodsServerSimpleDTO(id=1498479881162297, name=苹果QQ61区), GoodsServerSimpleDTO(id=1498479881161294, name=苹果QQ60区), GoodsServerSimpleDTO(id=817861, name=苹果QQ59区), GoodsServerSimpleDTO(id=817860, name=苹果QQ58区), GoodsServerSimpleDTO(id=817859, name=苹果QQ57区), GoodsServerSimpleDTO(id=817858, name=苹果QQ56区), GoodsServerSimpleDTO(id=817857, name=苹果QQ55区), GoodsServerSimpleDTO(id=817856, name=苹果QQ54区), GoodsServerSimpleDTO(id=817855, name=苹果QQ53区), GoodsServerSimpleDTO(id=817854, name=苹果QQ52区), GoodsServerSimpleDTO(id=817853, name=苹果QQ51区), GoodsServerSimpleDTO(id=817852, name=苹果QQ50区), GoodsServerSimpleDTO(id=817851, name=苹果QQ49区), GoodsServerSimpleDTO(id=817850, name=苹果QQ48区), GoodsServerSimpleDTO(id=817849, name=苹果QQ47区), GoodsServerSimpleDTO(id=817848, name=苹果QQ46区), GoodsServerSimpleDTO(id=817847, name=苹果QQ45区), GoodsServerSimpleDTO(id=817846, name=苹果QQ44区), GoodsServerSimpleDTO(id=817845, name=苹果QQ43区), GoodsServerSimpleDTO(id=817844, name=苹果QQ42区), GoodsServerSimpleDTO(id=817843, name=苹果QQ41区), GoodsServerSimpleDTO(id=817842, name=苹果QQ40区), GoodsServerSimpleDTO(id=817841, name=苹果QQ39区), GoodsServerSimpleDTO(id=817840, name=苹果QQ38区), GoodsServerSimpleDTO(id=817839, name=苹果QQ37区), GoodsServerSimpleDTO(id=817838, name=苹果QQ36区), GoodsServerSimpleDTO(id=817837, name=苹果QQ35区), GoodsServerSimpleDTO(id=817836, name=苹果QQ34区), GoodsServerSimpleDTO(id=817835, name=苹果QQ33区), GoodsServerSimpleDTO(id=817834, name=苹果QQ32区), GoodsServerSimpleDTO(id=718033, name=苹果QQ30区), GoodsServerSimpleDTO(id=817833, name=苹果QQ31区), GoodsServerSimpleDTO(id=718032, name=苹果QQ29区), GoodsServerSimpleDTO(id=718031, name=苹果QQ28区), GoodsServerSimpleDTO(id=718030, name=苹果QQ27区), GoodsServerSimpleDTO(id=718029, name=苹果QQ26区), GoodsServerSimpleDTO(id=718028, name=苹果QQ25区), GoodsServerSimpleDTO(id=718027, name=苹果QQ24区), GoodsServerSimpleDTO(id=718026, name=苹果QQ23区), GoodsServerSimpleDTO(id=718025, name=苹果QQ22区), GoodsServerSimpleDTO(id=718024, name=苹果QQ21区), GoodsServerSimpleDTO(id=718023, name=苹果QQ20区), GoodsServerSimpleDTO(id=718022, name=苹果QQ19区), GoodsServerSimpleDTO(id=718021, name=苹果QQ18区), GoodsServerSimpleDTO(id=718020, name=苹果QQ17区), GoodsServerSimpleDTO(id=718019, name=苹果QQ16区), GoodsServerSimpleDTO(id=718018, name=苹果QQ15区), GoodsServerSimpleDTO(id=718017, name=苹果QQ14区), GoodsServerSimpleDTO(id=718016, name=苹果QQ13区), GoodsServerSimpleDTO(id=718015, name=苹果QQ12区), GoodsServerSimpleDTO(id=718014, name=苹果QQ11区), GoodsServerSimpleDTO(id=718013, name=苹果QQ10区), GoodsServerSimpleDTO(id=718012, name=苹果QQ9区), GoodsServerSimpleDTO(id=718011, name=苹果QQ8区), GoodsServerSimpleDTO(id=718010, name=苹果QQ7区), GoodsServerSimpleDTO(id=718009, name=苹果QQ6区), GoodsServerSimpleDTO(id=718008, name=苹果QQ5区), GoodsServerSimpleDTO(id=718007, name=苹果QQ4区), GoodsServerSimpleDTO(id=718006, name=苹果QQ3区), GoodsServerSimpleDTO(id=718005, name=苹果QQ2区), GoodsServerSimpleDTO(id=718004, name=苹果QQ1区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903070868728, name=全平台通用), GoodsServerSimpleDTO(id=1520565539285187, name=400区), GoodsServerSimpleDTO(id=1520565539285185, name=399区), GoodsServerSimpleDTO(id=1520565539285184, name=398区), GoodsServerSimpleDTO(id=1520565539285180, name=397区), GoodsServerSimpleDTO(id=1520565539284179, name=396区), GoodsServerSimpleDTO(id=1520565539284178, name=395区), GoodsServerSimpleDTO(id=1520565539284177, name=394区), GoodsServerSimpleDTO(id=1520565539284175, name=393区), GoodsServerSimpleDTO(id=1520565539284173, name=392区), GoodsServerSimpleDTO(id=1520565539284172, name=391区), GoodsServerSimpleDTO(id=1520565539284171, name=390区), GoodsServerSimpleDTO(id=1520565539283169, name=389区), GoodsServerSimpleDTO(id=1520565539283168, name=388区), GoodsServerSimpleDTO(id=1520565539283164, name=387区), GoodsServerSimpleDTO(id=1520565539283162, name=386区), GoodsServerSimpleDTO(id=1520565539283161, name=385区), GoodsServerSimpleDTO(id=1520565539283159, name=384区), GoodsServerSimpleDTO(id=1520565539282157, name=383区), GoodsServerSimpleDTO(id=1520565539282153, name=382区), GoodsServerSimpleDTO(id=1520565539282152, name=381区), GoodsServerSimpleDTO(id=1520565539282151, name=380区), GoodsServerSimpleDTO(id=1520565539282149, name=379区), GoodsServerSimpleDTO(id=1520565539282147, name=378区), GoodsServerSimpleDTO(id=1520565539281145, name=377区), GoodsServerSimpleDTO(id=1520565539281143, name=376区), GoodsServerSimpleDTO(id=1520565539281140, name=375区), GoodsServerSimpleDTO(id=1520565539281138, name=374区), GoodsServerSimpleDTO(id=1520565539281135, name=373区), GoodsServerSimpleDTO(id=1520565539281134, name=372区), GoodsServerSimpleDTO(id=1520565539280133, name=371区), GoodsServerSimpleDTO(id=1520565539280132, name=370区), GoodsServerSimpleDTO(id=1520565539280129, name=369区), GoodsServerSimpleDTO(id=1520565539280127, name=368区), GoodsServerSimpleDTO(id=1520565539280125, name=367区), GoodsServerSimpleDTO(id=1520565539279122, name=366区), GoodsServerSimpleDTO(id=1520565539279120, name=365区), GoodsServerSimpleDTO(id=1520565539279118, name=364区), GoodsServerSimpleDTO(id=1520565539279115, name=363区), GoodsServerSimpleDTO(id=1520565539278112, name=362区), GoodsServerSimpleDTO(id=1520565539278107, name=361区), GoodsServerSimpleDTO(id=1520565539278106, name=360区), GoodsServerSimpleDTO(id=1520565539278103, name=359区), GoodsServerSimpleDTO(id=1520565539278102, name=358区), GoodsServerSimpleDTO(id=1520565539278100, name=357区), GoodsServerSimpleDTO(id=1520565539277099, name=356区), GoodsServerSimpleDTO(id=1520565539277096, name=355区), GoodsServerSimpleDTO(id=1520565539277093, name=354区), GoodsServerSimpleDTO(id=1520565539277091, name=353区), GoodsServerSimpleDTO(id=1520565539277089, name=352区), GoodsServerSimpleDTO(id=1520565539277086, name=351区), GoodsServerSimpleDTO(id=1520565519651677, name=350区), GoodsServerSimpleDTO(id=1520565519651676, name=349区), GoodsServerSimpleDTO(id=1520565519651675, name=348区), GoodsServerSimpleDTO(id=1520565519650674, name=347区), GoodsServerSimpleDTO(id=1520565519650672, name=346区), GoodsServerSimpleDTO(id=1520565519650671, name=345区), GoodsServerSimpleDTO(id=1520565519650670, name=344区), GoodsServerSimpleDTO(id=1520565519650667, name=343区), GoodsServerSimpleDTO(id=1520565519650665, name=342区), GoodsServerSimpleDTO(id=1520565519650664, name=341区), GoodsServerSimpleDTO(id=1520565519649663, name=340区), GoodsServerSimpleDTO(id=1520565519649662, name=339区), GoodsServerSimpleDTO(id=1520565519649660, name=338区), GoodsServerSimpleDTO(id=1520565519649659, name=337区), GoodsServerSimpleDTO(id=1520565519649658, name=336区), GoodsServerSimpleDTO(id=1520565519649655, name=335区), GoodsServerSimpleDTO(id=1520565519649652, name=334区), GoodsServerSimpleDTO(id=1520565519648651, name=333区), GoodsServerSimpleDTO(id=1520565519648650, name=332区), GoodsServerSimpleDTO(id=1520565519648649, name=331区), GoodsServerSimpleDTO(id=1520565519648648, name=330区), GoodsServerSimpleDTO(id=1520565519648646, name=329区), GoodsServerSimpleDTO(id=1520565519648645, name=328区), GoodsServerSimpleDTO(id=1520565519648643, name=327区), GoodsServerSimpleDTO(id=1520565519647642, name=326区), GoodsServerSimpleDTO(id=1520565519647639, name=325区), GoodsServerSimpleDTO(id=1520565519647638, name=324区), GoodsServerSimpleDTO(id=1520565519646636, name=323区), GoodsServerSimpleDTO(id=1520565519646634, name=322区), GoodsServerSimpleDTO(id=1520565519646631, name=321区), GoodsServerSimpleDTO(id=1520565519645629, name=320区), GoodsServerSimpleDTO(id=1520565519645626, name=319区), GoodsServerSimpleDTO(id=1520565519645624, name=318区), GoodsServerSimpleDTO(id=1520565519645623, name=317区), GoodsServerSimpleDTO(id=1520565519645622, name=316区), GoodsServerSimpleDTO(id=1520565519645621, name=315区), GoodsServerSimpleDTO(id=1520565519645620, name=314区), GoodsServerSimpleDTO(id=1520565519644618, name=313区), GoodsServerSimpleDTO(id=1520565519644617, name=312区), GoodsServerSimpleDTO(id=1520565519644616, name=311区), GoodsServerSimpleDTO(id=1520565519644615, name=310区), GoodsServerSimpleDTO(id=1520565519644612, name=309区), GoodsServerSimpleDTO(id=1520565519643611, name=308区), GoodsServerSimpleDTO(id=1520565519643610, name=307区), GoodsServerSimpleDTO(id=1520565519643608, name=306区), GoodsServerSimpleDTO(id=1520565519643606, name=305区), GoodsServerSimpleDTO(id=1520565519643605, name=304区), GoodsServerSimpleDTO(id=1520565519643603, name=303区), GoodsServerSimpleDTO(id=1520565519642602, name=302区), GoodsServerSimpleDTO(id=1520565519642600, name=301区), GoodsServerSimpleDTO(id=1520565499183983, name=300区), GoodsServerSimpleDTO(id=1520565499183982, name=299区), GoodsServerSimpleDTO(id=1520565499183980, name=298区), GoodsServerSimpleDTO(id=1520565499183978, name=297区), GoodsServerSimpleDTO(id=1520565499183977, name=296区), GoodsServerSimpleDTO(id=1520565499182975, name=295区), GoodsServerSimpleDTO(id=1520565499182973, name=294区), GoodsServerSimpleDTO(id=1520565499182971, name=293区), GoodsServerSimpleDTO(id=1520565499182970, name=292区), GoodsServerSimpleDTO(id=1520565499182969, name=291区), GoodsServerSimpleDTO(id=1520565499182968, name=290区), GoodsServerSimpleDTO(id=1520565499182967, name=289区), GoodsServerSimpleDTO(id=1520565499182966, name=288区), GoodsServerSimpleDTO(id=1520565499182963, name=287区), GoodsServerSimpleDTO(id=1520565499182961, name=286区), GoodsServerSimpleDTO(id=1520565499181960, name=285区), GoodsServerSimpleDTO(id=1520565499181959, name=284区), GoodsServerSimpleDTO(id=1520565499181957, name=283区), GoodsServerSimpleDTO(id=1520565499181956, name=282区), GoodsServerSimpleDTO(id=1520565499181955, name=281区), GoodsServerSimpleDTO(id=1520565499181953, name=280区), GoodsServerSimpleDTO(id=1520565499181951, name=279区), GoodsServerSimpleDTO(id=1520565499181950, name=278区), GoodsServerSimpleDTO(id=1520565499181949, name=277区), GoodsServerSimpleDTO(id=1520565499180946, name=276区), GoodsServerSimpleDTO(id=1520565499180945, name=275区), GoodsServerSimpleDTO(id=1520565499180943, name=274区), GoodsServerSimpleDTO(id=1520565499180942, name=273区), GoodsServerSimpleDTO(id=1520565499180940, name=272区), GoodsServerSimpleDTO(id=1520565499180939, name=271区), GoodsServerSimpleDTO(id=1520565499180938, name=270区), GoodsServerSimpleDTO(id=1520565499180937, name=269区), GoodsServerSimpleDTO(id=1520565499180935, name=268区), GoodsServerSimpleDTO(id=1520565499179934, name=267区), GoodsServerSimpleDTO(id=1520565499179932, name=266区), GoodsServerSimpleDTO(id=1520565499179931, name=265区), GoodsServerSimpleDTO(id=1520565499179929, name=264区), GoodsServerSimpleDTO(id=1520565499179927, name=263区), GoodsServerSimpleDTO(id=1520565499179926, name=262区), GoodsServerSimpleDTO(id=1520565499179924, name=261区), GoodsServerSimpleDTO(id=1520565499179923, name=260区), GoodsServerSimpleDTO(id=1520565499179922, name=259区), GoodsServerSimpleDTO(id=1520565499179921, name=258区), GoodsServerSimpleDTO(id=1520565499179920, name=257区), GoodsServerSimpleDTO(id=1520565499178918, name=256区), GoodsServerSimpleDTO(id=1520565499178917, name=255区), GoodsServerSimpleDTO(id=1520565499178916, name=254区), GoodsServerSimpleDTO(id=1520565499178915, name=253区), GoodsServerSimpleDTO(id=1520565499178914, name=252区), GoodsServerSimpleDTO(id=1520565499178910, name=251区), GoodsServerSimpleDTO(id=1520565482676345, name=250区), GoodsServerSimpleDTO(id=1520565482676344, name=249区), GoodsServerSimpleDTO(id=1520565482676343, name=248区), GoodsServerSimpleDTO(id=1520565482676342, name=247区), GoodsServerSimpleDTO(id=1520565482676341, name=246区), GoodsServerSimpleDTO(id=1520565482675339, name=245区), GoodsServerSimpleDTO(id=1520565482675336, name=244区), GoodsServerSimpleDTO(id=1520565482675334, name=243区), GoodsServerSimpleDTO(id=1520565482674333, name=242区), GoodsServerSimpleDTO(id=1520565482674331, name=241区), GoodsServerSimpleDTO(id=1520565482674327, name=240区), GoodsServerSimpleDTO(id=1520565482673326, name=239区), GoodsServerSimpleDTO(id=1520565482673325, name=238区), GoodsServerSimpleDTO(id=1520565482673321, name=237区), GoodsServerSimpleDTO(id=1520565482672320, name=236区), GoodsServerSimpleDTO(id=1520565482672318, name=235区), GoodsServerSimpleDTO(id=1520565482672317,name=234区), GoodsServerSimpleDTO(id=1520565482671314, name=233区), GoodsServerSimpleDTO(id=1520565482670311, name=232区), GoodsServerSimpleDTO(id=1520565482670309, name=231区), GoodsServerSimpleDTO(id=1520565482670307, name=230区), GoodsServerSimpleDTO(id=1520565482670306, name=229区), GoodsServerSimpleDTO(id=1520565482669303, name=228区), GoodsServerSimpleDTO(id=1520565482669300, name=227区), GoodsServerSimpleDTO(id=1520565482669298, name=226区), GoodsServerSimpleDTO(id=1520565482669296, name=225区), GoodsServerSimpleDTO(id=1520565482669295, name=224区), GoodsServerSimpleDTO(id=1520565482669294, name=223区), GoodsServerSimpleDTO(id=1520565482668293, name=222区), GoodsServerSimpleDTO(id=1520565482668292, name=221区), GoodsServerSimpleDTO(id=1520565482668290, name=220区),GoodsServerSimpleDTO(id=1520565482668288, name=219区), GoodsServerSimpleDTO(id=1520565482668285, name=218区), GoodsServerSimpleDTO(id=1520565482668283, name=217区), GoodsServerSimpleDTO(id=1520565482667279, name=216区), GoodsServerSimpleDTO(id=1520565482667278, name=215区), GoodsServerSimpleDTO(id=1520565482667277, name=214区), GoodsServerSimpleDTO(id=1520565482667276, name=213区), GoodsServerSimpleDTO(id=1520565482667275, name=212区), GoodsServerSimpleDTO(id=1520565482667274, name=211区), GoodsServerSimpleDTO(id=1520565482667273, name=210区), GoodsServerSimpleDTO(id=1520565482666272, name=209区), GoodsServerSimpleDTO(id=1520565482666271, name=208区), GoodsServerSimpleDTO(id=1520565482666267, name=207区), GoodsServerSimpleDTO(id=1520565482666264, name=206区), GoodsServerSimpleDTO(id=1520565482666262, name=205区), GoodsServerSimpleDTO(id=1520565482665260, name=204区), GoodsServerSimpleDTO(id=1520565482665258, name=203区), GoodsServerSimpleDTO(id=1520565482665257, name=202区), GoodsServerSimpleDTO(id=1520565482664254, name=201区), GoodsServerSimpleDTO(id=1520564772841752, name=微信全服通用), GoodsServerSimpleDTO(id=1513927403776737, name=苹果微信200区), GoodsServerSimpleDTO(id=1513927403776733, name=苹果微信199区), GoodsServerSimpleDTO(id=1513927403776729, name=苹果微信198区), GoodsServerSimpleDTO(id=1513927403776727, name=苹果微信197区), GoodsServerSimpleDTO(id=1513927403775725, name=苹果微信196区), GoodsServerSimpleDTO(id=1513927403775722, name=苹果微信195区), GoodsServerSimpleDTO(id=1513927403775720, name=苹果微信194区), GoodsServerSimpleDTO(id=1513927403775718, name=苹果微信193区), GoodsServerSimpleDTO(id=1513927403775717, name=苹果微信192区), GoodsServerSimpleDTO(id=1513927403775715, name=苹果微信191区), GoodsServerSimpleDTO(id=1513927403774714, name=苹果微信190区), GoodsServerSimpleDTO(id=1513927403774712, name=苹果微信189区), GoodsServerSimpleDTO(id=1513927403774711, name=苹果微信188区), GoodsServerSimpleDTO(id=1513927403774709, name=苹果微信187区), GoodsServerSimpleDTO(id=1513927403774708, name=苹果微信186区), GoodsServerSimpleDTO(id=1513927403774704, name=苹果微信185区), GoodsServerSimpleDTO(id=1513927403774702, name=苹果微信184区), GoodsServerSimpleDTO(id=1513927403773700, name=苹果微信183区), GoodsServerSimpleDTO(id=1513927403773699, name=苹果微信182区), GoodsServerSimpleDTO(id=1513927403773698, name=苹果微信181区), GoodsServerSimpleDTO(id=1513927403773695, name=苹果微信180区), GoodsServerSimpleDTO(id=1513927403772694, name=苹果微信179区), GoodsServerSimpleDTO(id=1513927403772692, name=苹果微信178区), GoodsServerSimpleDTO(id=1513927403772691, name=苹果微信177区), GoodsServerSimpleDTO(id=1513927403772689, name=苹果微信176区), GoodsServerSimpleDTO(id=1513927403772686, name=苹果微信175区), GoodsServerSimpleDTO(id=1513927403772685, name=苹果微信174区), GoodsServerSimpleDTO(id=1513927403772683, name=苹果微信173区), GoodsServerSimpleDTO(id=1513927403772682, name=苹果微信172区), GoodsServerSimpleDTO(id=1513927403771680, name=苹果微信171区), GoodsServerSimpleDTO(id=1513927403771679, name=苹果微信170区), GoodsServerSimpleDTO(id=1513927403771678, name=苹果微信169区), GoodsServerSimpleDTO(id=1513927403771677, name=苹果微信168区), GoodsServerSimpleDTO(id=1513927403771676, name=苹果微信167区), GoodsServerSimpleDTO(id=1513927403771675, name=苹果微信166区), GoodsServerSimpleDTO(id=1513927403770673, name=苹果微信165区), GoodsServerSimpleDTO(id=1513927403770671, name=苹果微信164区), GoodsServerSimpleDTO(id=1513927403770670, name=苹果微信163区), GoodsServerSimpleDTO(id=1513927403770668, name=苹果微信162区), GoodsServerSimpleDTO(id=1513927403770667, name=苹果微信161区), GoodsServerSimpleDTO(id=1513927403770664, name=苹果微信160区), GoodsServerSimpleDTO(id=1513927403770663, name=苹果微信159区), GoodsServerSimpleDTO(id=1513927403769661, name=苹果微信158区), GoodsServerSimpleDTO(id=1513927403769660, name=苹果微信157区), GoodsServerSimpleDTO(id=1513927403769659, name=苹果微信156区), GoodsServerSimpleDTO(id=1513927403769658, name=苹果微信155区), GoodsServerSimpleDTO(id=1513927403769657, name=苹果微信154区), GoodsServerSimpleDTO(id=1513927403769655, name=苹果微信153区), GoodsServerSimpleDTO(id=1513927403769654, name=苹果微信152区), GoodsServerSimpleDTO(id=1513927403768651, name=苹果微信151区), GoodsServerSimpleDTO(id=1513927388418232, name=苹果微信150区), GoodsServerSimpleDTO(id=1513927388418231, name=苹果微信149区), GoodsServerSimpleDTO(id=1513927388417229, name=苹果微信148区), GoodsServerSimpleDTO(id=1513927388417227, name=苹果微信147区), GoodsServerSimpleDTO(id=1513927388417225, name=苹果微信146区), GoodsServerSimpleDTO(id=1513927388417224, name=苹果微信145区), GoodsServerSimpleDTO(id=1513927388417223, name=苹果微信144区), GoodsServerSimpleDTO(id=1513927388417221, name=苹果微信143区), GoodsServerSimpleDTO(id=1513927388416220, name=苹果微信142区), GoodsServerSimpleDTO(id=1513927388416219, name=苹果微信141区), GoodsServerSimpleDTO(id=1513927388416218, name=苹果微信140区), GoodsServerSimpleDTO(id=1513927388416216, name=苹果微信139区), GoodsServerSimpleDTO(id=1513927388416211, name=苹果微信138区), GoodsServerSimpleDTO(id=1513927388415209, name=苹果微信137区), GoodsServerSimpleDTO(id=1513927388415208, name=苹果微信136区), GoodsServerSimpleDTO(id=1513927388415206, name=苹果微信135区), GoodsServerSimpleDTO(id=1513927388415205, name=苹果微信134区), GoodsServerSimpleDTO(id=1513927388415203, name=苹果微信133区), GoodsServerSimpleDTO(id=1513927388415202, name=苹果微信132区), GoodsServerSimpleDTO(id=1513927388415201, name=苹果微信131区), GoodsServerSimpleDTO(id=1513927388415200, name=苹果微信130区), GoodsServerSimpleDTO(id=1513927388414198, name=苹果微信129区), GoodsServerSimpleDTO(id=1513927388414196, name=苹果微信128区), GoodsServerSimpleDTO(id=1513927388414195, name=苹果微信127区), GoodsServerSimpleDTO(id=1513927388414193, name=苹果微信126区), GoodsServerSimpleDTO(id=1513927388414191, name=苹果微信125区), GoodsServerSimpleDTO(id=1513927388414189, name=苹果微信124区), GoodsServerSimpleDTO(id=1513927388414187, name=苹果微信123区), GoodsServerSimpleDTO(id=1513927388413184, name=苹果微信122区), GoodsServerSimpleDTO(id=1513927388413183, name=苹果微信121区), GoodsServerSimpleDTO(id=1513927388413182, name=苹果微信120区), GoodsServerSimpleDTO(id=1513927388413181, name=苹果微信119区), GoodsServerSimpleDTO(id=1513927388413178, name=苹果微信118区), GoodsServerSimpleDTO(id=1513927388413177, name=苹果微信117区), GoodsServerSimpleDTO(id=1513927388412176, name=苹果微信116区), GoodsServerSimpleDTO(id=1513927388412174, name=苹果微信115区), GoodsServerSimpleDTO(id=1513927388412173, name=苹果微信114区), GoodsServerSimpleDTO(id=1513927388412172, name=苹果微信113区), GoodsServerSimpleDTO(id=1513927388412171, name=苹果微信112区), GoodsServerSimpleDTO(id=1513927388412170, name=苹果微信111区), GoodsServerSimpleDTO(id=1513927388412168, name=苹果微信110区), GoodsServerSimpleDTO(id=1513927388412167, name=苹果微信109区), GoodsServerSimpleDTO(id=1513927388411166, name=苹果微信108区), GoodsServerSimpleDTO(id=1513927388411164, name=苹果微信107区), GoodsServerSimpleDTO(id=1513927388411161, name=苹果微信106区), GoodsServerSimpleDTO(id=1513927388411159, name=苹果微信105区), GoodsServerSimpleDTO(id=1513927388411156, name=苹果微信104区), GoodsServerSimpleDTO(id=1513927388411155, name=苹果微信103区), GoodsServerSimpleDTO(id=1513927388410154, name=苹果微信102区), GoodsServerSimpleDTO(id=1513927388410153, name=苹果微信101区), GoodsServerSimpleDTO(id=1510736665094776, name=苹果微信100区), GoodsServerSimpleDTO(id=1510736665093774, name=苹果微信99区), GoodsServerSimpleDTO(id=1510736665093773, name=苹果微信98区), GoodsServerSimpleDTO(id=1510736665093772, name=苹果微信97区), GoodsServerSimpleDTO(id=1510736665093770, name=苹果微信96区), GoodsServerSimpleDTO(id=1510736665093769, name=苹果微信95区), GoodsServerSimpleDTO(id=1510736665093768, name=苹果微信94区), GoodsServerSimpleDTO(id=1510736665092766, name=苹果微信93区), GoodsServerSimpleDTO(id=1510736665092765, name=苹果微信92区), GoodsServerSimpleDTO(id=1510736665092764, name=苹果微信91区), GoodsServerSimpleDTO(id=1510736665092763, name=苹果微信90区),GoodsServerSimpleDTO(id=1510736665092762, name=苹果微信89区), GoodsServerSimpleDTO(id=1510736665092760, name=苹果微信88区), GoodsServerSimpleDTO(id=1510736665092758, name=苹果微信87区), GoodsServerSimpleDTO(id=1510736665091757, name=苹果微信86区), GoodsServerSimpleDTO(id=1510736665091756, name=苹果微信85区), GoodsServerSimpleDTO(id=1510736665091755, name=苹果微信84区), GoodsServerSimpleDTO(id=1510736665091752, name=苹果微信83区), GoodsServerSimpleDTO(id=1510736665091751, name=苹果微信82区), GoodsServerSimpleDTO(id=1510736665091750, name=苹果微信81区), GoodsServerSimpleDTO(id=1498479938502429, name=苹果微信80区), GoodsServerSimpleDTO(id=1498479938502428, name=苹果微信79区), GoodsServerSimpleDTO(id=1498479938502427, name=苹果微信78区), GoodsServerSimpleDTO(id=1498479938501426, name=苹果微信77区), GoodsServerSimpleDTO(id=1498479938501425, name=苹果微信76区), GoodsServerSimpleDTO(id=1498479938501423, name=苹果微信75区), GoodsServerSimpleDTO(id=1498479938501421, name=苹果微信74区), GoodsServerSimpleDTO(id=1498479938501420, name=苹果微信73区), GoodsServerSimpleDTO(id=1498479938501419, name=苹果微信72区), GoodsServerSimpleDTO(id=1498479938501418, name=苹果微信71区), GoodsServerSimpleDTO(id=1498479938501417, name=苹果微信70区), GoodsServerSimpleDTO(id=1498479938501415, name=苹果微信69区), GoodsServerSimpleDTO(id=1498479938501412, name=苹果微信68区), GoodsServerSimpleDTO(id=1498479938500410, name=苹果微信67区), GoodsServerSimpleDTO(id=1498479938500409, name=苹果微信66区), GoodsServerSimpleDTO(id=1498479938500407, name=苹果微信65区), GoodsServerSimpleDTO(id=1498479938500406, name=苹果微信64区), GoodsServerSimpleDTO(id=1498479938500404, name=苹果微信63区), GoodsServerSimpleDTO(id=1498479938500403, name=苹果微信62区), GoodsServerSimpleDTO(id=1498479938500402, name=苹果微信61区), GoodsServerSimpleDTO(id=1498479938500401, name=苹果微信60区), GoodsServerSimpleDTO(id=1498479938500400, name=59区), GoodsServerSimpleDTO(id=1498479938499399, name=58区), GoodsServerSimpleDTO(id=1498479938499398, name=57区), GoodsServerSimpleDTO(id=1498479938499396, name=56区), GoodsServerSimpleDTO(id=1498479938499395, name=55区), GoodsServerSimpleDTO(id=1498479938499394, name=54区), GoodsServerSimpleDTO(id=1498479938499393, name=53区), GoodsServerSimpleDTO(id=1498479938499392, name=52区), GoodsServerSimpleDTO(id=1498479938499391, name=51区), GoodsServerSimpleDTO(id=1495881343246451, name=50区), GoodsServerSimpleDTO(id=1495881343246449, name=49区), GoodsServerSimpleDTO(id=1495881343246447, name=48区), GoodsServerSimpleDTO(id=1495881343246446, name=47区), GoodsServerSimpleDTO(id=1495881343246445, name=46区), GoodsServerSimpleDTO(id=1495881343246444, name=45区), GoodsServerSimpleDTO(id=1495881343246443, name=44区), GoodsServerSimpleDTO(id=1495881343245442, name=43区), GoodsServerSimpleDTO(id=1495881343245441, name=42区), GoodsServerSimpleDTO(id=1495881343245440, name=41区), GoodsServerSimpleDTO(id=1495881343245439, name=40区), GoodsServerSimpleDTO(id=1495881343245438, name=39区), GoodsServerSimpleDTO(id=1495881343245436, name=38区), GoodsServerSimpleDTO(id=1495881343245435, name=37区), GoodsServerSimpleDTO(id=1495881343245434, name=36区), GoodsServerSimpleDTO(id=1495881343244432, name=35区), GoodsServerSimpleDTO(id=1495881343244431, name=34区), GoodsServerSimpleDTO(id=1495881343244430, name=33区), GoodsServerSimpleDTO(id=1495881343244429, name=32区), GoodsServerSimpleDTO(id=1495881343244428, name=31区), GoodsServerSimpleDTO(id=1495881343244426, name=30区), GoodsServerSimpleDTO(id=1495881343244425, name=29区), GoodsServerSimpleDTO(id=1495881343244424, name=28区), GoodsServerSimpleDTO(id=1495881343244423, name=27区), GoodsServerSimpleDTO(id=1495881343243422, name=26区), GoodsServerSimpleDTO(id=1495881343243421, name=25区), GoodsServerSimpleDTO(id=1495881343243420, name=24区), GoodsServerSimpleDTO(id=1495881343243419, name=23区), GoodsServerSimpleDTO(id=1495881343243418, name=22区), GoodsServerSimpleDTO(id=1495881343243417, name=21区), GoodsServerSimpleDTO(id=1495881343243416, name=20区), GoodsServerSimpleDTO(id=1495881343243415, name=19区), GoodsServerSimpleDTO(id=1495881343242414, name=18区), GoodsServerSimpleDTO(id=1495881343242413, name=17区), GoodsServerSimpleDTO(id=1495881343242411, name=16区), GoodsServerSimpleDTO(id=1495881343242410, name=15区), GoodsServerSimpleDTO(id=1495881343242409, name=14区), GoodsServerSimpleDTO(id=1495881343242408, name=13区), GoodsServerSimpleDTO(id=1495881343242406, name=12区), GoodsServerSimpleDTO(id=1495881343241405, name=11区), GoodsServerSimpleDTO(id=1495881343241404, name=10区), GoodsServerSimpleDTO(id=1495881343241403, name=9区), GoodsServerSimpleDTO(id=1495881343241399, name=8区), GoodsServerSimpleDTO(id=1495881343240398, name=7区), GoodsServerSimpleDTO(id=1495881343240396, name=6区), GoodsServerSimpleDTO(id=1495881343240395, name=5区), GoodsServerSimpleDTO(id=1495881343240394, name=4区), GoodsServerSimpleDTO(id=1495881343240393, name=3区), GoodsServerSimpleDTO(id=1495881343240392, name=2区), GoodsServerSimpleDTO(id=1495881343239391, name=1区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1535364157745866, name=安卓QQ专区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1555490599140856, name=新区预售), GoodsServerSimpleDTO(id=1539844286658920, name=安卓微信专区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1535364178344308, name=苹果QQ专区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1539844295575679, name=专区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=680750, name=安卓QQ服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1513664764829926, name=新区预售), GoodsServerSimpleDTO(id=1499673572723335, name=安卓微信服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=769229, name=苹果QQ服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1499673599536190, name=服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1625831741020732, name=2300区), GoodsServerSimpleDTO(id=1625831741019728,name=2299区), GoodsServerSimpleDTO(id=1625831741018723, name=2298区), GoodsServerSimpleDTO(id=1625831741018711, name=2297区), GoodsServerSimpleDTO(id=1625831741017703, name=2296区), GoodsServerSimpleDTO(id=1625831741016697, name=2295区), GoodsServerSimpleDTO(id=1625831741015692, name=2294区), GoodsServerSimpleDTO(id=1625831741015689, name=2293区), GoodsServerSimpleDTO(id=1625831741014683, name=2292区), GoodsServerSimpleDTO(id=1625831741013676, name=2291区), GoodsServerSimpleDTO(id=1625831741013672, name=2290区), GoodsServerSimpleDTO(id=1625831741012664, name=2289区), GoodsServerSimpleDTO(id=1625831741011654, name=2288区), GoodsServerSimpleDTO(id=1625831741010650, name=2287区), GoodsServerSimpleDTO(id=1625831741010644, name=2286区), GoodsServerSimpleDTO(id=1625831741009636, name=2285区), GoodsServerSimpleDTO(id=1625831741008633, name=2284区), GoodsServerSimpleDTO(id=1625831741008631, name=2283区), GoodsServerSimpleDTO(id=1625831741007628, name=2282区), GoodsServerSimpleDTO(id=1625831741006618, name=2281区), GoodsServerSimpleDTO(id=1625831741006612, name=2280区), GoodsServerSimpleDTO(id=1625831741005608, name=2279区), GoodsServerSimpleDTO(id=1625831741004600, name=2278区), GoodsServerSimpleDTO(id=1625831741003593, name=2277区), GoodsServerSimpleDTO(id=1625831741003585, name=2276区), GoodsServerSimpleDTO(id=1625831741002582, name=2275区), GoodsServerSimpleDTO(id=1625831741001577, name=2274区), GoodsServerSimpleDTO(id=1625831741001568, name=2273区), GoodsServerSimpleDTO(id=1625831741000557, name=2272区), GoodsServerSimpleDTO(id=1625831740999553, name=2271区), GoodsServerSimpleDTO(id=1625831740999546, name=2270区), GoodsServerSimpleDTO(id=1625831740998535, name=2269区), GoodsServerSimpleDTO(id=1625831740997530, name=2268区), GoodsServerSimpleDTO(id=1625831740996526, name=2267区), GoodsServerSimpleDTO(id=1625831740996522, name=2266区), GoodsServerSimpleDTO(id=1625831740995515, name=2265区), GoodsServerSimpleDTO(id=1625831740994508, name=2264区), GoodsServerSimpleDTO(id=1625831740994505, name=2263区), GoodsServerSimpleDTO(id=1625831740993503, name=2262区), GoodsServerSimpleDTO(id=1625831740992496, name=2261区), GoodsServerSimpleDTO(id=1625831740992491, name=2260区), GoodsServerSimpleDTO(id=1625831740991487, name=2259区), GoodsServerSimpleDTO(id=1625831740990482, name=2258区), GoodsServerSimpleDTO(id=1625831740989477, name=2257区), GoodsServerSimpleDTO(id=1625831740989466, name=2256区), GoodsServerSimpleDTO(id=1625831740988458, name=2255区), GoodsServerSimpleDTO(id=1625831740987451, name=2254区), GoodsServerSimpleDTO(id=1625831740986446, name=2253区), GoodsServerSimpleDTO(id=1625831740986441, name=2252区), GoodsServerSimpleDTO(id=1625831740985438, name=2251区), GoodsServerSimpleDTO(id=1625831740984430, name=2250区), GoodsServerSimpleDTO(id=1625831740984425, name=2249区), GoodsServerSimpleDTO(id=1625831740983422, name=2248区), GoodsServerSimpleDTO(id=1625831740982418, name=2247区), GoodsServerSimpleDTO(id=1625831740982409, name=2246区), GoodsServerSimpleDTO(id=1625831740981405, name=2245区), GoodsServerSimpleDTO(id=1625831740980395, name=2244区), GoodsServerSimpleDTO(id=1625831740979389, name=2243区), GoodsServerSimpleDTO(id=1625831740979379, name=2242区), GoodsServerSimpleDTO(id=1625831740978368, name=2241区), GoodsServerSimpleDTO(id=1625831740977365, name=2240区), GoodsServerSimpleDTO(id=1625831740977361, name=2239区), GoodsServerSimpleDTO(id=1625831740976358, name=2238区), GoodsServerSimpleDTO(id=1625831740975352, name=2237区), GoodsServerSimpleDTO(id=1625831740975349, name=2236区), GoodsServerSimpleDTO(id=1625831740974346, name=2235区), GoodsServerSimpleDTO(id=1625831740973340, name=2234区),GoodsServerSimpleDTO(id=1625831740972337, name=2233区), GoodsServerSimpleDTO(id=1625831740972332, name=2232区), GoodsServerSimpleDTO(id=1625831740971326, name=2231区), GoodsServerSimpleDTO(id=1625831740970322, name=2230区), GoodsServerSimpleDTO(id=1625831740970315, name=2229区), GoodsServerSimpleDTO(id=1625831740969309, name=2228区), GoodsServerSimpleDTO(id=1625831740968302, name=2227区), GoodsServerSimpleDTO(id=1625831740967298, name=2226区), GoodsServerSimpleDTO(id=1625831740967296, name=2225区), GoodsServerSimpleDTO(id=1625831740966293, name=2224区), GoodsServerSimpleDTO(id=1625831740965289, name=2223区), GoodsServerSimpleDTO(id=1625831740965283, name=2222区), GoodsServerSimpleDTO(id=1625831740964278, name=2221区), GoodsServerSimpleDTO(id=1625831740963274, name=2220区), GoodsServerSimpleDTO(id=1625831740963270, name=2219区), GoodsServerSimpleDTO(id=1625831740962266, name=2218区), GoodsServerSimpleDTO(id=1625831740961260, name=2217区), GoodsServerSimpleDTO(id=1625831740960256, name=2216区), GoodsServerSimpleDTO(id=1625831740960252, name=2215区), GoodsServerSimpleDTO(id=1625831740959245, name=2214区), GoodsServerSimpleDTO(id=1625831740958240, name=2213区), GoodsServerSimpleDTO(id=1625831740958233, name=2212区), GoodsServerSimpleDTO(id=1625831740957231, name=2211区), GoodsServerSimpleDTO(id=1625831740956226, name=2210区), GoodsServerSimpleDTO(id=1625831740956216, name=2209区), GoodsServerSimpleDTO(id=1625831740955210, name=2208区), GoodsServerSimpleDTO(id=1625831740954208, name=2207区), GoodsServerSimpleDTO(id=1625831740953200, name=2206区), GoodsServerSimpleDTO(id=1625831740953196, name=2205区), GoodsServerSimpleDTO(id=1625831740952189, name=2204区), GoodsServerSimpleDTO(id=1625831740951179, name=2203区), GoodsServerSimpleDTO(id=1625831740951177, name=2202区), GoodsServerSimpleDTO(id=1625831740950164, name=2201区), GoodsServerSimpleDTO(id=1625831704909362, name=2200区), GoodsServerSimpleDTO(id=1625831704908358, name=2199区), GoodsServerSimpleDTO(id=1625831704907354, name=2198区), GoodsServerSimpleDTO(id=1625831704907351, name=2197区), GoodsServerSimpleDTO(id=1625831704906345, name=2196区), GoodsServerSimpleDTO(id=1625831704906340, name=2195区), GoodsServerSimpleDTO(id=1625831704905335, name=2194区), GoodsServerSimpleDTO(id=1625831704904332, name=2193区), GoodsServerSimpleDTO(id=1625831704904318, name=2192区), GoodsServerSimpleDTO(id=1625831704903310, name=2191区), GoodsServerSimpleDTO(id=1625831704903305, name=2190区), GoodsServerSimpleDTO(id=1625831704902301, name=2189区), GoodsServerSimpleDTO(id=1625831704902298, name=2188区), GoodsServerSimpleDTO(id=1625831704901288, name=2187区), GoodsServerSimpleDTO(id=1625831704900285, name=2186区), GoodsServerSimpleDTO(id=1625831704900281, name=2185区), GoodsServerSimpleDTO(id=1625831704899273, name=2184区), GoodsServerSimpleDTO(id=1625831704898269, name=2183区), GoodsServerSimpleDTO(id=1625831704898262, name=2182区), GoodsServerSimpleDTO(id=1625831704897256, name=2181区), GoodsServerSimpleDTO(id=1625831704897250, name=2180区), GoodsServerSimpleDTO(id=1625831704896247, name=2179区), GoodsServerSimpleDTO(id=1625831704895240, name=2178区), GoodsServerSimpleDTO(id=1625831704895233, name=2177区), GoodsServerSimpleDTO(id=1625831704894228, name=2176区), GoodsServerSimpleDTO(id=1625831704894225, name=2175区), GoodsServerSimpleDTO(id=1625831704893221, name=2174区), GoodsServerSimpleDTO(id=1625831704892215, name=2173区), GoodsServerSimpleDTO(id=1625831704892211, name=2172区), GoodsServerSimpleDTO(id=1625831704891207, name=2171区), GoodsServerSimpleDTO(id=1625831704891200, name=2170区), GoodsServerSimpleDTO(id=1625831704890199, name=2169区), GoodsServerSimpleDTO(id=1625831704889196, name=2168区), GoodsServerSimpleDTO(id=1625831704889193, name=2167区), GoodsServerSimpleDTO(id=1625831704888190, name=2166区), GoodsServerSimpleDTO(id=1625831704887184, name=2165区), GoodsServerSimpleDTO(id=1625831704887177, name=2164区), GoodsServerSimpleDTO(id=1625831704886175, name=2163区), GoodsServerSimpleDTO(id=1625831704886169, name=2162区), GoodsServerSimpleDTO(id=1625831704885163, name=2161区), GoodsServerSimpleDTO(id=1625831704884158, name=2160区), GoodsServerSimpleDTO(id=1625831704884156, name=2159区), GoodsServerSimpleDTO(id=1625831704883152, name=2158区), GoodsServerSimpleDTO(id=1625831704883147, name=2157区), GoodsServerSimpleDTO(id=1625831704882145, name=2156区), GoodsServerSimpleDTO(id=1625831704882140, name=2155区), GoodsServerSimpleDTO(id=1625831704881135, name=2154区), GoodsServerSimpleDTO(id=1625831704880127, name=2153区), GoodsServerSimpleDTO(id=1625831704880124, name=2152区), GoodsServerSimpleDTO(id=1625831704879120, name=2151区), GoodsServerSimpleDTO(id=1625831704879115, name=2150区), GoodsServerSimpleDTO(id=1625831704878106, name=2149区), GoodsServerSimpleDTO(id=1625831704877104, name=2148区), GoodsServerSimpleDTO(id=1625831704877101, name=2147区), GoodsServerSimpleDTO(id=1625831704876096, name=2146区), GoodsServerSimpleDTO(id=1625831704876090, name=2145区), GoodsServerSimpleDTO(id=1625831704875085, name=2144区), GoodsServerSimpleDTO(id=1625831704874079, name=2143区), GoodsServerSimpleDTO(id=1625831704874073, name=2142区), GoodsServerSimpleDTO(id=1625831704873068, name=2141区), GoodsServerSimpleDTO(id=1625831704873062, name=2140区), GoodsServerSimpleDTO(id=1625831704872059, name=2139区), GoodsServerSimpleDTO(id=1625831704871053, name=2138区), GoodsServerSimpleDTO(id=1625831704871046, name=2137区), GoodsServerSimpleDTO(id=1625831704870042, name=2136区), GoodsServerSimpleDTO(id=1625831704870038, name=2135区), GoodsServerSimpleDTO(id=1625831704869035, name=2134区), GoodsServerSimpleDTO(id=1625831704868034, name=2133区), GoodsServerSimpleDTO(id=1625831704868025, name=2132区), GoodsServerSimpleDTO(id=1625831704867019, name=2131区), GoodsServerSimpleDTO(id=1625831704867013, name=2130区), GoodsServerSimpleDTO(id=1625831704866009, name=2129区), GoodsServerSimpleDTO(id=1625831704865007, name=2128区), GoodsServerSimpleDTO(id=1625831704865000, name=2127区), GoodsServerSimpleDTO(id=1625831704864993, name=2126区), GoodsServerSimpleDTO(id=1625831704863987, name=2125区), GoodsServerSimpleDTO(id=1625831704862981, name=2124区), GoodsServerSimpleDTO(id=1625831704862977, name=2123区), GoodsServerSimpleDTO(id=1625831704861972, name=2122区), GoodsServerSimpleDTO(id=1625831704861970, name=2121区), GoodsServerSimpleDTO(id=1625831704860967, name=2120区), GoodsServerSimpleDTO(id=1625831704859961, name=2119区), GoodsServerSimpleDTO(id=1625831704859956, name=2118区), GoodsServerSimpleDTO(id=1625831704858946, name=2117区), GoodsServerSimpleDTO(id=1625831704858944, name=2116区), GoodsServerSimpleDTO(id=1625831704857941, name=2115区), GoodsServerSimpleDTO(id=1625831704857937, name=2114区), GoodsServerSimpleDTO(id=1625831704856928, name=2113区), GoodsServerSimpleDTO(id=1625831704855926, name=2112区), GoodsServerSimpleDTO(id=1625831704855923, name=2111区), GoodsServerSimpleDTO(id=1625831704854918, name=2110区), GoodsServerSimpleDTO(id=1625831704853913, name=2109区), GoodsServerSimpleDTO(id=1625831704853908, name=2108区), GoodsServerSimpleDTO(id=1625831704852901, name=2107区), GoodsServerSimpleDTO(id=1625831704852898, name=2106区), GoodsServerSimpleDTO(id=1625831704851892, name=2105区), GoodsServerSimpleDTO(id=1625831704850889, name=2104区), GoodsServerSimpleDTO(id=1625831704850885, name=2103区), GoodsServerSimpleDTO(id=1625831704849884, name=2102区), GoodsServerSimpleDTO(id=1625831704849880, name=2101区), GoodsServerSimpleDTO(id=1625831640306208, name=2100区), GoodsServerSimpleDTO(id=1625831640305206, name=2099区), GoodsServerSimpleDTO(id=1625831640305198, name=2098区), GoodsServerSimpleDTO(id=1625831640304192, name=2097区), GoodsServerSimpleDTO(id=1625831640303187, name=2096区), GoodsServerSimpleDTO(id=1625831640303176, name=2095区), GoodsServerSimpleDTO(id=1625831640302172, name=2094区), GoodsServerSimpleDTO(id=1625831640302167, name=2093区), GoodsServerSimpleDTO(id=1625831640301162, name=2092区), GoodsServerSimpleDTO(id=1625831640300159, name=2091区), GoodsServerSimpleDTO(id=1625831640300151, name=2090区), GoodsServerSimpleDTO(id=1625831640299147, name=2089区), GoodsServerSimpleDTO(id=1625831640299140, name=2088区), GoodsServerSimpleDTO(id=1625831640298134, name=2087区), GoodsServerSimpleDTO(id=1625831640297125, name=2086区), GoodsServerSimpleDTO(id=1625831640297123, name=2085区), GoodsServerSimpleDTO(id=1625831640296119, name=2084区), GoodsServerSimpleDTO(id=1625831640296107, name=2083区), GoodsServerSimpleDTO(id=1625831640295102, name=2082区), GoodsServerSimpleDTO(id=1625831640294097, name=2081区), GoodsServerSimpleDTO(id=1625831640294095, name=2080区), GoodsServerSimpleDTO(id=1625831640293091, name=2079区), GoodsServerSimpleDTO(id=1625831640293088, name=2078区), GoodsServerSimpleDTO(id=1625831640292081, name=2077区), GoodsServerSimpleDTO(id=1625831640291078, name=2076区), GoodsServerSimpleDTO(id=1625831640291075, name=2075区), GoodsServerSimpleDTO(id=1625831640290073, name=2074区), GoodsServerSimpleDTO(id=1625831640290069, name=2073区), GoodsServerSimpleDTO(id=1625831640289067, name=2072区), GoodsServerSimpleDTO(id=1625831640288062, name=2071区), GoodsServerSimpleDTO(id=1625831640288058, name=2070区), GoodsServerSimpleDTO(id=1625831640287052, name=2069区), GoodsServerSimpleDTO(id=1625831640287046, name=2068区), GoodsServerSimpleDTO(id=1625831640286041, name=2067区), GoodsServerSimpleDTO(id=1625831640285040, name=2066区), GoodsServerSimpleDTO(id=1625831640285033, name=2065区), GoodsServerSimpleDTO(id=1625831640284026, name=2064区), GoodsServerSimpleDTO(id=1625831640279001, name=2063区), GoodsServerSimpleDTO(id=1625831640279000, name=2062区), GoodsServerSimpleDTO(id=1625831640277995, name=2061区), GoodsServerSimpleDTO(id=1625831640277989, name=2060区), GoodsServerSimpleDTO(id=1625831640276987, name=2059区), GoodsServerSimpleDTO(id=1625831640275984, name=2058区), GoodsServerSimpleDTO(id=1625831640275981, name=2057区), GoodsServerSimpleDTO(id=1625831640274978, name=2056区), GoodsServerSimpleDTO(id=1625831640274974, name=2055区), GoodsServerSimpleDTO(id=1625831640273969, name=2054区), GoodsServerSimpleDTO(id=1625831640273966, name=2053区), GoodsServerSimpleDTO(id=1625831640272962,name=2052区), GoodsServerSimpleDTO(id=1625831640271958, name=2051区), GoodsServerSimpleDTO(id=1625831640271952, name=2050区), GoodsServerSimpleDTO(id=1625831640270950, name=2049区), GoodsServerSimpleDTO(id=1625831640270948, name=2048区), GoodsServerSimpleDTO(id=1625831640269944, name=2047区), GoodsServerSimpleDTO(id=1625831640268940, name=2046区), GoodsServerSimpleDTO(id=1625831640268937, name=2045区), GoodsServerSimpleDTO(id=1625831640267935, name=2044区), GoodsServerSimpleDTO(id=1625831640267933, name=2043区), GoodsServerSimpleDTO(id=1625831640266931, name=2042区), GoodsServerSimpleDTO(id=1625831640266928, name=2041区), GoodsServerSimpleDTO(id=1625831640265927, name=2040区), GoodsServerSimpleDTO(id=1625831640264924, name=2039区), GoodsServerSimpleDTO(id=1625831640264919, name=2038区), GoodsServerSimpleDTO(id=1625831640263913, name=2037区), GoodsServerSimpleDTO(id=1625831640263907, name=2036区), GoodsServerSimpleDTO(id=1625831640262902, name=2035区), GoodsServerSimpleDTO(id=1625831640261898, name=2034区), GoodsServerSimpleDTO(id=1625831640261895, name=2033区), GoodsServerSimpleDTO(id=1625831640260890, name=2032区), GoodsServerSimpleDTO(id=1625831640260885, name=2031区), GoodsServerSimpleDTO(id=1625831640259883, name=2030区), GoodsServerSimpleDTO(id=1625831640258876, name=2029区), GoodsServerSimpleDTO(id=1625831640258871, name=2028区), GoodsServerSimpleDTO(id=1625831640257868, name=2027区), GoodsServerSimpleDTO(id=1625831640257867, name=2026区), GoodsServerSimpleDTO(id=1625831640256860, name=2025区), GoodsServerSimpleDTO(id=1625831640255854, name=2024区), GoodsServerSimpleDTO(id=1625831640255849, name=2023区), GoodsServerSimpleDTO(id=1625831640254846, name=2022区), GoodsServerSimpleDTO(id=1625831640254841, name=2021区), GoodsServerSimpleDTO(id=1625831640253834, name=2020区), GoodsServerSimpleDTO(id=1625831640252826, name=2019区), GoodsServerSimpleDTO(id=1625831640252819, name=2018区), GoodsServerSimpleDTO(id=1625831640251815, name=2017区), GoodsServerSimpleDTO(id=1625831640251807, name=2016区), GoodsServerSimpleDTO(id=1625831640250804, name=2015区), GoodsServerSimpleDTO(id=1625831640250801, name=2014区), GoodsServerSimpleDTO(id=1625831640249798, name=2013区), GoodsServerSimpleDTO(id=1625831640248794, name=2012区), GoodsServerSimpleDTO(id=1625831640248790, name=2011区), GoodsServerSimpleDTO(id=1625831640247786, name=2010区), GoodsServerSimpleDTO(id=1625831640247782, name=2009区), GoodsServerSimpleDTO(id=1625831640246779, name=2008区), GoodsServerSimpleDTO(id=1625831640245775, name=2007区), GoodsServerSimpleDTO(id=1625831640245771, name=2006区), GoodsServerSimpleDTO(id=1625831640244765, name=2005区), GoodsServerSimpleDTO(id=1625831640244760, name=2004区), GoodsServerSimpleDTO(id=1625831640243756, name=2003区), GoodsServerSimpleDTO(id=1625831640242754, name=2002区), GoodsServerSimpleDTO(id=1625831640242751, name=2001区), GoodsServerSimpleDTO(id=1608606707083750, name=2000区), GoodsServerSimpleDTO(id=1608606707082747, name=1999区), GoodsServerSimpleDTO(id=1608606707082741, name=1998区), GoodsServerSimpleDTO(id=1608606707081737, name=1997区), GoodsServerSimpleDTO(id=1608606707081732, name=1996区), GoodsServerSimpleDTO(id=1608606707080728, name=1995区), GoodsServerSimpleDTO(id=1608606707080725, name=1994区), GoodsServerSimpleDTO(id=1608606707079722, name=1993区), GoodsServerSimpleDTO(id=1608606707079716, name=1992区), GoodsServerSimpleDTO(id=1608606707079711, name=1991区), GoodsServerSimpleDTO(id=1608606707078707, name=1990区), GoodsServerSimpleDTO(id=1608606707078706, name=1989区), GoodsServerSimpleDTO(id=1608606707077699, name=1988区), GoodsServerSimpleDTO(id=1608606707077693, name=1987区),GoodsServerSimpleDTO(id=1608606707076690, name=1986区), GoodsServerSimpleDTO(id=1608606707076687, name=1985区), GoodsServerSimpleDTO(id=1608606707075681, name=1984区), GoodsServerSimpleDTO(id=1608606707074671, name=1983区), GoodsServerSimpleDTO(id=1608606707074669, name=1982区), GoodsServerSimpleDTO(id=1608606707073668, name=1981区), GoodsServerSimpleDTO(id=1608606707073663, name=1980区), GoodsServerSimpleDTO(id=1608606707072660, name=1979区), GoodsServerSimpleDTO(id=1608606707072657, name=1978区), GoodsServerSimpleDTO(id=1608606707071654, name=1977区), GoodsServerSimpleDTO(id=1608606707071651, name=1976区), GoodsServerSimpleDTO(id=1608606707070649, name=1975区), GoodsServerSimpleDTO(id=1608606707070645, name=1974区), GoodsServerSimpleDTO(id=1608606707069642, name=1973区), GoodsServerSimpleDTO(id=1608606707069639, name=1972区), GoodsServerSimpleDTO(id=1608606707068637, name=1971区), GoodsServerSimpleDTO(id=1608606707068632, name=1970区), GoodsServerSimpleDTO(id=1608606707068629, name=1969区), GoodsServerSimpleDTO(id=1608606707067627, name=1968区), GoodsServerSimpleDTO(id=1608606707067624, name=1967区), GoodsServerSimpleDTO(id=1608606707066622, name=1966区), GoodsServerSimpleDTO(id=1608606707066616, name=1965区), GoodsServerSimpleDTO(id=1608606707065611, name=1964区), GoodsServerSimpleDTO(id=1608606707065604, name=1963区), GoodsServerSimpleDTO(id=1608606707064601, name=1962区), GoodsServerSimpleDTO(id=1608606707064598, name=1961区), GoodsServerSimpleDTO(id=1608606707063594, name=1960区), GoodsServerSimpleDTO(id=1608606707063591, name=1959区), GoodsServerSimpleDTO(id=1608606707062587, name=1958区), GoodsServerSimpleDTO(id=1608606707062584, name=1957区), GoodsServerSimpleDTO(id=1608606707061582, name=1956区), GoodsServerSimpleDTO(id=1608606707061578, name=1955区), GoodsServerSimpleDTO(id=1608606707060575, name=1954区), GoodsServerSimpleDTO(id=1608606707060573, name=1953区), GoodsServerSimpleDTO(id=1608606707059568, name=1952区), GoodsServerSimpleDTO(id=1608606707059561, name=1951区), GoodsServerSimpleDTO(id=1608606707058556, name=1950区), GoodsServerSimpleDTO(id=1608606707058552, name=1949区), GoodsServerSimpleDTO(id=1608606707057550, name=1948区), GoodsServerSimpleDTO(id=1608606707057546, name=1947区), GoodsServerSimpleDTO(id=1608606707056544, name=1946区), GoodsServerSimpleDTO(id=1608606707056537, name=1945区), GoodsServerSimpleDTO(id=1608606707055532, name=1944区), GoodsServerSimpleDTO(id=1608606707055528, name=1943区), GoodsServerSimpleDTO(id=1608606707054525, name=1942区), GoodsServerSimpleDTO(id=1608606707054520, name=1941区), GoodsServerSimpleDTO(id=1608606707053516, name=1940区), GoodsServerSimpleDTO(id=1608606707053512, name=1939区), GoodsServerSimpleDTO(id=1608606707052508, name=1938区), GoodsServerSimpleDTO(id=1608606707052503, name=1937区), GoodsServerSimpleDTO(id=1608606707051496, name=1936区), GoodsServerSimpleDTO(id=1608606707051495, name=1935区), GoodsServerSimpleDTO(id=1608606707050492, name=1934区), GoodsServerSimpleDTO(id=1608606707050490, name=1933区), GoodsServerSimpleDTO(id=1608606707049488, name=1932区), GoodsServerSimpleDTO(id=1608606707049485, name=1931区), GoodsServerSimpleDTO(id=1608606707048482, name=1930区), GoodsServerSimpleDTO(id=1608606707048478, name=1929区), GoodsServerSimpleDTO(id=1608606707048470, name=1928区), GoodsServerSimpleDTO(id=1608606707047466, name=1927区), GoodsServerSimpleDTO(id=1608606707047462, name=1926区), GoodsServerSimpleDTO(id=1608606707046458, name=1925区), GoodsServerSimpleDTO(id=1608606707046452, name=1924区), GoodsServerSimpleDTO(id=1608606707045449, name=1923区), GoodsServerSimpleDTO(id=1608606707045442, name=1922区), GoodsServerSimpleDTO(id=1608606707044440, name=1921区), GoodsServerSimpleDTO(id=1608606707044433, name=1920区), GoodsServerSimpleDTO(id=1608606707043431, name=1919区), GoodsServerSimpleDTO(id=1608606682162443, name=1918区), GoodsServerSimpleDTO(id=1608606682161439, name=1917区), GoodsServerSimpleDTO(id=1608606682161434, name=1916区), GoodsServerSimpleDTO(id=1608606682160433, name=1915区), GoodsServerSimpleDTO(id=1608606682160430, name=1914区), GoodsServerSimpleDTO(id=1608606682159423, name=1913区), GoodsServerSimpleDTO(id=1608606682159419, name=1912区), GoodsServerSimpleDTO(id=1608606682158415, name=1911区), GoodsServerSimpleDTO(id=1608606682158412, name=1910区), GoodsServerSimpleDTO(id=1608606682157405, name=1909区), GoodsServerSimpleDTO(id=1608606682156400, name=1908区), GoodsServerSimpleDTO(id=1608606682156394, name=1907区), GoodsServerSimpleDTO(id=1608606682155389, name=1906区), GoodsServerSimpleDTO(id=1608606682155384, name=1905区), GoodsServerSimpleDTO(id=1608606682154380, name=1904区), GoodsServerSimpleDTO(id=1608606682154369, name=1903区), GoodsServerSimpleDTO(id=1608606682153361, name=1902区), GoodsServerSimpleDTO(id=1608606682152354, name=1901区), GoodsServerSimpleDTO(id=1608606682152350, name=1900区), GoodsServerSimpleDTO(id=1608606682151342, name=1899区), GoodsServerSimpleDTO(id=1608606682151340, name=1898区), GoodsServerSimpleDTO(id=1608606682150338, name=1897区), GoodsServerSimpleDTO(id=1608606682150335, name=1896区), GoodsServerSimpleDTO(id=1608606682149332, name=1895区), GoodsServerSimpleDTO(id=1608606682149328, name=1894区), GoodsServerSimpleDTO(id=1608606682148324, name=1893区), GoodsServerSimpleDTO(id=1608606682148323, name=1892区), GoodsServerSimpleDTO(id=1608606682147317, name=1891区), GoodsServerSimpleDTO(id=1608606682147314, name=1890区), GoodsServerSimpleDTO(id=1608606682146309, name=1889区), GoodsServerSimpleDTO(id=1608606682146308, name=1888区), GoodsServerSimpleDTO(id=1608606682145303, name=1887区), GoodsServerSimpleDTO(id=1608606682144300, name=1886区), GoodsServerSimpleDTO(id=1608606682144297, name=1885区), GoodsServerSimpleDTO(id=1608606682143293, name=1884区), GoodsServerSimpleDTO(id=1608606682143284, name=1883区), GoodsServerSimpleDTO(id=1608606682142279, name=1882区), GoodsServerSimpleDTO(id=1608606682142277, name=1881区), GoodsServerSimpleDTO(id=1608606682141275, name=1880区), GoodsServerSimpleDTO(id=1608606682141271, name=1879区), GoodsServerSimpleDTO(id=1608606682140267, name=1878区), GoodsServerSimpleDTO(id=1608606682140262, name=1877区), GoodsServerSimpleDTO(id=1608606682139256, name=1876区), GoodsServerSimpleDTO(id=1608606682138252, name=1875区), GoodsServerSimpleDTO(id=1608606682138250, name=1874区), GoodsServerSimpleDTO(id=1608606682137246, name=1873区), GoodsServerSimpleDTO(id=1608606682137233, name=1872区), GoodsServerSimpleDTO(id=1608606682136229, name=1871区), GoodsServerSimpleDTO(id=1608606682136226, name=1870区), GoodsServerSimpleDTO(id=1608606682135224, name=1869区), GoodsServerSimpleDTO(id=1608606682135222, name=1868区), GoodsServerSimpleDTO(id=1608606682134217, name=1867区), GoodsServerSimpleDTO(id=1608606682134215, name=1866区), GoodsServerSimpleDTO(id=1608606682133213, name=1865区), GoodsServerSimpleDTO(id=1608606682133211, name=1864区), GoodsServerSimpleDTO(id=1608606682132209, name=1863区), GoodsServerSimpleDTO(id=1608606682131207, name=1862区), GoodsServerSimpleDTO(id=1608606682131202, name=1861区), GoodsServerSimpleDTO(id=1608606682130201, name=1860区), GoodsServerSimpleDTO(id=1608606682130199, name=1859区), GoodsServerSimpleDTO(id=1608606682129194, name=1858区), GoodsServerSimpleDTO(id=1608606682129192, name=1857区), GoodsServerSimpleDTO(id=1608606682128190, name=1856区), GoodsServerSimpleDTO(id=1608606682128187, name=1855区), GoodsServerSimpleDTO(id=1608606682127185, name=1854区), GoodsServerSimpleDTO(id=1608606682127182, name=1853区), GoodsServerSimpleDTO(id=1608606682126181, name=1852区), GoodsServerSimpleDTO(id=1608606682126180, name=1851区), GoodsServerSimpleDTO(id=1608606682125178, name=1850区), GoodsServerSimpleDTO(id=1608606682125176, name=1849区), GoodsServerSimpleDTO(id=1608606682124175, name=1848区), GoodsServerSimpleDTO(id=1608606682124173, name=1847区), GoodsServerSimpleDTO(id=1608606682123170, name=1846区), GoodsServerSimpleDTO(id=1608606682122166, name=1845区), GoodsServerSimpleDTO(id=1608606682122163, name=1844区), GoodsServerSimpleDTO(id=1608606682121160, name=1843区), GoodsServerSimpleDTO(id=1608606682121158, name=1842区), GoodsServerSimpleDTO(id=1608606682120154, name=1841区), GoodsServerSimpleDTO(id=1608606682120152, name=1840区), GoodsServerSimpleDTO(id=1608606682119148, name=1839区), GoodsServerSimpleDTO(id=1608606682119143, name=1838区), GoodsServerSimpleDTO(id=1608606682118142, name=1837区), GoodsServerSimpleDTO(id=1608606682118141, name=1836区), GoodsServerSimpleDTO(id=1608606682117139, name=1835区), GoodsServerSimpleDTO(id=1608606682117137, name=1834区), GoodsServerSimpleDTO(id=1608606682116135, name=1833区), GoodsServerSimpleDTO(id=1608606682116132, name=1832区), GoodsServerSimpleDTO(id=1608606682115130, name=1831区), GoodsServerSimpleDTO(id=1608606682115125, name=1830区), GoodsServerSimpleDTO(id=1608606682114119, name=1829区), GoodsServerSimpleDTO(id=1608606682113116, name=1828区), GoodsServerSimpleDTO(id=1608606682113106, name=1827区), GoodsServerSimpleDTO(id=1608606682112096, name=1826区), GoodsServerSimpleDTO(id=1608606623964887, name=1825区), GoodsServerSimpleDTO(id=1608606623963884, name=1824区), GoodsServerSimpleDTO(id=1608606623963880, name=1823区), GoodsServerSimpleDTO(id=1608606623962876, name=1822区), GoodsServerSimpleDTO(id=1608606623962873, name=1821区), GoodsServerSimpleDTO(id=1608606623961869, name=1820区), GoodsServerSimpleDTO(id=1608606623960866, name=1819区), GoodsServerSimpleDTO(id=1608606623960864, name=1818区), GoodsServerSimpleDTO(id=1608606623959858, name=1817区), GoodsServerSimpleDTO(id=1608606623958856, name=1816区), GoodsServerSimpleDTO(id=1608606623958852, name=1815区), GoodsServerSimpleDTO(id=1608606623957847, name=1814区), GoodsServerSimpleDTO(id=1608606623957842, name=1813区), GoodsServerSimpleDTO(id=1608606623956840, name=1812区), GoodsServerSimpleDTO(id=1608606623955836, name=1811区), GoodsServerSimpleDTO(id=1608606623955834, name=1810区), GoodsServerSimpleDTO(id=1608606623954828, name=1809区), GoodsServerSimpleDTO(id=1608606623954825, name=1808区), GoodsServerSimpleDTO(id=1608606623953820, name=1807区), GoodsServerSimpleDTO(id=1608606623952818, name=1806区), GoodsServerSimpleDTO(id=1608606623952816,name=1805区), GoodsServerSimpleDTO(id=1608606623951811, name=1804区), GoodsServerSimpleDTO(id=1608606623950807, name=1803区), GoodsServerSimpleDTO(id=1608606623950804, name=1802区), GoodsServerSimpleDTO(id=1608606623949799, name=1801区), GoodsServerSimpleDTO(id=1608606623949797, name=1800区), GoodsServerSimpleDTO(id=1608606623948791, name=1799区), GoodsServerSimpleDTO(id=1608606623947787, name=1798区), GoodsServerSimpleDTO(id=1608606623947782, name=1797区), GoodsServerSimpleDTO(id=1608606623946780, name=1796区), GoodsServerSimpleDTO(id=1608606623945776, name=1795区), GoodsServerSimpleDTO(id=1608606623945773, name=1794区), GoodsServerSimpleDTO(id=1608606623944768, name=1793区), GoodsServerSimpleDTO(id=1608606623944766, name=1792区), GoodsServerSimpleDTO(id=1608606623943761, name=1791区), GoodsServerSimpleDTO(id=1608606623942755, name=1790区), GoodsServerSimpleDTO(id=1608606623942752, name=1789区), GoodsServerSimpleDTO(id=1608606623941749, name=1788区), GoodsServerSimpleDTO(id=1608606623940747, name=1787区), GoodsServerSimpleDTO(id=1608606623940739, name=1786区), GoodsServerSimpleDTO(id=1608606623939736, name=1785区), GoodsServerSimpleDTO(id=1608606623938734, name=1784区), GoodsServerSimpleDTO(id=1608606623938726, name=1783区), GoodsServerSimpleDTO(id=1608606623937719, name=1782区), GoodsServerSimpleDTO(id=1608606623936716, name=1781区), GoodsServerSimpleDTO(id=1608606623936712, name=1780区), GoodsServerSimpleDTO(id=1608606623935708, name=1779区), GoodsServerSimpleDTO(id=1608606623935703, name=1778区), GoodsServerSimpleDTO(id=1608606623934700, name=1777区), GoodsServerSimpleDTO(id=1608606623933694, name=1776区), GoodsServerSimpleDTO(id=1608606623933689, name=1775区), GoodsServerSimpleDTO(id=1608606623932679, name=1774区), GoodsServerSimpleDTO(id=1608606623931674, name=1773区), GoodsServerSimpleDTO(id=1608606623931667, name=1772区), GoodsServerSimpleDTO(id=1608606623930662, name=1771区), GoodsServerSimpleDTO(id=1608606623929658, name=1770区), GoodsServerSimpleDTO(id=1608606623929654, name=1769区), GoodsServerSimpleDTO(id=1608606623928649, name=1768区), GoodsServerSimpleDTO(id=1608606623928639, name=1767区), GoodsServerSimpleDTO(id=1608606623927636, name=1766区), GoodsServerSimpleDTO(id=1608606623926630, name=1765区), GoodsServerSimpleDTO(id=1608606623926623, name=1764区), GoodsServerSimpleDTO(id=1608606623925615, name=1763区), GoodsServerSimpleDTO(id=1608606623924610, name=1762区), GoodsServerSimpleDTO(id=1608606623924606, name=1761区), GoodsServerSimpleDTO(id=1608606623923601, name=1760区), GoodsServerSimpleDTO(id=1608606623923595, name=1759区), GoodsServerSimpleDTO(id=1608606623922589, name=1758区), GoodsServerSimpleDTO(id=1608606623921582, name=1757区), GoodsServerSimpleDTO(id=1608606623921577, name=1756区), GoodsServerSimpleDTO(id=1608606623920575, name=1755区), GoodsServerSimpleDTO(id=1608606623920571, name=1754区), GoodsServerSimpleDTO(id=1608606623919565, name=1753区), GoodsServerSimpleDTO(id=1608606623918560, name=1752区), GoodsServerSimpleDTO(id=1608606623918546, name=1751区), GoodsServerSimpleDTO(id=1608606623917540, name=1750区), GoodsServerSimpleDTO(id=1608606623916536, name=1749区), GoodsServerSimpleDTO(id=1608606623916532, name=1748区), GoodsServerSimpleDTO(id=1608606623915528, name=1747区), GoodsServerSimpleDTO(id=1608606623914522, name=1746区), GoodsServerSimpleDTO(id=1608606623914517, name=1745区), GoodsServerSimpleDTO(id=1608606623913514, name=1744区), GoodsServerSimpleDTO(id=1608606623913507, name=1743区), GoodsServerSimpleDTO(id=1608606623912499, name=1742区), GoodsServerSimpleDTO(id=1608606623911491, name=1741区), GoodsServerSimpleDTO(id=1608606623911487, name=1740区),GoodsServerSimpleDTO(id=1608606623910482, name=1739区), GoodsServerSimpleDTO(id=1608606623910477, name=1738区), GoodsServerSimpleDTO(id=1608606623909471, name=1737区), GoodsServerSimpleDTO(id=1608606623908467, name=1736区), GoodsServerSimpleDTO(id=1608606623908458, name=1735区), GoodsServerSimpleDTO(id=1608606623907453, name=1734区), GoodsServerSimpleDTO(id=1608606623906449, name=1733区), GoodsServerSimpleDTO(id=1608606623906445, name=1732区), GoodsServerSimpleDTO(id=1608606623905443, name=1731区), GoodsServerSimpleDTO(id=1608606623905441, name=1730区), GoodsServerSimpleDTO(id=1608606623904437, name=1729区), GoodsServerSimpleDTO(id=1608606623903431, name=1728区), GoodsServerSimpleDTO(id=1608606623903427, name=1727区), GoodsServerSimpleDTO(id=1608606623902426, name=1726区), GoodsServerSimpleDTO(id=1593604931016369, name=1725区), GoodsServerSimpleDTO(id=1593604931016366, name=1724区), GoodsServerSimpleDTO(id=1593604931016362, name=1723区), GoodsServerSimpleDTO(id=1593604931015359, name=1722区), GoodsServerSimpleDTO(id=1593604931015356, name=1721区), GoodsServerSimpleDTO(id=1593604931014354, name=1720区), GoodsServerSimpleDTO(id=1593604931014348, name=1719区), GoodsServerSimpleDTO(id=1593604931014344, name=1718区), GoodsServerSimpleDTO(id=1593604931013341, name=1717区), GoodsServerSimpleDTO(id=1593604931013337, name=1716区), GoodsServerSimpleDTO(id=1593604931013332, name=1715区), GoodsServerSimpleDTO(id=1593604931012329, name=1714区), GoodsServerSimpleDTO(id=1593604931012327, name=1713区), GoodsServerSimpleDTO(id=1593604931011325, name=1712区), GoodsServerSimpleDTO(id=1593604931011321, name=1711区), GoodsServerSimpleDTO(id=1593604931009316, name=1710区), GoodsServerSimpleDTO(id=1593604931009301, name=1709区), GoodsServerSimpleDTO(id=1593604931009300, name=1708区), GoodsServerSimpleDTO(id=1593604931008297, name=1707区), GoodsServerSimpleDTO(id=1593604931008295, name=1706区), GoodsServerSimpleDTO(id=1593604931008293, name=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1625831861467590, name=微信2300区), GoodsServerSimpleDTO(id=1625831861466587, name=微信2299区), GoodsServerSimpleDTO(id=1625831861466585, name=微信2298区), GoodsServerSimpleDTO(id=1625831861465579, name=微信2297区), GoodsServerSimpleDTO(id=1625831861464573, name=微信2296区), GoodsServerSimpleDTO(id=1625831861464566, name=微信2295区), GoodsServerSimpleDTO(id=1625831861463560, name=微信2294区), GoodsServerSimpleDTO(id=1625831861463557, name=微信2293区), GoodsServerSimpleDTO(id=1625831861462552, name=微信2292区), GoodsServerSimpleDTO(id=1625831861461550, name=微信2291区), GoodsServerSimpleDTO(id=1625831861461547, name=微信2290区), GoodsServerSimpleDTO(id=1625831861460543, name=微信2289区), GoodsServerSimpleDTO(id=1625831861459542, name=微信2288区), GoodsServerSimpleDTO(id=1625831861459540, name=微信2287区), GoodsServerSimpleDTO(id=1625831861458537, name=微信2286区), GoodsServerSimpleDTO(id=1625831861458531, name=微信2285区), GoodsServerSimpleDTO(id=1625831861457530, name=微信2284区), GoodsServerSimpleDTO(id=1625831861456527, name=微信2283区), GoodsServerSimpleDTO(id=1625831861456522, name=微信2282区), GoodsServerSimpleDTO(id=1625831861455518, name=微信2281区), GoodsServerSimpleDTO(id=1625831861455515, name=微信2280区), GoodsServerSimpleDTO(id=1625831861454514, name=微信2279区), GoodsServerSimpleDTO(id=1625831861453512, name=微信2278区), GoodsServerSimpleDTO(id=1625831861453510, name=微信2277区), GoodsServerSimpleDTO(id=1625831861452506, name=微信2276区), GoodsServerSimpleDTO(id=1625831861451504, name=微信2275区), GoodsServerSimpleDTO(id=1625831861451500, name=微信2274区), GoodsServerSimpleDTO(id=1625831861450497, name=微信2273区), GoodsServerSimpleDTO(id=1625831861450495, name=微信2272区), GoodsServerSimpleDTO(id=1625831861449491, name=微信2271区), GoodsServerSimpleDTO(id=1625831861448489, name=微信2270区), GoodsServerSimpleDTO(id=1625831861448484, name=微信2269区), GoodsServerSimpleDTO(id=1625831861447480, name=微信2268区), GoodsServerSimpleDTO(id=1625831861447477, name=微信2267区), GoodsServerSimpleDTO(id=1625831861446474, name=微信2266区), GoodsServerSimpleDTO(id=1625831861445469, name=微信2265区), GoodsServerSimpleDTO(id=1625831861445465, name=微信2264区), GoodsServerSimpleDTO(id=1625831861444461, name=微信2263区), GoodsServerSimpleDTO(id=1625831861444458, name=微信2262区), GoodsServerSimpleDTO(id=1625831861443454, name=微信2261区), GoodsServerSimpleDTO(id=1625831861442453, name=微信2260区), GoodsServerSimpleDTO(id=1625831861442447, name=微信2259区), GoodsServerSimpleDTO(id=1625831861441443, name=微信2258区), GoodsServerSimpleDTO(id=1625831861440441, name=微信2257区), GoodsServerSimpleDTO(id=1625831861440437, name=微信2256区), GoodsServerSimpleDTO(id=1625831861439434, name=微信2255区), GoodsServerSimpleDTO(id=1625831861439426, name=微信2254区), GoodsServerSimpleDTO(id=1625831861438424, name=微信2253区), GoodsServerSimpleDTO(id=1625831861437419, name=微信2252区), GoodsServerSimpleDTO(id=1625831861437414, name=微信2251区), GoodsServerSimpleDTO(id=1625831861436409, name=微信2250区), GoodsServerSimpleDTO(id=1625831861436406, name=微信2249区), GoodsServerSimpleDTO(id=1625831861435405, name=微信2248区), GoodsServerSimpleDTO(id=1625831861434399, name=微信2247区), GoodsServerSimpleDTO(id=1625831861434397, name=微信2246区), GoodsServerSimpleDTO(id=1625831861433390, name=微信2245区), GoodsServerSimpleDTO(id=1625831861432386, name=微信2244区), GoodsServerSimpleDTO(id=1625831861432384, name=微信2243区), GoodsServerSimpleDTO(id=1625831861431381, name=微信2242区), GoodsServerSimpleDTO(id=1625831861431377, name=微信2241区), GoodsServerSimpleDTO(id=1625831861430371, name=微信2240区), GoodsServerSimpleDTO(id=1625831847330632, name=微信2239区), GoodsServerSimpleDTO(id=1625831847329631, name=微信2238区), GoodsServerSimpleDTO(id=1625831847329626, name=微信2237区), GoodsServerSimpleDTO(id=1625831847328618, name=微信2236区), GoodsServerSimpleDTO(id=1625831847328610, name=微信2235区), GoodsServerSimpleDTO(id=1625831847327605, name=微信2234区), GoodsServerSimpleDTO(id=1625831847326601, name=微信2233区), GoodsServerSimpleDTO(id=1625831847326598, name=微信2232区), GoodsServerSimpleDTO(id=1625831847325593, name=微信2231区), GoodsServerSimpleDTO(id=1625831847325590, name=微信2230区), GoodsServerSimpleDTO(id=1625831847324584, name=微信2229区), GoodsServerSimpleDTO(id=1625831847323579, name=微信2228区), GoodsServerSimpleDTO(id=1625831847323577, name=微信2227区), GoodsServerSimpleDTO(id=1625831847322575, name=微信2226区), GoodsServerSimpleDTO(id=1625831847322569, name=微信2225区), GoodsServerSimpleDTO(id=1625831847321565, name=微信2224区), GoodsServerSimpleDTO(id=1625831847321561, name=微信2223区), GoodsServerSimpleDTO(id=1625831847320556, name=微信2222区), GoodsServerSimpleDTO(id=1625831847319553, name=微信2221区), GoodsServerSimpleDTO(id=1625831847319550, name=微信2220区), GoodsServerSimpleDTO(id=1625831847318548, name=微信2219区), GoodsServerSimpleDTO(id=1625831847318541, name=微信2218区), GoodsServerSimpleDTO(id=1625831847317538, name=微信2217区), GoodsServerSimpleDTO(id=1625831847317531, name=微信2216区), GoodsServerSimpleDTO(id=1625831847316527, name=微信2215区), GoodsServerSimpleDTO(id=1625831847315518, name=微信2214区), GoodsServerSimpleDTO(id=1625831847315514, name=微信2213区), GoodsServerSimpleDTO(id=1625831847314509, name=微信2212区), GoodsServerSimpleDTO(id=1625831847314505, name=微信2211区), GoodsServerSimpleDTO(id=1625831847313501, name=微信2210区), GoodsServerSimpleDTO(id=1625831847312493, name=微信2209区), GoodsServerSimpleDTO(id=1625831847312490, name=微信2208区), GoodsServerSimpleDTO(id=1625831847311487, name=微信2207区), GoodsServerSimpleDTO(id=1625831847311480, name=微信2206区), GoodsServerSimpleDTO(id=1625831847310476, name=微信2205区), GoodsServerSimpleDTO(id=1625831847310469, name=微信2204区), GoodsServerSimpleDTO(id=1625831847309463, name=微信2203区), GoodsServerSimpleDTO(id=1625831847308459, name=微信2202区), GoodsServerSimpleDTO(id=1625831847308453, name=微信2201区), GoodsServerSimpleDTO(id=1625831847307451, name=微信2200区), GoodsServerSimpleDTO(id=1625831847307445, name=微信2199区), GoodsServerSimpleDTO(id=1625831847306442, name=微信2198区), GoodsServerSimpleDTO(id=1625831847305438, name=微信2197区), GoodsServerSimpleDTO(id=1625831847305432, name=微信2196区), GoodsServerSimpleDTO(id=1625831847304428, name=微信2195区), GoodsServerSimpleDTO(id=1625831847304423, name=微信2194区), GoodsServerSimpleDTO(id=1625831847303420, name=微信2193区), GoodsServerSimpleDTO(id=1625831847303417, name=微信2192区), GoodsServerSimpleDTO(id=1625831847302410, name=微信2191区), GoodsServerSimpleDTO(id=1625831847301407, name=微信2190区), GoodsServerSimpleDTO(id=1625831847301403, name=微信2189区), GoodsServerSimpleDTO(id=1625831847300396, name=微信2188区), GoodsServerSimpleDTO(id=1625831847300394, name=微信2187区), GoodsServerSimpleDTO(id=1625831847299391, name=微信2186区), GoodsServerSimpleDTO(id=1625831847298388, name=微信2185区), GoodsServerSimpleDTO(id=1625831847298381, name=微信2184区), GoodsServerSimpleDTO(id=1625831847297378, name=微信2183区), GoodsServerSimpleDTO(id=1625831847297372, name=微信2182区), GoodsServerSimpleDTO(id=1625831847296367, name=微信2181区), GoodsServerSimpleDTO(id=1625831826786799, name=微信2180区), GoodsServerSimpleDTO(id=1625831826785795, name=微信2179区), GoodsServerSimpleDTO(id=1625831826785791, name=微信2178区), GoodsServerSimpleDTO(id=1625831826784786, name=微信2177区), GoodsServerSimpleDTO(id=1625831826783777, name=微信2176区), GoodsServerSimpleDTO(id=1625831826783773, name=微信2175区), GoodsServerSimpleDTO(id=1625831826782767, name=微信2174区), GoodsServerSimpleDTO(id=1625831826781764, name=微信2173区), GoodsServerSimpleDTO(id=1625831826780758, name=微信2172区), GoodsServerSimpleDTO(id=1625831826780751, name=微信2171区), GoodsServerSimpleDTO(id=1625831826779746, name=微信2170区), GoodsServerSimpleDTO(id=1625831826778742, name=微信2169区), GoodsServerSimpleDTO(id=1625831826777733, name=微信2168区), GoodsServerSimpleDTO(id=1625831826777726, name=微信2167区), GoodsServerSimpleDTO(id=1625831826776719, name=微信2166区), GoodsServerSimpleDTO(id=1625831826775711, name=微信2165区), GoodsServerSimpleDTO(id=1625831826775704, name=微信2164区), GoodsServerSimpleDTO(id=1625831826774698, name=微信2163区), GoodsServerSimpleDTO(id=1625831826773682, name=微信2162区), GoodsServerSimpleDTO(id=1625831826773673, name=微信2161区), GoodsServerSimpleDTO(id=1625831826772668, name=微信2160区), GoodsServerSimpleDTO(id=1625831826771667, name=微信2159区), GoodsServerSimpleDTO(id=1625831826770663, name=微信2158区), GoodsServerSimpleDTO(id=1625831826770658, name=微信2157区), GoodsServerSimpleDTO(id=1625831826769656, name=微信2156区), GoodsServerSimpleDTO(id=1625831826768651, name=微信2155区), GoodsServerSimpleDTO(id=1625831826768648, name=微信2154区), GoodsServerSimpleDTO(id=1625831826767643, name=微信2153区), GoodsServerSimpleDTO(id=1625831826766639, name=微信2152区), GoodsServerSimpleDTO(id=1625831826765631, name=微信2151区), GoodsServerSimpleDTO(id=1625831826765626, name=微信2150区), GoodsServerSimpleDTO(id=1625831826764620, name=微信2149区), GoodsServerSimpleDTO(id=1625831826763615, name=微信2148区), GoodsServerSimpleDTO(id=1625831826763609, name=微信2147区), GoodsServerSimpleDTO(id=1625831826762606, name=微信2146区), GoodsServerSimpleDTO(id=1625831826761604, name=微信2145区), GoodsServerSimpleDTO(id=1625831826760598, name=微信2144区), GoodsServerSimpleDTO(id=1625831826760594, name=微信2143区), GoodsServerSimpleDTO(id=1625831826759592, name=微信2142区), GoodsServerSimpleDTO(id=1625831826758589, name=微信2141区), GoodsServerSimpleDTO(id=1625831826758586, name=微信2140区), GoodsServerSimpleDTO(id=1625831826757580, name=微信2139区), GoodsServerSimpleDTO(id=1625831826756575, name=微信2138区), GoodsServerSimpleDTO(id=1625831826755573, name=微信2137区), GoodsServerSimpleDTO(id=1625831826755570, name=微信2136区), GoodsServerSimpleDTO(id=1625831826754565, name=微信2135区), GoodsServerSimpleDTO(id=1625831826753563, name=微信2134区), GoodsServerSimpleDTO(id=1625831826753553, name=微信2133区), GoodsServerSimpleDTO(id=1625831826752549, name=微信2132区), GoodsServerSimpleDTO(id=1625831826751546, name=微信2131区), GoodsServerSimpleDTO(id=1625831826750542, name=微信2130区), GoodsServerSimpleDTO(id=1625831826750540, name=微信2129区), GoodsServerSimpleDTO(id=1625831826749534, name=微信2128区), GoodsServerSimpleDTO(id=1625831826748531, name=微信2127区), GoodsServerSimpleDTO(id=1625831826748524, name=微信2126区), GoodsServerSimpleDTO(id=1625831826747521, name=微信2125区), GoodsServerSimpleDTO(id=1625831826746517, name=微信2124区), GoodsServerSimpleDTO(id=1625831826745511, name=微信2123区), GoodsServerSimpleDTO(id=1625831826745508, name=微信2122区), GoodsServerSimpleDTO(id=1625831826744501, name=微信2121区), GoodsServerSimpleDTO(id=1625831809074102, name=微信2120区), GoodsServerSimpleDTO(id=1625831809073094, name=微信2119区), GoodsServerSimpleDTO(id=1625831809073090, name=微信2118区), GoodsServerSimpleDTO(id=1625831809072080, name=微信2117区), GoodsServerSimpleDTO(id=1625831809072076, name=微信2116区), GoodsServerSimpleDTO(id=1625831809071072, name=微信2115区), GoodsServerSimpleDTO(id=1625831809070067, name=微信2114区), GoodsServerSimpleDTO(id=1625831809070065, name=微信2113区), GoodsServerSimpleDTO(id=1625831809069062, name=微信2112区), GoodsServerSimpleDTO(id=1625831809069059, name=微信2111区), GoodsServerSimpleDTO(id=1625831809068050, name=微信2110区), GoodsServerSimpleDTO(id=1625831809068047, name=微信2109区), GoodsServerSimpleDTO(id=1625831809067045, name=微信2108区), GoodsServerSimpleDTO(id=1625831809066039, name=微信2107区), GoodsServerSimpleDTO(id=1625831809066037, name=微信2106区), GoodsServerSimpleDTO(id=1625831809065034, name=微信2105区), GoodsServerSimpleDTO(id=1625831809065032, name=微信2104区), GoodsServerSimpleDTO(id=1625831809064028, name=微信2103区), GoodsServerSimpleDTO(id=1625831809064021, name=微信2102区), GoodsServerSimpleDTO(id=1625831809063017, name=微信2101区), GoodsServerSimpleDTO(id=1625831809062014, name=微信2100区), GoodsServerSimpleDTO(id=1625831809062003, name=微信2099区), GoodsServerSimpleDTO(id=1625831809061001, name=微信2098区), GoodsServerSimpleDTO(id=1625831809061003, name=微信2097区), GoodsServerSimpleDTO(id=1625831809059995, name=微信2096区), GoodsServerSimpleDTO(id=1625831809059991, name=微信2095区), GoodsServerSimpleDTO(id=1625831809058987, name=微信2094区), GoodsServerSimpleDTO(id=1625831809058983, name=微信2093区), GoodsServerSimpleDTO(id=1625831809057979, name=微信2092区), GoodsServerSimpleDTO(id=1625831809057974, name=微信2091区), GoodsServerSimpleDTO(id=1625831809056969, name=微信2090区), GoodsServerSimpleDTO(id=1625831809055966, name=微信2089区), GoodsServerSimpleDTO(id=1625831809055961, name=微信2088区), GoodsServerSimpleDTO(id=1625831809054955, name=微信2087区), GoodsServerSimpleDTO(id=1625831809054952, name=微信2086区), GoodsServerSimpleDTO(id=1625831809053940, name=微信2085区), GoodsServerSimpleDTO(id=1625831809053936, name=微信2084区), GoodsServerSimpleDTO(id=1625831809052929, name=微信2083区), GoodsServerSimpleDTO(id=1625831809051924, name=微信2082区), GoodsServerSimpleDTO(id=1625831809051920, name=微信2081区), GoodsServerSimpleDTO(id=1625831809050914, name=微信2080区), GoodsServerSimpleDTO(id=1625831809050909, name=微信2079区), GoodsServerSimpleDTO(id=1625831809049904, name=微信2078区), GoodsServerSimpleDTO(id=1625831809049897, name=微信2077区), GoodsServerSimpleDTO(id=1625831809048889, name=微信2076区), GoodsServerSimpleDTO(id=1625831809047877, name=微信2075区), GoodsServerSimpleDTO(id=1625831809047863, name=微信2074区), GoodsServerSimpleDTO(id=1625831809046851, name=微信2073区), GoodsServerSimpleDTO(id=1625831809046844, name=微信2072区), GoodsServerSimpleDTO(id=1625831809045840, name=微信2071区), GoodsServerSimpleDTO(id=1625831809044833, name=微信2070区), GoodsServerSimpleDTO(id=1625831809044824, name=微信2069区), GoodsServerSimpleDTO(id=1625831809043823, name=微信2068区), GoodsServerSimpleDTO(id=1625831809043818, name=微信2067区), GoodsServerSimpleDTO(id=1625831809042816, name=微信2066区), GoodsServerSimpleDTO(id=1625831809041809, name=微信2065区), GoodsServerSimpleDTO(id=1625831809041804, name=微信2064区), GoodsServerSimpleDTO(id=1625831809040801, name=微信2063区), GoodsServerSimpleDTO(id=1625831809040798, name=微信2062区), GoodsServerSimpleDTO(id=1625831809039788, name=微信2061区), GoodsServerSimpleDTO(id=1625831776241677, name=微信2060区), GoodsServerSimpleDTO(id=1625831776241671, name=微信2059区), GoodsServerSimpleDTO(id=1625831776240665, name=微信2058区), GoodsServerSimpleDTO(id=1625831776239659, name=微信2057区), GoodsServerSimpleDTO(id=1625831776239650, name=微信2056区), GoodsServerSimpleDTO(id=1625831776238646, name=微信2055区), GoodsServerSimpleDTO(id=1625831776237640, name=微信2054区), GoodsServerSimpleDTO(id=1625831776237639, name=微信2053区), GoodsServerSimpleDTO(id=1625831776236636, name=微信2052区), GoodsServerSimpleDTO(id=1625831776236632, name=微信2051区), GoodsServerSimpleDTO(id=1625831776235626, name=微信2050区), GoodsServerSimpleDTO(id=1625831776234623, name=微信2049区), GoodsServerSimpleDTO(id=1625831776234618, name=微信2048区), GoodsServerSimpleDTO(id=1625831776233614, name=微信2047区), GoodsServerSimpleDTO(id=1625831776232609, name=微信2046区), GoodsServerSimpleDTO(id=1625831776232605, name=微信2045区), GoodsServerSimpleDTO(id=1625831776231596, name=微信2044区), GoodsServerSimpleDTO(id=1625831776231595, name=微信2043区), GoodsServerSimpleDTO(id=1625831776230590, name=微信2042区), GoodsServerSimpleDTO(id=1625831776229584, name=微信2041区), GoodsServerSimpleDTO(id=1625831776229582, name=微信2040区), GoodsServerSimpleDTO(id=1625831776228576, name=微信2039区), GoodsServerSimpleDTO(id=1625831776227567, name=微信2038区), GoodsServerSimpleDTO(id=1625831776227561, name=微信2037区), GoodsServerSimpleDTO(id=1625831776226556, name=微信2036区), GoodsServerSimpleDTO(id=1625831776225554, name=微信2035区), GoodsServerSimpleDTO(id=1625831776225550, name=微信2034区), GoodsServerSimpleDTO(id=1625831776224545, name=微信2033区), GoodsServerSimpleDTO(id=1625831776224541, name=微信2032区), GoodsServerSimpleDTO(id=1625831776223537, name=微信2031区), GoodsServerSimpleDTO(id=1625831776222534, name=微信2030区), GoodsServerSimpleDTO(id=1625831776222530, name=微信2029区), GoodsServerSimpleDTO(id=1625831776221525, name=微信2028区), GoodsServerSimpleDTO(id=1625831776220521, name=微信2027区), GoodsServerSimpleDTO(id=1625831776220518, name=微信2026区), GoodsServerSimpleDTO(id=1625831776219513, name=微信2025区), GoodsServerSimpleDTO(id=1625831776218508, name=微信2024区), GoodsServerSimpleDTO(id=1625831776218504, name=微信2023区), GoodsServerSimpleDTO(id=1625831776217500, name=微信2022区), GoodsServerSimpleDTO(id=1625831776217497, name=微信2021区), GoodsServerSimpleDTO(id=1625831776216495, name=微信2020区), GoodsServerSimpleDTO(id=1625831776215492, name=微信2019区), GoodsServerSimpleDTO(id=1625831776215487, name=微信2018区), GoodsServerSimpleDTO(id=1625831776214484, name=微信2017区), GoodsServerSimpleDTO(id=1625831776213480, name=微信2016区), GoodsServerSimpleDTO(id=1625831776213475, name=微信2015区), GoodsServerSimpleDTO(id=1625831776212472, name=微信2014区), GoodsServerSimpleDTO(id=1625831776212467, name=微信2013区), GoodsServerSimpleDTO(id=1625831776211466, name=微信2012区), GoodsServerSimpleDTO(id=1625831776210463, name=微信2011区), GoodsServerSimpleDTO(id=1625831776210457, name=微信2010区), GoodsServerSimpleDTO(id=1625831776209454, name=微信2009区), GoodsServerSimpleDTO(id=1625831776209451, name=微信2008区), GoodsServerSimpleDTO(id=1625831776208447, name=微信2007区), GoodsServerSimpleDTO(id=1625831776207441, name=微信2006区), GoodsServerSimpleDTO(id=1625831776207434, name=微信2005区), GoodsServerSimpleDTO(id=1625831776206428, name=微信2004区), GoodsServerSimpleDTO(id=1625831776205421, name=微信2003区), GoodsServerSimpleDTO(id=1625831776205414, name=微信2002区), GoodsServerSimpleDTO(id=1625831776204410, name=微信2001区), GoodsServerSimpleDTO(id=1608607145407336, name=微信2000区), GoodsServerSimpleDTO(id=1608607145406330, name=微信1999区), GoodsServerSimpleDTO(id=1608607145405326, name=微信1998区), GoodsServerSimpleDTO(id=1608607145405321, name=微信1997区), GoodsServerSimpleDTO(id=1608607145404319, name=微信1996区), GoodsServerSimpleDTO(id=1608607145403316, name=微信1995区), GoodsServerSimpleDTO(id=1608607145403314, name=微信1994区), GoodsServerSimpleDTO(id=1608607145402306, name=微信1993区), GoodsServerSimpleDTO(id=1608607145401303, name=微信1992区), GoodsServerSimpleDTO(id=1608607145401298, name=微信1991区), GoodsServerSimpleDTO(id=1608607145400296, name=微信1990区), GoodsServerSimpleDTO(id=1608607145400293, name=微信1989区), GoodsServerSimpleDTO(id=1608607145399287, name=微信1988区), GoodsServerSimpleDTO(id=1608607145398282, name=微信1987区), GoodsServerSimpleDTO(id=1608607145398277, name=微信1986区), GoodsServerSimpleDTO(id=1608607145397271, name=微信1985区), GoodsServerSimpleDTO(id=1608607145396264, name=微信1984区), GoodsServerSimpleDTO(id=1608607145396258, name=微信1983区), GoodsServerSimpleDTO(id=1608607145395253, name=微信1982区), GoodsServerSimpleDTO(id=1608607145394251, name=微信1981区), GoodsServerSimpleDTO(id=1608607145394243, name=微信1980区), GoodsServerSimpleDTO(id=1608607145393238, name=微信1979区), GoodsServerSimpleDTO(id=1608607145392234, name=微信1978区), GoodsServerSimpleDTO(id=1608607145391229, name=微信1977区), GoodsServerSimpleDTO(id=1608607145391227, name=微信1976区), GoodsServerSimpleDTO(id=1608607145390224, name=微信1975区), GoodsServerSimpleDTO(id=1608607145389218, name=微信1974区), GoodsServerSimpleDTO(id=1608607145389214, name=微信1973区), GoodsServerSimpleDTO(id=1608607145388210, name=微信1972区), GoodsServerSimpleDTO(id=1608607145387204, name=微信1971区), GoodsServerSimpleDTO(id=1608607145387194, name=微信1970区), GoodsServerSimpleDTO(id=1608607145386188, name=微信1969区), GoodsServerSimpleDTO(id=1608607145385183, name=微信1968区), GoodsServerSimpleDTO(id=1608607145385171, name=微信1967区), GoodsServerSimpleDTO(id=1608607145384165, name=微信1966区), GoodsServerSimpleDTO(id=1608607145383160, name=微信1965区), GoodsServerSimpleDTO(id=1608607145383155, name=微信1964区), GoodsServerSimpleDTO(id=1608607145382145, name=微信1963区), GoodsServerSimpleDTO(id=1608607145382143, name=微信1962区), GoodsServerSimpleDTO(id=1608607145381140, name=微信1961区), GoodsServerSimpleDTO(id=1608607145380135, name=微信1960区), GoodsServerSimpleDTO(id=1608607145379125, name=微信1959区), GoodsServerSimpleDTO(id=1608607145379122, name=微信1958区), GoodsServerSimpleDTO(id=1608607145378119, name=微信1957区), GoodsServerSimpleDTO(id=1608607145377115, name=微信1956区), GoodsServerSimpleDTO(id=1608607145377112, name=微信1955区), GoodsServerSimpleDTO(id=1608607145376105, name=微信1954区), GoodsServerSimpleDTO(id=1608607145376102, name=微信1953区), GoodsServerSimpleDTO(id=1608607145375098, name=微信1952区), GoodsServerSimpleDTO(id=1608607145374093, name=微信1951区), GoodsServerSimpleDTO(id=1608607132292924, name=微信1950区), GoodsServerSimpleDTO(id=1608607132292921, name=微信1949区), GoodsServerSimpleDTO(id=1608607132291915, name=微信1948区), GoodsServerSimpleDTO(id=1608607132291911, name=微信1947区), GoodsServerSimpleDTO(id=1608607132290909, name=微信1946区), GoodsServerSimpleDTO(id=1608607132290906, name=微信1945区), GoodsServerSimpleDTO(id=1608607132289901, name=微信1944区), GoodsServerSimpleDTO(id=1608607132289897, name=微信1943区), GoodsServerSimpleDTO(id=1608607132288896, name=微信1942区), GoodsServerSimpleDTO(id=1608607132287894, name=微信1941区), GoodsServerSimpleDTO(id=1608607132287889, name=微信1940区), GoodsServerSimpleDTO(id=1608607132286886, name=微信1939区), GoodsServerSimpleDTO(id=1608607132286885, name=微信1938区), GoodsServerSimpleDTO(id=1608607132285877, name=微信1937区), GoodsServerSimpleDTO(id=1608607132285873, name=微信1936区), GoodsServerSimpleDTO(id=1608607132284871, name=微信1935区), GoodsServerSimpleDTO(id=1608607132284868, name=微信1934区), GoodsServerSimpleDTO(id=1608607132283866, name=微信1933区), GoodsServerSimpleDTO(id=1608607132283863, name=微信1932区), GoodsServerSimpleDTO(id=1608607132282862, name=微信1931区), GoodsServerSimpleDTO(id=1608607132282860, name=微信1930区), GoodsServerSimpleDTO(id=1608607132281856, name=微信1929区), GoodsServerSimpleDTO(id=1608607132280853, name=微信1928区), GoodsServerSimpleDTO(id=1608607132280848, name=微信1927区), GoodsServerSimpleDTO(id=1608607132279844, name=微信1926区), GoodsServerSimpleDTO(id=1608607132279839, name=微信1925区), GoodsServerSimpleDTO(id=1608607132278837, name=微信1924区), GoodsServerSimpleDTO(id=1608607132278832, name=微信1923区), GoodsServerSimpleDTO(id=1608607132277827, name=微信1922区), GoodsServerSimpleDTO(id=1608607132277825, name=微信1921区), GoodsServerSimpleDTO(id=1608607132276823, name=微信1920区), GoodsServerSimpleDTO(id=1608607132275820, name=微信1919区), GoodsServerSimpleDTO(id=1608607132275816, name=微信1918区), GoodsServerSimpleDTO(id=1608607132274812, name=微信1917区), GoodsServerSimpleDTO(id=1608607132274810, name=微信1916区), GoodsServerSimpleDTO(id=1608607132273804, name=微信1915区), GoodsServerSimpleDTO(id=1608607132273803, name=微信1914区), GoodsServerSimpleDTO(id=1608607132272799, name=微信1913区), GoodsServerSimpleDTO(id=1608607132272796, name=微信1912区), GoodsServerSimpleDTO(id=1608607132271792, name=微信1911区), GoodsServerSimpleDTO(id=1608607132271790, name=微信1910区), GoodsServerSimpleDTO(id=1608607132270785, name=微信1909区), GoodsServerSimpleDTO(id=1608607132270781, name=微信1908区), GoodsServerSimpleDTO(id=1608607132269778, name=微信1907区), GoodsServerSimpleDTO(id=1608607132269775, name=微信1906区), GoodsServerSimpleDTO(id=1608607132268768, name=微信1905区), GoodsServerSimpleDTO(id=1608607132267764, name=微信1904区), GoodsServerSimpleDTO(id=1608607132267758, name=微信1903区), GoodsServerSimpleDTO(id=1608607132266751, name=微信1902区), GoodsServerSimpleDTO(id=1608607132266748, name=微信1901区), GoodsServerSimpleDTO(id=1608607096197667, name=微信1900区), GoodsServerSimpleDTO(id=1608607096197662, name=微信1899区), GoodsServerSimpleDTO(id=1608607096196659, name=微信1898区), GoodsServerSimpleDTO(id=1608607096195655, name=微信1897区), GoodsServerSimpleDTO(id=1608607096195649, name=微信1896区), GoodsServerSimpleDTO(id=1608607096194645, name=微信1895区), GoodsServerSimpleDTO(id=1608607096194639, name=微信1894区), GoodsServerSimpleDTO(id=1608607096193637, name=微信1893区), GoodsServerSimpleDTO(id=1608607096192632, name=微信1892区), GoodsServerSimpleDTO(id=1608607096192628, name=微信1891区), GoodsServerSimpleDTO(id=1608607096191623, name=微信1890区), GoodsServerSimpleDTO(id=1608607096190618, name=微信1889区), GoodsServerSimpleDTO(id=1608607096190614, name=微信1888区), GoodsServerSimpleDTO(id=1608607096189612, name=微信1887区), GoodsServerSimpleDTO(id=1608607096188598, name=微信1886区), GoodsServerSimpleDTO(id=1608607096188595, name=微信1885区), GoodsServerSimpleDTO(id=1608607096187588, name=微信1884区), GoodsServerSimpleDTO(id=1608607096186583, name=微信1883区), GoodsServerSimpleDTO(id=1608607096186574, name=微信1882区), GoodsServerSimpleDTO(id=1608607096185544, name=微信1881区), GoodsServerSimpleDTO(id=1608607096156428, name=微信1880区), GoodsServerSimpleDTO(id=1608607096156425, name=微信1879区), GoodsServerSimpleDTO(id=1608607096155422, name=微信1878区), GoodsServerSimpleDTO(id=1608607096154420, name=微信1877区), GoodsServerSimpleDTO(id=1608607096154418, name=微信1876区), GoodsServerSimpleDTO(id=1608607096153415, name=微信1875区), GoodsServerSimpleDTO(id=1608607096152411, name=微信1874区), GoodsServerSimpleDTO(id=1608607096152408, name=微信1873区), GoodsServerSimpleDTO(id=1608607096151407, name=微信1872区), GoodsServerSimpleDTO(id=1608607096150402, name=微信1871区), GoodsServerSimpleDTO(id=1608607096150401, name=微信1870区), GoodsServerSimpleDTO(id=1608607096149399, name=微信1869区), GoodsServerSimpleDTO(id=1608607096148394, name=微信1868区), GoodsServerSimpleDTO(id=1608607096148390, name=微信1867区), GoodsServerSimpleDTO(id=1608607096147384, name=微信1866区), GoodsServerSimpleDTO(id=1608607096147378, name=微信1865区), GoodsServerSimpleDTO(id=1608607096146376, name=微信1864区), GoodsServerSimpleDTO(id=1608607096145371, name=微信1863区), GoodsServerSimpleDTO(id=1608607096145370, name=微信1862区), GoodsServerSimpleDTO(id=1608607096144368, name=微信1861区), GoodsServerSimpleDTO(id=1608607096143362, name=微信1860区), GoodsServerSimpleDTO(id=1608607096143353, name=微信1859区), GoodsServerSimpleDTO(id=1608607096142345, name=微信1858区), GoodsServerSimpleDTO(id=1608607096141340, name=微信1857区), GoodsServerSimpleDTO(id=1608607096141336, name=微信1856区), GoodsServerSimpleDTO(id=1608607096140331, name=微信1855区), GoodsServerSimpleDTO(id=1608607096139328, name=微信1854区), GoodsServerSimpleDTO(id=1608607096139327, name=微信1853区), GoodsServerSimpleDTO(id=1608607096138324, name=微信1852区), GoodsServerSimpleDTO(id=1608607096137316, name=微信1851区), GoodsServerSimpleDTO(id=1608607080357515, name=微信1850区), GoodsServerSimpleDTO(id=1608607080356509, name=微信1849区), GoodsServerSimpleDTO(id=1608607080356500, name=微信1848区), GoodsServerSimpleDTO(id=1608607080355494, name=微信1847区), GoodsServerSimpleDTO(id=1608607080355491, name=微信1846区), GoodsServerSimpleDTO(id=1608607080355487, name=微信1845区), GoodsServerSimpleDTO(id=1608607080354483, name=微信1844区), GoodsServerSimpleDTO(id=1608607080353475, name=微信1843区), GoodsServerSimpleDTO(id=1608607080353469, name=微信1842区), GoodsServerSimpleDTO(id=1608607080352459, name=微信1841区), GoodsServerSimpleDTO(id=1608607080352455, name=微信1840区), GoodsServerSimpleDTO(id=1608607080351449, name=微信1839区), GoodsServerSimpleDTO(id=1608607080351447, name=微信1838区), GoodsServerSimpleDTO(id=1608607080351442, name=微信1837区), GoodsServerSimpleDTO(id=1608607080350440, name=微信1836区), GoodsServerSimpleDTO(id=1608607080349437, name=微信1835区), GoodsServerSimpleDTO(id=1608607080349428, name=微信1834区), GoodsServerSimpleDTO(id=1608607080348421, name=微信1833区), GoodsServerSimpleDTO(id=1608607080348417, name=微信1832区), GoodsServerSimpleDTO(id=1608607080348413, name=微信1831区), GoodsServerSimpleDTO(id=1608607080347409, name=微信1830区), GoodsServerSimpleDTO(id=1608607080346404, name=微信1829区), GoodsServerSimpleDTO(id=1608607080346399, name=微信1828区), GoodsServerSimpleDTO(id=1608607080345395, name=微信1827区), GoodsServerSimpleDTO(id=1608607080345388, name=微信1826区), GoodsServerSimpleDTO(id=1608607080344381, name=微信1825区), GoodsServerSimpleDTO(id=1608607080344376, name=微信1824区), GoodsServerSimpleDTO(id=1608607080343371, name=微信1823区), GoodsServerSimpleDTO(id=1608607080343364, name=微信1822区), GoodsServerSimpleDTO(id=1608607080342357, name=微信1821区), GoodsServerSimpleDTO(id=1608607080342353, name=微信1820区), GoodsServerSimpleDTO(id=1608607080341352, name=微信1819区), GoodsServerSimpleDTO(id=1608607080341351, name=微信1818区), GoodsServerSimpleDTO(id=1608607080340347, name=微信1817区), GoodsServerSimpleDTO(id=1608607080340344, name=微信1816区), GoodsServerSimpleDTO(id=1608607080339339, name=微信1815区), GoodsServerSimpleDTO(id=1608607080339334, name=微信1814区), GoodsServerSimpleDTO(id=1608607080339331, name=微信1813区), GoodsServerSimpleDTO(id=1608607080338330, name=微信1812区), GoodsServerSimpleDTO(id=1608607080338328, name=微信1811区), GoodsServerSimpleDTO(id=1608607080337323, name=微信1810区), GoodsServerSimpleDTO(id=1608607080337319, name=微信1809区), GoodsServerSimpleDTO(id=1608607080336315, name=微信1808区), GoodsServerSimpleDTO(id=1608607080336310, name=微信1807区), GoodsServerSimpleDTO(id=1608607080335307, name=微信1806区), GoodsServerSimpleDTO(id=1608607080335304, name=微信1805区), GoodsServerSimpleDTO(id=1608607080334299, name=微信1804区), GoodsServerSimpleDTO(id=1608607080334297, name=微信1803区), GoodsServerSimpleDTO(id=1608607080333292, name=微信1802区), GoodsServerSimpleDTO(id=1608607080333288, name=微信1801区), GoodsServerSimpleDTO(id=1608606957805614, name=微信1800区), GoodsServerSimpleDTO(id=1608606957805612, name=微信1799区), GoodsServerSimpleDTO(id=1608606957804607, name=微信1798区), GoodsServerSimpleDTO(id=1608606957804605, name=微信1797区), GoodsServerSimpleDTO(id=1608606957803601, name=微信1796区), GoodsServerSimpleDTO(id=1608606957803598, name=微信1795区), GoodsServerSimpleDTO(id=1608606957802593, name=微信1794区), GoodsServerSimpleDTO(id=1608606957802586, name=微信1793区), GoodsServerSimpleDTO(id=1608606957801583, name=微信1792区), GoodsServerSimpleDTO(id=1608606957801581, name=微信1791区), GoodsServerSimpleDTO(id=1608606957800576, name=微信1790区), GoodsServerSimpleDTO(id=1608606957800574, name=微信1789区), GoodsServerSimpleDTO(id=1608606957799572, name=微信1788区), GoodsServerSimpleDTO(id=1608606957799569, name=微信1787区), GoodsServerSimpleDTO(id=1608606957798564, name=微信1786区), GoodsServerSimpleDTO(id=1608606957798561, name=微信1785区), GoodsServerSimpleDTO(id=1608606957797555, name=微信1784区), GoodsServerSimpleDTO(id=1608606957797553, name=微信1783区), GoodsServerSimpleDTO(id=1608606957796551, name=微信1782区), GoodsServerSimpleDTO(id=1608606957796546, name=微信1781区), GoodsServerSimpleDTO(id=1608606957795541, name=微信1780区), GoodsServerSimpleDTO(id=1608606957795538, name=微信1779区), GoodsServerSimpleDTO(id=1608606957794534, name=微信1778区), GoodsServerSimpleDTO(id=1608606957794532, name=微信1777区), GoodsServerSimpleDTO(id=1608606957793530, name=微信1776区), GoodsServerSimpleDTO(id=1608606957793526, name=微信1775区), GoodsServerSimpleDTO(id=1608606957792522, name=微信1774区), GoodsServerSimpleDTO(id=1608606957792518, name=微信1773区), GoodsServerSimpleDTO(id=1608606957791515, name=微信1772区), GoodsServerSimpleDTO(id=1608606957791511, name=微信1771区), GoodsServerSimpleDTO(id=1608606957790508, name=微信1770区), GoodsServerSimpleDTO(id=1608606957790503, name=微信1769区), GoodsServerSimpleDTO(id=1608606957789497, name=微信1768区), GoodsServerSimpleDTO(id=1608606957789494, name=微信1767区), GoodsServerSimpleDTO(id=1608606957788492, name=微信1766区), GoodsServerSimpleDTO(id=1608606957788488, name=微信1765区), GoodsServerSimpleDTO(id=1608606957787484, name=微信1764区), GoodsServerSimpleDTO(id=1608606957787479, name=微信1763区), GoodsServerSimpleDTO(id=1608606957786475, name=微信1762区), GoodsServerSimpleDTO(id=1608606957786473, name=微信1761区), GoodsServerSimpleDTO(id=1608606957785469, name=微信1760区), GoodsServerSimpleDTO(id=1608606957785465, name=微信1759区), GoodsServerSimpleDTO(id=1608606957784463, name=微信1758区), GoodsServerSimpleDTO(id=1608606957784462, name=微信1757区), GoodsServerSimpleDTO(id=1608606957784460, name=微信1756区), GoodsServerSimpleDTO(id=1608606957783458, name=微信1755区), GoodsServerSimpleDTO(id=1608606957783454, name=微信1754区), GoodsServerSimpleDTO(id=1608606957782452, name=微信1753区), GoodsServerSimpleDTO(id=1608606957782449, name=微信1752区), GoodsServerSimpleDTO(id=1608606957781447, name=微信1751区), GoodsServerSimpleDTO(id=1608606940282648, name=微信1750区), GoodsServerSimpleDTO(id=1608606940282645, name=微信1749区), GoodsServerSimpleDTO(id=1608606940281640, name=微信1748区), GoodsServerSimpleDTO(id=1608606940280636, name=微信1747区), GoodsServerSimpleDTO(id=1608606940280631, name=微信1746区), GoodsServerSimpleDTO(id=1608606940279626, name=微信1745区), GoodsServerSimpleDTO(id=1608606940278619, name=微信1744区), GoodsServerSimpleDTO(id=1608606940278617, name=微信1743区), GoodsServerSimpleDTO(id=1608606940277611, name=微信1742区), GoodsServerSimpleDTO(id=1608606940277606, name=微信1741区), GoodsServerSimpleDTO(id=1608606940276602, name=微信1740区), GoodsServerSimpleDTO(id=1608606940275598, name=微信1739区), GoodsServerSimpleDTO(id=1608606940275595, name=微信1738区), GoodsServerSimpleDTO(id=1608606940274592, name=微信1737区), GoodsServerSimpleDTO(id=1608606940273586, name=微信1736区), GoodsServerSimpleDTO(id=1608606940273582, name=微信1735区), GoodsServerSimpleDTO(id=1608606940272577, name=微信1734区), GoodsServerSimpleDTO(id=1608606940272573, name=微信1733区), GoodsServerSimpleDTO(id=1608606940271567, name=微信1732区), GoodsServerSimpleDTO(id=1608606940270564, name=微信1731区), GoodsServerSimpleDTO(id=1608606940270559, name=微信1730区), GoodsServerSimpleDTO(id=1608606940269554, name=微信1729区), GoodsServerSimpleDTO(id=1608606940268549, name=微信1728区), GoodsServerSimpleDTO(id=1608606940268538, name=微信1727区), GoodsServerSimpleDTO(id=1608606940267535, name=微</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1580902730218531, name=通用服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1530758082299235, name=活动全服通用), GoodsServerSimpleDTO(id=1501051257602094, name=山西2区), GoodsServerSimpleDTO(id=1501051257602090, name=山西1区), GoodsServerSimpleDTO(id=1501051197474015, name=山东6区), GoodsServerSimpleDTO(id=1501051197474014, name=山东5区), GoodsServerSimpleDTO(id=1501051197474013, name=山东4区), GoodsServerSimpleDTO(id=1501051197474012, name=山东3区), GoodsServerSimpleDTO(id=1501051197474011, name=山东2 ∕ 7区), GoodsServerSimpleDTO(id=1501051197474010, name=山东1区), GoodsServerSimpleDTO(id=1501051132449793, name=河南7区), GoodsServerSimpleDTO(id=1501051132449791, name=河南6区), GoodsServerSimpleDTO(id=1501051132449789, name=河南5区), GoodsServerSimpleDTO(id=1501051132449787, name=河南4区), GoodsServerSimpleDTO(id=1501051132449785, name=河南3区), GoodsServerSimpleDTO(id=1501051132449784, name=河南2区), GoodsServerSimpleDTO(id=1501051132448782, name=河南1区), GoodsServerSimpleDTO(id=1501051073342404, name=黑龙江2 ∕ 3区), GoodsServerSimpleDTO(id=1501051073342401, name=黑龙江1区), GoodsServerSimpleDTO(id=1501051017017822, name=吉林1 ∕ 2区), GoodsServerSimpleDTO(id=1501050932015509, name=辽宁3区), GoodsServerSimpleDTO(id=1501050932015508, name=辽宁2区), GoodsServerSimpleDTO(id=1501050932015507, name=辽宁1区), GoodsServerSimpleDTO(id=1501050874688565, name=内蒙古1区), GoodsServerSimpleDTO(id=1501050831078064, name=北京3区), GoodsServerSimpleDTO(id=1501050831078061, name=北京2 ∕ 4区), GoodsServerSimpleDTO(id=1501050831078059, name=北京1区), GoodsServerSimpleDTO(id=1501050751335326, name=东北4 ∕ 5 ∕ 6区), GoodsServerSimpleDTO(id=1501050751335324, name=东北3 ∕ 7区), GoodsServerSimpleDTO(id=1501050751335322, name=东北2区), GoodsServerSimpleDTO(id=1501050751334321, name=东北1区), GoodsServerSimpleDTO(id=1501050679283231, name=天津1区), GoodsServerSimpleDTO(id=1501050338811072, name=河北5区), GoodsServerSimpleDTO(id=1501050338810069, name=河北4区), GoodsServerSimpleDTO(id=1501050338810067, name=河北2 ∕ 3区), GoodsServerSimpleDTO(id=1501050338810062, name=河北1区), GoodsServerSimpleDTO(id=1501050268534588, name=华北4区), GoodsServerSimpleDTO(id=1501050268534587, name=华北3区), GoodsServerSimpleDTO(id=1501050268534586, name=华北2区), GoodsServerSimpleDTO(id=1501050268533585, name=华北1区), GoodsServerSimpleDTO(id=1501050063367901, name=新疆1区), GoodsServerSimpleDTO(id=1501050028147949, name=重庆2区), GoodsServerSimpleDTO(id=1501050028147948, name=重庆1区), GoodsServerSimpleDTO(id=1501049979598398, name=四川6区), GoodsServerSimpleDTO(id=1501049979598395, name=四川5区), GoodsServerSimpleDTO(id=1501049979598394, name=四川4区), GoodsServerSimpleDTO(id=1501049979597393, name=四川3区), GoodsServerSimpleDTO(id=1501049979597392, name=四川2区), GoodsServerSimpleDTO(id=1501049979597391, name=四川1区), GoodsServerSimpleDTO(id=1501049910905449, name=贵州1区), GoodsServerSimpleDTO(id=1501049910905448, name=云南1区), GoodsServerSimpleDTO(id=1501049910904447, name=云贵1区), GoodsServerSimpleDTO(id=1501049836058480, name=陕西2 ∕ 3区), GoodsServerSimpleDTO(id=1501049836058479, name=陕西1区), GoodsServerSimpleDTO(id=1501049786098329, name=西南3区), GoodsServerSimpleDTO(id=1501049786097328, name=西南2区), GoodsServerSimpleDTO(id=1501049786097326, name=西南1区), GoodsServerSimpleDTO(id=1501049742285472, name=西北2 ∕ 3区), GoodsServerSimpleDTO(id=1501049742285471, name=西北1区), GoodsServerSimpleDTO(id=1501049686959801, name=江西3区), GoodsServerSimpleDTO(id=1501049686958799, name=江西2区), GoodsServerSimpleDTO(id=1501049686958798, name=江西1区), GoodsServerSimpleDTO(id=1501049646837709, name=福建3 ∕ 4区), GoodsServerSimpleDTO(id=1501049646837708, name=福建2区), GoodsServerSimpleDTO(id=1501049646836707, name=福建1区), GoodsServerSimpleDTO(id=1501049598987188, name=安徽3区), GoodsServerSimpleDTO(id=1501049598987187, name=安徽2区), GoodsServerSimpleDTO(id=1501049598987186, name=安徽1区), GoodsServerSimpleDTO(id=1501049549654454, name=浙江7区), GoodsServerSimpleDTO(id=1501049549654453, name=浙江6区), GoodsServerSimpleDTO(id=1501049549654452, name=浙江4 ∕ 5区), GoodsServerSimpleDTO(id=1501049549653451, name=浙江3区), GoodsServerSimpleDTO(id=1501049549653450, name=浙江2区), GoodsServerSimpleDTO(id=1501049549653449, name=浙江1区), GoodsServerSimpleDTO(id=1501049484283627, name=江苏8区), GoodsServerSimpleDTO(id=1501049484283626, name=江苏6区), GoodsServerSimpleDTO(id=1501049484283625, name=江苏5 ∕ 7区), GoodsServerSimpleDTO(id=1501049484283624, name=江苏4区), GoodsServerSimpleDTO(id=1501049484282623, name=江苏3区), GoodsServerSimpleDTO(id=1501049484282622, name=江苏2区), GoodsServerSimpleDTO(id=1501049484282621, name=江苏1区), GoodsServerSimpleDTO(id=1501049402062054, name=上海4 ∕ 5区), GoodsServerSimpleDTO(id=1501049402062052, name=上海3区), GoodsServerSimpleDTO(id=1501049402062051, name=上海2区), GoodsServerSimpleDTO(id=1501049402061050, name=上海1区), GoodsServerSimpleDTO(id=1501048949557040, name=湖北8区), GoodsServerSimpleDTO(id=1501048949557039, name=湖北7区), GoodsServerSimpleDTO(id=1501048949556036, name=湖北6区), GoodsServerSimpleDTO(id=1501048949556035, name=湖北5区), GoodsServerSimpleDTO(id=1501048949556034, name=湖北4区), GoodsServerSimpleDTO(id=1501048949556032, name=湖北3区), GoodsServerSimpleDTO(id=1501048949556031, name=湖北2区), GoodsServerSimpleDTO(id=1501048949556030, name=湖北1区), GoodsServerSimpleDTO(id=1501048899370292, name=湖南7区), GoodsServerSimpleDTO(id=1501048899370290, name=湖南6区), GoodsServerSimpleDTO(id=1501048899370289, name=湖南5区), GoodsServerSimpleDTO(id=1501048899370288, name=湖南4区), GoodsServerSimpleDTO(id=1501048899370287, name=湖南3区), GoodsServerSimpleDTO(id=1501048899369286, name=湖南2区), GoodsServerSimpleDTO(id=1501048899369284, name=湖南1区), GoodsServerSimpleDTO(id=1501048841454611, name=广西5区), GoodsServerSimpleDTO(id=1501048841454610, name=广西3区), GoodsServerSimpleDTO(id=1501048841454609, name=广西2 ∕ 4区), GoodsServerSimpleDTO(id=1501048841454607, name=广西1区), GoodsServerSimpleDTO(id=1501048653182276, name=广州1 ∕ 2区), GoodsServerSimpleDTO(id=1501048653181275, name=广东13区), GoodsServerSimpleDTO(id=1501048653181274, name=广东12区), GoodsServerSimpleDTO(id=1501048653181273, name=广东11区), GoodsServerSimpleDTO(id=1501048653181272, name=广东10区), GoodsServerSimpleDTO(id=1501048653181270, name=广东9区), GoodsServerSimpleDTO(id=1501048653181268, name=广东8区), GoodsServerSimpleDTO(id=1501048653180267, name=广东7区), GoodsServerSimpleDTO(id=1501048653180266, name=广东6区), GoodsServerSimpleDTO(id=1501048653180264, name=广东5区), GoodsServerSimpleDTO(id=1501048653180263, name=广东4区), GoodsServerSimpleDTO(id=1501048653180262, name=广东3区), GoodsServerSimpleDTO(id=1501048653180261, name=广东2区), GoodsServerSimpleDTO(id=1501048653180259, name=广东1区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1517384142749498, name=峡谷之巅), GoodsServerSimpleDTO(id=1500544100659844, name=男爵领域), GoodsServerSimpleDTO(id=1500544100659842, name=教育网专区), GoodsServerSimpleDTO(id=1500530737314623, name=钢铁烈阳), GoodsServerSimpleDTO(id=1500530737313622, name=雷瑟守备), GoodsServerSimpleDTO(id=1500530737313621, name=皮城警备), GoodsServerSimpleDTO(id=1500530737313620, name=影流), GoodsServerSimpleDTO(id=1500530737313618, name=水晶之痕), GoodsServerSimpleDTO(id=1500530737313615, name=暗影岛), GoodsServerSimpleDTO(id=1500530737313614, name=裁决之地), GoodsServerSimpleDTO(id=1500530737313612, name=扭曲丛林), GoodsServerSimpleDTO(id=1500530737312610, name=无畏先锋), GoodsServerSimpleDTO(id=1500530737312608, name=德玛西亚), GoodsServerSimpleDTO(id=1500530737312607, name=巨龙之巢), GoodsServerSimpleDTO(id=1500530737312603, name=恕瑞玛), GoodsServerSimpleDTO(id=1500530737312601, name=弗雷尔卓德), GoodsServerSimpleDTO(id=1500450488530356, name=卡拉曼达), GoodsServerSimpleDTO(id=1500450488530355, name=征服之海), GoodsServerSimpleDTO(id=1500450488530354, name=守望之海), GoodsServerSimpleDTO(id=1500450488530353, name=均衡教派), GoodsServerSimpleDTO(id=1500450488530352, name=黑色玫瑰), GoodsServerSimpleDTO(id=1500450488529351, name=巨神峰), GoodsServerSimpleDTO(id=1500450488529349, name=战争学院), GoodsServerSimpleDTO(id=1500450488529347, name=皮尔特沃夫), GoodsServerSimpleDTO(id=1500450488529346, name=班德尔城), GoodsServerSimpleDTO(id=1500450488529344, name=诺克萨斯), GoodsServerSimpleDTO(id=1500450488529342, name=祖安), GoodsServerSimpleDTO(id=1500450488529341, name=比尔吉沃特), GoodsServerSimpleDTO(id=1500450488528338, name=艾欧尼亚)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1502794170131901, name=教育专区), GoodsServerSimpleDTO(id=1502794170131900, name=移动专区), GoodsServerSimpleDTO(id=1502794134890016, name=河南一区), GoodsServerSimpleDTO(id=1502793781464216, name=河南二区), GoodsServerSimpleDTO(id=1502793781464213, name=北方大区), GoodsServerSimpleDTO(id=1502793781463212, name=山东二区), GoodsServerSimpleDTO(id=1502793781463211, name=山东一区), GoodsServerSimpleDTO(id=1502793568305748, name=山西一区), GoodsServerSimpleDTO(id=1502793568305747, name=河北一区), GoodsServerSimpleDTO(id=1502793568305746, name=北京四区), GoodsServerSimpleDTO(id=1502793568305745, name=北京三区), GoodsServerSimpleDTO(id=1502793568305744, name=北京二区), GoodsServerSimpleDTO(id=1502793568305743, name=北京一区), GoodsServerSimpleDTO(id=1502793528987110, name=黑龙江区), GoodsServerSimpleDTO(id=1502793528986109, name=吉林一区), GoodsServerSimpleDTO(id=1502793528986107, name=辽宁三区), GoodsServerSimpleDTO(id=1502793528986106, name=辽宁二区), GoodsServerSimpleDTO(id=1502793528986105, name=辽宁一区), GoodsServerSimpleDTO(id=1502793488311854, name=江苏二区), GoodsServerSimpleDTO(id=1502793488310852, name=江苏一区), GoodsServerSimpleDTO(id=1502793465928256, name=云南一区), GoodsServerSimpleDTO(id=1502793465928255, name=陕西一区), GoodsServerSimpleDTO(id=1502793465927253, name=重庆一区), GoodsServerSimpleDTO(id=1502793465927252, name=四川二区), GoodsServerSimpleDTO(id=1502793465927251, name=四川一区), GoodsServerSimpleDTO(id=1502793432508973, name=安徽一区), GoodsServerSimpleDTO(id=1502793432508972, name=福建一区), GoodsServerSimpleDTO(id=1502793432507970, name=浙江二区), GoodsServerSimpleDTO(id=1502793432507968, name=浙江一区), GoodsServerSimpleDTO(id=1502793432507967, name=上海二区), GoodsServerSimpleDTO(id=1502793432507966, name=上海一区), GoodsServerSimpleDTO(id=1502793358964061, name=南方大区), GoodsServerSimpleDTO(id=1502793358964059, name=江西一区), GoodsServerSimpleDTO(id=1502793358964058, name=湖北二区), GoodsServerSimpleDTO(id=1502793358963056, name=湖北一区), GoodsServerSimpleDTO(id=1502793358963055, name=湖南二区), GoodsServerSimpleDTO(id=1502793358963053, name=湖南一区), GoodsServerSimpleDTO(id=1502793115319926, name=广西一区), GoodsServerSimpleDTO(id=1502793115319925, name=广东四区), GoodsServerSimpleDTO(id=1502793115318924, name=广东三区), GoodsServerSimpleDTO(id=1502793115318922, name=广东二区), GoodsServerSimpleDTO(id=1502793115318921, name=广东一区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1626244142769441, name=风云再起), GoodsServerSimpleDTO(id=1625551737217697, name=乘风破浪), GoodsServerSimpleDTO(id=1625193787211941, name=琴音小筑), GoodsServerSimpleDTO(id=1619601521876510, name=天下第一), GoodsServerSimpleDTO(id=1619598039033759, name=刀光剑影), GoodsServerSimpleDTO(id=1603009174104697, name=楼兰夜雪), GoodsServerSimpleDTO(id=1603009174104695, name=所向披靡), GoodsServerSimpleDTO(id=1603009174104692, name=一梦十年), GoodsServerSimpleDTO(id=1603009174104691, name=九阴真经), GoodsServerSimpleDTO(id=1603009174103689, name=不忘初心), GoodsServerSimpleDTO(id=1603009174103688, name=紫禁之巅), GoodsServerSimpleDTO(id=1603009174103685, name=仙侣情缘), GoodsServerSimpleDTO(id=1603009174103684, name=听香水榭), GoodsServerSimpleDTO(id=1603009174103681, name=太湖仙岛), GoodsServerSimpleDTO(id=1603009174102678, name=一生宿敌), GoodsServerSimpleDTO(id=1603009174102677, name=半城烟沙)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1628833427073986, name=火之神殿), GoodsServerSimpleDTO(id=1628833427072973, name=红龙祭坛), GoodsServerSimpleDTO(id=1628833427072957, name=永恒之岛), GoodsServerSimpleDTO(id=1628833427071950, name=谁与争锋), GoodsServerSimpleDTO(id=1628833427071942, name=永恒之巅)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1585625760885898, name=法拉克斯), GoodsServerSimpleDTO(id=1585624934358848, name=龙牙), GoodsServerSimpleDTO(id=1575947453297773, name=赛雷布拉斯), GoodsServerSimpleDTO(id=1572838069026832, name=诺克塞恩), GoodsServerSimpleDTO(id=1572838069026831, name=雷德 ), GoodsServerSimpleDTO(id=1572838069026829, name=娅尔罗 ), GoodsServerSimpleDTO(id=1572838069025828, name=阿什坎迪 ), GoodsServerSimpleDTO(id=1572838069025826, name=埃提耶什 ), GoodsServerSimpleDTO(id=1572838069025824, name=辛洛斯 ), GoodsServerSimpleDTO(id=1572838069024821, name=龙之召唤 ), GoodsServerSimpleDTO(id=1572838069024817, name=震地者奎尔塞拉 ), GoodsServerSimpleDTO(id=1572838069024815, name=艾隆纳亚 ), GoodsServerSimpleDTO(id=1572838069023812, name=碧空之歌 ), GoodsServerSimpleDTO(id=1572838069023810, name=雷霆之击 ), GoodsServerSimpleDTO(id=1572838069023809, name=狂野之刃 ), GoodsServerSimpleDTO(id=1572838069023806, name=火锤 ), GoodsServerSimpleDTO(id=1572838069022804, name=席瓦莱恩 ), GoodsServerSimpleDTO(id=1572838069021802, name=赫洛德 ), GoodsServerSimpleDTO(id=1572838069021800, name=拉姆斯登 ), GoodsServerSimpleDTO(id=1572838069021799, name=曼多基尔 ), GoodsServerSimpleDTO(id=1572838069021795, name=沙顶 ), GoodsServerSimpleDTO(id=1572838069020791, name=吉兹洛克 ), GoodsServerSimpleDTO(id=1572838069020788, name=厄运之槌 ), GoodsServerSimpleDTO(id=1572838069020787, name=德姆塞卡尔 ), GoodsServerSimpleDTO(id=1572838069020783, name=怒炉 ), GoodsServerSimpleDTO(id=1572838069019781, name=迈克斯纳 ), GoodsServerSimpleDTO(id=1572838069019779, name=加丁 ), GoodsServerSimpleDTO(id=1572838069019778, name=末日之刃 ), GoodsServerSimpleDTO(id=1572838069019777, name=怀特迈恩 ), GoodsServerSimpleDTO(id=1572838069018774, name=安娜丝塔丽 ), GoodsServerSimpleDTO(id=1572838069018772, name=法尔班克斯 ), GoodsServerSimpleDTO(id=1572838069018770, name=祈福), GoodsServerSimpleDTO(id=1566978493087351, name=秩序之源), GoodsServerSimpleDTO(id=1566978493087349, name=灵风), GoodsServerSimpleDTO(id=1566978493087343, name=无尽风暴), GoodsServerSimpleDTO(id=1566978493086342, name=巨龙追猎者), GoodsServerSimpleDTO(id=1566978493086339, name=巨人追猎者), GoodsServerSimpleDTO(id=1566978493086337, name=卓越), GoodsServerSimpleDTO(id=1566978493086336, name=审判), GoodsServerSimpleDTO(id=1566978493086334, name=木喉要塞), GoodsServerSimpleDTO(id=1566978493086332, name=匕首岭), GoodsServerSimpleDTO(id=1566978493085329, name=觅心者), GoodsServerSimpleDTO(id=1566978493085327, name=维克尼拉斯), GoodsServerSimpleDTO(id=1566978493085326, name=狮心), GoodsServerSimpleDTO(id=1566978493085323, name=巴罗夫), GoodsServerSimpleDTO(id=1566978493085321, name=比格沃斯), GoodsServerSimpleDTO(id=1566978493085320, name=比斯巨兽), GoodsServerSimpleDTO(id=1566978493084318, name=帕奇维克), GoodsServerSimpleDTO(id=1566978493084316, name=维希度斯), GoodsServerSimpleDTO(id=1566978493084312, name=布鲁), GoodsServerSimpleDTO(id=1566978493084309, name=范克瑞斯), GoodsServerSimpleDTO(id=1566978493084306, name=萨弗拉斯), GoodsServerSimpleDTO(id=1566978493084302, name=黑曜石之锋), GoodsServerSimpleDTO(id=1566978493083301, name=灰烬使者), GoodsServerSimpleDTO(id=1566978493083300, name=伦鲁迪洛尔), GoodsServerSimpleDTO(id=1566978493083296, name=奥金斧), GoodsServerSimpleDTO(id=1566978493083294, name=骨火), GoodsServerSimpleDTO(id=1566978493083291, name=毁灭之刃), GoodsServerSimpleDTO(id=1566978493083289, name=辛迪加), GoodsServerSimpleDTO(id=1566978493082286, name=诺格弗格), GoodsServerSimpleDTO(id=1566978493082283, name=寒脊山小径), GoodsServerSimpleDTO(id=1566978493082282, name=碧玉矿洞), GoodsServerSimpleDTO(id=1566978493082280, name=维克洛尔), GoodsServerSimpleDTO(id=1566978493082278, name=希尔盖), GoodsServerSimpleDTO(id=1566978493082276, name=霜语), GoodsServerSimpleDTO(id=1566978493081273, name=水晶之牙), GoodsServerSimpleDTO(id=1566978493081268, name=莫格莱尼), GoodsServerSimpleDTO(id=1566978493081266, name=沙尔图拉), GoodsServerSimpleDTO(id=1566978493081263, name=奥罗), GoodsServerSimpleDTO(id=1566978493081260, name=哈霍兰)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄联盟手游（lol手游）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>哈利波特：魔法觉醒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1621565516574022</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1011518</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1633681463744104, 1621565516099743]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1633681463744104, name=QQ服务器), GoodsServerSimpleDTO(id=1621565516099743, name=新区预售)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1621565516899125</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1621565517247474</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1621565517569142</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1633681476979165, 1621565516099743]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1633681476979165, name=微信服务器), GoodsServerSimpleDTO(id=1621565516099743, name=新区预售)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1633681463744104]'[GoodsServerSimpleDTO(id=1633681463744104, name=QQ服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1633681476979165]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1633681476979165, name=微信服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>网易帐号</t>
   </si>
   <si>
     <t>1623839488380687</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1623839513012011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1470047031313923</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1636795571689861, 1633690506792122, 1632478182096883, 1631170273972700, 1631170273972695, 1631170273971691, 1631170273971686, 1631170273970683, 1631170273970674, 1631170273969667, 1631170273969660, 1631170273968658, 1631170273967652, 1631170273967647, 1631170273966645, 1623763656129247]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1636795571689861, name=尖叫棚屋), GoodsServerSimpleDTO(id=1633690506792122, name=时间转换器), GoodsServerSimpleDTO(id=1632478182096883, name=巧克力蛙), GoodsServerSimpleDTO(id=1631170273972700, name=三把扫帚酒吧), GoodsServerSimpleDTO(id=1631170273972695, name=骑士巴士), GoodsServerSimpleDTO(id=1631170273971691, name=活点地图), GoodsServerSimpleDTO(id=1631170273971686, name=海外加速服), GoodsServerSimpleDTO(id=1631170273970683, name=金色飞贼), GoodsServerSimpleDTO(id=1631170273970674, name=分院帽), GoodsServerSimpleDTO(id=1631170273969667, name=密室), GoodsServerSimpleDTO(id=1631170273969660, name=古灵阁), GoodsServerSimpleDTO(id=1631170273968658, name=国王十字车站), GoodsServerSimpleDTO(id=1631170273967652, name=魔法部), GoodsServerSimpleDTO(id=1631170273967647, name=对角巷), GoodsServerSimpleDTO(id=1631170273966645, name=霍格沃茨), GoodsServerSimpleDTO(id=1623763656129247, name=安卓服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1470047031273482</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1636795571689861, 1633690506792122, 1632478182096883, 1631170273972700, 1631170273972695, 1631170273971691, 1631170273971686, 1631170273970683, 1631170273970674, 1631170273969667, 1631170273969660, 1631170273968658, 1631170273967652, 1631170273967647, 1631170273966645, 1623763656129240]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1636795571689861, name=尖叫棚屋), GoodsServerSimpleDTO(id=1633690506792122, name=时间转换器), GoodsServerSimpleDTO(id=1632478182096883, name=巧克力蛙), GoodsServerSimpleDTO(id=1631170273972700, name=三把扫帚酒吧), GoodsServerSimpleDTO(id=1631170273972695, name=骑士巴士), GoodsServerSimpleDTO(id=1631170273971691, name=活点地图), GoodsServerSimpleDTO(id=1631170273971686, name=海外加速服), GoodsServerSimpleDTO(id=1631170273970683, name=金色飞贼), GoodsServerSimpleDTO(id=1631170273970674, name=分院帽), GoodsServerSimpleDTO(id=1631170273969667, name=密室), GoodsServerSimpleDTO(id=1631170273969660, name=古灵阁), GoodsServerSimpleDTO(id=1631170273968658, name=国王十字车站), GoodsServerSimpleDTO(id=1631170273967652, name=魔法部), GoodsServerSimpleDTO(id=1631170273967647, name=对角巷), GoodsServerSimpleDTO(id=1631170273966645, name=霍格沃茨), GoodsServerSimpleDTO(id=1623763656129240, name=苹果服务器)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔兽世界</t>
   </si>
   <si>
     <t>pc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1509678393168175</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1504179900363374, 1504179900363373, 1504179900362372, 1504179900362370, 1504179900362368, 1504179900362367, 1504179900362366, 1504179900362365, 1504179900362362, 1504179900362361, 1504179900362357, 1504179900361356, 1504179900361355, 1504179900361354, 1504179900361353, 1504179900361352, 1504179900361351, 1504179900361350, 1504179900361349, 1504179900361348, 1504179900361347, 1504179900361345, 1504179900360344, 1504179900360339, 1504179900360338, 1504179900360337, 1504179900360334, 1504179900360332, 1504179900360331, 1504179900360328, 1504179900360325, 1504179900360324, 1504179900359323, 1504179900359322, 1504179900359320, 1504179900359319, 1504179900359318, 1504179900359316, 1504179900359315, 1504179900359312, 1504179900359311, 1504179900359309, 1504179900359308, 1504179900358307, 1504179900358306, 1504179900358305, 1504179900358304, 1504179900358302, 1504179900358301, 1504179900358299, 1504179900358298, 1504179900358296, 1504179900358293, 1504179900358292, 1504179900357290, 1504179900357289, 1504179900357288, 1504179900357287, 1504179900357286, 1504179900357282, 1504179900357279, 1504179900357277, 1504179900357276, 1504179900356272, 1504179643125821, 1504179643125820, 1504179643125819, 1504179643125818, 1504179643125817, 1504179643124816, 1504179643124814, 1504179643124813, 1504179643124811, 1504179643124809, 1504179643124808, 1504179643124807, 1504179643123806, 1504179643123805, 1504179643123803, 1504179643123802, 1504179643123799, 1504179643123797, 1504179643123796, 1504179643122793, 1504179643122792, 1504179643122791, 1504179643122788, 1504179643122787, 1504179643122786, 1504179643122785, 1504179643121783, 1504179643121782, 1504179643121780, 1504179643121776, 1504179643121775, 1504179643120772, 1504179643120770, 1504179643120769, 1504179643120768, 1504179643120766, 1504179643119761, 1504179643119760, 1504179643119758, 1504179643119756, 1504179643119753, 1504179643119751, 1504179643118749, 1504179643118747, 1504179643118746, 1504179643118745, 1504179643117742, 1504179643117740, 1504179643117737, 1504179643117735, 1504179643116734, 1504179643116733, 1504179643116732, 1504179643116730, 1504179643115728, 1504179643115727, 1504179643115725, 1504179643115724, 1504179643115722, 1504179643114719, 1504179643114718, 1504179643114717, 1504179643114714, 1504177898218963, 1504177898218961, 1504177898218960, 1504177898218958, 1504177898218957, 1504177898218956, 1504177898218955, 1504177898217954, 1504177898217953, 1504177898217951, 1504177898217950, 1504177898217948, 1504177898217947, 1504177898217945, 1504177898217942, 1504177898217940, 1504177898216939, 1504177898216936, 1504177898216934, 1504177898216933, 1504177898216932, 1504177898216931, 1504177898216930, 1504177898216929, 1504177898215927, 1504177898215926, 1504177898215924, 1504177898215923, 1504177898215922, 1504177898215921, 1504177898215919, 1504177898215917, 1504177898214915, 1504177898214913, 1504177898214911, 1504177898214908, 1504177898214905, 1504177898214904, 1504177898214903, 1504177898214901, 1504177898214899, 1504177898213898, 1504177898213897, 1504177898213896, 1504177898213895, 1504177898213894, 1504177898213893, 1504177898213892, 1504177898213891, 1504177898213889, 1504177898213888, 1504177898212887, 1504177898212886, 1504177898212884, 1504177898212882, 1504177898212880, 1504177898212878, 1504177898212876, 1504177898212875, 1504177879283789, 1504177879282785, 1504177879282784, 1504177879282783, 1504177879282782, 1504177879282779, 1504177879282777, 1504177879281773, 1504177879281772, 1504177879281771, 1504177879281769, 1504177879281768, 1504177879281767, 1504177879281766, 1504177879281765, 1504177879280764, 1504177879280763, 1504177879280762, 1504177879280761, 1504177879280759, 1504177879280756, 1504177879280754, 1504177879279752, 1504177879279751, 1504177879279750, 1504177879279749, 1504177879279748, 1504177879279747, 1504177879279746, 1504177879279745, 1504177879278744, 1504177879278743, 1504177879278742, 1504177879278740, 1504177879278738, 1504177879278737, 1504177879277735, 1504177879277734, 1504177879277731, 1504177879277730, 1504177879277729, 1504177879277728, 1504177433292878, 1504177433292876, 1504177433291874, 1504177433291873, 1504177433291871, 1504177433291869, 1504177433291868, 1504177433291867, 1504177433291866, 1504177433291865, 1504177433291864, 1504177433291863, 1504177433290862, 1504177433290861, 1504177433290860, 1504177433290859, 1504177433290858, 1504177433290857, 1504177433290856, 1504177433290855, 1504177433290854, 1504177433290852, 1504177433290850, 1504177433290848, 1504177433289847, 1504177433289846, 1504177433289845, 1504177433289844, 1504177433289843, 1504177433289842, 1504177433289841, 1504177433289840, 1504177433289839, 1504177433289838, 1504177433289837, 1504177433289836, 1504177433288835, 1504177433288834, 1504177433288833, 1504177433288832, 1504177433288831, 1504177433288829, 1504177433288826, 1504177433288825, 1504177433288824, 1504177433288823, 1504177433288822, 1504177433287821, 1504177433287820, 1504177433287819, 1504177433287818, 1504177433287816, 1504177433287815, 1504177433287814, 1504177433287813, 1504177433287812, 1504177433287811, 1504177433287810, 1504177433286808, 1504177433286807, 1504177433286806, 1504176951351428, 1504176951351427, 1504176951351426, 1504176951351425, 1504176951351424, 1504176951351421, 1504176951350420, 1504176951350419, 1504176951350418, 1504176951350417, 1504176951350416, 1504176951350415, 1504176951350414, 1504176951349413, 1504176951349412, 1504176951349411, 1504176951349410, 1504176951349409, 1504176951349408, 1504176951349404, 1504176951348403, 1504176951348402, 1504176951348401, 1504176951348399, 1504176951348398, 1504176951348397, 1504176951348396, 1504176951348395, 1504176951347394, 1504176951347393, 1504176951347392, 1504176951347391, 1504176951347390, 1504176951347389, 1504176951347388, 1504176951347387, 1504176951346386, 1504176951346385, 1504176951346384, 1504176951346383, 1504176951346382, 1504176951346381, 1504176951345379, 1504176951345378, 1504176951345377, 1504176951345375, 1504176951333360, 1504176951333359, 1504176951333358, 1504176951333356, 1504176951333355, 1504176951332354, 1504176951332353, 1504176951332352, 1504176951332351, 1504176951332350, 1504176951332349, 1504176951331348]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1504179900363374, name=主宰之剑), GoodsServerSimpleDTO(id=1504179900363373, name=逐日者), GoodsServerSimpleDTO(id=1504179900362372, name=远古海滩), GoodsServerSimpleDTO(id=1504179900362370, name=元素之力), GoodsServerSimpleDTO(id=1504179900362368, name=影之哀伤), GoodsServerSimpleDTO(id=1504179900362367, name=鹰巢山), GoodsServerSimpleDTO(id=1504179900362366, name=血羽), GoodsServerSimpleDTO(id=1504179900362365, name=血吼), GoodsServerSimpleDTO(id=1504179900362362, name=夏维安), GoodsServerSimpleDTO(id=1504179900362361, name=亡语者), GoodsServerSimpleDTO(id=1504179900362357, name=瓦拉纳), GoodsServerSimpleDTO(id=1504179900361356, name=踏梦者), GoodsServerSimpleDTO(id=1504179900361355, name=斯克提斯), GoodsServerSimpleDTO(id=1504179900361354, name=生态船), GoodsServerSimpleDTO(id=1504179900361353, name=闪电之刃), GoodsServerSimpleDTO(id=1504179900361352, name=沙怒), GoodsServerSimpleDTO(id=1504179900361351, name=森金), GoodsServerSimpleDTO(id=1504179900361350, name=萨洛拉丝), GoodsServerSimpleDTO(id=1504179900361349, name=熔火之心), GoodsServerSimpleDTO(id=1504179900361348, name=普瑞斯托), GoodsServerSimpleDTO(id=1504179900361347, name=贫瘠之地), GoodsServerSimpleDTO(id=1504179900361345, name=能源舰), GoodsServerSimpleDTO(id=1504179900360344, name=奈法利安), GoodsServerSimpleDTO(id=1504179900360339, name=末日行者), GoodsServerSimpleDTO(id=1504179900360338, name=梅尔加尼), GoodsServerSimpleDTO(id=1504179900360337, name=玛洛加尔), GoodsServerSimpleDTO(id=1504179900360334, name=洛肯), GoodsServerSimpleDTO(id=1504179900360332, name=兰娜瑟尔), GoodsServerSimpleDTO(id=1504179900360331, name=莱索恩), GoodsServerSimpleDTO(id=1504179900360328, name=军团要塞), GoodsServerSimpleDTO(id=1504179900360325, name=迦拉克隆), GoodsServerSimpleDTO(id=1504179900360324, name=加尔), GoodsServerSimpleDTO(id=1504179900359323, name=霍格), GoodsServerSimpleDTO(id=1504179900359322, name=毁灭之锤), GoodsServerSimpleDTO(id=1504179900359320, name=黑龙军团), GoodsServerSimpleDTO(id=1504179900359319, name=黑锋哨站), GoodsServerSimpleDTO(id=1504179900359318, name=黑暗之门), GoodsServerSimpleDTO(id=1504179900359316, name=嚎风峡湾), GoodsServerSimpleDTO(id=1504179900359315, name=海克泰尔), GoodsServerSimpleDTO(id=1504179900359312, name=古达克), GoodsServerSimpleDTO(id=1504179900359311, name=戈提克), GoodsServerSimpleDTO(id=1504179900359309, name=盖斯), GoodsServerSimpleDTO(id=1504179900359308, name=弗塞雷迦), GoodsServerSimpleDTO(id=1504179900358307, name=风暴峭壁), GoodsServerSimpleDTO(id=1504179900358306, name=菲米丝), GoodsServerSimpleDTO(id=1504179900358305, name=冬拥湖), GoodsServerSimpleDTO(id=1504179900358304, name=地狱咆哮), GoodsServerSimpleDTO(id=1504179900358302, name=迪托马斯), GoodsServerSimpleDTO(id=1504179900358301, name=达克萨隆), GoodsServerSimpleDTO(id=1504179900358299, name=达基萨斯), GoodsServerSimpleDTO(id=1504179900358298, name=达尔坎), GoodsServerSimpleDTO(id=1504179900358296, name=雏龙之翼), GoodsServerSimpleDTO(id=1504179900358293, name=冰霜之刃), GoodsServerSimpleDTO(id=1504179900358292, name=壁炉谷), GoodsServerSimpleDTO(id=1504179900357290, name=白骨荒野), GoodsServerSimpleDTO(id=1504179900357289, name=奥尔加隆), GoodsServerSimpleDTO(id=1504179900357288, name=奥杜尔), GoodsServerSimpleDTO(id=1504179900357287, name=安苏), GoodsServerSimpleDTO(id=1504179900357286, name=安其拉), GoodsServerSimpleDTO(id=1504179900357282, name=安加萨), GoodsServerSimpleDTO(id=1504179900357279, name=安格博达), GoodsServerSimpleDTO(id=1504179900357277, name=阿纳克洛斯), GoodsServerSimpleDTO(id=1504179900357276, name=阿曼尼), GoodsServerSimpleDTO(id=1504179900356272, name=阿比迪斯), GoodsServerSimpleDTO(id=1504179643125821, name=祖阿曼), GoodsServerSimpleDTO(id=1504179643125820, name=斩魔者), GoodsServerSimpleDTO(id=1504179643125819, name=扎拉赞恩), GoodsServerSimpleDTO(id=1504179643125818, name=幽暗沼泽), GoodsServerSimpleDTO(id=1504179643125817, name=永夜港), GoodsServerSimpleDTO(id=1504179643124816, name=银松森林), GoodsServerSimpleDTO(id=1504179643124814, name=伊森利恩), GoodsServerSimpleDTO(id=1504179643124813, name=伊森德雷), GoodsServerSimpleDTO(id=1504179643124811, name=伊萨里奥斯), GoodsServerSimpleDTO(id=1504179643124809, name=亚雷戈斯), GoodsServerSimpleDTO(id=1504179643124808, name=迅捷微风), GoodsServerSimpleDTO(id=1504179643124807, name=鲜血熔炉), GoodsServerSimpleDTO(id=1504179643123806, name=希雷诺斯), GoodsServerSimpleDTO(id=1504179643123805, name=无尽之海), GoodsServerSimpleDTO(id=1504179643123803, name=巫妖之王), GoodsServerSimpleDTO(id=1504179643123802, name=提尔之手), GoodsServerSimpleDTO(id=1504179643123799, name=塔纳利斯), GoodsServerSimpleDTO(id=1504179643123797, name=苏塔恩), GoodsServerSimpleDTO(id=1504179643123796, name=守护之剑), GoodsServerSimpleDTO(id=1504179643122793, name=石锤), GoodsServerSimpleDTO(id=1504179643122792, name=深渊之巢), GoodsServerSimpleDTO(id=1504179643122791, name=塞拉摩), GoodsServerSimpleDTO(id=1504179643122788, name=萨菲隆), GoodsServerSimpleDTO(id=1504179643122787, name=瑞文戴尔), GoodsServerSimpleDTO(id=1504179643122786, name=千针石林), GoodsServerSimpleDTO(id=1504179643122785, name=密林游侠), GoodsServerSimpleDTO(id=1504179643121783, name=米奈希尔), GoodsServerSimpleDTO(id=1504179643121782, name=麦维影歌), GoodsServerSimpleDTO(id=1504179643121780, name=麦姆), GoodsServerSimpleDTO(id=1504179643121776, name=玛法里奥), GoodsServerSimpleDTO(id=1504179643121775, name=烈焰荆棘), GoodsServerSimpleDTO(id=1504179643120772, name=雷霆之怒), GoodsServerSimpleDTO(id=1504179643120770, name=雷霆号角), GoodsServerSimpleDTO(id=1504179643120769, name=蓝龙军团), GoodsServerSimpleDTO(id=1504179643120768, name=奎尔萨拉斯), GoodsServerSimpleDTO(id=1504179643120766, name=狂热之刃), GoodsServerSimpleDTO(id=1504179643119761, name=库尔提拉斯), GoodsServerSimpleDTO(id=1504179643119760, name=克洛玛古斯), GoodsServerSimpleDTO(id=1504179643119758, name=卡珊德拉), GoodsServerSimpleDTO(id=1504179643119756, name=卡拉赞), GoodsServerSimpleDTO(id=1504179643119753, name=金度金色平原(RP)), GoodsServerSimpleDTO(id=1504179643119751, name=迦顿), GoodsServerSimpleDTO(id=1504179643118749, name=加兹鲁维), GoodsServerSimpleDTO(id=1504179643118747, name=基尔罗格), GoodsServerSimpleDTO(id=1504179643118746, name=黄金之路), GoodsServerSimpleDTO(id=1504179643118745, name=哈兰), GoodsServerSimpleDTO(id=1504179643117742, name=风暴之眼), GoodsServerSimpleDTO(id=1504179643117740, name=芬里斯), GoodsServerSimpleDTO(id=1504179643117737, name=翡翠梦境), GoodsServerSimpleDTO(id=1504179643117735, name=范达尔鹿盔), GoodsServerSimpleDTO(id=1504179643116734, name=法拉希姆), GoodsServerSimpleDTO(id=1504179643116733, name=厄祖玛特), GoodsServerSimpleDTO(id=1504179643116732, name=朵丹尼尔), GoodsServerSimpleDTO(id=1504179643116730, name=达斯雷玛), GoodsServerSimpleDTO(id=1504179643115728, name=刺骨利刃), GoodsServerSimpleDTO(id=1504179643115727, name=布兰卡德), GoodsServerSimpleDTO(id=1504179643115725, name=巴瑟拉斯), GoodsServerSimpleDTO(id=1504179643115724, name=奥金顿), GoodsServerSimpleDTO(id=1504179643115722, name=暗影之月), GoodsServerSimpleDTO(id=1504179643114719, name=暗影迷宫), GoodsServerSimpleDTO(id=1504179643114718, name=安威玛尔), GoodsServerSimpleDTO(id=1504179643114717, name=埃加洛尔), GoodsServerSimpleDTO(id=1504179643114714, name=埃基尔松), GoodsServerSimpleDTO(id=1504177898218963, name=祖尔金), GoodsServerSimpleDTO(id=1504177898218961, name=蜘蛛王国), GoodsServerSimpleDTO(id=1504177898218960, name=织亡者), GoodsServerSimpleDTO(id=1504177898218958, name=战歌), GoodsServerSimpleDTO(id=1504177898218957, name=勇士岛), GoodsServerSimpleDTO(id=1504177898218956, name=伊莫塔尔), GoodsServerSimpleDTO(id=1504177898218955, name=伊兰尼库斯), GoodsServerSimpleDTO(id=1504177898217954, name=血牙魔王), GoodsServerSimpleDTO(id=1504177898217953, name=血环), GoodsServerSimpleDTO(id=1504177898217951, name=熊猫酒仙), GoodsServerSimpleDTO(id=1504177898217950, name=希尔瓦娜斯), GoodsServerSimpleDTO(id=1504177898217948, name=沃金), GoodsServerSimpleDTO(id=1504177898217947, name=外域), GoodsServerSimpleDTO(id=1504177898217945, name=瓦丝琪), GoodsServerSimpleDTO(id=1504177898217942, name=托塞德林), GoodsServerSimpleDTO(id=1504177898217940, name=屠魔山谷), GoodsServerSimpleDTO(id=1504177898216939, name=天谴之门), GoodsServerSimpleDTO(id=1504177898216936, name=天空之墙), GoodsServerSimpleDTO(id=1504177898216934, name=泰兰德), GoodsServerSimpleDTO(id=1504177898216933, name=太阳之井), GoodsServerSimpleDTO(id=1504177898216932, name=索拉丁), GoodsServerSimpleDTO(id=1504177898216931, name=死亡熔炉), GoodsServerSimpleDTO(id=1504177898216930, name=石爪峰), GoodsServerSimpleDTO(id=1504177898216929, name=圣火神殿), GoodsServerSimpleDTO(id=1504177898215927, name=深渊之喉), GoodsServerSimpleDTO(id=1504177898215926, name=瑟莱德丝), GoodsServerSimpleDTO(id=1504177898215924, name=桑德兰), GoodsServerSimpleDTO(id=1504177898215923, name=塞泰克), GoodsServerSimpleDTO(id=1504177898215922, name=塞拉赞恩), GoodsServerSimpleDTO(id=1504177898215921, name=萨尔), GoodsServerSimpleDTO(id=1504177898215919, name=日落沼泽), GoodsServerSimpleDTO(id=1504177898215917, name=燃烧之刃), GoodsServerSimpleDTO(id=1504177898214915, name=燃烧军团), GoodsServerSimpleDTO(id=1504177898214913, name=破碎岭), GoodsServerSimpleDTO(id=1504177898214911, name=诺兹多姆), GoodsServerSimpleDTO(id=1504177898214908, name=诺森德), GoodsServerSimpleDTO(id=1504177898214905, name=耐普图隆), GoodsServerSimpleDTO(id=1504177898214904, name=奈萨里奥), GoodsServerSimpleDTO(id=1504177898214903, name=纳沙塔尔), GoodsServerSimpleDTO(id=1504177898214901, name=纳克萨玛斯), GoodsServerSimpleDTO(id=1504177898214899, name=暮色森林), GoodsServerSimpleDTO(id=1504177898213898, name=末日祷告祭坛), GoodsServerSimpleDTO(id=1504177898213897, name=梦境之树), GoodsServerSimpleDTO(id=1504177898213896, name=玛瑟里顿), GoodsServerSimpleDTO(id=1504177898213895, name=玛里苟斯), GoodsServerSimpleDTO(id=1504177898213894, name=洛丹伦), GoodsServerSimpleDTO(id=1504177898213893, name=罗曼斯), GoodsServerSimpleDTO(id=1504177898213892, name=雷克萨), GoodsServerSimpleDTO(id=1504177898213891, name=雷斧堡垒), GoodsServerSimpleDTO(id=1504177898213889, name=拉文凯斯), GoodsServerSimpleDTO(id=1504177898213888, name=拉贾克斯), GoodsServerSimpleDTO(id=1504177898212887, name=奎尔丹纳斯), GoodsServerSimpleDTO(id=1504177898212886, name=狂风峭壁), GoodsServerSimpleDTO(id=1504177898212884, name=恐怖图腾), GoodsServerSimpleDTO(id=1504177898212882, name=克苏恩), GoodsServerSimpleDTO(id=1504177898212880, name=凯恩血蹄), GoodsServerSimpleDTO(id=1504177898212878, name=卡德罗斯), GoodsServerSimpleDTO(id=1504177898212876, name=卡德加), GoodsServerSimpleDTO(id=1504177898212875, name=荆棘谷), GoodsServerSimpleDTO(id=1504177879283789, name=迦罗娜), GoodsServerSimpleDTO(id=1504177879282785, name=加基森), GoodsServerSimpleDTO(id=1504177879282784, name=激流之傲), GoodsServerSimpleDTO(id=1504177879282783, name=火羽山), GoodsServerSimpleDTO(id=1504177879282782, name=火喉), GoodsServerSimpleDTO(id=1504177879282779, name=灰谷), GoodsServerSimpleDTO(id=1504177879282777, name=红云台地), GoodsServerSimpleDTO(id=1504177879281773, name=红龙女王), GoodsServerSimpleDTO(id=1504177879281772, name=黑铁), GoodsServerSimpleDTO(id=1504177879281771, name=黑手军团), GoodsServerSimpleDTO(id=1504177879281769, name=黑暗之矛), GoodsServerSimpleDTO(id=1504177879281768, name=黑暗虚空), GoodsServerSimpleDTO(id=1504177879281767, name=黑暗魅影), GoodsServerSimpleDTO(id=1504177879281766, name=海加尔), GoodsServerSimpleDTO(id=1504177879281765, name=哈卡), GoodsServerSimpleDTO(id=1504177879280764, name=鬼雾峰), GoodsServerSimpleDTO(id=1504177879280763, name=古拉巴什), GoodsServerSimpleDTO(id=1504177879280762, name=古加尔), GoodsServerSimpleDTO(id=1504177879280761, name=格雷迈恩), GoodsServerSimpleDTO(id=1504177879280759, name=符文图腾), GoodsServerSimpleDTO(id=1504177879280756, name=凤凰之神), GoodsServerSimpleDTO(id=1504177879280754, name=风暴之怒), GoodsServerSimpleDTO(id=1504177879279752, name=风暴之鳞), GoodsServerSimpleDTO(id=1504177879279751, name=菲拉斯), GoodsServerSimpleDTO(id=1504177879279750, name=范克里夫), GoodsServerSimpleDTO(id=1504177879279749, name=恶魔之魂), GoodsServerSimpleDTO(id=1504177879279748, name=夺灵者), GoodsServerSimpleDTO(id=1504177879279747, name=杜隆坦), GoodsServerSimpleDTO(id=1504177879279746, name=迪瑟洛克), GoodsServerSimpleDTO(id=1504177879279745, name=德拉诺), GoodsServerSimpleDTO(id=1504177879278744, name=丹莫德), GoodsServerSimpleDTO(id=1504177879278743, name=大漩涡), GoodsServerSimpleDTO(id=1504177879278742, name=大地之怒), GoodsServerSimpleDTO(id=1504177879278740, name=达文格尔), GoodsServerSimpleDTO(id=1504177879278738, name=布鲁塔卢斯), GoodsServerSimpleDTO(id=1504177879278737, name=布莱克摩), GoodsServerSimpleDTO(id=1504177879277735, name=奥斯里安), GoodsServerSimpleDTO(id=1504177879277734, name=奥妮克希亚), GoodsServerSimpleDTO(id=1504177879277731, name=安纳塞隆), GoodsServerSimpleDTO(id=1504177879277730, name=安戈洛), GoodsServerSimpleDTO(id=1504177879277729, name=艾维娜), GoodsServerSimpleDTO(id=1504177879277728, name=艾萨拉), GoodsServerSimpleDTO(id=1504177433292878, name=死亡之翼), GoodsServerSimpleDTO(id=1504177433292876, name=洛宁), GoodsServerSimpleDTO(id=1504177433291874, name=白银之手), GoodsServerSimpleDTO(id=1504177433291873, name=格瑞姆巴托), GoodsServerSimpleDTO(id=1504177433291871, name=埃霍恩), GoodsServerSimpleDTO(id=1504177433291869, name=龙骨平原), GoodsServerSimpleDTO(id=1504177433291868, name=黑翼之巢), GoodsServerSimpleDTO(id=1504177433291867, name=黑石尖塔), GoodsServerSimpleDTO(id=1504177433291866, name=麦迪文), GoodsServerSimpleDTO(id=1504177433291865, name=风行者), GoodsServerSimpleDTO(id=1504177433291864, name=霜狼), GoodsServerSimpleDTO(id=1504177433291863, name=雷霆之王), GoodsServerSimpleDTO(id=1504177433290862, name=阿迦玛甘), GoodsServerSimpleDTO(id=1504177433290861, name=阿拉索), GoodsServerSimpleDTO(id=1504177433290860, name=阿拉希), GoodsServerSimpleDTO(id=1504177433290859, name=阿尔萨斯), GoodsServerSimpleDTO(id=1504177433290858, name=阿古斯), GoodsServerSimpleDTO(id=1504177433290857, name=阿卡玛), GoodsServerSimpleDTO(id=1504177433290856, name=阿努巴拉克), GoodsServerSimpleDTO(id=1504177433290855, name=银月), GoodsServerSimpleDTO(id=1504177433290854, name=铜龙军团), GoodsServerSimpleDTO(id=1504177433290852, name=通灵学院), GoodsServerSimpleDTO(id=1504177433290850, name=迦玛兰), GoodsServerSimpleDTO(id=1504177433290848, name=达隆米尔), GoodsServerSimpleDTO(id=1504177433289847, name=达纳斯), GoodsServerSimpleDTO(id=1504177433289846, name=轻风之语), GoodsServerSimpleDTO(id=1504177433289845, name=诺莫瑞根), GoodsServerSimpleDTO(id=1504177433289844, name=试炼之环), GoodsServerSimpleDTO(id=1504177433289843, name=血顶), GoodsServerSimpleDTO(id=1504177433289842, name=血色十字军), GoodsServerSimpleDTO(id=1504177433289841, name=藏宝海湾), GoodsServerSimpleDTO(id=1504177433289840, name=萨格拉斯), GoodsServerSimpleDTO(id=1504177433289839, name=艾苏恩), GoodsServerSimpleDTO(id=1504177433289838, name=艾欧纳尔), GoodsServerSimpleDTO(id=1504177433289837, name=艾森娜), GoodsServerSimpleDTO(id=1504177433289836, name=自由之风), GoodsServerSimpleDTO(id=1504177433288835, name=耳语海岸), GoodsServerSimpleDTO(id=1504177433288834, name=耐奥祖), GoodsServerSimpleDTO(id=1504177433288833, name=羽月), GoodsServerSimpleDTO(id=1504177433288832, name=红龙军团), GoodsServerSimpleDTO(id=1504177433288831, name=索瑞森), GoodsServerSimpleDTO(id=1504177433288829, name=穆戈尔), GoodsServerSimpleDTO(id=1504177433288826, name=祖达克), GoodsServerSimpleDTO(id=1504177433288825, name=甜水绿洲), GoodsServerSimpleDTO(id=1504177433288824, name=瓦里玛萨斯), GoodsServerSimpleDTO(id=1504177433288823, name=瓦拉斯塔兹), GoodsServerSimpleDTO(id=1504177433288822, name=玛诺洛斯), GoodsServerSimpleDTO(id=1504177433287821, name=玛多兰), GoodsServerSimpleDTO(id=1504177433287820, name=爱斯特纳), GoodsServerSimpleDTO(id=1504177433287819, name=燃烧平原), GoodsServerSimpleDTO(id=1504177433287818, name=熵魔), GoodsServerSimpleDTO(id=1504177433287816, name=烈焰峰), GoodsServerSimpleDTO(id=1504177433287815, name=火焰之树), GoodsServerSimpleDTO(id=1504177433287814, name=火焰之谷), GoodsServerSimpleDTO(id=1504177433287813, name=激流堡), GoodsServerSimpleDTO(id=1504177433287812, name=海达希亚), GoodsServerSimpleDTO(id=1504177433287811, name=洛萨), GoodsServerSimpleDTO(id=1504177433287810, name=泰拉尔), GoodsServerSimpleDTO(id=1504177433286808, name=永恒之井), GoodsServerSimpleDTO(id=1504177433286807, name=格鲁尔), GoodsServerSimpleDTO(id=1504177433286806, name=月神殿), GoodsServerSimpleDTO(id=1504176951351428, name=月光林地), GoodsServerSimpleDTO(id=1504176951351427, name=暴风祭坛), GoodsServerSimpleDTO(id=1504176951351426, name=暗影议会), GoodsServerSimpleDTO(id=1504176951351425, name=普罗德摩), GoodsServerSimpleDTO(id=1504176951351424, name=无底海渊), GoodsServerSimpleDTO(id=1504176951351421, name=斯坦索姆), GoodsServerSimpleDTO(id=1504176951350420, name=摩摩尔), GoodsServerSimpleDTO(id=1504176951350419, name=提瑞斯法), GoodsServerSimpleDTO(id=1504176951350418, name=拉格纳罗斯), GoodsServerSimpleDTO(id=1504176951350417, name=拉文霍德), GoodsServerSimpleDTO(id=1504176951350416, name=托尔巴拉德), GoodsServerSimpleDTO(id=1504176951350415, name=戈古纳斯), GoodsServerSimpleDTO(id=1504176951350414, name=影魔之翼), GoodsServerSimpleDTO(id=1504176951349413, name=影牙要塞), GoodsServerSimpleDTO(id=1504176951349412, name=库德兰), GoodsServerSimpleDTO(id=1504176951349411, name=布莱恩), GoodsServerSimpleDTO(id=1504176951349410, name=巴纳扎尔), GoodsServerSimpleDTO(id=1504176951349409, name=巴尔古恩), GoodsServerSimpleDTO(id=1504176951349408, name=巨龙之吼), GoodsServerSimpleDTO(id=1504176951349404, name=山丘之王), GoodsServerSimpleDTO(id=1504176951348403, name=尘风峡谷), GoodsServerSimpleDTO(id=1504176951348402, name=寒冰皇冠), GoodsServerSimpleDTO(id=1504176951348401, name=安东尼达斯), GoodsServerSimpleDTO(id=1504176951348399, name=奥达曼), GoodsServerSimpleDTO(id=1504176951348398, name=奥蕾莉亚), GoodsServerSimpleDTO(id=1504176951348397, name=奥拉基尔), GoodsServerSimpleDTO(id=1504176951348396, name=塞纳留斯), GoodsServerSimpleDTO(id=1504176951348395, name=塔伦米尔), GoodsServerSimpleDTO(id=1504176951347394, name=基尔加丹), GoodsServerSimpleDTO(id=1504176951347393, name=埃雷达尔), GoodsServerSimpleDTO(id=1504176951347392, name=埃苏雷格), GoodsServerSimpleDTO(id=1504176951347391, name=地狱之石), GoodsServerSimpleDTO(id=1504176951347390, name=图拉杨), GoodsServerSimpleDTO(id=1504176951347389, name=国王之谷), GoodsServerSimpleDTO(id=1504176951347388, name=古尔丹), GoodsServerSimpleDTO(id=1504176951347387, name=双子峰), GoodsServerSimpleDTO(id=1504176951346386, name=卡扎克), GoodsServerSimpleDTO(id=1504176951346385, name=加里索斯), GoodsServerSimpleDTO(id=1504176951346384, name=利刃之拳), GoodsServerSimpleDTO(id=1504176951346383, name=刀塔), GoodsServerSimpleDTO(id=1504176951346382, name=凯尔萨斯), GoodsServerSimpleDTO(id=1504176951346381, name=冰风岗), GoodsServerSimpleDTO(id=1504176951345379, name=冰川之拳), GoodsServerSimpleDTO(id=1504176951345378, name=冬泉谷), GoodsServerSimpleDTO(id=1504176951345377, name=冬寒), GoodsServerSimpleDTO(id=1504176951345375, name=克尔苏加德), GoodsServerSimpleDTO(id=1504176951333360, name=伊瑟拉), GoodsServerSimpleDTO(id=1504176951333359, name=伊利丹), GoodsServerSimpleDTO(id=1504176951333358, name=世界之树), GoodsServerSimpleDTO(id=1504176951333356, name=万色星辰), GoodsServerSimpleDTO(id=1504176951333355, name=辛达苟萨), GoodsServerSimpleDTO(id=1504176951332354, name=暗影裂口), GoodsServerSimpleDTO(id=1504176951332353, name=时光之穴), GoodsServerSimpleDTO(id=1504176951332352, name=霜之哀伤), GoodsServerSimpleDTO(id=1504176951332351, name=遗忘海岸), GoodsServerSimpleDTO(id=1504176951332350, name=神圣之歌), GoodsServerSimpleDTO(id=1504176951332349, name=奥特兰克), GoodsServerSimpleDTO(id=1504176951331348, name=回音山)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>QQ帐号【优质商家】</t>
@@ -621,86 +621,86 @@
   </si>
   <si>
     <t>安卓</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1642581061788074</t>
   </si>
   <si>
     <t>[1629972230918815, 1629972230918805, 1629972230917799, 1629972230917792, 1629972230916785, 1629972230916780, 1629972230915775, 1629972230915765, 1629972230914760, 1629972230914752, 1629972230913747, 1629972230913741, 1629972230912736, 1629972230912728, 1629972230912724, 1629972230911714, 1629972230911702, 1629972230910687, 1629972230910678, 1629972230909674, 1629972230909668, 1629972230908662, 1629972230908654, 1629972230907645, 1629972230907639, 1629972230906629, 1629972230906626, 1629972230905621, 1629972230905612, 1629972230904604, 1629972230904600, 1629972230904593, 1629972230903584, 1629972230903578, 1629972230902567, 1629972230902554, 1629972230901544, 1629972230901534, 1629972230900528, 1629972230900523, 1629972230899514, 1629972230899507, 1629972230898504, 1629972230898498, 1629972230897493, 1629972230897485, 1629972230896482, 1629972230896474, 1629972230895468, 1629972230895462, 1629972230894457, 1629972230894451, 1629972230893444, 1629972230893439, 1629972230893432, 1629972230892422, 1629972230892414, 1629972230891405, 1629972230891401, 1629972230890394, 1629972230890386, 1629972230889382, 1629972230889379, 1629972230888370, 1629972230888365, 1629972230887354, 1629972230887350, 1629972230886343, 1629972230886335, 1629972230885330, 1629972230885328, 1629972230884318, 1629972230884313, 1629972230883310, 1629972230883305, 1629972230882293, 1629972230882283, 1629972230881277, 1629972230881273, 1629972230880262, 1629972230880254, 1629972230879251, 1629972230879243, 1629972230878237, 1629972230878230, 1629972230877223, 1629972230877217, 1629972230876207, 1629972230876198, 1629972230875192, 1629972230875185, 1629972230874175, 1629972230874171, 1629972230873166, 1629972230873159, 1629972230872150, 1629972230871141, 1629972230871136, 1629972230870123, 1629972230870110, 1531903059072340, 1520564679426026, 1517377231343510, 1517377231343504, 1517377231343501, 1517377231343493, 1517377231342492, 1517377231342482, 1517377231342481, 1517377231342479, 1517377231342477, 1517377231342471, 1517377231341467, 1517377231341465, 1517377231341461, 1517377231341459, 1517377231341456, 1517377231340452, 1517377231340449, 1517377231340448, 1517377231340441, 1517377231340434, 1517377231339429, 1517377231339424, 1517377231339421, 1517377231339419, 1517377231339412, 1517377231338408, 1517377231338402, 1517377231338395, 1517377231338394, 1517377231338392, 1517377231338388, 1517377231337385, 1517377231337381, 1517377231337377, 1517377231337371, 1517377231337368, 1517377231336363, 1517377231336358, 1517377231336355, 1517377231336351, 1517377231336349, 1517377231335346, 1517377231335344, 1517377231335342, 1517377231335340, 1517377231335338, 1517377231335333, 1517377231334331, 1517377231334327, 1517377231334321, 1513927206134583, 1513927206133579, 1513927206133578, 1513927206133577, 1513927206132575, 1513927206132572, 1513927206132571, 1513927206132570, 1513927206132568, 1513927206132566, 1513927206132565, 1513927206131564, 1513927206131563, 1513927206131561, 1513927206131560, 1513927206131558, 1513927206131552, 1513927206130551, 1513927206130550, 1513927206130549, 1513927206130547, 1513927206130546, 1513927206130545, 1513927206130543, 1513927206129542, 1513927206129541, 1513927206129540, 1513927206129538, 1513927206129536, 1513927206129535, 1513927206128534, 1513927206128532, 1513927206128530, 1513927206127528, 1513927206127526, 1513927206127525, 1513927206127524, 1513927206127523, 1513927206127522, 1513927206127520, 1513927206126519, 1513927206126518, 1513927206126514, 1513927206126513, 1513927206126512, 1513927206126510, 1513927206125509, 1513927206125508, 1513927206125507, 1513927206125506, 1513927161515401, 1513927161514400, 1513927161514397, 1513927161514396, 1513927161514395, 1513927161514394, 1513927161514392, 1513927161514389, 1513927161513387, 1513927161513386, 1513927161513385, 1513927161513384, 1513927161513382, 1513927161513381, 1513927161513380, 1513927161512379, 1513927161512378, 1513927161512377, 1513927161512376, 1513927161512375, 1513927161512374, 1513927161512373, 1513927161512371, 1513927161511370, 1513927161511369, 1513927161511367, 1513927161511365, 1513927161511363, 1513927161511362, 1513927161511361, 1513927161510360, 1513927161510358, 1513927161510357, 1513927161510356, 1513927161510354, 1513927161510352, 1513927161509350, 1513927161509349, 1513927161509348, 1513927161509347, 1513927161509345, 1513927161509344, 1513927161509343, 1513927161508342, 1513927161508341, 1513927161508340, 1513927161508339, 1513927161508337, 1513927161508336, 1513927161507334, 1512550100923871, 1213664, 1213663, 1213662, 1213661, 1213660, 1213659, 1213658, 1213657, 1213656, 1213655, 1213654, 1213653, 1213652, 1213651, 1213650, 1213649, 1213648, 1213647, 1213646, 1213645, 1213644, 1213643, 1213642, 1213641, 1213640, 1213639, 1213638, 1213637, 1213636, 1213635, 1213634, 1213633, 1213632, 1213631, 1213630, 1213629, 1213628, 1213627, 1213626, 1213625, 1213624, 1213623, 1213622, 1213621, 937470, 937469, 937468, 937467, 937466, 937465, 937464, 937463, 937462, 937461, 937460, 937459, 937458, 937457, 937456, 937455, 937454, 937453, 937452, 937451, 937450, 937449, 937448, 937447, 937446, 937445, 937444, 937443, 937442, 937441, 937440, 937439, 937438, 937437, 937436, 937435, 937434, 937433, 937432, 937431, 937430, 937429, 937428, 937427, 937426, 937425, 937424, 937423, 937422, 937421, 937420, 937419, 937418, 937417, 937416, 937415, 937414, 937413, 937412, 937411, 937410, 937409, 937408, 937407, 937406, 937405, 849912, 849911, 849910, 849909, 849908, 849907, 849906, 849905, 849904, 849903, 849902, 849901, 849900, 849899, 849898, 849897, 849896, 849895, 849894, 849893, 849892, 849891, 849890, 849889, 849888, 849887, 849886, 849885, 849884, 849883, 849882, 849881, 849880, 849879, 849878, 849877, 849876, 849875, 849874, 849873, 767437, 767436, 767435, 767434, 767433, 767432, 767431, 767430, 767429, 767428, 767427, 767426, 767425, 767424, 767423, 767422, 767421, 767420, 767419, 767418, 767417, 767416, 767415, 767414, 767413, 767412, 767411, 767410, 767409, 767408, 724467, 724466, 724465, 724464, 724463, 724462, 724461, 724460, 724459, 724458, 724457, 724456, 724455, 724454, 724453, 724452, 724451, 724450, 724449, 724448, 724447, 724446, 724445, 724444, 724443, 724442, 724441, 724440, 724439, 724438, 724437, 724436, 724435, 724434, 724433, 724432, 724431, 724430, 724429, 724428, 629740, 629739, 629738, 629737, 629736, 629735, 629734, 629733, 629732, 629731, 629730, 629729, 629728, 629727, 629726, 629725, 629724, 629723, 629722, 629721, 629720, 629719, 629718, 629717, 629716, 629715, 629714, 629713, 629712, 629711]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1629972230918815, name=手Q500区), GoodsServerSimpleDTO(id=1629972230918805, name=手Q499区), GoodsServerSimpleDTO(id=1629972230917799, name=手Q498区), GoodsServerSimpleDTO(id=1629972230917792, name=手Q497区), GoodsServerSimpleDTO(id=1629972230916785, name=手Q496区), GoodsServerSimpleDTO(id=1629972230916780, name=手Q495区), GoodsServerSimpleDTO(id=1629972230915775, name=手Q494区), GoodsServerSimpleDTO(id=1629972230915765, name=手Q493区), GoodsServerSimpleDTO(id=1629972230914760, name=手Q492区), GoodsServerSimpleDTO(id=1629972230914752, name=手Q491区), GoodsServerSimpleDTO(id=1629972230913747, name=手Q490区), GoodsServerSimpleDTO(id=1629972230913741, name=手Q489区), GoodsServerSimpleDTO(id=1629972230912736, name=手Q488区), GoodsServerSimpleDTO(id=1629972230912728, name=手Q487区), GoodsServerSimpleDTO(id=1629972230912724, name=手Q486区), GoodsServerSimpleDTO(id=1629972230911714, name=手Q485区), GoodsServerSimpleDTO(id=1629972230911702, name=手Q484区), GoodsServerSimpleDTO(id=1629972230910687, name=手Q483区), GoodsServerSimpleDTO(id=1629972230910678, name=手Q482区), GoodsServerSimpleDTO(id=1629972230909674, name=手Q481区), GoodsServerSimpleDTO(id=1629972230909668, name=手Q480区), GoodsServerSimpleDTO(id=1629972230908662, name=手Q479区), GoodsServerSimpleDTO(id=1629972230908654, name=手Q478区), GoodsServerSimpleDTO(id=1629972230907645, name=手Q477区), GoodsServerSimpleDTO(id=1629972230907639, name=手Q476区), GoodsServerSimpleDTO(id=1629972230906629, name=手Q475区), GoodsServerSimpleDTO(id=1629972230906626, name=手Q474区), GoodsServerSimpleDTO(id=1629972230905621, name=手Q473区), GoodsServerSimpleDTO(id=1629972230905612, name=手Q472区), GoodsServerSimpleDTO(id=1629972230904604, name=手Q471区), GoodsServerSimpleDTO(id=1629972230904600, name=手Q470区), GoodsServerSimpleDTO(id=1629972230904593, name=手Q469区), GoodsServerSimpleDTO(id=1629972230903584, name=手Q468区), GoodsServerSimpleDTO(id=1629972230903578, name=手Q467区), GoodsServerSimpleDTO(id=1629972230902567, name=手Q466区), GoodsServerSimpleDTO(id=1629972230902554, name=手Q465区), GoodsServerSimpleDTO(id=1629972230901544, name=手Q464区), GoodsServerSimpleDTO(id=1629972230901534, name=手Q463区), GoodsServerSimpleDTO(id=1629972230900528, name=手Q462区), GoodsServerSimpleDTO(id=1629972230900523, name=手Q461区), GoodsServerSimpleDTO(id=1629972230899514, name=手Q460区), GoodsServerSimpleDTO(id=1629972230899507, name=手Q459区), GoodsServerSimpleDTO(id=1629972230898504, name=手Q458区), GoodsServerSimpleDTO(id=1629972230898498, name=手Q457区), GoodsServerSimpleDTO(id=1629972230897493, name=手Q456区), GoodsServerSimpleDTO(id=1629972230897485, name=手Q455区), GoodsServerSimpleDTO(id=1629972230896482, name=手Q454区), GoodsServerSimpleDTO(id=1629972230896474, name=手Q453区), GoodsServerSimpleDTO(id=1629972230895468, name=手Q452区), GoodsServerSimpleDTO(id=1629972230895462, name=手Q451区), GoodsServerSimpleDTO(id=1629972230894457, name=手Q450区), GoodsServerSimpleDTO(id=1629972230894451, name=手Q449区), GoodsServerSimpleDTO(id=1629972230893444, name=手Q448区), GoodsServerSimpleDTO(id=1629972230893439, name=手Q447区), GoodsServerSimpleDTO(id=1629972230893432, name=手Q446区), GoodsServerSimpleDTO(id=1629972230892422, name=手Q445区), GoodsServerSimpleDTO(id=1629972230892414, name=手Q444区), GoodsServerSimpleDTO(id=1629972230891405, name=手Q443区), GoodsServerSimpleDTO(id=1629972230891401, name=手Q442区), GoodsServerSimpleDTO(id=1629972230890394, name=手Q441区), GoodsServerSimpleDTO(id=1629972230890386, name=手Q440区), GoodsServerSimpleDTO(id=1629972230889382, name=手Q439区), GoodsServerSimpleDTO(id=1629972230889379, name=手Q438区), GoodsServerSimpleDTO(id=1629972230888370, name=手Q437区), GoodsServerSimpleDTO(id=1629972230888365, name=手Q436区), GoodsServerSimpleDTO(id=1629972230887354, name=手Q435区), GoodsServerSimpleDTO(id=1629972230887350, name=手Q434区), GoodsServerSimpleDTO(id=1629972230886343, name=手Q433区), GoodsServerSimpleDTO(id=1629972230886335, name=手Q432区), GoodsServerSimpleDTO(id=1629972230885330, name=手Q431区), GoodsServerSimpleDTO(id=1629972230885328, name=手Q430区), GoodsServerSimpleDTO(id=1629972230884318, name=手Q429区), GoodsServerSimpleDTO(id=1629972230884313, name=手Q428区), GoodsServerSimpleDTO(id=1629972230883310, name=手Q427区), GoodsServerSimpleDTO(id=1629972230883305, name=手Q426区), GoodsServerSimpleDTO(id=1629972230882293, name=手Q425区), GoodsServerSimpleDTO(id=1629972230882283, name=手Q424区), GoodsServerSimpleDTO(id=1629972230881277, name=手Q423区), GoodsServerSimpleDTO(id=1629972230881273, name=手Q422区), GoodsServerSimpleDTO(id=1629972230880262, name=手Q421区), GoodsServerSimpleDTO(id=1629972230880254, name=手Q420区), GoodsServerSimpleDTO(id=1629972230879251, name=手Q419区), GoodsServerSimpleDTO(id=1629972230879243, name=手Q418区), GoodsServerSimpleDTO(id=1629972230878237, name=手Q417区), GoodsServerSimpleDTO(id=1629972230878230, name=手Q416区), GoodsServerSimpleDTO(id=1629972230877223, name=手Q415区), GoodsServerSimpleDTO(id=1629972230877217, name=手Q414区), GoodsServerSimpleDTO(id=1629972230876207, name=手Q413区), GoodsServerSimpleDTO(id=1629972230876198, name=手Q412区), GoodsServerSimpleDTO(id=1629972230875192, name=手Q411区), GoodsServerSimpleDTO(id=1629972230875185, name=手Q410区), GoodsServerSimpleDTO(id=1629972230874175, name=手Q409区), GoodsServerSimpleDTO(id=1629972230874171, name=手Q408区), GoodsServerSimpleDTO(id=1629972230873166, name=手Q407区), GoodsServerSimpleDTO(id=1629972230873159, name=手Q406区), GoodsServerSimpleDTO(id=1629972230872150, name=手Q405区), GoodsServerSimpleDTO(id=1629972230871141, name=手Q404区), GoodsServerSimpleDTO(id=1629972230871136, name=手Q403区), GoodsServerSimpleDTO(id=1629972230870123, name=手Q402区), GoodsServerSimpleDTO(id=1629972230870110, name=手Q401区), GoodsServerSimpleDTO(id=1531903059072340, name=安卓全平台通用), GoodsServerSimpleDTO(id=1520564679426026, name=手Q全服通用), GoodsServerSimpleDTO(id=1517377231343510, name=手Q400区), GoodsServerSimpleDTO(id=1517377231343504, name=手Q399区), GoodsServerSimpleDTO(id=1517377231343501, name=手Q398区), GoodsServerSimpleDTO(id=1517377231343493, name=手Q397区), GoodsServerSimpleDTO(id=1517377231342492, name=手Q396区), GoodsServerSimpleDTO(id=1517377231342482, name=手Q395区), GoodsServerSimpleDTO(id=1517377231342481, name=手Q394区), GoodsServerSimpleDTO(id=1517377231342479, name=手Q393区), GoodsServerSimpleDTO(id=1517377231342477, name=手Q392区), GoodsServerSimpleDTO(id=1517377231342471, name=手Q391区), GoodsServerSimpleDTO(id=1517377231341467, name=手Q390区), GoodsServerSimpleDTO(id=1517377231341465, name=手Q389区), GoodsServerSimpleDTO(id=1517377231341461, name=手Q388区), GoodsServerSimpleDTO(id=1517377231341459, name=手Q387区), GoodsServerSimpleDTO(id=1517377231341456, name=手Q386区), GoodsServerSimpleDTO(id=1517377231340452, name=手Q385区), GoodsServerSimpleDTO(id=1517377231340449, name=手Q384区), GoodsServerSimpleDTO(id=1517377231340448, name=手Q383区), GoodsServerSimpleDTO(id=1517377231340441, name=手Q382区), GoodsServerSimpleDTO(id=1517377231340434, name=手Q381区), GoodsServerSimpleDTO(id=1517377231339429, name=手Q380区), GoodsServerSimpleDTO(id=1517377231339424, name=手Q379区), GoodsServerSimpleDTO(id=1517377231339421, name=手Q378区), GoodsServerSimpleDTO(id=1517377231339419, name=手Q377区), GoodsServerSimpleDTO(id=1517377231339412, name=手Q376区), GoodsServerSimpleDTO(id=1517377231338408, name=手Q375区), GoodsServerSimpleDTO(id=1517377231338402, name=手Q374区), GoodsServerSimpleDTO(id=1517377231338395, name=手Q373区), GoodsServerSimpleDTO(id=1517377231338394, name=手Q372区), GoodsServerSimpleDTO(id=1517377231338392, name=手Q371区), GoodsServerSimpleDTO(id=1517377231338388, name=手Q370区), GoodsServerSimpleDTO(id=1517377231337385, name=手Q369区), GoodsServerSimpleDTO(id=1517377231337381, name=手Q368区), GoodsServerSimpleDTO(id=1517377231337377, name=手Q367区), GoodsServerSimpleDTO(id=1517377231337371, name=手Q366区), GoodsServerSimpleDTO(id=1517377231337368, name=手Q365区), GoodsServerSimpleDTO(id=1517377231336363, name=手Q364区), GoodsServerSimpleDTO(id=1517377231336358, name=手Q363区), GoodsServerSimpleDTO(id=1517377231336355, name=手Q362区), GoodsServerSimpleDTO(id=1517377231336351, name=手Q361区), GoodsServerSimpleDTO(id=1517377231336349, name=手Q360区), GoodsServerSimpleDTO(id=1517377231335346, name=手Q359区), GoodsServerSimpleDTO(id=1517377231335344, name=手Q358区), GoodsServerSimpleDTO(id=1517377231335342, name=手Q357区), GoodsServerSimpleDTO(id=1517377231335340, name=手Q356区), GoodsServerSimpleDTO(id=1517377231335338, name=手Q355区), GoodsServerSimpleDTO(id=1517377231335333, name=手Q354区), GoodsServerSimpleDTO(id=1517377231334331, name=手Q353区), GoodsServerSimpleDTO(id=1517377231334327, name=手Q352区), GoodsServerSimpleDTO(id=1517377231334321, name=手Q351区), GoodsServerSimpleDTO(id=1513927206134583, name=手Q350区), GoodsServerSimpleDTO(id=1513927206133579, name=手Q349区), GoodsServerSimpleDTO(id=1513927206133578, name=手Q348区), GoodsServerSimpleDTO(id=1513927206133577, name=手Q347区), GoodsServerSimpleDTO(id=1513927206132575, name=手Q346区), GoodsServerSimpleDTO(id=1513927206132572, name=手Q345区), GoodsServerSimpleDTO(id=1513927206132571, name=手Q344区), GoodsServerSimpleDTO(id=1513927206132570, name=手Q343区), GoodsServerSimpleDTO(id=1513927206132568, name=手Q342区), GoodsServerSimpleDTO(id=1513927206132566, name=手Q341区), GoodsServerSimpleDTO(id=1513927206132565, name=手Q340区), GoodsServerSimpleDTO(id=1513927206131564, name=手Q339区), GoodsServerSimpleDTO(id=1513927206131563, name=手Q338区), GoodsServerSimpleDTO(id=1513927206131561, name=手Q337区), GoodsServerSimpleDTO(id=1513927206131560, name=手Q336区), GoodsServerSimpleDTO(id=1513927206131558, name=手Q335区), GoodsServerSimpleDTO(id=1513927206131552, name=手Q334区), GoodsServerSimpleDTO(id=1513927206130551, name=手Q333区), GoodsServerSimpleDTO(id=1513927206130550, name=手Q332区), GoodsServerSimpleDTO(id=1513927206130549, name=手Q331区), GoodsServerSimpleDTO(id=1513927206130547, name=手Q330区), GoodsServerSimpleDTO(id=1513927206130546, name=手Q329区), GoodsServerSimpleDTO(id=1513927206130545, name=手Q328区), GoodsServerSimpleDTO(id=1513927206130543, name=手Q327区), GoodsServerSimpleDTO(id=1513927206129542, name=手Q326区), GoodsServerSimpleDTO(id=1513927206129541, name=手Q325区), GoodsServerSimpleDTO(id=1513927206129540, name=手Q324区), GoodsServerSimpleDTO(id=1513927206129538, name=手Q323区), GoodsServerSimpleDTO(id=1513927206129536, name=手Q322区), GoodsServerSimpleDTO(id=1513927206129535, name=手Q321区), GoodsServerSimpleDTO(id=1513927206128534, name=手Q320区), GoodsServerSimpleDTO(id=1513927206128532, name=手Q319区), GoodsServerSimpleDTO(id=1513927206128530, name=手Q318区), GoodsServerSimpleDTO(id=1513927206127528, name=手Q317区), GoodsServerSimpleDTO(id=1513927206127526, name=手Q316区), GoodsServerSimpleDTO(id=1513927206127525, name=手Q315区), GoodsServerSimpleDTO(id=1513927206127524, name=手Q314区), GoodsServerSimpleDTO(id=1513927206127523, name=手Q313区), GoodsServerSimpleDTO(id=1513927206127522, name=手Q312区), GoodsServerSimpleDTO(id=1513927206127520, name=手Q311区), GoodsServerSimpleDTO(id=1513927206126519, name=手Q310区), GoodsServerSimpleDTO(id=1513927206126518, name=手Q309区), GoodsServerSimpleDTO(id=1513927206126514, name=手Q308区), GoodsServerSimpleDTO(id=1513927206126513, name=手Q307区), GoodsServerSimpleDTO(id=1513927206126512, name=手Q306区), GoodsServerSimpleDTO(id=1513927206126510, name=手Q305区), GoodsServerSimpleDTO(id=1513927206125509, name=手Q304区), GoodsServerSimpleDTO(id=1513927206125508, name=手Q303区), GoodsServerSimpleDTO(id=1513927206125507, name=手Q302区), GoodsServerSimpleDTO(id=1513927206125506, name=手Q301区), GoodsServerSimpleDTO(id=1513927161515401, name=手Q300区), GoodsServerSimpleDTO(id=1513927161514400, name=手Q299区), GoodsServerSimpleDTO(id=1513927161514397, name=手Q298区), GoodsServerSimpleDTO(id=1513927161514396, name=手Q297区), GoodsServerSimpleDTO(id=1513927161514395, name=手Q296区), GoodsServerSimpleDTO(id=1513927161514394, name=手Q295区), GoodsServerSimpleDTO(id=1513927161514392, name=手Q294区), GoodsServerSimpleDTO(id=1513927161514389, name=手Q293区), GoodsServerSimpleDTO(id=1513927161513387, name=手Q292区), GoodsServerSimpleDTO(id=1513927161513386, name=手Q291区), GoodsServerSimpleDTO(id=1513927161513385, name=手Q290区), GoodsServerSimpleDTO(id=1513927161513384, name=手Q289区), GoodsServerSimpleDTO(id=1513927161513382, name=手Q288区), GoodsServerSimpleDTO(id=1513927161513381, name=手Q287区), GoodsServerSimpleDTO(id=1513927161513380, name=手Q286区), GoodsServerSimpleDTO(id=1513927161512379, name=手Q285区), GoodsServerSimpleDTO(id=1513927161512378, name=手Q284区), GoodsServerSimpleDTO(id=1513927161512377, name=手Q283区), GoodsServerSimpleDTO(id=1513927161512376, name=手Q282区), GoodsServerSimpleDTO(id=1513927161512375, name=手Q281区), GoodsServerSimpleDTO(id=1513927161512374, name=手Q280区), GoodsServerSimpleDTO(id=1513927161512373, name=手Q279区), GoodsServerSimpleDTO(id=1513927161512371, name=手Q278区), GoodsServerSimpleDTO(id=1513927161511370, name=手Q277区), GoodsServerSimpleDTO(id=1513927161511369, name=手Q276区), GoodsServerSimpleDTO(id=1513927161511367, name=手Q275区), GoodsServerSimpleDTO(id=1513927161511365, name=手Q274区), GoodsServerSimpleDTO(id=1513927161511363, name=手Q273区), GoodsServerSimpleDTO(id=1513927161511362, name=手Q272区), GoodsServerSimpleDTO(id=1513927161511361, name=手Q271区), GoodsServerSimpleDTO(id=1513927161510360, name=手Q270区), GoodsServerSimpleDTO(id=1513927161510358, name=手Q269区), GoodsServerSimpleDTO(id=1513927161510357, name=手Q268区), GoodsServerSimpleDTO(id=1513927161510356, name=手Q267区), GoodsServerSimpleDTO(id=1513927161510354, name=手Q266区), GoodsServerSimpleDTO(id=1513927161510352, name=手Q265区), GoodsServerSimpleDTO(id=1513927161509350, name=手Q264区), GoodsServerSimpleDTO(id=1513927161509349, name=手Q263区), GoodsServerSimpleDTO(id=1513927161509348, name=手Q262区), GoodsServerSimpleDTO(id=1513927161509347, name=手Q261区), GoodsServerSimpleDTO(id=1513927161509345, name=手Q260区), GoodsServerSimpleDTO(id=1513927161509344, name=手Q259区), GoodsServerSimpleDTO(id=1513927161509343, name=手Q258区), GoodsServerSimpleDTO(id=1513927161508342, name=手Q257区), GoodsServerSimpleDTO(id=1513927161508341, name=手Q256区), GoodsServerSimpleDTO(id=1513927161508340, name=手Q255区), GoodsServerSimpleDTO(id=1513927161508339, name=手Q254区), GoodsServerSimpleDTO(id=1513927161508337, name=手Q253区), GoodsServerSimpleDTO(id=1513927161508336, name=手Q252区), GoodsServerSimpleDTO(id=1513927161507334, name=手Q251区), GoodsServerSimpleDTO(id=1512550100923871, name=QQ王者抢先服), GoodsServerSimpleDTO(id=1213664, name=手Q250区), GoodsServerSimpleDTO(id=1213663, name=手Q249区), GoodsServerSimpleDTO(id=1213662, name=手Q248区), GoodsServerSimpleDTO(id=1213661, name=手Q247区), GoodsServerSimpleDTO(id=1213660, name=手Q246区), GoodsServerSimpleDTO(id=1213659, name=手Q245区), GoodsServerSimpleDTO(id=1213658, name=手Q244区), GoodsServerSimpleDTO(id=1213657, name=手Q243区), GoodsServerSimpleDTO(id=1213656, name=手Q242区), GoodsServerSimpleDTO(id=1213655, name=手Q241区), GoodsServerSimpleDTO(id=1213654, name=手Q240区), GoodsServerSimpleDTO(id=1213653, name=手Q239区), GoodsServerSimpleDTO(id=1213652, name=手Q238区), GoodsServerSimpleDTO(id=1213651, name=手Q237区), GoodsServerSimpleDTO(id=1213650, name=手Q236区), GoodsServerSimpleDTO(id=1213649, name=手Q235区), GoodsServerSimpleDTO(id=1213648, name=手Q234区), GoodsServerSimpleDTO(id=1213647, name=手Q233区), GoodsServerSimpleDTO(id=1213646, name=手Q232区), GoodsServerSimpleDTO(id=1213645, name=手Q231区), GoodsServerSimpleDTO(id=1213644, name=手Q230区), GoodsServerSimpleDTO(id=1213643, name=手Q229区), GoodsServerSimpleDTO(id=1213642, name=手Q228区), GoodsServerSimpleDTO(id=1213641, name=手Q227区), GoodsServerSimpleDTO(id=1213640, name=手Q226区), GoodsServerSimpleDTO(id=1213639, name=手Q225区), GoodsServerSimpleDTO(id=1213638, name=手Q224区), GoodsServerSimpleDTO(id=1213637, name=手Q223区), GoodsServerSimpleDTO(id=1213636, name=手Q222区), GoodsServerSimpleDTO(id=1213635, name=手Q221区), GoodsServerSimpleDTO(id=1213634, name=手Q220区), GoodsServerSimpleDTO(id=1213633, name=手Q219区), GoodsServerSimpleDTO(id=1213632, name=手Q218区), GoodsServerSimpleDTO(id=1213631, name=手Q217区), GoodsServerSimpleDTO(id=1213630, name=手Q216区), GoodsServerSimpleDTO(id=1213629, name=手Q215区), GoodsServerSimpleDTO(id=1213628, name=手Q214区), GoodsServerSimpleDTO(id=1213627, name=手Q213区), GoodsServerSimpleDTO(id=1213626, name=手Q212区), GoodsServerSimpleDTO(id=1213625, name=手Q211区), GoodsServerSimpleDTO(id=1213624, name=手Q210区), GoodsServerSimpleDTO(id=1213623, name=手Q209区), GoodsServerSimpleDTO(id=1213622, name=手Q208区), GoodsServerSimpleDTO(id=1213621, name=手Q207区), GoodsServerSimpleDTO(id=937470, name=手Q206区), GoodsServerSimpleDTO(id=937469, name=手Q205区), GoodsServerSimpleDTO(id=937468, name=手Q204区), GoodsServerSimpleDTO(id=937467, name=手Q203区), GoodsServerSimpleDTO(id=937466, name=手Q202区), GoodsServerSimpleDTO(id=937465, name=手Q201区), GoodsServerSimpleDTO(id=937464, name=手Q200区), GoodsServerSimpleDTO(id=937463, name=手Q199区), GoodsServerSimpleDTO(id=937462, name=手Q198区), GoodsServerSimpleDTO(id=937461, name=手Q197区), GoodsServerSimpleDTO(id=937460, name=手Q196区), GoodsServerSimpleDTO(id=937459, name=手Q195区), GoodsServerSimpleDTO(id=937458, name=手Q194区), GoodsServerSimpleDTO(id=937457, name=手Q193区), GoodsServerSimpleDTO(id=937456, name=手Q192区), GoodsServerSimpleDTO(id=937455, name=手Q191区), GoodsServerSimpleDTO(id=937454, name=手Q190区), GoodsServerSimpleDTO(id=937453, name=手Q189区), GoodsServerSimpleDTO(id=937452, name=手Q188区), GoodsServerSimpleDTO(id=937451, name=手Q187区), GoodsServerSimpleDTO(id=937450, name=手Q186区), GoodsServerSimpleDTO(id=937449, name=手Q185区), GoodsServerSimpleDTO(id=937448, name=手Q184区), GoodsServerSimpleDTO(id=937447, name=手Q183区), GoodsServerSimpleDTO(id=937446, name=手Q182区), GoodsServerSimpleDTO(id=937445, name=手Q181区), GoodsServerSimpleDTO(id=937444, name=手Q180区), GoodsServerSimpleDTO(id=937443, name=手Q179区), GoodsServerSimpleDTO(id=937442, name=手Q178区), GoodsServerSimpleDTO(id=937441, name=手Q177区), GoodsServerSimpleDTO(id=937440, name=手Q176区), GoodsServerSimpleDTO(id=937439, name=手Q175区), GoodsServerSimpleDTO(id=937438, name=手Q174区), GoodsServerSimpleDTO(id=937437, name=手Q173区), GoodsServerSimpleDTO(id=937436, name=手Q172区), GoodsServerSimpleDTO(id=937435, name=手Q171区), GoodsServerSimpleDTO(id=937434, name=手Q170区), GoodsServerSimpleDTO(id=937433, name=手Q169区), GoodsServerSimpleDTO(id=937432, name=手Q168区), GoodsServerSimpleDTO(id=937431, name=手Q167区), GoodsServerSimpleDTO(id=937430, name=手Q166区), GoodsServerSimpleDTO(id=937429, name=手Q165区), GoodsServerSimpleDTO(id=937428, name=手Q164区), GoodsServerSimpleDTO(id=937427, name=手Q163区), GoodsServerSimpleDTO(id=937426, name=手Q162区), GoodsServerSimpleDTO(id=937425, name=手Q161区), GoodsServerSimpleDTO(id=937424, name=手Q160区), GoodsServerSimpleDTO(id=937423, name=手Q159区), GoodsServerSimpleDTO(id=937422, name=手Q158区), GoodsServerSimpleDTO(id=937421, name=手Q157区), GoodsServerSimpleDTO(id=937420, name=手Q156区), GoodsServerSimpleDTO(id=937419, name=手Q155区), GoodsServerSimpleDTO(id=937418, name=手Q154区), GoodsServerSimpleDTO(id=937417, name=手Q153区), GoodsServerSimpleDTO(id=937416, name=手Q152区), GoodsServerSimpleDTO(id=937415, name=手Q151区), GoodsServerSimpleDTO(id=937414, name=手Q150区), GoodsServerSimpleDTO(id=937413, name=手Q149区), GoodsServerSimpleDTO(id=937412, name=手Q148区), GoodsServerSimpleDTO(id=937411, name=手Q147区), GoodsServerSimpleDTO(id=937410, name=手Q146区), GoodsServerSimpleDTO(id=937409, name=手Q145区), GoodsServerSimpleDTO(id=937408, name=手Q144区), GoodsServerSimpleDTO(id=937407, name=手Q143区), GoodsServerSimpleDTO(id=937406, name=手Q142区), GoodsServerSimpleDTO(id=937405, name=手Q141区), GoodsServerSimpleDTO(id=849912, name=手Q140区), GoodsServerSimpleDTO(id=849911, name=手Q139区), GoodsServerSimpleDTO(id=849910, name=手Q138区), GoodsServerSimpleDTO(id=849909, name=手Q137区), GoodsServerSimpleDTO(id=849908, name=手Q136区), GoodsServerSimpleDTO(id=849907, name=手Q135区), GoodsServerSimpleDTO(id=849906, name=手Q134区), GoodsServerSimpleDTO(id=849905, name=手Q133区), GoodsServerSimpleDTO(id=849904, name=手Q132区), GoodsServerSimpleDTO(id=849903, name=手Q131区), GoodsServerSimpleDTO(id=849902, name=手Q130区), GoodsServerSimpleDTO(id=849901, name=手Q129区), GoodsServerSimpleDTO(id=849900, name=手Q128区), GoodsServerSimpleDTO(id=849899, name=手Q127区), GoodsServerSimpleDTO(id=849898, name=手Q126区), GoodsServerSimpleDTO(id=849897, name=手Q125区), GoodsServerSimpleDTO(id=849896, name=手Q124区), GoodsServerSimpleDTO(id=849895, name=手Q123区), GoodsServerSimpleDTO(id=849894, name=手Q122区), GoodsServerSimpleDTO(id=849893, name=手Q121区), GoodsServerSimpleDTO(id=849892, name=手Q120区), GoodsServerSimpleDTO(id=849891, name=手Q119区), GoodsServerSimpleDTO(id=849890, name=手Q118区), GoodsServerSimpleDTO(id=849889, name=手Q117区), GoodsServerSimpleDTO(id=849888, name=手Q116区), GoodsServerSimpleDTO(id=849887, name=手Q115区), GoodsServerSimpleDTO(id=849886, name=手Q114区), GoodsServerSimpleDTO(id=849885, name=手Q113区), GoodsServerSimpleDTO(id=849884, name=手Q112区), GoodsServerSimpleDTO(id=849883, name=手Q111区), GoodsServerSimpleDTO(id=849882, name=手Q110区), GoodsServerSimpleDTO(id=849881, name=手Q109区), GoodsServerSimpleDTO(id=849880, name=手Q108区), GoodsServerSimpleDTO(id=849879, name=手Q107区), GoodsServerSimpleDTO(id=849878, name=手Q106区), GoodsServerSimpleDTO(id=849877, name=手Q105区), GoodsServerSimpleDTO(id=849876, name=手Q104区), GoodsServerSimpleDTO(id=849875, name=手Q103区), GoodsServerSimpleDTO(id=849874, name=手Q102区), GoodsServerSimpleDTO(id=849873, name=手Q101区), GoodsServerSimpleDTO(id=767437, name=手Q100区), GoodsServerSimpleDTO(id=767436, name=手Q99区), GoodsServerSimpleDTO(id=767435, name=手Q98区), GoodsServerSimpleDTO(id=767434, name=手Q97区), GoodsServerSimpleDTO(id=767433, name=手Q96区), GoodsServerSimpleDTO(id=767432, name=手Q95区), GoodsServerSimpleDTO(id=767431, name=手Q94区), GoodsServerSimpleDTO(id=767430, name=手Q93区), GoodsServerSimpleDTO(id=767429, name=手Q92区), GoodsServerSimpleDTO(id=767428, name=手Q91区), GoodsServerSimpleDTO(id=767427, name=手Q90区), GoodsServerSimpleDTO(id=767426, name=手Q89区), GoodsServerSimpleDTO(id=767425, name=手Q88区), GoodsServerSimpleDTO(id=767424, name=手Q87区), GoodsServerSimpleDTO(id=767423, name=手Q86区), GoodsServerSimpleDTO(id=767422, name=手Q85区), GoodsServerSimpleDTO(id=767421, name=手Q84区), GoodsServerSimpleDTO(id=767420, name=手Q83区), GoodsServerSimpleDTO(id=767419, name=手Q82区), GoodsServerSimpleDTO(id=767418, name=手Q81区), GoodsServerSimpleDTO(id=767417, name=手Q80区), GoodsServerSimpleDTO(id=767416, name=手Q79区), GoodsServerSimpleDTO(id=767415, name=手Q78区), GoodsServerSimpleDTO(id=767414, name=手Q77区), GoodsServerSimpleDTO(id=767413, name=手Q76区), GoodsServerSimpleDTO(id=767412, name=手Q75区), GoodsServerSimpleDTO(id=767411, name=手Q74区), GoodsServerSimpleDTO(id=767410, name=手Q73区), GoodsServerSimpleDTO(id=767409, name=手Q72区), GoodsServerSimpleDTO(id=767408, name=手Q71区), GoodsServerSimpleDTO(id=724467, name=手Q70区), GoodsServerSimpleDTO(id=724466, name=手Q69区), GoodsServerSimpleDTO(id=724465, name=手Q68区), GoodsServerSimpleDTO(id=724464, name=手Q67区), GoodsServerSimpleDTO(id=724463, name=手Q66区), GoodsServerSimpleDTO(id=724462, name=手Q65区), GoodsServerSimpleDTO(id=724461, name=手Q64区), GoodsServerSimpleDTO(id=724460, name=手Q63区), GoodsServerSimpleDTO(id=724459, name=手Q62区), GoodsServerSimpleDTO(id=724458, name=手Q61区), GoodsServerSimpleDTO(id=724457, name=手Q60区), GoodsServerSimpleDTO(id=724456, name=手Q59区), GoodsServerSimpleDTO(id=724455, name=手Q58区), GoodsServerSimpleDTO(id=724454, name=手Q57区), GoodsServerSimpleDTO(id=724453, name=手Q56区), GoodsServerSimpleDTO(id=724452, name=手Q55区), GoodsServerSimpleDTO(id=724451, name=手Q54区), GoodsServerSimpleDTO(id=724450, name=手Q53区), GoodsServerSimpleDTO(id=724449, name=手Q52区), GoodsServerSimpleDTO(id=724448, name=手Q51区), GoodsServerSimpleDTO(id=724447, name=手Q50区), GoodsServerSimpleDTO(id=724446, name=手Q49区), GoodsServerSimpleDTO(id=724445, name=手Q48区), GoodsServerSimpleDTO(id=724444, name=手Q47区), GoodsServerSimpleDTO(id=724443, name=手Q46区), GoodsServerSimpleDTO(id=724442, name=手Q45区), GoodsServerSimpleDTO(id=724441, name=手Q44区), GoodsServerSimpleDTO(id=724440, name=手Q43区), GoodsServerSimpleDTO(id=724439, name=手Q42区), GoodsServerSimpleDTO(id=724438, name=手Q41区), GoodsServerSimpleDTO(id=724437, name=手Q40区), GoodsServerSimpleDTO(id=724436, name=手Q39区), GoodsServerSimpleDTO(id=724435, name=手Q38区), GoodsServerSimpleDTO(id=724434, name=手Q37区), GoodsServerSimpleDTO(id=724433, name=手Q36区), GoodsServerSimpleDTO(id=724432, name=手Q35区), GoodsServerSimpleDTO(id=724431, name=手Q34区), GoodsServerSimpleDTO(id=724430, name=手Q33区), GoodsServerSimpleDTO(id=724429, name=手Q32区), GoodsServerSimpleDTO(id=724428, name=手Q31区), GoodsServerSimpleDTO(id=629740, name=手Q30区), GoodsServerSimpleDTO(id=629739, name=手Q29区), GoodsServerSimpleDTO(id=629738, name=手Q28区), GoodsServerSimpleDTO(id=629737, name=手Q27区), GoodsServerSimpleDTO(id=629736, name=手Q26区), GoodsServerSimpleDTO(id=629735, name=手Q25区), GoodsServerSimpleDTO(id=629734, name=手Q24区), GoodsServerSimpleDTO(id=629733, name=手Q23区), GoodsServerSimpleDTO(id=629732, name=手Q22区), GoodsServerSimpleDTO(id=629731, name=手Q21区), GoodsServerSimpleDTO(id=629730, name=手Q20区), GoodsServerSimpleDTO(id=629729, name=手Q19区), GoodsServerSimpleDTO(id=629728, name=手Q18区), GoodsServerSimpleDTO(id=629727, name=手Q17区), GoodsServerSimpleDTO(id=629726, name=手Q16区), GoodsServerSimpleDTO(id=629725, name=手Q15区), GoodsServerSimpleDTO(id=629724, name=手Q14区), GoodsServerSimpleDTO(id=629723, name=手Q13区), GoodsServerSimpleDTO(id=629722, name=手Q12区), GoodsServerSimpleDTO(id=629721, name=手Q11区), GoodsServerSimpleDTO(id=629720, name=手Q10区), GoodsServerSimpleDTO(id=629719, name=手Q9区), GoodsServerSimpleDTO(id=629718, name=手Q8区), GoodsServerSimpleDTO(id=629717, name=手Q7区), GoodsServerSimpleDTO(id=629716, name=手Q6区), GoodsServerSimpleDTO(id=629715, name=手Q5区), GoodsServerSimpleDTO(id=629714, name=手Q4区), GoodsServerSimpleDTO(id=629713, name=手Q3区), GoodsServerSimpleDTO(id=629712, name=手Q2区), GoodsServerSimpleDTO(id=629711, name=手Q1区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1642579812094077</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903059072340, name=安卓全平台通用), GoodsServerSimpleDTO(id=1520565457289056, name=安卓微信400区), GoodsServerSimpleDTO(id=1520565457289055, name=安卓微信399区), GoodsServerSimpleDTO(id=1520565457289053, name=安卓微信398区), GoodsServerSimpleDTO(id=1520565457289052, name=安卓微信397区), GoodsServerSimpleDTO(id=1520565457289051, name=安卓微信396区), GoodsServerSimpleDTO(id=1520565457289049, name=安卓微信395区), GoodsServerSimpleDTO(id=1520565457289048, name=安卓微信394区), GoodsServerSimpleDTO(id=1520565457288047, name=安卓微信393区), GoodsServerSimpleDTO(id=1520565457288046, name=安卓微信392区), GoodsServerSimpleDTO(id=1520565457288045, name=安卓微信391区), GoodsServerSimpleDTO(id=1520565457288044, name=安卓微信390区), GoodsServerSimpleDTO(id=1520565457288043, name=安卓微信389区), GoodsServerSimpleDTO(id=1520565457288042, name=安卓微信388区), GoodsServerSimpleDTO(id=1520565457288041, name=安卓微信387区), GoodsServerSimpleDTO(id=1520565457287040, name=安卓微信386区), GoodsServerSimpleDTO(id=1520565457287038, name=安卓微信385区), GoodsServerSimpleDTO(id=1520565457287035, name=安卓微信384区), GoodsServerSimpleDTO(id=1520565457287032, name=安卓微信383区), GoodsServerSimpleDTO(id=1520565457287031, name=安卓微信382区), GoodsServerSimpleDTO(id=1520565457287028, name=安卓微信381区), GoodsServerSimpleDTO(id=1520565457287027, name=安卓微信380区), GoodsServerSimpleDTO(id=1520565457287025, name=安卓微信379区), GoodsServerSimpleDTO(id=1520565457286024, name=安卓微信378区), GoodsServerSimpleDTO(id=1520565457286023, name=安卓微信377区), GoodsServerSimpleDTO(id=1520565457286022, name=安卓微信376区), GoodsServerSimpleDTO(id=1520565457286021, name=安卓微信375区), GoodsServerSimpleDTO(id=1520565457286020, name=安卓微信374区), GoodsServerSimpleDTO(id=1520565457286019, name=安卓微信373区), GoodsServerSimpleDTO(id=1520565457286017, name=安卓微信372区), GoodsServerSimpleDTO(id=1520565457286016, name=安卓微信371区), GoodsServerSimpleDTO(id=1520565457285015, name=安卓微信370区), GoodsServerSimpleDTO(id=1520565457285014, name=安卓微信369区), GoodsServerSimpleDTO(id=1520565457285010, name=安卓微信368区), GoodsServerSimpleDTO(id=1520565457285009, name=安卓微信367区), GoodsServerSimpleDTO(id=1520565457284003, name=安卓微信366区), GoodsServerSimpleDTO(id=1520565457284999, name=安卓微信365区), GoodsServerSimpleDTO(id=1520565457284998, name=安卓微信364区), GoodsServerSimpleDTO(id=1520565457284997, name=安卓微信363区), GoodsServerSimpleDTO(id=1520565457284996, name=安卓微信362区), GoodsServerSimpleDTO(id=1520565457284994, name=安卓微信361区), GoodsServerSimpleDTO(id=1520565457283993, name=安卓微信360区), GoodsServerSimpleDTO(id=1520565457283990, name=安卓微信359区), GoodsServerSimpleDTO(id=1520565457283989, name=安卓微信358区), GoodsServerSimpleDTO(id=1520565457283985, name=安卓微信357区), GoodsServerSimpleDTO(id=1520565457283984, name=安卓微信356区), GoodsServerSimpleDTO(id=1520565457283982, name=安卓微信355区), GoodsServerSimpleDTO(id=1520565457283981, name=安卓微信354区), GoodsServerSimpleDTO(id=1520565457282980, name=安卓微信353区), GoodsServerSimpleDTO(id=1520565457282979, name=安卓微信352区), GoodsServerSimpleDTO(id=1520565457282976, name=安卓微信351区), GoodsServerSimpleDTO(id=1520565437178021, name=安卓微信350区), GoodsServerSimpleDTO(id=1520565437178019, name=安卓微信349区), GoodsServerSimpleDTO(id=1520565437178017, name=安卓微信348区), GoodsServerSimpleDTO(id=1520565437178016, name=安卓微信347区), GoodsServerSimpleDTO(id=1520565437178012, name=安卓微信346区), GoodsServerSimpleDTO(id=1520565437177011, name=安卓微信345区), GoodsServerSimpleDTO(id=1520565437177010, name=安卓微信344区), GoodsServerSimpleDTO(id=1520565437176004, name=安卓微信343区), GoodsServerSimpleDTO(id=1520565437176001, name=安卓微信342区), GoodsServerSimpleDTO(id=1520565437175999, name=安卓微信341区), GoodsServerSimpleDTO(id=1520565437175998, name=安卓微信340区), GoodsServerSimpleDTO(id=1520565437175994, name=安卓微信339区), GoodsServerSimpleDTO(id=1520565437175990, name=安卓微信338区), GoodsServerSimpleDTO(id=1520565437174987, name=安卓微信337区), GoodsServerSimpleDTO(id=1520565437174985, name=安卓微信336区), GoodsServerSimpleDTO(id=1520565437174984, name=安卓微信335区), GoodsServerSimpleDTO(id=1520565437174982, name=安卓微信334区), GoodsServerSimpleDTO(id=1520565437174980, name=安卓微信333区), GoodsServerSimpleDTO(id=1520565437174978, name=安卓微信332区), GoodsServerSimpleDTO(id=1520565437174976, name=安卓微信331区), GoodsServerSimpleDTO(id=1520565437173973, name=安卓微信330区), GoodsServerSimpleDTO(id=1520565437173970, name=安卓微信329区), GoodsServerSimpleDTO(id=1520565437173968, name=安卓微信328区), GoodsServerSimpleDTO(id=1520565437173967, name=安卓微信327区), GoodsServerSimpleDTO(id=1520565437173966, name=安卓微信326区), GoodsServerSimpleDTO(id=1520565437173963, name=安卓微信325区), GoodsServerSimpleDTO(id=1520565437172962, name=安卓微信324区), GoodsServerSimpleDTO(id=1520565437172961, name=安卓微信323区), GoodsServerSimpleDTO(id=1520565437172959, name=安卓微信322区), GoodsServerSimpleDTO(id=1520565437172956, name=安卓微信321区), GoodsServerSimpleDTO(id=1520565437172954, name=安卓微信320区), GoodsServerSimpleDTO(id=1520565437172953, name=安卓微信319区), GoodsServerSimpleDTO(id=1520565437172952, name=安卓微信318区), GoodsServerSimpleDTO(id=1520565437171951, name=安卓微信317区), GoodsServerSimpleDTO(id=1520565437171949, name=安卓微信316区), GoodsServerSimpleDTO(id=1520565437171946, name=安卓微信315区), GoodsServerSimpleDTO(id=1520565437171943, name=安卓微信314区), GoodsServerSimpleDTO(id=1520565437171941, name=安卓微信313区), GoodsServerSimpleDTO(id=1520565437171940, name=安卓微信312区), GoodsServerSimpleDTO(id=1520565437170937, name=安卓微信311区), GoodsServerSimpleDTO(id=1520565437170936, name=安卓微信310区), GoodsServerSimpleDTO(id=1520565437170935, name=安卓微信309区), GoodsServerSimpleDTO(id=1520565437170933, name=安卓微信308区), GoodsServerSimpleDTO(id=1520565437170932, name=安卓微信307区), GoodsServerSimpleDTO(id=1520565437170927, name=安卓微信306区), GoodsServerSimpleDTO(id=1520565437169924, name=安卓微信305区), GoodsServerSimpleDTO(id=1520565437169921, name=安卓微信304区), GoodsServerSimpleDTO(id=1520565437169919, name=安卓微信303区), GoodsServerSimpleDTO(id=1520565437169918, name=安卓微信302区), GoodsServerSimpleDTO(id=1520565437169917, name=安卓微信301区), GoodsServerSimpleDTO(id=1520565413160035, name=安卓微信300区), GoodsServerSimpleDTO(id=1520565413160034, name=安卓微信299区), GoodsServerSimpleDTO(id=1520565413160033, name=安卓微信298区), GoodsServerSimpleDTO(id=1520565413160031, name=安卓微信297区), GoodsServerSimpleDTO(id=1520565413160030, name=安卓微信296区), GoodsServerSimpleDTO(id=1520565413160029, name=安卓微信295区), GoodsServerSimpleDTO(id=1520565413160028, name=安卓微信294区), GoodsServerSimpleDTO(id=1520565413160027, name=安卓微信293区), GoodsServerSimpleDTO(id=1520565413159026, name=安卓微信292区), GoodsServerSimpleDTO(id=1520565413159024, name=安卓微信291区), GoodsServerSimpleDTO(id=1520565413159023, name=安卓微信290区), GoodsServerSimpleDTO(id=1520565413159022, name=安卓微信289区), GoodsServerSimpleDTO(id=1520565413159021, name=安卓微信288区), GoodsServerSimpleDTO(id=1520565413159020, name=安卓微信287区), GoodsServerSimpleDTO(id=1520565413159019, name=安卓微信286区), GoodsServerSimpleDTO(id=1520565413159018, name=安卓微信285区), GoodsServerSimpleDTO(id=1520565413159017, name=安卓微信284区), GoodsServerSimpleDTO(id=1520565413159016, name=安卓微信283区), GoodsServerSimpleDTO(id=1520565413159015, name=安卓微信282区), GoodsServerSimpleDTO(id=1520565413158014, name=安卓微信281区), GoodsServerSimpleDTO(id=1520565413158013, name=安卓微信280区), GoodsServerSimpleDTO(id=1520565413158012, name=安卓微信279区), GoodsServerSimpleDTO(id=1520565413158011, name=安卓微信278区), GoodsServerSimpleDTO(id=1520565413158010, name=安卓微信277区), GoodsServerSimpleDTO(id=1520565413158009, name=安卓微信276区), GoodsServerSimpleDTO(id=1520565413158008, name=安卓微信275区), GoodsServerSimpleDTO(id=1520565413158007, name=安卓微信274区), GoodsServerSimpleDTO(id=1520565413158006, name=安卓微信273区), GoodsServerSimpleDTO(id=1520565413158004, name=安卓微信272区), GoodsServerSimpleDTO(id=1520565413158003, name=安卓微信271区), GoodsServerSimpleDTO(id=1520565413157002, name=安卓微信270区), GoodsServerSimpleDTO(id=1520565413157001, name=安卓微信269区), GoodsServerSimpleDTO(id=1520565413157999, name=安卓微信268区), GoodsServerSimpleDTO(id=1520565413157998, name=安卓微信267区), GoodsServerSimpleDTO(id=1520565413157997, name=安卓微信266区), GoodsServerSimpleDTO(id=1520565413156995, name=安卓微信265区), GoodsServerSimpleDTO(id=1520565413156994, name=安卓微信264区), GoodsServerSimpleDTO(id=1520565413156993, name=安卓微信263区), GoodsServerSimpleDTO(id=1520565413156992, name=安卓微信262区), GoodsServerSimpleDTO(id=1520565413156990, name=安卓微信261区), GoodsServerSimpleDTO(id=1520565413156987, name=安卓微信260区), GoodsServerSimpleDTO(id=1520565413156986, name=安卓微信259区), GoodsServerSimpleDTO(id=1520565413156985, name=安卓微信258区), GoodsServerSimpleDTO(id=1520565413156984, name=安卓微信257区), GoodsServerSimpleDTO(id=1520565413155983, name=安卓微信256区), GoodsServerSimpleDTO(id=1520565413155982, name=安卓微信255区), GoodsServerSimpleDTO(id=1520565413155980, name=安卓微信254区), GoodsServerSimpleDTO(id=1520565413155979, name=安卓微信253区), GoodsServerSimpleDTO(id=1520565413155978, name=安卓微信252区), GoodsServerSimpleDTO(id=1520565413155977, name=安卓微信251区), GoodsServerSimpleDTO(id=1520565387477445, name=安卓微信250区), GoodsServerSimpleDTO(id=1520565387477443, name=安卓微信249区), GoodsServerSimpleDTO(id=1520565387476441, name=安卓微信248区), GoodsServerSimpleDTO(id=1520565387476440, name=安卓微信247区), GoodsServerSimpleDTO(id=1520565387476438, name=安卓微信246区), GoodsServerSimpleDTO(id=1520565387476437, name=安卓微信245区), GoodsServerSimpleDTO(id=1520565387476434, name=安卓微信244区), GoodsServerSimpleDTO(id=1520565387476432, name=安卓微信243区), GoodsServerSimpleDTO(id=1520565387476430, name=安卓微信242区), GoodsServerSimpleDTO(id=1520565387476429, name=安卓微信241区), GoodsServerSimpleDTO(id=1520565387476427, name=安卓微信240区), GoodsServerSimpleDTO(id=1520565387475423, name=安卓微信239区), GoodsServerSimpleDTO(id=1520565387475422, name=安卓微信238区), GoodsServerSimpleDTO(id=1520565387475421, name=安卓微信237区), GoodsServerSimpleDTO(id=1520565387475419, name=安卓微信236区), GoodsServerSimpleDTO(id=1520565387475418, name=安卓微信235区), GoodsServerSimpleDTO(id=1520565387475414, name=安卓微信234区), GoodsServerSimpleDTO(id=1520565387475412, name=安卓微信233区), GoodsServerSimpleDTO(id=1520565387475411, name=安卓微信232区), GoodsServerSimpleDTO(id=1520565387475409, name=安卓微信231区), GoodsServerSimpleDTO(id=1520564772841752, name=微信全服通用), GoodsServerSimpleDTO(id=1512550113721286, name=王者抢先服), GoodsServerSimpleDTO(id=1510736392178892, name=安卓微信230区), GoodsServerSimpleDTO(id=1510736392178890, name=安卓微信229区), GoodsServerSimpleDTO(id=1510736392178889, name=安卓微信228区), GoodsServerSimpleDTO(id=1510736392178888, name=安卓微信227区), GoodsServerSimpleDTO(id=1510736392178886, name=安卓微信226区), GoodsServerSimpleDTO(id=1510736392177883, name=安卓微信225区), GoodsServerSimpleDTO(id=1510736392177880, name=安卓微信224区), GoodsServerSimpleDTO(id=1510736392177879, name=安卓微信223区), GoodsServerSimpleDTO(id=1510736392177877, name=安卓微信222区), GoodsServerSimpleDTO(id=1510736392177876, name=安卓微信221区), GoodsServerSimpleDTO(id=1510736392176875, name=安卓微信220区), GoodsServerSimpleDTO(id=1510736392176873, name=安卓微信219区), GoodsServerSimpleDTO(id=1510736392176871, name=安卓微信218区), GoodsServerSimpleDTO(id=1510736392176869, name=安卓微信217区), GoodsServerSimpleDTO(id=1510736392176867, name=安卓微信216区), GoodsServerSimpleDTO(id=1510736392176865, name=安卓微信215区), GoodsServerSimpleDTO(id=1510736392175864, name=安卓微信214区), GoodsServerSimpleDTO(id=1510736392175862, name=安卓微信213区), GoodsServerSimpleDTO(id=1510736392175860, name=安卓微信212区), GoodsServerSimpleDTO(id=1510736392175859, name=安卓微信211区), GoodsServerSimpleDTO(id=1510736392175858, name=安卓微信210区), GoodsServerSimpleDTO(id=1510736392175856, name=安卓微信209区), GoodsServerSimpleDTO(id=1510736392175855, name=安卓微信208区), GoodsServerSimpleDTO(id=1510736392174853, name=安卓微信207区), GoodsServerSimpleDTO(id=1510736392174852, name=安卓微信206区), GoodsServerSimpleDTO(id=1510736392174851, name=安卓微信205区), GoodsServerSimpleDTO(id=1510736392174850, name=安卓微信204区), GoodsServerSimpleDTO(id=1510736392174846, name=安卓微信203区), GoodsServerSimpleDTO(id=1510736392173844, name=安卓微信202区), GoodsServerSimpleDTO(id=1510736392173842, name=安卓微信201区), GoodsServerSimpleDTO(id=1510736392173838, name=安卓微信200区), GoodsServerSimpleDTO(id=1510736392173835, name=安卓微信199区), GoodsServerSimpleDTO(id=1510736392173833, name=安卓微信198区), GoodsServerSimpleDTO(id=1510736392173831, name=安卓微信197区), GoodsServerSimpleDTO(id=1510736392172829, name=安卓微信196区), GoodsServerSimpleDTO(id=1510736392172828, name=安卓微信195区), GoodsServerSimpleDTO(id=1510736392172826, name=安卓微信194区), GoodsServerSimpleDTO(id=1510736392172824, name=安卓微信193区), GoodsServerSimpleDTO(id=1510736392172823, name=安卓微信192区), GoodsServerSimpleDTO(id=1510736392172821, name=安卓微信191区), GoodsServerSimpleDTO(id=1510736392172820, name=安卓微信190区), GoodsServerSimpleDTO(id=1510736392172819, name=安卓微信189区), GoodsServerSimpleDTO(id=1510736392171818, name=安卓微信188区), GoodsServerSimpleDTO(id=1510736392171817, name=安卓微信187区), GoodsServerSimpleDTO(id=1510736392171814, name=安卓微信186区), GoodsServerSimpleDTO(id=1510736392171812, name=安卓微信185区), GoodsServerSimpleDTO(id=1510736392170807, name=安卓微信184区), GoodsServerSimpleDTO(id=1510736392170802, name=安卓微信183区), GoodsServerSimpleDTO(id=1510736392170801, name=安卓微信182区), GoodsServerSimpleDTO(id=1510736392170799, name=安卓微信181区), GoodsServerSimpleDTO(id=1510736392170797, name=安卓微信180区), GoodsServerSimpleDTO(id=1510736212235743, name=安卓微信179区), GoodsServerSimpleDTO(id=1510736212235742, name=安卓微信178区), GoodsServerSimpleDTO(id=1510736212235741, name=安卓微信177区), GoodsServerSimpleDTO(id=1510736212235740, name=安卓微信176区), GoodsServerSimpleDTO(id=1510736212234739, name=安卓微信175区), GoodsServerSimpleDTO(id=1510736212234737, name=安卓微信174区), GoodsServerSimpleDTO(id=1510736212234735, name=安卓微信173区), GoodsServerSimpleDTO(id=1510736212234731, name=安卓微信172区), GoodsServerSimpleDTO(id=1510736212234730, name=安卓微信171区), GoodsServerSimpleDTO(id=1510736212234728, name=安卓微信170区), GoodsServerSimpleDTO(id=1510736212233726, name=安卓微信169区), GoodsServerSimpleDTO(id=1510736212233725, name=安卓微信168区), GoodsServerSimpleDTO(id=1510736212233724, name=安卓微信167区), GoodsServerSimpleDTO(id=1510736212233722, name=安卓微信166区), GoodsServerSimpleDTO(id=1510736212233721, name=安卓微信165区), GoodsServerSimpleDTO(id=1510736212233720, name=安卓微信164区), GoodsServerSimpleDTO(id=1510736212232719, name=安卓微信163区), GoodsServerSimpleDTO(id=1510736212232717, name=安卓微信162区), GoodsServerSimpleDTO(id=1510736212232715, name=安卓微信161区), GoodsServerSimpleDTO(id=1510736212232713, name=安卓微信160区), GoodsServerSimpleDTO(id=1510736212232712, name=安卓微信159区), GoodsServerSimpleDTO(id=1510736212232709, name=安卓微信158区), GoodsServerSimpleDTO(id=1510736212231707, name=安卓微信157区), GoodsServerSimpleDTO(id=1510736212231705, name=安卓微信156区), GoodsServerSimpleDTO(id=1510736212231702, name=安卓微信155区), GoodsServerSimpleDTO(id=1510736212231701, name=安卓微信154区), GoodsServerSimpleDTO(id=1510736212231700, name=安卓微信153区), GoodsServerSimpleDTO(id=1510736212231697, name=安卓微信152区), GoodsServerSimpleDTO(id=1510736212231694, name=安卓微信151区), GoodsServerSimpleDTO(id=1510736212230693, name=安卓微信150区), GoodsServerSimpleDTO(id=1510736212230692, name=安卓微信149区), GoodsServerSimpleDTO(id=1510736212230691, name=安卓微信148区), GoodsServerSimpleDTO(id=1510736212230690, name=安卓微信147区), GoodsServerSimpleDTO(id=1510736212230689, name=安卓微信146区), GoodsServerSimpleDTO(id=1510736212230688, name=安卓微信145区), GoodsServerSimpleDTO(id=1510736212230685, name=安卓微信144区), GoodsServerSimpleDTO(id=1510736212229684, name=安卓微信143区), GoodsServerSimpleDTO(id=1510736212229682, name=安卓微信142区), GoodsServerSimpleDTO(id=1510736212229680, name=安卓微信141区), GoodsServerSimpleDTO(id=1510736212229678, name=安卓微信140区), GoodsServerSimpleDTO(id=1510736212229675, name=安卓微信139区), GoodsServerSimpleDTO(id=1510736212229674, name=安卓微信138区), GoodsServerSimpleDTO(id=1510736212229673, name=安卓微信137区), GoodsServerSimpleDTO(id=1510736212229670, name=安卓微信136区), GoodsServerSimpleDTO(id=1510736212228669, name=安卓微信135区), GoodsServerSimpleDTO(id=1510736212228668, name=安卓微信134区), GoodsServerSimpleDTO(id=1510736212228667, name=安卓微信133区), GoodsServerSimpleDTO(id=1510736212228666, name=安卓微信132区), GoodsServerSimpleDTO(id=1510736212228664, name=安卓微信131区), GoodsServerSimpleDTO(id=1498479823532088, name=安卓微信130区), GoodsServerSimpleDTO(id=1498479823532086, name=安卓微信129区), GoodsServerSimpleDTO(id=1498479823532085, name=安卓微信128区), GoodsServerSimpleDTO(id=1498479823532084, name=安卓微信127区), GoodsServerSimpleDTO(id=1498479823532083, name=安卓微信126区), GoodsServerSimpleDTO(id=1498479823532081, name=安卓微信125区), GoodsServerSimpleDTO(id=1498479823532080, name=安卓微信124区), GoodsServerSimpleDTO(id=1498479823531078, name=安卓微信123区), GoodsServerSimpleDTO(id=1498479823531076, name=安卓微信122区), GoodsServerSimpleDTO(id=1498479823531072, name=安卓微信121区), GoodsServerSimpleDTO(id=1498479823531070, name=安卓微信120区), GoodsServerSimpleDTO(id=1498479823531068, name=安卓微信119区), GoodsServerSimpleDTO(id=1498479823531067, name=安卓微信118区), GoodsServerSimpleDTO(id=1498479823531066, name=安卓微信117区), GoodsServerSimpleDTO(id=1498479823530065, name=安卓微信116区), GoodsServerSimpleDTO(id=1498479823530064, name=安卓微信115区), GoodsServerSimpleDTO(id=1498479823530063, name=安卓微信114区), GoodsServerSimpleDTO(id=1498479823530062, name=安卓微信113区), GoodsServerSimpleDTO(id=1498479823530061, name=安卓微信112区), GoodsServerSimpleDTO(id=1498479823530060, name=安卓微信111区), GoodsServerSimpleDTO(id=1498479823530059, name=安卓微信110区), GoodsServerSimpleDTO(id=1498479823530056, name=安卓微信109区), GoodsServerSimpleDTO(id=1498479823529055, name=安卓微信108区), GoodsServerSimpleDTO(id=1498479823529054, name=安卓微信107区), GoodsServerSimpleDTO(id=1498479823529053, name=安卓微信106区), GoodsServerSimpleDTO(id=1498479823529052, name=安卓微信105区), GoodsServerSimpleDTO(id=1498479823529050, name=安卓微信104区), GoodsServerSimpleDTO(id=1498479823529046, name=安卓微信103区), GoodsServerSimpleDTO(id=1498479823528045, name=安卓微信102区), GoodsServerSimpleDTO(id=1498479823528044, name=安卓微信101区), GoodsServerSimpleDTO(id=1498479823528042, name=安卓微信100区), GoodsServerSimpleDTO(id=1498479823528040, name=安卓微信99区), GoodsServerSimpleDTO(id=1498479823528039, name=安卓微信98区), GoodsServerSimpleDTO(id=1498479823528038, name=安卓微信97区), GoodsServerSimpleDTO(id=1498479823528037, name=安卓微信96区), GoodsServerSimpleDTO(id=1498479823527036, name=安卓微信95区), GoodsServerSimpleDTO(id=1498479823527035, name=安卓微信94区), GoodsServerSimpleDTO(id=1498479823527034, name=安卓微信93区), GoodsServerSimpleDTO(id=1498479823527033, name=安卓微信92区), GoodsServerSimpleDTO(id=1498479823527032, name=安卓微信91区), GoodsServerSimpleDTO(id=1487511934651655, name=安卓微信90区), GoodsServerSimpleDTO(id=1487511934651654, name=安卓微信89区), GoodsServerSimpleDTO(id=1487511934651652, name=安卓微信88区), GoodsServerSimpleDTO(id=1487511934650651, name=安卓微信87区), GoodsServerSimpleDTO(id=1487511934650650, name=安卓微信86区), GoodsServerSimpleDTO(id=1487511934650649, name=安卓微信85区), GoodsServerSimpleDTO(id=1487511934650648, name=安卓微信84区), GoodsServerSimpleDTO(id=1487511934650646, name=安卓微信83区), GoodsServerSimpleDTO(id=1487511934650644, name=安卓微信82区), GoodsServerSimpleDTO(id=1487511934650643, name=安卓微信81区), GoodsServerSimpleDTO(id=1472176401666367, name=安卓微信80区), GoodsServerSimpleDTO(id=1472176401666366, name=安卓微信79区), GoodsServerSimpleDTO(id=1472176401666365, name=安卓微信78区), GoodsServerSimpleDTO(id=1472176401666364, name=安卓微信77区), GoodsServerSimpleDTO(id=1472176401666363, name=安卓微信76区), GoodsServerSimpleDTO(id=1472176401666361, name=安卓微信75区), GoodsServerSimpleDTO(id=1472176401666360, name=安卓微信74区), GoodsServerSimpleDTO(id=1472176401665359, name=安卓微信73区), GoodsServerSimpleDTO(id=1472176401665358, name=安卓微信72区), GoodsServerSimpleDTO(id=1472176401665357, name=安卓微信71区), GoodsServerSimpleDTO(id=1472176401665356, name=安卓微信70区), GoodsServerSimpleDTO(id=1472176401665355, name=安卓微信69区), GoodsServerSimpleDTO(id=1472176401665354, name=安卓微信68区), GoodsServerSimpleDTO(id=1472176401665353, name=安卓微信67区), GoodsServerSimpleDTO(id=1472176401664351, name=安卓微信66区), GoodsServerSimpleDTO(id=1472176401664350, name=安卓微信65区), GoodsServerSimpleDTO(id=1472176401664348, name=安卓微信64区), GoodsServerSimpleDTO(id=1472176401664347, name=安卓微信63区), GoodsServerSimpleDTO(id=1472176401664346, name=安卓微信62区), GoodsServerSimpleDTO(id=1472176401664345, name=安卓微信61区), GoodsServerSimpleDTO(id=1472176401664344, name=安卓微信60区), GoodsServerSimpleDTO(id=1472176401663343, name=安卓微信59区), GoodsServerSimpleDTO(id=1472176401663342, name=安卓微信58区), GoodsServerSimpleDTO(id=1472176401663341, name=安卓微信57区), GoodsServerSimpleDTO(id=1472176401663340, name=安卓微信56区), GoodsServerSimpleDTO(id=1472176401663339, name=安卓微信55区), GoodsServerSimpleDTO(id=1472176401663338, name=安卓微信54区), GoodsServerSimpleDTO(id=1472176401663337, name=安卓微信53区), GoodsServerSimpleDTO(id=1472176401662336, name=安卓微信52区), GoodsServerSimpleDTO(id=1472176401662335, name=安卓微信51区), GoodsServerSimpleDTO(id=1472176401662334, name=安卓微信50区), GoodsServerSimpleDTO(id=1472176401662333, name=安卓微信49区), GoodsServerSimpleDTO(id=1472176401662332, name=安卓微信48区), GoodsServerSimpleDTO(id=1472176401662331, name=安卓微信47区), GoodsServerSimpleDTO(id=1472176401662329, name=安卓微信46区), GoodsServerSimpleDTO(id=1472176401662328, name=安卓微信45区), GoodsServerSimpleDTO(id=1472176401661327, name=安卓微信44区), GoodsServerSimpleDTO(id=1472176401661326, name=安卓微信43区), GoodsServerSimpleDTO(id=1472176401661325, name=安卓微信42区), GoodsServerSimpleDTO(id=1472176401661324, name=安卓微信41区), GoodsServerSimpleDTO(id=1472176401661323, name=安卓微信40区), GoodsServerSimpleDTO(id=1472176401661322, name=安卓微信39区), GoodsServerSimpleDTO(id=1472176401661321, name=安卓微信38区), GoodsServerSimpleDTO(id=1472176401661319, name=安卓微信37区), GoodsServerSimpleDTO(id=1472176401660317, name=安卓微信36区), GoodsServerSimpleDTO(id=1472176401660316, name=安卓微信35区), GoodsServerSimpleDTO(id=1472176401660315, name=安卓微信34区), GoodsServerSimpleDTO(id=1472176401660314, name=安卓微信33区), GoodsServerSimpleDTO(id=1472176401660313, name=安卓微信32区), GoodsServerSimpleDTO(id=1472176401660312, name=安卓微信31区), GoodsServerSimpleDTO(id=1472176401660310, name=安卓微信30区), GoodsServerSimpleDTO(id=1472176401659309, name=安卓微信29区), GoodsServerSimpleDTO(id=1472176401659308, name=安卓微信28区), GoodsServerSimpleDTO(id=1472176401659307, name=安卓微信27区), GoodsServerSimpleDTO(id=1472176401659306, name=安卓微信26区), GoodsServerSimpleDTO(id=1472176401659305, name=安卓微信25区), GoodsServerSimpleDTO(id=1472176401659304, name=安卓微信24区), GoodsServerSimpleDTO(id=1472176401659303, name=安卓微信23区), GoodsServerSimpleDTO(id=1472176401659302, name=安卓微信22区), GoodsServerSimpleDTO(id=1472176401658300, name=安卓微信21区), GoodsServerSimpleDTO(id=1472176401658299, name=安卓微信20区), GoodsServerSimpleDTO(id=1472176401658298, name=安卓微信19区), GoodsServerSimpleDTO(id=1472176401658297, name=安卓微信18区), GoodsServerSimpleDTO(id=1472176401658296, name=安卓微信17区), GoodsServerSimpleDTO(id=1472176401658295, name=安卓微信16区), GoodsServerSimpleDTO(id=1472176401658294, name=安卓微信15区), GoodsServerSimpleDTO(id=1472176401658293, name=安卓微信14区), GoodsServerSimpleDTO(id=1472176401657292, name=安卓微信13区), GoodsServerSimpleDTO(id=1472176401657291, name=安卓微信12区), GoodsServerSimpleDTO(id=1472176401657290, name=安卓微信11区), GoodsServerSimpleDTO(id=1472176401657289, name=安卓微信10区), GoodsServerSimpleDTO(id=1472176401657288, name=安卓微信9区), GoodsServerSimpleDTO(id=1472176401657287, name=安卓微信8区), GoodsServerSimpleDTO(id=1472176401657286, name=安卓微信7区), GoodsServerSimpleDTO(id=1472176401657284, name=安卓微信6区), GoodsServerSimpleDTO(id=1472176401656283, name=安卓微信5区), GoodsServerSimpleDTO(id=1472176401656282, name=安卓微信4区), GoodsServerSimpleDTO(id=1472176401656280, name=安卓微信3区), GoodsServerSimpleDTO(id=1472176401656279, name=安卓微信2区), GoodsServerSimpleDTO(id=1472176401656278, name=安卓微信1区), GoodsServerSimpleDTO(id=817904, name=新区预售)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1642581061788074</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903070868728, name=全平台通用), GoodsServerSimpleDTO(id=1520565539285187, name=苹果微信400区), GoodsServerSimpleDTO(id=1520565539285185, name=苹果微信399区), GoodsServerSimpleDTO(id=1520565539285184, name=398区), GoodsServerSimpleDTO(id=1520565539285180, name=397区), GoodsServerSimpleDTO(id=1520565539284179, name=396区), GoodsServerSimpleDTO(id=1520565539284178, name=395区), GoodsServerSimpleDTO(id=1520565539284177, name=394区), GoodsServerSimpleDTO(id=1520565539284175, name=393区), GoodsServerSimpleDTO(id=1520565539284173, name=392区), GoodsServerSimpleDTO(id=1520565539284172, name=391区), GoodsServerSimpleDTO(id=1520565539284171, name=390区), GoodsServerSimpleDTO(id=1520565539283169, name=389区), GoodsServerSimpleDTO(id=1520565539283168, name=388区), GoodsServerSimpleDTO(id=1520565539283164, name=387区), GoodsServerSimpleDTO(id=1520565539283162, name=386区), GoodsServerSimpleDTO(id=1520565539283161, name=385区), GoodsServerSimpleDTO(id=1520565539283159, name=384区), GoodsServerSimpleDTO(id=1520565539282157, name=383区), GoodsServerSimpleDTO(id=1520565539282153, name=382区), GoodsServerSimpleDTO(id=1520565539282152, name=381区), GoodsServerSimpleDTO(id=1520565539282151, name=380区), GoodsServerSimpleDTO(id=1520565539282149, name=379区), GoodsServerSimpleDTO(id=1520565539282147, name=378区), GoodsServerSimpleDTO(id=1520565539281145, name=377区), GoodsServerSimpleDTO(id=1520565539281143, name=376区), GoodsServerSimpleDTO(id=1520565539281140, name=375区), GoodsServerSimpleDTO(id=1520565539281138, name=374区), GoodsServerSimpleDTO(id=1520565539281135, name=373区), GoodsServerSimpleDTO(id=1520565539281134, name=372区), GoodsServerSimpleDTO(id=1520565539280133, name=371区), GoodsServerSimpleDTO(id=1520565539280132, name=370区), GoodsServerSimpleDTO(id=1520565539280129, name=369区), GoodsServerSimpleDTO(id=1520565539280127, name=368区), GoodsServerSimpleDTO(id=1520565539280125, name=367区), GoodsServerSimpleDTO(id=1520565539279122, name=366区), GoodsServerSimpleDTO(id=1520565539279120, name=365区), GoodsServerSimpleDTO(id=1520565539279118, name=364区), GoodsServerSimpleDTO(id=1520565539279115, name=363区), GoodsServerSimpleDTO(id=1520565539278112, name=362区), GoodsServerSimpleDTO(id=1520565539278107, name=361区), GoodsServerSimpleDTO(id=1520565539278106, name=360区), GoodsServerSimpleDTO(id=1520565539278103, name=359区), GoodsServerSimpleDTO(id=1520565539278102, name=358区), GoodsServerSimpleDTO(id=1520565539278100, name=357区), GoodsServerSimpleDTO(id=1520565539277099, name=356区), GoodsServerSimpleDTO(id=1520565539277096, name=355区), GoodsServerSimpleDTO(id=1520565539277093, name=354区), GoodsServerSimpleDTO(id=1520565539277091, name=353区), GoodsServerSimpleDTO(id=1520565539277089, name=352区), GoodsServerSimpleDTO(id=1520565539277086, name=351区), GoodsServerSimpleDTO(id=1520565519651677, name=350区), GoodsServerSimpleDTO(id=1520565519651676, name=349区), GoodsServerSimpleDTO(id=1520565519651675, name=348区), GoodsServerSimpleDTO(id=1520565519650674, name=347区), GoodsServerSimpleDTO(id=1520565519650672, name=346区), GoodsServerSimpleDTO(id=1520565519650671, name=345区), GoodsServerSimpleDTO(id=1520565519650670, name=344区), GoodsServerSimpleDTO(id=1520565519650667, name=343区), GoodsServerSimpleDTO(id=1520565519650665, name=342区), GoodsServerSimpleDTO(id=1520565519650664, name=341区), GoodsServerSimpleDTO(id=1520565519649663, name=340区), GoodsServerSimpleDTO(id=1520565519649662, name=339区), GoodsServerSimpleDTO(id=1520565519649660, name=338区), GoodsServerSimpleDTO(id=1520565519649659, name=337区), GoodsServerSimpleDTO(id=1520565519649658, name=336区), GoodsServerSimpleDTO(id=1520565519649655, name=335区), GoodsServerSimpleDTO(id=1520565519649652, name=334区), GoodsServerSimpleDTO(id=1520565519648651, name=333区), GoodsServerSimpleDTO(id=1520565519648650, name=332区), GoodsServerSimpleDTO(id=1520565519648649, name=331区), GoodsServerSimpleDTO(id=1520565519648648, name=330区), GoodsServerSimpleDTO(id=1520565519648646, name=329区), GoodsServerSimpleDTO(id=1520565519648645, name=328区), GoodsServerSimpleDTO(id=1520565519648643, name=327区), GoodsServerSimpleDTO(id=1520565519647642, name=326区), GoodsServerSimpleDTO(id=1520565519647639, name=325区), GoodsServerSimpleDTO(id=1520565519647638, name=324区), GoodsServerSimpleDTO(id=1520565519646636, name=323区), GoodsServerSimpleDTO(id=1520565519646634, name=322区), GoodsServerSimpleDTO(id=1520565519646631, name=321区), GoodsServerSimpleDTO(id=1520565519645629, name=320区), GoodsServerSimpleDTO(id=1520565519645626, name=319区), GoodsServerSimpleDTO(id=1520565519645624, name=318区), GoodsServerSimpleDTO(id=1520565519645623, name=317区), GoodsServerSimpleDTO(id=1520565519645622, name=316区), GoodsServerSimpleDTO(id=1520565519645621, name=315区), GoodsServerSimpleDTO(id=1520565519645620, name=314区), GoodsServerSimpleDTO(id=1520565519644618, name=313区), GoodsServerSimpleDTO(id=1520565519644617, name=312区), GoodsServerSimpleDTO(id=1520565519644616, name=311区), GoodsServerSimpleDTO(id=1520565519644615, name=310区), GoodsServerSimpleDTO(id=1520565519644612, name=309区), GoodsServerSimpleDTO(id=1520565519643611, name=308区), GoodsServerSimpleDTO(id=1520565519643610, name=307区), GoodsServerSimpleDTO(id=1520565519643608, name=306区), GoodsServerSimpleDTO(id=1520565519643606, name=305区), GoodsServerSimpleDTO(id=1520565519643605, name=304区), GoodsServerSimpleDTO(id=1520565519643603, name=303区), GoodsServerSimpleDTO(id=1520565519642602, name=苹果微信302区), GoodsServerSimpleDTO(id=1520565519642600, name=301区), GoodsServerSimpleDTO(id=1520565499183983, name=300区), GoodsServerSimpleDTO(id=1520565499183982, name=299区), GoodsServerSimpleDTO(id=1520565499183980, name=298区), GoodsServerSimpleDTO(id=1520565499183978, name=297区), GoodsServerSimpleDTO(id=1520565499183977, name=296区), GoodsServerSimpleDTO(id=1520565499182975, name=295区), GoodsServerSimpleDTO(id=1520565499182973, name=294区), GoodsServerSimpleDTO(id=1520565499182971, name=293区), GoodsServerSimpleDTO(id=1520565499182970, name=292区), GoodsServerSimpleDTO(id=1520565499182969, name=291区), GoodsServerSimpleDTO(id=1520565499182968, name=290区), GoodsServerSimpleDTO(id=1520565499182967, name=289区), GoodsServerSimpleDTO(id=1520565499182966, name=288区), GoodsServerSimpleDTO(id=1520565499182963, name=287区), GoodsServerSimpleDTO(id=1520565499182961, name=286区), GoodsServerSimpleDTO(id=1520565499181960, name=285区), GoodsServerSimpleDTO(id=1520565499181959, name=284区), GoodsServerSimpleDTO(id=1520565499181957, name=283区), GoodsServerSimpleDTO(id=1520565499181956, name=282区), GoodsServerSimpleDTO(id=1520565499181955, name=281区), GoodsServerSimpleDTO(id=1520565499181953, name=280区), GoodsServerSimpleDTO(id=1520565499181951, name=279区), GoodsServerSimpleDTO(id=1520565499181950, name=278区), GoodsServerSimpleDTO(id=1520565499181949, name=277区), GoodsServerSimpleDTO(id=1520565499180946, name=276区), GoodsServerSimpleDTO(id=1520565499180945, name=275区), GoodsServerSimpleDTO(id=1520565499180943, name=274区), GoodsServerSimpleDTO(id=1520565499180942, name=273区), GoodsServerSimpleDTO(id=1520565499180940, name=272区), GoodsServerSimpleDTO(id=1520565499180939, name=271区), GoodsServerSimpleDTO(id=1520565499180938, name=270区), GoodsServerSimpleDTO(id=1520565499180937, name=269区), GoodsServerSimpleDTO(id=1520565499180935, name=268区), GoodsServerSimpleDTO(id=1520565499179934, name=267区), GoodsServerSimpleDTO(id=1520565499179932, name=266区), GoodsServerSimpleDTO(id=1520565499179931, name=265区), GoodsServerSimpleDTO(id=1520565499179929, name=264区), GoodsServerSimpleDTO(id=1520565499179927, name=苹果微信263区), GoodsServerSimpleDTO(id=1520565499179926, name=苹果微信262区), GoodsServerSimpleDTO(id=1520565499179924, name=苹果微信261区), GoodsServerSimpleDTO(id=1520565499179923, name=苹果微信260区), GoodsServerSimpleDTO(id=1520565499179922, name=苹果微信259区), GoodsServerSimpleDTO(id=1520565499179921, name=苹果微信258区), GoodsServerSimpleDTO(id=1520565499179920, name=苹果微信257区), GoodsServerSimpleDTO(id=1520565499178918, name=苹果微信256区), GoodsServerSimpleDTO(id=1520565499178917, name=苹果微信255区), GoodsServerSimpleDTO(id=1520565499178916, name=苹果微信254区), GoodsServerSimpleDTO(id=1520565499178915, name=苹果微信253区), GoodsServerSimpleDTO(id=1520565499178914, name=苹果微信252区), GoodsServerSimpleDTO(id=1520565499178910, name=苹果微信251区), GoodsServerSimpleDTO(id=1520565482676345, name=苹果微信250区), GoodsServerSimpleDTO(id=1520565482676344, name=苹果微信249区), GoodsServerSimpleDTO(id=1520565482676343, name=苹果微信248区), GoodsServerSimpleDTO(id=1520565482676342, name=苹果微信247区), GoodsServerSimpleDTO(id=1520565482676341, name=苹果微信246区), GoodsServerSimpleDTO(id=1520565482675339, name=苹果微信245区), GoodsServerSimpleDTO(id=1520565482675336, name=苹果微信244区), GoodsServerSimpleDTO(id=1520565482675334, name=苹果微信243区), GoodsServerSimpleDTO(id=1520565482674333, name=苹果微信242区), GoodsServerSimpleDTO(id=1520565482674331, name=苹果微信241区), GoodsServerSimpleDTO(id=1520565482674327, name=苹果微信240区), GoodsServerSimpleDTO(id=1520565482673326, name=苹果微信239区), GoodsServerSimpleDTO(id=1520565482673325, name=苹果微信238区), GoodsServerSimpleDTO(id=1520565482673321, name=苹果微信237区), GoodsServerSimpleDTO(id=1520565482672320, name=苹果微信236区), GoodsServerSimpleDTO(id=1520565482672318, name=苹果微信235区), GoodsServerSimpleDTO(id=1520565482672317, name=苹果微信234区), GoodsServerSimpleDTO(id=1520565482671314, name=苹果微信233区), GoodsServerSimpleDTO(id=1520565482670311, name=苹果微信232区), GoodsServerSimpleDTO(id=1520565482670309, name=苹果微信231区), GoodsServerSimpleDTO(id=1520565482670307, name=苹果微信230区), GoodsServerSimpleDTO(id=1520565482670306, name=苹果微信229区), GoodsServerSimpleDTO(id=1520565482669303, name=苹果微信228区), GoodsServerSimpleDTO(id=1520565482669300, name=苹果微信227区), GoodsServerSimpleDTO(id=1520565482669298, name=苹果微信226区), GoodsServerSimpleDTO(id=1520565482669296, name=苹果微信225区), GoodsServerSimpleDTO(id=1520565482669295, name=苹果微信224区), GoodsServerSimpleDTO(id=1520565482669294, name=苹果微信223区), GoodsServerSimpleDTO(id=1520565482668293, name=苹果微信222区), GoodsServerSimpleDTO(id=1520565482668292, name=苹果微信221区), GoodsServerSimpleDTO(id=1520565482668290, name=苹果微信220区), GoodsServerSimpleDTO(id=1520565482668288, name=苹果微信219区), GoodsServerSimpleDTO(id=1520565482668285, name=苹果微信218区), GoodsServerSimpleDTO(id=1520565482668283, name=苹果微信217区), GoodsServerSimpleDTO(id=1520565482667279, name=苹果微信216区), GoodsServerSimpleDTO(id=1520565482667278, name=苹果微信215区), GoodsServerSimpleDTO(id=1520565482667277, name=苹果微信214区), GoodsServerSimpleDTO(id=1520565482667276, name=苹果微信213区), GoodsServerSimpleDTO(id=1520565482667275, name=苹果微信212区), GoodsServerSimpleDTO(id=1520565482667274, name=苹果微信211区), GoodsServerSimpleDTO(id=1520565482667273, name=苹果微信210区), GoodsServerSimpleDTO(id=1520565482666272, name=苹果微信209区), GoodsServerSimpleDTO(id=1520565482666271, name=苹果微信208区), GoodsServerSimpleDTO(id=1520565482666267, name=苹果微信207区), GoodsServerSimpleDTO(id=1520565482666264, name=苹果微信206区), GoodsServerSimpleDTO(id=1520565482666262, name=苹果微信205区), GoodsServerSimpleDTO(id=1520565482665260, name=苹果微信204区), GoodsServerSimpleDTO(id=1520565482665258, name=苹果微信203区), GoodsServerSimpleDTO(id=1520565482665257, name=苹果微信202区), GoodsServerSimpleDTO(id=1520565482664254, name=苹果微信201区), GoodsServerSimpleDTO(id=1520564772841752, name=微信全服通用), GoodsServerSimpleDTO(id=1513927403776737, name=苹果微信200区), GoodsServerSimpleDTO(id=1513927403776733, name=苹果微信199区), GoodsServerSimpleDTO(id=1513927403776729, name=苹果微信198区), GoodsServerSimpleDTO(id=1513927403776727, name=苹果微信197区), GoodsServerSimpleDTO(id=1513927403775725, name=苹果微信196区), GoodsServerSimpleDTO(id=1513927403775722, name=苹果微信195区), GoodsServerSimpleDTO(id=1513927403775720, name=苹果微信194区), GoodsServerSimpleDTO(id=1513927403775718, name=苹果微信193区), GoodsServerSimpleDTO(id=1513927403775717, name=苹果微信192区), GoodsServerSimpleDTO(id=1513927403775715, name=苹果微信191区), GoodsServerSimpleDTO(id=1513927403774714, name=苹果微信190区), GoodsServerSimpleDTO(id=1513927403774712, name=苹果微信189区), GoodsServerSimpleDTO(id=1513927403774711, name=苹果微信188区), GoodsServerSimpleDTO(id=1513927403774709, name=苹果微信187区), GoodsServerSimpleDTO(id=1513927403774708, name=苹果微信186区), GoodsServerSimpleDTO(id=1513927403774704, name=苹果微信185区), GoodsServerSimpleDTO(id=1513927403774702, name=苹果微信184区), GoodsServerSimpleDTO(id=1513927403773700, name=苹果微信183区), GoodsServerSimpleDTO(id=1513927403773699, name=苹果微信182区), GoodsServerSimpleDTO(id=1513927403773698, name=苹果微信181区), GoodsServerSimpleDTO(id=1513927403773695, name=苹果微信180区), GoodsServerSimpleDTO(id=1513927403772694, name=苹果微信179区), GoodsServerSimpleDTO(id=1513927403772692, name=苹果微信178区), GoodsServerSimpleDTO(id=1513927403772691, name=苹果微信177区), GoodsServerSimpleDTO(id=1513927403772689, name=苹果微信176区), GoodsServerSimpleDTO(id=1513927403772686, name=苹果微信175区), GoodsServerSimpleDTO(id=1513927403772685, name=苹果微信174区), GoodsServerSimpleDTO(id=1513927403772683, name=苹果微信173区), GoodsServerSimpleDTO(id=1513927403772682, name=苹果微信172区), GoodsServerSimpleDTO(id=1513927403771680, name=苹果微信171区), GoodsServerSimpleDTO(id=1513927403771679, name=苹果微信170区), GoodsServerSimpleDTO(id=1513927403771678, name=苹果微信169区), GoodsServerSimpleDTO(id=1513927403771677, name=苹果微信168区), GoodsServerSimpleDTO(id=1513927403771676, name=苹果微信167区), GoodsServerSimpleDTO(id=1513927403771675, name=苹果微信166区), GoodsServerSimpleDTO(id=1513927403770673, name=苹果微信165区), GoodsServerSimpleDTO(id=1513927403770671, name=苹果微信164区), GoodsServerSimpleDTO(id=1513927403770670, name=苹果微信163区), GoodsServerSimpleDTO(id=1513927403770668, name=苹果微信162区), GoodsServerSimpleDTO(id=1513927403770667, name=苹果微信161区), GoodsServerSimpleDTO(id=1513927403770664, name=苹果微信160区), GoodsServerSimpleDTO(id=1513927403770663, name=苹果微信159区), GoodsServerSimpleDTO(id=1513927403769661, name=苹果微信158区), GoodsServerSimpleDTO(id=1513927403769660, name=苹果微信157区), GoodsServerSimpleDTO(id=1513927403769659, name=苹果微信156区), GoodsServerSimpleDTO(id=1513927403769658, name=苹果微信155区), GoodsServerSimpleDTO(id=1513927403769657, name=苹果微信154区), GoodsServerSimpleDTO(id=1513927403769655, name=苹果微信153区), GoodsServerSimpleDTO(id=1513927403769654, name=苹果微信152区), GoodsServerSimpleDTO(id=1513927403768651, name=苹果微信151区), GoodsServerSimpleDTO(id=1513927388418232, name=苹果微信150区), GoodsServerSimpleDTO(id=1513927388418231, name=苹果微信149区), GoodsServerSimpleDTO(id=1513927388417229, name=苹果微信148区), GoodsServerSimpleDTO(id=1513927388417227, name=苹果微信147区), GoodsServerSimpleDTO(id=1513927388417225, name=苹果微信146区), GoodsServerSimpleDTO(id=1513927388417224, name=苹果微信145区), GoodsServerSimpleDTO(id=1513927388417223, name=苹果微信144区), GoodsServerSimpleDTO(id=1513927388417221, name=苹果微信143区), GoodsServerSimpleDTO(id=1513927388416220, name=苹果微信142区), GoodsServerSimpleDTO(id=1513927388416219, name=苹果微信141区), GoodsServerSimpleDTO(id=1513927388416218, name=苹果微信140区), GoodsServerSimpleDTO(id=1513927388416216, name=苹果微信139区), GoodsServerSimpleDTO(id=1513927388416211, name=苹果微信138区), GoodsServerSimpleDTO(id=1513927388415209, name=苹果微信137区), GoodsServerSimpleDTO(id=1513927388415208, name=苹果微信136区), GoodsServerSimpleDTO(id=1513927388415206, name=苹果微信135区), GoodsServerSimpleDTO(id=1513927388415205, name=苹果微信134区), GoodsServerSimpleDTO(id=1513927388415203, name=苹果微信133区), GoodsServerSimpleDTO(id=1513927388415202, name=苹果微信132区), GoodsServerSimpleDTO(id=1513927388415201, name=苹果微信131区), GoodsServerSimpleDTO(id=1513927388415200, name=苹果微信130区), GoodsServerSimpleDTO(id=1513927388414198, name=苹果微信129区), GoodsServerSimpleDTO(id=1513927388414196, name=苹果微信128区), GoodsServerSimpleDTO(id=1513927388414195, name=苹果微信127区), GoodsServerSimpleDTO(id=1513927388414193, name=苹果微信126区), GoodsServerSimpleDTO(id=1513927388414191, name=苹果微信125区), GoodsServerSimpleDTO(id=1513927388414189, name=苹果微信124区), GoodsServerSimpleDTO(id=1513927388414187, name=苹果微信123区), GoodsServerSimpleDTO(id=1513927388413184, name=苹果微信122区), GoodsServerSimpleDTO(id=1513927388413183, name=苹果微信121区), GoodsServerSimpleDTO(id=1513927388413182, name=苹果微信120区), GoodsServerSimpleDTO(id=1513927388413181, name=苹果微信119区), GoodsServerSimpleDTO(id=1513927388413178, name=苹果微信118区), GoodsServerSimpleDTO(id=1513927388413177, name=苹果微信117区), GoodsServerSimpleDTO(id=1513927388412176, name=苹果微信116区), GoodsServerSimpleDTO(id=1513927388412174, name=苹果微信115区), GoodsServerSimpleDTO(id=1513927388412173, name=苹果微信114区), GoodsServerSimpleDTO(id=1513927388412172, name=苹果微信113区), GoodsServerSimpleDTO(id=1513927388412171, name=苹果微信112区), GoodsServerSimpleDTO(id=1513927388412170, name=苹果微信111区), GoodsServerSimpleDTO(id=1513927388412168, name=苹果微信110区), GoodsServerSimpleDTO(id=1513927388412167, name=苹果微信109区), GoodsServerSimpleDTO(id=1513927388411166, name=苹果微信108区), GoodsServerSimpleDTO(id=1513927388411164, name=苹果微信107区), GoodsServerSimpleDTO(id=1513927388411161, name=苹果微信106区), GoodsServerSimpleDTO(id=1513927388411159, name=苹果微信105区), GoodsServerSimpleDTO(id=1513927388411156, name=苹果微信104区), GoodsServerSimpleDTO(id=1513927388411155, name=苹果微信103区), GoodsServerSimpleDTO(id=1513927388410154, name=苹果微信102区), GoodsServerSimpleDTO(id=1513927388410153, name=苹果微信101区), GoodsServerSimpleDTO(id=1510736665094776, name=苹果微信100区), GoodsServerSimpleDTO(id=1510736665093774, name=苹果微信99区), GoodsServerSimpleDTO(id=1510736665093773, name=苹果微信98区), GoodsServerSimpleDTO(id=1510736665093772, name=苹果微信97区), GoodsServerSimpleDTO(id=1510736665093770, name=苹果微信96区), GoodsServerSimpleDTO(id=1510736665093769, name=苹果微信95区), GoodsServerSimpleDTO(id=1510736665093768, name=苹果微信94区), GoodsServerSimpleDTO(id=1510736665092766, name=苹果微信93区), GoodsServerSimpleDTO(id=1510736665092765, name=苹果微信92区), GoodsServerSimpleDTO(id=1510736665092764, name=苹果微信91区), GoodsServerSimpleDTO(id=1510736665092763, name=苹果微信90区), GoodsServerSimpleDTO(id=1510736665092762, name=苹果微信89区), GoodsServerSimpleDTO(id=1510736665092760, name=苹果微信88区), GoodsServerSimpleDTO(id=1510736665092758, name=苹果微信87区), GoodsServerSimpleDTO(id=1510736665091757, name=苹果微信86区), GoodsServerSimpleDTO(id=1510736665091756, name=苹果微信85区), GoodsServerSimpleDTO(id=1510736665091755, name=苹果微信84区), GoodsServerSimpleDTO(id=1510736665091752, name=苹果微信83区), GoodsServerSimpleDTO(id=1510736665091751, name=苹果微信82区), GoodsServerSimpleDTO(id=1510736665091750, name=苹果微信81区), GoodsServerSimpleDTO(id=1498479938502429, name=苹果微信80区), GoodsServerSimpleDTO(id=1498479938502428, name=苹果微信79区), GoodsServerSimpleDTO(id=1498479938502427, name=苹果微信78区), GoodsServerSimpleDTO(id=1498479938501426, name=苹果微信77区), GoodsServerSimpleDTO(id=1498479938501425, name=苹果微信76区), GoodsServerSimpleDTO(id=1498479938501423, name=苹果微信75区), GoodsServerSimpleDTO(id=1498479938501421, name=苹果微信74区), GoodsServerSimpleDTO(id=1498479938501420, name=苹果微信73区), GoodsServerSimpleDTO(id=1498479938501419, name=苹果微信72区), GoodsServerSimpleDTO(id=1498479938501418, name=苹果微信71区), GoodsServerSimpleDTO(id=1498479938501417, name=苹果微信70区), GoodsServerSimpleDTO(id=1498479938501415, name=苹果微信69区), GoodsServerSimpleDTO(id=1498479938501412, name=苹果微信68区), GoodsServerSimpleDTO(id=1498479938500410, name=苹果微信67区), GoodsServerSimpleDTO(id=1498479938500409, name=苹果微信66区), GoodsServerSimpleDTO(id=1498479938500407, name=苹果微信65区), GoodsServerSimpleDTO(id=1498479938500406, name=苹果微信64区), GoodsServerSimpleDTO(id=1498479938500404, name=苹果微信63区), GoodsServerSimpleDTO(id=1498479938500403, name=苹果微信62区), GoodsServerSimpleDTO(id=1498479938500402, name=苹果微信61区), GoodsServerSimpleDTO(id=1498479938500401, name=苹果微信60区), GoodsServerSimpleDTO(id=1498479938500400, name=59区), GoodsServerSimpleDTO(id=1498479938499399, name=58区), GoodsServerSimpleDTO(id=1498479938499398, name=57区), GoodsServerSimpleDTO(id=1498479938499396, name=56区), GoodsServerSimpleDTO(id=1498479938499395, name=55区), GoodsServerSimpleDTO(id=1498479938499394, name=54区), GoodsServerSimpleDTO(id=1498479938499393, name=53区), GoodsServerSimpleDTO(id=1498479938499392, name=52区), GoodsServerSimpleDTO(id=1498479938499391, name=51区), GoodsServerSimpleDTO(id=1495881343246451, name=50区), GoodsServerSimpleDTO(id=1495881343246449, name=49区), GoodsServerSimpleDTO(id=1495881343246447, name=48区), GoodsServerSimpleDTO(id=1495881343246446, name=47区), GoodsServerSimpleDTO(id=1495881343246445, name=46区), GoodsServerSimpleDTO(id=1495881343246444, name=45区), GoodsServerSimpleDTO(id=1495881343246443, name=44区), GoodsServerSimpleDTO(id=1495881343245442, name=43区), GoodsServerSimpleDTO(id=1495881343245441, name=42区), GoodsServerSimpleDTO(id=1495881343245440, name=41区), GoodsServerSimpleDTO(id=1495881343245439, name=40区), GoodsServerSimpleDTO(id=1495881343245438, name=39区), GoodsServerSimpleDTO(id=1495881343245436, name=38区), GoodsServerSimpleDTO(id=1495881343245435, name=37区), GoodsServerSimpleDTO(id=1495881343245434, name=36区), GoodsServerSimpleDTO(id=1495881343244432, name=35区), GoodsServerSimpleDTO(id=1495881343244431, name=34区), GoodsServerSimpleDTO(id=1495881343244430, name=33区), GoodsServerSimpleDTO(id=1495881343244429, name=32区), GoodsServerSimpleDTO(id=1495881343244428, name=31区), GoodsServerSimpleDTO(id=1495881343244426, name=30区), GoodsServerSimpleDTO(id=1495881343244425, name=29区), GoodsServerSimpleDTO(id=1495881343244424, name=28区), GoodsServerSimpleDTO(id=1495881343244423, name=27区), GoodsServerSimpleDTO(id=1495881343243422, name=26区), GoodsServerSimpleDTO(id=1495881343243421, name=25区), GoodsServerSimpleDTO(id=1495881343243420, name=24区), GoodsServerSimpleDTO(id=1495881343243419, name=23区), GoodsServerSimpleDTO(id=1495881343243418, name=22区), GoodsServerSimpleDTO(id=1495881343243417, name=21区), GoodsServerSimpleDTO(id=1495881343243416, name=20区), GoodsServerSimpleDTO(id=1495881343243415, name=19区), GoodsServerSimpleDTO(id=1495881343242414, name=18区), GoodsServerSimpleDTO(id=1495881343242413, name=17区), GoodsServerSimpleDTO(id=1495881343242411, name=16区), GoodsServerSimpleDTO(id=1495881343242410, name=15区), GoodsServerSimpleDTO(id=1495881343242409, name=14区), GoodsServerSimpleDTO(id=1495881343242408, name=13区), GoodsServerSimpleDTO(id=1495881343242406, name=12区), GoodsServerSimpleDTO(id=1495881343241405, name=11区), GoodsServerSimpleDTO(id=1495881343241404, name=10区), GoodsServerSimpleDTO(id=1495881343241403, name=9区), GoodsServerSimpleDTO(id=1495881343241399, name=8区), GoodsServerSimpleDTO(id=1495881343240398, name=7区), GoodsServerSimpleDTO(id=1495881343240396, name=6区), GoodsServerSimpleDTO(id=1495881343240395, name=5区), GoodsServerSimpleDTO(id=1495881343240394, name=4区), GoodsServerSimpleDTO(id=1495881343240393, name=3区), GoodsServerSimpleDTO(id=1495881343240392, name=2区), GoodsServerSimpleDTO(id=1495881343239391, name=1区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1642580017608072</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1531903070868728, 1520565340141895, 1520565340141894, 1520565340141893, 1520565340141892, 1520565340140891, 1520565340140889, 1520565340140887, 1520565340140885, 1520565340140882, 1520565340140879, 1520565340140878, 1520565340139877, 1520565340139876, 1520565340139873, 1520565340139872, 1520565340139871, 1520565340139870, 1520565340138869, 1520565340138868, 1520565340138866, 1520565340138863, 1520565340138861, 1520565340138857, 1520565340137856, 1520565340137855, 1520565340137853, 1520565340137849, 1520565340136841, 1520565340136840, 1520565340136839, 1520565340136837, 1520565340136836, 1520565340136833, 1520565340136830, 1520565340135829, 1520565340135827, 1520565340135821, 1520565340135820, 1520565340135819, 1520565340135818, 1520565340135815, 1520565340134814, 1520565340134813, 1520565340134812, 1520565340134809, 1520565340134806, 1520565340134804, 1520565340134802, 1520565340134800, 1520565340133799, 1520565305855966, 1520565305854964, 1520565305854963, 1520565305854961, 1520565305854960, 1520565305854959, 1520565305853956, 1520565305853949, 1520565305853947, 1520565305853944, 1520565305853943, 1520565305853941, 1520565305852938, 1520565305852935, 1520565305852934, 1520565305852932, 1520565305852930, 1520565305852928, 1520565305852927, 1520565305852926, 1520565305851925, 1520565305851924, 1520565305851919, 1520565305851917, 1520565305851915, 1520565305851912, 1520565305851910, 1520565305850909, 1520565305850907, 1520565305850903, 1520565305850901, 1520565305850900, 1520565305850898, 1520565305849893, 1520565305849892, 1520565305849890, 1520565305849888, 1520565305849887, 1520565305849885, 1520565305849884, 1520565305848880, 1520565305848877, 1520565305848876, 1520565305848875, 1520565305848873, 1520565305848872, 1520565305847868, 1520565305847867, 1520565305847866, 1520565305847865, 1520564679426026, 1517377426627295, 1517377426627294, 1517377426627292, 1517377426627291, 1517377426627289, 1517377426626288, 1517377426626286, 1517377426626285, 1517377426626282, 1517377426626280, 1517377426626279, 1517377426625277, 1517377426625276, 1517377426625275, 1517377426625274, 1517377426625273, 1517377426625270, 1517377426624267, 1517377426624261, 1517377426624259, 1517377426623258, 1517377426623257, 1517377426623256, 1517377426623255, 1517377426623253, 1517377426623250, 1517377426622249, 1517377426622246, 1517377426622245, 1517377426622244, 1517377426622241, 1517377426622239, 1517377426621238, 1517377426621237, 1517377426621236, 1517377426621234, 1517377426621230, 1517377426620224, 1517377426620223, 1517377426620222, 1517377426620221, 1517377426620219, 1517377426620216, 1517377426619214, 1517377426619213, 1517377426619211, 1517377426619209, 1517377426619206, 1517377426619205, 1517377426618202, 1517377383212286, 1517377383212281, 1517377383212280, 1517377383212279, 1517377383212278, 1517377383212275, 1517377383211273, 1517377383211272, 1517377383211269, 1517377383211268, 1517377383211266, 1517377383211262, 1517377383211261, 1517377383211259, 1517377383211257, 1517377383210256, 1517377383210254, 1517377383210251, 1517377383210250, 1517377383210249, 1517377383210248, 1517377383210247, 1517377383210245, 1517377383210244, 1517377383210243, 1517377383209240, 1517377383209236, 1517377383209234, 1517377383209232, 1517377383209230, 1517377383209228, 1517377383209226, 1517377383209225, 1517377383209224, 1517377383208223, 1517377383208222, 1517377383208220, 1517377383208217, 1517377383208215, 1517377383208214, 1517377383208211, 1517377383208210, 1517377383208209, 1517377383208208, 1517377383207205, 1517377383207203, 1517377383207201, 1517377383207200, 1517377383207197, 1517377383207195, 1513927335090886, 1513927335090885, 1513927335090884, 1513927335090882, 1513927335090881, 1513927335090880, 1513927335090879, 1513927335090877, 1513927335090874, 1513927335090872, 1513927335089871, 1513927335089870, 1513927335089869, 1513927335089868, 1513927335089867, 1513927335089866, 1513927335089864, 1513927335089862, 1513927335089860, 1513927335089858, 1513927335088857, 1513927335088856, 1513927335088855, 1513927335088854, 1513927335088853, 1513927335088851, 1513927335088850, 1513927335088849, 1513927335088847, 1513927335087845, 1513927335087843, 1513927335087840, 1513927335087837, 1513927335087836, 1513927335087835, 1513927335087834, 1513927335087833, 1513927335087832, 1513927335086830, 1513927335086828, 1513927335086827, 1513927335086826, 1513927335086825, 1513927335086824, 1513927335086823, 1513927335086822, 1513927335086821, 1513927335086820, 1513927335085819, 1513927335085818, 1513927318881507, 1513927318880506, 1513927318880505, 1513927318880504, 1513927318880503, 1513927318880502, 1513927318880501, 1513927318880499, 1513927318879496, 1513927318879493, 1513927318879490, 1513927318879489, 1513927318879488, 1513927318879487, 1513927318879486, 1513927318878485, 1513927318878484, 1513927318878481, 1513927318878479, 1513927318878476, 1513927318878475, 1513927318878474, 1513927318877472, 1513927318877468, 1513927318877466, 1513927318877465, 1513927318877464, 1513927318877463, 1513927318877462, 1513927318877461, 1513927318876460, 1513927318876459, 1513927318876458, 1513927318876457, 1513927318876456, 1513927318876454, 1513927318876452, 1513927318876451, 1513927318875450, 1513927318875449, 1513927318875447, 1513927318875444, 1513927318875443, 1513927318875441, 1513927318875439, 1513927318874438, 1513927318874437, 1513927318874436, 1513927318874435, 1513927318874434, 1510736613738838, 1510736613738837, 1510736613738836, 1510736613738835, 1510736613738834, 1510736613738833, 1510736613738830, 1510736613738829, 1510736613738828, 1510736613737824, 1510736613737823, 1510736613737822, 1510736613737821, 1510736613737820, 1510736613737819, 1510736613737818, 1510736613737816, 1510736613737815, 1510736613736812, 1510736613736810, 1498479938500400, 1498479938499399, 1498479938499398, 1498479938499396, 1498479938499395, 1498479938499394, 1498479938499393, 1498479938499392, 1498479938499391, 1498479881164324, 1498479881164323, 1498479881164322, 1498479881164321, 1498479881164319, 1498479881164318, 1498479881164317, 1498479881164315, 1498479881163314, 1498479881163313, 1498479881163312, 1498479881163310, 1498479881163309, 1498479881163308, 1498479881163306, 1498479881162304, 1498479881162302, 1498479881162299, 1498479881162298, 1498479881162297, 1498479881161294, 817861, 817860, 817859, 817858, 817857, 817856, 817855, 817854, 817853, 817852, 817851, 817850, 817849, 817848, 817847, 817846, 817845, 817844, 817843, 817842, 817841, 817840, 817839, 817838, 817837, 817836, 817835, 817834, 718033, 817833, 718032, 718031, 718030, 718029, 718028, 718027, 718026, 718025, 718024, 718023, 718022, 718021, 718020, 718019, 718018, 718017, 718016, 718015, 718014, 718013, 718012, 718011, 718010, 718009, 718008, 718007, 718006, 718005, 718004]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903070868728, name=全平台通用), GoodsServerSimpleDTO(id=1520565340141895, name=苹果QQ400区), GoodsServerSimpleDTO(id=1520565340141894, name=苹果QQ399区), GoodsServerSimpleDTO(id=1520565340141893, name=苹果QQ398区), GoodsServerSimpleDTO(id=1520565340141892, name=苹果QQ397区), GoodsServerSimpleDTO(id=1520565340140891, name=苹果QQ396区), GoodsServerSimpleDTO(id=1520565340140889, name=苹果QQ395区), GoodsServerSimpleDTO(id=1520565340140887, name=苹果QQ394区), GoodsServerSimpleDTO(id=1520565340140885, name=苹果QQ393区), GoodsServerSimpleDTO(id=1520565340140882, name=苹果QQ392区), GoodsServerSimpleDTO(id=1520565340140879, name=苹果QQ391区), GoodsServerSimpleDTO(id=1520565340140878, name=苹果QQ390区), GoodsServerSimpleDTO(id=1520565340139877, name=苹果QQ389区), GoodsServerSimpleDTO(id=1520565340139876, name=苹果QQ388区), GoodsServerSimpleDTO(id=1520565340139873, name=苹果QQ387区), GoodsServerSimpleDTO(id=1520565340139872, name=苹果QQ386区), GoodsServerSimpleDTO(id=1520565340139871, name=苹果QQ385区), GoodsServerSimpleDTO(id=1520565340139870, name=苹果QQ384区), GoodsServerSimpleDTO(id=1520565340138869, name=苹果QQ383区), GoodsServerSimpleDTO(id=1520565340138868, name=苹果QQ382区), GoodsServerSimpleDTO(id=1520565340138866, name=苹果QQ381区), GoodsServerSimpleDTO(id=1520565340138863, name=苹果QQ380区), GoodsServerSimpleDTO(id=1520565340138861, name=苹果QQ379区), GoodsServerSimpleDTO(id=1520565340138857, name=苹果QQ378区), GoodsServerSimpleDTO(id=1520565340137856, name=苹果QQ377区), GoodsServerSimpleDTO(id=1520565340137855, name=苹果QQ376区), GoodsServerSimpleDTO(id=1520565340137853, name=苹果QQ375区), GoodsServerSimpleDTO(id=1520565340137849, name=苹果QQ374区), GoodsServerSimpleDTO(id=1520565340136841, name=苹果QQ373区), GoodsServerSimpleDTO(id=1520565340136840, name=苹果QQ372区), GoodsServerSimpleDTO(id=1520565340136839, name=苹果QQ371区), GoodsServerSimpleDTO(id=1520565340136837, name=苹果QQ370区), GoodsServerSimpleDTO(id=1520565340136836, name=苹果QQ369区), GoodsServerSimpleDTO(id=1520565340136833, name=苹果QQ368区), GoodsServerSimpleDTO(id=1520565340136830, name=苹果QQ367区), GoodsServerSimpleDTO(id=1520565340135829, name=苹果QQ366区), GoodsServerSimpleDTO(id=1520565340135827, name=苹果QQ365区), GoodsServerSimpleDTO(id=1520565340135821, name=苹果QQ364区), GoodsServerSimpleDTO(id=1520565340135820, name=苹果QQ363区), GoodsServerSimpleDTO(id=1520565340135819, name=苹果QQ362区), GoodsServerSimpleDTO(id=1520565340135818, name=苹果QQ361区), GoodsServerSimpleDTO(id=1520565340135815, name=苹果QQ360区), GoodsServerSimpleDTO(id=1520565340134814, name=苹果QQ359区), GoodsServerSimpleDTO(id=1520565340134813, name=苹果QQ358区), GoodsServerSimpleDTO(id=1520565340134812, name=苹果QQ357区), GoodsServerSimpleDTO(id=1520565340134809, name=苹果QQ356区), GoodsServerSimpleDTO(id=1520565340134806, name=苹果QQ355区), GoodsServerSimpleDTO(id=1520565340134804, name=苹果QQ354区), GoodsServerSimpleDTO(id=1520565340134802, name=苹果QQ353区), GoodsServerSimpleDTO(id=1520565340134800, name=苹果QQ352区), GoodsServerSimpleDTO(id=1520565340133799, name=苹果QQ351区), GoodsServerSimpleDTO(id=1520565305855966, name=苹果QQ350区), GoodsServerSimpleDTO(id=1520565305854964, name=苹果QQ349区), GoodsServerSimpleDTO(id=1520565305854963, name=苹果QQ348区), GoodsServerSimpleDTO(id=1520565305854961, name=苹果QQ347区), GoodsServerSimpleDTO(id=1520565305854960, name=苹果QQ346区), GoodsServerSimpleDTO(id=1520565305854959, name=苹果QQ345区), GoodsServerSimpleDTO(id=1520565305853956, name=苹果QQ344区), GoodsServerSimpleDTO(id=1520565305853949, name=苹果QQ343区), GoodsServerSimpleDTO(id=1520565305853947, name=苹果QQ342区), GoodsServerSimpleDTO(id=1520565305853944, name=苹果QQ341区), GoodsServerSimpleDTO(id=1520565305853943, name=苹果QQ340区), GoodsServerSimpleDTO(id=1520565305853941, name=苹果QQ339区), GoodsServerSimpleDTO(id=1520565305852938, name=苹果QQ338区), GoodsServerSimpleDTO(id=1520565305852935, name=苹果QQ337区), GoodsServerSimpleDTO(id=1520565305852934, name=苹果QQ336区), GoodsServerSimpleDTO(id=1520565305852932, name=苹果QQ335区), GoodsServerSimpleDTO(id=1520565305852930, name=苹果QQ334区), GoodsServerSimpleDTO(id=1520565305852928, name=苹果QQ333区), GoodsServerSimpleDTO(id=1520565305852927, name=苹果QQ332区), GoodsServerSimpleDTO(id=1520565305852926, name=苹果QQ331区), GoodsServerSimpleDTO(id=1520565305851925, name=苹果QQ330区), GoodsServerSimpleDTO(id=1520565305851924, name=苹果QQ329区), GoodsServerSimpleDTO(id=1520565305851919, name=苹果QQ328区), GoodsServerSimpleDTO(id=1520565305851917, name=苹果QQ327区), GoodsServerSimpleDTO(id=1520565305851915, name=苹果QQ326区), GoodsServerSimpleDTO(id=1520565305851912, name=苹果QQ325区), GoodsServerSimpleDTO(id=1520565305851910, name=苹果QQ324区), GoodsServerSimpleDTO(id=1520565305850909, name=苹果QQ323区), GoodsServerSimpleDTO(id=1520565305850907, name=苹果QQ322区), GoodsServerSimpleDTO(id=1520565305850903, name=苹果QQ321区), GoodsServerSimpleDTO(id=1520565305850901, name=苹果QQ320区), GoodsServerSimpleDTO(id=1520565305850900, name=苹果QQ319区), GoodsServerSimpleDTO(id=1520565305850898, name=苹果QQ318区), GoodsServerSimpleDTO(id=1520565305849893, name=苹果QQ317区), GoodsServerSimpleDTO(id=1520565305849892, name=苹果QQ316区), GoodsServerSimpleDTO(id=1520565305849890, name=苹果QQ315区), GoodsServerSimpleDTO(id=1520565305849888, name=苹果QQ314区), GoodsServerSimpleDTO(id=1520565305849887, name=苹果QQ313区), GoodsServerSimpleDTO(id=1520565305849885, name=苹果QQ312区), GoodsServerSimpleDTO(id=1520565305849884, name=苹果QQ311区), GoodsServerSimpleDTO(id=1520565305848880, name=苹果QQ310区), GoodsServerSimpleDTO(id=1520565305848877, name=苹果QQ309区), GoodsServerSimpleDTO(id=1520565305848876, name=苹果QQ308区), GoodsServerSimpleDTO(id=1520565305848875, name=苹果QQ307区), GoodsServerSimpleDTO(id=1520565305848873, name=苹果QQ306区), GoodsServerSimpleDTO(id=1520565305848872, name=苹果QQ305区), GoodsServerSimpleDTO(id=1520565305847868, name=苹果QQ304区), GoodsServerSimpleDTO(id=1520565305847867, name=苹果QQ303区), GoodsServerSimpleDTO(id=1520565305847866, name=苹果QQ302区), GoodsServerSimpleDTO(id=1520565305847865, name=苹果QQ301区), GoodsServerSimpleDTO(id=1520564679426026, name=手Q全服通用), GoodsServerSimpleDTO(id=1517377426627295, name=苹果QQ300区), GoodsServerSimpleDTO(id=1517377426627294, name=苹果QQ299区), GoodsServerSimpleDTO(id=1517377426627292, name=苹果QQ298区), GoodsServerSimpleDTO(id=1517377426627291, name=苹果QQ297区), GoodsServerSimpleDTO(id=1517377426627289, name=苹果QQ296区), GoodsServerSimpleDTO(id=1517377426626288, name=苹果QQ295区), GoodsServerSimpleDTO(id=1517377426626286, name=苹果QQ294区), GoodsServerSimpleDTO(id=1517377426626285, name=苹果QQ293区), GoodsServerSimpleDTO(id=1517377426626282, name=苹果QQ292区), GoodsServerSimpleDTO(id=1517377426626280, name=苹果QQ291区), GoodsServerSimpleDTO(id=1517377426626279, name=苹果QQ290区), GoodsServerSimpleDTO(id=1517377426625277, name=苹果QQ289区), GoodsServerSimpleDTO(id=1517377426625276, name=苹果QQ288区), GoodsServerSimpleDTO(id=1517377426625275, name=苹果QQ287区), GoodsServerSimpleDTO(id=1517377426625274, name=苹果QQ286区), GoodsServerSimpleDTO(id=1517377426625273, name=苹果QQ285区), GoodsServerSimpleDTO(id=1517377426625270, name=苹果QQ284区), GoodsServerSimpleDTO(id=1517377426624267, name=苹果QQ283区), GoodsServerSimpleDTO(id=1517377426624261, name=苹果QQ282区), GoodsServerSimpleDTO(id=1517377426624259, name=苹果QQ281区), GoodsServerSimpleDTO(id=1517377426623258, name=苹果QQ280区), GoodsServerSimpleDTO(id=1517377426623257, name=苹果QQ279区), GoodsServerSimpleDTO(id=1517377426623256, name=苹果QQ278区), GoodsServerSimpleDTO(id=1517377426623255, name=苹果QQ277区), GoodsServerSimpleDTO(id=1517377426623253, name=苹果QQ276区), GoodsServerSimpleDTO(id=1517377426623250, name=苹果QQ275区), GoodsServerSimpleDTO(id=1517377426622249, name=苹果QQ274区), GoodsServerSimpleDTO(id=1517377426622246, name=苹果QQ273区), GoodsServerSimpleDTO(id=1517377426622245, name=苹果QQ272区), GoodsServerSimpleDTO(id=1517377426622244, name=苹果QQ271区), GoodsServerSimpleDTO(id=1517377426622241, name=苹果QQ270区), GoodsServerSimpleDTO(id=1517377426622239, name=苹果QQ269区), GoodsServerSimpleDTO(id=1517377426621238, name=苹果QQ268区), GoodsServerSimpleDTO(id=1517377426621237, name=苹果QQ267区), GoodsServerSimpleDTO(id=1517377426621236, name=苹果QQ266区), GoodsServerSimpleDTO(id=1517377426621234, name=苹果QQ265区), GoodsServerSimpleDTO(id=1517377426621230, name=苹果QQ264区), GoodsServerSimpleDTO(id=1517377426620224, name=苹果QQ263区), GoodsServerSimpleDTO(id=1517377426620223, name=苹果QQ262区), GoodsServerSimpleDTO(id=1517377426620222, name=苹果QQ261区), GoodsServerSimpleDTO(id=1517377426620221, name=苹果QQ260区), GoodsServerSimpleDTO(id=1517377426620219, name=苹果QQ259区), GoodsServerSimpleDTO(id=1517377426620216, name=苹果QQ258区), GoodsServerSimpleDTO(id=1517377426619214, name=苹果QQ257区), GoodsServerSimpleDTO(id=1517377426619213, name=苹果QQ256区), GoodsServerSimpleDTO(id=1517377426619211, name=苹果QQ255区), GoodsServerSimpleDTO(id=1517377426619209, name=苹果QQ254区), GoodsServerSimpleDTO(id=1517377426619206, name=苹果QQ253区), GoodsServerSimpleDTO(id=1517377426619205, name=苹果QQ252区), GoodsServerSimpleDTO(id=1517377426618202, name=苹果QQ251区), GoodsServerSimpleDTO(id=1517377383212286, name=苹果QQ250区), GoodsServerSimpleDTO(id=1517377383212281, name=苹果QQ249区), GoodsServerSimpleDTO(id=1517377383212280, name=苹果QQ248区), GoodsServerSimpleDTO(id=1517377383212279, name=苹果QQ247区), GoodsServerSimpleDTO(id=1517377383212278, name=苹果QQ246区), GoodsServerSimpleDTO(id=1517377383212275, name=苹果QQ245区), GoodsServerSimpleDTO(id=1517377383211273, name=苹果QQ244区), GoodsServerSimpleDTO(id=1517377383211272, name=苹果QQ243区), GoodsServerSimpleDTO(id=1517377383211269, name=苹果QQ242区), GoodsServerSimpleDTO(id=1517377383211268, name=苹果QQ241区), GoodsServerSimpleDTO(id=1517377383211266, name=苹果QQ240区), GoodsServerSimpleDTO(id=1517377383211262, name=苹果QQ239区), GoodsServerSimpleDTO(id=1517377383211261, name=苹果QQ238区), GoodsServerSimpleDTO(id=1517377383211259, name=苹果QQ237区), GoodsServerSimpleDTO(id=1517377383211257, name=苹果QQ236区), GoodsServerSimpleDTO(id=1517377383210256, name=苹果QQ235区), GoodsServerSimpleDTO(id=1517377383210254, name=苹果QQ234区), GoodsServerSimpleDTO(id=1517377383210251, name=苹果QQ233区), GoodsServerSimpleDTO(id=1517377383210250, name=苹果QQ232区), GoodsServerSimpleDTO(id=1517377383210249, name=苹果QQ231区), GoodsServerSimpleDTO(id=1517377383210248, name=苹果QQ230区), GoodsServerSimpleDTO(id=1517377383210247, name=苹果QQ229区), GoodsServerSimpleDTO(id=1517377383210245, name=苹果QQ228区), GoodsServerSimpleDTO(id=1517377383210244, name=苹果QQ227区), GoodsServerSimpleDTO(id=1517377383210243, name=苹果QQ226区), GoodsServerSimpleDTO(id=1517377383209240, name=苹果QQ225区), GoodsServerSimpleDTO(id=1517377383209236, name=苹果QQ224区), GoodsServerSimpleDTO(id=1517377383209234, name=苹果QQ223区), GoodsServerSimpleDTO(id=1517377383209232, name=苹果QQ222区), GoodsServerSimpleDTO(id=1517377383209230, name=苹果QQ221区), GoodsServerSimpleDTO(id=1517377383209228, name=苹果QQ220区), GoodsServerSimpleDTO(id=1517377383209226, name=苹果QQ219区), GoodsServerSimpleDTO(id=1517377383209225, name=苹果QQ218区), GoodsServerSimpleDTO(id=1517377383209224, name=苹果QQ217区), GoodsServerSimpleDTO(id=1517377383208223, name=苹果QQ216区), GoodsServerSimpleDTO(id=1517377383208222, name=苹果QQ215区), GoodsServerSimpleDTO(id=1517377383208220, name=苹果QQ214区), GoodsServerSimpleDTO(id=1517377383208217, name=苹果QQ213区), GoodsServerSimpleDTO(id=1517377383208215, name=苹果QQ212区), GoodsServerSimpleDTO(id=1517377383208214, name=苹果QQ211区), GoodsServerSimpleDTO(id=1517377383208211, name=苹果QQ210区), GoodsServerSimpleDTO(id=1517377383208210, name=苹果QQ209区), GoodsServerSimpleDTO(id=1517377383208209, name=苹果QQ208区), GoodsServerSimpleDTO(id=1517377383208208, name=苹果QQ207区), GoodsServerSimpleDTO(id=1517377383207205, name=苹果QQ206区), GoodsServerSimpleDTO(id=1517377383207203, name=苹果QQ205区), GoodsServerSimpleDTO(id=1517377383207201, name=苹果QQ204区), GoodsServerSimpleDTO(id=1517377383207200, name=苹果QQ203区), GoodsServerSimpleDTO(id=1517377383207197, name=苹果QQ202区), GoodsServerSimpleDTO(id=1517377383207195, name=苹果QQ201区), GoodsServerSimpleDTO(id=1513927335090886, name=苹果QQ200区), GoodsServerSimpleDTO(id=1513927335090885, name=苹果QQ199区), GoodsServerSimpleDTO(id=1513927335090884, name=苹果QQ198区), GoodsServerSimpleDTO(id=1513927335090882, name=苹果QQ197区), GoodsServerSimpleDTO(id=1513927335090881, name=苹果QQ196区), GoodsServerSimpleDTO(id=1513927335090880, name=苹果QQ195区), GoodsServerSimpleDTO(id=1513927335090879, name=苹果QQ194区), GoodsServerSimpleDTO(id=1513927335090877, name=苹果QQ193区), GoodsServerSimpleDTO(id=1513927335090874, name=苹果QQ192区), GoodsServerSimpleDTO(id=1513927335090872, name=苹果QQ191区), GoodsServerSimpleDTO(id=1513927335089871, name=苹果QQ190区), GoodsServerSimpleDTO(id=1513927335089870, name=苹果QQ189区), GoodsServerSimpleDTO(id=1513927335089869, name=苹果QQ188区), GoodsServerSimpleDTO(id=1513927335089868, name=苹果QQ187区), GoodsServerSimpleDTO(id=1513927335089867, name=苹果QQ186区), GoodsServerSimpleDTO(id=1513927335089866, name=苹果QQ185区), GoodsServerSimpleDTO(id=1513927335089864, name=苹果QQ184区), GoodsServerSimpleDTO(id=1513927335089862, name=苹果QQ183区), GoodsServerSimpleDTO(id=1513927335089860, name=苹果QQ182区), GoodsServerSimpleDTO(id=1513927335089858, name=苹果QQ181区), GoodsServerSimpleDTO(id=1513927335088857, name=苹果QQ180区), GoodsServerSimpleDTO(id=1513927335088856, name=苹果QQ179区), GoodsServerSimpleDTO(id=1513927335088855, name=苹果QQ178区), GoodsServerSimpleDTO(id=1513927335088854, name=苹果QQ177区), GoodsServerSimpleDTO(id=1513927335088853, name=苹果QQ176区), GoodsServerSimpleDTO(id=1513927335088851, name=苹果QQ175区), GoodsServerSimpleDTO(id=1513927335088850, name=苹果QQ174区), GoodsServerSimpleDTO(id=1513927335088849, name=苹果QQ173区), GoodsServerSimpleDTO(id=1513927335088847, name=苹果QQ172区), GoodsServerSimpleDTO(id=1513927335087845, name=苹果QQ171区), GoodsServerSimpleDTO(id=1513927335087843, name=苹果QQ170区), GoodsServerSimpleDTO(id=1513927335087840, name=苹果QQ169区), GoodsServerSimpleDTO(id=1513927335087837, name=苹果QQ168区), GoodsServerSimpleDTO(id=1513927335087836, name=苹果QQ167区), GoodsServerSimpleDTO(id=1513927335087835, name=苹果QQ166区), GoodsServerSimpleDTO(id=1513927335087834, name=苹果QQ165区), GoodsServerSimpleDTO(id=1513927335087833, name=苹果QQ164区), GoodsServerSimpleDTO(id=1513927335087832, name=苹果QQ163区), GoodsServerSimpleDTO(id=1513927335086830, name=苹果QQ162区), GoodsServerSimpleDTO(id=1513927335086828, name=苹果QQ161区), GoodsServerSimpleDTO(id=1513927335086827, name=苹果QQ160区), GoodsServerSimpleDTO(id=1513927335086826, name=苹果QQ159区), GoodsServerSimpleDTO(id=1513927335086825, name=苹果QQ158区), GoodsServerSimpleDTO(id=1513927335086824, name=苹果QQ157区), GoodsServerSimpleDTO(id=1513927335086823, name=苹果QQ156区), GoodsServerSimpleDTO(id=1513927335086822, name=苹果QQ155区), GoodsServerSimpleDTO(id=1513927335086821, name=苹果QQ154区), GoodsServerSimpleDTO(id=1513927335086820, name=苹果QQ153区), GoodsServerSimpleDTO(id=1513927335085819, name=苹果QQ152区), GoodsServerSimpleDTO(id=1513927335085818, name=苹果QQ151区), GoodsServerSimpleDTO(id=1513927318881507, name=苹果QQ150区), GoodsServerSimpleDTO(id=1513927318880506, name=苹果QQ149区), GoodsServerSimpleDTO(id=1513927318880505, name=苹果QQ148区), GoodsServerSimpleDTO(id=1513927318880504, name=苹果QQ147区), GoodsServerSimpleDTO(id=1513927318880503, name=苹果QQ146区), GoodsServerSimpleDTO(id=1513927318880502, name=苹果QQ145区), GoodsServerSimpleDTO(id=1513927318880501, name=苹果QQ144区), GoodsServerSimpleDTO(id=1513927318880499, name=苹果QQ143区), GoodsServerSimpleDTO(id=1513927318879496, name=苹果QQ142区), GoodsServerSimpleDTO(id=1513927318879493, name=苹果QQ141区), GoodsServerSimpleDTO(id=1513927318879490, name=苹果QQ140区), GoodsServerSimpleDTO(id=1513927318879489, name=苹果QQ139区), GoodsServerSimpleDTO(id=1513927318879488, name=苹果QQ138区), GoodsServerSimpleDTO(id=1513927318879487, name=苹果QQ137区), GoodsServerSimpleDTO(id=1513927318879486, name=苹果QQ136区), GoodsServerSimpleDTO(id=1513927318878485, name=苹果QQ135区), GoodsServerSimpleDTO(id=1513927318878484, name=苹果QQ134区), GoodsServerSimpleDTO(id=1513927318878481, name=苹果QQ133区), GoodsServerSimpleDTO(id=1513927318878479, name=苹果QQ132区), GoodsServerSimpleDTO(id=1513927318878476, name=苹果QQ131区), GoodsServerSimpleDTO(id=1513927318878475, name=苹果QQ130区), GoodsServerSimpleDTO(id=1513927318878474, name=苹果QQ129区), GoodsServerSimpleDTO(id=1513927318877472, name=苹果QQ128区), GoodsServerSimpleDTO(id=1513927318877468, name=苹果QQ127区), GoodsServerSimpleDTO(id=1513927318877466, name=苹果QQ126区), GoodsServerSimpleDTO(id=1513927318877465, name=苹果QQ125区), GoodsServerSimpleDTO(id=1513927318877464, name=苹果QQ124区), GoodsServerSimpleDTO(id=1513927318877463, name=苹果QQ123区), GoodsServerSimpleDTO(id=1513927318877462, name=苹果QQ122区), GoodsServerSimpleDTO(id=1513927318877461, name=苹果QQ121区), GoodsServerSimpleDTO(id=1513927318876460, name=苹果QQ120区), GoodsServerSimpleDTO(id=1513927318876459, name=苹果QQ119区), GoodsServerSimpleDTO(id=1513927318876458, name=苹果QQ118区), GoodsServerSimpleDTO(id=1513927318876457, name=苹果QQ117区), GoodsServerSimpleDTO(id=1513927318876456, name=苹果QQ116区), GoodsServerSimpleDTO(id=1513927318876454, name=苹果QQ115区), GoodsServerSimpleDTO(id=1513927318876452, name=苹果QQ114区), GoodsServerSimpleDTO(id=1513927318876451, name=苹果QQ113区), GoodsServerSimpleDTO(id=1513927318875450, name=苹果QQ112区), GoodsServerSimpleDTO(id=1513927318875449, name=苹果QQ111区), GoodsServerSimpleDTO(id=1513927318875447, name=苹果QQ110区), GoodsServerSimpleDTO(id=1513927318875444, name=苹果QQ109区), GoodsServerSimpleDTO(id=1513927318875443, name=苹果QQ108区), GoodsServerSimpleDTO(id=1513927318875441, name=苹果QQ107区), GoodsServerSimpleDTO(id=1513927318875439, name=苹果QQ106区), GoodsServerSimpleDTO(id=1513927318874438, name=苹果QQ105区), GoodsServerSimpleDTO(id=1513927318874437, name=苹果QQ104区), GoodsServerSimpleDTO(id=1513927318874436, name=苹果QQ103区), GoodsServerSimpleDTO(id=1513927318874435, name=苹果QQ102区), GoodsServerSimpleDTO(id=1513927318874434, name=苹果QQ101区), GoodsServerSimpleDTO(id=1510736613738838, name=苹果QQ100区), GoodsServerSimpleDTO(id=1510736613738837, name=苹果QQ99区), GoodsServerSimpleDTO(id=1510736613738836, name=苹果QQ98区), GoodsServerSimpleDTO(id=1510736613738835, name=苹果QQ97区), GoodsServerSimpleDTO(id=1510736613738834, name=苹果QQ96区), GoodsServerSimpleDTO(id=1510736613738833, name=苹果QQ95区), GoodsServerSimpleDTO(id=1510736613738830, name=苹果QQ94区), GoodsServerSimpleDTO(id=1510736613738829, name=苹果QQ93区), GoodsServerSimpleDTO(id=1510736613738828, name=苹果QQ92区), GoodsServerSimpleDTO(id=1510736613737824, name=苹果QQ91区), GoodsServerSimpleDTO(id=1510736613737823, name=苹果QQ90区), GoodsServerSimpleDTO(id=1510736613737822, name=苹果QQ89区), GoodsServerSimpleDTO(id=1510736613737821, name=苹果QQ88区), GoodsServerSimpleDTO(id=1510736613737820, name=苹果QQ87区), GoodsServerSimpleDTO(id=1510736613737819, name=苹果QQ86区), GoodsServerSimpleDTO(id=1510736613737818, name=苹果QQ85区), GoodsServerSimpleDTO(id=1510736613737816, name=苹果QQ84区), GoodsServerSimpleDTO(id=1510736613737815, name=苹果QQ83区), GoodsServerSimpleDTO(id=1510736613736812, name=苹果QQ82区), GoodsServerSimpleDTO(id=1510736613736810, name=苹果QQ81区), GoodsServerSimpleDTO(id=1498479938500400, name=59区), GoodsServerSimpleDTO(id=1498479938499399, name=58区), GoodsServerSimpleDTO(id=1498479938499398, name=57区), GoodsServerSimpleDTO(id=1498479938499396, name=56区), GoodsServerSimpleDTO(id=1498479938499395, name=55区), GoodsServerSimpleDTO(id=1498479938499394, name=54区), GoodsServerSimpleDTO(id=1498479938499393, name=53区), GoodsServerSimpleDTO(id=1498479938499392, name=52区), GoodsServerSimpleDTO(id=1498479938499391, name=51区), GoodsServerSimpleDTO(id=1498479881164324, name=苹果QQ80区), GoodsServerSimpleDTO(id=1498479881164323, name=苹果QQ79区), GoodsServerSimpleDTO(id=1498479881164322, name=苹果QQ78区), GoodsServerSimpleDTO(id=1498479881164321, name=苹果QQ77区), GoodsServerSimpleDTO(id=1498479881164319, name=苹果QQ76区), GoodsServerSimpleDTO(id=1498479881164318, name=苹果QQ75区), GoodsServerSimpleDTO(id=1498479881164317, name=苹果QQ74区), GoodsServerSimpleDTO(id=1498479881164315, name=苹果QQ73区), GoodsServerSimpleDTO(id=1498479881163314, name=苹果QQ72区), GoodsServerSimpleDTO(id=1498479881163313, name=苹果QQ71区), GoodsServerSimpleDTO(id=1498479881163312, name=苹果QQ70区), GoodsServerSimpleDTO(id=1498479881163310, name=苹果QQ69区), GoodsServerSimpleDTO(id=1498479881163309, name=苹果QQ68区), GoodsServerSimpleDTO(id=1498479881163308, name=苹果QQ67区), GoodsServerSimpleDTO(id=1498479881163306, name=苹果QQ66区), GoodsServerSimpleDTO(id=1498479881162304, name=苹果QQ65区), GoodsServerSimpleDTO(id=1498479881162302, name=苹果QQ64区), GoodsServerSimpleDTO(id=1498479881162299, name=苹果QQ63区), GoodsServerSimpleDTO(id=1498479881162298, name=苹果QQ62区), GoodsServerSimpleDTO(id=1498479881162297, name=苹果QQ61区), GoodsServerSimpleDTO(id=1498479881161294, name=苹果QQ60区), GoodsServerSimpleDTO(id=817861, name=苹果QQ59区), GoodsServerSimpleDTO(id=817860, name=苹果QQ58区), GoodsServerSimpleDTO(id=817859, name=苹果QQ57区), GoodsServerSimpleDTO(id=817858, name=苹果QQ56区), GoodsServerSimpleDTO(id=817857, name=苹果QQ55区), GoodsServerSimpleDTO(id=817856, name=苹果QQ54区), GoodsServerSimpleDTO(id=817855, name=苹果QQ53区), GoodsServerSimpleDTO(id=817854, name=苹果QQ52区), GoodsServerSimpleDTO(id=817853, name=苹果QQ51区), GoodsServerSimpleDTO(id=817852, name=苹果QQ50区), GoodsServerSimpleDTO(id=817851, name=苹果QQ49区), GoodsServerSimpleDTO(id=817850, name=苹果QQ48区), GoodsServerSimpleDTO(id=817849, name=苹果QQ47区), GoodsServerSimpleDTO(id=817848, name=苹果QQ46区), GoodsServerSimpleDTO(id=817847, name=苹果QQ45区), GoodsServerSimpleDTO(id=817846, name=苹果QQ44区), GoodsServerSimpleDTO(id=817845, name=苹果QQ43区), GoodsServerSimpleDTO(id=817844, name=苹果QQ42区), GoodsServerSimpleDTO(id=817843, name=苹果QQ41区), GoodsServerSimpleDTO(id=817842, name=苹果QQ40区), GoodsServerSimpleDTO(id=817841, name=苹果QQ39区), GoodsServerSimpleDTO(id=817840, name=苹果QQ38区), GoodsServerSimpleDTO(id=817839, name=苹果QQ37区), GoodsServerSimpleDTO(id=817838, name=苹果QQ36区), GoodsServerSimpleDTO(id=817837, name=苹果QQ35区), GoodsServerSimpleDTO(id=817836, name=苹果QQ34区), GoodsServerSimpleDTO(id=817835, name=苹果QQ33区), GoodsServerSimpleDTO(id=817834, name=苹果QQ32区), GoodsServerSimpleDTO(id=718033, name=苹果QQ30区), GoodsServerSimpleDTO(id=817833, name=苹果QQ31区), GoodsServerSimpleDTO(id=718032, name=苹果QQ29区), GoodsServerSimpleDTO(id=718031, name=苹果QQ28区), GoodsServerSimpleDTO(id=718030, name=苹果QQ27区), GoodsServerSimpleDTO(id=718029, name=苹果QQ26区), GoodsServerSimpleDTO(id=718028, name=苹果QQ25区), GoodsServerSimpleDTO(id=718027, name=苹果QQ24区), GoodsServerSimpleDTO(id=718026, name=苹果QQ23区), GoodsServerSimpleDTO(id=718025, name=苹果QQ22区), GoodsServerSimpleDTO(id=718024, name=苹果QQ21区), GoodsServerSimpleDTO(id=718023, name=苹果QQ20区), GoodsServerSimpleDTO(id=718022, name=苹果QQ19区), GoodsServerSimpleDTO(id=718021, name=苹果QQ18区), GoodsServerSimpleDTO(id=718020, name=苹果QQ17区), GoodsServerSimpleDTO(id=718019, name=苹果QQ16区), GoodsServerSimpleDTO(id=718018, name=苹果QQ15区), GoodsServerSimpleDTO(id=718017, name=苹果QQ14区), GoodsServerSimpleDTO(id=718016, name=苹果QQ13区), GoodsServerSimpleDTO(id=718015, name=苹果QQ12区), GoodsServerSimpleDTO(id=718014, name=苹果QQ11区), GoodsServerSimpleDTO(id=718013, name=苹果QQ10区), GoodsServerSimpleDTO(id=718012, name=苹果QQ9区), GoodsServerSimpleDTO(id=718011, name=苹果QQ8区), GoodsServerSimpleDTO(id=718010, name=苹果QQ7区), GoodsServerSimpleDTO(id=718009, name=苹果QQ6区), GoodsServerSimpleDTO(id=718008, name=苹果QQ5区), GoodsServerSimpleDTO(id=718007, name=苹果QQ4区), GoodsServerSimpleDTO(id=718006, name=苹果QQ3区), GoodsServerSimpleDTO(id=718005, name=苹果QQ2区), GoodsServerSimpleDTO(id=718004, name=苹果QQ1区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1580902730218531, 1580896125355665]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1580902730218531, name=通用服务器), GoodsServerSimpleDTO(id=1580896125355665, name=新区预售)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1642583287483026</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1580902730218531</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1642583633272220</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1642579782516108</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1470047035887265</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原神（优质卖家）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>王者荣耀（优质卖家）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>和平精英</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1645695979530442</t>
@@ -710,30 +710,30 @@
   </si>
   <si>
     <t>1645695786823202</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1645695622670122</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1006473</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1645695907124136</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[1535364178344308]</t>
   </si>
   <si>
     <t>1645695979530442</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1539844295575679, name=苹果微信专区)]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,7 +749,7 @@
       </rPr>
       <t>itle</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -765,15 +765,15 @@
       </rPr>
       <t>equired</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>visible</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -789,38 +789,38 @@
       </rPr>
       <t>in</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>max</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
     <t>storage</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>format</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>^[0-9]\\d*$</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>image</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>keyProperties</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -836,7 +836,7 @@
       </rPr>
       <t>ameClient</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -863,7 +863,7 @@
       </rPr>
       <t>端</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -880,15 +880,15 @@
       </rPr>
       <t>戏</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>game</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>gameServer</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -915,19 +915,19 @@
       </rPr>
       <t>器</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>extProperties</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>propertyName</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583287497040</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -965,25 +965,25 @@
       </rPr>
       <t>阶</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>contentType</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -999,7 +999,7 @@
       </rPr>
       <t>ropertyContentType</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1025,7 +1025,7 @@
       </rPr>
       <t>15</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1051,53 +1051,53 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>len5</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>placeholder</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>propertyGrade</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>categoryAttrType</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>propertyId</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>tagcode</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>sys_auto_complete</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583287506046</t>
   </si>
   <si>
     <t>1642583287506046</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>五星角色</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1113,37 +1113,37 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>opthions.id</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>opthions.attrId</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>opthions.name</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>opthions.value</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1645597046631544</t>
@@ -1515,18 +1515,18 @@
       </rPr>
       <t>200</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583287574139</t>
   </si>
   <si>
     <t>1642583287574139</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>五星武器</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1644890755462117</t>
@@ -2075,7 +2075,7 @@
   </si>
   <si>
     <t>1642583287658252</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2120,7 +2120,7 @@
       </rPr>
       <t>定</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2136,7 +2136,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2152,7 +2152,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2168,11 +2168,11 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>saft_attr</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583287662255</t>
@@ -2302,7 +2302,7 @@
       </rPr>
       <t>ame1</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2318,14 +2318,14 @@
       </rPr>
       <t>ame2</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583287692288</t>
   </si>
   <si>
     <t>1642583287692288</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2342,7 +2342,7 @@
       </rPr>
       <t>线</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2358,7 +2358,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583287695291</t>
@@ -2417,7 +2417,7 @@
   </si>
   <si>
     <t>sellerAccountProperties</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583287494038</t>
@@ -2747,7 +2747,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2763,7 +2763,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2779,31 +2779,31 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>len11</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>^1[3|4|5|6|7|8|9][0-9]\\d{8}$</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>mobile</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>addlService</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>bargain</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>len10</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2848,15 +2848,15 @@
       </rPr>
       <t>定</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2873,27 +2873,27 @@
       </rPr>
       <t>线</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>len200</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583177647207</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583177661225</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1645597022181111</t>
@@ -2969,7 +2969,7 @@
   </si>
   <si>
     <t>1642583177747353</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1644890717788307</t>
@@ -3063,7 +3063,7 @@
   </si>
   <si>
     <t>1642583177855483</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583177858487</t>
@@ -3088,7 +3088,7 @@
   </si>
   <si>
     <t>1642583177892531</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583177896534</t>
@@ -3152,22 +3152,22 @@
   </si>
   <si>
     <t>1642583633272220</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583217552236</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583217571262</t>
   </si>
   <si>
     <t>1642583217571262</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1645597011052300</t>
@@ -3243,7 +3243,7 @@
   </si>
   <si>
     <t>1642583217657360</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1644890701945043</t>
@@ -3337,7 +3337,7 @@
   </si>
   <si>
     <t>1642583217768016</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583217772022</t>
@@ -3362,7 +3362,7 @@
   </si>
   <si>
     <t>1642583217811076</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583217815078</t>
@@ -3498,14 +3498,14 @@
   </si>
   <si>
     <t>1642583633292243</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583633307257</t>
   </si>
   <si>
     <t>1642583633307257</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1645597077501546</t>
@@ -3581,7 +3581,7 @@
   </si>
   <si>
     <t>1642583633378358</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1644890812478155</t>
@@ -3675,7 +3675,7 @@
   </si>
   <si>
     <t>1642583633480503</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583633488507</t>
@@ -3700,7 +3700,7 @@
   </si>
   <si>
     <t>1642583633522551</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1642583633526559</t>
@@ -3770,31 +3770,31 @@
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batch.modifyprice</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batch.onsale</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batchtask.query</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.detail.query</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.status.batch.query</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batch.offsale</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batch.publish</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3816,12 +3816,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>核</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3843,24 +3843,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>核</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>已上架</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>您⾃⼰操作下架</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>超出商品有效期</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3898,7 +3898,7 @@
       </rPr>
       <t>毕</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3936,7 +3936,7 @@
       </rPr>
       <t>过</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3963,7 +3963,7 @@
       </rPr>
       <t>核下架</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3990,7 +3990,7 @@
       </rPr>
       <t>停交易</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4017,11 +4017,11 @@
       </rPr>
       <t>布撤回</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>待提交</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4048,7 +4048,7 @@
       </rPr>
       <t>除</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4104,7 +4104,7 @@
       </rPr>
       <t>过</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4126,7 +4126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>全信息超</t>
@@ -4147,13 +4147,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>下
 架</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4175,13 +4175,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>全信息不完
 整下架</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4208,19 +4208,268 @@
       </rPr>
       <t>全</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>交易猫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>商品属性</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>冒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>五星武器</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>五星角色</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>商家在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>全天在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>密保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>箱</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家属性</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>随机数</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4508,7 +4757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4518,64 +4767,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -4584,62 +4830,47 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4650,19 +4881,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6216,10 +6468,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -6251,8 +6503,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6282,8 +6534,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6315,8 +6567,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
@@ -6346,10 +6598,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -6381,8 +6633,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6412,8 +6664,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6445,8 +6697,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -6476,10 +6728,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6511,8 +6763,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -6542,8 +6794,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6575,8 +6827,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -6606,10 +6858,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6641,8 +6893,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -6672,8 +6924,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -6705,8 +6957,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
@@ -6809,7 +7061,7 @@
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="38" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6844,7 +7096,7 @@
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -6877,7 +7129,7 @@
       <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
@@ -6910,7 +7162,7 @@
       <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="9" t="s">
         <v>77</v>
       </c>
@@ -6943,7 +7195,7 @@
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
@@ -6976,7 +7228,7 @@
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
@@ -7006,10 +7258,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
@@ -7041,8 +7293,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="43"/>
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -7072,8 +7324,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -7102,8 +7354,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -7133,7 +7385,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="44" t="s">
         <v>113</v>
       </c>
       <c r="B30" t="s">
@@ -7168,7 +7420,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="43"/>
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -7236,10 +7488,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.1" hidden="1">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="47" t="s">
         <v>151</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -7271,8 +7523,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.1" hidden="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="10" t="s">
         <v>142</v>
       </c>
@@ -7302,8 +7554,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.1" hidden="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -7335,8 +7587,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.1" hidden="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="10" t="s">
         <v>144</v>
       </c>
@@ -7369,7 +7621,7 @@
       <c r="A37" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -7404,7 +7656,7 @@
       <c r="A38" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="12" t="s">
         <v>147</v>
       </c>
@@ -7437,7 +7689,7 @@
       <c r="A39" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
@@ -7470,7 +7722,7 @@
       <c r="A40" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -7505,13 +7757,13 @@
       <c r="A41" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="43"/>
+      <c r="B41" s="51"/>
     </row>
     <row r="42" spans="1:11" ht="14.1" hidden="1">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="42" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -7543,8 +7795,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.1" hidden="1">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="13" t="s">
         <v>142</v>
       </c>
@@ -7574,8 +7826,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.1" hidden="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -7607,8 +7859,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.1" hidden="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="13" t="s">
         <v>142</v>
       </c>
@@ -7646,19 +7898,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
@@ -7671,8 +7910,21 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7760,7 +8012,7 @@
       <c r="Q1" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="36" t="s">
         <v>229</v>
       </c>
       <c r="S1" s="32" t="s">
@@ -11285,7 +11537,7 @@
       </c>
     </row>
     <row r="76" spans="2:21">
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="34" t="s">
         <v>391</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -11705,7 +11957,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U68" xr:uid="{C0314255-BA1E-415D-9135-CBCAB74AFBC7}"/>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15738,7 +15990,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U68" xr:uid="{C0314255-BA1E-415D-9135-CBCAB74AFBC7}"/>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15750,9 +16002,9 @@
   </sheetPr>
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" outlineLevelCol="1"/>
@@ -19835,7 +20087,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U68" xr:uid="{C0314255-BA1E-415D-9135-CBCAB74AFBC7}"/>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19844,9 +20096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656AC8D2-3DC2-4042-BC7B-2C2328C97D54}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" outlineLevelCol="1"/>
@@ -19856,14 +20108,13 @@
     <col min="3" max="3" width="18.15625" style="19" customWidth="1"/>
     <col min="4" max="4" width="16.1015625" style="19" customWidth="1"/>
     <col min="5" max="5" width="8.15625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="7.3125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="7.41796875" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="12.26171875" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="7.9453125" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="0" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="8.83984375" style="19" collapsed="1"/>
-    <col min="13" max="17" width="8.83984375" style="19"/>
+    <col min="6" max="6" width="6.68359375" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.3125" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7.41796875" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.26171875" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="7.9453125" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.83984375" style="19" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="17" width="8.83984375" style="19"/>
     <col min="18" max="19" width="17.3125" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.83984375" style="19"/>
   </cols>
@@ -23811,54 +24062,189 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U68" xr:uid="{C0314255-BA1E-415D-9135-CBCAB74AFBC7}"/>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0176187F-DC31-4CF0-B866-A70992D73C90}">
-  <dimension ref="F1:T85"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9"/>
+  <cols>
+    <col min="5" max="5" width="12.05078125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="6:11">
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="35" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="6:11">
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="35" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="3" spans="6:11">
-      <c r="F3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="F3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="4" spans="6:11">
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="35" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="18" spans="11:11">
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="35" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
-      <c r="K33" s="49" t="s">
+    <row r="33" spans="1:11">
+      <c r="K33" s="35" t="s">
         <v>713</v>
       </c>
     </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="52" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="52" t="s">
+        <v>734</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>735</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>737</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>736</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>738</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>739</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E46">
+        <v>18104118882</v>
+      </c>
+    </row>
     <row r="53" spans="11:11">
-      <c r="K53" s="49" t="s">
+      <c r="K53" s="35" t="s">
         <v>714</v>
       </c>
     </row>
@@ -23866,7 +24252,7 @@
       <c r="S70">
         <v>1</v>
       </c>
-      <c r="T70" s="49" t="s">
+      <c r="T70" s="35" t="s">
         <v>717</v>
       </c>
     </row>
@@ -23874,7 +24260,7 @@
       <c r="S71">
         <v>2</v>
       </c>
-      <c r="T71" s="49" t="s">
+      <c r="T71" s="35" t="s">
         <v>718</v>
       </c>
     </row>
@@ -23882,7 +24268,7 @@
       <c r="S72">
         <v>3</v>
       </c>
-      <c r="T72" s="49" t="s">
+      <c r="T72" s="35" t="s">
         <v>719</v>
       </c>
     </row>
@@ -23890,7 +24276,7 @@
       <c r="S73">
         <v>4</v>
       </c>
-      <c r="T73" s="49" t="s">
+      <c r="T73" s="35" t="s">
         <v>720</v>
       </c>
     </row>
@@ -23898,7 +24284,7 @@
       <c r="S74">
         <v>5</v>
       </c>
-      <c r="T74" s="49" t="s">
+      <c r="T74" s="35" t="s">
         <v>721</v>
       </c>
     </row>
@@ -23906,7 +24292,7 @@
       <c r="S75">
         <v>6</v>
       </c>
-      <c r="T75" s="49" t="s">
+      <c r="T75" s="35" t="s">
         <v>722</v>
       </c>
     </row>
@@ -23914,7 +24300,7 @@
       <c r="S76">
         <v>7</v>
       </c>
-      <c r="T76" s="49" t="s">
+      <c r="T76" s="35" t="s">
         <v>723</v>
       </c>
     </row>
@@ -23922,7 +24308,7 @@
       <c r="S77">
         <v>8</v>
       </c>
-      <c r="T77" s="49" t="s">
+      <c r="T77" s="35" t="s">
         <v>724</v>
       </c>
     </row>
@@ -23930,7 +24316,7 @@
       <c r="S78">
         <v>9</v>
       </c>
-      <c r="T78" s="49" t="s">
+      <c r="T78" s="35" t="s">
         <v>725</v>
       </c>
     </row>
@@ -23938,7 +24324,7 @@
       <c r="S79">
         <v>10</v>
       </c>
-      <c r="T79" s="49" t="s">
+      <c r="T79" s="35" t="s">
         <v>726</v>
       </c>
     </row>
@@ -23946,7 +24332,7 @@
       <c r="S80">
         <v>11</v>
       </c>
-      <c r="T80" s="49" t="s">
+      <c r="T80" s="35" t="s">
         <v>727</v>
       </c>
     </row>
@@ -23954,7 +24340,7 @@
       <c r="S81">
         <v>12</v>
       </c>
-      <c r="T81" s="49" t="s">
+      <c r="T81" s="35" t="s">
         <v>728</v>
       </c>
     </row>
@@ -23962,7 +24348,7 @@
       <c r="S82">
         <v>13</v>
       </c>
-      <c r="T82" s="49" t="s">
+      <c r="T82" s="35" t="s">
         <v>729</v>
       </c>
     </row>
@@ -23970,7 +24356,7 @@
       <c r="S83">
         <v>14</v>
       </c>
-      <c r="T83" s="51" t="s">
+      <c r="T83" s="37" t="s">
         <v>730</v>
       </c>
     </row>
@@ -23978,7 +24364,7 @@
       <c r="S84">
         <v>15</v>
       </c>
-      <c r="T84" s="51" t="s">
+      <c r="T84" s="37" t="s">
         <v>731</v>
       </c>
     </row>
@@ -23986,12 +24372,12 @@
       <c r="S85">
         <v>16</v>
       </c>
-      <c r="T85" s="51" t="s">
+      <c r="T85" s="37" t="s">
         <v>732</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
+++ b/交易猫提供文档/成品号生产游戏对应商品发布id-V9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\jym_product_manage\Doc\交易猫提供文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BC2A7E-CBD2-461F-B762-BD855B306353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1D76C2-FBE6-40CE-8603-89114CFB3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,501 +90,501 @@
   </si>
   <si>
     <t>firstCategoryId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>secondCategoryId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1440407481127586</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>platformId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>clientId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>serverIdList</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1531903059072340, 1520564679426026, 1517377231343510, 1517377231343504, 1517377231343501, 1517377231343493, 1517377231342492, 1517377231342482, 1517377231342481, 1517377231342479, 1517377231342477, 1517377231342471, 1517377231341467, 1517377231341465, 1517377231341461, 1517377231341459, 1517377231341456, 1517377231340452, 1517377231340449, 1517377231340448, 1517377231340441, 1517377231340434, 1517377231339429, 1517377231339424, 1517377231339421, 1517377231339419, 1517377231339412, 1517377231338408, 1517377231338402, 1517377231338395, 1517377231338394, 1517377231338392, 1517377231338388, 1517377231337385, 1517377231337381, 1517377231337377, 1517377231337371, 1517377231337368, 1517377231336363, 1517377231336358, 1517377231336355, 1517377231336351, 1517377231336349, 1517377231335346, 1517377231335344, 1517377231335342, 1517377231335340, 1517377231335338, 1517377231335333, 1517377231334331, 1517377231334327, 1517377231334321, 1513927206134583, 1513927206133579, 1513927206133578, 1513927206133577, 1513927206132575, 1513927206132572, 1513927206132571, 1513927206132570, 1513927206132568, 1513927206132566, 1513927206132565, 1513927206131564, 1513927206131563, 1513927206131561, 1513927206131560, 1513927206131558, 1513927206131552, 1513927206130551, 1513927206130550, 1513927206130549, 1513927206130547, 1513927206130546, 1513927206130545, 1513927206130543, 1513927206129542, 1513927206129541, 1513927206129540, 1513927206129538, 1513927206129536, 1513927206129535, 1513927206128534, 1513927206128532, 1513927206128530, 1513927206127528, 1513927206127526, 1513927206127525, 1513927206127524, 1513927206127523, 1513927206127522, 1513927206127520, 1513927206126519, 1513927206126518, 1513927206126514, 1513927206126513, 1513927206126512, 1513927206126510, 1513927206125509, 1513927206125508, 1513927206125507, 1513927206125506, 1513927161515401, 1513927161514400, 1513927161514397, 1513927161514396, 1513927161514395, 1513927161514394, 1513927161514392, 1513927161514389, 1513927161513387, 1513927161513386, 1513927161513385, 1513927161513384, 1513927161513382, 1513927161513381, 1513927161513380, 1513927161512379, 1513927161512378, 1513927161512377, 1513927161512376, 1513927161512375, 1513927161512374, 1513927161512373, 1513927161512371, 1513927161511370, 1513927161511369, 1513927161511367, 1513927161511365, 1513927161511363, 1513927161511362, 1513927161511361, 1513927161510360, 1513927161510358, 1513927161510357, 1513927161510356, 1513927161510354, 1513927161510352, 1513927161509350, 1513927161509349, 1513927161509348, 1513927161509347, 1513927161509345, 1513927161509344, 1513927161509343, 1513927161508342, 1513927161508341, 1513927161508340, 1513927161508339, 1513927161508337, 1513927161508336, 1513927161507334, 1512550100923871, 1213664, 1213663, 1213662, 1213661, 1213660, 1213659, 1213658, 1213657, 1213656, 1213655, 1213654, 1213653, 1213652, 1213651, 1213650, 1213649, 1213648, 1213647, 1213646, 1213645, 1213644, 1213643, 1213642, 1213641, 1213640, 1213639, 1213638, 1213637, 1213636, 1213635, 1213634, 1213633, 1213632, 1213631, 1213630, 1213629, 1213628, 1213627, 1213626, 1213625, 1213624, 1213623, 1213622, 1213621, 937470, 937469, 937468, 937467, 937466, 937465, 937464, 937463, 937462, 937461, 937460, 937459, 937458, 937457, 937456, 937455, 937454, 937453, 937452, 937451, 937450, 937449, 937448, 937447, 937446, 937445, 937444, 937443, 937442, 937441, 937440, 937439, 937438, 937437, 937436, 937435, 937434, 937433, 937432, 937431, 937430, 937429, 937428, 937427, 937426, 937425, 937424, 937423, 937422, 937421, 937420, 937419, 937418, 937417, 937416, 937415, 937414, 937413, 937412, 937411, 937410, 937409, 937408, 937407, 937406, 937405, 849912, 849911, 849910, 849909, 849908, 849907, 849906, 849905, 849904, 849903, 849902, 849901, 849900, 849899, 849898, 849897, 849896, 849895, 849894, 849893, 849892, 849891, 849890, 849889, 849888, 849887, 849886, 849885, 849884, 849883, 849882, 849881, 849880, 849879, 849878,849877, 849876, 849875, 849874, 849873, 767437, 767436, 767435, 767434, 767433, 767432, 767431, 767430, 767429, 767428, 767427, 767426, 767425, 767424, 767423, 767422, 767421, 767420, 767419, 767418, 767417, 767416, 767415, 767414, 767413, 767412, 767411, 767410, 767409, 767408, 724467, 724466, 724465, 724464, 724463, 724462, 724461, 724460, 724459, 724458, 724457, 724456, 724455, 724454, 724453, 724452, 724451, 724450, 724449, 724448, 724447, 724446, 724445, 724444, 724443, 724442, 724441, 724440, 724439, 724438, 724437, 724436, 724435, 724434, 724433, 724432, 724431, 724430, 724429, 724428, 629740, 629739, 629738, 629737, 629736, 629735, 629734, 629733, 629732, 629731, 629730, 629729, 629728, 629727, 629726, 629725, 629724, 629723, 629722, 629721, 629720, 629719, 629718, 629717, 629716, 629715, 629714, 629713, 629712, 629711]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>gameId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1470047033047733</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1531903059072340, 1520565457289056, 1520565457289055, 1520565457289053, 1520565457289052, 1520565457289051, 1520565457289049, 1520565457289048, 1520565457288047, 1520565457288046, 1520565457288045, 1520565457288044, 1520565457288043, 1520565457288042, 1520565457288041, 1520565457287040, 1520565457287038, 1520565457287035, 1520565457287032, 1520565457287031, 1520565457287028, 1520565457287027, 1520565457287025, 1520565457286024, 1520565457286023, 1520565457286022, 1520565457286021, 1520565457286020, 1520565457286019, 1520565457286017, 1520565457286016, 1520565457285015, 1520565457285014, 1520565457285010, 1520565457285009, 1520565457284003, 1520565457284999, 1520565457284998, 1520565457284997, 1520565457284996, 1520565457284994, 1520565457283993, 1520565457283990, 1520565457283989, 1520565457283985, 1520565457283984, 1520565457283982, 1520565457283981, 1520565457282980, 1520565457282979, 1520565457282976, 1520565437178021, 1520565437178019, 1520565437178017, 1520565437178016, 1520565437178012, 1520565437177011, 1520565437177010, 1520565437176004, 1520565437176001, 1520565437175999, 1520565437175998, 1520565437175994, 1520565437175990, 1520565437174987, 1520565437174985, 1520565437174984, 1520565437174982, 1520565437174980, 1520565437174978, 1520565437174976, 1520565437173973, 1520565437173970, 1520565437173968, 1520565437173967, 1520565437173966, 1520565437173963, 1520565437172962, 1520565437172961, 1520565437172959, 1520565437172956, 1520565437172954, 1520565437172953, 1520565437172952, 1520565437171951, 1520565437171949, 1520565437171946, 1520565437171943, 1520565437171941, 1520565437171940, 1520565437170937, 1520565437170936, 1520565437170935, 1520565437170933, 1520565437170932, 1520565437170927, 1520565437169924, 1520565437169921, 1520565437169919, 1520565437169918, 1520565437169917, 1520565413160035, 1520565413160034, 1520565413160033, 1520565413160031, 1520565413160030, 1520565413160029, 1520565413160028, 1520565413160027, 1520565413159026, 1520565413159024, 1520565413159023, 1520565413159022, 1520565413159021, 1520565413159020, 1520565413159019, 1520565413159018, 1520565413159017, 1520565413159016, 1520565413159015, 1520565413158014, 1520565413158013, 1520565413158012, 1520565413158011, 1520565413158010, 1520565413158009, 1520565413158008, 1520565413158007, 1520565413158006, 1520565413158004, 1520565413158003, 1520565413157002, 1520565413157001, 1520565413157999, 1520565413157998, 1520565413157997, 1520565413156995, 1520565413156994, 1520565413156993, 1520565413156992, 1520565413156990, 1520565413156987, 1520565413156986, 1520565413156985, 1520565413156984, 1520565413155983, 1520565413155982, 1520565413155980, 1520565413155979, 1520565413155978, 1520565413155977, 1520565387477445, 1520565387477443, 1520565387476441, 1520565387476440, 1520565387476438, 1520565387476437, 1520565387476434, 1520565387476432, 1520565387476430, 1520565387476429, 1520565387476427, 1520565387475423, 1520565387475422, 1520565387475421, 1520565387475419, 1520565387475418, 1520565387475414, 1520565387475412, 1520565387475411, 1520565387475409, 1520564772841752, 1512550113721286, 1510736392178892, 1510736392178890, 1510736392178889, 1510736392178888, 1510736392178886, 1510736392177883, 1510736392177880, 1510736392177879, 1510736392177877, 1510736392177876, 1510736392176875, 1510736392176873, 1510736392176871, 1510736392176869, 1510736392176867, 1510736392176865, 1510736392175864, 1510736392175862, 1510736392175860, 1510736392175859, 1510736392175858, 1510736392175856, 1510736392175855, 1510736392174853, 1510736392174852, 1510736392174851, 1510736392174850, 1510736392174846, 1510736392173844, 1510736392173842, 1510736392173838, 1510736392173835, 1510736392173833, 1510736392173831, 1510736392172829, 1510736392172828, 1510736392172826, 1510736392172824, 1510736392172823, 1510736392172821, 1510736392172820, 1510736392172819, 1510736392171818, 1510736392171817, 1510736392171814, 1510736392171812, 1510736392170807, 1510736392170802, 1510736392170801, 1510736392170799, 1510736392170797, 1510736212235743, 1510736212235742, 1510736212235741, 1510736212235740, 1510736212234739, 1510736212234737, 1510736212234735, 1510736212234731, 1510736212234730, 1510736212234728, 1510736212233726, 1510736212233725, 1510736212233724, 1510736212233722, 1510736212233721, 1510736212233720, 1510736212232719, 1510736212232717, 1510736212232715, 1510736212232713, 1510736212232712, 1510736212232709, 1510736212231707, 1510736212231705, 1510736212231702, 1510736212231701, 1510736212231700, 1510736212231697, 1510736212231694, 1510736212230693, 1510736212230692, 1510736212230691, 1510736212230690, 1510736212230689, 1510736212230688, 1510736212230685, 1510736212229684, 1510736212229682, 1510736212229680, 1510736212229678, 1510736212229675, 1510736212229674, 1510736212229673, 1510736212229670, 1510736212228669, 1510736212228668, 1510736212228667, 1510736212228666, 1510736212228664, 1498479823532088, 1498479823532086, 1498479823532085, 1498479823532084, 1498479823532083, 1498479823532081, 1498479823532080, 1498479823531078, 1498479823531076, 1498479823531072, 1498479823531070, 1498479823531068, 1498479823531067, 1498479823531066, 1498479823530065, 1498479823530064, 1498479823530063, 1498479823530062, 1498479823530061, 1498479823530060, 1498479823530059, 1498479823530056, 1498479823529055, 1498479823529054, 1498479823529053, 1498479823529052, 1498479823529050, 1498479823529046, 1498479823528045, 1498479823528044, 1498479823528042, 1498479823528040, 1498479823528039, 1498479823528038, 1498479823528037, 1498479823527036, 1498479823527035, 1498479823527034, 1498479823527033, 1498479823527032, 1487511934651655, 1487511934651654, 1487511934651652, 1487511934650651, 1487511934650650, 1487511934650649, 1487511934650648, 1487511934650646, 1487511934650644, 1487511934650643, 1472176401666367, 1472176401666366, 1472176401666365, 1472176401666364, 1472176401666363, 1472176401666361, 1472176401666360, 1472176401665359, 1472176401665358, 1472176401665357, 1472176401665356, 1472176401665355, 1472176401665354, 1472176401665353, 1472176401664351, 1472176401664350, 1472176401664348, 1472176401664347, 1472176401664346, 1472176401664345, 1472176401664344, 1472176401663343, 1472176401663342, 1472176401663341, 1472176401663340, 1472176401663339, 1472176401663338, 1472176401663337, 1472176401662336, 1472176401662335, 1472176401662334, 1472176401662333, 1472176401662332, 1472176401662331, 1472176401662329, 1472176401662328, 1472176401661327, 1472176401661326, 1472176401661325, 1472176401661324, 1472176401661323, 1472176401661322, 1472176401661321, 1472176401661319, 1472176401660317, 1472176401660316, 1472176401660315, 1472176401660314, 1472176401660313, 1472176401660312, 1472176401660310, 1472176401659309, 1472176401659308, 1472176401659307, 1472176401659306, 1472176401659305, 1472176401659304, 1472176401659303, 1472176401659302, 1472176401658300, 1472176401658299, 1472176401658298, 1472176401658297, 1472176401658296, 1472176401658295, 1472176401658294, 1472176401658293, 1472176401657292, 1472176401657291, 1472176401657290, 1472176401657289, 1472176401657288, 1472176401657287, 1472176401657286, 1472176401657284, 1472176401656283, 1472176401656282, 1472176401656280, 1472176401656279, 1472176401656278, 817904]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1470047031280559</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1446451048723803</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1531903070868728, 1520565340141895, 1520565340141894, 1520565340141893, 1520565340141892, 1520565340140891, 1520565340140889, 1520565340140887, 1520565340140885, 1520565340140882, 1520565340140879, 1520565340140878, 1520565340139877, 1520565340139876, 1520565340139873, 1520565340139872, 1520565340139871, 1520565340139870, 1520565340138869, 1520565340138868, 1520565340138866, 1520565340138863, 1520565340138861, 1520565340138857, 1520565340137856, 1520565340137855, 1520565340137853, 1520565340137849, 1520565340136841, 1520565340136840, 1520565340136839, 1520565340136837, 1520565340136836, 1520565340136833, 1520565340136830, 1520565340135829, 1520565340135827, 1520565340135821, 1520565340135820, 1520565340135819, 1520565340135818, 1520565340135815, 1520565340134814, 1520565340134813, 1520565340134812, 1520565340134809, 1520565340134806, 1520565340134804, 1520565340134802, 1520565340134800, 1520565340133799, 1520565305855966, 1520565305854964, 1520565305854963, 1520565305854961, 1520565305854960, 1520565305854959, 1520565305853956, 1520565305853949, 1520565305853947, 1520565305853944, 1520565305853943, 1520565305853941, 1520565305852938, 1520565305852935, 1520565305852934, 1520565305852932, 1520565305852930, 1520565305852928, 1520565305852927, 1520565305852926, 1520565305851925, 1520565305851924, 1520565305851919, 1520565305851917, 1520565305851915, 1520565305851912, 1520565305851910, 1520565305850909, 1520565305850907, 1520565305850903, 1520565305850901, 1520565305850900, 1520565305850898, 1520565305849893, 1520565305849892, 1520565305849890, 1520565305849888, 1520565305849887, 1520565305849885, 1520565305849884, 1520565305848880, 1520565305848877, 1520565305848876, 1520565305848875, 1520565305848873, 1520565305848872, 1520565305847868, 1520565305847867, 1520565305847866, 1520565305847865, 1520564679426026, 1517377426627295, 1517377426627294, 1517377426627292, 1517377426627291, 1517377426627289, 1517377426626288, 1517377426626286, 1517377426626285, 1517377426626282, 1517377426626280, 1517377426626279, 1517377426625277, 1517377426625276, 1517377426625275, 1517377426625274, 1517377426625273, 1517377426625270, 1517377426624267, 1517377426624261, 1517377426624259, 1517377426623258, 1517377426623257, 1517377426623256, 1517377426623255, 1517377426623253, 1517377426623250, 1517377426622249, 1517377426622246, 1517377426622245, 1517377426622244, 1517377426622241, 1517377426622239, 1517377426621238, 1517377426621237, 1517377426621236, 1517377426621234, 1517377426621230, 1517377426620224, 1517377426620223, 1517377426620222, 1517377426620221, 1517377426620219, 1517377426620216, 1517377426619214, 1517377426619213, 1517377426619211, 1517377426619209, 1517377426619206, 1517377426619205, 1517377426618202, 1517377383212286, 1517377383212281, 1517377383212280, 1517377383212279, 1517377383212278, 1517377383212275, 1517377383211273, 1517377383211272, 1517377383211269, 1517377383211268, 1517377383211266, 1517377383211262, 1517377383211261, 1517377383211259, 1517377383211257, 1517377383210256, 1517377383210254, 1517377383210251, 1517377383210250, 1517377383210249, 1517377383210248, 1517377383210247, 1517377383210245, 1517377383210244, 1517377383210243, 1517377383209240, 1517377383209236, 1517377383209234, 1517377383209232, 1517377383209230, 1517377383209228, 1517377383209226, 1517377383209225, 1517377383209224, 1517377383208223, 1517377383208222, 1517377383208220, 1517377383208217, 1517377383208215, 1517377383208214, 1517377383208211, 1517377383208210, 1517377383208209, 1517377383208208, 1517377383207205, 1517377383207203, 1517377383207201, 1517377383207200, 1517377383207197, 1517377383207195, 1513927335090886, 1513927335090885, 1513927335090884, 1513927335090882, 1513927335090881, 1513927335090880, 1513927335090879, 1513927335090877, 1513927335090874, 1513927335090872, 1513927335089871, 1513927335089870, 1513927335089869, 1513927335089868, 1513927335089867, 1513927335089866, 1513927335089864, 1513927335089862, 1513927335089860, 1513927335089858, 1513927335088857, 1513927335088856, 1513927335088855, 1513927335088854, 1513927335088853, 1513927335088851, 1513927335088850, 1513927335088849, 1513927335088847, 1513927335087845, 1513927335087843, 1513927335087840, 1513927335087837, 1513927335087836, 1513927335087835, 1513927335087834, 1513927335087833, 1513927335087832, 1513927335086830, 1513927335086828, 1513927335086827, 1513927335086826, 1513927335086825, 1513927335086824, 1513927335086823, 1513927335086822, 1513927335086821, 1513927335086820, 1513927335085819, 1513927335085818, 1513927318881507, 1513927318880506, 1513927318880505, 1513927318880504, 1513927318880503, 1513927318880502, 1513927318880501, 1513927318880499, 1513927318879496, 1513927318879493, 1513927318879490, 1513927318879489, 1513927318879488, 1513927318879487, 1513927318879486, 1513927318878485, 1513927318878484, 1513927318878481, 1513927318878479, 1513927318878476, 1513927318878475, 1513927318878474, 1513927318877472, 1513927318877468, 1513927318877466, 1513927318877465, 1513927318877464, 1513927318877463, 1513927318877462, 1513927318877461, 1513927318876460, 1513927318876459, 1513927318876458, 1513927318876457, 1513927318876456, 1513927318876454, 1513927318876452, 1513927318876451, 1513927318875450, 1513927318875449, 1513927318875447, 1513927318875444, 1513927318875443, 1513927318875441, 1513927318875439, 1513927318874438, 1513927318874437, 1513927318874436, 1513927318874435, 1513927318874434, 1510736613738838, 1510736613738837, 1510736613738836, 1510736613738835, 1510736613738834, 1510736613738833, 1510736613738830, 1510736613738829, 1510736613738828, 1510736613737824, 1510736613737823, 1510736613737822, 1510736613737821, 1510736613737820, 1510736613737819, 1510736613737818, 1510736613737816, 1510736613737815, 1510736613736812, 1510736613736810, 1498479938502429, 1498479938502428, 1498479938502427, 1498479938501426, 1498479938501425, 1498479938501423, 1498479938501421, 1498479938501420, 1498479938501419, 1498479938501418, 1498479938501417, 1498479938501415, 1498479938501412, 1498479938500410, 1498479938500409, 1498479938500407, 1498479938500406, 1498479938500404, 1498479938500403, 1498479938500402, 1498479938500401, 1498479938500400, 1498479938499399, 1498479938499398, 1498479938499396, 1498479938499395, 1498479938499394, 1498479938499393, 1498479938499392, 1498479938499391, 1498479881164324, 1498479881164323, 1498479881164322, 1498479881164321, 1498479881164319, 1498479881164318, 1498479881164317, 1498479881164315, 1498479881163314, 1498479881163313, 1498479881163312, 1498479881163310, 1498479881163309, 1498479881163308, 1498479881163306, 1498479881162304, 1498479881162302, 1498479881162299, 1498479881162298, 1498479881162297, 1498479881161294, 817861, 817860, 817859, 817858, 817857, 817856, 817855, 817854, 817853, 817852, 817851, 817850, 817849, 817848, 817847, 817846, 817845, 817844, 817843, 817842, 817841, 817840, 817839, 817838, 817837, 817836, 817835, 817834, 718033, 817833, 718032, 718031, 718030, 718029, 718028, 718027, 718026, 718025, 718024, 718023, 718022, 718021, 718020, 718019, 718018, 718017, 718016,718015, 718014, 718013, 718012, 718011, 718010, 718009, 718008, 718007, 718006, 718005, 718004]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1513923383295718</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1499667551454656</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1531903070868728, 1520565539285187, 1520565539285185, 1520565539285184, 1520565539285180, 1520565539284179, 1520565539284178, 1520565539284177, 1520565539284175, 1520565539284173, 1520565539284172, 1520565539284171, 1520565539283169, 1520565539283168, 1520565539283164, 1520565539283162, 1520565539283161, 1520565539283159, 1520565539282157, 1520565539282153, 1520565539282152, 1520565539282151, 1520565539282149, 1520565539282147, 1520565539281145, 1520565539281143, 1520565539281140, 1520565539281138, 1520565539281135, 1520565539281134, 1520565539280133, 1520565539280132, 1520565539280129, 1520565539280127, 1520565539280125, 1520565539279122, 1520565539279120, 1520565539279118, 1520565539279115, 1520565539278112, 1520565539278107, 1520565539278106, 1520565539278103, 1520565539278102, 1520565539278100, 1520565539277099, 1520565539277096, 1520565539277093, 1520565539277091, 1520565539277089, 1520565539277086, 1520565519651677, 1520565519651676, 1520565519651675, 1520565519650674, 1520565519650672, 1520565519650671, 1520565519650670, 1520565519650667, 1520565519650665, 1520565519650664, 1520565519649663, 1520565519649662, 1520565519649660, 1520565519649659, 1520565519649658, 1520565519649655, 1520565519649652, 1520565519648651, 1520565519648650, 1520565519648649, 1520565519648648, 1520565519648646, 1520565519648645, 1520565519648643, 1520565519647642, 1520565519647639, 1520565519647638, 1520565519646636, 1520565519646634, 1520565519646631, 1520565519645629, 1520565519645626, 1520565519645624, 1520565519645623, 1520565519645622, 1520565519645621, 1520565519645620, 1520565519644618, 1520565519644617, 1520565519644616, 1520565519644615, 1520565519644612, 1520565519643611, 1520565519643610, 1520565519643608, 1520565519643606, 1520565519643605, 1520565519643603, 1520565519642602, 1520565519642600, 1520565499183983, 1520565499183982, 1520565499183980, 1520565499183978, 1520565499183977, 1520565499182975, 1520565499182973, 1520565499182971, 1520565499182970, 1520565499182969, 1520565499182968, 1520565499182967, 1520565499182966, 1520565499182963, 1520565499182961, 1520565499181960, 1520565499181959, 1520565499181957, 1520565499181956, 1520565499181955, 1520565499181953, 1520565499181951, 1520565499181950, 1520565499181949, 1520565499180946, 1520565499180945, 1520565499180943, 1520565499180942, 1520565499180940, 1520565499180939, 1520565499180938, 1520565499180937, 1520565499180935, 1520565499179934, 1520565499179932, 1520565499179931, 1520565499179929, 1520565499179927, 1520565499179926, 1520565499179924, 1520565499179923, 1520565499179922, 1520565499179921, 1520565499179920, 1520565499178918, 1520565499178917, 1520565499178916, 1520565499178915, 1520565499178914, 1520565499178910, 1520565482676345, 1520565482676344, 1520565482676343, 1520565482676342, 1520565482676341, 1520565482675339, 1520565482675336, 1520565482675334, 1520565482674333, 1520565482674331, 1520565482674327, 1520565482673326, 1520565482673325, 1520565482673321, 1520565482672320, 1520565482672318, 1520565482672317, 1520565482671314, 1520565482670311, 1520565482670309, 1520565482670307, 1520565482670306, 1520565482669303, 1520565482669300, 1520565482669298, 1520565482669296, 1520565482669295, 1520565482669294, 1520565482668293, 1520565482668292, 1520565482668290, 1520565482668288, 1520565482668285, 1520565482668283, 1520565482667279, 1520565482667278, 1520565482667277, 1520565482667276, 1520565482667275, 1520565482667274, 1520565482667273, 1520565482666272, 1520565482666271, 1520565482666267, 1520565482666264, 1520565482666262, 1520565482665260, 1520565482665258, 1520565482665257, 1520565482664254, 1520564772841752, 1513927403776737, 1513927403776733, 1513927403776729, 1513927403776727, 1513927403775725, 1513927403775722, 1513927403775720, 1513927403775718, 1513927403775717, 1513927403775715, 1513927403774714, 1513927403774712, 1513927403774711, 1513927403774709, 1513927403774708, 1513927403774704, 1513927403774702, 1513927403773700, 1513927403773699, 1513927403773698, 1513927403773695, 1513927403772694, 1513927403772692, 1513927403772691, 1513927403772689, 1513927403772686, 1513927403772685, 1513927403772683, 1513927403772682, 1513927403771680, 1513927403771679, 1513927403771678, 1513927403771677, 1513927403771676, 1513927403771675, 1513927403770673, 1513927403770671, 1513927403770670, 1513927403770668, 1513927403770667, 1513927403770664, 1513927403770663, 1513927403769661, 1513927403769660, 1513927403769659, 1513927403769658, 1513927403769657, 1513927403769655, 1513927403769654, 1513927403768651, 1513927388418232, 1513927388418231, 1513927388417229, 1513927388417227, 1513927388417225, 1513927388417224, 1513927388417223, 1513927388417221, 1513927388416220, 1513927388416219, 1513927388416218, 1513927388416216, 1513927388416211, 1513927388415209, 1513927388415208, 1513927388415206, 1513927388415205, 1513927388415203, 1513927388415202, 1513927388415201, 1513927388415200, 1513927388414198, 1513927388414196, 1513927388414195, 1513927388414193, 1513927388414191, 1513927388414189, 1513927388414187, 1513927388413184, 1513927388413183, 1513927388413182, 1513927388413181, 1513927388413178, 1513927388413177, 1513927388412176, 1513927388412174, 1513927388412173, 1513927388412172, 1513927388412171, 1513927388412170, 1513927388412168, 1513927388412167, 1513927388411166, 1513927388411164, 1513927388411161, 1513927388411159, 1513927388411156, 1513927388411155, 1513927388410154, 1513927388410153, 1510736665094776, 1510736665093774, 1510736665093773, 1510736665093772, 1510736665093770, 1510736665093769, 1510736665093768, 1510736665092766, 1510736665092765, 1510736665092764, 1510736665092763, 1510736665092762, 1510736665092760, 1510736665092758, 1510736665091757, 1510736665091756, 1510736665091755, 1510736665091752, 1510736665091751, 1510736665091750, 1498479938502429, 1498479938502428, 1498479938502427, 1498479938501426, 1498479938501425, 1498479938501423, 1498479938501421, 1498479938501420, 1498479938501419, 1498479938501418, 1498479938501417, 1498479938501415, 1498479938501412, 1498479938500410, 1498479938500409, 1498479938500407, 1498479938500406, 1498479938500404, 1498479938500403, 1498479938500402, 1498479938500401, 1498479938500400, 1498479938499399, 1498479938499398, 1498479938499396, 1498479938499395, 1498479938499394, 1498479938499393, 1498479938499392, 1498479938499391, 1495881343246451, 1495881343246449, 1495881343246447, 1495881343246446, 1495881343246445, 1495881343246444, 1495881343246443, 1495881343245442, 1495881343245441, 1495881343245440, 1495881343245439, 1495881343245438, 1495881343245436, 1495881343245435, 1495881343245434, 1495881343244432, 1495881343244431, 1495881343244430, 1495881343244429, 1495881343244428, 1495881343244426, 1495881343244425, 1495881343244424, 1495881343244423, 1495881343243422, 1495881343243421, 1495881343243420, 1495881343243419, 1495881343243418, 1495881343243417, 1495881343243416, 1495881343243415, 1495881343242414, 1495881343242413, 1495881343242411, 1495881343242410, 1495881343242409, 1495881343242408, 1495881343242406, 1495881343241405, 1495881343241404, 1495881343241403, 1495881343241399, 1495881343240398, 1495881343240396, 1495881343240395, 1495881343240394, 1495881343240393, 1495881343240392, 1495881343239391]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1518150861770568</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1470047031091455</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1555490599140856, 1539844286658920]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1557369570062607</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1535364157745866]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1518150879547002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1535364178344308]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1557369978908154</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1539844295575679]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1443494924291413</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[680750]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1499674340602797</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1513664764829926, 1499673572723335]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1449207252156632</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[769229]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1499674486180184</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1499673599536190]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1452156620238384</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1625831741020732, 1625831741019728, 1625831741018723, 1625831741018711, 1625831741017703, 1625831741016697, 1625831741015692, 1625831741015689, 1625831741014683, 1625831741013676, 1625831741013672, 1625831741012664, 1625831741011654, 1625831741010650, 1625831741010644, 1625831741009636, 1625831741008633, 1625831741008631, 1625831741007628, 1625831741006618, 1625831741006612, 1625831741005608, 1625831741004600, 1625831741003593, 1625831741003585, 1625831741002582, 1625831741001577, 1625831741001568, 1625831741000557, 1625831740999553, 1625831740999546, 1625831740998535, 1625831740997530, 1625831740996526, 1625831740996522, 1625831740995515, 1625831740994508, 1625831740994505, 1625831740993503, 1625831740992496, 1625831740992491, 1625831740991487, 1625831740990482, 1625831740989477, 1625831740989466, 1625831740988458, 1625831740987451, 1625831740986446, 1625831740986441, 1625831740985438, 1625831740984430, 1625831740984425, 1625831740983422, 1625831740982418, 1625831740982409, 1625831740981405, 1625831740980395, 1625831740979389, 1625831740979379, 1625831740978368, 1625831740977365, 1625831740977361, 1625831740976358, 1625831740975352, 1625831740975349, 1625831740974346, 1625831740973340, 1625831740972337, 1625831740972332, 1625831740971326, 1625831740970322, 1625831740970315, 1625831740969309, 1625831740968302, 1625831740967298, 1625831740967296, 1625831740966293, 1625831740965289, 1625831740965283, 1625831740964278, 1625831740963274, 1625831740963270, 1625831740962266, 1625831740961260, 1625831740960256, 1625831740960252, 1625831740959245, 1625831740958240, 1625831740958233, 1625831740957231, 1625831740956226, 1625831740956216, 1625831740955210, 1625831740954208, 1625831740953200, 1625831740953196, 1625831740952189, 1625831740951179, 1625831740951177, 1625831740950164, 1625831704909362, 1625831704908358, 1625831704907354, 1625831704907351, 1625831704906345, 1625831704906340, 1625831704905335, 1625831704904332, 1625831704904318, 1625831704903310, 1625831704903305, 1625831704902301, 1625831704902298, 1625831704901288, 1625831704900285, 1625831704900281, 1625831704899273, 1625831704898269, 1625831704898262, 1625831704897256, 1625831704897250, 1625831704896247, 1625831704895240, 1625831704895233, 1625831704894228, 1625831704894225, 1625831704893221, 1625831704892215, 1625831704892211, 1625831704891207, 1625831704891200, 1625831704890199, 1625831704889196, 1625831704889193, 1625831704888190, 1625831704887184, 1625831704887177, 1625831704886175, 1625831704886169, 1625831704885163, 1625831704884158, 1625831704884156, 1625831704883152, 1625831704883147, 1625831704882145, 1625831704882140, 1625831704881135, 1625831704880127, 1625831704880124, 1625831704879120, 1625831704879115, 1625831704878106, 1625831704877104, 1625831704877101, 1625831704876096, 1625831704876090, 1625831704875085, 1625831704874079, 1625831704874073, 1625831704873068, 1625831704873062, 1625831704872059, 1625831704871053, 1625831704871046, 1625831704870042, 1625831704870038, 1625831704869035, 1625831704868034, 1625831704868025, 1625831704867019, 1625831704867013, 1625831704866009, 1625831704865007, 1625831704865000, 1625831704864993, 1625831704863987, 1625831704862981, 1625831704862977, 1625831704861972, 1625831704861970, 1625831704860967, 1625831704859961, 1625831704859956, 1625831704858946, 1625831704858944, 1625831704857941, 1625831704857937, 1625831704856928, 1625831704855926, 1625831704855923, 1625831704854918, 1625831704853913, 1625831704853908, 1625831704852901, 1625831704852898, 1625831704851892, 1625831704850889, 1625831704850885, 1625831704849884, 1625831704849880, 1625831640306208, 1625831640305206, 1625831640305198, 1625831640304192, 1625831640303187, 1625831640303176, 1625831640302172, 1625831640302167, 1625831640301162, 1625831640300159, 1625831640300151, 1625831640299147, 1625831640299140, 1625831640298134, 1625831640297125, 1625831640297123, 1625831640296119, 1625831640296107, 1625831640295102, 1625831640294097, 1625831640294095, 1625831640293091, 1625831640293088, 1625831640292081, 1625831640291078, 1625831640291075, 1625831640290073, 1625831640290069, 1625831640289067, 1625831640288062, 1625831640288058, 1625831640287052, 1625831640287046, 1625831640286041, 1625831640285040, 1625831640285033, 1625831640284026, 1625831640279001, 1625831640279000, 1625831640277995, 1625831640277989, 1625831640276987, 1625831640275984, 1625831640275981, 1625831640274978, 1625831640274974, 1625831640273969, 1625831640273966, 1625831640272962, 1625831640271958, 1625831640271952, 1625831640270950, 1625831640270948, 1625831640269944, 1625831640268940, 1625831640268937, 1625831640267935, 1625831640267933, 1625831640266931, 1625831640266928, 1625831640265927, 1625831640264924, 1625831640264919, 1625831640263913, 1625831640263907, 1625831640262902, 1625831640261898, 1625831640261895, 1625831640260890, 1625831640260885, 1625831640259883, 1625831640258876, 1625831640258871, 1625831640257868, 1625831640257867, 1625831640256860, 1625831640255854, 1625831640255849, 1625831640254846, 1625831640254841, 1625831640253834, 1625831640252826, 1625831640252819, 1625831640251815, 1625831640251807, 1625831640250804, 1625831640250801, 1625831640249798, 1625831640248794, 1625831640248790, 1625831640247786, 1625831640247782, 1625831640246779, 1625831640245775, 1625831640245771, 1625831640244765, 1625831640244760, 1625831640243756, 1625831640242754, 1625831640242751, 1608606707083750, 1608606707082747, 1608606707082741, 1608606707081737, 1608606707081732, 1608606707080728, 1608606707080725, 1608606707079722, 1608606707079716, 1608606707079711, 1608606707078707, 1608606707078706, 1608606707077699, 1608606707077693, 1608606707076690, 1608606707076687, 1608606707075681, 1608606707074671, 1608606707074669, 1608606707073668, 1608606707073663, 1608606707072660, 1608606707072657, 1608606707071654, 1608606707071651, 1608606707070649, 1608606707070645, 1608606707069642, 1608606707069639, 1608606707068637, 1608606707068632, 1608606707068629, 1608606707067627, 1608606707067624, 1608606707066622, 1608606707066616, 1608606707065611, 1608606707065604, 1608606707064601, 1608606707064598, 1608606707063594, 1608606707063591, 1608606707062587, 1608606707062584, 1608606707061582, 1608606707061578, 1608606707060575, 1608606707060573, 1608606707059568, 1608606707059561, 1608606707058556, 1608606707058552, 1608606707057550, 1608606707057546, 1608606707056544, 1608606707056537, 1608606707055532, 1608606707055528, 1608606707054525, 1608606707054520, 1608606707053516, 1608606707053512, 1608606707052508, 1608606707052503, 1608606707051496, 1608606707051495, 1608606707050492, 1608606707050490, 1608606707049488, 1608606707049485, 1608606707048482, 1608606707048478, 1608606707048470, 1608606707047466, 1608606707047462, 1608606707046458, 1608606707046452, 1608606707045449, 1608606707045442, 1608606707044440, 1608606707044433, 1608606707043431, 1608606682162443, 1608606682161439, 1608606682161434, 1608606682160433, 1608606682160430, 1608606682159423, 1608606682159419, 1608606682158415, 1608606682158412, 1608606682157405, 1608606682156400, 1608606682156394, 1608606682155389, 1608606682155384, 1608606682154380, 1608606682154369, 1608606682153361, 1608606682152354, 1608606682152350, 1608606682151342, 1608606682151340, 1608606682150338, 1608606682150335, 1608606682149332, 1608606682149328, 1608606682148324, 1608606682148323, 1608606682147317, 1608606682147314, 1608606682146309, 1608606682146308, 1608606682145303, 1608606682144300, 1608606682144297, 1608606682143293, 1608606682143284, 1608606682142279, 1608606682142277, 1608606682141275, 1608606682141271, 1608606682140267, 1608606682140262, 1608606682139256, 1608606682138252, 1608606682138250, 1608606682137246, 1608606682137233, 1608606682136229, 1608606682136226, 1608606682135224, 1608606682135222, 1608606682134217, 1608606682134215, 1608606682133213, 1608606682133211, 1608606682132209, 1608606682131207, 1608606682131202, 1608606682130201, 1608606682130199, 1608606682129194, 1608606682129192, 1608606682128190, 1608606682128187, 1608606682127185, 1608606682127182, 1608606682126181, 1608606682126180, 1608606682125178, 1608606682125176, 1608606682124175, 1608606682124173, 1608606682123170, 1608606682122166, 1608606682122163, 1608606682121160, 1608606682121158, 1608606682120154, 1608606682120152, 1608606682119148, 1608606682119143, 1608606682118142, 1608606682118141, 1608606682117139, 1608606682117137, 1608606682116135, 1608606682116132, 1608606682115130, 1608606682115125, 1608606682114119, 1608606682113116, 1608606682113106, 1608606682112096, 1608606623964887, 1608606623963884, 1608606623963880, 1608606623962876, 1608606623962873, 1608606623961869, 1608606623960866, 1608606623960864, 1608606623959858, 1608606623958856, 1608606623958852, 1608606623957847, 1608606623957842, 1608606623956840, 1608606623955836, 1608606623955834, 1608606623954828, 1608606623954825, 1608606623953820, 1608606623952818, 1608606623952816, 1608606623951811, 1608606623950807, 1608606623950804, 1608606623949799, 1608606623949797, 1608606623948791, 1608606623947787, 1608606623947782, 1608606623946780, 1608606623945776, 1608606623945773, 1608606623944768, 1608606623944766, 1608606623943761, 1608606623942755, 1608606623942752, 1608606623941749, 1608606623940747, 1608606623940739, 1608606623939736, 1608606623938734, 1608606623938726, 1608606623937719, 1608606623936716, 1608606623936712, 1608606623935708, 1608606623935703, 1608606623934700, 1608606623933694, 1608606623933689, 1608606623932679, 1608606623931674, 1608606623931667, 1608606623930662, 1608606623929658, 1608606623929654, 1608606623928649, 1608606623928639, 1608606623927636, 1608606623926630, 1608606623926623, 1608606623925615, 1608606623924610, 1608606623924606, 1608606623923601, 1608606623923595, 1608606623922589, 1608606623921582, 1608606623921577, 1608606623920575, 1608606623920571, 1608606623919565, 1608606623918560, 1608606623918546, 1608606623917540, 1608606623916536, 1608606623916532, 1608606623915528, 1608606623914522, 1608606623914517, 1608606623913514, 1608606623913507, 1608606623912499, 1608606623911491, 1608606623911487, 1608606623910482, 1608606623910477, 1608606623909471, 1608606623908467, 1608606623908458, 1608606623907453, 1608606623906449, 1608606623906445, 1608606623905443, 1608606623905441, 1608606623904437, 1608606623903431, 1608606623903427, 1608606623902426, 1593604931016369, 1593604931016366, 1593604931016362, 1593604931015359, 1593604931015356, 1593604931014354, 1593604931014348, 1593604931014344, 1593604931013341, 1593604931013337, 1593604931013332, 1593604931012329, 1593604931012327, 1593604931011325, 1593604931011321, 1593604931009316, 1593604931009301, 1593604931009300, 1593604931008297, 1593604931008295, 1593604931008293, 1593604931007292, 1593604931007289, 1593604931007287, 1593604931006283, 1593604928419462, 1593604928418457, 1593604928418451, 1593604928418449, 1593604928417448, 1593604928417445, 1593604928417444, 1593604928417443, 1593604928416442, 1593604928416439, 1593604928416437, 1593604928415431, 1593604928415430, 1593604928414429, 1593604928414426, 1593604928414423, 1593604928413416, 1593604928413414, 1593604928413412, 1593604928413411, 1593604925333973, 1593604925333964, 1593604925332961, 1593604925332958, 1593604925332954, 1593604925331949, 1593604925331944, 1593604925331940, 1593604925330932, 1593604925330928, 1593604925329921, 1593604925329919, 1593604925329917, 1593604925328914, 1593604925328909, 1593604925328905, 1593604925327902, 1593604925327901, 1593604925327900, 1593604925326898, 1593604925326893, 1593604925326889, 1593604925326888, 1593604925325887, 1593604925325885, 1593604922179405, 1593604922179402, 1593604922178399, 1593604922178395, 1593604922178391, 1593604922177387, 1593604922177382, 1593604922177377, 1593604922177374, 1593604922176372, 1593604922176366, 1593604922176364, 1593604922175359, 1593604922175354, 1593604922174348, 1593604922174343, 1593604922173337, 1593604922173331, 1593604922173319, 1593604922173314, 1593604922172310, 1593604922172306, 1593604922172300, 1593604922172297, 1593604922171292, 1593604919089418, 1593604919088416, 1593604919088413, 1593604919087409, 1593604919087404, 1593604919087400, 1593604919086395, 1593604919086390, 1593604919086386, 1593604919086379, 1593604919085376, 1593604919085372, 1593604919085370, 1593604919084367, 1593604919084364, 1593604919084360, 1593604919083355, 1593604919083354, 1593604919083353, 1593604919083352, 1593604919082351, 1593604919082350, 1593604919082349, 1593604919082347, 1593604919082343, 1593604916077878, 1593604916076875, 1593604916075871, 1593604916075869, 1593604916074862, 1593604916074858, 1593604916074856, 1593604916074855, 1593604916074854, 1593604916073850, 1593604916073848, 1593604916072845, 1593604916072843, 1593604916072837, 1593604916071834, 1593604916071831, 1593604916071826, 1593604916071824, 1593604916070822, 1593604916070820, 1593604916070818, 1593604916070814, 1593604916069813, 1593604916069811, 1593604916068809, 1593604913114907, 1593604913114902, 1593604913114897, 1593604913114895, 1593604913113893, 1593604913113890, 1593604913112886, 1593604913112884, 1593604913112883, 1593604913112877, 1593604913111873, 1593604913111867, 1593604913111861, 1593604913110856, 1593604913110846, 1593604913110842, 1593604913109839, 1593604913109834, 1593604913109828, 1593604913109821, 1593604913108817, 1593604913108815, 1593604913108812, 1593604913107809, 1593604913107805, 1593604910064643, 1593604910063639, 1593604910062636, 1593604910062632, 1593604910062629, 1593604910062626, 1593604910062622, 1593604910061621, 1593604910061618, 1593604910060614, 1593604910060609, 1593604910060608, 1593604910059606, 1593604910059604, 1593604910059601, 1593604910058595, 1593604910055567, 1593604910055565, 1593604910054564, 1593604910054561, 1593604910054555, 1593604910054551, 1593604910053548, 1593604910053544, 1593604910053540, 1593604907028186, 1593604907028183, 1593604907027177, 1593604907027171, 1593604907027168, 1593604907026166, 1593604907026165, 1593604907026163, 1593604907026161, 1593604907025157, 1593604907024149, 1593604907023145, 1593604907023141, 1593604907022138, 1593604907022134, 1593604907022129, 1593604907021126, 1593604907021121, 1593604907020116, 1593604907020112, 1593604907019106, 1593604907016081, 1593604907015079, 1593604907015074, 1593604907014066, 1580807438689338, 1580807438688330, 1580807438681326, 1580807438681279, 1580807438681276, 1580807438680273, 1580807438680271, 1580807438680267, 1580807438680264, 1580807438679261, 1580807438679259, 1580807438679254, 1580807438678245, 1580807438678238, 1580807438678231, 1580807438678226, 1580807438677222, 1580807438677220, 1580807438677217, 1580807438677213, 1580807438676211, 1580807438676209, 1580807438676205, 1580807438676201, 1580807438675193, 1580807438675187, 1580807438675181, 1580807438674178, 1580807438674173, 1580807438674170, 1580807438673168, 1580807438673165, 1580807438673162, 1580807438673157, 1580807438672147, 1580807438672144, 1580807438672143, 1580807438671139, 1580807438671135, 1580807438671125, 1580807438671121, 1580807438670118, 1580807438670114, 1580807438670111, 1580807438669108, 1580807438669105, 1580807438669103, 1580807438669097, 1580807438668094, 1580807438668090, 1580807438668085, 1580807438667081, 1580807438667076, 1580807438667074, 1580807438666068, 1580807438666066, 1580807438666063, 1580807438666059, 1580807438665057, 1580807438665054, 1580807438664051, 1580807438664048, 1580807438664045, 1580807438663041, 1580807438663033, 1580807438663027, 1580807438662023, 1580807438662018, 1580807438662015, 1580807438661012, 1580807438661010, 1580807438661009, 1580807438661007, 1580807438661004, 1580807438661005, 1580807438660997, 1580807438659991, 1580807438659986, 1580807438659980, 1580807438658977, 1580807438658974, 1580807438658966, 1580807438658963, 1580807438658961, 1580807438657959, 1580807438657955, 1580807438656947, 1580807438656943, 1580807438655939, 1580807438655935, 1580807438655932, 1580807438655931, 1580807438655929, 1580807438654925, 1580807438654923, 1580807438654918, 1580807438653913, 1580807438653907, 1580807438653905, 1580807438653902, 1564041731593319, 1564041731592318, 1564041731592315, 1564041731592314, 1564041731592313, 1564041731591311, 1564041731591309, 1564041731591307, 1564041731591303, 1564041731591302, 1564041731590301, 1564041731590296, 1564041731590295, 1564041731589289, 1564041731589285, 1564041731589283, 1564041731589282, 1564041731588280, 1564041731588278, 1564041731588276, 1564041731588275, 1564041731588274, 1564041731587272, 1564041731587267, 1564041731587266, 1564041731587265, 1564041731586263, 1564041731586258, 1564041731586256, 1564041731586254, 1564041731586252, 1564041731585250, 1564041731585248, 1564041731585246, 1564041731585244, 1564041731585242, 1564041731584241, 1564041731584239, 1564041731584234, 1564041731584231, 1564041731584229, 1564041731583227, 1564041731583225, 1564041731583223, 1564041731583220, 1564041731583217, 1564041731583215, 1564041731582214, 1564041731582212, 1564041731582210, 1564041731582206, 1564041731582204, 1564041731581199, 1564041731581194, 1564041731581192, 1564041731581189, 1564041731580188, 1564041731580185, 1564041731580184, 1564041731580182, 1564041731580180, 1564041731579175, 1564041731579171, 1564041731579167, 1564041731579166, 1564041731578165, 1564041731578162, 1564041731578156, 1564041731578154, 1564041731577148, 1564041731577146, 1564041731577142, 1564041731576138, 1564041731576133, 1564041731576129, 1564041731575118, 1564041731575114, 1564041731575112, 1564041731574108, 1564041731574106, 1564041731574101, 1564041731574099, 1564041731574095, 1564041731573088, 1564041731573087, 1564041731573084, 1564041731573079, 1564041731572076, 1564041731572072, 1564041731571063, 1564041731571060, 1564041731570057, 1564041731570051, 1564041731570044, 1564041731570041, 1564041731569039, 1564041731569030, 1564041731569025, 1564041731569021, 1564041731569018, 1564041690938295, 1564041690938292, 1564041690937290, 1564041690937288, 1564041690937285, 1564041690937284, 1564041690937282, 1564041690937281, 1564041690936279, 1564041690936275, 1564041690936273, 1564041690936271, 1564041690936267, 1564041690935265, 1564041690935262, 1564041690935259, 1564041690935258, 1564041690935257, 1564041690935256, 1564041690934252, 1564041690934249, 1564041690934247, 1564041690934241, 1564041690933240, 1564041690933238, 1564041690933236, 1564041690933235, 1564041690933231, 1564041690933228, 1564041690932226, 1564041690932225, 1564041690932220, 1564041690932217, 1564041690932213, 1564041690931207, 1564041690931206, 1564041690931204, 1564041690931202, 1564041690931200, 1564041690931196, 1564041690930194, 1564041690930192, 1564041690930189, 1564041690930185, 1564041690930183, 1564041690930179, 1564041690929176, 1564041690929175, 1564041690929171, 1564041690929168, 1564041690929165, 1564041690928164, 1564041690928162, 1564041690928159, 1564041690928156, 1564041690928155, 1564041690928153, 1564041690927151, 1564041690927148, 1564041690927145, 1564041690927143, 1564041690927139, 1564041690927137, 1564041690926133, 1564041690926132, 1564041690926129, 1564041690926124, 1564041690926119, 1564041690925117, 1564041690925114, 1564041690925112, 1564041690925111, 1564041690925108, 1564041690925106, 1564041690924104, 1564041690924102, 1564041690924100, 1564041690924097, 1564041690924091, 1564041690924090, 1564041690924089, 1564041690923087, 1564041690923085, 1564041690923082, 1564041690923080, 1564041690923077, 1564041690923076, 1564041690922075, 1564041690922074, 1564041690922069, 1564041690922064, 1564041690922062, 1564041690921060, 1564041690921059, 1564041690921057, 1564041690921056, 1564041690921054, 1564041690921053, 1564041690920051, 1564041690920047, 1564041652437527, 1564041652437525, 1564041652437521, 1564041652437517, 1564041652437514, 1564041652436513, 1564041652436509, 1564041652436506, 1564041652436503, 1564041652436501, 1564041652435500, 1564041652435497, 1564041652435494, 1564041652435491, 1564041652434489, 1564041652434484, 1564041652434480, 1564041652434476, 1564041652433474, 1564041652433469, 1564041652433467, 1564041652433466, 1564041652433463, 1564041652432462, 1564041652432461, 1564041652432458, 1564041652432455, 1564041652432454, 1564041652431452, 1564041652431450, 1564041652431448, 1564041652431447, 1564041652431442, 1564041652430436, 1564041652430434, 1564041652430432, 1564041652430431, 1564041652430429, 1564041652429428, 1564041652429425, 1564041652429421, 1564041652429417, 1564041652429413, 1564041652428410, 1564041652428409, 1564041652428408, 1564041652428404, 1564041652428402, 1564041652427400, 1564041652427397, 1564041652427393, 1564041652427391, 1564041652427389, 1564041652426386, 1564041652426382, 1564041652426380, 1564041652426378, 1564041652426377, 1564041652425375, 1564041652425370, 1564041652425367, 1564041652425365, 1564041652425364, 1564041652425361, 1564041652424357, 1564041652424354, 1564041652424350, 1564041652424348, 1564041652424345, 1564041652423343, 1564041652423340, 1564041652423339, 1564041652423336, 1564041652423333, 1564041652423330, 1564041652422329, 1564041652422326, 1564041652422325, 1564041652422320, 1564041652422319, 1564041652421315, 1564041652421314, 1564041652421309, 1564041652421307, 1564041652421303, 1564041652420302, 1564041652420301, 1564041652420298, 1564041652420297, 1564041652420296, 1564041652420293, 1564041652419291, 1564041652419286, 1564041652419283, 1564041652419282, 1564041652419278, 1564041652418273, 1564041652418271, 1564041652418268, 1564041652418266, 1564041629335098, 1564041629334097, 1564041629334095, 1564041629334093, 1564041629334092, 1564041629334091, 1564041629333087, 1564041629333085, 1564041629333082, 1564041629333081, 1564041629333079, 1564041629333078, 1564041629332077, 1564041629332073, 1564041629332071, 1564041629332069, 1564041629332066, 1564041629331061, 1564041629331060, 1564041629331059, 1564041629331058, 1564041629331056, 1564041629331055, 1564041629330054, 1564041629330051, 1564041629330049, 1564041629330046, 1564041629330045, 1564041629330043, 1564041629329042, 1564041629329041, 1564041629329039, 1564041629329033, 1564041629329030, 1564041629328029, 1564041629328027, 1564041629328025, 1564041629328024, 1564041629328023, 1564041629328021, 1564041629327020, 1564041629327019, 1564041629327018, 1564041629327015, 1564041629327013, 1564041629326012, 1564041629326011, 1564041629326010, 1564041629326009, 1564041629326005, 1564041629325001, 1564041629325999, 1564041629325997, 1564041629325995, 1564041629324993, 1564041629324992, 1564041629324990, 1564041629324988, 1564041629324986, 1564041629323982, 1564041629323981, 1564041629323977, 1564041629323974, 1564041629323973, 1564041629322972, 1564041629322970, 1564041629322969, 1564041629322968, 1564041629322966, 1564041629322964, 1564041629321962, 1564041629321960, 1564041629321957, 1564041629321956, 1564041629321954, 1564041629320953, 1564041629320952, 1564041629320949, 1564041629320947, 1564041629320946, 1564041629319944, 1564041629319941, 1564041629319938, 1564041629319937, 1564041629319934, 1564041629319932, 1564041629318931, 1564041629318930, 1564041629318928, 1564041629318925, 1564041629318923, 1564041629317920, 1564041629317919, 1564041629317918, 1564041629317916, 1564041629317915, 1564041629317914, 1564041629316912, 1564041629316910, 1564041629316906, 1564041599156332, 1564041599156329, 1564041599156327, 1564041599156324, 1564041599155323, 1564041599155321, 1564041599155319, 1564041599155315, 1564041599155313, 1564041599155312, 1564041599154309, 1564041599154307, 1564041599154305, 1564041599154302, 1564041599154300, 1564041599154297, 1564041599153296, 1564041599153294, 1564041599153293, 1564041599153292, 1564041599153290, 1564041599153289, 1564041599152288, 1564041599152287, 1564041599152285, 1564041599152284, 1564041599152282, 1564041599152281, 1564041599151280, 1564041599151276, 1564041599151274, 1564041599151273, 1564041599151271, 1564041599151270, 1564041599150269, 1564041599150266, 1564041599150265, 1564041599150263, 1564041599150262, 1564041599150258, 1564041599149256, 1564041599149255, 1564041599149253, 1564041599149251, 1564041599149250, 1564041599149249, 1564041599148247, 1564041599148246, 1564041599148245, 1564041599148244, 1564041599148243, 1564041599148239, 1564041599147235, 1564041599147233, 1564041599147231, 1564041599147230, 1564041599147228, 1564041599147226, 1564041599146225, 1564041599146221, 1564041599146219, 1564041599146218, 1564041599146216, 1564041599146215, 1564041599145214, 1564041599145212, 1564041599145211, 1564041599145210, 1564041599145209, 1564041599145207, 1564041599144205, 1564041599144204, 1564041599144203, 1564041599144201, 1564041599144200, 1564041599144199, 1564041599143198, 1564041599143196, 1564041599143195, 1564041599143193, 1564041599143191, 1564041599143190, 1564041599142189, 1564041599142187, 1564041599142186, 1564041599142185, 1564041599142183, 1564041599141180, 1564041599141178, 1564041599141176, 1564041599141174, 1564041599141172, 1564041599141171, 1564041599140169, 1564041599140168, 1564041599140165, 1564041599140164, 1564041599140163, 1564041599140161, 1564041599139160, 1520840317758960, 1520840317758958, 1520840317758956, 1520840317758954, 1520840317758952, 1520840317758950, 1520840317757949, 1520840317757945, 1520840317757943, 1520840317757942, 1520840317757941, 1520840317757936, 1520840317756935, 1520840317756931, 1520840317756927, 1520840317755923, 1520840317755919, 1520840317755918, 1520840317755916, 1520840317755912, 1520840317755909, 1520840317754907, 1520840317754906, 1520840317754904, 1520840317754902, 1520840317754900, 1520840317754899, 1520840317754898, 1520840317753895, 1520840317753893, 1520840317753888, 1520840317753886, 1520840317753884, 1520840317752883, 1520840317752881, 1520840317752880, 1520840317752878, 1520840317752876, 1520840317752873, 1520840317751869, 1520840317751866, 1520840317751864, 1520840317751862, 1520840317751860, 1520840317751858, 1520840317750855, 1520840317750852, 1520840317750849, 1520840317750847, 1520840317750844, 1510051341917159, 1510051341916158, 1510051341916154, 1510051341916153, 1510051341916151, 1510051341916150, 1510051341916148, 1510051341916147, 1510051341915146, 1510051341915145, 1510051341915144, 1510051341915143, 1510051341915142, 1510051341915141, 1510051341915139, 1510051341915137, 1510051341914134, 1510051341914133, 1510051341914130, 1510051341914129, 1510051341914128, 1510051341914127, 1510051341913126, 1510051341913124, 1510051341913123, 1510051341913121, 1510051341913120, 1510051341913119, 1510051341912117, 1510051341912116, 1510051341912115, 1510051341912114, 1510051341912113, 1510051341912112, 1510051341912111, 1510051341911109, 1510051341911107, 1510051341911106, 1510051341911105, 1510051341911102, 1510051341911100, 1510051341910098, 1510051341910097, 1510051341910096, 1510051341910095, 1510051341910093, 1510051341910092, 1510051341909088, 1510051341909085, 1510051341909084, 1510051341909082, 1510051341909080, 1510051341909078, 1510051341908076, 1510051341908074, 1510051341908073, 1510051341908071, 1510051341908068, 1510051341908066, 1510051341907065, 1510051341907062, 1510051341907061, 1510051341907060, 1510051341907058, 1510051341907057, 1510051341907056, 1510051341906055, 1510051341906053, 1510051341906051, 1510051341906049, 1510051341906046, 1510051341905043, 1510051341905042, 1510051341905040, 1510051341905037, 1510051341905035, 1510051341904033, 1510051341904030, 1510051341904028, 1510051341904026, 1510051341904023, 1510051341903022, 1510051341903019, 1510051341903017, 1510051341903014, 1510051341902012, 1510051341902011, 1510051341902010, 1510051341902008, 1510051341901006, 1510051341901999, 1510051341900998, 1510051341900995, 1510051341900994, 1510051341900992, 1510051341900990, 1510051341899989, 1510051341899988, 1510051341899984, 1510051341899980, 1505299735861183, 1505299735861182, 1505299735861181, 1505299735861180, 1505299735861179, 1505299735861177, 1505299735860176, 1505299735860175, 1505299735860174, 1505299735860173, 1505299735860172, 1505299735860171, 1505299735860170, 1505299735860169, 1505299735860167, 1505299735860166, 1505299735860165, 1505299735859164, 1505299735859163, 1505299735859162, 1505299735859160, 1505299735859159, 1505299735859158, 1505299735859157, 1505299735859154, 1505299735859153, 1505299735859152, 1505299735858151, 1505299735858150, 1505299735858149, 1505299735858148, 1505299735858147, 1505299735858146, 1505299735858145, 1505299735858144, 1505299735858141, 1505299735858139, 1505299735858138, 1505299735857137, 1505299735857136, 1505299735857135, 1505299735857134, 1505299735857133, 1505299735857132, 1505299735857129, 1505299735857127, 1505299735857126, 1505299735856125, 1505299735856124, 1505299735856123, 1505299735856122, 1505299735856121, 1505299735856120, 1505299735856118, 1505299735856117, 1505299735856116, 1505299735856115, 1505299735855114, 1505299735855113, 1505299735855111, 1505299735855110, 1505299735855109, 1505299735855108, 1505299735855107, 1505299735855106, 1505299735855105, 1505299735855104, 1505299735855102, 1505299735854101, 1505299735854100, 1505299735854099, 1505299735854098, 1505299735854097, 1505299735854096, 1505299735854095, 1505299735854093, 1505299735853091, 1505299735853090, 1505299735853089, 1505299735853088, 1505299735853087, 1505299735853086, 1505299735853085, 1505299735853084, 1505299735853083, 1505299735853082, 1505299735853081, 1505299735852080, 1505299735852079, 1505299735852078, 1505299735852077, 1505299735852076, 1505299735852074, 1505299735852073, 1505299735852072, 1505299735852071, 1505299735852070, 1505299735851069, 1505299735851066, 1505299735851065, 1493708945034759, 1493708945034758, 1493708945034757, 1493708945034756, 1493708945034754, 1493708945033753, 1493708945033752, 1493708945033749, 1493708945033748, 1493708945033747, 1493708945033746, 1493708945033745, 1493708945033744, 1493708945033743, 1493708945032742, 1493708945032741, 1493708945032740, 1493708945032739, 1493708945032737, 1493708945032736, 1493708945032735, 1493708945032734, 1493708945032733, 1493708945032732, 1493708945031730, 1493708945031728, 1493708945031727, 1493708945031726, 1493708945031725, 1493708945031723, 1493708945031722, 1493708945031721, 1493708945031720, 1493708945030719, 1493708945030718, 1493708945030717, 1493708945030716, 1493708945030715, 1493708945030714, 1493708945030713, 1493708945030712, 1493708945030711, 1493708945030709, 1493708945030708, 1493708945029707, 1493708945029706, 1493708945029705, 1493708945029704, 1493708945029703, 1493708945029702, 1493708899793951, 1493708899793949, 1493708899793948, 1493708899793947, 1493708899793946, 1493708899792944, 1493708899792942, 1493708899792940, 1493708899792939, 1493708899792938, 1493708899792936, 1493708899792935, 1493708899792934, 1493708899791931, 1493708899791930, 1493708899791929, 1493708899791927, 1493708899791926, 1493708899791924, 1493708899791923, 1493708899791921, 1493708899791919, 1493708899791918, 1493708899790917, 1493708899790916, 1493708899790915, 1493708899790914, 1493708899790912, 1493708899790909, 1493708899790908, 1493708899790907, 1493708899790906, 1493708899789905, 1493708899789904, 1493708899789903, 1493708899789902, 1493708899789900, 1493708899789897, 1493708899789895, 1493708899789894, 1493708899788892, 1493708899788891, 1493708899788890, 1493708899788889, 1493708899788888, 1493708899788887, 1493708899788886, 1493708899788885, 1493708899788884, 1493708899787883, 1493708899787882, 1493708899787881, 1493708899787880, 1493708899787879, 1493708899787877, 1493708899787875, 1493708899787874, 1493708899786873, 1493708899786872, 1493708899786871, 1493708899786870, 1493708899786869, 1493708899786868, 1493708899786865, 1493708899786864, 1493708899786863, 1493708899785862, 1493708899785861, 1493708899785860, 1493708899785859, 1493708899785858, 1493708899785857, 1493708899785856, 1493708899785855, 1493708899785854, 1493708899784853, 1493708899784852, 1493708899784850, 1493708899784849, 1493708899784848, 1493708899784847, 1493708899784846, 1493708899784845, 1493708899784844, 1493708899784843, 1493708899783842, 1493708899783841, 1493708899783840, 1493708899783839, 1493708899783838, 1493708899783837, 1493708899783836, 1493708899783835, 1493708899783832, 1493708899782831, 1493708899782828, 1493708899782826, 1493708899782825, 1493708899782824, 1493708899782822, 1493708795734192, 1493708795734191, 1493708795734190, 1493708795734189, 1493708795733185, 1493708795733183, 1493708795733181, 1493708795733180, 1493708795733179, 1493708795733175, 1493708795733174, 1493708795732173, 1493708795732172, 1493708795732171, 1493708795732170, 1493708795732168, 1493708795732166, 1493708795732165, 1493708795731164, 1493708795731163, 1493708795731162, 1493708795731160, 1493708795731159, 1493708795731157, 1493708795731156, 149370</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1515759758426819</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1625831861467590, 1625831861466587, 1625831861466585, 1625831861465579, 1625831861464573, 1625831861464566, 1625831861463560, 1625831861463557, 1625831861462552, 1625831861461550, 1625831861461547, 1625831861460543, 1625831861459542, 1625831861459540, 1625831861458537, 1625831861458531, 1625831861457530, 1625831861456527, 1625831861456522, 1625831861455518, 1625831861455515, 1625831861454514, 1625831861453512, 1625831861453510, 1625831861452506, 1625831861451504, 1625831861451500, 1625831861450497, 1625831861450495, 1625831861449491, 1625831861448489, 1625831861448484, 1625831861447480, 1625831861447477, 1625831861446474, 1625831861445469, 1625831861445465, 1625831861444461, 1625831861444458, 1625831861443454, 1625831861442453, 1625831861442447, 1625831861441443, 1625831861440441, 1625831861440437, 1625831861439434, 1625831861439426, 1625831861438424, 1625831861437419, 1625831861437414, 1625831861436409, 1625831861436406, 1625831861435405, 1625831861434399, 1625831861434397, 1625831861433390, 1625831861432386, 1625831861432384, 1625831861431381, 1625831861431377, 1625831861430371, 1625831847330632, 1625831847329631, 1625831847329626, 1625831847328618, 1625831847328610, 1625831847327605, 1625831847326601, 1625831847326598, 1625831847325593, 1625831847325590, 1625831847324584, 1625831847323579, 1625831847323577, 1625831847322575, 1625831847322569, 1625831847321565, 1625831847321561, 1625831847320556, 1625831847319553, 1625831847319550, 1625831847318548, 1625831847318541, 1625831847317538, 1625831847317531, 1625831847316527, 1625831847315518, 1625831847315514, 1625831847314509, 1625831847314505, 1625831847313501, 1625831847312493, 1625831847312490, 1625831847311487, 1625831847311480, 1625831847310476, 1625831847310469, 1625831847309463, 1625831847308459, 1625831847308453, 1625831847307451, 1625831847307445, 1625831847306442, 1625831847305438, 1625831847305432, 1625831847304428, 1625831847304423, 1625831847303420, 1625831847303417, 1625831847302410, 1625831847301407, 1625831847301403, 1625831847300396, 1625831847300394, 1625831847299391, 1625831847298388, 1625831847298381, 1625831847297378, 1625831847297372, 1625831847296367, 1625831826786799, 1625831826785795, 1625831826785791, 1625831826784786, 1625831826783777, 1625831826783773, 1625831826782767, 1625831826781764, 1625831826780758, 1625831826780751, 1625831826779746, 1625831826778742, 1625831826777733, 1625831826777726, 1625831826776719, 1625831826775711, 1625831826775704, 1625831826774698, 1625831826773682, 1625831826773673, 1625831826772668, 1625831826771667, 1625831826770663, 1625831826770658, 1625831826769656, 1625831826768651, 1625831826768648, 1625831826767643, 1625831826766639, 1625831826765631, 1625831826765626, 1625831826764620, 1625831826763615, 1625831826763609, 1625831826762606, 1625831826761604, 1625831826760598, 1625831826760594, 1625831826759592, 1625831826758589, 1625831826758586, 1625831826757580, 1625831826756575, 1625831826755573, 1625831826755570, 1625831826754565, 1625831826753563, 1625831826753553, 1625831826752549, 1625831826751546, 1625831826750542, 1625831826750540, 1625831826749534, 1625831826748531, 1625831826748524, 1625831826747521, 1625831826746517, 1625831826745511, 1625831826745508, 1625831826744501, 1625831809074102, 1625831809073094, 1625831809073090, 1625831809072080, 1625831809072076, 1625831809071072, 1625831809070067, 1625831809070065, 1625831809069062, 1625831809069059, 1625831809068050, 1625831809068047, 1625831809067045, 1625831809066039, 1625831809066037, 1625831809065034, 1625831809065032, 1625831809064028, 1625831809064021, 1625831809063017, 1625831809062014, 1625831809062003, 1625831809061001, 1625831809061003, 1625831809059995, 1625831809059991, 1625831809058987, 1625831809058983, 1625831809057979, 1625831809057974, 1625831809056969, 1625831809055966, 1625831809055961, 1625831809054955, 1625831809054952, 1625831809053940, 1625831809053936, 1625831809052929, 1625831809051924, 1625831809051920, 1625831809050914, 1625831809050909, 1625831809049904, 1625831809049897, 1625831809048889, 1625831809047877, 1625831809047863, 1625831809046851, 1625831809046844, 1625831809045840, 1625831809044833, 1625831809044824, 1625831809043823, 1625831809043818, 1625831809042816, 1625831809041809, 1625831809041804, 1625831809040801, 1625831809040798, 1625831809039788, 1625831776241677, 1625831776241671, 1625831776240665, 1625831776239659, 1625831776239650, 1625831776238646, 1625831776237640, 1625831776237639, 1625831776236636, 1625831776236632, 1625831776235626, 1625831776234623, 1625831776234618, 1625831776233614, 1625831776232609, 1625831776232605, 1625831776231596, 1625831776231595, 1625831776230590, 1625831776229584, 1625831776229582, 1625831776228576, 1625831776227567, 1625831776227561, 1625831776226556, 1625831776225554, 1625831776225550, 1625831776224545, 1625831776224541, 1625831776223537, 1625831776222534, 1625831776222530, 1625831776221525, 1625831776220521, 1625831776220518, 1625831776219513, 1625831776218508, 1625831776218504, 1625831776217500, 1625831776217497, 1625831776216495, 1625831776215492, 1625831776215487, 1625831776214484, 1625831776213480, 1625831776213475, 1625831776212472, 1625831776212467, 1625831776211466, 1625831776210463, 1625831776210457, 1625831776209454, 1625831776209451, 1625831776208447, 1625831776207441, 1625831776207434, 1625831776206428, 1625831776205421, 1625831776205414, 1625831776204410, 1608607145407336, 1608607145406330, 1608607145405326, 1608607145405321, 1608607145404319, 1608607145403316, 1608607145403314, 1608607145402306, 1608607145401303, 1608607145401298, 1608607145400296, 1608607145400293, 1608607145399287, 1608607145398282, 1608607145398277, 1608607145397271, 1608607145396264, 1608607145396258, 1608607145395253, 1608607145394251, 1608607145394243, 1608607145393238, 1608607145392234, 1608607145391229, 1608607145391227, 1608607145390224, 1608607145389218, 1608607145389214, 1608607145388210, 1608607145387204, 1608607145387194, 1608607145386188, 1608607145385183, 1608607145385171, 1608607145384165, 1608607145383160, 1608607145383155, 1608607145382145, 1608607145382143, 1608607145381140, 1608607145380135, 1608607145379125, 1608607145379122, 1608607145378119, 1608607145377115, 1608607145377112, 1608607145376105, 1608607145376102, 1608607145375098, 1608607145374093, 1608607132292924, 1608607132292921, 1608607132291915, 1608607132291911, 1608607132290909, 1608607132290906, 1608607132289901, 1608607132289897, 1608607132288896, 1608607132287894, 1608607132287889, 1608607132286886, 1608607132286885, 1608607132285877, 1608607132285873, 1608607132284871, 1608607132284868, 1608607132283866, 1608607132283863, 1608607132282862, 1608607132282860, 1608607132281856, 1608607132280853, 1608607132280848, 1608607132279844, 1608607132279839, 1608607132278837, 1608607132278832, 1608607132277827, 1608607132277825, 1608607132276823, 1608607132275820, 1608607132275816, 1608607132274812, 1608607132274810, 1608607132273804, 1608607132273803, 1608607132272799, 1608607132272796, 1608607132271792, 1608607132271790, 1608607132270785, 1608607132270781, 1608607132269778, 1608607132269775, 1608607132268768, 1608607132267764, 1608607132267758, 1608607132266751, 1608607132266748, 1608607096197667, 1608607096197662, 1608607096196659, 1608607096195655, 1608607096195649, 1608607096194645, 1608607096194639, 1608607096193637, 1608607096192632, 1608607096192628, 1608607096191623, 1608607096190618, 1608607096190614, 1608607096189612, 1608607096188598, 1608607096188595, 1608607096187588, 1608607096186583, 1608607096186574, 1608607096185544, 1608607096156428, 1608607096156425, 1608607096155422, 1608607096154420, 1608607096154418, 1608607096153415, 1608607096152411, 1608607096152408, 1608607096151407, 1608607096150402, 1608607096150401, 1608607096149399, 1608607096148394, 1608607096148390, 1608607096147384, 1608607096147378, 1608607096146376, 1608607096145371, 1608607096145370, 1608607096144368, 1608607096143362, 1608607096143353, 1608607096142345, 1608607096141340, 1608607096141336, 1608607096140331, 1608607096139328, 1608607096139327, 1608607096138324, 1608607096137316, 1608607080357515, 1608607080356509, 1608607080356500, 1608607080355494, 1608607080355491, 1608607080355487, 1608607080354483, 1608607080353475, 1608607080353469, 1608607080352459, 1608607080352455, 1608607080351449, 1608607080351447, 1608607080351442, 1608607080350440, 1608607080349437, 1608607080349428, 1608607080348421, 1608607080348417, 1608607080348413, 1608607080347409, 1608607080346404, 1608607080346399, 1608607080345395, 1608607080345388, 1608607080344381, 1608607080344376, 1608607080343371, 1608607080343364, 1608607080342357, 1608607080342353, 1608607080341352, 1608607080341351, 1608607080340347, 1608607080340344, 1608607080339339, 1608607080339334, 1608607080339331, 1608607080338330, 1608607080338328, 1608607080337323, 1608607080337319, 1608607080336315, 1608607080336310, 1608607080335307, 1608607080335304, 1608607080334299, 1608607080334297, 1608607080333292, 1608607080333288, 1608606957805614, 1608606957805612, 1608606957804607, 1608606957804605, 1608606957803601, 1608606957803598, 1608606957802593, 1608606957802586, 1608606957801583, 1608606957801581, 1608606957800576, 1608606957800574, 1608606957799572, 1608606957799569, 1608606957798564, 1608606957798561, 1608606957797555, 1608606957797553, 1608606957796551, 1608606957796546, 1608606957795541, 1608606957795538, 1608606957794534, 1608606957794532, 1608606957793530, 1608606957793526, 1608606957792522, 1608606957792518, 1608606957791515, 1608606957791511, 1608606957790508, 1608606957790503, 1608606957789497, 1608606957789494, 1608606957788492, 1608606957788488, 1608606957787484, 1608606957787479, 1608606957786475, 1608606957786473, 1608606957785469, 1608606957785465, 1608606957784463, 1608606957784462, 1608606957784460, 1608606957783458, 1608606957783454, 1608606957782452, 1608606957782449, 1608606957781447, 1608606940282648, 1608606940282645, 1608606940281640, 1608606940280636, 1608606940280631, 1608606940279626, 1608606940278619, 1608606940278617, 1608606940277611, 1608606940277606, 1608606940276602, 1608606940275598, 1608606940275595, 1608606940274592, 1608606940273586, 1608606940273582, 1608606940272577, 1608606940272573, 1608606940271567, 1608606940270564, 1608606940270559, 1608606940269554, 1608606940268549, 1608606940268538, 1608606940267535, 1608606940267530, 1608606940266524, 1608606940265517, 1608606940265514, 1608606940264510, 1608606940263508, 1608606940263503, 1608606940262499, 1608606940262495, 1608606940261492, 1608606940260490, 1608606940260489, 1608606940259486, 1608606940258478, 1608606940258473, 1608606940257467, 1608606940256462, 1608606940256455, 1608606940255454, 1608606940255452, 1608606940254446, 1608606940253438, 1608606940253434, 1608606940252431, 1608606940252428, 1608606903185549, 1608606903185545, 1608606903185543, 1608606903184538, 1608606903184534, 1608606903183533, 1608606903183530, 1608606903182526, 1608606903182523, 1608606903181518, 1608606903181514, 1608606903180511, 1608606903180508, 1608606903179504, 1608606903179501, 1608606903178495, 1608606903177487, 1608606903177483, 1608606903177481, 1608606903176478, 1608606903176475, 1608606903175471, 1608606903175468, 1608606903174464, 1608606903174460, 1608606903173456, 1608606903173452, 1608606903172448, 1608606903172447, 1608606903171443, 1608606903171439, 1608606903170435, 1608606903170428, 1608606903169423, 1608606903169417, 1608606903169414, 1608606903168411, 1608606903168409, 1608606903167407, 1608606903167404, 1608606903166397, 1608606903166393, 1608606903165387, 1608606903165383, 1608606903164379, 1608606903164375, 1608606903163373, 1608606903163371, 1608606903163369, 1608606903162367, 1608606888588263, 1608606888588259, 1608606888587255, 1608606888586253, 1608606888586248, 1608606888585244, 1608606888585242, 1608606888584237, 1608606888584235, 1608606888583231, 1608606888583228, 1608606888582224, 1608606888582219, 1608606888581215, 1608606888580212, 1608606888580207, 1608606888579204, 1608606888579199, 1608606888578195, 1608606888577189, 1608606888577185, 1608606888576183, 1608606888576176, 1608606888575172, 1608606888575164, 1608606888574157, 1608606888573145, 1608606888573132, 1608606888572121, 1608606888572111, 1608606888571104, 1608606888570097, 1608606888570092, 1608606888569091, 1608606888569085, 1608606888568082, 1608606888568080, 1608606888567074, 1608606888566072, 1608606888566068, 1608606888565062, 1608606888565061, 1608606888564053, 1608606888564049, 1608606888563047, 1608606888563042, 1608606888562034, 1608606888561033, 1608606888561032, 1608606888560028, 1608606868636525, 1608606868635518, 1608606868635512, 1608606868634508, 1608606868634497, 1608606868633493, 1608606868632492, 1608606868632490, 1608606868631486, 1608606868630478, 1608606868630476, 1608606868629475, 1608606868629471, 1608606868628467, 1608606868627460, 1608606868627455, 1608606868626449, 1608606868625443, 1608606868625442, 1608606868624440, 1608606868623437, 1608606868623433, 1608606868622427, 1608606868621419, 1608606868621416, 1608606868620412, 1608606868620408, 1608606868619405, 1608606868618401, 1608606868618397, 1608606868617389, 1608606868616386, 1608606868616385, 1608606868615377, 1608606868615374, 1608606868614369, 1608606868613365, 1608606868613363, 1608606868612356, 1608606868612353, 1608606868611349, 1608606868610345, 1608606868610340, 1608606868609336, 1608606868609332, 1608606868608328, 1608606868607324, 1608606868607321, 1608606868606313, 1608606868605307, 1608606831246593, 1608606831245591, 1608606831245590, 1608606831244587, 1608606831243584, 1608606831243580, 1608606831242577, 1608606831242574, 1608606831241570, 1608606831240565, 1608606831240561, 1608606831239557, 1608606831239555, 1608606831238552, 1608606831237549, 1608606831237546, 1608606831236544, 1608606831236538, 1608606831235536, 1608606831234532, 1608606831234526, 1608606831233524, 1608606831232516, 1608606831232514, 1608606831231513, 1608606831231511, 1608606831230508, 1608606831229505, 1608606831229500, 1608606831228493, 1608606831228487, 1608606831227481, 1608606831226476, 1608606831226470, 1608606831225468, 1608606831224466, 1608606831224459, 1608606831223455, 1608606831223451, 1608606831222445, 1608606831221442, 1608606831221436, 1608606831220434, 1608606831219431, 1608606831219428, 1608606831218424, 1608606831218417, 1608606831217413, 1608606831216408, 1608606831216404, 1580807499725856, 1580807499725846, 1580807499724842, 1580807499724838, 1580807499724827, 1580807499723816, 1580807499723809, 1580807499723799, 1580807499723795, 1580807499722788, 1580807499722779, 1580807499722772, 1580807499721767, 1580807499721758, 1580807499720752, 1580807499720744, 1580807499720735, 1580807499720728, 1580807499719724, 1580807499719718, 1580807499718706, 1580807499718700, 1580807499718692, 1580807499718687, 1580807499717684, 1580807499717680, 1580807499717678, 1580807499717672, 1580807499716664, 1580807499716659, 1580807499716651, 1580807499715646, 1580807499715635, 1580807499715633, 1580807499714631, 1580807499714626, 1580807499714619, 1580807499714614, 1580807499713611, 1580807499713607, 1580807470249235, 1580807470248228, 1580807470248224, 1580807470248219, 1580807470247211, 1580807470247206, 1580807470246194, 1580807470246186, 1580807470246178, 1580807470245176, 1580807470245168, 1580807470244162, 1580807470244151, 1580807470244144, 1580807470243140, 1580807470243137, 1580807470243134, 1580807470242130, 1580807470242127, 1580807470242125, 1580807470242122, 1580807470241117, 1580807470241111, 1580807470241108, 1580807470240105, 1580807470240095, 1580807470239088, 1580807470239084, 1580807470239081, 1580807470238076, 1580807470238071, 1580807470238069, 1580807470238062, 1580807470237058, 1580807470237050, 1580807470237047, 1580807470236044, 1580807470236040, 1580807470236034, 1580807470235026, 1580807470235023, 1580807470235013, 1580807470234009, 1580807470234003, 1580807470235001, 1580807470233997, 1580807470233992, 1580807470233988, 1580807470233985, 1580807470232984, 1580807470232982, 1580807470232979, 1580807470232973, 1580807470231969, 1580807470231965, 1580807470231962, 1580807470230958, 1580807470230953, 1580807470229945, 1580807470229943, 1564042246450727, 1564042246450723, 1564042246450720, 1564042246450715, 1564042246449710, 1564042246449706, 1564042246449704, 1564042246449701, 1564042246449698, 1564042246448694, 1564042246448693, 1564042246448689, 1564042246448686, 1564042246448682, 1564042246448680, 1564042246447676, 1564042246447674, 1564042246447672, 1564042246447663, 1564042246447662, 1564042246446660, 1564042246446655, 1564042246446651, 1564042246446649, 1564042246446647, 1564042246446643, 1564042246445641, 1564042246445640, 1564042246445635, 1564042246445633, 1564042246445632, 1564042246444630, 1564042246444628, 1564042246444627, 1564042246444623, 1564042246444621, 1564042246444617, 1564042246443615, 1564042246443612, 1564042246443610, 1564042246443606, 1564042246443605, 1564042246442603, 1564042246442600, 1564042246442596, 1564042246442592, 1564042246442590, 1564042246441587, 1564042246441584, 1564042246441582, 1564042246441581, 1564042246441580, 1564042246441578, 1564042246440573, 1564042246440572, 1564042246440570, 1564042246440568, 1564042246440564, 1564042246440559, 1564042246439557, 1564042223481005, 1564042223481004, 1564042223482000, 1564042223481998, 1564042223481995, 1564042223480992, 1564042223480991, 1564042223480988, 1564042223480987, 1564042223480985, 1564042223479984, 1564042223479982, 1564042223479981, 1564042223479977, 1564042223479973, 1564042223478972, 1564042223478970, 1564042223478967, 1564042223478965, 1564042223478962, 1564042223478959, 1564042223477957, 1564042223477953, 1564042223477952, 1564042223477950, 1564042223477949, 1564042223476947, 1564042223476943, 1564042223476942, 1564042223476941, 1564042223476940, 1564042223476937, 1564042223476934, 1564042223475931, 1564042223475930, 1564042223475928, 1564042223475927, 1564042223475923, 1564042223475919, 1564042223474917, 1564042223474915, 1564042223474908, 1564042223474907, 1564042223474905, 1564042223474904, 1564042223473903, 1564042223473902, 1564042223473899, 1564042223473897, 1564042223473895, 1564042223472892, 1564042223472891, 1564042223472889, 1564042223472887, 1564042223472886, 1564042223472884, 1564042223471882, 1564042223471880, 1564042223471878, 1564042223471877, 1564042223471874, 1564042223470871, 1564042223470867, 1564042223470866, 1564042223470863, 1564042223470862, 1564042223470861, 1564042223469859, 1564042223469856, 1564042223469854, 1564042223469849, 1564042223469848, 1564042223468843, 1564042223468839, 1564042223468838, 1564042223468836, 1564042223468835, 1564042223468833, 1564042223467832, 1564042223467830, 1564042188192289, 1564042188192288, 1564042188192285, 1564042188192282, 1564042188192281, 1564042188192279, 1564042188191278, 1564042188191276, 1564042188191273, 1564042188191271, 1564042188191270, 1564042188191268, 1564042188190264, 1564042188190262, 1564042188190259, 1564042188190257, 1564042188190256, 1564042188190254, 1564042188189252, 1564042188189250, 1564042188189248, 1564042188189247, 1564042188189246, 1564042188188244, 1564042188188242, 1564042188188240, 1564042188188237, 1564042188188236, 1564042188188234, 1564042188187233, 1564042188187232, 1564042188187230, 1564042188187229, 1564042188187228, 1564042188186225, 1564042188186222, 1564042188186220, 1564042188186218, 1564042188186216, 1564042188186215, 1564042188185212, 1564042188185211, 1564042188185208, 1564042188185207, 1564042188185205, 1564042188185203, 1564042188184201, 1564042188184200, 1564042188184196, 1564042188184195, 1564042188184193, 1564042188184192, 1564042188183189, 1564042188183187, 1564042188183186, 1564042188183185, 1564042188183181, 1564042188183179, 1564042188182178, 1564042188182176, 1564042188182174, 1564042188182171, 1564042188182166, 1564042188181164, 1564042188181163, 1564042188181162, 1564042188181161, 1564042188181159, 1564042188181158, 1564042188180156, 1564042188180151, 1564042188180149, 1564042188180148, 1564042188180145, 1564042188180143, 1564042188179141, 1564042188179138, 1564042188179137, 1564042188179136, 1564042188179135, 1564042133781866, 1564042133781864, 1564042133781862, 1564042133781860, 1564042133781858, 1564042133781856, 1564042133780854, 1564042133780853, 1564042133780852, 1564042133780851, 1564042133780850, 1564042133780849, 1564042133779848, 1564042133779847, 1564042133779845, 1564042133779843, 1564042133779841, 1564042133778838, 1564042133778834, 1564042133778833, 1564042133778832, 1564042133778829, 1564042133778828, 1564042133777826, 1564042133777824, 1564042133777822, 1564042133777818, 1564042133777817, 1564042133776814, 1564042133776813, 1564042133776810, 1564042133776808, 1564042133776806, 1564042133776805, 1564042133775804, 1564042133775801, 1564042133775799, 1564042133775798, 1564042133774797, 1564042133774795, 1564042133774791, 1564042133774789, 1564042133774788, 1564042133773786, 1564042133773784, 1564042133773782, 1564042133773781, 1564042133773780, 1564042133773779, 1564042133772778, 1564042133772777, 1564042133772772, 1564042133772770, 1564042133772768, 1564042133771767, 1564042133771763, 1564042133771761, 1564042133771759, 1564042133771755, 1564042133770754, 1564042133770753, 1564042133770751, 1564042133770747, 1564042133770744, 1564042133769741, 1564042133769740, 1564042133769739, 1564042133769737, 1564042133769734, 1564042133768732, 1564042133768729, 1564042133768727, 1564042133768726, 1564042133768725, 1564042133768724, 1564042133767721, 1564042133767719, 1564042133767717, 1564042133767716, 1564042133767714, 1564041968281391, 1564041968281390, 1564041968281389, 1564041968280388, 1564041968280386, 1564041968280385, 1564041968280382, 1564041968280380, 1564041968279377, 1564041968279374, 1564041968279372, 1564041968279371, 1564041968279370, 1564041968279369, 1564041968278367, 1564041968278366, 1564041968278365, 1564041968278361, 1564041968278359, 1564041968277355, 1564041968277354, 1564041968277353, 1564041968277352, 1564041968277350, 1564041968277348, 1564041968276346, 1564041968276343, 1564041968276342, 1564041968276340, 1564041968276337, 1564041968275334, 1564041968275333, 1564041968275331, 1564041968275328, 1564041968275327, 1564041968275326, 1564041968274324, 1564041968274323, 1564041968274319, 1564041968274318, 1564041968274317, 1564041968274315, 1564041968273312, 1564041968273311, 1564041968273308, 1564041968273306, 1564041968273304, 1564041968273303, 1564041968272301, 1564041968272299, 1564041968272297, 1564041968272294, 1564041968272293, 1564041968272292, 1564041968271291, 1564041968271290, 1564041968271287, 1564041968271286, 1564041968271283, 1564041968271282, 1564041968270281, 1564041968270280, 1564041968270278, 1564041968270277, 1564041968270276, 1564041968270274, 1564041968269272, 1564041968269271, 1564041968269269, 1564041968269266, 1564041968269263, 1564041968268260, 1564041968268259, 1564041968268258, 1564041968268257, 1564041968268255, 1564041968268253, 1564041968267252, 1564041968267250, 1564041968267249, 1564041783903454, 1564041783903453, 1564041783903450, 1564041783902448, 1564041783902444, 1564041783902440, 1564041783902437, 1564041783902435, 1564041783901431, 1564041783901430, 1564041783901429, 1564041783901426, 1564041783901425, 1564041783901424, 1564041783901423, 1564041783900422, 1564041783900420, 1564041783900418, 1564041783900416, 1564041783900412, 1564041783899408, 1564041783899407, 1564041783899403, 1564041783899401, 1564041783899399, 1564041783898398, 1564041783898397, 1564041783898392, 1564041783898391, 1564041783898390, 1564041783898388, 1564041783897383, 1564041783897381, 1564041783897379, 1564041783897377, 1564041783896375, 1564041783896373, 1564041783896372, 1564041783896369, 1564041783896366, 1564041783896365, 1564041783895363, 1564041783895360, 1564041783895357, 1564041783895355, 1564041783895353, 1564041783895350, 1564041783894348, 1564041783894347, 1564041783894344, 1564041783894341, 1564041783894339, 1564041783894337, 1564041783893336, 1564041783893335, 1564041783893332, 1564041783893331, 1564041783893330, 1564041783892328, 1564041783892326, 1564041763364645, 1564041763364644, 1564041763364642, 1564041763364639, 1564041763364637, 1564041763364636, 1564041763363634, 1564041763363630, 1564041763363629, 1564041763363628, 1564041763363627, 1564041763363626, 1564041763362623, 1564041763362621, 1564041763362619, 1564041763362617, 1564041763362615, 1564041763362614, 1564041763361611, 1564041763361609, 1564041763361605, 1564041763361601, 1564041763361600, 1564041763361599, 1564041763360593, 1564041763360590, 1564041763360589, 1564041763360588, 1564041763360587, 1564041763360585, 1564041763359583, 1564041763359582, 1564041763359581, 1564041763359579, 1564041763359577, 1564041763359575, 1564041763358572, 1564041763358571, 1564041763358568, 1564041763358566, 1564041763358563, 1564041763358561, 1564041763357560, 1564041763357558, 1564041763357554, 1564041763357553, 1564041763357549, 1564041763356546, 1564041763356544, 1564041763356540, 1564041763356537, 1564041763356531, 1564041763356529, 1564041763355526, 1564041763355523, 1564041763355519, 1564041763355518, 1564041763355517, 1564041763355514, 1564041763354512, 1515759744738048, 1515759744738047, 1515759744737046, 1515759744737045, 1515759744737044, 1515759744737042, 1515759744737041, 1515759744737040, 1515759744737039, 1515759744736038, 1515759744736037, 1515759744736035, 1515759744736033, 1515759744736030, 1515759744736028, 1515759744735025, 1515759744735024, 1515759744735022, 1515759744735021, 1515759744735020, 1515759744735017, 1515759744735014, 1515759744734012, 1515759744734010, 1515759744734009, 1515759744734008, 1515759744734007, 1515759744734006, 1515759744733003, 1515759744733001, 1515759744733999, 1515759744733998, 1515759744733997, 1515759744732996, 1515759744732995, 1515759744732992, 1515759744732990, 1515759744732988, 1515759744732987, 1515759744732985, 1515759744731983, 1515759744731980, 1515759744731979, 1515759744731976, 1515759744731975, 1515759744731972, 1515759744730970, 1515759744730967, 1515759744730965, 1515759744730964, 1515759744730962, 1515759744729958, 1515759744729955, 1515759744729953, 1515759744729952, 1515759744729951, 1515759744729950, 1515759744728946, 1515759744728943, 1515759744728942, 1515759732735528, 1515759732735522, 1515759732735519, 1515759732734513, 1515759732734509, 1515759732734505, 1515759732734504, 1515759732734498, 1515759732734491, 1515759732733488, 1515759732733485, 1515759732733483, 1515759732733481, 1515759732732477, 1515759732732468, 1515759732732466, 1515759732732465, 1515759732732463, 1515759732732462, 1515759732732461, 1515759732731459, 1515759732731454, 1515759732731451, 1515759732731449, 1515759732731446, 1515759732731444, 1515759732730442, 1515759732730439, 1515759732730434, 1515759732730431, 1515759732730428, 1515759732730426, 1515759732729423, 1515759732729418, 1515759732729416, 1515759732729412, 1515759732729410, 1515759732728408, 1515759732728404, 1515759732728401, 1515759732728397, 1515759732728395, 1515759732728394, 1515759732727392, 1515759732727391, 1515759732727384, 1515759732727380, 1515759732727376, 1515759732726375, 1515759732726373, 1515759732726369, 1515759732726363, 1515759732726361, 1515759732725358, 1515759732725354, 1515759732725352, 1515759732725350, 1515759732725346, 1515759732725343, 1515759732724338, 1515759719249006, 1515759719250003, 1515759719249998, 1515759719249996, 1515759719249994, 1515759719248992, 1515759719248988, 1515759719248987, 1515759719248984, 1515759719248981, 1515759719248980, 1515759719248979, 1515759719248978, 1515759719248977, 1515759719248976, 1515759719247975, 1515759719247974, 1515759719247973, 1515759719247972, 1515759719247969, 1515759719247968, 1515759719247967, 1515759719247963, 1515759719246960, 1515759719246958, 1515759719246955, 1515759719246954, 1515759719246953, 1515759719246951, 1515759719246947, 1515759719245943, 1515759719245941, 1515759719245939, 1515759719245933, 1515759719245930, 1515759719245928, 1515759719244927, 1515759719244924, 1515759719244923, 1515759719244921, 1515759719244918, 1515759719244916, 1515759719244915, 1515759719243910, 1515759719243905, 1515759719243903, 1515759719243901, 1515759719243899, 1515759719243895, 1515759719243893, 1515759719242891, 1515759719242889, 1515759719242888, 1515759719242885, 1515759719242883, 1515759719242880, 1515759719242878, 1515759719242877, 1515759719242875, 1515759719242874, 1515759719241873, 1515759719241870, 1515759719241868, 1515759719241867, 1515759719241865, 1515759719241863, 1515759719241862, 1515759719241857, 1515759719241855, 1515759719240853, 1515759719240850, 1515759719240849, 1515759719240846, 1515759719240845, 1515759719240843, 1515759719240840, 1515759719239835, 1515759719239829, 1515759719239825, 1515759719239824, 1515759699631935, 1515759699631932, 1515759699631928, 1515759699630925, 1515759699630923, 1515759699630919, 1515759699630918, 1515759699630917, 1515759699630916, 1515759699630915, 1515759699629914, 1515759699629913, 1515759699629912, 1515759699629911, 1515759699629910, 1515759699629906, 1515759699628898, 1515759699628895, 1515759699628893, 1515759699628892, 1515759699628890, 1515759699627889, 1515759699627882, 1515759699627876, 1515759699627874, 1515759699627871, 1515759699627870, 1515759699627868, 1515759699626867, 1515759699626866, 1515759699626863, 1515759699626861, 1515759699626857, 1515759699626855, 1515759699625849, 1515759699625848, 1515759699625845, 1515759699625844, 1515759699625842, 1515759699624840, 1515759699624837, 1515759699624834, 1515759699624829, 1515759699624825, 1515759699624820, 1515759699623813, 1515759699623811, 1515759699623804, 1515759699622800, 1515759699622796, 1515759699622793, 1515759699622787, 1515759699622786, 1515759699621784, 1515759699621783, 1515759699621781, 1515759699621778, 1515759699621775, 1515759699621771, 1515759699620766, 1515759699620763, 1515759699620760, 1515759699620758, 1515759699620756, 1515759699620748, 1515759699619745, 1515759699619743, 1515759699619740, 1515759699619738, 1515759699619735, 1515759699618730, 1515759699618727, 1515759699618725, 1515759699618722, 1515759699618720, 1515759699618717, 1515759699617715, 1515759699617712, 1515759699617710, 1515759699617705, 1515759675935960, 1515759675935956, 1515759675935953, 1515759675935952, 1515759675935945, 1515759675934939, 1515759675934938, 1515759675934937, 1515759675934936, 1515759675934935, 1515759675933932, 1515759675933931, 1515759675933929, 1515759675933928, 1515759675933927, 1515759675933925, 1515759675933923, 1515759675932921, 1515759675932918, 1515759675932916, 1515759675932913, 1515759675932909, 1515759675931908, 1515759675931905, 1515759675931903, 1515759675931901, 1515759675931899, 1515759675930898, 1515759675930895, 1515759675930893, 1515759675930891, 1515759675930889, 1515759675930888, 1515759675930887, 1515759675929884, 1515759675929882, 1515759675929879, 1515759675929877, 1515759675929875, 1515759675929874, 1515759675928872, 1515759675928871, 1515759675928870, 1515759675928869, 1515759675928864, 1515759675928863, 1515759675927862, 1515759675927860, 1515759675927858, 1515759675927856, 1515759675927855, 1515759675927853, 1515759675926849, 1515759675926848, 1515759675926847, 1515759675926845, 1515759675926844, 1515759675926843, 1515759675926839, 1515759675925838, 1515759657126709, 1515759657126707, 1515759657126706, 1515759657126704, 1515759657126703, 1515759657126701, 1515759657126698, 1515759657126697, 1515759657126694, 1515759657125691, 1515759657125689, 1515759657125687, 1515759657125684, 1515759657125683, 1515759657125682, 1515759657125681, 1515759657125680, 1515759657125676, 1515759657124674, 1515759657124673, 1515759657124671, 1515759657124670, 1515759657124668, 1515759657124667, 1515759657124666, 1515759657124665, 1515759657124663, 1515759657124662, 1515759657124659, 1515759657123657, 1515759657123654, 1515759657123652, 1515759657123651, 1515759657123649, 1515759657123647, 1515759657123646, 1515759657123644, 1515759657122640, 1515759657122639, 1515759657122638, 1515759657122636, 1515759657122634, 1515759657122633, 1515759657122631, 1515759657122628, 1515759657122626, 1515759657122624, 1515759657121622, 1515759657121621, 1515759657121619, 1515759657121617, 1515759657121616, 1515759657121615, 1515759657121612, 1515759657120609, 1515759657120604, 1515759657120601, 1515759657120599, 1515759657120598, 1515759657120597, 1515759657120596, 1515759657120595, 1515759657120594, 1515759657120592, 1515759657119591, 1515759657119589, 1515759657119586, 1515759657119584, 1515759657119582, 1515759657119581, 1515759657119579, 1515759657119577, 1515759657119576, 1515759657118574, 1515759657118572, 1515759657118567, 1515759657118565, 1515759657117563, 1515759657117558, 1515759657117556, 151575</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1452156921629495</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1515759886924018</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1600047282383754</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1475997234386789</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1580902730218531]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1592828023532047</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1470047031112667</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1501069458181312</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1530758082299235, 1501051257602094, 1501051257602090, 1501051197474015, 1501051197474014, 1501051197474013, 1501051197474012, 1501051197474011, 1501051197474010, 1501051132449793, 1501051132449791, 1501051132449789, 1501051132449787, 1501051132449785, 1501051132449784, 1501051132448782, 1501051073342404, 1501051073342401, 1501051017017822, 1501050932015509, 1501050932015508, 1501050932015507, 1501050874688565, 1501050831078064, 1501050831078061, 1501050831078059, 1501050751335326, 1501050751335324, 1501050751335322, 1501050751334321, 1501050679283231, 1501050338811072, 1501050338810069, 1501050338810067, 1501050338810062, 1501050268534588, 1501050268534587, 1501050268534586, 1501050268533585, 1501050063367901, 1501050028147949, 1501050028147948, 1501049979598398, 1501049979598395, 1501049979598394, 1501049979597393, 1501049979597392, 1501049979597391, 1501049910905449, 1501049910905448, 1501049910904447, 1501049836058480, 1501049836058479, 1501049786098329, 1501049786097328, 1501049786097326, 1501049742285472, 1501049742285471, 1501049686959801, 1501049686958799, 1501049686958798, 1501049646837709, 1501049646837708, 1501049646836707, 1501049598987188, 1501049598987187, 1501049598987186, 1501049549654454, 1501049549654453, 1501049549654452, 1501049549653451, 1501049549653450, 1501049549653449, 1501049484283627, 1501049484283626, 1501049484283625, 1501049484283624, 1501049484282623, 1501049484282622, 1501049484282621, 1501049402062054, 1501049402062052, 1501049402062051, 1501049402061050, 1501048949557040, 1501048949557039, 1501048949556036, 1501048949556035, 1501048949556034, 1501048949556032, 1501048949556031, 1501048949556030, 1501048899370292, 1501048899370290, 1501048899370289, 1501048899370288, 1501048899370287, 1501048899369286, 1501048899369284, 1501048841454611, 1501048841454610, 1501048841454609, 1501048841454607, 1501048653182276, 1501048653181275, 1501048653181274, 1501048653181273, 1501048653181272, 1501048653181270, 1501048653181268, 1501048653180267, 1501048653180266, 1501048653180264, 1501048653180263, 1501048653180262, 1501048653180261, 1501048653180259]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1500465026108124</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1472625225736942</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1517384142749498, 1500544100659844, 1500544100659842, 1500530737314623, 1500530737313622, 1500530737313621, 1500530737313620, 1500530737313618, 1500530737313615, 1500530737313614, 1500530737313612, 1500530737312610, 1500530737312608, 1500530737312607, 1500530737312603, 1500530737312601, 1500450488530356, 1500450488530355, 1500450488530354, 1500450488530353, 1500450488530352, 1500450488529351, 1500450488529349, 1500450488529347, 1500450488529346, 1500450488529344, 1500450488529342, 1500450488529341, 1500450488528338]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1502711710536136</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1502794170131901, 1502794170131900, 1502794134890016, 1502793781464216, 1502793781464213, 1502793781463212, 1502793781463211, 1502793568305748, 1502793568305747, 1502793568305746, 1502793568305745, 1502793568305744, 1502793568305743, 1502793528987110, 1502793528986109, 1502793528986107, 1502793528986106, 1502793528986105, 1502793488311854, 1502793488310852, 1502793465928256, 1502793465928255, 1502793465927253, 1502793465927252, 1502793465927251, 1502793432508973, 1502793432508972, 1502793432507970, 1502793432507968, 1502793432507967, 1502793432507966, 1502793358964061, 1502793358964059, 1502793358964058, 1502793358963056, 1502793358963055, 1502793358963053, 1502793115319926, 1502793115319925, 1502793115318924, 1502793115318922, 1502793115318921]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1603009208674567</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1513934520563789</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1626244142769441, 1625551737217697, 1625193787211941, 1619601521876510, 1619598039033759, 1603009174104697, 1603009174104695, 1603009174104692, 1603009174104691, 1603009174103689, 1603009174103688, 1603009174103685, 1603009174103684, 1603009174103681, 1603009174102678, 1603009174102677]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1628833462316548</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1503978198947252</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1628833427073986, 1628833427072973, 1628833427072957, 1628833427071950, 1628833427071942]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1566980103287826</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1483440944168883</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1585625760885898, 1585624934358848, 1575947453297773, 1572838069026832, 1572838069026831, 1572838069026829, 1572838069025828, 1572838069025826, 1572838069025824, 1572838069024821, 1572838069024817, 1572838069024815, 1572838069023812, 1572838069023810, 1572838069023809, 1572838069023806, 1572838069022804, 1572838069021802, 1572838069021800, 1572838069021799, 1572838069021795, 1572838069020791, 1572838069020788, 1572838069020787, 1572838069020783, 1572838069019781, 1572838069019779, 1572838069019778, 1572838069019777, 1572838069018774, 1572838069018772, 1572838069018770, 1566978493087351, 1566978493087349, 1566978493087343, 1566978493086342, 1566978493086339, 1566978493086337, 1566978493086336, 1566978493086334, 1566978493086332, 1566978493085329, 1566978493085327, 1566978493085326, 1566978493085323, 1566978493085321, 1566978493085320, 1566978493084318, 1566978493084316, 1566978493084312, 1566978493084309, 1566978493084306, 1566978493084302, 1566978493083301, 1566978493083300, 1566978493083296, 1566978493083294, 1566978493083291, 1566978493083289, 1566978493082286, 1566978493082283, 1566978493082282, 1566978493082280, 1566978493082278, 1566978493082276, 1566978493081273, 1566978493081268, 1566978493081266, 1566978493081263, 1566978493081260]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>永恒之塔怀旧服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>新天龙八部怀旧服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>畅游帐号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>穿越火线</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>英雄联盟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>地下城与勇士</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>原神</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>QQ帐号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1498637774415673</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战网帐号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>盛趣帐号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>米哈游帐号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>苹果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>安卓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>微信帐号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>serverId与服务器名称映射</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903059072340, name=安卓全平台通用), GoodsServerSimpleDTO(id=1520565457289056, name=安卓微信400区), GoodsServerSimpleDTO(id=1520565457289055, name=安卓微信399区), GoodsServerSimpleDTO(id=1520565457289053, name=安卓微信398区), GoodsServerSimpleDTO(id=1520565457289052, name=安卓微信397区), GoodsServerSimpleDTO(id=1520565457289051, name=安卓微信396区), GoodsServerSimpleDTO(id=1520565457289049, name=安卓微信395区), GoodsServerSimpleDTO(id=1520565457289048, name=安卓微信394区), GoodsServerSimpleDTO(id=1520565457288047, name=安卓微信393区), GoodsServerSimpleDTO(id=1520565457288046, name=安卓微信392区), GoodsServerSimpleDTO(id=1520565457288045, name=安卓微信391区), GoodsServerSimpleDTO(id=1520565457288044, name=安卓微信390区), GoodsServerSimpleDTO(id=1520565457288043, name=安卓微信389区), GoodsServerSimpleDTO(id=1520565457288042, name=安卓微信388区), GoodsServerSimpleDTO(id=1520565457288041, name=安卓微信387区), GoodsServerSimpleDTO(id=1520565457287040, name=安卓微信386区), GoodsServerSimpleDTO(id=1520565457287038, name=安卓微信385区), GoodsServerSimpleDTO(id=1520565457287035, name=安卓微信384区), GoodsServerSimpleDTO(id=1520565457287032, name=安卓微信383区), GoodsServerSimpleDTO(id=1520565457287031, name=安卓微信382区), GoodsServerSimpleDTO(id=1520565457287028, name=安卓微信381区), GoodsServerSimpleDTO(id=1520565457287027, name=安卓微信380区), GoodsServerSimpleDTO(id=1520565457287025, name=安卓微信379区), GoodsServerSimpleDTO(id=1520565457286024, name=安卓微信378区), GoodsServerSimpleDTO(id=1520565457286023, name=安卓微信377区), GoodsServerSimpleDTO(id=1520565457286022, name=安卓微信376区), GoodsServerSimpleDTO(id=1520565457286021, name=安卓微信375区), GoodsServerSimpleDTO(id=1520565457286020, name=安卓微信374区), GoodsServerSimpleDTO(id=1520565457286019, name=安卓微信373区), GoodsServerSimpleDTO(id=1520565457286017, name=安卓微信372区), GoodsServerSimpleDTO(id=1520565457286016, name=安卓微信371区), GoodsServerSimpleDTO(id=1520565457285015, name=安卓微信370区), GoodsServerSimpleDTO(id=1520565457285014, name=安卓微信369区), GoodsServerSimpleDTO(id=1520565457285010, name=安卓微信368区), GoodsServerSimpleDTO(id=1520565457285009,name=安卓微信367区), GoodsServerSimpleDTO(id=1520565457284003, name=安卓微信366区), GoodsServerSimpleDTO(id=1520565457284999, name=安卓微信365区), GoodsServerSimpleDTO(id=1520565457284998, name=安卓微信364区), GoodsServerSimpleDTO(id=1520565457284997, name=安卓微信363区), GoodsServerSimpleDTO(id=1520565457284996, name=安卓微信362区), GoodsServerSimpleDTO(id=1520565457284994, name=安卓微信361区), GoodsServerSimpleDTO(id=1520565457283993, name=安卓微信360区), GoodsServerSimpleDTO(id=1520565457283990, name=安卓微信359区), GoodsServerSimpleDTO(id=1520565457283989, name=安卓微信358区), GoodsServerSimpleDTO(id=1520565457283985, name=安卓微信357区), GoodsServerSimpleDTO(id=1520565457283984, name=安卓微信356区), GoodsServerSimpleDTO(id=1520565457283982, name=安卓微信355区), GoodsServerSimpleDTO(id=1520565457283981, name=安卓微信354区), GoodsServerSimpleDTO(id=1520565457282980, name=安卓微信353区), GoodsServerSimpleDTO(id=1520565457282979, name=安卓微信352区), GoodsServerSimpleDTO(id=1520565457282976, name=安卓微信351区), GoodsServerSimpleDTO(id=1520565437178021, name=安卓微信350区), GoodsServerSimpleDTO(id=1520565437178019, name=安卓微信349区), GoodsServerSimpleDTO(id=1520565437178017, name=安卓微信348区), GoodsServerSimpleDTO(id=1520565437178016, name=安卓微信347区), GoodsServerSimpleDTO(id=1520565437178012, name=安卓微信346区), GoodsServerSimpleDTO(id=1520565437177011, name=安卓微信345区), GoodsServerSimpleDTO(id=1520565437177010, name=安卓微信344区), GoodsServerSimpleDTO(id=1520565437176004, name=安卓微信343区), GoodsServerSimpleDTO(id=1520565437176001, name=安卓微信342区), GoodsServerSimpleDTO(id=1520565437175999, name=安卓微信341区), GoodsServerSimpleDTO(id=1520565437175998, name=安卓微信340区), GoodsServerSimpleDTO(id=1520565437175994, name=安卓微信339区), GoodsServerSimpleDTO(id=1520565437175990,name=安卓微信338区), GoodsServerSimpleDTO(id=1520565437174987, name=安卓微信337区), GoodsServerSimpleDTO(id=1520565437174985, name=安卓微信336区), GoodsServerSimpleDTO(id=1520565437174984, name=安卓微信335区), GoodsServerSimpleDTO(id=1520565437174982, name=安卓微信334区), GoodsServerSimpleDTO(id=1520565437174980, name=安卓微信333区), GoodsServerSimpleDTO(id=1520565437174978, name=安卓微信332区), GoodsServerSimpleDTO(id=1520565437174976, name=安卓微信331区), GoodsServerSimpleDTO(id=1520565437173973, name=安卓微信330区), GoodsServerSimpleDTO(id=1520565437173970, name=安卓微信329区), GoodsServerSimpleDTO(id=1520565437173968, name=安卓微信328区), GoodsServerSimpleDTO(id=1520565437173967, name=安卓微信327区), GoodsServerSimpleDTO(id=1520565437173966, name=安卓微信326区), GoodsServerSimpleDTO(id=1520565437173963, name=安卓微信325区), GoodsServerSimpleDTO(id=1520565437172962, name=安卓微信324区), GoodsServerSimpleDTO(id=1520565437172961, name=安卓微信323区), GoodsServerSimpleDTO(id=1520565437172959, name=安卓微信322区), GoodsServerSimpleDTO(id=1520565437172956, name=安卓微信321区), GoodsServerSimpleDTO(id=1520565437172954, name=安卓微信320区), GoodsServerSimpleDTO(id=1520565437172953, name=安卓微信319区), GoodsServerSimpleDTO(id=1520565437172952, name=安卓微信318区), GoodsServerSimpleDTO(id=1520565437171951, name=安卓微信317区), GoodsServerSimpleDTO(id=1520565437171949, name=安卓微信316区), GoodsServerSimpleDTO(id=1520565437171946, name=安卓微信315区), GoodsServerSimpleDTO(id=1520565437171943, name=安卓微信314区), GoodsServerSimpleDTO(id=1520565437171941, name=安卓微信313区), GoodsServerSimpleDTO(id=1520565437171940, name=安卓微信312区), GoodsServerSimpleDTO(id=1520565437170937, name=安卓微信311区), GoodsServerSimpleDTO(id=1520565437170936, name=安卓微信310区), GoodsServerSimpleDTO(id=1520565437170935,name=安卓微信309区), GoodsServerSimpleDTO(id=1520565437170933, name=安卓微信308区), GoodsServerSimpleDTO(id=1520565437170932, name=安卓微信307区), GoodsServerSimpleDTO(id=1520565437170927, name=安卓微信306区), GoodsServerSimpleDTO(id=1520565437169924, name=安卓微信305区), GoodsServerSimpleDTO(id=1520565437169921, name=安卓微信304区), GoodsServerSimpleDTO(id=1520565437169919, name=安卓微信303区), GoodsServerSimpleDTO(id=1520565437169918, name=安卓微信302区), GoodsServerSimpleDTO(id=1520565437169917, name=安卓微信301区), GoodsServerSimpleDTO(id=1520565413160035, name=安卓微信300区), GoodsServerSimpleDTO(id=1520565413160034, name=安卓微信299区), GoodsServerSimpleDTO(id=1520565413160033, name=安卓微信298区), GoodsServerSimpleDTO(id=1520565413160031, name=安卓微信297区), GoodsServerSimpleDTO(id=1520565413160030, name=安卓微信296区), GoodsServerSimpleDTO(id=1520565413160029, name=安卓微信295区), GoodsServerSimpleDTO(id=1520565413160028, name=安卓微信294区), GoodsServerSimpleDTO(id=1520565413160027, name=安卓微信293区), GoodsServerSimpleDTO(id=1520565413159026, name=安卓微信292区), GoodsServerSimpleDTO(id=1520565413159024, name=安卓微信291区), GoodsServerSimpleDTO(id=1520565413159023, name=安卓微信290区), GoodsServerSimpleDTO(id=1520565413159022, name=安卓微信289区), GoodsServerSimpleDTO(id=1520565413159021, name=安卓微信288区), GoodsServerSimpleDTO(id=1520565413159020, name=安卓微信287区), GoodsServerSimpleDTO(id=1520565413159019, name=安卓微信286区), GoodsServerSimpleDTO(id=1520565413159018, name=安卓微信285区), GoodsServerSimpleDTO(id=1520565413159017, name=安卓微信284区), GoodsServerSimpleDTO(id=1520565413159016, name=安卓微信283区), GoodsServerSimpleDTO(id=1520565413159015, name=安卓微信282区), GoodsServerSimpleDTO(id=1520565413158014, name=安卓微信281区), GoodsServerSimpleDTO(id=1520565413158013,name=安卓微信280区), GoodsServerSimpleDTO(id=1520565413158012, name=安卓微信279区), GoodsServerSimpleDTO(id=1520565413158011, name=安卓微信278区), GoodsServerSimpleDTO(id=1520565413158010, name=安卓微信277区), GoodsServerSimpleDTO(id=1520565413158009, name=安卓微信276区), GoodsServerSimpleDTO(id=1520565413158008, name=安卓微信275区), GoodsServerSimpleDTO(id=1520565413158007, name=安卓微信274区), GoodsServerSimpleDTO(id=1520565413158006, name=安卓微信273区), GoodsServerSimpleDTO(id=1520565413158004, name=安卓微信272区), GoodsServerSimpleDTO(id=1520565413158003, name=安卓微信271区), GoodsServerSimpleDTO(id=1520565413157002, name=安卓微信270区), GoodsServerSimpleDTO(id=1520565413157001, name=安卓微信269区), GoodsServerSimpleDTO(id=1520565413157999, name=安卓微信268区), GoodsServerSimpleDTO(id=1520565413157998, name=安卓微信267区), GoodsServerSimpleDTO(id=1520565413157997, name=安卓微信266区), GoodsServerSimpleDTO(id=1520565413156995, name=安卓微信265区), GoodsServerSimpleDTO(id=1520565413156994, name=安卓微信264区), GoodsServerSimpleDTO(id=1520565413156993, name=安卓微信263区), GoodsServerSimpleDTO(id=1520565413156992, name=安卓微信262区), GoodsServerSimpleDTO(id=1520565413156990, name=安卓微信261区), GoodsServerSimpleDTO(id=1520565413156987, name=安卓微信260区), GoodsServerSimpleDTO(id=1520565413156986, name=安卓微信259区), GoodsServerSimpleDTO(id=1520565413156985, name=安卓微信258区), GoodsServerSimpleDTO(id=1520565413156984, name=安卓微信257区), GoodsServerSimpleDTO(id=1520565413155983, name=安卓微信256区), GoodsServerSimpleDTO(id=1520565413155982, name=安卓微信255区), GoodsServerSimpleDTO(id=1520565413155980, name=安卓微信254区), GoodsServerSimpleDTO(id=1520565413155979, name=安卓微信253区), GoodsServerSimpleDTO(id=1520565413155978, name=安卓微信252区), GoodsServerSimpleDTO(id=1520565413155977,name=安卓微信251区), GoodsServerSimpleDTO(id=1520565387477445, name=安卓微信250区), GoodsServerSimpleDTO(id=1520565387477443, name=安卓微信249区), GoodsServerSimpleDTO(id=1520565387476441, name=安卓微信248区), GoodsServerSimpleDTO(id=1520565387476440, name=安卓微信247区), GoodsServerSimpleDTO(id=1520565387476438, name=安卓微信246区), GoodsServerSimpleDTO(id=1520565387476437, name=安卓微信245区), GoodsServerSimpleDTO(id=1520565387476434, name=安卓微信244区), GoodsServerSimpleDTO(id=1520565387476432, name=安卓微信243区), GoodsServerSimpleDTO(id=1520565387476430, name=安卓微信242区), GoodsServerSimpleDTO(id=1520565387476429, name=安卓微信241区), GoodsServerSimpleDTO(id=1520565387476427, name=安卓微信240区), GoodsServerSimpleDTO(id=1520565387475423, name=安卓微信239区), GoodsServerSimpleDTO(id=1520565387475422, name=安卓微信238区), GoodsServerSimpleDTO(id=1520565387475421, name=安卓微信237区), GoodsServerSimpleDTO(id=1520565387475419, name=安卓微信236区), GoodsServerSimpleDTO(id=1520565387475418, name=安卓微信235区), GoodsServerSimpleDTO(id=1520565387475414, name=安卓微信234区), GoodsServerSimpleDTO(id=1520565387475412, name=安卓微信233区), GoodsServerSimpleDTO(id=1520565387475411, name=安卓微信232区), GoodsServerSimpleDTO(id=1520565387475409, name=安卓微信231区), GoodsServerSimpleDTO(id=1520564772841752, name=微信全服通用), GoodsServerSimpleDTO(id=1512550113721286, name=王者抢先服), GoodsServerSimpleDTO(id=1510736392178892, name=安卓微信230区), GoodsServerSimpleDTO(id=1510736392178890, name=安卓微信229区), GoodsServerSimpleDTO(id=1510736392178889, name=安卓微信228区), GoodsServerSimpleDTO(id=1510736392178888, name=安卓微信227区), GoodsServerSimpleDTO(id=1510736392178886, name=安卓微信226区), GoodsServerSimpleDTO(id=1510736392177883, name=安卓微信225区), GoodsServerSimpleDTO(id=1510736392177880, name=安卓微信224区), GoodsServerSimpleDTO(id=1510736392177879, name=安卓微信223区), GoodsServerSimpleDTO(id=1510736392177877, name=安卓微信222区), GoodsServerSimpleDTO(id=1510736392177876, name=安卓微信221区), GoodsServerSimpleDTO(id=1510736392176875, name=安卓微信220区), GoodsServerSimpleDTO(id=1510736392176873, name=安卓微信219区), GoodsServerSimpleDTO(id=1510736392176871, name=安卓微信218区), GoodsServerSimpleDTO(id=1510736392176869, name=安卓微信217区), GoodsServerSimpleDTO(id=1510736392176867, name=安卓微信216区), GoodsServerSimpleDTO(id=1510736392176865, name=安卓微信215区), GoodsServerSimpleDTO(id=1510736392175864, name=安卓微信214区), GoodsServerSimpleDTO(id=1510736392175862, name=安卓微信213区), GoodsServerSimpleDTO(id=1510736392175860, name=安卓微信212区), GoodsServerSimpleDTO(id=1510736392175859, name=安卓微信211区), GoodsServerSimpleDTO(id=1510736392175858, name=安卓微信210区), GoodsServerSimpleDTO(id=1510736392175856, name=安卓微信209区), GoodsServerSimpleDTO(id=1510736392175855, name=安卓微信208区), GoodsServerSimpleDTO(id=1510736392174853, name=安卓微信207区), GoodsServerSimpleDTO(id=1510736392174852, name=安卓微信206区), GoodsServerSimpleDTO(id=1510736392174851, name=安卓微信205区), GoodsServerSimpleDTO(id=1510736392174850, name=安卓微信204区), GoodsServerSimpleDTO(id=1510736392174846, name=安卓微信203区), GoodsServerSimpleDTO(id=1510736392173844, name=安卓微信202区), GoodsServerSimpleDTO(id=1510736392173842, name=安卓微信201区), GoodsServerSimpleDTO(id=1510736392173838, name=安卓微信200区), GoodsServerSimpleDTO(id=1510736392173835, name=安卓微信199区), GoodsServerSimpleDTO(id=1510736392173833, name=安卓微信198区), GoodsServerSimpleDTO(id=1510736392173831, name=安卓微信197区), GoodsServerSimpleDTO(id=1510736392172829, name=安卓微信196区), GoodsServerSimpleDTO(id=1510736392172828, name=安卓微信195区), GoodsServerSimpleDTO(id=1510736392172826, name=安卓微信194区), GoodsServerSimpleDTO(id=1510736392172824, name=安卓微信193区), GoodsServerSimpleDTO(id=1510736392172823, name=安卓微信192区), GoodsServerSimpleDTO(id=1510736392172821, name=安卓微信191区), GoodsServerSimpleDTO(id=1510736392172820, name=安卓微信190区), GoodsServerSimpleDTO(id=1510736392172819, name=安卓微信189区), GoodsServerSimpleDTO(id=1510736392171818, name=安卓微信188区), GoodsServerSimpleDTO(id=1510736392171817, name=安卓微信187区), GoodsServerSimpleDTO(id=1510736392171814, name=安卓微信186区), GoodsServerSimpleDTO(id=1510736392171812, name=安卓微信185区), GoodsServerSimpleDTO(id=1510736392170807, name=安卓微信184区), GoodsServerSimpleDTO(id=1510736392170802, name=安卓微信183区), GoodsServerSimpleDTO(id=1510736392170801, name=安卓微信182区), GoodsServerSimpleDTO(id=1510736392170799, name=安卓微信181区), GoodsServerSimpleDTO(id=1510736392170797, name=安卓微信180区), GoodsServerSimpleDTO(id=1510736212235743, name=安卓微信179区), GoodsServerSimpleDTO(id=1510736212235742, name=安卓微信178区), GoodsServerSimpleDTO(id=1510736212235741, name=安卓微信177区), GoodsServerSimpleDTO(id=1510736212235740, name=安卓微信176区), GoodsServerSimpleDTO(id=1510736212234739, name=安卓微信175区), GoodsServerSimpleDTO(id=1510736212234737, name=安卓微信174区), GoodsServerSimpleDTO(id=1510736212234735, name=安卓微信173区), GoodsServerSimpleDTO(id=1510736212234731, name=安卓微信172区), GoodsServerSimpleDTO(id=1510736212234730, name=安卓微信171区), GoodsServerSimpleDTO(id=1510736212234728, name=安卓微信170区), GoodsServerSimpleDTO(id=1510736212233726, name=安卓微信169区), GoodsServerSimpleDTO(id=1510736212233725, name=安卓微信168区), GoodsServerSimpleDTO(id=1510736212233724, name=安卓微信167区), GoodsServerSimpleDTO(id=1510736212233722, name=安卓微信166区), GoodsServerSimpleDTO(id=1510736212233721, name=安卓微信165区), GoodsServerSimpleDTO(id=1510736212233720, name=安卓微信164区), GoodsServerSimpleDTO(id=1510736212232719, name=安卓微信163区), GoodsServerSimpleDTO(id=1510736212232717, name=安卓微信162区), GoodsServerSimpleDTO(id=1510736212232715, name=安卓微信161区), GoodsServerSimpleDTO(id=1510736212232713, name=安卓微信160区), GoodsServerSimpleDTO(id=1510736212232712, name=安卓微信159区), GoodsServerSimpleDTO(id=1510736212232709, name=安卓微信158区), GoodsServerSimpleDTO(id=1510736212231707, name=安卓微信157区), GoodsServerSimpleDTO(id=1510736212231705, name=安卓微信156区), GoodsServerSimpleDTO(id=1510736212231702, name=安卓微信155区), GoodsServerSimpleDTO(id=1510736212231701, name=安卓微信154区), GoodsServerSimpleDTO(id=1510736212231700, name=安卓微信153区), GoodsServerSimpleDTO(id=1510736212231697, name=安卓微信152区), GoodsServerSimpleDTO(id=1510736212231694, name=安卓微信151区), GoodsServerSimpleDTO(id=1510736212230693, name=安卓微信150区), GoodsServerSimpleDTO(id=1510736212230692, name=安卓微信149区), GoodsServerSimpleDTO(id=1510736212230691, name=安卓微信148区), GoodsServerSimpleDTO(id=1510736212230690, name=安卓微信147区), GoodsServerSimpleDTO(id=1510736212230689, name=安卓微信146区), GoodsServerSimpleDTO(id=1510736212230688, name=安卓微信145区), GoodsServerSimpleDTO(id=1510736212230685, name=安卓微信144区), GoodsServerSimpleDTO(id=1510736212229684, name=安卓微信143区), GoodsServerSimpleDTO(id=1510736212229682, name=安卓微信142区), GoodsServerSimpleDTO(id=1510736212229680, name=安卓微信141区), GoodsServerSimpleDTO(id=1510736212229678, name=安卓微信140区), GoodsServerSimpleDTO(id=1510736212229675, name=安卓微信139区), GoodsServerSimpleDTO(id=1510736212229674, name=安卓微信138区), GoodsServerSimpleDTO(id=1510736212229673, name=安卓微信137区), GoodsServerSimpleDTO(id=1510736212229670, name=安卓微信136区), GoodsServerSimpleDTO(id=1510736212228669, name=安卓微信135区), GoodsServerSimpleDTO(id=1510736212228668, name=安卓微信134区), GoodsServerSimpleDTO(id=1510736212228667, name=安卓微信133区), GoodsServerSimpleDTO(id=1510736212228666, name=安卓微信132区), GoodsServerSimpleDTO(id=1510736212228664, name=安卓微信131区), GoodsServerSimpleDTO(id=1498479823532088, name=安卓微信130区), GoodsServerSimpleDTO(id=1498479823532086, name=安卓微信129区), GoodsServerSimpleDTO(id=1498479823532085, name=安卓微信128区), GoodsServerSimpleDTO(id=1498479823532084, name=安卓微信127区), GoodsServerSimpleDTO(id=1498479823532083, name=安卓微信126区), GoodsServerSimpleDTO(id=1498479823532081, name=安卓微信125区), GoodsServerSimpleDTO(id=1498479823532080, name=安卓微信124区), GoodsServerSimpleDTO(id=1498479823531078, name=安卓微信123区), GoodsServerSimpleDTO(id=1498479823531076, name=安卓微信122区), GoodsServerSimpleDTO(id=1498479823531072, name=安卓微信121区), GoodsServerSimpleDTO(id=1498479823531070, name=安卓微信120区), GoodsServerSimpleDTO(id=1498479823531068, name=安卓微信119区), GoodsServerSimpleDTO(id=1498479823531067, name=安卓微信118区), GoodsServerSimpleDTO(id=1498479823531066, name=安卓微信117区), GoodsServerSimpleDTO(id=1498479823530065, name=安卓微信116区), GoodsServerSimpleDTO(id=1498479823530064, name=安卓微信115区), GoodsServerSimpleDTO(id=1498479823530063, name=安卓微信114区), GoodsServerSimpleDTO(id=1498479823530062, name=安卓微信113区), GoodsServerSimpleDTO(id=1498479823530061, name=安卓微信112区), GoodsServerSimpleDTO(id=1498479823530060, name=安卓微信111区), GoodsServerSimpleDTO(id=1498479823530059, name=安卓微信110区), GoodsServerSimpleDTO(id=1498479823530056, name=安卓微信109区), GoodsServerSimpleDTO(id=1498479823529055, name=安卓微信108区), GoodsServerSimpleDTO(id=1498479823529054, name=安卓微信107区), GoodsServerSimpleDTO(id=1498479823529053, name=安卓微信106区), GoodsServerSimpleDTO(id=1498479823529052, name=安卓微信105区), GoodsServerSimpleDTO(id=1498479823529050, name=安卓微信104区), GoodsServerSimpleDTO(id=1498479823529046, name=安卓微信103区), GoodsServerSimpleDTO(id=1498479823528045, name=安卓微信102区), GoodsServerSimpleDTO(id=1498479823528044, name=安卓微信101区), GoodsServerSimpleDTO(id=1498479823528042, name=安卓微信100区), GoodsServerSimpleDTO(id=1498479823528040, name=安卓微信99区), GoodsServerSimpleDTO(id=1498479823528039, name=安卓微信98区), GoodsServerSimpleDTO(id=1498479823528038, name=安卓微信97区), GoodsServerSimpleDTO(id=1498479823528037, name=安卓微信96区), GoodsServerSimpleDTO(id=1498479823527036, name=安卓微信95区), GoodsServerSimpleDTO(id=1498479823527035, name=安卓微信94区), GoodsServerSimpleDTO(id=1498479823527034, name=安卓微信93区), GoodsServerSimpleDTO(id=1498479823527033, name=安卓微信92区), GoodsServerSimpleDTO(id=1498479823527032, name=安卓微信91区), GoodsServerSimpleDTO(id=1487511934651655, name=安卓微信90区), GoodsServerSimpleDTO(id=1487511934651654, name=安卓微信89区), GoodsServerSimpleDTO(id=1487511934651652, name=安卓微信88区), GoodsServerSimpleDTO(id=1487511934650651, name=安卓微信87区), GoodsServerSimpleDTO(id=1487511934650650, name=安卓微信86区), GoodsServerSimpleDTO(id=1487511934650649, name=安卓微信85区), GoodsServerSimpleDTO(id=1487511934650648, name=安卓微信84区), GoodsServerSimpleDTO(id=1487511934650646, name=安卓微信83区), GoodsServerSimpleDTO(id=1487511934650644, name=安卓微信82区), GoodsServerSimpleDTO(id=1487511934650643, name=安卓微信81区), GoodsServerSimpleDTO(id=1472176401666367, name=安卓微信80区), GoodsServerSimpleDTO(id=1472176401666366, name=安卓微信79区), GoodsServerSimpleDTO(id=1472176401666365, name=安卓微信78区), GoodsServerSimpleDTO(id=1472176401666364, name=安卓微信77区), GoodsServerSimpleDTO(id=1472176401666363, name=安卓微信76区), GoodsServerSimpleDTO(id=1472176401666361, name=安卓微信75区), GoodsServerSimpleDTO(id=1472176401666360, name=安卓微信74区), GoodsServerSimpleDTO(id=1472176401665359, name=安卓微信73区), GoodsServerSimpleDTO(id=1472176401665358, name=安卓微信72区), GoodsServerSimpleDTO(id=1472176401665357, name=安卓微信71区), GoodsServerSimpleDTO(id=1472176401665356, name=安卓微信70区), GoodsServerSimpleDTO(id=1472176401665355, name=安卓微信69区), GoodsServerSimpleDTO(id=1472176401665354, name=安卓微信68区), GoodsServerSimpleDTO(id=1472176401665353, name=安卓微信67区), GoodsServerSimpleDTO(id=1472176401664351, name=安卓微信66区), GoodsServerSimpleDTO(id=1472176401664350, name=安卓微信65区), GoodsServerSimpleDTO(id=1472176401664348, name=安卓微信64区), GoodsServerSimpleDTO(id=1472176401664347, name=安卓微信63区), GoodsServerSimpleDTO(id=1472176401664346, name=安卓微信62区), GoodsServerSimpleDTO(id=1472176401664345, name=安卓微信61区), GoodsServerSimpleDTO(id=1472176401664344, name=安卓微信60区), GoodsServerSimpleDTO(id=1472176401663343, name=安卓微信59区), GoodsServerSimpleDTO(id=1472176401663342, name=安卓微信58区), GoodsServerSimpleDTO(id=1472176401663341, name=安卓微信57区), GoodsServerSimpleDTO(id=1472176401663340, name=安卓微信56区), GoodsServerSimpleDTO(id=1472176401663339, name=安卓微信55区), GoodsServerSimpleDTO(id=1472176401663338, name=安卓微信54区), GoodsServerSimpleDTO(id=1472176401663337, name=安卓微信53区), GoodsServerSimpleDTO(id=1472176401662336, name=安卓微信52区), GoodsServerSimpleDTO(id=1472176401662335, name=安卓微信51区), GoodsServerSimpleDTO(id=1472176401662334, name=安卓微信50区), GoodsServerSimpleDTO(id=1472176401662333, name=安卓微信49区), GoodsServerSimpleDTO(id=1472176401662332, name=安卓微信48区), GoodsServerSimpleDTO(id=1472176401662331, name=安卓微信47区), GoodsServerSimpleDTO(id=1472176401662329, name=安卓微信46区), GoodsServerSimpleDTO(id=1472176401662328, name=安卓微信45区), GoodsServerSimpleDTO(id=1472176401661327, name=安卓微信44区), GoodsServerSimpleDTO(id=1472176401661326, name=安卓微信43区), GoodsServerSimpleDTO(id=1472176401661325, name=安卓微信42区), GoodsServerSimpleDTO(id=1472176401661324, name=安卓微信41区), GoodsServerSimpleDTO(id=1472176401661323, name=安卓微信40区), GoodsServerSimpleDTO(id=1472176401661322, name=安卓微信39区), GoodsServerSimpleDTO(id=1472176401661321, name=安卓微信38区), GoodsServerSimpleDTO(id=1472176401661319, name=安卓微信37区), GoodsServerSimpleDTO(id=1472176401660317, name=安卓微信36区), GoodsServerSimpleDTO(id=1472176401660316, name=安卓微信35区), GoodsServerSimpleDTO(id=1472176401660315, name=安卓微信34区), GoodsServerSimpleDTO(id=1472176401660314, name=安卓微信33区), GoodsServerSimpleDTO(id=1472176401660313, name=安卓微信32区), GoodsServerSimpleDTO(id=1472176401660312, name=安卓微信31区), GoodsServerSimpleDTO(id=1472176401660310, name=安卓微信30区), GoodsServerSimpleDTO(id=1472176401659309, name=安卓微信29区), GoodsServerSimpleDTO(id=1472176401659308, name=安卓微信28区), GoodsServerSimpleDTO(id=1472176401659307, name=安卓微信27区), GoodsServerSimpleDTO(id=1472176401659306, name=安卓微信26区), GoodsServerSimpleDTO(id=1472176401659305, name=安卓微信25区), GoodsServerSimpleDTO(id=1472176401659304, name=安卓微信24区), GoodsServerSimpleDTO(id=1472176401659303, name=安卓微信23区), GoodsServerSimpleDTO(id=1472176401659302, name=安卓微信22区), GoodsServerSimpleDTO(id=1472176401658300, name=安卓微信21区), GoodsServerSimpleDTO(id=1472176401658299, name=安卓微信20区),GoodsServerSimpleDTO(id=1472176401658298, name=安卓微信19区), GoodsServerSimpleDTO(id=1472176401658297, name=安卓微信18区), GoodsServerSimpleDTO(id=1472176401658296, name=安卓微信17区), GoodsServerSimpleDTO(id=1472176401658295, name=安卓微信16区), GoodsServerSimpleDTO(id=1472176401658294, name=安卓微信15区), GoodsServerSimpleDTO(id=1472176401658293, name=安卓微信14区), GoodsServerSimpleDTO(id=1472176401657292, name=安卓微信13区), GoodsServerSimpleDTO(id=1472176401657291, name=安卓微信12区), GoodsServerSimpleDTO(id=1472176401657290, name=安卓微信11区), GoodsServerSimpleDTO(id=1472176401657289, name=安卓微信10区), GoodsServerSimpleDTO(id=1472176401657288, name=安卓微信9区), GoodsServerSimpleDTO(id=1472176401657287, name=安卓微信8区), GoodsServerSimpleDTO(id=1472176401657286, name=安卓微信7区), GoodsServerSimpleDTO(id=1472176401657284, name=安卓微信6区), GoodsServerSimpleDTO(id=1472176401656283, name=安卓微信5区), GoodsServerSimpleDTO(id=1472176401656282, name=安卓微信4区), GoodsServerSimpleDTO(id=1472176401656280, name=安卓微信3区), GoodsServerSimpleDTO(id=1472176401656279, name=安卓微信2区), GoodsServerSimpleDTO(id=1472176401656278, name=安卓微信1区), GoodsServerSimpleDTO(id=817904, name=新区预售)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903059072340, name=安卓全平台通用), GoodsServerSimpleDTO(id=1520564679426026, name=手Q全服通用), GoodsServerSimpleDTO(id=1517377231343510, name=手Q400区), GoodsServerSimpleDTO(id=1517377231343504, name=手Q399区), GoodsServerSimpleDTO(id=1517377231343501, name=手Q398区), GoodsServerSimpleDTO(id=1517377231343493, name=手Q397区), GoodsServerSimpleDTO(id=1517377231342492, name=手Q396区), GoodsServerSimpleDTO(id=1517377231342482, name=手Q395区), GoodsServerSimpleDTO(id=1517377231342481, name=手Q394区), GoodsServerSimpleDTO(id=1517377231342479, name=手Q393区), GoodsServerSimpleDTO(id=1517377231342477, name=手Q392区), GoodsServerSimpleDTO(id=1517377231342471, name=手Q391区), GoodsServerSimpleDTO(id=1517377231341467, name=手Q390区), GoodsServerSimpleDTO(id=1517377231341465, name=手Q389区), GoodsServerSimpleDTO(id=1517377231341461, name=手Q388区), GoodsServerSimpleDTO(id=1517377231341459, name=手Q387区), GoodsServerSimpleDTO(id=1517377231341456, name=手Q386区), GoodsServerSimpleDTO(id=1517377231340452, name=手Q385区), GoodsServerSimpleDTO(id=1517377231340449, name=手Q384区), GoodsServerSimpleDTO(id=1517377231340448, name=手Q383区), GoodsServerSimpleDTO(id=1517377231340441, name=手Q382区), GoodsServerSimpleDTO(id=1517377231340434, name=手Q381区), GoodsServerSimpleDTO(id=1517377231339429, name=手Q380区), GoodsServerSimpleDTO(id=1517377231339424, name=手Q379区), GoodsServerSimpleDTO(id=1517377231339421, name=手Q378区), GoodsServerSimpleDTO(id=1517377231339419, name=手Q377区), GoodsServerSimpleDTO(id=1517377231339412, name=手Q376区), GoodsServerSimpleDTO(id=1517377231338408, name=手Q375区), GoodsServerSimpleDTO(id=1517377231338402, name=手Q374区), GoodsServerSimpleDTO(id=1517377231338395, name=手Q373区), GoodsServerSimpleDTO(id=1517377231338394, name=手Q372区), GoodsServerSimpleDTO(id=1517377231338392, name=手Q371区), GoodsServerSimpleDTO(id=1517377231338388, name=手Q370区), GoodsServerSimpleDTO(id=1517377231337385, name=手Q369区), GoodsServerSimpleDTO(id=1517377231337381, name=手Q368区), GoodsServerSimpleDTO(id=1517377231337377, name=手Q367区), GoodsServerSimpleDTO(id=1517377231337371, name=手Q366区), GoodsServerSimpleDTO(id=1517377231337368, name=手Q365区), GoodsServerSimpleDTO(id=1517377231336363, name=手Q364区), GoodsServerSimpleDTO(id=1517377231336358, name=手Q363区), GoodsServerSimpleDTO(id=1517377231336355, name=手Q362区), GoodsServerSimpleDTO(id=1517377231336351, name=手Q361区), GoodsServerSimpleDTO(id=1517377231336349, name=手Q360区), GoodsServerSimpleDTO(id=1517377231335346, name=手Q359区), GoodsServerSimpleDTO(id=1517377231335344, name=手Q358区), GoodsServerSimpleDTO(id=1517377231335342, name=手Q357区), GoodsServerSimpleDTO(id=1517377231335340, name=手Q356区), GoodsServerSimpleDTO(id=1517377231335338, name=手Q355区), GoodsServerSimpleDTO(id=1517377231335333, name=手Q354区), GoodsServerSimpleDTO(id=1517377231334331, name=手Q353区), GoodsServerSimpleDTO(id=1517377231334327, name=手Q352区), GoodsServerSimpleDTO(id=1517377231334321, name=手Q351区), GoodsServerSimpleDTO(id=1513927206134583, name=手Q350区), GoodsServerSimpleDTO(id=1513927206133579, name=手Q349区), GoodsServerSimpleDTO(id=1513927206133578, name=手Q348区), GoodsServerSimpleDTO(id=1513927206133577, name=手Q347区), GoodsServerSimpleDTO(id=1513927206132575, name=手Q346区), GoodsServerSimpleDTO(id=1513927206132572, name=手Q345区), GoodsServerSimpleDTO(id=1513927206132571, name=手Q344区), GoodsServerSimpleDTO(id=1513927206132570, name=手Q343区), GoodsServerSimpleDTO(id=1513927206132568, name=手Q342区), GoodsServerSimpleDTO(id=1513927206132566, name=手Q341区), GoodsServerSimpleDTO(id=1513927206132565, name=手Q340区), GoodsServerSimpleDTO(id=1513927206131564, name=手Q339区), GoodsServerSimpleDTO(id=1513927206131563, name=手Q338区), GoodsServerSimpleDTO(id=1513927206131561, name=手Q337区), GoodsServerSimpleDTO(id=1513927206131560, name=手Q336区), GoodsServerSimpleDTO(id=1513927206131558, name=手Q335区), GoodsServerSimpleDTO(id=1513927206131552, name=手Q334区), GoodsServerSimpleDTO(id=1513927206130551, name=手Q333区), GoodsServerSimpleDTO(id=1513927206130550, name=手Q332区), GoodsServerSimpleDTO(id=1513927206130549, name=手Q331区), GoodsServerSimpleDTO(id=1513927206130547, name=手Q330区), GoodsServerSimpleDTO(id=1513927206130546, name=手Q329区), GoodsServerSimpleDTO(id=1513927206130545, name=手Q328区), GoodsServerSimpleDTO(id=1513927206130543, name=手Q327区), GoodsServerSimpleDTO(id=1513927206129542, name=手Q326区), GoodsServerSimpleDTO(id=1513927206129541, name=手Q325区), GoodsServerSimpleDTO(id=1513927206129540, name=手Q324区), GoodsServerSimpleDTO(id=1513927206129538, name=手Q323区), GoodsServerSimpleDTO(id=1513927206129536, name=手Q322区), GoodsServerSimpleDTO(id=1513927206129535, name=手Q321区), GoodsServerSimpleDTO(id=1513927206128534, name=手Q320区), GoodsServerSimpleDTO(id=1513927206128532, name=手Q319区), GoodsServerSimpleDTO(id=1513927206128530, name=手Q318区), GoodsServerSimpleDTO(id=1513927206127528, name=手Q317区), GoodsServerSimpleDTO(id=1513927206127526, name=手Q316区), GoodsServerSimpleDTO(id=1513927206127525, name=手Q315区), GoodsServerSimpleDTO(id=1513927206127524, name=手Q314区), GoodsServerSimpleDTO(id=1513927206127523, name=手Q313区), GoodsServerSimpleDTO(id=1513927206127522, name=手Q312区), GoodsServerSimpleDTO(id=1513927206127520, name=手Q311区), GoodsServerSimpleDTO(id=1513927206126519, name=手Q310区), GoodsServerSimpleDTO(id=1513927206126518, name=手Q309区), GoodsServerSimpleDTO(id=1513927206126514, name=手Q308区), GoodsServerSimpleDTO(id=1513927206126513, name=手Q307区), GoodsServerSimpleDTO(id=1513927206126512, name=手Q306区), GoodsServerSimpleDTO(id=1513927206126510, name=手Q305区), GoodsServerSimpleDTO(id=1513927206125509, name=手Q304区), GoodsServerSimpleDTO(id=1513927206125508, name=手Q303区), GoodsServerSimpleDTO(id=1513927206125507, name=手Q302区), GoodsServerSimpleDTO(id=1513927206125506, name=手Q301区), GoodsServerSimpleDTO(id=1513927161515401, name=手Q300区), GoodsServerSimpleDTO(id=1513927161514400, name=手Q299区), GoodsServerSimpleDTO(id=1513927161514397, name=手Q298区), GoodsServerSimpleDTO(id=1513927161514396, name=手Q297区), GoodsServerSimpleDTO(id=1513927161514395, name=手Q296区), GoodsServerSimpleDTO(id=1513927161514394, name=手Q295区), GoodsServerSimpleDTO(id=1513927161514392, name=手Q294区), GoodsServerSimpleDTO(id=1513927161514389, name=手Q293区), GoodsServerSimpleDTO(id=1513927161513387, name=手Q292区), GoodsServerSimpleDTO(id=1513927161513386, name=手Q291区), GoodsServerSimpleDTO(id=1513927161513385, name=手Q290区), GoodsServerSimpleDTO(id=1513927161513384, name=手Q289区), GoodsServerSimpleDTO(id=1513927161513382, name=手Q288区), GoodsServerSimpleDTO(id=1513927161513381, name=手Q287区), GoodsServerSimpleDTO(id=1513927161513380, name=手Q286区), GoodsServerSimpleDTO(id=1513927161512379, name=手Q285区), GoodsServerSimpleDTO(id=1513927161512378, name=手Q284区), GoodsServerSimpleDTO(id=1513927161512377, name=手Q283区), GoodsServerSimpleDTO(id=1513927161512376, name=手Q282区), GoodsServerSimpleDTO(id=1513927161512375, name=手Q281区), GoodsServerSimpleDTO(id=1513927161512374, name=手Q280区), GoodsServerSimpleDTO(id=1513927161512373, name=手Q279区), GoodsServerSimpleDTO(id=1513927161512371, name=手Q278区), GoodsServerSimpleDTO(id=1513927161511370, name=手Q277区), GoodsServerSimpleDTO(id=1513927161511369, name=手Q276区), GoodsServerSimpleDTO(id=1513927161511367, name=手Q275区), GoodsServerSimpleDTO(id=1513927161511365, name=手Q274区), GoodsServerSimpleDTO(id=1513927161511363, name=手Q273区), GoodsServerSimpleDTO(id=1513927161511362, name=手Q272区), GoodsServerSimpleDTO(id=1513927161511361, name=手Q271区), GoodsServerSimpleDTO(id=1513927161510360, name=手Q270区), GoodsServerSimpleDTO(id=1513927161510358, name=手Q269区), GoodsServerSimpleDTO(id=1513927161510357, name=手Q268区), GoodsServerSimpleDTO(id=1513927161510356, name=手Q267区), GoodsServerSimpleDTO(id=1513927161510354, name=手Q266区), GoodsServerSimpleDTO(id=1513927161510352, name=手Q265区), GoodsServerSimpleDTO(id=1513927161509350, name=手Q264区), GoodsServerSimpleDTO(id=1513927161509349, name=手Q263区), GoodsServerSimpleDTO(id=1513927161509348, name=手Q262区), GoodsServerSimpleDTO(id=1513927161509347, name=手Q261区), GoodsServerSimpleDTO(id=1513927161509345, name=手Q260区), GoodsServerSimpleDTO(id=1513927161509344, name=手Q259区), GoodsServerSimpleDTO(id=1513927161509343, name=手Q258区), GoodsServerSimpleDTO(id=1513927161508342, name=手Q257区), GoodsServerSimpleDTO(id=1513927161508341, name=手Q256区), GoodsServerSimpleDTO(id=1513927161508340, name=手Q255区), GoodsServerSimpleDTO(id=1513927161508339, name=手Q254区), GoodsServerSimpleDTO(id=1513927161508337, name=手Q253区), GoodsServerSimpleDTO(id=1513927161508336, name=手Q252区), GoodsServerSimpleDTO(id=1513927161507334, name=手Q251区), GoodsServerSimpleDTO(id=1512550100923871, name=QQ王者抢先服), GoodsServerSimpleDTO(id=1213664, name=手Q250区), GoodsServerSimpleDTO(id=1213663, name=手Q249区), GoodsServerSimpleDTO(id=1213662, name=手Q248区), GoodsServerSimpleDTO(id=1213661, name=手Q247区), GoodsServerSimpleDTO(id=1213660, name=手Q246区), GoodsServerSimpleDTO(id=1213659, name=手Q245区), GoodsServerSimpleDTO(id=1213658, name=手Q244区), GoodsServerSimpleDTO(id=1213657, name=手Q243区), GoodsServerSimpleDTO(id=1213656, name=手Q242区), GoodsServerSimpleDTO(id=1213655, name=手Q241区), GoodsServerSimpleDTO(id=1213654, name=手Q240区), GoodsServerSimpleDTO(id=1213653, name=手Q239区), GoodsServerSimpleDTO(id=1213652, name=手Q238区), GoodsServerSimpleDTO(id=1213651, name=手Q237区), GoodsServerSimpleDTO(id=1213650, name=手Q236区), GoodsServerSimpleDTO(id=1213649, name=手Q235区), GoodsServerSimpleDTO(id=1213648, name=手Q234区), GoodsServerSimpleDTO(id=1213647, name=手Q233区), GoodsServerSimpleDTO(id=1213646, name=手Q232区), GoodsServerSimpleDTO(id=1213645, name=手Q231区), GoodsServerSimpleDTO(id=1213644, name=手Q230区), GoodsServerSimpleDTO(id=1213643, name=手Q229区), GoodsServerSimpleDTO(id=1213642, name=手Q228区), GoodsServerSimpleDTO(id=1213641, name=手Q227区), GoodsServerSimpleDTO(id=1213640, name=手Q226区), GoodsServerSimpleDTO(id=1213639, name=手Q225区), GoodsServerSimpleDTO(id=1213638, name=手Q224区), GoodsServerSimpleDTO(id=1213637, name=手Q223区), GoodsServerSimpleDTO(id=1213636, name=手Q222区), GoodsServerSimpleDTO(id=1213635, name=手Q221区), GoodsServerSimpleDTO(id=1213634, name=手Q220区), GoodsServerSimpleDTO(id=1213633, name=手Q219区), GoodsServerSimpleDTO(id=1213632, name=手Q218区), GoodsServerSimpleDTO(id=1213631, name=手Q217区), GoodsServerSimpleDTO(id=1213630, name=手Q216区), GoodsServerSimpleDTO(id=1213629, name=手Q215区), GoodsServerSimpleDTO(id=1213628, name=手Q214区), GoodsServerSimpleDTO(id=1213627, name=手Q213区), GoodsServerSimpleDTO(id=1213626, name=手Q212区), GoodsServerSimpleDTO(id=1213625, name=手Q211区), GoodsServerSimpleDTO(id=1213624, name=手Q210区), GoodsServerSimpleDTO(id=1213623, name=手Q209区), GoodsServerSimpleDTO(id=1213622, name=手Q208区), GoodsServerSimpleDTO(id=1213621, name=手Q207区), GoodsServerSimpleDTO(id=937470, name=手Q206区), GoodsServerSimpleDTO(id=937469, name=手Q205区), GoodsServerSimpleDTO(id=937468, name=手Q204区), GoodsServerSimpleDTO(id=937467, name=手Q203区), GoodsServerSimpleDTO(id=937466, name=手Q202区), GoodsServerSimpleDTO(id=937465, name=手Q201区), GoodsServerSimpleDTO(id=937464, name=手Q200区), GoodsServerSimpleDTO(id=937463, name=手Q199区), GoodsServerSimpleDTO(id=937462, name=手Q198区), GoodsServerSimpleDTO(id=937461, name=手Q197区), GoodsServerSimpleDTO(id=937460, name=手Q196区), GoodsServerSimpleDTO(id=937459, name=手Q195区), GoodsServerSimpleDTO(id=937458, name=手Q194区), GoodsServerSimpleDTO(id=937457, name=手Q193区), GoodsServerSimpleDTO(id=937456, name=手Q192区), GoodsServerSimpleDTO(id=937455, name=手Q191区), GoodsServerSimpleDTO(id=937454, name=手Q190区), GoodsServerSimpleDTO(id=937453, name=手Q189区), GoodsServerSimpleDTO(id=937452, name=手Q188区), GoodsServerSimpleDTO(id=937451, name=手Q187区), GoodsServerSimpleDTO(id=937450, name=手Q186区), GoodsServerSimpleDTO(id=937449, name=手Q185区), GoodsServerSimpleDTO(id=937448, name=手Q184区), GoodsServerSimpleDTO(id=937447, name=手Q183区), GoodsServerSimpleDTO(id=937446, name=手Q182区), GoodsServerSimpleDTO(id=937445, name=手Q181区), GoodsServerSimpleDTO(id=937444, name=手Q180区), GoodsServerSimpleDTO(id=937443, name=手Q179区), GoodsServerSimpleDTO(id=937442, name=手Q178区), GoodsServerSimpleDTO(id=937441, name=手Q177区), GoodsServerSimpleDTO(id=937440, name=手Q176区), GoodsServerSimpleDTO(id=937439, name=手Q175区), GoodsServerSimpleDTO(id=937438, name=手Q174区), GoodsServerSimpleDTO(id=937437, name=手Q173区), GoodsServerSimpleDTO(id=937436, name=手Q172区), GoodsServerSimpleDTO(id=937435, name=手Q171区), GoodsServerSimpleDTO(id=937434, name=手Q170区), GoodsServerSimpleDTO(id=937433, name=手Q169区), GoodsServerSimpleDTO(id=937432, name=手Q168区), GoodsServerSimpleDTO(id=937431, name=手Q167区), GoodsServerSimpleDTO(id=937430, name=手Q166区), GoodsServerSimpleDTO(id=937429, name=手Q165区), GoodsServerSimpleDTO(id=937428, name=手Q164区), GoodsServerSimpleDTO(id=937427, name=手Q163区), GoodsServerSimpleDTO(id=937426, name=手Q162区), GoodsServerSimpleDTO(id=937425, name=手Q161区), GoodsServerSimpleDTO(id=937424, name=手Q160区), GoodsServerSimpleDTO(id=937423, name=手Q159区), GoodsServerSimpleDTO(id=937422, name=手Q158区), GoodsServerSimpleDTO(id=937421, name=手Q157区), GoodsServerSimpleDTO(id=937420, name=手Q156区), GoodsServerSimpleDTO(id=937419, name=手Q155区), GoodsServerSimpleDTO(id=937418, name=手Q154区), GoodsServerSimpleDTO(id=937417, name=手Q153区), GoodsServerSimpleDTO(id=937416, name=手Q152区), GoodsServerSimpleDTO(id=937415, name=手Q151区), GoodsServerSimpleDTO(id=937414, name=手Q150区), GoodsServerSimpleDTO(id=937413, name=手Q149区), GoodsServerSimpleDTO(id=937412, name=手Q148区), GoodsServerSimpleDTO(id=937411, name=手Q147区), GoodsServerSimpleDTO(id=937410, name=手Q146区), GoodsServerSimpleDTO(id=937409, name=手Q145区), GoodsServerSimpleDTO(id=937408, name=手Q144区), GoodsServerSimpleDTO(id=937407, name=手Q143区), GoodsServerSimpleDTO(id=937406, name=手Q142区), GoodsServerSimpleDTO(id=937405, name=手Q141区), GoodsServerSimpleDTO(id=849912, name=手Q140区), GoodsServerSimpleDTO(id=849911, name=手Q139区), GoodsServerSimpleDTO(id=849910, name=手Q138区), GoodsServerSimpleDTO(id=849909, name=手Q137区), GoodsServerSimpleDTO(id=849908, name=手Q136区), GoodsServerSimpleDTO(id=849907, name=手Q135区), GoodsServerSimpleDTO(id=849906, name=手Q134区), GoodsServerSimpleDTO(id=849905, name=手Q133区), GoodsServerSimpleDTO(id=849904, name=手Q132区), GoodsServerSimpleDTO(id=849903, name=手Q131区), GoodsServerSimpleDTO(id=849902, name=手Q130区), GoodsServerSimpleDTO(id=849901, name=手Q129区), GoodsServerSimpleDTO(id=849900, name=手Q128区), GoodsServerSimpleDTO(id=849899, name=手Q127区), GoodsServerSimpleDTO(id=849898, name=手Q126区), GoodsServerSimpleDTO(id=849897, name=手Q125区), GoodsServerSimpleDTO(id=849896, name=手Q124区), GoodsServerSimpleDTO(id=849895, name=手Q123区), GoodsServerSimpleDTO(id=849894, name=手Q122区), GoodsServerSimpleDTO(id=849893, name=手Q121区), GoodsServerSimpleDTO(id=849892, name=手Q120区), GoodsServerSimpleDTO(id=849891, name=手Q119区), GoodsServerSimpleDTO(id=849890, name=手Q118区), GoodsServerSimpleDTO(id=849889, name=手Q117区), GoodsServerSimpleDTO(id=849888, name=手Q116区), GoodsServerSimpleDTO(id=849887, name=手Q115区), GoodsServerSimpleDTO(id=849886, name=手Q114区), GoodsServerSimpleDTO(id=849885, name=手Q113区), GoodsServerSimpleDTO(id=849884, name=手Q112区), GoodsServerSimpleDTO(id=849883, name=手Q111区), GoodsServerSimpleDTO(id=849882, name=手Q110区), GoodsServerSimpleDTO(id=849881, name=手Q109区), GoodsServerSimpleDTO(id=849880, name=手Q108区), GoodsServerSimpleDTO(id=849879, name=手Q107区), GoodsServerSimpleDTO(id=849878, name=手Q106区), GoodsServerSimpleDTO(id=849877, name=手Q105区), GoodsServerSimpleDTO(id=849876, name=手Q104区), GoodsServerSimpleDTO(id=849875, name=手Q103区), GoodsServerSimpleDTO(id=849874, name=手Q102区), GoodsServerSimpleDTO(id=849873, name=手Q101区), GoodsServerSimpleDTO(id=767437, name=手Q100区), GoodsServerSimpleDTO(id=767436, name=手Q99区), GoodsServerSimpleDTO(id=767435, name=手Q98区), GoodsServerSimpleDTO(id=767434, name=手Q97区), GoodsServerSimpleDTO(id=767433, name=手Q96区), GoodsServerSimpleDTO(id=767432, name=手Q95区), GoodsServerSimpleDTO(id=767431, name=手Q94区), GoodsServerSimpleDTO(id=767430, name=手Q93区), GoodsServerSimpleDTO(id=767429,name=手Q92区), GoodsServerSimpleDTO(id=767428, name=手Q91区), GoodsServerSimpleDTO(id=767427, name=手Q90区), GoodsServerSimpleDTO(id=767426, name=手Q89区), GoodsServerSimpleDTO(id=767425, name=手Q88区), GoodsServerSimpleDTO(id=767424, name=手Q87区), GoodsServerSimpleDTO(id=767423, name=手Q86区), GoodsServerSimpleDTO(id=767422, name=手Q85区), GoodsServerSimpleDTO(id=767421, name=手Q84区), GoodsServerSimpleDTO(id=767420, name=手Q83区), GoodsServerSimpleDTO(id=767419, name=手Q82区), GoodsServerSimpleDTO(id=767418, name=手Q81区), GoodsServerSimpleDTO(id=767417, name=手Q80区), GoodsServerSimpleDTO(id=767416, name=手Q79区), GoodsServerSimpleDTO(id=767415, name=手Q78区), GoodsServerSimpleDTO(id=767414, name=手Q77区), GoodsServerSimpleDTO(id=767413, name=手Q76区), GoodsServerSimpleDTO(id=767412, name=手Q75区), GoodsServerSimpleDTO(id=767411, name=手Q74区), GoodsServerSimpleDTO(id=767410, name=手Q73区), GoodsServerSimpleDTO(id=767409, name=手Q72区), GoodsServerSimpleDTO(id=767408, name=手Q71区), GoodsServerSimpleDTO(id=724467, name=手Q70区), GoodsServerSimpleDTO(id=724466, name=手Q69区), GoodsServerSimpleDTO(id=724465, name=手Q68区), GoodsServerSimpleDTO(id=724464, name=手Q67区), GoodsServerSimpleDTO(id=724463, name=手Q66区), GoodsServerSimpleDTO(id=724462, name=手Q65区), GoodsServerSimpleDTO(id=724461, name=手Q64区), GoodsServerSimpleDTO(id=724460, name=手Q63区), GoodsServerSimpleDTO(id=724459, name=手Q62区), GoodsServerSimpleDTO(id=724458, name=手Q61区), GoodsServerSimpleDTO(id=724457, name=手Q60区), GoodsServerSimpleDTO(id=724456, name=手Q59区),GoodsServerSimpleDTO(id=724455, name=手Q58区), GoodsServerSimpleDTO(id=724454, name=手Q57区), GoodsServerSimpleDTO(id=724453, name=手Q56区), GoodsServerSimpleDTO(id=724452, name=手Q55区), GoodsServerSimpleDTO(id=724451, name=手Q54区), GoodsServerSimpleDTO(id=724450, name=手Q53区), GoodsServerSimpleDTO(id=724449, name=手Q52区), GoodsServerSimpleDTO(id=724448, name=手Q51区), GoodsServerSimpleDTO(id=724447, name=手Q50区), GoodsServerSimpleDTO(id=724446, name=手Q49区), GoodsServerSimpleDTO(id=724445, name=手Q48区), GoodsServerSimpleDTO(id=724444, name=手Q47区), GoodsServerSimpleDTO(id=724443, name=手Q46区), GoodsServerSimpleDTO(id=724442, name=手Q45区), GoodsServerSimpleDTO(id=724441, name=手Q44区), GoodsServerSimpleDTO(id=724440, name=手Q43区), GoodsServerSimpleDTO(id=724439, name=手Q42区), GoodsServerSimpleDTO(id=724438, name=手Q41区), GoodsServerSimpleDTO(id=724437, name=手Q40区), GoodsServerSimpleDTO(id=724436, name=手Q39区), GoodsServerSimpleDTO(id=724435, name=手Q38区), GoodsServerSimpleDTO(id=724434, name=手Q37区), GoodsServerSimpleDTO(id=724433, name=手Q36区), GoodsServerSimpleDTO(id=724432, name=手Q35区), GoodsServerSimpleDTO(id=724431, name=手Q34区), GoodsServerSimpleDTO(id=724430, name=手Q33区), GoodsServerSimpleDTO(id=724429, name=手Q32区), GoodsServerSimpleDTO(id=724428, name=手Q31区), GoodsServerSimpleDTO(id=629740, name=手Q30区), GoodsServerSimpleDTO(id=629739, name=手Q29区), GoodsServerSimpleDTO(id=629738, name=手Q28区), GoodsServerSimpleDTO(id=629737, name=手Q27区), GoodsServerSimpleDTO(id=629736, name=手Q26区), GoodsServerSimpleDTO(id=629735, name=手Q25区), GoodsServerSimpleDTO(id=629734, name=手Q24区), GoodsServerSimpleDTO(id=629733, name=手Q23区), GoodsServerSimpleDTO(id=629732, name=手Q22区), GoodsServerSimpleDTO(id=629731, name=手Q21区), GoodsServerSimpleDTO(id=629730, name=手Q20区), GoodsServerSimpleDTO(id=629729, name=手Q19区), GoodsServerSimpleDTO(id=629728, name=手Q18区), GoodsServerSimpleDTO(id=629727, name=手Q17区), GoodsServerSimpleDTO(id=629726, name=手Q16区), GoodsServerSimpleDTO(id=629725, name=手Q15区), GoodsServerSimpleDTO(id=629724, name=手Q14区), GoodsServerSimpleDTO(id=629723, name=手Q13区), GoodsServerSimpleDTO(id=629722, name=手Q12区), GoodsServerSimpleDTO(id=629721, name=手Q11区), GoodsServerSimpleDTO(id=629720, name=手Q10区), GoodsServerSimpleDTO(id=629719, name=手Q9区),GoodsServerSimpleDTO(id=629718, name=手Q8区), GoodsServerSimpleDTO(id=629717, name=手Q7区), GoodsServerSimpleDTO(id=629716, name=手Q6区), GoodsServerSimpleDTO(id=629715, name=手Q5区), GoodsServerSimpleDTO(id=629714, name=手Q4区), GoodsServerSimpleDTO(id=629713, name=手Q3区), GoodsServerSimpleDTO(id=629712, name=手Q2区), GoodsServerSimpleDTO(id=629711, name=手Q1区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903070868728, name=全平台通用), GoodsServerSimpleDTO(id=1520565340141895, name=苹果QQ400区), GoodsServerSimpleDTO(id=1520565340141894, name=苹果QQ399区), GoodsServerSimpleDTO(id=1520565340141893, name=苹果QQ398区), GoodsServerSimpleDTO(id=1520565340141892, name=苹果QQ397区), GoodsServerSimpleDTO(id=1520565340140891, name=苹果QQ396区), GoodsServerSimpleDTO(id=1520565340140889, name=苹果QQ395区), GoodsServerSimpleDTO(id=1520565340140887, name=苹果QQ394区), GoodsServerSimpleDTO(id=1520565340140885, name=苹果QQ393区), GoodsServerSimpleDTO(id=1520565340140882, name=苹果QQ392区), GoodsServerSimpleDTO(id=1520565340140879, name=苹果QQ391区), GoodsServerSimpleDTO(id=1520565340140878, name=苹果QQ390区), GoodsServerSimpleDTO(id=1520565340139877, name=苹果QQ389区), GoodsServerSimpleDTO(id=1520565340139876, name=苹果QQ388区), GoodsServerSimpleDTO(id=1520565340139873, name=苹果QQ387区), GoodsServerSimpleDTO(id=1520565340139872, name=苹果QQ386区), GoodsServerSimpleDTO(id=1520565340139871, name=苹果QQ385区), GoodsServerSimpleDTO(id=1520565340139870, name=苹果QQ384区), GoodsServerSimpleDTO(id=1520565340138869, name=苹果QQ383区), GoodsServerSimpleDTO(id=1520565340138868, name=苹果QQ382区), GoodsServerSimpleDTO(id=1520565340138866, name=苹果QQ381区), GoodsServerSimpleDTO(id=1520565340138863, name=苹果QQ380区), GoodsServerSimpleDTO(id=1520565340138861, name=苹果QQ379区), GoodsServerSimpleDTO(id=1520565340138857, name=苹果QQ378区), GoodsServerSimpleDTO(id=1520565340137856, name=苹果QQ377区), GoodsServerSimpleDTO(id=1520565340137855, name=苹果QQ376区), GoodsServerSimpleDTO(id=1520565340137853, name=苹果QQ375区), GoodsServerSimpleDTO(id=1520565340137849, name=苹果QQ374区), GoodsServerSimpleDTO(id=1520565340136841, name=苹果QQ373区), GoodsServerSimpleDTO(id=1520565340136840, name=苹果QQ372区), GoodsServerSimpleDTO(id=1520565340136839, name=苹果QQ371区), GoodsServerSimpleDTO(id=1520565340136837, name=苹果QQ370区), GoodsServerSimpleDTO(id=1520565340136836, name=苹果QQ369区), GoodsServerSimpleDTO(id=1520565340136833, name=苹果QQ368区), GoodsServerSimpleDTO(id=1520565340136830, name=苹果QQ367区), GoodsServerSimpleDTO(id=1520565340135829, name=苹果QQ366区), GoodsServerSimpleDTO(id=1520565340135827, name=苹果QQ365区), GoodsServerSimpleDTO(id=1520565340135821, name=苹果QQ364区), GoodsServerSimpleDTO(id=1520565340135820, name=苹果QQ363区), GoodsServerSimpleDTO(id=1520565340135819, name=苹果QQ362区), GoodsServerSimpleDTO(id=1520565340135818, name=苹果QQ361区), GoodsServerSimpleDTO(id=1520565340135815, name=苹果QQ360区), GoodsServerSimpleDTO(id=1520565340134814, name=苹果QQ359区), GoodsServerSimpleDTO(id=1520565340134813, name=苹果QQ358区), GoodsServerSimpleDTO(id=1520565340134812, name=苹果QQ357区), GoodsServerSimpleDTO(id=1520565340134809, name=苹果QQ356区), GoodsServerSimpleDTO(id=1520565340134806, name=苹果QQ355区), GoodsServerSimpleDTO(id=1520565340134804, name=苹果QQ354区), GoodsServerSimpleDTO(id=1520565340134802,name=苹果QQ353区), GoodsServerSimpleDTO(id=1520565340134800, name=苹果QQ352区), GoodsServerSimpleDTO(id=1520565340133799, name=苹果QQ351区), GoodsServerSimpleDTO(id=1520565305855966, name=苹果QQ350区), GoodsServerSimpleDTO(id=1520565305854964, name=苹果QQ349区), GoodsServerSimpleDTO(id=1520565305854963, name=苹果QQ348区), GoodsServerSimpleDTO(id=1520565305854961, name=苹果QQ347区), GoodsServerSimpleDTO(id=1520565305854960, name=苹果QQ346区), GoodsServerSimpleDTO(id=1520565305854959, name=苹果QQ345区), GoodsServerSimpleDTO(id=1520565305853956, name=苹果QQ344区), GoodsServerSimpleDTO(id=1520565305853949, name=苹果QQ343区), GoodsServerSimpleDTO(id=1520565305853947, name=苹果QQ342区), GoodsServerSimpleDTO(id=1520565305853944, name=苹果QQ341区), GoodsServerSimpleDTO(id=1520565305853943, name=苹果QQ340区), GoodsServerSimpleDTO(id=1520565305853941, name=苹果QQ339区), GoodsServerSimpleDTO(id=1520565305852938, name=苹果QQ338区), GoodsServerSimpleDTO(id=1520565305852935, name=苹果QQ337区), GoodsServerSimpleDTO(id=1520565305852934, name=苹果QQ336区), GoodsServerSimpleDTO(id=1520565305852932, name=苹果QQ335区), GoodsServerSimpleDTO(id=1520565305852930, name=苹果QQ334区), GoodsServerSimpleDTO(id=1520565305852928, name=苹果QQ333区), GoodsServerSimpleDTO(id=1520565305852927, name=苹果QQ332区), GoodsServerSimpleDTO(id=1520565305852926, name=苹果QQ331区), GoodsServerSimpleDTO(id=1520565305851925, name=苹果QQ330区), GoodsServerSimpleDTO(id=1520565305851924, name=苹果QQ329区), GoodsServerSimpleDTO(id=1520565305851919, name=苹果QQ328区), GoodsServerSimpleDTO(id=1520565305851917, name=苹果QQ327区), GoodsServerSimpleDTO(id=1520565305851915, name=苹果QQ326区), GoodsServerSimpleDTO(id=1520565305851912, name=苹果QQ325区), GoodsServerSimpleDTO(id=1520565305851910, name=苹果QQ324区), GoodsServerSimpleDTO(id=1520565305850909, name=苹果QQ323区), GoodsServerSimpleDTO(id=1520565305850907, name=苹果QQ322区), GoodsServerSimpleDTO(id=1520565305850903, name=苹果QQ321区), GoodsServerSimpleDTO(id=1520565305850901, name=苹果QQ320区), GoodsServerSimpleDTO(id=1520565305850900, name=苹果QQ319区), GoodsServerSimpleDTO(id=1520565305850898, name=苹果QQ318区), GoodsServerSimpleDTO(id=1520565305849893, name=苹果QQ317区), GoodsServerSimpleDTO(id=1520565305849892, name=苹果QQ316区), GoodsServerSimpleDTO(id=1520565305849890, name=苹果QQ315区), GoodsServerSimpleDTO(id=1520565305849888, name=苹果QQ314区), GoodsServerSimpleDTO(id=1520565305849887, name=苹果QQ313区), GoodsServerSimpleDTO(id=1520565305849885, name=苹果QQ312区), GoodsServerSimpleDTO(id=1520565305849884, name=苹果QQ311区), GoodsServerSimpleDTO(id=1520565305848880, name=苹果QQ310区), GoodsServerSimpleDTO(id=1520565305848877, name=苹果QQ309区), GoodsServerSimpleDTO(id=1520565305848876, name=苹果QQ308区), GoodsServerSimpleDTO(id=1520565305848875, name=苹果QQ307区), GoodsServerSimpleDTO(id=1520565305848873, name=苹果QQ306区), GoodsServerSimpleDTO(id=1520565305848872, name=苹果QQ305区), GoodsServerSimpleDTO(id=1520565305847868, name=苹果QQ304区), GoodsServerSimpleDTO(id=1520565305847867, name=苹果QQ303区), GoodsServerSimpleDTO(id=1520565305847866, name=苹果QQ302区), GoodsServerSimpleDTO(id=1520565305847865, name=苹果QQ301区), GoodsServerSimpleDTO(id=1520564679426026, name=手Q全服通用), GoodsServerSimpleDTO(id=1517377426627295, name=苹果QQ300区), GoodsServerSimpleDTO(id=1517377426627294, name=苹果QQ299区), GoodsServerSimpleDTO(id=1517377426627292, name=苹果QQ298区), GoodsServerSimpleDTO(id=1517377426627291, name=苹果QQ297区), GoodsServerSimpleDTO(id=1517377426627289, name=苹果QQ296区), GoodsServerSimpleDTO(id=1517377426626288, name=苹果QQ295区), GoodsServerSimpleDTO(id=1517377426626286, name=苹果QQ294区), GoodsServerSimpleDTO(id=1517377426626285, name=苹果QQ293区), GoodsServerSimpleDTO(id=1517377426626282, name=苹果QQ292区), GoodsServerSimpleDTO(id=1517377426626280, name=苹果QQ291区), GoodsServerSimpleDTO(id=1517377426626279, name=苹果QQ290区), GoodsServerSimpleDTO(id=1517377426625277, name=苹果QQ289区), GoodsServerSimpleDTO(id=1517377426625276, name=苹果QQ288区), GoodsServerSimpleDTO(id=1517377426625275, name=苹果QQ287区), GoodsServerSimpleDTO(id=1517377426625274, name=苹果QQ286区), GoodsServerSimpleDTO(id=1517377426625273, name=苹果QQ285区), GoodsServerSimpleDTO(id=1517377426625270, name=苹果QQ284区), GoodsServerSimpleDTO(id=1517377426624267, name=苹果QQ283区), GoodsServerSimpleDTO(id=1517377426624261, name=苹果QQ282区), GoodsServerSimpleDTO(id=1517377426624259, name=苹果QQ281区), GoodsServerSimpleDTO(id=1517377426623258, name=苹果QQ280区), GoodsServerSimpleDTO(id=1517377426623257, name=苹果QQ279区), GoodsServerSimpleDTO(id=1517377426623256, name=苹果QQ278区), GoodsServerSimpleDTO(id=1517377426623255, name=苹果QQ277区), GoodsServerSimpleDTO(id=1517377426623253, name=苹果QQ276区), GoodsServerSimpleDTO(id=1517377426623250, name=苹果QQ275区), GoodsServerSimpleDTO(id=1517377426622249, name=苹果QQ274区), GoodsServerSimpleDTO(id=1517377426622246, name=苹果QQ273区), GoodsServerSimpleDTO(id=1517377426622245, name=苹果QQ272区), GoodsServerSimpleDTO(id=1517377426622244, name=苹果QQ271区), GoodsServerSimpleDTO(id=1517377426622241, name=苹果QQ270区), GoodsServerSimpleDTO(id=1517377426622239, name=苹果QQ269区), GoodsServerSimpleDTO(id=1517377426621238, name=苹果QQ268区), GoodsServerSimpleDTO(id=1517377426621237, name=苹果QQ267区), GoodsServerSimpleDTO(id=1517377426621236, name=苹果QQ266区), GoodsServerSimpleDTO(id=1517377426621234, name=苹果QQ265区), GoodsServerSimpleDTO(id=1517377426621230, name=苹果QQ264区), GoodsServerSimpleDTO(id=1517377426620224, name=苹果QQ263区), GoodsServerSimpleDTO(id=1517377426620223, name=苹果QQ262区), GoodsServerSimpleDTO(id=1517377426620222, name=苹果QQ261区), GoodsServerSimpleDTO(id=1517377426620221, name=苹果QQ260区), GoodsServerSimpleDTO(id=1517377426620219, name=苹果QQ259区), GoodsServerSimpleDTO(id=1517377426620216, name=苹果QQ258区), GoodsServerSimpleDTO(id=1517377426619214, name=苹果QQ257区), GoodsServerSimpleDTO(id=1517377426619213, name=苹果QQ256区), GoodsServerSimpleDTO(id=1517377426619211, name=苹果QQ255区), GoodsServerSimpleDTO(id=1517377426619209, name=苹果QQ254区), GoodsServerSimpleDTO(id=1517377426619206, name=苹果QQ253区), GoodsServerSimpleDTO(id=1517377426619205, name=苹果QQ252区), GoodsServerSimpleDTO(id=1517377426618202, name=苹果QQ251区), GoodsServerSimpleDTO(id=1517377383212286, name=苹果QQ250区), GoodsServerSimpleDTO(id=1517377383212281, name=苹果QQ249区), GoodsServerSimpleDTO(id=1517377383212280, name=苹果QQ248区), GoodsServerSimpleDTO(id=1517377383212279, name=苹果QQ247区), GoodsServerSimpleDTO(id=1517377383212278, name=苹果QQ246区), GoodsServerSimpleDTO(id=1517377383212275, name=苹果QQ245区), GoodsServerSimpleDTO(id=1517377383211273, name=苹果QQ244区), GoodsServerSimpleDTO(id=1517377383211272, name=苹果QQ243区), GoodsServerSimpleDTO(id=1517377383211269, name=苹果QQ242区), GoodsServerSimpleDTO(id=1517377383211268, name=苹果QQ241区), GoodsServerSimpleDTO(id=1517377383211266, name=苹果QQ240区), GoodsServerSimpleDTO(id=1517377383211262, name=苹果QQ239区), GoodsServerSimpleDTO(id=1517377383211261, name=苹果QQ238区), GoodsServerSimpleDTO(id=1517377383211259, name=苹果QQ237区), GoodsServerSimpleDTO(id=1517377383211257, name=苹果QQ236区), GoodsServerSimpleDTO(id=1517377383210256, name=苹果QQ235区), GoodsServerSimpleDTO(id=1517377383210254, name=苹果QQ234区), GoodsServerSimpleDTO(id=1517377383210251, name=苹果QQ233区), GoodsServerSimpleDTO(id=1517377383210250, name=苹果QQ232区), GoodsServerSimpleDTO(id=1517377383210249, name=苹果QQ231区), GoodsServerSimpleDTO(id=1517377383210248, name=苹果QQ230区), GoodsServerSimpleDTO(id=1517377383210247, name=苹果QQ229区), GoodsServerSimpleDTO(id=1517377383210245, name=苹果QQ228区), GoodsServerSimpleDTO(id=1517377383210244, name=苹果QQ227区), GoodsServerSimpleDTO(id=1517377383210243, name=苹果QQ226区), GoodsServerSimpleDTO(id=1517377383209240, name=苹果QQ225区), GoodsServerSimpleDTO(id=1517377383209236, name=苹果QQ224区), GoodsServerSimpleDTO(id=1517377383209234, name=苹果QQ223区), GoodsServerSimpleDTO(id=1517377383209232, name=苹果QQ222区), GoodsServerSimpleDTO(id=1517377383209230, name=苹果QQ221区), GoodsServerSimpleDTO(id=1517377383209228, name=苹果QQ220区), GoodsServerSimpleDTO(id=1517377383209226, name=苹果QQ219区), GoodsServerSimpleDTO(id=1517377383209225, name=苹果QQ218区), GoodsServerSimpleDTO(id=1517377383209224, name=苹果QQ217区), GoodsServerSimpleDTO(id=1517377383208223, name=苹果QQ216区), GoodsServerSimpleDTO(id=1517377383208222, name=苹果QQ215区), GoodsServerSimpleDTO(id=1517377383208220, name=苹果QQ214区), GoodsServerSimpleDTO(id=1517377383208217, name=苹果QQ213区), GoodsServerSimpleDTO(id=1517377383208215, name=苹果QQ212区), GoodsServerSimpleDTO(id=1517377383208214, name=苹果QQ211区), GoodsServerSimpleDTO(id=1517377383208211, name=苹果QQ210区), GoodsServerSimpleDTO(id=1517377383208210, name=苹果QQ209区), GoodsServerSimpleDTO(id=1517377383208209, name=苹果QQ208区), GoodsServerSimpleDTO(id=1517377383208208, name=苹果QQ207区), GoodsServerSimpleDTO(id=1517377383207205, name=苹果QQ206区), GoodsServerSimpleDTO(id=1517377383207203, name=苹果QQ205区), GoodsServerSimpleDTO(id=1517377383207201, name=苹果QQ204区), GoodsServerSimpleDTO(id=1517377383207200, name=苹果QQ203区), GoodsServerSimpleDTO(id=1517377383207197, name=苹果QQ202区), GoodsServerSimpleDTO(id=1517377383207195, name=苹果QQ201区), GoodsServerSimpleDTO(id=1513927335090886, name=苹果QQ200区), GoodsServerSimpleDTO(id=1513927335090885, name=苹果QQ199区), GoodsServerSimpleDTO(id=1513927335090884, name=苹果QQ198区), GoodsServerSimpleDTO(id=1513927335090882, name=苹果QQ197区), GoodsServerSimpleDTO(id=1513927335090881, name=苹果QQ196区), GoodsServerSimpleDTO(id=1513927335090880, name=苹果QQ195区), GoodsServerSimpleDTO(id=1513927335090879, name=苹果QQ194区), GoodsServerSimpleDTO(id=1513927335090877, name=苹果QQ193区), GoodsServerSimpleDTO(id=1513927335090874, name=苹果QQ192区), GoodsServerSimpleDTO(id=1513927335090872, name=苹果QQ191区), GoodsServerSimpleDTO(id=1513927335089871, name=苹果QQ190区), GoodsServerSimpleDTO(id=1513927335089870, name=苹果QQ189区), GoodsServerSimpleDTO(id=1513927335089869, name=苹果QQ188区), GoodsServerSimpleDTO(id=1513927335089868, name=苹果QQ187区), GoodsServerSimpleDTO(id=1513927335089867, name=苹果QQ186区), GoodsServerSimpleDTO(id=1513927335089866, name=苹果QQ185区), GoodsServerSimpleDTO(id=1513927335089864, name=苹果QQ184区), GoodsServerSimpleDTO(id=1513927335089862, name=苹果QQ183区), GoodsServerSimpleDTO(id=1513927335089860, name=苹果QQ182区), GoodsServerSimpleDTO(id=1513927335089858, name=苹果QQ181区), GoodsServerSimpleDTO(id=1513927335088857, name=苹果QQ180区), GoodsServerSimpleDTO(id=1513927335088856, name=苹果QQ179区), GoodsServerSimpleDTO(id=1513927335088855, name=苹果QQ178区), GoodsServerSimpleDTO(id=1513927335088854, name=苹果QQ177区), GoodsServerSimpleDTO(id=1513927335088853, name=苹果QQ176区), GoodsServerSimpleDTO(id=1513927335088851, name=苹果QQ175区), GoodsServerSimpleDTO(id=1513927335088850, name=苹果QQ174区), GoodsServerSimpleDTO(id=1513927335088849, name=苹果QQ173区), GoodsServerSimpleDTO(id=1513927335088847, name=苹果QQ172区), GoodsServerSimpleDTO(id=1513927335087845, name=苹果QQ171区), GoodsServerSimpleDTO(id=1513927335087843, name=苹果QQ170区), GoodsServerSimpleDTO(id=1513927335087840, name=苹果QQ169区), GoodsServerSimpleDTO(id=1513927335087837, name=苹果QQ168区), GoodsServerSimpleDTO(id=1513927335087836, name=苹果QQ167区), GoodsServerSimpleDTO(id=1513927335087835, name=苹果QQ166区), GoodsServerSimpleDTO(id=1513927335087834, name=苹果QQ165区), GoodsServerSimpleDTO(id=1513927335087833, name=苹果QQ164区), GoodsServerSimpleDTO(id=1513927335087832, name=苹果QQ163区), GoodsServerSimpleDTO(id=1513927335086830, name=苹果QQ162区), GoodsServerSimpleDTO(id=1513927335086828, name=苹果QQ161区), GoodsServerSimpleDTO(id=1513927335086827, name=苹果QQ160区), GoodsServerSimpleDTO(id=1513927335086826, name=苹果QQ159区), GoodsServerSimpleDTO(id=1513927335086825, name=苹果QQ158区), GoodsServerSimpleDTO(id=1513927335086824, name=苹果QQ157区), GoodsServerSimpleDTO(id=1513927335086823, name=苹果QQ156区), GoodsServerSimpleDTO(id=1513927335086822, name=苹果QQ155区), GoodsServerSimpleDTO(id=1513927335086821, name=苹果QQ154区), GoodsServerSimpleDTO(id=1513927335086820, name=苹果QQ153区), GoodsServerSimpleDTO(id=1513927335085819, name=苹果QQ152区), GoodsServerSimpleDTO(id=1513927335085818, name=苹果QQ151区), GoodsServerSimpleDTO(id=1513927318881507, name=苹果QQ150区), GoodsServerSimpleDTO(id=1513927318880506, name=苹果QQ149区), GoodsServerSimpleDTO(id=1513927318880505, name=苹果QQ148区), GoodsServerSimpleDTO(id=1513927318880504, name=苹果QQ147区), GoodsServerSimpleDTO(id=1513927318880503, name=苹果QQ146区), GoodsServerSimpleDTO(id=1513927318880502, name=苹果QQ145区), GoodsServerSimpleDTO(id=1513927318880501, name=苹果QQ144区), GoodsServerSimpleDTO(id=1513927318880499, name=苹果QQ143区), GoodsServerSimpleDTO(id=1513927318879496, name=苹果QQ142区), GoodsServerSimpleDTO(id=1513927318879493, name=苹果QQ141区), GoodsServerSimpleDTO(id=1513927318879490, name=苹果QQ140区), GoodsServerSimpleDTO(id=1513927318879489, name=苹果QQ139区), GoodsServerSimpleDTO(id=1513927318879488, name=苹果QQ138区), GoodsServerSimpleDTO(id=1513927318879487, name=苹果QQ137区), GoodsServerSimpleDTO(id=1513927318879486, name=苹果QQ136区), GoodsServerSimpleDTO(id=1513927318878485, name=苹果QQ135区), GoodsServerSimpleDTO(id=1513927318878484, name=苹果QQ134区), GoodsServerSimpleDTO(id=1513927318878481, name=苹果QQ133区), GoodsServerSimpleDTO(id=1513927318878479, name=苹果QQ132区), GoodsServerSimpleDTO(id=1513927318878476, name=苹果QQ131区), GoodsServerSimpleDTO(id=1513927318878475, name=苹果QQ130区), GoodsServerSimpleDTO(id=1513927318878474, name=苹果QQ129区), GoodsServerSimpleDTO(id=1513927318877472, name=苹果QQ128区), GoodsServerSimpleDTO(id=1513927318877468, name=苹果QQ127区), GoodsServerSimpleDTO(id=1513927318877466, name=苹果QQ126区), GoodsServerSimpleDTO(id=1513927318877465, name=苹果QQ125区), GoodsServerSimpleDTO(id=1513927318877464, name=苹果QQ124区), GoodsServerSimpleDTO(id=1513927318877463, name=苹果QQ123区), GoodsServerSimpleDTO(id=1513927318877462, name=苹果QQ122区), GoodsServerSimpleDTO(id=1513927318877461, name=苹果QQ121区), GoodsServerSimpleDTO(id=1513927318876460, name=苹果QQ120区), GoodsServerSimpleDTO(id=1513927318876459, name=苹果QQ119区), GoodsServerSimpleDTO(id=1513927318876458, name=苹果QQ118区), GoodsServerSimpleDTO(id=1513927318876457, name=苹果QQ117区), GoodsServerSimpleDTO(id=1513927318876456, name=苹果QQ116区), GoodsServerSimpleDTO(id=1513927318876454, name=苹果QQ115区), GoodsServerSimpleDTO(id=1513927318876452, name=苹果QQ114区), GoodsServerSimpleDTO(id=1513927318876451, name=苹果QQ113区), GoodsServerSimpleDTO(id=1513927318875450, name=苹果QQ112区), GoodsServerSimpleDTO(id=1513927318875449, name=苹果QQ111区), GoodsServerSimpleDTO(id=1513927318875447, name=苹果QQ110区), GoodsServerSimpleDTO(id=1513927318875444, name=苹果QQ109区), GoodsServerSimpleDTO(id=1513927318875443, name=苹果QQ108区), GoodsServerSimpleDTO(id=1513927318875441, name=苹果QQ107区), GoodsServerSimpleDTO(id=1513927318875439, name=苹果QQ106区), GoodsServerSimpleDTO(id=1513927318874438, name=苹果QQ105区), GoodsServerSimpleDTO(id=1513927318874437, name=苹果QQ104区), GoodsServerSimpleDTO(id=1513927318874436, name=苹果QQ103区), GoodsServerSimpleDTO(id=1513927318874435, name=苹果QQ102区), GoodsServerSimpleDTO(id=1513927318874434, name=苹果QQ101区), GoodsServerSimpleDTO(id=1510736613738838, name=苹果QQ100区), GoodsServerSimpleDTO(id=1510736613738837, name=苹果QQ99区), GoodsServerSimpleDTO(id=1510736613738836, name=苹果QQ98区), GoodsServerSimpleDTO(id=1510736613738835, name=苹果QQ97区), GoodsServerSimpleDTO(id=1510736613738834, name=苹果QQ96区), GoodsServerSimpleDTO(id=1510736613738833, name=苹果QQ95区), GoodsServerSimpleDTO(id=1510736613738830, name=苹果QQ94区), GoodsServerSimpleDTO(id=1510736613738829, name=苹果QQ93区), GoodsServerSimpleDTO(id=1510736613738828, name=苹果QQ92区), GoodsServerSimpleDTO(id=1510736613737824, name=苹果QQ91区), GoodsServerSimpleDTO(id=1510736613737823, name=苹果QQ90区), GoodsServerSimpleDTO(id=1510736613737822, name=苹果QQ89区), GoodsServerSimpleDTO(id=1510736613737821, name=苹果QQ88区), GoodsServerSimpleDTO(id=1510736613737820, name=苹果QQ87区), GoodsServerSimpleDTO(id=1510736613737819, name=苹果QQ86区), GoodsServerSimpleDTO(id=1510736613737818, name=苹果QQ85区), GoodsServerSimpleDTO(id=1510736613737816, name=苹果QQ84区), GoodsServerSimpleDTO(id=1510736613737815, name=苹果QQ83区), GoodsServerSimpleDTO(id=1510736613736812, name=苹果QQ82区), GoodsServerSimpleDTO(id=1510736613736810, name=苹果QQ81区), GoodsServerSimpleDTO(id=1498479938502429, name=苹果微信80区), GoodsServerSimpleDTO(id=1498479938502428, name=苹果微信79区), GoodsServerSimpleDTO(id=1498479938502427, name=苹果微信78区), GoodsServerSimpleDTO(id=1498479938501426, name=苹果微信77区), GoodsServerSimpleDTO(id=1498479938501425, name=苹果微信76区), GoodsServerSimpleDTO(id=1498479938501423, name=苹果微信75区), GoodsServerSimpleDTO(id=1498479938501421, name=苹果微信74区), GoodsServerSimpleDTO(id=1498479938501420, name=苹果微信73区), GoodsServerSimpleDTO(id=1498479938501419, name=苹果微信72区), GoodsServerSimpleDTO(id=1498479938501418, name=苹果微信71区), GoodsServerSimpleDTO(id=1498479938501417, name=苹果微信70区), GoodsServerSimpleDTO(id=1498479938501415, name=苹果微信69区), GoodsServerSimpleDTO(id=1498479938501412, name=苹果微信68区), GoodsServerSimpleDTO(id=1498479938500410, name=苹果微信67区), GoodsServerSimpleDTO(id=1498479938500409, name=苹果微信66区), GoodsServerSimpleDTO(id=1498479938500407, name=苹果微信65区), GoodsServerSimpleDTO(id=1498479938500406, name=苹果微信64区), GoodsServerSimpleDTO(id=1498479938500404, name=苹果微信63区), GoodsServerSimpleDTO(id=1498479938500403, name=苹果微信62区), GoodsServerSimpleDTO(id=1498479938500402, name=苹果微信61区), GoodsServerSimpleDTO(id=1498479938500401, name=苹果微信60区), GoodsServerSimpleDTO(id=1498479938500400, name=59区), GoodsServerSimpleDTO(id=1498479938499399, name=58区), GoodsServerSimpleDTO(id=1498479938499398, name=57区), GoodsServerSimpleDTO(id=1498479938499396, name=56区), GoodsServerSimpleDTO(id=1498479938499395, name=55区), GoodsServerSimpleDTO(id=1498479938499394, name=54区), GoodsServerSimpleDTO(id=1498479938499393, name=53区), GoodsServerSimpleDTO(id=1498479938499392, name=52区), GoodsServerSimpleDTO(id=1498479938499391, name=51区), GoodsServerSimpleDTO(id=1498479881164324, name=苹果QQ80区), GoodsServerSimpleDTO(id=1498479881164323, name=苹果QQ79区), GoodsServerSimpleDTO(id=1498479881164322, name=苹果QQ78区), GoodsServerSimpleDTO(id=1498479881164321, name=苹果QQ77区), GoodsServerSimpleDTO(id=1498479881164319, name=苹果QQ76区), GoodsServerSimpleDTO(id=1498479881164318, name=苹果QQ75区), GoodsServerSimpleDTO(id=1498479881164317, name=苹果QQ74区), GoodsServerSimpleDTO(id=1498479881164315, name=苹果QQ73区), GoodsServerSimpleDTO(id=1498479881163314, name=苹果QQ72区), GoodsServerSimpleDTO(id=1498479881163313, name=苹果QQ71区), GoodsServerSimpleDTO(id=1498479881163312, name=苹果QQ70区), GoodsServerSimpleDTO(id=1498479881163310, name=苹果QQ69区), GoodsServerSimpleDTO(id=1498479881163309, name=苹果QQ68区), GoodsServerSimpleDTO(id=1498479881163308, name=苹果QQ67区), GoodsServerSimpleDTO(id=1498479881163306, name=苹果QQ66区), GoodsServerSimpleDTO(id=1498479881162304, name=苹果QQ65区), GoodsServerSimpleDTO(id=1498479881162302, name=苹果QQ64区), GoodsServerSimpleDTO(id=1498479881162299, name=苹果QQ63区), GoodsServerSimpleDTO(id=1498479881162298, name=苹果QQ62区), GoodsServerSimpleDTO(id=1498479881162297, name=苹果QQ61区), GoodsServerSimpleDTO(id=1498479881161294, name=苹果QQ60区), GoodsServerSimpleDTO(id=817861, name=苹果QQ59区), GoodsServerSimpleDTO(id=817860, name=苹果QQ58区), GoodsServerSimpleDTO(id=817859, name=苹果QQ57区), GoodsServerSimpleDTO(id=817858, name=苹果QQ56区), GoodsServerSimpleDTO(id=817857, name=苹果QQ55区), GoodsServerSimpleDTO(id=817856, name=苹果QQ54区), GoodsServerSimpleDTO(id=817855, name=苹果QQ53区), GoodsServerSimpleDTO(id=817854, name=苹果QQ52区), GoodsServerSimpleDTO(id=817853, name=苹果QQ51区), GoodsServerSimpleDTO(id=817852, name=苹果QQ50区), GoodsServerSimpleDTO(id=817851, name=苹果QQ49区), GoodsServerSimpleDTO(id=817850, name=苹果QQ48区), GoodsServerSimpleDTO(id=817849, name=苹果QQ47区), GoodsServerSimpleDTO(id=817848, name=苹果QQ46区), GoodsServerSimpleDTO(id=817847, name=苹果QQ45区), GoodsServerSimpleDTO(id=817846, name=苹果QQ44区), GoodsServerSimpleDTO(id=817845, name=苹果QQ43区), GoodsServerSimpleDTO(id=817844, name=苹果QQ42区), GoodsServerSimpleDTO(id=817843, name=苹果QQ41区), GoodsServerSimpleDTO(id=817842, name=苹果QQ40区), GoodsServerSimpleDTO(id=817841, name=苹果QQ39区), GoodsServerSimpleDTO(id=817840, name=苹果QQ38区), GoodsServerSimpleDTO(id=817839, name=苹果QQ37区), GoodsServerSimpleDTO(id=817838, name=苹果QQ36区), GoodsServerSimpleDTO(id=817837, name=苹果QQ35区), GoodsServerSimpleDTO(id=817836, name=苹果QQ34区), GoodsServerSimpleDTO(id=817835, name=苹果QQ33区), GoodsServerSimpleDTO(id=817834, name=苹果QQ32区), GoodsServerSimpleDTO(id=718033, name=苹果QQ30区), GoodsServerSimpleDTO(id=817833, name=苹果QQ31区), GoodsServerSimpleDTO(id=718032, name=苹果QQ29区), GoodsServerSimpleDTO(id=718031, name=苹果QQ28区), GoodsServerSimpleDTO(id=718030, name=苹果QQ27区), GoodsServerSimpleDTO(id=718029, name=苹果QQ26区), GoodsServerSimpleDTO(id=718028, name=苹果QQ25区), GoodsServerSimpleDTO(id=718027, name=苹果QQ24区), GoodsServerSimpleDTO(id=718026, name=苹果QQ23区), GoodsServerSimpleDTO(id=718025, name=苹果QQ22区), GoodsServerSimpleDTO(id=718024, name=苹果QQ21区), GoodsServerSimpleDTO(id=718023, name=苹果QQ20区), GoodsServerSimpleDTO(id=718022, name=苹果QQ19区), GoodsServerSimpleDTO(id=718021, name=苹果QQ18区), GoodsServerSimpleDTO(id=718020, name=苹果QQ17区), GoodsServerSimpleDTO(id=718019, name=苹果QQ16区), GoodsServerSimpleDTO(id=718018, name=苹果QQ15区), GoodsServerSimpleDTO(id=718017, name=苹果QQ14区), GoodsServerSimpleDTO(id=718016, name=苹果QQ13区), GoodsServerSimpleDTO(id=718015, name=苹果QQ12区), GoodsServerSimpleDTO(id=718014, name=苹果QQ11区), GoodsServerSimpleDTO(id=718013, name=苹果QQ10区), GoodsServerSimpleDTO(id=718012, name=苹果QQ9区), GoodsServerSimpleDTO(id=718011, name=苹果QQ8区), GoodsServerSimpleDTO(id=718010, name=苹果QQ7区), GoodsServerSimpleDTO(id=718009, name=苹果QQ6区), GoodsServerSimpleDTO(id=718008, name=苹果QQ5区), GoodsServerSimpleDTO(id=718007, name=苹果QQ4区), GoodsServerSimpleDTO(id=718006, name=苹果QQ3区), GoodsServerSimpleDTO(id=718005, name=苹果QQ2区), GoodsServerSimpleDTO(id=718004, name=苹果QQ1区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903070868728, name=全平台通用), GoodsServerSimpleDTO(id=1520565539285187, name=400区), GoodsServerSimpleDTO(id=1520565539285185, name=399区), GoodsServerSimpleDTO(id=1520565539285184, name=398区), GoodsServerSimpleDTO(id=1520565539285180, name=397区), GoodsServerSimpleDTO(id=1520565539284179, name=396区), GoodsServerSimpleDTO(id=1520565539284178, name=395区), GoodsServerSimpleDTO(id=1520565539284177, name=394区), GoodsServerSimpleDTO(id=1520565539284175, name=393区), GoodsServerSimpleDTO(id=1520565539284173, name=392区), GoodsServerSimpleDTO(id=1520565539284172, name=391区), GoodsServerSimpleDTO(id=1520565539284171, name=390区), GoodsServerSimpleDTO(id=1520565539283169, name=389区), GoodsServerSimpleDTO(id=1520565539283168, name=388区), GoodsServerSimpleDTO(id=1520565539283164, name=387区), GoodsServerSimpleDTO(id=1520565539283162, name=386区), GoodsServerSimpleDTO(id=1520565539283161, name=385区), GoodsServerSimpleDTO(id=1520565539283159, name=384区), GoodsServerSimpleDTO(id=1520565539282157, name=383区), GoodsServerSimpleDTO(id=1520565539282153, name=382区), GoodsServerSimpleDTO(id=1520565539282152, name=381区), GoodsServerSimpleDTO(id=1520565539282151, name=380区), GoodsServerSimpleDTO(id=1520565539282149, name=379区), GoodsServerSimpleDTO(id=1520565539282147, name=378区), GoodsServerSimpleDTO(id=1520565539281145, name=377区), GoodsServerSimpleDTO(id=1520565539281143, name=376区), GoodsServerSimpleDTO(id=1520565539281140, name=375区), GoodsServerSimpleDTO(id=1520565539281138, name=374区), GoodsServerSimpleDTO(id=1520565539281135, name=373区), GoodsServerSimpleDTO(id=1520565539281134, name=372区), GoodsServerSimpleDTO(id=1520565539280133, name=371区), GoodsServerSimpleDTO(id=1520565539280132, name=370区), GoodsServerSimpleDTO(id=1520565539280129, name=369区), GoodsServerSimpleDTO(id=1520565539280127, name=368区), GoodsServerSimpleDTO(id=1520565539280125, name=367区), GoodsServerSimpleDTO(id=1520565539279122, name=366区), GoodsServerSimpleDTO(id=1520565539279120, name=365区), GoodsServerSimpleDTO(id=1520565539279118, name=364区), GoodsServerSimpleDTO(id=1520565539279115, name=363区), GoodsServerSimpleDTO(id=1520565539278112, name=362区), GoodsServerSimpleDTO(id=1520565539278107, name=361区), GoodsServerSimpleDTO(id=1520565539278106, name=360区), GoodsServerSimpleDTO(id=1520565539278103, name=359区), GoodsServerSimpleDTO(id=1520565539278102, name=358区), GoodsServerSimpleDTO(id=1520565539278100, name=357区), GoodsServerSimpleDTO(id=1520565539277099, name=356区), GoodsServerSimpleDTO(id=1520565539277096, name=355区), GoodsServerSimpleDTO(id=1520565539277093, name=354区), GoodsServerSimpleDTO(id=1520565539277091, name=353区), GoodsServerSimpleDTO(id=1520565539277089, name=352区), GoodsServerSimpleDTO(id=1520565539277086, name=351区), GoodsServerSimpleDTO(id=1520565519651677, name=350区), GoodsServerSimpleDTO(id=1520565519651676, name=349区), GoodsServerSimpleDTO(id=1520565519651675, name=348区), GoodsServerSimpleDTO(id=1520565519650674, name=347区), GoodsServerSimpleDTO(id=1520565519650672, name=346区), GoodsServerSimpleDTO(id=1520565519650671, name=345区), GoodsServerSimpleDTO(id=1520565519650670, name=344区), GoodsServerSimpleDTO(id=1520565519650667, name=343区), GoodsServerSimpleDTO(id=1520565519650665, name=342区), GoodsServerSimpleDTO(id=1520565519650664, name=341区), GoodsServerSimpleDTO(id=1520565519649663, name=340区), GoodsServerSimpleDTO(id=1520565519649662, name=339区), GoodsServerSimpleDTO(id=1520565519649660, name=338区), GoodsServerSimpleDTO(id=1520565519649659, name=337区), GoodsServerSimpleDTO(id=1520565519649658, name=336区), GoodsServerSimpleDTO(id=1520565519649655, name=335区), GoodsServerSimpleDTO(id=1520565519649652, name=334区), GoodsServerSimpleDTO(id=1520565519648651, name=333区), GoodsServerSimpleDTO(id=1520565519648650, name=332区), GoodsServerSimpleDTO(id=1520565519648649, name=331区), GoodsServerSimpleDTO(id=1520565519648648, name=330区), GoodsServerSimpleDTO(id=1520565519648646, name=329区), GoodsServerSimpleDTO(id=1520565519648645, name=328区), GoodsServerSimpleDTO(id=1520565519648643, name=327区), GoodsServerSimpleDTO(id=1520565519647642, name=326区), GoodsServerSimpleDTO(id=1520565519647639, name=325区), GoodsServerSimpleDTO(id=1520565519647638, name=324区), GoodsServerSimpleDTO(id=1520565519646636, name=323区), GoodsServerSimpleDTO(id=1520565519646634, name=322区), GoodsServerSimpleDTO(id=1520565519646631, name=321区), GoodsServerSimpleDTO(id=1520565519645629, name=320区), GoodsServerSimpleDTO(id=1520565519645626, name=319区), GoodsServerSimpleDTO(id=1520565519645624, name=318区), GoodsServerSimpleDTO(id=1520565519645623, name=317区), GoodsServerSimpleDTO(id=1520565519645622, name=316区), GoodsServerSimpleDTO(id=1520565519645621, name=315区), GoodsServerSimpleDTO(id=1520565519645620, name=314区), GoodsServerSimpleDTO(id=1520565519644618, name=313区), GoodsServerSimpleDTO(id=1520565519644617, name=312区), GoodsServerSimpleDTO(id=1520565519644616, name=311区), GoodsServerSimpleDTO(id=1520565519644615, name=310区), GoodsServerSimpleDTO(id=1520565519644612, name=309区), GoodsServerSimpleDTO(id=1520565519643611, name=308区), GoodsServerSimpleDTO(id=1520565519643610, name=307区), GoodsServerSimpleDTO(id=1520565519643608, name=306区), GoodsServerSimpleDTO(id=1520565519643606, name=305区), GoodsServerSimpleDTO(id=1520565519643605, name=304区), GoodsServerSimpleDTO(id=1520565519643603, name=303区), GoodsServerSimpleDTO(id=1520565519642602, name=302区), GoodsServerSimpleDTO(id=1520565519642600, name=301区), GoodsServerSimpleDTO(id=1520565499183983, name=300区), GoodsServerSimpleDTO(id=1520565499183982, name=299区), GoodsServerSimpleDTO(id=1520565499183980, name=298区), GoodsServerSimpleDTO(id=1520565499183978, name=297区), GoodsServerSimpleDTO(id=1520565499183977, name=296区), GoodsServerSimpleDTO(id=1520565499182975, name=295区), GoodsServerSimpleDTO(id=1520565499182973, name=294区), GoodsServerSimpleDTO(id=1520565499182971, name=293区), GoodsServerSimpleDTO(id=1520565499182970, name=292区), GoodsServerSimpleDTO(id=1520565499182969, name=291区), GoodsServerSimpleDTO(id=1520565499182968, name=290区), GoodsServerSimpleDTO(id=1520565499182967, name=289区), GoodsServerSimpleDTO(id=1520565499182966, name=288区), GoodsServerSimpleDTO(id=1520565499182963, name=287区), GoodsServerSimpleDTO(id=1520565499182961, name=286区), GoodsServerSimpleDTO(id=1520565499181960, name=285区), GoodsServerSimpleDTO(id=1520565499181959, name=284区), GoodsServerSimpleDTO(id=1520565499181957, name=283区), GoodsServerSimpleDTO(id=1520565499181956, name=282区), GoodsServerSimpleDTO(id=1520565499181955, name=281区), GoodsServerSimpleDTO(id=1520565499181953, name=280区), GoodsServerSimpleDTO(id=1520565499181951, name=279区), GoodsServerSimpleDTO(id=1520565499181950, name=278区), GoodsServerSimpleDTO(id=1520565499181949, name=277区), GoodsServerSimpleDTO(id=1520565499180946, name=276区), GoodsServerSimpleDTO(id=1520565499180945, name=275区), GoodsServerSimpleDTO(id=1520565499180943, name=274区), GoodsServerSimpleDTO(id=1520565499180942, name=273区), GoodsServerSimpleDTO(id=1520565499180940, name=272区), GoodsServerSimpleDTO(id=1520565499180939, name=271区), GoodsServerSimpleDTO(id=1520565499180938, name=270区), GoodsServerSimpleDTO(id=1520565499180937, name=269区), GoodsServerSimpleDTO(id=1520565499180935, name=268区), GoodsServerSimpleDTO(id=1520565499179934, name=267区), GoodsServerSimpleDTO(id=1520565499179932, name=266区), GoodsServerSimpleDTO(id=1520565499179931, name=265区), GoodsServerSimpleDTO(id=1520565499179929, name=264区), GoodsServerSimpleDTO(id=1520565499179927, name=263区), GoodsServerSimpleDTO(id=1520565499179926, name=262区), GoodsServerSimpleDTO(id=1520565499179924, name=261区), GoodsServerSimpleDTO(id=1520565499179923, name=260区), GoodsServerSimpleDTO(id=1520565499179922, name=259区), GoodsServerSimpleDTO(id=1520565499179921, name=258区), GoodsServerSimpleDTO(id=1520565499179920, name=257区), GoodsServerSimpleDTO(id=1520565499178918, name=256区), GoodsServerSimpleDTO(id=1520565499178917, name=255区), GoodsServerSimpleDTO(id=1520565499178916, name=254区), GoodsServerSimpleDTO(id=1520565499178915, name=253区), GoodsServerSimpleDTO(id=1520565499178914, name=252区), GoodsServerSimpleDTO(id=1520565499178910, name=251区), GoodsServerSimpleDTO(id=1520565482676345, name=250区), GoodsServerSimpleDTO(id=1520565482676344, name=249区), GoodsServerSimpleDTO(id=1520565482676343, name=248区), GoodsServerSimpleDTO(id=1520565482676342, name=247区), GoodsServerSimpleDTO(id=1520565482676341, name=246区), GoodsServerSimpleDTO(id=1520565482675339, name=245区), GoodsServerSimpleDTO(id=1520565482675336, name=244区), GoodsServerSimpleDTO(id=1520565482675334, name=243区), GoodsServerSimpleDTO(id=1520565482674333, name=242区), GoodsServerSimpleDTO(id=1520565482674331, name=241区), GoodsServerSimpleDTO(id=1520565482674327, name=240区), GoodsServerSimpleDTO(id=1520565482673326, name=239区), GoodsServerSimpleDTO(id=1520565482673325, name=238区), GoodsServerSimpleDTO(id=1520565482673321, name=237区), GoodsServerSimpleDTO(id=1520565482672320, name=236区), GoodsServerSimpleDTO(id=1520565482672318, name=235区), GoodsServerSimpleDTO(id=1520565482672317,name=234区), GoodsServerSimpleDTO(id=1520565482671314, name=233区), GoodsServerSimpleDTO(id=1520565482670311, name=232区), GoodsServerSimpleDTO(id=1520565482670309, name=231区), GoodsServerSimpleDTO(id=1520565482670307, name=230区), GoodsServerSimpleDTO(id=1520565482670306, name=229区), GoodsServerSimpleDTO(id=1520565482669303, name=228区), GoodsServerSimpleDTO(id=1520565482669300, name=227区), GoodsServerSimpleDTO(id=1520565482669298, name=226区), GoodsServerSimpleDTO(id=1520565482669296, name=225区), GoodsServerSimpleDTO(id=1520565482669295, name=224区), GoodsServerSimpleDTO(id=1520565482669294, name=223区), GoodsServerSimpleDTO(id=1520565482668293, name=222区), GoodsServerSimpleDTO(id=1520565482668292, name=221区), GoodsServerSimpleDTO(id=1520565482668290, name=220区),GoodsServerSimpleDTO(id=1520565482668288, name=219区), GoodsServerSimpleDTO(id=1520565482668285, name=218区), GoodsServerSimpleDTO(id=1520565482668283, name=217区), GoodsServerSimpleDTO(id=1520565482667279, name=216区), GoodsServerSimpleDTO(id=1520565482667278, name=215区), GoodsServerSimpleDTO(id=1520565482667277, name=214区), GoodsServerSimpleDTO(id=1520565482667276, name=213区), GoodsServerSimpleDTO(id=1520565482667275, name=212区), GoodsServerSimpleDTO(id=1520565482667274, name=211区), GoodsServerSimpleDTO(id=1520565482667273, name=210区), GoodsServerSimpleDTO(id=1520565482666272, name=209区), GoodsServerSimpleDTO(id=1520565482666271, name=208区), GoodsServerSimpleDTO(id=1520565482666267, name=207区), GoodsServerSimpleDTO(id=1520565482666264, name=206区), GoodsServerSimpleDTO(id=1520565482666262, name=205区), GoodsServerSimpleDTO(id=1520565482665260, name=204区), GoodsServerSimpleDTO(id=1520565482665258, name=203区), GoodsServerSimpleDTO(id=1520565482665257, name=202区), GoodsServerSimpleDTO(id=1520565482664254, name=201区), GoodsServerSimpleDTO(id=1520564772841752, name=微信全服通用), GoodsServerSimpleDTO(id=1513927403776737, name=苹果微信200区), GoodsServerSimpleDTO(id=1513927403776733, name=苹果微信199区), GoodsServerSimpleDTO(id=1513927403776729, name=苹果微信198区), GoodsServerSimpleDTO(id=1513927403776727, name=苹果微信197区), GoodsServerSimpleDTO(id=1513927403775725, name=苹果微信196区), GoodsServerSimpleDTO(id=1513927403775722, name=苹果微信195区), GoodsServerSimpleDTO(id=1513927403775720, name=苹果微信194区), GoodsServerSimpleDTO(id=1513927403775718, name=苹果微信193区), GoodsServerSimpleDTO(id=1513927403775717, name=苹果微信192区), GoodsServerSimpleDTO(id=1513927403775715, name=苹果微信191区), GoodsServerSimpleDTO(id=1513927403774714, name=苹果微信190区), GoodsServerSimpleDTO(id=1513927403774712, name=苹果微信189区), GoodsServerSimpleDTO(id=1513927403774711, name=苹果微信188区), GoodsServerSimpleDTO(id=1513927403774709, name=苹果微信187区), GoodsServerSimpleDTO(id=1513927403774708, name=苹果微信186区), GoodsServerSimpleDTO(id=1513927403774704, name=苹果微信185区), GoodsServerSimpleDTO(id=1513927403774702, name=苹果微信184区), GoodsServerSimpleDTO(id=1513927403773700, name=苹果微信183区), GoodsServerSimpleDTO(id=1513927403773699, name=苹果微信182区), GoodsServerSimpleDTO(id=1513927403773698, name=苹果微信181区), GoodsServerSimpleDTO(id=1513927403773695, name=苹果微信180区), GoodsServerSimpleDTO(id=1513927403772694, name=苹果微信179区), GoodsServerSimpleDTO(id=1513927403772692, name=苹果微信178区), GoodsServerSimpleDTO(id=1513927403772691, name=苹果微信177区), GoodsServerSimpleDTO(id=1513927403772689, name=苹果微信176区), GoodsServerSimpleDTO(id=1513927403772686, name=苹果微信175区), GoodsServerSimpleDTO(id=1513927403772685, name=苹果微信174区), GoodsServerSimpleDTO(id=1513927403772683, name=苹果微信173区), GoodsServerSimpleDTO(id=1513927403772682, name=苹果微信172区), GoodsServerSimpleDTO(id=1513927403771680, name=苹果微信171区), GoodsServerSimpleDTO(id=1513927403771679, name=苹果微信170区), GoodsServerSimpleDTO(id=1513927403771678, name=苹果微信169区), GoodsServerSimpleDTO(id=1513927403771677, name=苹果微信168区), GoodsServerSimpleDTO(id=1513927403771676, name=苹果微信167区), GoodsServerSimpleDTO(id=1513927403771675, name=苹果微信166区), GoodsServerSimpleDTO(id=1513927403770673, name=苹果微信165区), GoodsServerSimpleDTO(id=1513927403770671, name=苹果微信164区), GoodsServerSimpleDTO(id=1513927403770670, name=苹果微信163区), GoodsServerSimpleDTO(id=1513927403770668, name=苹果微信162区), GoodsServerSimpleDTO(id=1513927403770667, name=苹果微信161区), GoodsServerSimpleDTO(id=1513927403770664, name=苹果微信160区), GoodsServerSimpleDTO(id=1513927403770663, name=苹果微信159区), GoodsServerSimpleDTO(id=1513927403769661, name=苹果微信158区), GoodsServerSimpleDTO(id=1513927403769660, name=苹果微信157区), GoodsServerSimpleDTO(id=1513927403769659, name=苹果微信156区), GoodsServerSimpleDTO(id=1513927403769658, name=苹果微信155区), GoodsServerSimpleDTO(id=1513927403769657, name=苹果微信154区), GoodsServerSimpleDTO(id=1513927403769655, name=苹果微信153区), GoodsServerSimpleDTO(id=1513927403769654, name=苹果微信152区), GoodsServerSimpleDTO(id=1513927403768651, name=苹果微信151区), GoodsServerSimpleDTO(id=1513927388418232, name=苹果微信150区), GoodsServerSimpleDTO(id=1513927388418231, name=苹果微信149区), GoodsServerSimpleDTO(id=1513927388417229, name=苹果微信148区), GoodsServerSimpleDTO(id=1513927388417227, name=苹果微信147区), GoodsServerSimpleDTO(id=1513927388417225, name=苹果微信146区), GoodsServerSimpleDTO(id=1513927388417224, name=苹果微信145区), GoodsServerSimpleDTO(id=1513927388417223, name=苹果微信144区), GoodsServerSimpleDTO(id=1513927388417221, name=苹果微信143区), GoodsServerSimpleDTO(id=1513927388416220, name=苹果微信142区), GoodsServerSimpleDTO(id=1513927388416219, name=苹果微信141区), GoodsServerSimpleDTO(id=1513927388416218, name=苹果微信140区), GoodsServerSimpleDTO(id=1513927388416216, name=苹果微信139区), GoodsServerSimpleDTO(id=1513927388416211, name=苹果微信138区), GoodsServerSimpleDTO(id=1513927388415209, name=苹果微信137区), GoodsServerSimpleDTO(id=1513927388415208, name=苹果微信136区), GoodsServerSimpleDTO(id=1513927388415206, name=苹果微信135区), GoodsServerSimpleDTO(id=1513927388415205, name=苹果微信134区), GoodsServerSimpleDTO(id=1513927388415203, name=苹果微信133区), GoodsServerSimpleDTO(id=1513927388415202, name=苹果微信132区), GoodsServerSimpleDTO(id=1513927388415201, name=苹果微信131区), GoodsServerSimpleDTO(id=1513927388415200, name=苹果微信130区), GoodsServerSimpleDTO(id=1513927388414198, name=苹果微信129区), GoodsServerSimpleDTO(id=1513927388414196, name=苹果微信128区), GoodsServerSimpleDTO(id=1513927388414195, name=苹果微信127区), GoodsServerSimpleDTO(id=1513927388414193, name=苹果微信126区), GoodsServerSimpleDTO(id=1513927388414191, name=苹果微信125区), GoodsServerSimpleDTO(id=1513927388414189, name=苹果微信124区), GoodsServerSimpleDTO(id=1513927388414187, name=苹果微信123区), GoodsServerSimpleDTO(id=1513927388413184, name=苹果微信122区), GoodsServerSimpleDTO(id=1513927388413183, name=苹果微信121区), GoodsServerSimpleDTO(id=1513927388413182, name=苹果微信120区), GoodsServerSimpleDTO(id=1513927388413181, name=苹果微信119区), GoodsServerSimpleDTO(id=1513927388413178, name=苹果微信118区), GoodsServerSimpleDTO(id=1513927388413177, name=苹果微信117区), GoodsServerSimpleDTO(id=1513927388412176, name=苹果微信116区), GoodsServerSimpleDTO(id=1513927388412174, name=苹果微信115区), GoodsServerSimpleDTO(id=1513927388412173, name=苹果微信114区), GoodsServerSimpleDTO(id=1513927388412172, name=苹果微信113区), GoodsServerSimpleDTO(id=1513927388412171, name=苹果微信112区), GoodsServerSimpleDTO(id=1513927388412170, name=苹果微信111区), GoodsServerSimpleDTO(id=1513927388412168, name=苹果微信110区), GoodsServerSimpleDTO(id=1513927388412167, name=苹果微信109区), GoodsServerSimpleDTO(id=1513927388411166, name=苹果微信108区), GoodsServerSimpleDTO(id=1513927388411164, name=苹果微信107区), GoodsServerSimpleDTO(id=1513927388411161, name=苹果微信106区), GoodsServerSimpleDTO(id=1513927388411159, name=苹果微信105区), GoodsServerSimpleDTO(id=1513927388411156, name=苹果微信104区), GoodsServerSimpleDTO(id=1513927388411155, name=苹果微信103区), GoodsServerSimpleDTO(id=1513927388410154, name=苹果微信102区), GoodsServerSimpleDTO(id=1513927388410153, name=苹果微信101区), GoodsServerSimpleDTO(id=1510736665094776, name=苹果微信100区), GoodsServerSimpleDTO(id=1510736665093774, name=苹果微信99区), GoodsServerSimpleDTO(id=1510736665093773, name=苹果微信98区), GoodsServerSimpleDTO(id=1510736665093772, name=苹果微信97区), GoodsServerSimpleDTO(id=1510736665093770, name=苹果微信96区), GoodsServerSimpleDTO(id=1510736665093769, name=苹果微信95区), GoodsServerSimpleDTO(id=1510736665093768, name=苹果微信94区), GoodsServerSimpleDTO(id=1510736665092766, name=苹果微信93区), GoodsServerSimpleDTO(id=1510736665092765, name=苹果微信92区), GoodsServerSimpleDTO(id=1510736665092764, name=苹果微信91区), GoodsServerSimpleDTO(id=1510736665092763, name=苹果微信90区),GoodsServerSimpleDTO(id=1510736665092762, name=苹果微信89区), GoodsServerSimpleDTO(id=1510736665092760, name=苹果微信88区), GoodsServerSimpleDTO(id=1510736665092758, name=苹果微信87区), GoodsServerSimpleDTO(id=1510736665091757, name=苹果微信86区), GoodsServerSimpleDTO(id=1510736665091756, name=苹果微信85区), GoodsServerSimpleDTO(id=1510736665091755, name=苹果微信84区), GoodsServerSimpleDTO(id=1510736665091752, name=苹果微信83区), GoodsServerSimpleDTO(id=1510736665091751, name=苹果微信82区), GoodsServerSimpleDTO(id=1510736665091750, name=苹果微信81区), GoodsServerSimpleDTO(id=1498479938502429, name=苹果微信80区), GoodsServerSimpleDTO(id=1498479938502428, name=苹果微信79区), GoodsServerSimpleDTO(id=1498479938502427, name=苹果微信78区), GoodsServerSimpleDTO(id=1498479938501426, name=苹果微信77区), GoodsServerSimpleDTO(id=1498479938501425, name=苹果微信76区), GoodsServerSimpleDTO(id=1498479938501423, name=苹果微信75区), GoodsServerSimpleDTO(id=1498479938501421, name=苹果微信74区), GoodsServerSimpleDTO(id=1498479938501420, name=苹果微信73区), GoodsServerSimpleDTO(id=1498479938501419, name=苹果微信72区), GoodsServerSimpleDTO(id=1498479938501418, name=苹果微信71区), GoodsServerSimpleDTO(id=1498479938501417, name=苹果微信70区), GoodsServerSimpleDTO(id=1498479938501415, name=苹果微信69区), GoodsServerSimpleDTO(id=1498479938501412, name=苹果微信68区), GoodsServerSimpleDTO(id=1498479938500410, name=苹果微信67区), GoodsServerSimpleDTO(id=1498479938500409, name=苹果微信66区), GoodsServerSimpleDTO(id=1498479938500407, name=苹果微信65区), GoodsServerSimpleDTO(id=1498479938500406, name=苹果微信64区), GoodsServerSimpleDTO(id=1498479938500404, name=苹果微信63区), GoodsServerSimpleDTO(id=1498479938500403, name=苹果微信62区), GoodsServerSimpleDTO(id=1498479938500402, name=苹果微信61区), GoodsServerSimpleDTO(id=1498479938500401, name=苹果微信60区), GoodsServerSimpleDTO(id=1498479938500400, name=59区), GoodsServerSimpleDTO(id=1498479938499399, name=58区), GoodsServerSimpleDTO(id=1498479938499398, name=57区), GoodsServerSimpleDTO(id=1498479938499396, name=56区), GoodsServerSimpleDTO(id=1498479938499395, name=55区), GoodsServerSimpleDTO(id=1498479938499394, name=54区), GoodsServerSimpleDTO(id=1498479938499393, name=53区), GoodsServerSimpleDTO(id=1498479938499392, name=52区), GoodsServerSimpleDTO(id=1498479938499391, name=51区), GoodsServerSimpleDTO(id=1495881343246451, name=50区), GoodsServerSimpleDTO(id=1495881343246449, name=49区), GoodsServerSimpleDTO(id=1495881343246447, name=48区), GoodsServerSimpleDTO(id=1495881343246446, name=47区), GoodsServerSimpleDTO(id=1495881343246445, name=46区), GoodsServerSimpleDTO(id=1495881343246444, name=45区), GoodsServerSimpleDTO(id=1495881343246443, name=44区), GoodsServerSimpleDTO(id=1495881343245442, name=43区), GoodsServerSimpleDTO(id=1495881343245441, name=42区), GoodsServerSimpleDTO(id=1495881343245440, name=41区), GoodsServerSimpleDTO(id=1495881343245439, name=40区), GoodsServerSimpleDTO(id=1495881343245438, name=39区), GoodsServerSimpleDTO(id=1495881343245436, name=38区), GoodsServerSimpleDTO(id=1495881343245435, name=37区), GoodsServerSimpleDTO(id=1495881343245434, name=36区), GoodsServerSimpleDTO(id=1495881343244432, name=35区), GoodsServerSimpleDTO(id=1495881343244431, name=34区), GoodsServerSimpleDTO(id=1495881343244430, name=33区), GoodsServerSimpleDTO(id=1495881343244429, name=32区), GoodsServerSimpleDTO(id=1495881343244428, name=31区), GoodsServerSimpleDTO(id=1495881343244426, name=30区), GoodsServerSimpleDTO(id=1495881343244425, name=29区), GoodsServerSimpleDTO(id=1495881343244424, name=28区), GoodsServerSimpleDTO(id=1495881343244423, name=27区), GoodsServerSimpleDTO(id=1495881343243422, name=26区), GoodsServerSimpleDTO(id=1495881343243421, name=25区), GoodsServerSimpleDTO(id=1495881343243420, name=24区), GoodsServerSimpleDTO(id=1495881343243419, name=23区), GoodsServerSimpleDTO(id=1495881343243418, name=22区), GoodsServerSimpleDTO(id=1495881343243417, name=21区), GoodsServerSimpleDTO(id=1495881343243416, name=20区), GoodsServerSimpleDTO(id=1495881343243415, name=19区), GoodsServerSimpleDTO(id=1495881343242414, name=18区), GoodsServerSimpleDTO(id=1495881343242413, name=17区), GoodsServerSimpleDTO(id=1495881343242411, name=16区), GoodsServerSimpleDTO(id=1495881343242410, name=15区), GoodsServerSimpleDTO(id=1495881343242409, name=14区), GoodsServerSimpleDTO(id=1495881343242408, name=13区), GoodsServerSimpleDTO(id=1495881343242406, name=12区), GoodsServerSimpleDTO(id=1495881343241405, name=11区), GoodsServerSimpleDTO(id=1495881343241404, name=10区), GoodsServerSimpleDTO(id=1495881343241403, name=9区), GoodsServerSimpleDTO(id=1495881343241399, name=8区), GoodsServerSimpleDTO(id=1495881343240398, name=7区), GoodsServerSimpleDTO(id=1495881343240396, name=6区), GoodsServerSimpleDTO(id=1495881343240395, name=5区), GoodsServerSimpleDTO(id=1495881343240394, name=4区), GoodsServerSimpleDTO(id=1495881343240393, name=3区), GoodsServerSimpleDTO(id=1495881343240392, name=2区), GoodsServerSimpleDTO(id=1495881343239391, name=1区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1535364157745866, name=安卓QQ专区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1555490599140856, name=新区预售), GoodsServerSimpleDTO(id=1539844286658920, name=安卓微信专区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1535364178344308, name=苹果QQ专区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1539844295575679, name=专区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=680750, name=安卓QQ服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1513664764829926, name=新区预售), GoodsServerSimpleDTO(id=1499673572723335, name=安卓微信服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=769229, name=苹果QQ服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1499673599536190, name=服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1625831741020732, name=2300区), GoodsServerSimpleDTO(id=1625831741019728,name=2299区), GoodsServerSimpleDTO(id=1625831741018723, name=2298区), GoodsServerSimpleDTO(id=1625831741018711, name=2297区), GoodsServerSimpleDTO(id=1625831741017703, name=2296区), GoodsServerSimpleDTO(id=1625831741016697, name=2295区), GoodsServerSimpleDTO(id=1625831741015692, name=2294区), GoodsServerSimpleDTO(id=1625831741015689, name=2293区), GoodsServerSimpleDTO(id=1625831741014683, name=2292区), GoodsServerSimpleDTO(id=1625831741013676, name=2291区), GoodsServerSimpleDTO(id=1625831741013672, name=2290区), GoodsServerSimpleDTO(id=1625831741012664, name=2289区), GoodsServerSimpleDTO(id=1625831741011654, name=2288区), GoodsServerSimpleDTO(id=1625831741010650, name=2287区), GoodsServerSimpleDTO(id=1625831741010644, name=2286区), GoodsServerSimpleDTO(id=1625831741009636, name=2285区), GoodsServerSimpleDTO(id=1625831741008633, name=2284区), GoodsServerSimpleDTO(id=1625831741008631, name=2283区), GoodsServerSimpleDTO(id=1625831741007628, name=2282区), GoodsServerSimpleDTO(id=1625831741006618, name=2281区), GoodsServerSimpleDTO(id=1625831741006612, name=2280区), GoodsServerSimpleDTO(id=1625831741005608, name=2279区), GoodsServerSimpleDTO(id=1625831741004600, name=2278区), GoodsServerSimpleDTO(id=1625831741003593, name=2277区), GoodsServerSimpleDTO(id=1625831741003585, name=2276区), GoodsServerSimpleDTO(id=1625831741002582, name=2275区), GoodsServerSimpleDTO(id=1625831741001577, name=2274区), GoodsServerSimpleDTO(id=1625831741001568, name=2273区), GoodsServerSimpleDTO(id=1625831741000557, name=2272区), GoodsServerSimpleDTO(id=1625831740999553, name=2271区), GoodsServerSimpleDTO(id=1625831740999546, name=2270区), GoodsServerSimpleDTO(id=1625831740998535, name=2269区), GoodsServerSimpleDTO(id=1625831740997530, name=2268区), GoodsServerSimpleDTO(id=1625831740996526, name=2267区), GoodsServerSimpleDTO(id=1625831740996522, name=2266区), GoodsServerSimpleDTO(id=1625831740995515, name=2265区), GoodsServerSimpleDTO(id=1625831740994508, name=2264区), GoodsServerSimpleDTO(id=1625831740994505, name=2263区), GoodsServerSimpleDTO(id=1625831740993503, name=2262区), GoodsServerSimpleDTO(id=1625831740992496, name=2261区), GoodsServerSimpleDTO(id=1625831740992491, name=2260区), GoodsServerSimpleDTO(id=1625831740991487, name=2259区), GoodsServerSimpleDTO(id=1625831740990482, name=2258区), GoodsServerSimpleDTO(id=1625831740989477, name=2257区), GoodsServerSimpleDTO(id=1625831740989466, name=2256区), GoodsServerSimpleDTO(id=1625831740988458, name=2255区), GoodsServerSimpleDTO(id=1625831740987451, name=2254区), GoodsServerSimpleDTO(id=1625831740986446, name=2253区), GoodsServerSimpleDTO(id=1625831740986441, name=2252区), GoodsServerSimpleDTO(id=1625831740985438, name=2251区), GoodsServerSimpleDTO(id=1625831740984430, name=2250区), GoodsServerSimpleDTO(id=1625831740984425, name=2249区), GoodsServerSimpleDTO(id=1625831740983422, name=2248区), GoodsServerSimpleDTO(id=1625831740982418, name=2247区), GoodsServerSimpleDTO(id=1625831740982409, name=2246区), GoodsServerSimpleDTO(id=1625831740981405, name=2245区), GoodsServerSimpleDTO(id=1625831740980395, name=2244区), GoodsServerSimpleDTO(id=1625831740979389, name=2243区), GoodsServerSimpleDTO(id=1625831740979379, name=2242区), GoodsServerSimpleDTO(id=1625831740978368, name=2241区), GoodsServerSimpleDTO(id=1625831740977365, name=2240区), GoodsServerSimpleDTO(id=1625831740977361, name=2239区), GoodsServerSimpleDTO(id=1625831740976358, name=2238区), GoodsServerSimpleDTO(id=1625831740975352, name=2237区), GoodsServerSimpleDTO(id=1625831740975349, name=2236区), GoodsServerSimpleDTO(id=1625831740974346, name=2235区), GoodsServerSimpleDTO(id=1625831740973340, name=2234区),GoodsServerSimpleDTO(id=1625831740972337, name=2233区), GoodsServerSimpleDTO(id=1625831740972332, name=2232区), GoodsServerSimpleDTO(id=1625831740971326, name=2231区), GoodsServerSimpleDTO(id=1625831740970322, name=2230区), GoodsServerSimpleDTO(id=1625831740970315, name=2229区), GoodsServerSimpleDTO(id=1625831740969309, name=2228区), GoodsServerSimpleDTO(id=1625831740968302, name=2227区), GoodsServerSimpleDTO(id=1625831740967298, name=2226区), GoodsServerSimpleDTO(id=1625831740967296, name=2225区), GoodsServerSimpleDTO(id=1625831740966293, name=2224区), GoodsServerSimpleDTO(id=1625831740965289, name=2223区), GoodsServerSimpleDTO(id=1625831740965283, name=2222区), GoodsServerSimpleDTO(id=1625831740964278, name=2221区), GoodsServerSimpleDTO(id=1625831740963274, name=2220区), GoodsServerSimpleDTO(id=1625831740963270, name=2219区), GoodsServerSimpleDTO(id=1625831740962266, name=2218区), GoodsServerSimpleDTO(id=1625831740961260, name=2217区), GoodsServerSimpleDTO(id=1625831740960256, name=2216区), GoodsServerSimpleDTO(id=1625831740960252, name=2215区), GoodsServerSimpleDTO(id=1625831740959245, name=2214区), GoodsServerSimpleDTO(id=1625831740958240, name=2213区), GoodsServerSimpleDTO(id=1625831740958233, name=2212区), GoodsServerSimpleDTO(id=1625831740957231, name=2211区), GoodsServerSimpleDTO(id=1625831740956226, name=2210区), GoodsServerSimpleDTO(id=1625831740956216, name=2209区), GoodsServerSimpleDTO(id=1625831740955210, name=2208区), GoodsServerSimpleDTO(id=1625831740954208, name=2207区), GoodsServerSimpleDTO(id=1625831740953200, name=2206区), GoodsServerSimpleDTO(id=1625831740953196, name=2205区), GoodsServerSimpleDTO(id=1625831740952189, name=2204区), GoodsServerSimpleDTO(id=1625831740951179, name=2203区), GoodsServerSimpleDTO(id=1625831740951177, name=2202区), GoodsServerSimpleDTO(id=1625831740950164, name=2201区), GoodsServerSimpleDTO(id=1625831704909362, name=2200区), GoodsServerSimpleDTO(id=1625831704908358, name=2199区), GoodsServerSimpleDTO(id=1625831704907354, name=2198区), GoodsServerSimpleDTO(id=1625831704907351, name=2197区), GoodsServerSimpleDTO(id=1625831704906345, name=2196区), GoodsServerSimpleDTO(id=1625831704906340, name=2195区), GoodsServerSimpleDTO(id=1625831704905335, name=2194区), GoodsServerSimpleDTO(id=1625831704904332, name=2193区), GoodsServerSimpleDTO(id=1625831704904318, name=2192区), GoodsServerSimpleDTO(id=1625831704903310, name=2191区), GoodsServerSimpleDTO(id=1625831704903305, name=2190区), GoodsServerSimpleDTO(id=1625831704902301, name=2189区), GoodsServerSimpleDTO(id=1625831704902298, name=2188区), GoodsServerSimpleDTO(id=1625831704901288, name=2187区), GoodsServerSimpleDTO(id=1625831704900285, name=2186区), GoodsServerSimpleDTO(id=1625831704900281, name=2185区), GoodsServerSimpleDTO(id=1625831704899273, name=2184区), GoodsServerSimpleDTO(id=1625831704898269, name=2183区), GoodsServerSimpleDTO(id=1625831704898262, name=2182区), GoodsServerSimpleDTO(id=1625831704897256, name=2181区), GoodsServerSimpleDTO(id=1625831704897250, name=2180区), GoodsServerSimpleDTO(id=1625831704896247, name=2179区), GoodsServerSimpleDTO(id=1625831704895240, name=2178区), GoodsServerSimpleDTO(id=1625831704895233, name=2177区), GoodsServerSimpleDTO(id=1625831704894228, name=2176区), GoodsServerSimpleDTO(id=1625831704894225, name=2175区), GoodsServerSimpleDTO(id=1625831704893221, name=2174区), GoodsServerSimpleDTO(id=1625831704892215, name=2173区), GoodsServerSimpleDTO(id=1625831704892211, name=2172区), GoodsServerSimpleDTO(id=1625831704891207, name=2171区), GoodsServerSimpleDTO(id=1625831704891200, name=2170区), GoodsServerSimpleDTO(id=1625831704890199, name=2169区), GoodsServerSimpleDTO(id=1625831704889196, name=2168区), GoodsServerSimpleDTO(id=1625831704889193, name=2167区), GoodsServerSimpleDTO(id=1625831704888190, name=2166区), GoodsServerSimpleDTO(id=1625831704887184, name=2165区), GoodsServerSimpleDTO(id=1625831704887177, name=2164区), GoodsServerSimpleDTO(id=1625831704886175, name=2163区), GoodsServerSimpleDTO(id=1625831704886169, name=2162区), GoodsServerSimpleDTO(id=1625831704885163, name=2161区), GoodsServerSimpleDTO(id=1625831704884158, name=2160区), GoodsServerSimpleDTO(id=1625831704884156, name=2159区), GoodsServerSimpleDTO(id=1625831704883152, name=2158区), GoodsServerSimpleDTO(id=1625831704883147, name=2157区), GoodsServerSimpleDTO(id=1625831704882145, name=2156区), GoodsServerSimpleDTO(id=1625831704882140, name=2155区), GoodsServerSimpleDTO(id=1625831704881135, name=2154区), GoodsServerSimpleDTO(id=1625831704880127, name=2153区), GoodsServerSimpleDTO(id=1625831704880124, name=2152区), GoodsServerSimpleDTO(id=1625831704879120, name=2151区), GoodsServerSimpleDTO(id=1625831704879115, name=2150区), GoodsServerSimpleDTO(id=1625831704878106, name=2149区), GoodsServerSimpleDTO(id=1625831704877104, name=2148区), GoodsServerSimpleDTO(id=1625831704877101, name=2147区), GoodsServerSimpleDTO(id=1625831704876096, name=2146区), GoodsServerSimpleDTO(id=1625831704876090, name=2145区), GoodsServerSimpleDTO(id=1625831704875085, name=2144区), GoodsServerSimpleDTO(id=1625831704874079, name=2143区), GoodsServerSimpleDTO(id=1625831704874073, name=2142区), GoodsServerSimpleDTO(id=1625831704873068, name=2141区), GoodsServerSimpleDTO(id=1625831704873062, name=2140区), GoodsServerSimpleDTO(id=1625831704872059, name=2139区), GoodsServerSimpleDTO(id=1625831704871053, name=2138区), GoodsServerSimpleDTO(id=1625831704871046, name=2137区), GoodsServerSimpleDTO(id=1625831704870042, name=2136区), GoodsServerSimpleDTO(id=1625831704870038, name=2135区), GoodsServerSimpleDTO(id=1625831704869035, name=2134区), GoodsServerSimpleDTO(id=1625831704868034, name=2133区), GoodsServerSimpleDTO(id=1625831704868025, name=2132区), GoodsServerSimpleDTO(id=1625831704867019, name=2131区), GoodsServerSimpleDTO(id=1625831704867013, name=2130区), GoodsServerSimpleDTO(id=1625831704866009, name=2129区), GoodsServerSimpleDTO(id=1625831704865007, name=2128区), GoodsServerSimpleDTO(id=1625831704865000, name=2127区), GoodsServerSimpleDTO(id=1625831704864993, name=2126区), GoodsServerSimpleDTO(id=1625831704863987, name=2125区), GoodsServerSimpleDTO(id=1625831704862981, name=2124区), GoodsServerSimpleDTO(id=1625831704862977, name=2123区), GoodsServerSimpleDTO(id=1625831704861972, name=2122区), GoodsServerSimpleDTO(id=1625831704861970, name=2121区), GoodsServerSimpleDTO(id=1625831704860967, name=2120区), GoodsServerSimpleDTO(id=1625831704859961, name=2119区), GoodsServerSimpleDTO(id=1625831704859956, name=2118区), GoodsServerSimpleDTO(id=1625831704858946, name=2117区), GoodsServerSimpleDTO(id=1625831704858944, name=2116区), GoodsServerSimpleDTO(id=1625831704857941, name=2115区), GoodsServerSimpleDTO(id=1625831704857937, name=2114区), GoodsServerSimpleDTO(id=1625831704856928, name=2113区), GoodsServerSimpleDTO(id=1625831704855926, name=2112区), GoodsServerSimpleDTO(id=1625831704855923, name=2111区), GoodsServerSimpleDTO(id=1625831704854918, name=2110区), GoodsServerSimpleDTO(id=1625831704853913, name=2109区), GoodsServerSimpleDTO(id=1625831704853908, name=2108区), GoodsServerSimpleDTO(id=1625831704852901, name=2107区), GoodsServerSimpleDTO(id=1625831704852898, name=2106区), GoodsServerSimpleDTO(id=1625831704851892, name=2105区), GoodsServerSimpleDTO(id=1625831704850889, name=2104区), GoodsServerSimpleDTO(id=1625831704850885, name=2103区), GoodsServerSimpleDTO(id=1625831704849884, name=2102区), GoodsServerSimpleDTO(id=1625831704849880, name=2101区), GoodsServerSimpleDTO(id=1625831640306208, name=2100区), GoodsServerSimpleDTO(id=1625831640305206, name=2099区), GoodsServerSimpleDTO(id=1625831640305198, name=2098区), GoodsServerSimpleDTO(id=1625831640304192, name=2097区), GoodsServerSimpleDTO(id=1625831640303187, name=2096区), GoodsServerSimpleDTO(id=1625831640303176, name=2095区), GoodsServerSimpleDTO(id=1625831640302172, name=2094区), GoodsServerSimpleDTO(id=1625831640302167, name=2093区), GoodsServerSimpleDTO(id=1625831640301162, name=2092区), GoodsServerSimpleDTO(id=1625831640300159, name=2091区), GoodsServerSimpleDTO(id=1625831640300151, name=2090区), GoodsServerSimpleDTO(id=1625831640299147, name=2089区), GoodsServerSimpleDTO(id=1625831640299140, name=2088区), GoodsServerSimpleDTO(id=1625831640298134, name=2087区), GoodsServerSimpleDTO(id=1625831640297125, name=2086区), GoodsServerSimpleDTO(id=1625831640297123, name=2085区), GoodsServerSimpleDTO(id=1625831640296119, name=2084区), GoodsServerSimpleDTO(id=1625831640296107, name=2083区), GoodsServerSimpleDTO(id=1625831640295102, name=2082区), GoodsServerSimpleDTO(id=1625831640294097, name=2081区), GoodsServerSimpleDTO(id=1625831640294095, name=2080区), GoodsServerSimpleDTO(id=1625831640293091, name=2079区), GoodsServerSimpleDTO(id=1625831640293088, name=2078区), GoodsServerSimpleDTO(id=1625831640292081, name=2077区), GoodsServerSimpleDTO(id=1625831640291078, name=2076区), GoodsServerSimpleDTO(id=1625831640291075, name=2075区), GoodsServerSimpleDTO(id=1625831640290073, name=2074区), GoodsServerSimpleDTO(id=1625831640290069, name=2073区), GoodsServerSimpleDTO(id=1625831640289067, name=2072区), GoodsServerSimpleDTO(id=1625831640288062, name=2071区), GoodsServerSimpleDTO(id=1625831640288058, name=2070区), GoodsServerSimpleDTO(id=1625831640287052, name=2069区), GoodsServerSimpleDTO(id=1625831640287046, name=2068区), GoodsServerSimpleDTO(id=1625831640286041, name=2067区), GoodsServerSimpleDTO(id=1625831640285040, name=2066区), GoodsServerSimpleDTO(id=1625831640285033, name=2065区), GoodsServerSimpleDTO(id=1625831640284026, name=2064区), GoodsServerSimpleDTO(id=1625831640279001, name=2063区), GoodsServerSimpleDTO(id=1625831640279000, name=2062区), GoodsServerSimpleDTO(id=1625831640277995, name=2061区), GoodsServerSimpleDTO(id=1625831640277989, name=2060区), GoodsServerSimpleDTO(id=1625831640276987, name=2059区), GoodsServerSimpleDTO(id=1625831640275984, name=2058区), GoodsServerSimpleDTO(id=1625831640275981, name=2057区), GoodsServerSimpleDTO(id=1625831640274978, name=2056区), GoodsServerSimpleDTO(id=1625831640274974, name=2055区), GoodsServerSimpleDTO(id=1625831640273969, name=2054区), GoodsServerSimpleDTO(id=1625831640273966, name=2053区), GoodsServerSimpleDTO(id=1625831640272962,name=2052区), GoodsServerSimpleDTO(id=1625831640271958, name=2051区), GoodsServerSimpleDTO(id=1625831640271952, name=2050区), GoodsServerSimpleDTO(id=1625831640270950, name=2049区), GoodsServerSimpleDTO(id=1625831640270948, name=2048区), GoodsServerSimpleDTO(id=1625831640269944, name=2047区), GoodsServerSimpleDTO(id=1625831640268940, name=2046区), GoodsServerSimpleDTO(id=1625831640268937, name=2045区), GoodsServerSimpleDTO(id=1625831640267935, name=2044区), GoodsServerSimpleDTO(id=1625831640267933, name=2043区), GoodsServerSimpleDTO(id=1625831640266931, name=2042区), GoodsServerSimpleDTO(id=1625831640266928, name=2041区), GoodsServerSimpleDTO(id=1625831640265927, name=2040区), GoodsServerSimpleDTO(id=1625831640264924, name=2039区), GoodsServerSimpleDTO(id=1625831640264919, name=2038区), GoodsServerSimpleDTO(id=1625831640263913, name=2037区), GoodsServerSimpleDTO(id=1625831640263907, name=2036区), GoodsServerSimpleDTO(id=1625831640262902, name=2035区), GoodsServerSimpleDTO(id=1625831640261898, name=2034区), GoodsServerSimpleDTO(id=1625831640261895, name=2033区), GoodsServerSimpleDTO(id=1625831640260890, name=2032区), GoodsServerSimpleDTO(id=1625831640260885, name=2031区), GoodsServerSimpleDTO(id=1625831640259883, name=2030区), GoodsServerSimpleDTO(id=1625831640258876, name=2029区), GoodsServerSimpleDTO(id=1625831640258871, name=2028区), GoodsServerSimpleDTO(id=1625831640257868, name=2027区), GoodsServerSimpleDTO(id=1625831640257867, name=2026区), GoodsServerSimpleDTO(id=1625831640256860, name=2025区), GoodsServerSimpleDTO(id=1625831640255854, name=2024区), GoodsServerSimpleDTO(id=1625831640255849, name=2023区), GoodsServerSimpleDTO(id=1625831640254846, name=2022区), GoodsServerSimpleDTO(id=1625831640254841, name=2021区), GoodsServerSimpleDTO(id=1625831640253834, name=2020区), GoodsServerSimpleDTO(id=1625831640252826, name=2019区), GoodsServerSimpleDTO(id=1625831640252819, name=2018区), GoodsServerSimpleDTO(id=1625831640251815, name=2017区), GoodsServerSimpleDTO(id=1625831640251807, name=2016区), GoodsServerSimpleDTO(id=1625831640250804, name=2015区), GoodsServerSimpleDTO(id=1625831640250801, name=2014区), GoodsServerSimpleDTO(id=1625831640249798, name=2013区), GoodsServerSimpleDTO(id=1625831640248794, name=2012区), GoodsServerSimpleDTO(id=1625831640248790, name=2011区), GoodsServerSimpleDTO(id=1625831640247786, name=2010区), GoodsServerSimpleDTO(id=1625831640247782, name=2009区), GoodsServerSimpleDTO(id=1625831640246779, name=2008区), GoodsServerSimpleDTO(id=1625831640245775, name=2007区), GoodsServerSimpleDTO(id=1625831640245771, name=2006区), GoodsServerSimpleDTO(id=1625831640244765, name=2005区), GoodsServerSimpleDTO(id=1625831640244760, name=2004区), GoodsServerSimpleDTO(id=1625831640243756, name=2003区), GoodsServerSimpleDTO(id=1625831640242754, name=2002区), GoodsServerSimpleDTO(id=1625831640242751, name=2001区), GoodsServerSimpleDTO(id=1608606707083750, name=2000区), GoodsServerSimpleDTO(id=1608606707082747, name=1999区), GoodsServerSimpleDTO(id=1608606707082741, name=1998区), GoodsServerSimpleDTO(id=1608606707081737, name=1997区), GoodsServerSimpleDTO(id=1608606707081732, name=1996区), GoodsServerSimpleDTO(id=1608606707080728, name=1995区), GoodsServerSimpleDTO(id=1608606707080725, name=1994区), GoodsServerSimpleDTO(id=1608606707079722, name=1993区), GoodsServerSimpleDTO(id=1608606707079716, name=1992区), GoodsServerSimpleDTO(id=1608606707079711, name=1991区), GoodsServerSimpleDTO(id=1608606707078707, name=1990区), GoodsServerSimpleDTO(id=1608606707078706, name=1989区), GoodsServerSimpleDTO(id=1608606707077699, name=1988区), GoodsServerSimpleDTO(id=1608606707077693, name=1987区),GoodsServerSimpleDTO(id=1608606707076690, name=1986区), GoodsServerSimpleDTO(id=1608606707076687, name=1985区), GoodsServerSimpleDTO(id=1608606707075681, name=1984区), GoodsServerSimpleDTO(id=1608606707074671, name=1983区), GoodsServerSimpleDTO(id=1608606707074669, name=1982区), GoodsServerSimpleDTO(id=1608606707073668, name=1981区), GoodsServerSimpleDTO(id=1608606707073663, name=1980区), GoodsServerSimpleDTO(id=1608606707072660, name=1979区), GoodsServerSimpleDTO(id=1608606707072657, name=1978区), GoodsServerSimpleDTO(id=1608606707071654, name=1977区), GoodsServerSimpleDTO(id=1608606707071651, name=1976区), GoodsServerSimpleDTO(id=1608606707070649, name=1975区), GoodsServerSimpleDTO(id=1608606707070645, name=1974区), GoodsServerSimpleDTO(id=1608606707069642, name=1973区), GoodsServerSimpleDTO(id=1608606707069639, name=1972区), GoodsServerSimpleDTO(id=1608606707068637, name=1971区), GoodsServerSimpleDTO(id=1608606707068632, name=1970区), GoodsServerSimpleDTO(id=1608606707068629, name=1969区), GoodsServerSimpleDTO(id=1608606707067627, name=1968区), GoodsServerSimpleDTO(id=1608606707067624, name=1967区), GoodsServerSimpleDTO(id=1608606707066622, name=1966区), GoodsServerSimpleDTO(id=1608606707066616, name=1965区), GoodsServerSimpleDTO(id=1608606707065611, name=1964区), GoodsServerSimpleDTO(id=1608606707065604, name=1963区), GoodsServerSimpleDTO(id=1608606707064601, name=1962区), GoodsServerSimpleDTO(id=1608606707064598, name=1961区), GoodsServerSimpleDTO(id=1608606707063594, name=1960区), GoodsServerSimpleDTO(id=1608606707063591, name=1959区), GoodsServerSimpleDTO(id=1608606707062587, name=1958区), GoodsServerSimpleDTO(id=1608606707062584, name=1957区), GoodsServerSimpleDTO(id=1608606707061582, name=1956区), GoodsServerSimpleDTO(id=1608606707061578, name=1955区), GoodsServerSimpleDTO(id=1608606707060575, name=1954区), GoodsServerSimpleDTO(id=1608606707060573, name=1953区), GoodsServerSimpleDTO(id=1608606707059568, name=1952区), GoodsServerSimpleDTO(id=1608606707059561, name=1951区), GoodsServerSimpleDTO(id=1608606707058556, name=1950区), GoodsServerSimpleDTO(id=1608606707058552, name=1949区), GoodsServerSimpleDTO(id=1608606707057550, name=1948区), GoodsServerSimpleDTO(id=1608606707057546, name=1947区), GoodsServerSimpleDTO(id=1608606707056544, name=1946区), GoodsServerSimpleDTO(id=1608606707056537, name=1945区), GoodsServerSimpleDTO(id=1608606707055532, name=1944区), GoodsServerSimpleDTO(id=1608606707055528, name=1943区), GoodsServerSimpleDTO(id=1608606707054525, name=1942区), GoodsServerSimpleDTO(id=1608606707054520, name=1941区), GoodsServerSimpleDTO(id=1608606707053516, name=1940区), GoodsServerSimpleDTO(id=1608606707053512, name=1939区), GoodsServerSimpleDTO(id=1608606707052508, name=1938区), GoodsServerSimpleDTO(id=1608606707052503, name=1937区), GoodsServerSimpleDTO(id=1608606707051496, name=1936区), GoodsServerSimpleDTO(id=1608606707051495, name=1935区), GoodsServerSimpleDTO(id=1608606707050492, name=1934区), GoodsServerSimpleDTO(id=1608606707050490, name=1933区), GoodsServerSimpleDTO(id=1608606707049488, name=1932区), GoodsServerSimpleDTO(id=1608606707049485, name=1931区), GoodsServerSimpleDTO(id=1608606707048482, name=1930区), GoodsServerSimpleDTO(id=1608606707048478, name=1929区), GoodsServerSimpleDTO(id=1608606707048470, name=1928区), GoodsServerSimpleDTO(id=1608606707047466, name=1927区), GoodsServerSimpleDTO(id=1608606707047462, name=1926区), GoodsServerSimpleDTO(id=1608606707046458, name=1925区), GoodsServerSimpleDTO(id=1608606707046452, name=1924区), GoodsServerSimpleDTO(id=1608606707045449, name=1923区), GoodsServerSimpleDTO(id=1608606707045442, name=1922区), GoodsServerSimpleDTO(id=1608606707044440, name=1921区), GoodsServerSimpleDTO(id=1608606707044433, name=1920区), GoodsServerSimpleDTO(id=1608606707043431, name=1919区), GoodsServerSimpleDTO(id=1608606682162443, name=1918区), GoodsServerSimpleDTO(id=1608606682161439, name=1917区), GoodsServerSimpleDTO(id=1608606682161434, name=1916区), GoodsServerSimpleDTO(id=1608606682160433, name=1915区), GoodsServerSimpleDTO(id=1608606682160430, name=1914区), GoodsServerSimpleDTO(id=1608606682159423, name=1913区), GoodsServerSimpleDTO(id=1608606682159419, name=1912区), GoodsServerSimpleDTO(id=1608606682158415, name=1911区), GoodsServerSimpleDTO(id=1608606682158412, name=1910区), GoodsServerSimpleDTO(id=1608606682157405, name=1909区), GoodsServerSimpleDTO(id=1608606682156400, name=1908区), GoodsServerSimpleDTO(id=1608606682156394, name=1907区), GoodsServerSimpleDTO(id=1608606682155389, name=1906区), GoodsServerSimpleDTO(id=1608606682155384, name=1905区), GoodsServerSimpleDTO(id=1608606682154380, name=1904区), GoodsServerSimpleDTO(id=1608606682154369, name=1903区), GoodsServerSimpleDTO(id=1608606682153361, name=1902区), GoodsServerSimpleDTO(id=1608606682152354, name=1901区), GoodsServerSimpleDTO(id=1608606682152350, name=1900区), GoodsServerSimpleDTO(id=1608606682151342, name=1899区), GoodsServerSimpleDTO(id=1608606682151340, name=1898区), GoodsServerSimpleDTO(id=1608606682150338, name=1897区), GoodsServerSimpleDTO(id=1608606682150335, name=1896区), GoodsServerSimpleDTO(id=1608606682149332, name=1895区), GoodsServerSimpleDTO(id=1608606682149328, name=1894区), GoodsServerSimpleDTO(id=1608606682148324, name=1893区), GoodsServerSimpleDTO(id=1608606682148323, name=1892区), GoodsServerSimpleDTO(id=1608606682147317, name=1891区), GoodsServerSimpleDTO(id=1608606682147314, name=1890区), GoodsServerSimpleDTO(id=1608606682146309, name=1889区), GoodsServerSimpleDTO(id=1608606682146308, name=1888区), GoodsServerSimpleDTO(id=1608606682145303, name=1887区), GoodsServerSimpleDTO(id=1608606682144300, name=1886区), GoodsServerSimpleDTO(id=1608606682144297, name=1885区), GoodsServerSimpleDTO(id=1608606682143293, name=1884区), GoodsServerSimpleDTO(id=1608606682143284, name=1883区), GoodsServerSimpleDTO(id=1608606682142279, name=1882区), GoodsServerSimpleDTO(id=1608606682142277, name=1881区), GoodsServerSimpleDTO(id=1608606682141275, name=1880区), GoodsServerSimpleDTO(id=1608606682141271, name=1879区), GoodsServerSimpleDTO(id=1608606682140267, name=1878区), GoodsServerSimpleDTO(id=1608606682140262, name=1877区), GoodsServerSimpleDTO(id=1608606682139256, name=1876区), GoodsServerSimpleDTO(id=1608606682138252, name=1875区), GoodsServerSimpleDTO(id=1608606682138250, name=1874区), GoodsServerSimpleDTO(id=1608606682137246, name=1873区), GoodsServerSimpleDTO(id=1608606682137233, name=1872区), GoodsServerSimpleDTO(id=1608606682136229, name=1871区), GoodsServerSimpleDTO(id=1608606682136226, name=1870区), GoodsServerSimpleDTO(id=1608606682135224, name=1869区), GoodsServerSimpleDTO(id=1608606682135222, name=1868区), GoodsServerSimpleDTO(id=1608606682134217, name=1867区), GoodsServerSimpleDTO(id=1608606682134215, name=1866区), GoodsServerSimpleDTO(id=1608606682133213, name=1865区), GoodsServerSimpleDTO(id=1608606682133211, name=1864区), GoodsServerSimpleDTO(id=1608606682132209, name=1863区), GoodsServerSimpleDTO(id=1608606682131207, name=1862区), GoodsServerSimpleDTO(id=1608606682131202, name=1861区), GoodsServerSimpleDTO(id=1608606682130201, name=1860区), GoodsServerSimpleDTO(id=1608606682130199, name=1859区), GoodsServerSimpleDTO(id=1608606682129194, name=1858区), GoodsServerSimpleDTO(id=1608606682129192, name=1857区), GoodsServerSimpleDTO(id=1608606682128190, name=1856区), GoodsServerSimpleDTO(id=1608606682128187, name=1855区), GoodsServerSimpleDTO(id=1608606682127185, name=1854区), GoodsServerSimpleDTO(id=1608606682127182, name=1853区), GoodsServerSimpleDTO(id=1608606682126181, name=1852区), GoodsServerSimpleDTO(id=1608606682126180, name=1851区), GoodsServerSimpleDTO(id=1608606682125178, name=1850区), GoodsServerSimpleDTO(id=1608606682125176, name=1849区), GoodsServerSimpleDTO(id=1608606682124175, name=1848区), GoodsServerSimpleDTO(id=1608606682124173, name=1847区), GoodsServerSimpleDTO(id=1608606682123170, name=1846区), GoodsServerSimpleDTO(id=1608606682122166, name=1845区), GoodsServerSimpleDTO(id=1608606682122163, name=1844区), GoodsServerSimpleDTO(id=1608606682121160, name=1843区), GoodsServerSimpleDTO(id=1608606682121158, name=1842区), GoodsServerSimpleDTO(id=1608606682120154, name=1841区), GoodsServerSimpleDTO(id=1608606682120152, name=1840区), GoodsServerSimpleDTO(id=1608606682119148, name=1839区), GoodsServerSimpleDTO(id=1608606682119143, name=1838区), GoodsServerSimpleDTO(id=1608606682118142, name=1837区), GoodsServerSimpleDTO(id=1608606682118141, name=1836区), GoodsServerSimpleDTO(id=1608606682117139, name=1835区), GoodsServerSimpleDTO(id=1608606682117137, name=1834区), GoodsServerSimpleDTO(id=1608606682116135, name=1833区), GoodsServerSimpleDTO(id=1608606682116132, name=1832区), GoodsServerSimpleDTO(id=1608606682115130, name=1831区), GoodsServerSimpleDTO(id=1608606682115125, name=1830区), GoodsServerSimpleDTO(id=1608606682114119, name=1829区), GoodsServerSimpleDTO(id=1608606682113116, name=1828区), GoodsServerSimpleDTO(id=1608606682113106, name=1827区), GoodsServerSimpleDTO(id=1608606682112096, name=1826区), GoodsServerSimpleDTO(id=1608606623964887, name=1825区), GoodsServerSimpleDTO(id=1608606623963884, name=1824区), GoodsServerSimpleDTO(id=1608606623963880, name=1823区), GoodsServerSimpleDTO(id=1608606623962876, name=1822区), GoodsServerSimpleDTO(id=1608606623962873, name=1821区), GoodsServerSimpleDTO(id=1608606623961869, name=1820区), GoodsServerSimpleDTO(id=1608606623960866, name=1819区), GoodsServerSimpleDTO(id=1608606623960864, name=1818区), GoodsServerSimpleDTO(id=1608606623959858, name=1817区), GoodsServerSimpleDTO(id=1608606623958856, name=1816区), GoodsServerSimpleDTO(id=1608606623958852, name=1815区), GoodsServerSimpleDTO(id=1608606623957847, name=1814区), GoodsServerSimpleDTO(id=1608606623957842, name=1813区), GoodsServerSimpleDTO(id=1608606623956840, name=1812区), GoodsServerSimpleDTO(id=1608606623955836, name=1811区), GoodsServerSimpleDTO(id=1608606623955834, name=1810区), GoodsServerSimpleDTO(id=1608606623954828, name=1809区), GoodsServerSimpleDTO(id=1608606623954825, name=1808区), GoodsServerSimpleDTO(id=1608606623953820, name=1807区), GoodsServerSimpleDTO(id=1608606623952818, name=1806区), GoodsServerSimpleDTO(id=1608606623952816,name=1805区), GoodsServerSimpleDTO(id=1608606623951811, name=1804区), GoodsServerSimpleDTO(id=1608606623950807, name=1803区), GoodsServerSimpleDTO(id=1608606623950804, name=1802区), GoodsServerSimpleDTO(id=1608606623949799, name=1801区), GoodsServerSimpleDTO(id=1608606623949797, name=1800区), GoodsServerSimpleDTO(id=1608606623948791, name=1799区), GoodsServerSimpleDTO(id=1608606623947787, name=1798区), GoodsServerSimpleDTO(id=1608606623947782, name=1797区), GoodsServerSimpleDTO(id=1608606623946780, name=1796区), GoodsServerSimpleDTO(id=1608606623945776, name=1795区), GoodsServerSimpleDTO(id=1608606623945773, name=1794区), GoodsServerSimpleDTO(id=1608606623944768, name=1793区), GoodsServerSimpleDTO(id=1608606623944766, name=1792区), GoodsServerSimpleDTO(id=1608606623943761, name=1791区), GoodsServerSimpleDTO(id=1608606623942755, name=1790区), GoodsServerSimpleDTO(id=1608606623942752, name=1789区), GoodsServerSimpleDTO(id=1608606623941749, name=1788区), GoodsServerSimpleDTO(id=1608606623940747, name=1787区), GoodsServerSimpleDTO(id=1608606623940739, name=1786区), GoodsServerSimpleDTO(id=1608606623939736, name=1785区), GoodsServerSimpleDTO(id=1608606623938734, name=1784区), GoodsServerSimpleDTO(id=1608606623938726, name=1783区), GoodsServerSimpleDTO(id=1608606623937719, name=1782区), GoodsServerSimpleDTO(id=1608606623936716, name=1781区), GoodsServerSimpleDTO(id=1608606623936712, name=1780区), GoodsServerSimpleDTO(id=1608606623935708, name=1779区), GoodsServerSimpleDTO(id=1608606623935703, name=1778区), GoodsServerSimpleDTO(id=1608606623934700, name=1777区), GoodsServerSimpleDTO(id=1608606623933694, name=1776区), GoodsServerSimpleDTO(id=1608606623933689, name=1775区), GoodsServerSimpleDTO(id=1608606623932679, name=1774区), GoodsServerSimpleDTO(id=1608606623931674, name=1773区), GoodsServerSimpleDTO(id=1608606623931667, name=1772区), GoodsServerSimpleDTO(id=1608606623930662, name=1771区), GoodsServerSimpleDTO(id=1608606623929658, name=1770区), GoodsServerSimpleDTO(id=1608606623929654, name=1769区), GoodsServerSimpleDTO(id=1608606623928649, name=1768区), GoodsServerSimpleDTO(id=1608606623928639, name=1767区), GoodsServerSimpleDTO(id=1608606623927636, name=1766区), GoodsServerSimpleDTO(id=1608606623926630, name=1765区), GoodsServerSimpleDTO(id=1608606623926623, name=1764区), GoodsServerSimpleDTO(id=1608606623925615, name=1763区), GoodsServerSimpleDTO(id=1608606623924610, name=1762区), GoodsServerSimpleDTO(id=1608606623924606, name=1761区), GoodsServerSimpleDTO(id=1608606623923601, name=1760区), GoodsServerSimpleDTO(id=1608606623923595, name=1759区), GoodsServerSimpleDTO(id=1608606623922589, name=1758区), GoodsServerSimpleDTO(id=1608606623921582, name=1757区), GoodsServerSimpleDTO(id=1608606623921577, name=1756区), GoodsServerSimpleDTO(id=1608606623920575, name=1755区), GoodsServerSimpleDTO(id=1608606623920571, name=1754区), GoodsServerSimpleDTO(id=1608606623919565, name=1753区), GoodsServerSimpleDTO(id=1608606623918560, name=1752区), GoodsServerSimpleDTO(id=1608606623918546, name=1751区), GoodsServerSimpleDTO(id=1608606623917540, name=1750区), GoodsServerSimpleDTO(id=1608606623916536, name=1749区), GoodsServerSimpleDTO(id=1608606623916532, name=1748区), GoodsServerSimpleDTO(id=1608606623915528, name=1747区), GoodsServerSimpleDTO(id=1608606623914522, name=1746区), GoodsServerSimpleDTO(id=1608606623914517, name=1745区), GoodsServerSimpleDTO(id=1608606623913514, name=1744区), GoodsServerSimpleDTO(id=1608606623913507, name=1743区), GoodsServerSimpleDTO(id=1608606623912499, name=1742区), GoodsServerSimpleDTO(id=1608606623911491, name=1741区), GoodsServerSimpleDTO(id=1608606623911487, name=1740区),GoodsServerSimpleDTO(id=1608606623910482, name=1739区), GoodsServerSimpleDTO(id=1608606623910477, name=1738区), GoodsServerSimpleDTO(id=1608606623909471, name=1737区), GoodsServerSimpleDTO(id=1608606623908467, name=1736区), GoodsServerSimpleDTO(id=1608606623908458, name=1735区), GoodsServerSimpleDTO(id=1608606623907453, name=1734区), GoodsServerSimpleDTO(id=1608606623906449, name=1733区), GoodsServerSimpleDTO(id=1608606623906445, name=1732区), GoodsServerSimpleDTO(id=1608606623905443, name=1731区), GoodsServerSimpleDTO(id=1608606623905441, name=1730区), GoodsServerSimpleDTO(id=1608606623904437, name=1729区), GoodsServerSimpleDTO(id=1608606623903431, name=1728区), GoodsServerSimpleDTO(id=1608606623903427, name=1727区), GoodsServerSimpleDTO(id=1608606623902426, name=1726区), GoodsServerSimpleDTO(id=1593604931016369, name=1725区), GoodsServerSimpleDTO(id=1593604931016366, name=1724区), GoodsServerSimpleDTO(id=1593604931016362, name=1723区), GoodsServerSimpleDTO(id=1593604931015359, name=1722区), GoodsServerSimpleDTO(id=1593604931015356, name=1721区), GoodsServerSimpleDTO(id=1593604931014354, name=1720区), GoodsServerSimpleDTO(id=1593604931014348, name=1719区), GoodsServerSimpleDTO(id=1593604931014344, name=1718区), GoodsServerSimpleDTO(id=1593604931013341, name=1717区), GoodsServerSimpleDTO(id=1593604931013337, name=1716区), GoodsServerSimpleDTO(id=1593604931013332, name=1715区), GoodsServerSimpleDTO(id=1593604931012329, name=1714区), GoodsServerSimpleDTO(id=1593604931012327, name=1713区), GoodsServerSimpleDTO(id=1593604931011325, name=1712区), GoodsServerSimpleDTO(id=1593604931011321, name=1711区), GoodsServerSimpleDTO(id=1593604931009316, name=1710区), GoodsServerSimpleDTO(id=1593604931009301, name=1709区), GoodsServerSimpleDTO(id=1593604931009300, name=1708区), GoodsServerSimpleDTO(id=1593604931008297, name=1707区), GoodsServerSimpleDTO(id=1593604931008295, name=1706区), GoodsServerSimpleDTO(id=1593604931008293, name=</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1625831861467590, name=微信2300区), GoodsServerSimpleDTO(id=1625831861466587, name=微信2299区), GoodsServerSimpleDTO(id=1625831861466585, name=微信2298区), GoodsServerSimpleDTO(id=1625831861465579, name=微信2297区), GoodsServerSimpleDTO(id=1625831861464573, name=微信2296区), GoodsServerSimpleDTO(id=1625831861464566, name=微信2295区), GoodsServerSimpleDTO(id=1625831861463560, name=微信2294区), GoodsServerSimpleDTO(id=1625831861463557, name=微信2293区), GoodsServerSimpleDTO(id=1625831861462552, name=微信2292区), GoodsServerSimpleDTO(id=1625831861461550, name=微信2291区), GoodsServerSimpleDTO(id=1625831861461547, name=微信2290区), GoodsServerSimpleDTO(id=1625831861460543, name=微信2289区), GoodsServerSimpleDTO(id=1625831861459542, name=微信2288区), GoodsServerSimpleDTO(id=1625831861459540, name=微信2287区), GoodsServerSimpleDTO(id=1625831861458537, name=微信2286区), GoodsServerSimpleDTO(id=1625831861458531, name=微信2285区), GoodsServerSimpleDTO(id=1625831861457530, name=微信2284区), GoodsServerSimpleDTO(id=1625831861456527, name=微信2283区), GoodsServerSimpleDTO(id=1625831861456522, name=微信2282区), GoodsServerSimpleDTO(id=1625831861455518, name=微信2281区), GoodsServerSimpleDTO(id=1625831861455515, name=微信2280区), GoodsServerSimpleDTO(id=1625831861454514, name=微信2279区), GoodsServerSimpleDTO(id=1625831861453512, name=微信2278区), GoodsServerSimpleDTO(id=1625831861453510, name=微信2277区), GoodsServerSimpleDTO(id=1625831861452506, name=微信2276区), GoodsServerSimpleDTO(id=1625831861451504, name=微信2275区), GoodsServerSimpleDTO(id=1625831861451500, name=微信2274区), GoodsServerSimpleDTO(id=1625831861450497, name=微信2273区), GoodsServerSimpleDTO(id=1625831861450495, name=微信2272区), GoodsServerSimpleDTO(id=1625831861449491, name=微信2271区), GoodsServerSimpleDTO(id=1625831861448489, name=微信2270区), GoodsServerSimpleDTO(id=1625831861448484, name=微信2269区), GoodsServerSimpleDTO(id=1625831861447480, name=微信2268区), GoodsServerSimpleDTO(id=1625831861447477, name=微信2267区), GoodsServerSimpleDTO(id=1625831861446474, name=微信2266区), GoodsServerSimpleDTO(id=1625831861445469, name=微信2265区), GoodsServerSimpleDTO(id=1625831861445465, name=微信2264区), GoodsServerSimpleDTO(id=1625831861444461, name=微信2263区), GoodsServerSimpleDTO(id=1625831861444458, name=微信2262区), GoodsServerSimpleDTO(id=1625831861443454, name=微信2261区), GoodsServerSimpleDTO(id=1625831861442453, name=微信2260区), GoodsServerSimpleDTO(id=1625831861442447, name=微信2259区), GoodsServerSimpleDTO(id=1625831861441443, name=微信2258区), GoodsServerSimpleDTO(id=1625831861440441, name=微信2257区), GoodsServerSimpleDTO(id=1625831861440437, name=微信2256区), GoodsServerSimpleDTO(id=1625831861439434, name=微信2255区), GoodsServerSimpleDTO(id=1625831861439426, name=微信2254区), GoodsServerSimpleDTO(id=1625831861438424, name=微信2253区), GoodsServerSimpleDTO(id=1625831861437419, name=微信2252区), GoodsServerSimpleDTO(id=1625831861437414, name=微信2251区), GoodsServerSimpleDTO(id=1625831861436409, name=微信2250区), GoodsServerSimpleDTO(id=1625831861436406, name=微信2249区), GoodsServerSimpleDTO(id=1625831861435405, name=微信2248区), GoodsServerSimpleDTO(id=1625831861434399, name=微信2247区), GoodsServerSimpleDTO(id=1625831861434397, name=微信2246区), GoodsServerSimpleDTO(id=1625831861433390, name=微信2245区), GoodsServerSimpleDTO(id=1625831861432386, name=微信2244区), GoodsServerSimpleDTO(id=1625831861432384, name=微信2243区), GoodsServerSimpleDTO(id=1625831861431381, name=微信2242区), GoodsServerSimpleDTO(id=1625831861431377, name=微信2241区), GoodsServerSimpleDTO(id=1625831861430371, name=微信2240区), GoodsServerSimpleDTO(id=1625831847330632, name=微信2239区), GoodsServerSimpleDTO(id=1625831847329631, name=微信2238区), GoodsServerSimpleDTO(id=1625831847329626, name=微信2237区), GoodsServerSimpleDTO(id=1625831847328618, name=微信2236区), GoodsServerSimpleDTO(id=1625831847328610, name=微信2235区), GoodsServerSimpleDTO(id=1625831847327605, name=微信2234区), GoodsServerSimpleDTO(id=1625831847326601, name=微信2233区), GoodsServerSimpleDTO(id=1625831847326598, name=微信2232区), GoodsServerSimpleDTO(id=1625831847325593, name=微信2231区), GoodsServerSimpleDTO(id=1625831847325590, name=微信2230区), GoodsServerSimpleDTO(id=1625831847324584, name=微信2229区), GoodsServerSimpleDTO(id=1625831847323579, name=微信2228区), GoodsServerSimpleDTO(id=1625831847323577, name=微信2227区), GoodsServerSimpleDTO(id=1625831847322575, name=微信2226区), GoodsServerSimpleDTO(id=1625831847322569, name=微信2225区), GoodsServerSimpleDTO(id=1625831847321565, name=微信2224区), GoodsServerSimpleDTO(id=1625831847321561, name=微信2223区), GoodsServerSimpleDTO(id=1625831847320556, name=微信2222区), GoodsServerSimpleDTO(id=1625831847319553, name=微信2221区), GoodsServerSimpleDTO(id=1625831847319550, name=微信2220区), GoodsServerSimpleDTO(id=1625831847318548, name=微信2219区), GoodsServerSimpleDTO(id=1625831847318541, name=微信2218区), GoodsServerSimpleDTO(id=1625831847317538, name=微信2217区), GoodsServerSimpleDTO(id=1625831847317531, name=微信2216区), GoodsServerSimpleDTO(id=1625831847316527, name=微信2215区), GoodsServerSimpleDTO(id=1625831847315518, name=微信2214区), GoodsServerSimpleDTO(id=1625831847315514, name=微信2213区), GoodsServerSimpleDTO(id=1625831847314509, name=微信2212区), GoodsServerSimpleDTO(id=1625831847314505, name=微信2211区), GoodsServerSimpleDTO(id=1625831847313501, name=微信2210区), GoodsServerSimpleDTO(id=1625831847312493, name=微信2209区), GoodsServerSimpleDTO(id=1625831847312490, name=微信2208区), GoodsServerSimpleDTO(id=1625831847311487, name=微信2207区), GoodsServerSimpleDTO(id=1625831847311480, name=微信2206区), GoodsServerSimpleDTO(id=1625831847310476, name=微信2205区), GoodsServerSimpleDTO(id=1625831847310469, name=微信2204区), GoodsServerSimpleDTO(id=1625831847309463, name=微信2203区), GoodsServerSimpleDTO(id=1625831847308459, name=微信2202区), GoodsServerSimpleDTO(id=1625831847308453, name=微信2201区), GoodsServerSimpleDTO(id=1625831847307451, name=微信2200区), GoodsServerSimpleDTO(id=1625831847307445, name=微信2199区), GoodsServerSimpleDTO(id=1625831847306442, name=微信2198区), GoodsServerSimpleDTO(id=1625831847305438, name=微信2197区), GoodsServerSimpleDTO(id=1625831847305432, name=微信2196区), GoodsServerSimpleDTO(id=1625831847304428, name=微信2195区), GoodsServerSimpleDTO(id=1625831847304423, name=微信2194区), GoodsServerSimpleDTO(id=1625831847303420, name=微信2193区), GoodsServerSimpleDTO(id=1625831847303417, name=微信2192区), GoodsServerSimpleDTO(id=1625831847302410, name=微信2191区), GoodsServerSimpleDTO(id=1625831847301407, name=微信2190区), GoodsServerSimpleDTO(id=1625831847301403, name=微信2189区), GoodsServerSimpleDTO(id=1625831847300396, name=微信2188区), GoodsServerSimpleDTO(id=1625831847300394, name=微信2187区), GoodsServerSimpleDTO(id=1625831847299391, name=微信2186区), GoodsServerSimpleDTO(id=1625831847298388, name=微信2185区), GoodsServerSimpleDTO(id=1625831847298381, name=微信2184区), GoodsServerSimpleDTO(id=1625831847297378, name=微信2183区), GoodsServerSimpleDTO(id=1625831847297372, name=微信2182区), GoodsServerSimpleDTO(id=1625831847296367, name=微信2181区), GoodsServerSimpleDTO(id=1625831826786799, name=微信2180区), GoodsServerSimpleDTO(id=1625831826785795, name=微信2179区), GoodsServerSimpleDTO(id=1625831826785791, name=微信2178区), GoodsServerSimpleDTO(id=1625831826784786, name=微信2177区), GoodsServerSimpleDTO(id=1625831826783777, name=微信2176区), GoodsServerSimpleDTO(id=1625831826783773, name=微信2175区), GoodsServerSimpleDTO(id=1625831826782767, name=微信2174区), GoodsServerSimpleDTO(id=1625831826781764, name=微信2173区), GoodsServerSimpleDTO(id=1625831826780758, name=微信2172区), GoodsServerSimpleDTO(id=1625831826780751, name=微信2171区), GoodsServerSimpleDTO(id=1625831826779746, name=微信2170区), GoodsServerSimpleDTO(id=1625831826778742, name=微信2169区), GoodsServerSimpleDTO(id=1625831826777733, name=微信2168区), GoodsServerSimpleDTO(id=1625831826777726, name=微信2167区), GoodsServerSimpleDTO(id=1625831826776719, name=微信2166区), GoodsServerSimpleDTO(id=1625831826775711, name=微信2165区), GoodsServerSimpleDTO(id=1625831826775704, name=微信2164区), GoodsServerSimpleDTO(id=1625831826774698, name=微信2163区), GoodsServerSimpleDTO(id=1625831826773682, name=微信2162区), GoodsServerSimpleDTO(id=1625831826773673, name=微信2161区), GoodsServerSimpleDTO(id=1625831826772668, name=微信2160区), GoodsServerSimpleDTO(id=1625831826771667, name=微信2159区), GoodsServerSimpleDTO(id=1625831826770663, name=微信2158区), GoodsServerSimpleDTO(id=1625831826770658, name=微信2157区), GoodsServerSimpleDTO(id=1625831826769656, name=微信2156区), GoodsServerSimpleDTO(id=1625831826768651, name=微信2155区), GoodsServerSimpleDTO(id=1625831826768648, name=微信2154区), GoodsServerSimpleDTO(id=1625831826767643, name=微信2153区), GoodsServerSimpleDTO(id=1625831826766639, name=微信2152区), GoodsServerSimpleDTO(id=1625831826765631, name=微信2151区), GoodsServerSimpleDTO(id=1625831826765626, name=微信2150区), GoodsServerSimpleDTO(id=1625831826764620, name=微信2149区), GoodsServerSimpleDTO(id=1625831826763615, name=微信2148区), GoodsServerSimpleDTO(id=1625831826763609, name=微信2147区), GoodsServerSimpleDTO(id=1625831826762606, name=微信2146区), GoodsServerSimpleDTO(id=1625831826761604, name=微信2145区), GoodsServerSimpleDTO(id=1625831826760598, name=微信2144区), GoodsServerSimpleDTO(id=1625831826760594, name=微信2143区), GoodsServerSimpleDTO(id=1625831826759592, name=微信2142区), GoodsServerSimpleDTO(id=1625831826758589, name=微信2141区), GoodsServerSimpleDTO(id=1625831826758586, name=微信2140区), GoodsServerSimpleDTO(id=1625831826757580, name=微信2139区), GoodsServerSimpleDTO(id=1625831826756575, name=微信2138区), GoodsServerSimpleDTO(id=1625831826755573, name=微信2137区), GoodsServerSimpleDTO(id=1625831826755570, name=微信2136区), GoodsServerSimpleDTO(id=1625831826754565, name=微信2135区), GoodsServerSimpleDTO(id=1625831826753563, name=微信2134区), GoodsServerSimpleDTO(id=1625831826753553, name=微信2133区), GoodsServerSimpleDTO(id=1625831826752549, name=微信2132区), GoodsServerSimpleDTO(id=1625831826751546, name=微信2131区), GoodsServerSimpleDTO(id=1625831826750542, name=微信2130区), GoodsServerSimpleDTO(id=1625831826750540, name=微信2129区), GoodsServerSimpleDTO(id=1625831826749534, name=微信2128区), GoodsServerSimpleDTO(id=1625831826748531, name=微信2127区), GoodsServerSimpleDTO(id=1625831826748524, name=微信2126区), GoodsServerSimpleDTO(id=1625831826747521, name=微信2125区), GoodsServerSimpleDTO(id=1625831826746517, name=微信2124区), GoodsServerSimpleDTO(id=1625831826745511, name=微信2123区), GoodsServerSimpleDTO(id=1625831826745508, name=微信2122区), GoodsServerSimpleDTO(id=1625831826744501, name=微信2121区), GoodsServerSimpleDTO(id=1625831809074102, name=微信2120区), GoodsServerSimpleDTO(id=1625831809073094, name=微信2119区), GoodsServerSimpleDTO(id=1625831809073090, name=微信2118区), GoodsServerSimpleDTO(id=1625831809072080, name=微信2117区), GoodsServerSimpleDTO(id=1625831809072076, name=微信2116区), GoodsServerSimpleDTO(id=1625831809071072, name=微信2115区), GoodsServerSimpleDTO(id=1625831809070067, name=微信2114区), GoodsServerSimpleDTO(id=1625831809070065, name=微信2113区), GoodsServerSimpleDTO(id=1625831809069062, name=微信2112区), GoodsServerSimpleDTO(id=1625831809069059, name=微信2111区), GoodsServerSimpleDTO(id=1625831809068050, name=微信2110区), GoodsServerSimpleDTO(id=1625831809068047, name=微信2109区), GoodsServerSimpleDTO(id=1625831809067045, name=微信2108区), GoodsServerSimpleDTO(id=1625831809066039, name=微信2107区), GoodsServerSimpleDTO(id=1625831809066037, name=微信2106区), GoodsServerSimpleDTO(id=1625831809065034, name=微信2105区), GoodsServerSimpleDTO(id=1625831809065032, name=微信2104区), GoodsServerSimpleDTO(id=1625831809064028, name=微信2103区), GoodsServerSimpleDTO(id=1625831809064021, name=微信2102区), GoodsServerSimpleDTO(id=1625831809063017, name=微信2101区), GoodsServerSimpleDTO(id=1625831809062014, name=微信2100区), GoodsServerSimpleDTO(id=1625831809062003, name=微信2099区), GoodsServerSimpleDTO(id=1625831809061001, name=微信2098区), GoodsServerSimpleDTO(id=1625831809061003, name=微信2097区), GoodsServerSimpleDTO(id=1625831809059995, name=微信2096区), GoodsServerSimpleDTO(id=1625831809059991, name=微信2095区), GoodsServerSimpleDTO(id=1625831809058987, name=微信2094区), GoodsServerSimpleDTO(id=1625831809058983, name=微信2093区), GoodsServerSimpleDTO(id=1625831809057979, name=微信2092区), GoodsServerSimpleDTO(id=1625831809057974, name=微信2091区), GoodsServerSimpleDTO(id=1625831809056969, name=微信2090区), GoodsServerSimpleDTO(id=1625831809055966, name=微信2089区), GoodsServerSimpleDTO(id=1625831809055961, name=微信2088区), GoodsServerSimpleDTO(id=1625831809054955, name=微信2087区), GoodsServerSimpleDTO(id=1625831809054952, name=微信2086区), GoodsServerSimpleDTO(id=1625831809053940, name=微信2085区), GoodsServerSimpleDTO(id=1625831809053936, name=微信2084区), GoodsServerSimpleDTO(id=1625831809052929, name=微信2083区), GoodsServerSimpleDTO(id=1625831809051924, name=微信2082区), GoodsServerSimpleDTO(id=1625831809051920, name=微信2081区), GoodsServerSimpleDTO(id=1625831809050914, name=微信2080区), GoodsServerSimpleDTO(id=1625831809050909, name=微信2079区), GoodsServerSimpleDTO(id=1625831809049904, name=微信2078区), GoodsServerSimpleDTO(id=1625831809049897, name=微信2077区), GoodsServerSimpleDTO(id=1625831809048889, name=微信2076区), GoodsServerSimpleDTO(id=1625831809047877, name=微信2075区), GoodsServerSimpleDTO(id=1625831809047863, name=微信2074区), GoodsServerSimpleDTO(id=1625831809046851, name=微信2073区), GoodsServerSimpleDTO(id=1625831809046844, name=微信2072区), GoodsServerSimpleDTO(id=1625831809045840, name=微信2071区), GoodsServerSimpleDTO(id=1625831809044833, name=微信2070区), GoodsServerSimpleDTO(id=1625831809044824, name=微信2069区), GoodsServerSimpleDTO(id=1625831809043823, name=微信2068区), GoodsServerSimpleDTO(id=1625831809043818, name=微信2067区), GoodsServerSimpleDTO(id=1625831809042816, name=微信2066区), GoodsServerSimpleDTO(id=1625831809041809, name=微信2065区), GoodsServerSimpleDTO(id=1625831809041804, name=微信2064区), GoodsServerSimpleDTO(id=1625831809040801, name=微信2063区), GoodsServerSimpleDTO(id=1625831809040798, name=微信2062区), GoodsServerSimpleDTO(id=1625831809039788, name=微信2061区), GoodsServerSimpleDTO(id=1625831776241677, name=微信2060区), GoodsServerSimpleDTO(id=1625831776241671, name=微信2059区), GoodsServerSimpleDTO(id=1625831776240665, name=微信2058区), GoodsServerSimpleDTO(id=1625831776239659, name=微信2057区), GoodsServerSimpleDTO(id=1625831776239650, name=微信2056区), GoodsServerSimpleDTO(id=1625831776238646, name=微信2055区), GoodsServerSimpleDTO(id=1625831776237640, name=微信2054区), GoodsServerSimpleDTO(id=1625831776237639, name=微信2053区), GoodsServerSimpleDTO(id=1625831776236636, name=微信2052区), GoodsServerSimpleDTO(id=1625831776236632, name=微信2051区), GoodsServerSimpleDTO(id=1625831776235626, name=微信2050区), GoodsServerSimpleDTO(id=1625831776234623, name=微信2049区), GoodsServerSimpleDTO(id=1625831776234618, name=微信2048区), GoodsServerSimpleDTO(id=1625831776233614, name=微信2047区), GoodsServerSimpleDTO(id=1625831776232609, name=微信2046区), GoodsServerSimpleDTO(id=1625831776232605, name=微信2045区), GoodsServerSimpleDTO(id=1625831776231596, name=微信2044区), GoodsServerSimpleDTO(id=1625831776231595, name=微信2043区), GoodsServerSimpleDTO(id=1625831776230590, name=微信2042区), GoodsServerSimpleDTO(id=1625831776229584, name=微信2041区), GoodsServerSimpleDTO(id=1625831776229582, name=微信2040区), GoodsServerSimpleDTO(id=1625831776228576, name=微信2039区), GoodsServerSimpleDTO(id=1625831776227567, name=微信2038区), GoodsServerSimpleDTO(id=1625831776227561, name=微信2037区), GoodsServerSimpleDTO(id=1625831776226556, name=微信2036区), GoodsServerSimpleDTO(id=1625831776225554, name=微信2035区), GoodsServerSimpleDTO(id=1625831776225550, name=微信2034区), GoodsServerSimpleDTO(id=1625831776224545, name=微信2033区), GoodsServerSimpleDTO(id=1625831776224541, name=微信2032区), GoodsServerSimpleDTO(id=1625831776223537, name=微信2031区), GoodsServerSimpleDTO(id=1625831776222534, name=微信2030区), GoodsServerSimpleDTO(id=1625831776222530, name=微信2029区), GoodsServerSimpleDTO(id=1625831776221525, name=微信2028区), GoodsServerSimpleDTO(id=1625831776220521, name=微信2027区), GoodsServerSimpleDTO(id=1625831776220518, name=微信2026区), GoodsServerSimpleDTO(id=1625831776219513, name=微信2025区), GoodsServerSimpleDTO(id=1625831776218508, name=微信2024区), GoodsServerSimpleDTO(id=1625831776218504, name=微信2023区), GoodsServerSimpleDTO(id=1625831776217500, name=微信2022区), GoodsServerSimpleDTO(id=1625831776217497, name=微信2021区), GoodsServerSimpleDTO(id=1625831776216495, name=微信2020区), GoodsServerSimpleDTO(id=1625831776215492, name=微信2019区), GoodsServerSimpleDTO(id=1625831776215487, name=微信2018区), GoodsServerSimpleDTO(id=1625831776214484, name=微信2017区), GoodsServerSimpleDTO(id=1625831776213480, name=微信2016区), GoodsServerSimpleDTO(id=1625831776213475, name=微信2015区), GoodsServerSimpleDTO(id=1625831776212472, name=微信2014区), GoodsServerSimpleDTO(id=1625831776212467, name=微信2013区), GoodsServerSimpleDTO(id=1625831776211466, name=微信2012区), GoodsServerSimpleDTO(id=1625831776210463, name=微信2011区), GoodsServerSimpleDTO(id=1625831776210457, name=微信2010区), GoodsServerSimpleDTO(id=1625831776209454, name=微信2009区), GoodsServerSimpleDTO(id=1625831776209451, name=微信2008区), GoodsServerSimpleDTO(id=1625831776208447, name=微信2007区), GoodsServerSimpleDTO(id=1625831776207441, name=微信2006区), GoodsServerSimpleDTO(id=1625831776207434, name=微信2005区), GoodsServerSimpleDTO(id=1625831776206428, name=微信2004区), GoodsServerSimpleDTO(id=1625831776205421, name=微信2003区), GoodsServerSimpleDTO(id=1625831776205414, name=微信2002区), GoodsServerSimpleDTO(id=1625831776204410, name=微信2001区), GoodsServerSimpleDTO(id=1608607145407336, name=微信2000区), GoodsServerSimpleDTO(id=1608607145406330, name=微信1999区), GoodsServerSimpleDTO(id=1608607145405326, name=微信1998区), GoodsServerSimpleDTO(id=1608607145405321, name=微信1997区), GoodsServerSimpleDTO(id=1608607145404319, name=微信1996区), GoodsServerSimpleDTO(id=1608607145403316, name=微信1995区), GoodsServerSimpleDTO(id=1608607145403314, name=微信1994区), GoodsServerSimpleDTO(id=1608607145402306, name=微信1993区), GoodsServerSimpleDTO(id=1608607145401303, name=微信1992区), GoodsServerSimpleDTO(id=1608607145401298, name=微信1991区), GoodsServerSimpleDTO(id=1608607145400296, name=微信1990区), GoodsServerSimpleDTO(id=1608607145400293, name=微信1989区), GoodsServerSimpleDTO(id=1608607145399287, name=微信1988区), GoodsServerSimpleDTO(id=1608607145398282, name=微信1987区), GoodsServerSimpleDTO(id=1608607145398277, name=微信1986区), GoodsServerSimpleDTO(id=1608607145397271, name=微信1985区), GoodsServerSimpleDTO(id=1608607145396264, name=微信1984区), GoodsServerSimpleDTO(id=1608607145396258, name=微信1983区), GoodsServerSimpleDTO(id=1608607145395253, name=微信1982区), GoodsServerSimpleDTO(id=1608607145394251, name=微信1981区), GoodsServerSimpleDTO(id=1608607145394243, name=微信1980区), GoodsServerSimpleDTO(id=1608607145393238, name=微信1979区), GoodsServerSimpleDTO(id=1608607145392234, name=微信1978区), GoodsServerSimpleDTO(id=1608607145391229, name=微信1977区), GoodsServerSimpleDTO(id=1608607145391227, name=微信1976区), GoodsServerSimpleDTO(id=1608607145390224, name=微信1975区), GoodsServerSimpleDTO(id=1608607145389218, name=微信1974区), GoodsServerSimpleDTO(id=1608607145389214, name=微信1973区), GoodsServerSimpleDTO(id=1608607145388210, name=微信1972区), GoodsServerSimpleDTO(id=1608607145387204, name=微信1971区), GoodsServerSimpleDTO(id=1608607145387194, name=微信1970区), GoodsServerSimpleDTO(id=1608607145386188, name=微信1969区), GoodsServerSimpleDTO(id=1608607145385183, name=微信1968区), GoodsServerSimpleDTO(id=1608607145385171, name=微信1967区), GoodsServerSimpleDTO(id=1608607145384165, name=微信1966区), GoodsServerSimpleDTO(id=1608607145383160, name=微信1965区), GoodsServerSimpleDTO(id=1608607145383155, name=微信1964区), GoodsServerSimpleDTO(id=1608607145382145, name=微信1963区), GoodsServerSimpleDTO(id=1608607145382143, name=微信1962区), GoodsServerSimpleDTO(id=1608607145381140, name=微信1961区), GoodsServerSimpleDTO(id=1608607145380135, name=微信1960区), GoodsServerSimpleDTO(id=1608607145379125, name=微信1959区), GoodsServerSimpleDTO(id=1608607145379122, name=微信1958区), GoodsServerSimpleDTO(id=1608607145378119, name=微信1957区), GoodsServerSimpleDTO(id=1608607145377115, name=微信1956区), GoodsServerSimpleDTO(id=1608607145377112, name=微信1955区), GoodsServerSimpleDTO(id=1608607145376105, name=微信1954区), GoodsServerSimpleDTO(id=1608607145376102, name=微信1953区), GoodsServerSimpleDTO(id=1608607145375098, name=微信1952区), GoodsServerSimpleDTO(id=1608607145374093, name=微信1951区), GoodsServerSimpleDTO(id=1608607132292924, name=微信1950区), GoodsServerSimpleDTO(id=1608607132292921, name=微信1949区), GoodsServerSimpleDTO(id=1608607132291915, name=微信1948区), GoodsServerSimpleDTO(id=1608607132291911, name=微信1947区), GoodsServerSimpleDTO(id=1608607132290909, name=微信1946区), GoodsServerSimpleDTO(id=1608607132290906, name=微信1945区), GoodsServerSimpleDTO(id=1608607132289901, name=微信1944区), GoodsServerSimpleDTO(id=1608607132289897, name=微信1943区), GoodsServerSimpleDTO(id=1608607132288896, name=微信1942区), GoodsServerSimpleDTO(id=1608607132287894, name=微信1941区), GoodsServerSimpleDTO(id=1608607132287889, name=微信1940区), GoodsServerSimpleDTO(id=1608607132286886, name=微信1939区), GoodsServerSimpleDTO(id=1608607132286885, name=微信1938区), GoodsServerSimpleDTO(id=1608607132285877, name=微信1937区), GoodsServerSimpleDTO(id=1608607132285873, name=微信1936区), GoodsServerSimpleDTO(id=1608607132284871, name=微信1935区), GoodsServerSimpleDTO(id=1608607132284868, name=微信1934区), GoodsServerSimpleDTO(id=1608607132283866, name=微信1933区), GoodsServerSimpleDTO(id=1608607132283863, name=微信1932区), GoodsServerSimpleDTO(id=1608607132282862, name=微信1931区), GoodsServerSimpleDTO(id=1608607132282860, name=微信1930区), GoodsServerSimpleDTO(id=1608607132281856, name=微信1929区), GoodsServerSimpleDTO(id=1608607132280853, name=微信1928区), GoodsServerSimpleDTO(id=1608607132280848, name=微信1927区), GoodsServerSimpleDTO(id=1608607132279844, name=微信1926区), GoodsServerSimpleDTO(id=1608607132279839, name=微信1925区), GoodsServerSimpleDTO(id=1608607132278837, name=微信1924区), GoodsServerSimpleDTO(id=1608607132278832, name=微信1923区), GoodsServerSimpleDTO(id=1608607132277827, name=微信1922区), GoodsServerSimpleDTO(id=1608607132277825, name=微信1921区), GoodsServerSimpleDTO(id=1608607132276823, name=微信1920区), GoodsServerSimpleDTO(id=1608607132275820, name=微信1919区), GoodsServerSimpleDTO(id=1608607132275816, name=微信1918区), GoodsServerSimpleDTO(id=1608607132274812, name=微信1917区), GoodsServerSimpleDTO(id=1608607132274810, name=微信1916区), GoodsServerSimpleDTO(id=1608607132273804, name=微信1915区), GoodsServerSimpleDTO(id=1608607132273803, name=微信1914区), GoodsServerSimpleDTO(id=1608607132272799, name=微信1913区), GoodsServerSimpleDTO(id=1608607132272796, name=微信1912区), GoodsServerSimpleDTO(id=1608607132271792, name=微信1911区), GoodsServerSimpleDTO(id=1608607132271790, name=微信1910区), GoodsServerSimpleDTO(id=1608607132270785, name=微信1909区), GoodsServerSimpleDTO(id=1608607132270781, name=微信1908区), GoodsServerSimpleDTO(id=1608607132269778, name=微信1907区), GoodsServerSimpleDTO(id=1608607132269775, name=微信1906区), GoodsServerSimpleDTO(id=1608607132268768, name=微信1905区), GoodsServerSimpleDTO(id=1608607132267764, name=微信1904区), GoodsServerSimpleDTO(id=1608607132267758, name=微信1903区), GoodsServerSimpleDTO(id=1608607132266751, name=微信1902区), GoodsServerSimpleDTO(id=1608607132266748, name=微信1901区), GoodsServerSimpleDTO(id=1608607096197667, name=微信1900区), GoodsServerSimpleDTO(id=1608607096197662, name=微信1899区), GoodsServerSimpleDTO(id=1608607096196659, name=微信1898区), GoodsServerSimpleDTO(id=1608607096195655, name=微信1897区), GoodsServerSimpleDTO(id=1608607096195649, name=微信1896区), GoodsServerSimpleDTO(id=1608607096194645, name=微信1895区), GoodsServerSimpleDTO(id=1608607096194639, name=微信1894区), GoodsServerSimpleDTO(id=1608607096193637, name=微信1893区), GoodsServerSimpleDTO(id=1608607096192632, name=微信1892区), GoodsServerSimpleDTO(id=1608607096192628, name=微信1891区), GoodsServerSimpleDTO(id=1608607096191623, name=微信1890区), GoodsServerSimpleDTO(id=1608607096190618, name=微信1889区), GoodsServerSimpleDTO(id=1608607096190614, name=微信1888区), GoodsServerSimpleDTO(id=1608607096189612, name=微信1887区), GoodsServerSimpleDTO(id=1608607096188598, name=微信1886区), GoodsServerSimpleDTO(id=1608607096188595, name=微信1885区), GoodsServerSimpleDTO(id=1608607096187588, name=微信1884区), GoodsServerSimpleDTO(id=1608607096186583, name=微信1883区), GoodsServerSimpleDTO(id=1608607096186574, name=微信1882区), GoodsServerSimpleDTO(id=1608607096185544, name=微信1881区), GoodsServerSimpleDTO(id=1608607096156428, name=微信1880区), GoodsServerSimpleDTO(id=1608607096156425, name=微信1879区), GoodsServerSimpleDTO(id=1608607096155422, name=微信1878区), GoodsServerSimpleDTO(id=1608607096154420, name=微信1877区), GoodsServerSimpleDTO(id=1608607096154418, name=微信1876区), GoodsServerSimpleDTO(id=1608607096153415, name=微信1875区), GoodsServerSimpleDTO(id=1608607096152411, name=微信1874区), GoodsServerSimpleDTO(id=1608607096152408, name=微信1873区), GoodsServerSimpleDTO(id=1608607096151407, name=微信1872区), GoodsServerSimpleDTO(id=1608607096150402, name=微信1871区), GoodsServerSimpleDTO(id=1608607096150401, name=微信1870区), GoodsServerSimpleDTO(id=1608607096149399, name=微信1869区), GoodsServerSimpleDTO(id=1608607096148394, name=微信1868区), GoodsServerSimpleDTO(id=1608607096148390, name=微信1867区), GoodsServerSimpleDTO(id=1608607096147384, name=微信1866区), GoodsServerSimpleDTO(id=1608607096147378, name=微信1865区), GoodsServerSimpleDTO(id=1608607096146376, name=微信1864区), GoodsServerSimpleDTO(id=1608607096145371, name=微信1863区), GoodsServerSimpleDTO(id=1608607096145370, name=微信1862区), GoodsServerSimpleDTO(id=1608607096144368, name=微信1861区), GoodsServerSimpleDTO(id=1608607096143362, name=微信1860区), GoodsServerSimpleDTO(id=1608607096143353, name=微信1859区), GoodsServerSimpleDTO(id=1608607096142345, name=微信1858区), GoodsServerSimpleDTO(id=1608607096141340, name=微信1857区), GoodsServerSimpleDTO(id=1608607096141336, name=微信1856区), GoodsServerSimpleDTO(id=1608607096140331, name=微信1855区), GoodsServerSimpleDTO(id=1608607096139328, name=微信1854区), GoodsServerSimpleDTO(id=1608607096139327, name=微信1853区), GoodsServerSimpleDTO(id=1608607096138324, name=微信1852区), GoodsServerSimpleDTO(id=1608607096137316, name=微信1851区), GoodsServerSimpleDTO(id=1608607080357515, name=微信1850区), GoodsServerSimpleDTO(id=1608607080356509, name=微信1849区), GoodsServerSimpleDTO(id=1608607080356500, name=微信1848区), GoodsServerSimpleDTO(id=1608607080355494, name=微信1847区), GoodsServerSimpleDTO(id=1608607080355491, name=微信1846区), GoodsServerSimpleDTO(id=1608607080355487, name=微信1845区), GoodsServerSimpleDTO(id=1608607080354483, name=微信1844区), GoodsServerSimpleDTO(id=1608607080353475, name=微信1843区), GoodsServerSimpleDTO(id=1608607080353469, name=微信1842区), GoodsServerSimpleDTO(id=1608607080352459, name=微信1841区), GoodsServerSimpleDTO(id=1608607080352455, name=微信1840区), GoodsServerSimpleDTO(id=1608607080351449, name=微信1839区), GoodsServerSimpleDTO(id=1608607080351447, name=微信1838区), GoodsServerSimpleDTO(id=1608607080351442, name=微信1837区), GoodsServerSimpleDTO(id=1608607080350440, name=微信1836区), GoodsServerSimpleDTO(id=1608607080349437, name=微信1835区), GoodsServerSimpleDTO(id=1608607080349428, name=微信1834区), GoodsServerSimpleDTO(id=1608607080348421, name=微信1833区), GoodsServerSimpleDTO(id=1608607080348417, name=微信1832区), GoodsServerSimpleDTO(id=1608607080348413, name=微信1831区), GoodsServerSimpleDTO(id=1608607080347409, name=微信1830区), GoodsServerSimpleDTO(id=1608607080346404, name=微信1829区), GoodsServerSimpleDTO(id=1608607080346399, name=微信1828区), GoodsServerSimpleDTO(id=1608607080345395, name=微信1827区), GoodsServerSimpleDTO(id=1608607080345388, name=微信1826区), GoodsServerSimpleDTO(id=1608607080344381, name=微信1825区), GoodsServerSimpleDTO(id=1608607080344376, name=微信1824区), GoodsServerSimpleDTO(id=1608607080343371, name=微信1823区), GoodsServerSimpleDTO(id=1608607080343364, name=微信1822区), GoodsServerSimpleDTO(id=1608607080342357, name=微信1821区), GoodsServerSimpleDTO(id=1608607080342353, name=微信1820区), GoodsServerSimpleDTO(id=1608607080341352, name=微信1819区), GoodsServerSimpleDTO(id=1608607080341351, name=微信1818区), GoodsServerSimpleDTO(id=1608607080340347, name=微信1817区), GoodsServerSimpleDTO(id=1608607080340344, name=微信1816区), GoodsServerSimpleDTO(id=1608607080339339, name=微信1815区), GoodsServerSimpleDTO(id=1608607080339334, name=微信1814区), GoodsServerSimpleDTO(id=1608607080339331, name=微信1813区), GoodsServerSimpleDTO(id=1608607080338330, name=微信1812区), GoodsServerSimpleDTO(id=1608607080338328, name=微信1811区), GoodsServerSimpleDTO(id=1608607080337323, name=微信1810区), GoodsServerSimpleDTO(id=1608607080337319, name=微信1809区), GoodsServerSimpleDTO(id=1608607080336315, name=微信1808区), GoodsServerSimpleDTO(id=1608607080336310, name=微信1807区), GoodsServerSimpleDTO(id=1608607080335307, name=微信1806区), GoodsServerSimpleDTO(id=1608607080335304, name=微信1805区), GoodsServerSimpleDTO(id=1608607080334299, name=微信1804区), GoodsServerSimpleDTO(id=1608607080334297, name=微信1803区), GoodsServerSimpleDTO(id=1608607080333292, name=微信1802区), GoodsServerSimpleDTO(id=1608607080333288, name=微信1801区), GoodsServerSimpleDTO(id=1608606957805614, name=微信1800区), GoodsServerSimpleDTO(id=1608606957805612, name=微信1799区), GoodsServerSimpleDTO(id=1608606957804607, name=微信1798区), GoodsServerSimpleDTO(id=1608606957804605, name=微信1797区), GoodsServerSimpleDTO(id=1608606957803601, name=微信1796区), GoodsServerSimpleDTO(id=1608606957803598, name=微信1795区), GoodsServerSimpleDTO(id=1608606957802593, name=微信1794区), GoodsServerSimpleDTO(id=1608606957802586, name=微信1793区), GoodsServerSimpleDTO(id=1608606957801583, name=微信1792区), GoodsServerSimpleDTO(id=1608606957801581, name=微信1791区), GoodsServerSimpleDTO(id=1608606957800576, name=微信1790区), GoodsServerSimpleDTO(id=1608606957800574, name=微信1789区), GoodsServerSimpleDTO(id=1608606957799572, name=微信1788区), GoodsServerSimpleDTO(id=1608606957799569, name=微信1787区), GoodsServerSimpleDTO(id=1608606957798564, name=微信1786区), GoodsServerSimpleDTO(id=1608606957798561, name=微信1785区), GoodsServerSimpleDTO(id=1608606957797555, name=微信1784区), GoodsServerSimpleDTO(id=1608606957797553, name=微信1783区), GoodsServerSimpleDTO(id=1608606957796551, name=微信1782区), GoodsServerSimpleDTO(id=1608606957796546, name=微信1781区), GoodsServerSimpleDTO(id=1608606957795541, name=微信1780区), GoodsServerSimpleDTO(id=1608606957795538, name=微信1779区), GoodsServerSimpleDTO(id=1608606957794534, name=微信1778区), GoodsServerSimpleDTO(id=1608606957794532, name=微信1777区), GoodsServerSimpleDTO(id=1608606957793530, name=微信1776区), GoodsServerSimpleDTO(id=1608606957793526, name=微信1775区), GoodsServerSimpleDTO(id=1608606957792522, name=微信1774区), GoodsServerSimpleDTO(id=1608606957792518, name=微信1773区), GoodsServerSimpleDTO(id=1608606957791515, name=微信1772区), GoodsServerSimpleDTO(id=1608606957791511, name=微信1771区), GoodsServerSimpleDTO(id=1608606957790508, name=微信1770区), GoodsServerSimpleDTO(id=1608606957790503, name=微信1769区), GoodsServerSimpleDTO(id=1608606957789497, name=微信1768区), GoodsServerSimpleDTO(id=1608606957789494, name=微信1767区), GoodsServerSimpleDTO(id=1608606957788492, name=微信1766区), GoodsServerSimpleDTO(id=1608606957788488, name=微信1765区), GoodsServerSimpleDTO(id=1608606957787484, name=微信1764区), GoodsServerSimpleDTO(id=1608606957787479, name=微信1763区), GoodsServerSimpleDTO(id=1608606957786475, name=微信1762区), GoodsServerSimpleDTO(id=1608606957786473, name=微信1761区), GoodsServerSimpleDTO(id=1608606957785469, name=微信1760区), GoodsServerSimpleDTO(id=1608606957785465, name=微信1759区), GoodsServerSimpleDTO(id=1608606957784463, name=微信1758区), GoodsServerSimpleDTO(id=1608606957784462, name=微信1757区), GoodsServerSimpleDTO(id=1608606957784460, name=微信1756区), GoodsServerSimpleDTO(id=1608606957783458, name=微信1755区), GoodsServerSimpleDTO(id=1608606957783454, name=微信1754区), GoodsServerSimpleDTO(id=1608606957782452, name=微信1753区), GoodsServerSimpleDTO(id=1608606957782449, name=微信1752区), GoodsServerSimpleDTO(id=1608606957781447, name=微信1751区), GoodsServerSimpleDTO(id=1608606940282648, name=微信1750区), GoodsServerSimpleDTO(id=1608606940282645, name=微信1749区), GoodsServerSimpleDTO(id=1608606940281640, name=微信1748区), GoodsServerSimpleDTO(id=1608606940280636, name=微信1747区), GoodsServerSimpleDTO(id=1608606940280631, name=微信1746区), GoodsServerSimpleDTO(id=1608606940279626, name=微信1745区), GoodsServerSimpleDTO(id=1608606940278619, name=微信1744区), GoodsServerSimpleDTO(id=1608606940278617, name=微信1743区), GoodsServerSimpleDTO(id=1608606940277611, name=微信1742区), GoodsServerSimpleDTO(id=1608606940277606, name=微信1741区), GoodsServerSimpleDTO(id=1608606940276602, name=微信1740区), GoodsServerSimpleDTO(id=1608606940275598, name=微信1739区), GoodsServerSimpleDTO(id=1608606940275595, name=微信1738区), GoodsServerSimpleDTO(id=1608606940274592, name=微信1737区), GoodsServerSimpleDTO(id=1608606940273586, name=微信1736区), GoodsServerSimpleDTO(id=1608606940273582, name=微信1735区), GoodsServerSimpleDTO(id=1608606940272577, name=微信1734区), GoodsServerSimpleDTO(id=1608606940272573, name=微信1733区), GoodsServerSimpleDTO(id=1608606940271567, name=微信1732区), GoodsServerSimpleDTO(id=1608606940270564, name=微信1731区), GoodsServerSimpleDTO(id=1608606940270559, name=微信1730区), GoodsServerSimpleDTO(id=1608606940269554, name=微信1729区), GoodsServerSimpleDTO(id=1608606940268549, name=微信1728区), GoodsServerSimpleDTO(id=1608606940268538, name=微信1727区), GoodsServerSimpleDTO(id=1608606940267535, name=微</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1580902730218531, name=通用服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1530758082299235, name=活动全服通用), GoodsServerSimpleDTO(id=1501051257602094, name=山西2区), GoodsServerSimpleDTO(id=1501051257602090, name=山西1区), GoodsServerSimpleDTO(id=1501051197474015, name=山东6区), GoodsServerSimpleDTO(id=1501051197474014, name=山东5区), GoodsServerSimpleDTO(id=1501051197474013, name=山东4区), GoodsServerSimpleDTO(id=1501051197474012, name=山东3区), GoodsServerSimpleDTO(id=1501051197474011, name=山东2 ∕ 7区), GoodsServerSimpleDTO(id=1501051197474010, name=山东1区), GoodsServerSimpleDTO(id=1501051132449793, name=河南7区), GoodsServerSimpleDTO(id=1501051132449791, name=河南6区), GoodsServerSimpleDTO(id=1501051132449789, name=河南5区), GoodsServerSimpleDTO(id=1501051132449787, name=河南4区), GoodsServerSimpleDTO(id=1501051132449785, name=河南3区), GoodsServerSimpleDTO(id=1501051132449784, name=河南2区), GoodsServerSimpleDTO(id=1501051132448782, name=河南1区), GoodsServerSimpleDTO(id=1501051073342404, name=黑龙江2 ∕ 3区), GoodsServerSimpleDTO(id=1501051073342401, name=黑龙江1区), GoodsServerSimpleDTO(id=1501051017017822, name=吉林1 ∕ 2区), GoodsServerSimpleDTO(id=1501050932015509, name=辽宁3区), GoodsServerSimpleDTO(id=1501050932015508, name=辽宁2区), GoodsServerSimpleDTO(id=1501050932015507, name=辽宁1区), GoodsServerSimpleDTO(id=1501050874688565, name=内蒙古1区), GoodsServerSimpleDTO(id=1501050831078064, name=北京3区), GoodsServerSimpleDTO(id=1501050831078061, name=北京2 ∕ 4区), GoodsServerSimpleDTO(id=1501050831078059, name=北京1区), GoodsServerSimpleDTO(id=1501050751335326, name=东北4 ∕ 5 ∕ 6区), GoodsServerSimpleDTO(id=1501050751335324, name=东北3 ∕ 7区), GoodsServerSimpleDTO(id=1501050751335322, name=东北2区), GoodsServerSimpleDTO(id=1501050751334321, name=东北1区), GoodsServerSimpleDTO(id=1501050679283231, name=天津1区), GoodsServerSimpleDTO(id=1501050338811072, name=河北5区), GoodsServerSimpleDTO(id=1501050338810069, name=河北4区), GoodsServerSimpleDTO(id=1501050338810067, name=河北2 ∕ 3区), GoodsServerSimpleDTO(id=1501050338810062, name=河北1区), GoodsServerSimpleDTO(id=1501050268534588, name=华北4区), GoodsServerSimpleDTO(id=1501050268534587, name=华北3区), GoodsServerSimpleDTO(id=1501050268534586, name=华北2区), GoodsServerSimpleDTO(id=1501050268533585, name=华北1区), GoodsServerSimpleDTO(id=1501050063367901, name=新疆1区), GoodsServerSimpleDTO(id=1501050028147949, name=重庆2区), GoodsServerSimpleDTO(id=1501050028147948, name=重庆1区), GoodsServerSimpleDTO(id=1501049979598398, name=四川6区), GoodsServerSimpleDTO(id=1501049979598395, name=四川5区), GoodsServerSimpleDTO(id=1501049979598394, name=四川4区), GoodsServerSimpleDTO(id=1501049979597393, name=四川3区), GoodsServerSimpleDTO(id=1501049979597392, name=四川2区), GoodsServerSimpleDTO(id=1501049979597391, name=四川1区), GoodsServerSimpleDTO(id=1501049910905449, name=贵州1区), GoodsServerSimpleDTO(id=1501049910905448, name=云南1区), GoodsServerSimpleDTO(id=1501049910904447, name=云贵1区), GoodsServerSimpleDTO(id=1501049836058480, name=陕西2 ∕ 3区), GoodsServerSimpleDTO(id=1501049836058479, name=陕西1区), GoodsServerSimpleDTO(id=1501049786098329, name=西南3区), GoodsServerSimpleDTO(id=1501049786097328, name=西南2区), GoodsServerSimpleDTO(id=1501049786097326, name=西南1区), GoodsServerSimpleDTO(id=1501049742285472, name=西北2 ∕ 3区), GoodsServerSimpleDTO(id=1501049742285471, name=西北1区), GoodsServerSimpleDTO(id=1501049686959801, name=江西3区), GoodsServerSimpleDTO(id=1501049686958799, name=江西2区), GoodsServerSimpleDTO(id=1501049686958798, name=江西1区), GoodsServerSimpleDTO(id=1501049646837709, name=福建3 ∕ 4区), GoodsServerSimpleDTO(id=1501049646837708, name=福建2区), GoodsServerSimpleDTO(id=1501049646836707, name=福建1区), GoodsServerSimpleDTO(id=1501049598987188, name=安徽3区), GoodsServerSimpleDTO(id=1501049598987187, name=安徽2区), GoodsServerSimpleDTO(id=1501049598987186, name=安徽1区), GoodsServerSimpleDTO(id=1501049549654454, name=浙江7区), GoodsServerSimpleDTO(id=1501049549654453, name=浙江6区), GoodsServerSimpleDTO(id=1501049549654452, name=浙江4 ∕ 5区), GoodsServerSimpleDTO(id=1501049549653451, name=浙江3区), GoodsServerSimpleDTO(id=1501049549653450, name=浙江2区), GoodsServerSimpleDTO(id=1501049549653449, name=浙江1区), GoodsServerSimpleDTO(id=1501049484283627, name=江苏8区), GoodsServerSimpleDTO(id=1501049484283626, name=江苏6区), GoodsServerSimpleDTO(id=1501049484283625, name=江苏5 ∕ 7区), GoodsServerSimpleDTO(id=1501049484283624, name=江苏4区), GoodsServerSimpleDTO(id=1501049484282623, name=江苏3区), GoodsServerSimpleDTO(id=1501049484282622, name=江苏2区), GoodsServerSimpleDTO(id=1501049484282621, name=江苏1区), GoodsServerSimpleDTO(id=1501049402062054, name=上海4 ∕ 5区), GoodsServerSimpleDTO(id=1501049402062052, name=上海3区), GoodsServerSimpleDTO(id=1501049402062051, name=上海2区), GoodsServerSimpleDTO(id=1501049402061050, name=上海1区), GoodsServerSimpleDTO(id=1501048949557040, name=湖北8区), GoodsServerSimpleDTO(id=1501048949557039, name=湖北7区), GoodsServerSimpleDTO(id=1501048949556036, name=湖北6区), GoodsServerSimpleDTO(id=1501048949556035, name=湖北5区), GoodsServerSimpleDTO(id=1501048949556034, name=湖北4区), GoodsServerSimpleDTO(id=1501048949556032, name=湖北3区), GoodsServerSimpleDTO(id=1501048949556031, name=湖北2区), GoodsServerSimpleDTO(id=1501048949556030, name=湖北1区), GoodsServerSimpleDTO(id=1501048899370292, name=湖南7区), GoodsServerSimpleDTO(id=1501048899370290, name=湖南6区), GoodsServerSimpleDTO(id=1501048899370289, name=湖南5区), GoodsServerSimpleDTO(id=1501048899370288, name=湖南4区), GoodsServerSimpleDTO(id=1501048899370287, name=湖南3区), GoodsServerSimpleDTO(id=1501048899369286, name=湖南2区), GoodsServerSimpleDTO(id=1501048899369284, name=湖南1区), GoodsServerSimpleDTO(id=1501048841454611, name=广西5区), GoodsServerSimpleDTO(id=1501048841454610, name=广西3区), GoodsServerSimpleDTO(id=1501048841454609, name=广西2 ∕ 4区), GoodsServerSimpleDTO(id=1501048841454607, name=广西1区), GoodsServerSimpleDTO(id=1501048653182276, name=广州1 ∕ 2区), GoodsServerSimpleDTO(id=1501048653181275, name=广东13区), GoodsServerSimpleDTO(id=1501048653181274, name=广东12区), GoodsServerSimpleDTO(id=1501048653181273, name=广东11区), GoodsServerSimpleDTO(id=1501048653181272, name=广东10区), GoodsServerSimpleDTO(id=1501048653181270, name=广东9区), GoodsServerSimpleDTO(id=1501048653181268, name=广东8区), GoodsServerSimpleDTO(id=1501048653180267, name=广东7区), GoodsServerSimpleDTO(id=1501048653180266, name=广东6区), GoodsServerSimpleDTO(id=1501048653180264, name=广东5区), GoodsServerSimpleDTO(id=1501048653180263, name=广东4区), GoodsServerSimpleDTO(id=1501048653180262, name=广东3区), GoodsServerSimpleDTO(id=1501048653180261, name=广东2区), GoodsServerSimpleDTO(id=1501048653180259, name=广东1区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1517384142749498, name=峡谷之巅), GoodsServerSimpleDTO(id=1500544100659844, name=男爵领域), GoodsServerSimpleDTO(id=1500544100659842, name=教育网专区), GoodsServerSimpleDTO(id=1500530737314623, name=钢铁烈阳), GoodsServerSimpleDTO(id=1500530737313622, name=雷瑟守备), GoodsServerSimpleDTO(id=1500530737313621, name=皮城警备), GoodsServerSimpleDTO(id=1500530737313620, name=影流), GoodsServerSimpleDTO(id=1500530737313618, name=水晶之痕), GoodsServerSimpleDTO(id=1500530737313615, name=暗影岛), GoodsServerSimpleDTO(id=1500530737313614, name=裁决之地), GoodsServerSimpleDTO(id=1500530737313612, name=扭曲丛林), GoodsServerSimpleDTO(id=1500530737312610, name=无畏先锋), GoodsServerSimpleDTO(id=1500530737312608, name=德玛西亚), GoodsServerSimpleDTO(id=1500530737312607, name=巨龙之巢), GoodsServerSimpleDTO(id=1500530737312603, name=恕瑞玛), GoodsServerSimpleDTO(id=1500530737312601, name=弗雷尔卓德), GoodsServerSimpleDTO(id=1500450488530356, name=卡拉曼达), GoodsServerSimpleDTO(id=1500450488530355, name=征服之海), GoodsServerSimpleDTO(id=1500450488530354, name=守望之海), GoodsServerSimpleDTO(id=1500450488530353, name=均衡教派), GoodsServerSimpleDTO(id=1500450488530352, name=黑色玫瑰), GoodsServerSimpleDTO(id=1500450488529351, name=巨神峰), GoodsServerSimpleDTO(id=1500450488529349, name=战争学院), GoodsServerSimpleDTO(id=1500450488529347, name=皮尔特沃夫), GoodsServerSimpleDTO(id=1500450488529346, name=班德尔城), GoodsServerSimpleDTO(id=1500450488529344, name=诺克萨斯), GoodsServerSimpleDTO(id=1500450488529342, name=祖安), GoodsServerSimpleDTO(id=1500450488529341, name=比尔吉沃特), GoodsServerSimpleDTO(id=1500450488528338, name=艾欧尼亚)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1502794170131901, name=教育专区), GoodsServerSimpleDTO(id=1502794170131900, name=移动专区), GoodsServerSimpleDTO(id=1502794134890016, name=河南一区), GoodsServerSimpleDTO(id=1502793781464216, name=河南二区), GoodsServerSimpleDTO(id=1502793781464213, name=北方大区), GoodsServerSimpleDTO(id=1502793781463212, name=山东二区), GoodsServerSimpleDTO(id=1502793781463211, name=山东一区), GoodsServerSimpleDTO(id=1502793568305748, name=山西一区), GoodsServerSimpleDTO(id=1502793568305747, name=河北一区), GoodsServerSimpleDTO(id=1502793568305746, name=北京四区), GoodsServerSimpleDTO(id=1502793568305745, name=北京三区), GoodsServerSimpleDTO(id=1502793568305744, name=北京二区), GoodsServerSimpleDTO(id=1502793568305743, name=北京一区), GoodsServerSimpleDTO(id=1502793528987110, name=黑龙江区), GoodsServerSimpleDTO(id=1502793528986109, name=吉林一区), GoodsServerSimpleDTO(id=1502793528986107, name=辽宁三区), GoodsServerSimpleDTO(id=1502793528986106, name=辽宁二区), GoodsServerSimpleDTO(id=1502793528986105, name=辽宁一区), GoodsServerSimpleDTO(id=1502793488311854, name=江苏二区), GoodsServerSimpleDTO(id=1502793488310852, name=江苏一区), GoodsServerSimpleDTO(id=1502793465928256, name=云南一区), GoodsServerSimpleDTO(id=1502793465928255, name=陕西一区), GoodsServerSimpleDTO(id=1502793465927253, name=重庆一区), GoodsServerSimpleDTO(id=1502793465927252, name=四川二区), GoodsServerSimpleDTO(id=1502793465927251, name=四川一区), GoodsServerSimpleDTO(id=1502793432508973, name=安徽一区), GoodsServerSimpleDTO(id=1502793432508972, name=福建一区), GoodsServerSimpleDTO(id=1502793432507970, name=浙江二区), GoodsServerSimpleDTO(id=1502793432507968, name=浙江一区), GoodsServerSimpleDTO(id=1502793432507967, name=上海二区), GoodsServerSimpleDTO(id=1502793432507966, name=上海一区), GoodsServerSimpleDTO(id=1502793358964061, name=南方大区), GoodsServerSimpleDTO(id=1502793358964059, name=江西一区), GoodsServerSimpleDTO(id=1502793358964058, name=湖北二区), GoodsServerSimpleDTO(id=1502793358963056, name=湖北一区), GoodsServerSimpleDTO(id=1502793358963055, name=湖南二区), GoodsServerSimpleDTO(id=1502793358963053, name=湖南一区), GoodsServerSimpleDTO(id=1502793115319926, name=广西一区), GoodsServerSimpleDTO(id=1502793115319925, name=广东四区), GoodsServerSimpleDTO(id=1502793115318924, name=广东三区), GoodsServerSimpleDTO(id=1502793115318922, name=广东二区), GoodsServerSimpleDTO(id=1502793115318921, name=广东一区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1626244142769441, name=风云再起), GoodsServerSimpleDTO(id=1625551737217697, name=乘风破浪), GoodsServerSimpleDTO(id=1625193787211941, name=琴音小筑), GoodsServerSimpleDTO(id=1619601521876510, name=天下第一), GoodsServerSimpleDTO(id=1619598039033759, name=刀光剑影), GoodsServerSimpleDTO(id=1603009174104697, name=楼兰夜雪), GoodsServerSimpleDTO(id=1603009174104695, name=所向披靡), GoodsServerSimpleDTO(id=1603009174104692, name=一梦十年), GoodsServerSimpleDTO(id=1603009174104691, name=九阴真经), GoodsServerSimpleDTO(id=1603009174103689, name=不忘初心), GoodsServerSimpleDTO(id=1603009174103688, name=紫禁之巅), GoodsServerSimpleDTO(id=1603009174103685, name=仙侣情缘), GoodsServerSimpleDTO(id=1603009174103684, name=听香水榭), GoodsServerSimpleDTO(id=1603009174103681, name=太湖仙岛), GoodsServerSimpleDTO(id=1603009174102678, name=一生宿敌), GoodsServerSimpleDTO(id=1603009174102677, name=半城烟沙)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1628833427073986, name=火之神殿), GoodsServerSimpleDTO(id=1628833427072973, name=红龙祭坛), GoodsServerSimpleDTO(id=1628833427072957, name=永恒之岛), GoodsServerSimpleDTO(id=1628833427071950, name=谁与争锋), GoodsServerSimpleDTO(id=1628833427071942, name=永恒之巅)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1585625760885898, name=法拉克斯), GoodsServerSimpleDTO(id=1585624934358848, name=龙牙), GoodsServerSimpleDTO(id=1575947453297773, name=赛雷布拉斯), GoodsServerSimpleDTO(id=1572838069026832, name=诺克塞恩), GoodsServerSimpleDTO(id=1572838069026831, name=雷德 ), GoodsServerSimpleDTO(id=1572838069026829, name=娅尔罗 ), GoodsServerSimpleDTO(id=1572838069025828, name=阿什坎迪 ), GoodsServerSimpleDTO(id=1572838069025826, name=埃提耶什 ), GoodsServerSimpleDTO(id=1572838069025824, name=辛洛斯 ), GoodsServerSimpleDTO(id=1572838069024821, name=龙之召唤 ), GoodsServerSimpleDTO(id=1572838069024817, name=震地者奎尔塞拉 ), GoodsServerSimpleDTO(id=1572838069024815, name=艾隆纳亚 ), GoodsServerSimpleDTO(id=1572838069023812, name=碧空之歌 ), GoodsServerSimpleDTO(id=1572838069023810, name=雷霆之击 ), GoodsServerSimpleDTO(id=1572838069023809, name=狂野之刃 ), GoodsServerSimpleDTO(id=1572838069023806, name=火锤 ), GoodsServerSimpleDTO(id=1572838069022804, name=席瓦莱恩 ), GoodsServerSimpleDTO(id=1572838069021802, name=赫洛德 ), GoodsServerSimpleDTO(id=1572838069021800, name=拉姆斯登 ), GoodsServerSimpleDTO(id=1572838069021799, name=曼多基尔 ), GoodsServerSimpleDTO(id=1572838069021795, name=沙顶 ), GoodsServerSimpleDTO(id=1572838069020791, name=吉兹洛克 ), GoodsServerSimpleDTO(id=1572838069020788, name=厄运之槌 ), GoodsServerSimpleDTO(id=1572838069020787, name=德姆塞卡尔 ), GoodsServerSimpleDTO(id=1572838069020783, name=怒炉 ), GoodsServerSimpleDTO(id=1572838069019781, name=迈克斯纳 ), GoodsServerSimpleDTO(id=1572838069019779, name=加丁 ), GoodsServerSimpleDTO(id=1572838069019778, name=末日之刃 ), GoodsServerSimpleDTO(id=1572838069019777, name=怀特迈恩 ), GoodsServerSimpleDTO(id=1572838069018774, name=安娜丝塔丽 ), GoodsServerSimpleDTO(id=1572838069018772, name=法尔班克斯 ), GoodsServerSimpleDTO(id=1572838069018770, name=祈福), GoodsServerSimpleDTO(id=1566978493087351, name=秩序之源), GoodsServerSimpleDTO(id=1566978493087349, name=灵风), GoodsServerSimpleDTO(id=1566978493087343, name=无尽风暴), GoodsServerSimpleDTO(id=1566978493086342, name=巨龙追猎者), GoodsServerSimpleDTO(id=1566978493086339, name=巨人追猎者), GoodsServerSimpleDTO(id=1566978493086337, name=卓越), GoodsServerSimpleDTO(id=1566978493086336, name=审判), GoodsServerSimpleDTO(id=1566978493086334, name=木喉要塞), GoodsServerSimpleDTO(id=1566978493086332, name=匕首岭), GoodsServerSimpleDTO(id=1566978493085329, name=觅心者), GoodsServerSimpleDTO(id=1566978493085327, name=维克尼拉斯), GoodsServerSimpleDTO(id=1566978493085326, name=狮心), GoodsServerSimpleDTO(id=1566978493085323, name=巴罗夫), GoodsServerSimpleDTO(id=1566978493085321, name=比格沃斯), GoodsServerSimpleDTO(id=1566978493085320, name=比斯巨兽), GoodsServerSimpleDTO(id=1566978493084318, name=帕奇维克), GoodsServerSimpleDTO(id=1566978493084316, name=维希度斯), GoodsServerSimpleDTO(id=1566978493084312, name=布鲁), GoodsServerSimpleDTO(id=1566978493084309, name=范克瑞斯), GoodsServerSimpleDTO(id=1566978493084306, name=萨弗拉斯), GoodsServerSimpleDTO(id=1566978493084302, name=黑曜石之锋), GoodsServerSimpleDTO(id=1566978493083301, name=灰烬使者), GoodsServerSimpleDTO(id=1566978493083300, name=伦鲁迪洛尔), GoodsServerSimpleDTO(id=1566978493083296, name=奥金斧), GoodsServerSimpleDTO(id=1566978493083294, name=骨火), GoodsServerSimpleDTO(id=1566978493083291, name=毁灭之刃), GoodsServerSimpleDTO(id=1566978493083289, name=辛迪加), GoodsServerSimpleDTO(id=1566978493082286, name=诺格弗格), GoodsServerSimpleDTO(id=1566978493082283, name=寒脊山小径), GoodsServerSimpleDTO(id=1566978493082282, name=碧玉矿洞), GoodsServerSimpleDTO(id=1566978493082280, name=维克洛尔), GoodsServerSimpleDTO(id=1566978493082278, name=希尔盖), GoodsServerSimpleDTO(id=1566978493082276, name=霜语), GoodsServerSimpleDTO(id=1566978493081273, name=水晶之牙), GoodsServerSimpleDTO(id=1566978493081268, name=莫格莱尼), GoodsServerSimpleDTO(id=1566978493081266, name=沙尔图拉), GoodsServerSimpleDTO(id=1566978493081263, name=奥罗), GoodsServerSimpleDTO(id=1566978493081260, name=哈霍兰)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>英雄联盟手游（lol手游）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>哈利波特：魔法觉醒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1621565516574022</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1011518</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1633681463744104, 1621565516099743]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1633681463744104, name=QQ服务器), GoodsServerSimpleDTO(id=1621565516099743, name=新区预售)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1621565516899125</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1621565517247474</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1621565517569142</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1633681476979165, 1621565516099743]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1633681476979165, name=微信服务器), GoodsServerSimpleDTO(id=1621565516099743, name=新区预售)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1633681463744104]'[GoodsServerSimpleDTO(id=1633681463744104, name=QQ服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1633681476979165]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1633681476979165, name=微信服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>网易帐号</t>
   </si>
   <si>
     <t>1623839488380687</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1623839513012011</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1470047031313923</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1636795571689861, 1633690506792122, 1632478182096883, 1631170273972700, 1631170273972695, 1631170273971691, 1631170273971686, 1631170273970683, 1631170273970674, 1631170273969667, 1631170273969660, 1631170273968658, 1631170273967652, 1631170273967647, 1631170273966645, 1623763656129247]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1636795571689861, name=尖叫棚屋), GoodsServerSimpleDTO(id=1633690506792122, name=时间转换器), GoodsServerSimpleDTO(id=1632478182096883, name=巧克力蛙), GoodsServerSimpleDTO(id=1631170273972700, name=三把扫帚酒吧), GoodsServerSimpleDTO(id=1631170273972695, name=骑士巴士), GoodsServerSimpleDTO(id=1631170273971691, name=活点地图), GoodsServerSimpleDTO(id=1631170273971686, name=海外加速服), GoodsServerSimpleDTO(id=1631170273970683, name=金色飞贼), GoodsServerSimpleDTO(id=1631170273970674, name=分院帽), GoodsServerSimpleDTO(id=1631170273969667, name=密室), GoodsServerSimpleDTO(id=1631170273969660, name=古灵阁), GoodsServerSimpleDTO(id=1631170273968658, name=国王十字车站), GoodsServerSimpleDTO(id=1631170273967652, name=魔法部), GoodsServerSimpleDTO(id=1631170273967647, name=对角巷), GoodsServerSimpleDTO(id=1631170273966645, name=霍格沃茨), GoodsServerSimpleDTO(id=1623763656129247, name=安卓服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1470047031273482</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1636795571689861, 1633690506792122, 1632478182096883, 1631170273972700, 1631170273972695, 1631170273971691, 1631170273971686, 1631170273970683, 1631170273970674, 1631170273969667, 1631170273969660, 1631170273968658, 1631170273967652, 1631170273967647, 1631170273966645, 1623763656129240]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1636795571689861, name=尖叫棚屋), GoodsServerSimpleDTO(id=1633690506792122, name=时间转换器), GoodsServerSimpleDTO(id=1632478182096883, name=巧克力蛙), GoodsServerSimpleDTO(id=1631170273972700, name=三把扫帚酒吧), GoodsServerSimpleDTO(id=1631170273972695, name=骑士巴士), GoodsServerSimpleDTO(id=1631170273971691, name=活点地图), GoodsServerSimpleDTO(id=1631170273971686, name=海外加速服), GoodsServerSimpleDTO(id=1631170273970683, name=金色飞贼), GoodsServerSimpleDTO(id=1631170273970674, name=分院帽), GoodsServerSimpleDTO(id=1631170273969667, name=密室), GoodsServerSimpleDTO(id=1631170273969660, name=古灵阁), GoodsServerSimpleDTO(id=1631170273968658, name=国王十字车站), GoodsServerSimpleDTO(id=1631170273967652, name=魔法部), GoodsServerSimpleDTO(id=1631170273967647, name=对角巷), GoodsServerSimpleDTO(id=1631170273966645, name=霍格沃茨), GoodsServerSimpleDTO(id=1623763656129240, name=苹果服务器)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>魔兽世界</t>
   </si>
   <si>
     <t>pc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1509678393168175</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1504179900363374, 1504179900363373, 1504179900362372, 1504179900362370, 1504179900362368, 1504179900362367, 1504179900362366, 1504179900362365, 1504179900362362, 1504179900362361, 1504179900362357, 1504179900361356, 1504179900361355, 1504179900361354, 1504179900361353, 1504179900361352, 1504179900361351, 1504179900361350, 1504179900361349, 1504179900361348, 1504179900361347, 1504179900361345, 1504179900360344, 1504179900360339, 1504179900360338, 1504179900360337, 1504179900360334, 1504179900360332, 1504179900360331, 1504179900360328, 1504179900360325, 1504179900360324, 1504179900359323, 1504179900359322, 1504179900359320, 1504179900359319, 1504179900359318, 1504179900359316, 1504179900359315, 1504179900359312, 1504179900359311, 1504179900359309, 1504179900359308, 1504179900358307, 1504179900358306, 1504179900358305, 1504179900358304, 1504179900358302, 1504179900358301, 1504179900358299, 1504179900358298, 1504179900358296, 1504179900358293, 1504179900358292, 1504179900357290, 1504179900357289, 1504179900357288, 1504179900357287, 1504179900357286, 1504179900357282, 1504179900357279, 1504179900357277, 1504179900357276, 1504179900356272, 1504179643125821, 1504179643125820, 1504179643125819, 1504179643125818, 1504179643125817, 1504179643124816, 1504179643124814, 1504179643124813, 1504179643124811, 1504179643124809, 1504179643124808, 1504179643124807, 1504179643123806, 1504179643123805, 1504179643123803, 1504179643123802, 1504179643123799, 1504179643123797, 1504179643123796, 1504179643122793, 1504179643122792, 1504179643122791, 1504179643122788, 1504179643122787, 1504179643122786, 1504179643122785, 1504179643121783, 1504179643121782, 1504179643121780, 1504179643121776, 1504179643121775, 1504179643120772, 1504179643120770, 1504179643120769, 1504179643120768, 1504179643120766, 1504179643119761, 1504179643119760, 1504179643119758, 1504179643119756, 1504179643119753, 1504179643119751, 1504179643118749, 1504179643118747, 1504179643118746, 1504179643118745, 1504179643117742, 1504179643117740, 1504179643117737, 1504179643117735, 1504179643116734, 1504179643116733, 1504179643116732, 1504179643116730, 1504179643115728, 1504179643115727, 1504179643115725, 1504179643115724, 1504179643115722, 1504179643114719, 1504179643114718, 1504179643114717, 1504179643114714, 1504177898218963, 1504177898218961, 1504177898218960, 1504177898218958, 1504177898218957, 1504177898218956, 1504177898218955, 1504177898217954, 1504177898217953, 1504177898217951, 1504177898217950, 1504177898217948, 1504177898217947, 1504177898217945, 1504177898217942, 1504177898217940, 1504177898216939, 1504177898216936, 1504177898216934, 1504177898216933, 1504177898216932, 1504177898216931, 1504177898216930, 1504177898216929, 1504177898215927, 1504177898215926, 1504177898215924, 1504177898215923, 1504177898215922, 1504177898215921, 1504177898215919, 1504177898215917, 1504177898214915, 1504177898214913, 1504177898214911, 1504177898214908, 1504177898214905, 1504177898214904, 1504177898214903, 1504177898214901, 1504177898214899, 1504177898213898, 1504177898213897, 1504177898213896, 1504177898213895, 1504177898213894, 1504177898213893, 1504177898213892, 1504177898213891, 1504177898213889, 1504177898213888, 1504177898212887, 1504177898212886, 1504177898212884, 1504177898212882, 1504177898212880, 1504177898212878, 1504177898212876, 1504177898212875, 1504177879283789, 1504177879282785, 1504177879282784, 1504177879282783, 1504177879282782, 1504177879282779, 1504177879282777, 1504177879281773, 1504177879281772, 1504177879281771, 1504177879281769, 1504177879281768, 1504177879281767, 1504177879281766, 1504177879281765, 1504177879280764, 1504177879280763, 1504177879280762, 1504177879280761, 1504177879280759, 1504177879280756, 1504177879280754, 1504177879279752, 1504177879279751, 1504177879279750, 1504177879279749, 1504177879279748, 1504177879279747, 1504177879279746, 1504177879279745, 1504177879278744, 1504177879278743, 1504177879278742, 1504177879278740, 1504177879278738, 1504177879278737, 1504177879277735, 1504177879277734, 1504177879277731, 1504177879277730, 1504177879277729, 1504177879277728, 1504177433292878, 1504177433292876, 1504177433291874, 1504177433291873, 1504177433291871, 1504177433291869, 1504177433291868, 1504177433291867, 1504177433291866, 1504177433291865, 1504177433291864, 1504177433291863, 1504177433290862, 1504177433290861, 1504177433290860, 1504177433290859, 1504177433290858, 1504177433290857, 1504177433290856, 1504177433290855, 1504177433290854, 1504177433290852, 1504177433290850, 1504177433290848, 1504177433289847, 1504177433289846, 1504177433289845, 1504177433289844, 1504177433289843, 1504177433289842, 1504177433289841, 1504177433289840, 1504177433289839, 1504177433289838, 1504177433289837, 1504177433289836, 1504177433288835, 1504177433288834, 1504177433288833, 1504177433288832, 1504177433288831, 1504177433288829, 1504177433288826, 1504177433288825, 1504177433288824, 1504177433288823, 1504177433288822, 1504177433287821, 1504177433287820, 1504177433287819, 1504177433287818, 1504177433287816, 1504177433287815, 1504177433287814, 1504177433287813, 1504177433287812, 1504177433287811, 1504177433287810, 1504177433286808, 1504177433286807, 1504177433286806, 1504176951351428, 1504176951351427, 1504176951351426, 1504176951351425, 1504176951351424, 1504176951351421, 1504176951350420, 1504176951350419, 1504176951350418, 1504176951350417, 1504176951350416, 1504176951350415, 1504176951350414, 1504176951349413, 1504176951349412, 1504176951349411, 1504176951349410, 1504176951349409, 1504176951349408, 1504176951349404, 1504176951348403, 1504176951348402, 1504176951348401, 1504176951348399, 1504176951348398, 1504176951348397, 1504176951348396, 1504176951348395, 1504176951347394, 1504176951347393, 1504176951347392, 1504176951347391, 1504176951347390, 1504176951347389, 1504176951347388, 1504176951347387, 1504176951346386, 1504176951346385, 1504176951346384, 1504176951346383, 1504176951346382, 1504176951346381, 1504176951345379, 1504176951345378, 1504176951345377, 1504176951345375, 1504176951333360, 1504176951333359, 1504176951333358, 1504176951333356, 1504176951333355, 1504176951332354, 1504176951332353, 1504176951332352, 1504176951332351, 1504176951332350, 1504176951332349, 1504176951331348]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1504179900363374, name=主宰之剑), GoodsServerSimpleDTO(id=1504179900363373, name=逐日者), GoodsServerSimpleDTO(id=1504179900362372, name=远古海滩), GoodsServerSimpleDTO(id=1504179900362370, name=元素之力), GoodsServerSimpleDTO(id=1504179900362368, name=影之哀伤), GoodsServerSimpleDTO(id=1504179900362367, name=鹰巢山), GoodsServerSimpleDTO(id=1504179900362366, name=血羽), GoodsServerSimpleDTO(id=1504179900362365, name=血吼), GoodsServerSimpleDTO(id=1504179900362362, name=夏维安), GoodsServerSimpleDTO(id=1504179900362361, name=亡语者), GoodsServerSimpleDTO(id=1504179900362357, name=瓦拉纳), GoodsServerSimpleDTO(id=1504179900361356, name=踏梦者), GoodsServerSimpleDTO(id=1504179900361355, name=斯克提斯), GoodsServerSimpleDTO(id=1504179900361354, name=生态船), GoodsServerSimpleDTO(id=1504179900361353, name=闪电之刃), GoodsServerSimpleDTO(id=1504179900361352, name=沙怒), GoodsServerSimpleDTO(id=1504179900361351, name=森金), GoodsServerSimpleDTO(id=1504179900361350, name=萨洛拉丝), GoodsServerSimpleDTO(id=1504179900361349, name=熔火之心), GoodsServerSimpleDTO(id=1504179900361348, name=普瑞斯托), GoodsServerSimpleDTO(id=1504179900361347, name=贫瘠之地), GoodsServerSimpleDTO(id=1504179900361345, name=能源舰), GoodsServerSimpleDTO(id=1504179900360344, name=奈法利安), GoodsServerSimpleDTO(id=1504179900360339, name=末日行者), GoodsServerSimpleDTO(id=1504179900360338, name=梅尔加尼), GoodsServerSimpleDTO(id=1504179900360337, name=玛洛加尔), GoodsServerSimpleDTO(id=1504179900360334, name=洛肯), GoodsServerSimpleDTO(id=1504179900360332, name=兰娜瑟尔), GoodsServerSimpleDTO(id=1504179900360331, name=莱索恩), GoodsServerSimpleDTO(id=1504179900360328, name=军团要塞), GoodsServerSimpleDTO(id=1504179900360325, name=迦拉克隆), GoodsServerSimpleDTO(id=1504179900360324, name=加尔), GoodsServerSimpleDTO(id=1504179900359323, name=霍格), GoodsServerSimpleDTO(id=1504179900359322, name=毁灭之锤), GoodsServerSimpleDTO(id=1504179900359320, name=黑龙军团), GoodsServerSimpleDTO(id=1504179900359319, name=黑锋哨站), GoodsServerSimpleDTO(id=1504179900359318, name=黑暗之门), GoodsServerSimpleDTO(id=1504179900359316, name=嚎风峡湾), GoodsServerSimpleDTO(id=1504179900359315, name=海克泰尔), GoodsServerSimpleDTO(id=1504179900359312, name=古达克), GoodsServerSimpleDTO(id=1504179900359311, name=戈提克), GoodsServerSimpleDTO(id=1504179900359309, name=盖斯), GoodsServerSimpleDTO(id=1504179900359308, name=弗塞雷迦), GoodsServerSimpleDTO(id=1504179900358307, name=风暴峭壁), GoodsServerSimpleDTO(id=1504179900358306, name=菲米丝), GoodsServerSimpleDTO(id=1504179900358305, name=冬拥湖), GoodsServerSimpleDTO(id=1504179900358304, name=地狱咆哮), GoodsServerSimpleDTO(id=1504179900358302, name=迪托马斯), GoodsServerSimpleDTO(id=1504179900358301, name=达克萨隆), GoodsServerSimpleDTO(id=1504179900358299, name=达基萨斯), GoodsServerSimpleDTO(id=1504179900358298, name=达尔坎), GoodsServerSimpleDTO(id=1504179900358296, name=雏龙之翼), GoodsServerSimpleDTO(id=1504179900358293, name=冰霜之刃), GoodsServerSimpleDTO(id=1504179900358292, name=壁炉谷), GoodsServerSimpleDTO(id=1504179900357290, name=白骨荒野), GoodsServerSimpleDTO(id=1504179900357289, name=奥尔加隆), GoodsServerSimpleDTO(id=1504179900357288, name=奥杜尔), GoodsServerSimpleDTO(id=1504179900357287, name=安苏), GoodsServerSimpleDTO(id=1504179900357286, name=安其拉), GoodsServerSimpleDTO(id=1504179900357282, name=安加萨), GoodsServerSimpleDTO(id=1504179900357279, name=安格博达), GoodsServerSimpleDTO(id=1504179900357277, name=阿纳克洛斯), GoodsServerSimpleDTO(id=1504179900357276, name=阿曼尼), GoodsServerSimpleDTO(id=1504179900356272, name=阿比迪斯), GoodsServerSimpleDTO(id=1504179643125821, name=祖阿曼), GoodsServerSimpleDTO(id=1504179643125820, name=斩魔者), GoodsServerSimpleDTO(id=1504179643125819, name=扎拉赞恩), GoodsServerSimpleDTO(id=1504179643125818, name=幽暗沼泽), GoodsServerSimpleDTO(id=1504179643125817, name=永夜港), GoodsServerSimpleDTO(id=1504179643124816, name=银松森林), GoodsServerSimpleDTO(id=1504179643124814, name=伊森利恩), GoodsServerSimpleDTO(id=1504179643124813, name=伊森德雷), GoodsServerSimpleDTO(id=1504179643124811, name=伊萨里奥斯), GoodsServerSimpleDTO(id=1504179643124809, name=亚雷戈斯), GoodsServerSimpleDTO(id=1504179643124808, name=迅捷微风), GoodsServerSimpleDTO(id=1504179643124807, name=鲜血熔炉), GoodsServerSimpleDTO(id=1504179643123806, name=希雷诺斯), GoodsServerSimpleDTO(id=1504179643123805, name=无尽之海), GoodsServerSimpleDTO(id=1504179643123803, name=巫妖之王), GoodsServerSimpleDTO(id=1504179643123802, name=提尔之手), GoodsServerSimpleDTO(id=1504179643123799, name=塔纳利斯), GoodsServerSimpleDTO(id=1504179643123797, name=苏塔恩), GoodsServerSimpleDTO(id=1504179643123796, name=守护之剑), GoodsServerSimpleDTO(id=1504179643122793, name=石锤), GoodsServerSimpleDTO(id=1504179643122792, name=深渊之巢), GoodsServerSimpleDTO(id=1504179643122791, name=塞拉摩), GoodsServerSimpleDTO(id=1504179643122788, name=萨菲隆), GoodsServerSimpleDTO(id=1504179643122787, name=瑞文戴尔), GoodsServerSimpleDTO(id=1504179643122786, name=千针石林), GoodsServerSimpleDTO(id=1504179643122785, name=密林游侠), GoodsServerSimpleDTO(id=1504179643121783, name=米奈希尔), GoodsServerSimpleDTO(id=1504179643121782, name=麦维影歌), GoodsServerSimpleDTO(id=1504179643121780, name=麦姆), GoodsServerSimpleDTO(id=1504179643121776, name=玛法里奥), GoodsServerSimpleDTO(id=1504179643121775, name=烈焰荆棘), GoodsServerSimpleDTO(id=1504179643120772, name=雷霆之怒), GoodsServerSimpleDTO(id=1504179643120770, name=雷霆号角), GoodsServerSimpleDTO(id=1504179643120769, name=蓝龙军团), GoodsServerSimpleDTO(id=1504179643120768, name=奎尔萨拉斯), GoodsServerSimpleDTO(id=1504179643120766, name=狂热之刃), GoodsServerSimpleDTO(id=1504179643119761, name=库尔提拉斯), GoodsServerSimpleDTO(id=1504179643119760, name=克洛玛古斯), GoodsServerSimpleDTO(id=1504179643119758, name=卡珊德拉), GoodsServerSimpleDTO(id=1504179643119756, name=卡拉赞), GoodsServerSimpleDTO(id=1504179643119753, name=金度金色平原(RP)), GoodsServerSimpleDTO(id=1504179643119751, name=迦顿), GoodsServerSimpleDTO(id=1504179643118749, name=加兹鲁维), GoodsServerSimpleDTO(id=1504179643118747, name=基尔罗格), GoodsServerSimpleDTO(id=1504179643118746, name=黄金之路), GoodsServerSimpleDTO(id=1504179643118745, name=哈兰), GoodsServerSimpleDTO(id=1504179643117742, name=风暴之眼), GoodsServerSimpleDTO(id=1504179643117740, name=芬里斯), GoodsServerSimpleDTO(id=1504179643117737, name=翡翠梦境), GoodsServerSimpleDTO(id=1504179643117735, name=范达尔鹿盔), GoodsServerSimpleDTO(id=1504179643116734, name=法拉希姆), GoodsServerSimpleDTO(id=1504179643116733, name=厄祖玛特), GoodsServerSimpleDTO(id=1504179643116732, name=朵丹尼尔), GoodsServerSimpleDTO(id=1504179643116730, name=达斯雷玛), GoodsServerSimpleDTO(id=1504179643115728, name=刺骨利刃), GoodsServerSimpleDTO(id=1504179643115727, name=布兰卡德), GoodsServerSimpleDTO(id=1504179643115725, name=巴瑟拉斯), GoodsServerSimpleDTO(id=1504179643115724, name=奥金顿), GoodsServerSimpleDTO(id=1504179643115722, name=暗影之月), GoodsServerSimpleDTO(id=1504179643114719, name=暗影迷宫), GoodsServerSimpleDTO(id=1504179643114718, name=安威玛尔), GoodsServerSimpleDTO(id=1504179643114717, name=埃加洛尔), GoodsServerSimpleDTO(id=1504179643114714, name=埃基尔松), GoodsServerSimpleDTO(id=1504177898218963, name=祖尔金), GoodsServerSimpleDTO(id=1504177898218961, name=蜘蛛王国), GoodsServerSimpleDTO(id=1504177898218960, name=织亡者), GoodsServerSimpleDTO(id=1504177898218958, name=战歌), GoodsServerSimpleDTO(id=1504177898218957, name=勇士岛), GoodsServerSimpleDTO(id=1504177898218956, name=伊莫塔尔), GoodsServerSimpleDTO(id=1504177898218955, name=伊兰尼库斯), GoodsServerSimpleDTO(id=1504177898217954, name=血牙魔王), GoodsServerSimpleDTO(id=1504177898217953, name=血环), GoodsServerSimpleDTO(id=1504177898217951, name=熊猫酒仙), GoodsServerSimpleDTO(id=1504177898217950, name=希尔瓦娜斯), GoodsServerSimpleDTO(id=1504177898217948, name=沃金), GoodsServerSimpleDTO(id=1504177898217947, name=外域), GoodsServerSimpleDTO(id=1504177898217945, name=瓦丝琪), GoodsServerSimpleDTO(id=1504177898217942, name=托塞德林), GoodsServerSimpleDTO(id=1504177898217940, name=屠魔山谷), GoodsServerSimpleDTO(id=1504177898216939, name=天谴之门), GoodsServerSimpleDTO(id=1504177898216936, name=天空之墙), GoodsServerSimpleDTO(id=1504177898216934, name=泰兰德), GoodsServerSimpleDTO(id=1504177898216933, name=太阳之井), GoodsServerSimpleDTO(id=1504177898216932, name=索拉丁), GoodsServerSimpleDTO(id=1504177898216931, name=死亡熔炉), GoodsServerSimpleDTO(id=1504177898216930, name=石爪峰), GoodsServerSimpleDTO(id=1504177898216929, name=圣火神殿), GoodsServerSimpleDTO(id=1504177898215927, name=深渊之喉), GoodsServerSimpleDTO(id=1504177898215926, name=瑟莱德丝), GoodsServerSimpleDTO(id=1504177898215924, name=桑德兰), GoodsServerSimpleDTO(id=1504177898215923, name=塞泰克), GoodsServerSimpleDTO(id=1504177898215922, name=塞拉赞恩), GoodsServerSimpleDTO(id=1504177898215921, name=萨尔), GoodsServerSimpleDTO(id=1504177898215919, name=日落沼泽), GoodsServerSimpleDTO(id=1504177898215917, name=燃烧之刃), GoodsServerSimpleDTO(id=1504177898214915, name=燃烧军团), GoodsServerSimpleDTO(id=1504177898214913, name=破碎岭), GoodsServerSimpleDTO(id=1504177898214911, name=诺兹多姆), GoodsServerSimpleDTO(id=1504177898214908, name=诺森德), GoodsServerSimpleDTO(id=1504177898214905, name=耐普图隆), GoodsServerSimpleDTO(id=1504177898214904, name=奈萨里奥), GoodsServerSimpleDTO(id=1504177898214903, name=纳沙塔尔), GoodsServerSimpleDTO(id=1504177898214901, name=纳克萨玛斯), GoodsServerSimpleDTO(id=1504177898214899, name=暮色森林), GoodsServerSimpleDTO(id=1504177898213898, name=末日祷告祭坛), GoodsServerSimpleDTO(id=1504177898213897, name=梦境之树), GoodsServerSimpleDTO(id=1504177898213896, name=玛瑟里顿), GoodsServerSimpleDTO(id=1504177898213895, name=玛里苟斯), GoodsServerSimpleDTO(id=1504177898213894, name=洛丹伦), GoodsServerSimpleDTO(id=1504177898213893, name=罗曼斯), GoodsServerSimpleDTO(id=1504177898213892, name=雷克萨), GoodsServerSimpleDTO(id=1504177898213891, name=雷斧堡垒), GoodsServerSimpleDTO(id=1504177898213889, name=拉文凯斯), GoodsServerSimpleDTO(id=1504177898213888, name=拉贾克斯), GoodsServerSimpleDTO(id=1504177898212887, name=奎尔丹纳斯), GoodsServerSimpleDTO(id=1504177898212886, name=狂风峭壁), GoodsServerSimpleDTO(id=1504177898212884, name=恐怖图腾), GoodsServerSimpleDTO(id=1504177898212882, name=克苏恩), GoodsServerSimpleDTO(id=1504177898212880, name=凯恩血蹄), GoodsServerSimpleDTO(id=1504177898212878, name=卡德罗斯), GoodsServerSimpleDTO(id=1504177898212876, name=卡德加), GoodsServerSimpleDTO(id=1504177898212875, name=荆棘谷), GoodsServerSimpleDTO(id=1504177879283789, name=迦罗娜), GoodsServerSimpleDTO(id=1504177879282785, name=加基森), GoodsServerSimpleDTO(id=1504177879282784, name=激流之傲), GoodsServerSimpleDTO(id=1504177879282783, name=火羽山), GoodsServerSimpleDTO(id=1504177879282782, name=火喉), GoodsServerSimpleDTO(id=1504177879282779, name=灰谷), GoodsServerSimpleDTO(id=1504177879282777, name=红云台地), GoodsServerSimpleDTO(id=1504177879281773, name=红龙女王), GoodsServerSimpleDTO(id=1504177879281772, name=黑铁), GoodsServerSimpleDTO(id=1504177879281771, name=黑手军团), GoodsServerSimpleDTO(id=1504177879281769, name=黑暗之矛), GoodsServerSimpleDTO(id=1504177879281768, name=黑暗虚空), GoodsServerSimpleDTO(id=1504177879281767, name=黑暗魅影), GoodsServerSimpleDTO(id=1504177879281766, name=海加尔), GoodsServerSimpleDTO(id=1504177879281765, name=哈卡), GoodsServerSimpleDTO(id=1504177879280764, name=鬼雾峰), GoodsServerSimpleDTO(id=1504177879280763, name=古拉巴什), GoodsServerSimpleDTO(id=1504177879280762, name=古加尔), GoodsServerSimpleDTO(id=1504177879280761, name=格雷迈恩), GoodsServerSimpleDTO(id=1504177879280759, name=符文图腾), GoodsServerSimpleDTO(id=1504177879280756, name=凤凰之神), GoodsServerSimpleDTO(id=1504177879280754, name=风暴之怒), GoodsServerSimpleDTO(id=1504177879279752, name=风暴之鳞), GoodsServerSimpleDTO(id=1504177879279751, name=菲拉斯), GoodsServerSimpleDTO(id=1504177879279750, name=范克里夫), GoodsServerSimpleDTO(id=1504177879279749, name=恶魔之魂), GoodsServerSimpleDTO(id=1504177879279748, name=夺灵者), GoodsServerSimpleDTO(id=1504177879279747, name=杜隆坦), GoodsServerSimpleDTO(id=1504177879279746, name=迪瑟洛克), GoodsServerSimpleDTO(id=1504177879279745, name=德拉诺), GoodsServerSimpleDTO(id=1504177879278744, name=丹莫德), GoodsServerSimpleDTO(id=1504177879278743, name=大漩涡), GoodsServerSimpleDTO(id=1504177879278742, name=大地之怒), GoodsServerSimpleDTO(id=1504177879278740, name=达文格尔), GoodsServerSimpleDTO(id=1504177879278738, name=布鲁塔卢斯), GoodsServerSimpleDTO(id=1504177879278737, name=布莱克摩), GoodsServerSimpleDTO(id=1504177879277735, name=奥斯里安), GoodsServerSimpleDTO(id=1504177879277734, name=奥妮克希亚), GoodsServerSimpleDTO(id=1504177879277731, name=安纳塞隆), GoodsServerSimpleDTO(id=1504177879277730, name=安戈洛), GoodsServerSimpleDTO(id=1504177879277729, name=艾维娜), GoodsServerSimpleDTO(id=1504177879277728, name=艾萨拉), GoodsServerSimpleDTO(id=1504177433292878, name=死亡之翼), GoodsServerSimpleDTO(id=1504177433292876, name=洛宁), GoodsServerSimpleDTO(id=1504177433291874, name=白银之手), GoodsServerSimpleDTO(id=1504177433291873, name=格瑞姆巴托), GoodsServerSimpleDTO(id=1504177433291871, name=埃霍恩), GoodsServerSimpleDTO(id=1504177433291869, name=龙骨平原), GoodsServerSimpleDTO(id=1504177433291868, name=黑翼之巢), GoodsServerSimpleDTO(id=1504177433291867, name=黑石尖塔), GoodsServerSimpleDTO(id=1504177433291866, name=麦迪文), GoodsServerSimpleDTO(id=1504177433291865, name=风行者), GoodsServerSimpleDTO(id=1504177433291864, name=霜狼), GoodsServerSimpleDTO(id=1504177433291863, name=雷霆之王), GoodsServerSimpleDTO(id=1504177433290862, name=阿迦玛甘), GoodsServerSimpleDTO(id=1504177433290861, name=阿拉索), GoodsServerSimpleDTO(id=1504177433290860, name=阿拉希), GoodsServerSimpleDTO(id=1504177433290859, name=阿尔萨斯), GoodsServerSimpleDTO(id=1504177433290858, name=阿古斯), GoodsServerSimpleDTO(id=1504177433290857, name=阿卡玛), GoodsServerSimpleDTO(id=1504177433290856, name=阿努巴拉克), GoodsServerSimpleDTO(id=1504177433290855, name=银月), GoodsServerSimpleDTO(id=1504177433290854, name=铜龙军团), GoodsServerSimpleDTO(id=1504177433290852, name=通灵学院), GoodsServerSimpleDTO(id=1504177433290850, name=迦玛兰), GoodsServerSimpleDTO(id=1504177433290848, name=达隆米尔), GoodsServerSimpleDTO(id=1504177433289847, name=达纳斯), GoodsServerSimpleDTO(id=1504177433289846, name=轻风之语), GoodsServerSimpleDTO(id=1504177433289845, name=诺莫瑞根), GoodsServerSimpleDTO(id=1504177433289844, name=试炼之环), GoodsServerSimpleDTO(id=1504177433289843, name=血顶), GoodsServerSimpleDTO(id=1504177433289842, name=血色十字军), GoodsServerSimpleDTO(id=1504177433289841, name=藏宝海湾), GoodsServerSimpleDTO(id=1504177433289840, name=萨格拉斯), GoodsServerSimpleDTO(id=1504177433289839, name=艾苏恩), GoodsServerSimpleDTO(id=1504177433289838, name=艾欧纳尔), GoodsServerSimpleDTO(id=1504177433289837, name=艾森娜), GoodsServerSimpleDTO(id=1504177433289836, name=自由之风), GoodsServerSimpleDTO(id=1504177433288835, name=耳语海岸), GoodsServerSimpleDTO(id=1504177433288834, name=耐奥祖), GoodsServerSimpleDTO(id=1504177433288833, name=羽月), GoodsServerSimpleDTO(id=1504177433288832, name=红龙军团), GoodsServerSimpleDTO(id=1504177433288831, name=索瑞森), GoodsServerSimpleDTO(id=1504177433288829, name=穆戈尔), GoodsServerSimpleDTO(id=1504177433288826, name=祖达克), GoodsServerSimpleDTO(id=1504177433288825, name=甜水绿洲), GoodsServerSimpleDTO(id=1504177433288824, name=瓦里玛萨斯), GoodsServerSimpleDTO(id=1504177433288823, name=瓦拉斯塔兹), GoodsServerSimpleDTO(id=1504177433288822, name=玛诺洛斯), GoodsServerSimpleDTO(id=1504177433287821, name=玛多兰), GoodsServerSimpleDTO(id=1504177433287820, name=爱斯特纳), GoodsServerSimpleDTO(id=1504177433287819, name=燃烧平原), GoodsServerSimpleDTO(id=1504177433287818, name=熵魔), GoodsServerSimpleDTO(id=1504177433287816, name=烈焰峰), GoodsServerSimpleDTO(id=1504177433287815, name=火焰之树), GoodsServerSimpleDTO(id=1504177433287814, name=火焰之谷), GoodsServerSimpleDTO(id=1504177433287813, name=激流堡), GoodsServerSimpleDTO(id=1504177433287812, name=海达希亚), GoodsServerSimpleDTO(id=1504177433287811, name=洛萨), GoodsServerSimpleDTO(id=1504177433287810, name=泰拉尔), GoodsServerSimpleDTO(id=1504177433286808, name=永恒之井), GoodsServerSimpleDTO(id=1504177433286807, name=格鲁尔), GoodsServerSimpleDTO(id=1504177433286806, name=月神殿), GoodsServerSimpleDTO(id=1504176951351428, name=月光林地), GoodsServerSimpleDTO(id=1504176951351427, name=暴风祭坛), GoodsServerSimpleDTO(id=1504176951351426, name=暗影议会), GoodsServerSimpleDTO(id=1504176951351425, name=普罗德摩), GoodsServerSimpleDTO(id=1504176951351424, name=无底海渊), GoodsServerSimpleDTO(id=1504176951351421, name=斯坦索姆), GoodsServerSimpleDTO(id=1504176951350420, name=摩摩尔), GoodsServerSimpleDTO(id=1504176951350419, name=提瑞斯法), GoodsServerSimpleDTO(id=1504176951350418, name=拉格纳罗斯), GoodsServerSimpleDTO(id=1504176951350417, name=拉文霍德), GoodsServerSimpleDTO(id=1504176951350416, name=托尔巴拉德), GoodsServerSimpleDTO(id=1504176951350415, name=戈古纳斯), GoodsServerSimpleDTO(id=1504176951350414, name=影魔之翼), GoodsServerSimpleDTO(id=1504176951349413, name=影牙要塞), GoodsServerSimpleDTO(id=1504176951349412, name=库德兰), GoodsServerSimpleDTO(id=1504176951349411, name=布莱恩), GoodsServerSimpleDTO(id=1504176951349410, name=巴纳扎尔), GoodsServerSimpleDTO(id=1504176951349409, name=巴尔古恩), GoodsServerSimpleDTO(id=1504176951349408, name=巨龙之吼), GoodsServerSimpleDTO(id=1504176951349404, name=山丘之王), GoodsServerSimpleDTO(id=1504176951348403, name=尘风峡谷), GoodsServerSimpleDTO(id=1504176951348402, name=寒冰皇冠), GoodsServerSimpleDTO(id=1504176951348401, name=安东尼达斯), GoodsServerSimpleDTO(id=1504176951348399, name=奥达曼), GoodsServerSimpleDTO(id=1504176951348398, name=奥蕾莉亚), GoodsServerSimpleDTO(id=1504176951348397, name=奥拉基尔), GoodsServerSimpleDTO(id=1504176951348396, name=塞纳留斯), GoodsServerSimpleDTO(id=1504176951348395, name=塔伦米尔), GoodsServerSimpleDTO(id=1504176951347394, name=基尔加丹), GoodsServerSimpleDTO(id=1504176951347393, name=埃雷达尔), GoodsServerSimpleDTO(id=1504176951347392, name=埃苏雷格), GoodsServerSimpleDTO(id=1504176951347391, name=地狱之石), GoodsServerSimpleDTO(id=1504176951347390, name=图拉杨), GoodsServerSimpleDTO(id=1504176951347389, name=国王之谷), GoodsServerSimpleDTO(id=1504176951347388, name=古尔丹), GoodsServerSimpleDTO(id=1504176951347387, name=双子峰), GoodsServerSimpleDTO(id=1504176951346386, name=卡扎克), GoodsServerSimpleDTO(id=1504176951346385, name=加里索斯), GoodsServerSimpleDTO(id=1504176951346384, name=利刃之拳), GoodsServerSimpleDTO(id=1504176951346383, name=刀塔), GoodsServerSimpleDTO(id=1504176951346382, name=凯尔萨斯), GoodsServerSimpleDTO(id=1504176951346381, name=冰风岗), GoodsServerSimpleDTO(id=1504176951345379, name=冰川之拳), GoodsServerSimpleDTO(id=1504176951345378, name=冬泉谷), GoodsServerSimpleDTO(id=1504176951345377, name=冬寒), GoodsServerSimpleDTO(id=1504176951345375, name=克尔苏加德), GoodsServerSimpleDTO(id=1504176951333360, name=伊瑟拉), GoodsServerSimpleDTO(id=1504176951333359, name=伊利丹), GoodsServerSimpleDTO(id=1504176951333358, name=世界之树), GoodsServerSimpleDTO(id=1504176951333356, name=万色星辰), GoodsServerSimpleDTO(id=1504176951333355, name=辛达苟萨), GoodsServerSimpleDTO(id=1504176951332354, name=暗影裂口), GoodsServerSimpleDTO(id=1504176951332353, name=时光之穴), GoodsServerSimpleDTO(id=1504176951332352, name=霜之哀伤), GoodsServerSimpleDTO(id=1504176951332351, name=遗忘海岸), GoodsServerSimpleDTO(id=1504176951332350, name=神圣之歌), GoodsServerSimpleDTO(id=1504176951332349, name=奥特兰克), GoodsServerSimpleDTO(id=1504176951331348, name=回音山)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>QQ帐号【优质商家】</t>
@@ -621,86 +621,86 @@
   </si>
   <si>
     <t>安卓</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1642581061788074</t>
   </si>
   <si>
     <t>[1629972230918815, 1629972230918805, 1629972230917799, 1629972230917792, 1629972230916785, 1629972230916780, 1629972230915775, 1629972230915765, 1629972230914760, 1629972230914752, 1629972230913747, 1629972230913741, 1629972230912736, 1629972230912728, 1629972230912724, 1629972230911714, 1629972230911702, 1629972230910687, 1629972230910678, 1629972230909674, 1629972230909668, 1629972230908662, 1629972230908654, 1629972230907645, 1629972230907639, 1629972230906629, 1629972230906626, 1629972230905621, 1629972230905612, 1629972230904604, 1629972230904600, 1629972230904593, 1629972230903584, 1629972230903578, 1629972230902567, 1629972230902554, 1629972230901544, 1629972230901534, 1629972230900528, 1629972230900523, 1629972230899514, 1629972230899507, 1629972230898504, 1629972230898498, 1629972230897493, 1629972230897485, 1629972230896482, 1629972230896474, 1629972230895468, 1629972230895462, 1629972230894457, 1629972230894451, 1629972230893444, 1629972230893439, 1629972230893432, 1629972230892422, 1629972230892414, 1629972230891405, 1629972230891401, 1629972230890394, 1629972230890386, 1629972230889382, 1629972230889379, 1629972230888370, 1629972230888365, 1629972230887354, 1629972230887350, 1629972230886343, 1629972230886335, 1629972230885330, 1629972230885328, 1629972230884318, 1629972230884313, 1629972230883310, 1629972230883305, 1629972230882293, 1629972230882283, 1629972230881277, 1629972230881273, 1629972230880262, 1629972230880254, 1629972230879251, 1629972230879243, 1629972230878237, 1629972230878230, 1629972230877223, 1629972230877217, 1629972230876207, 1629972230876198, 1629972230875192, 1629972230875185, 1629972230874175, 1629972230874171, 1629972230873166, 1629972230873159, 1629972230872150, 1629972230871141, 1629972230871136, 1629972230870123, 1629972230870110, 1531903059072340, 1520564679426026, 1517377231343510, 1517377231343504, 1517377231343501, 1517377231343493, 1517377231342492, 1517377231342482, 1517377231342481, 1517377231342479, 1517377231342477, 1517377231342471, 1517377231341467, 1517377231341465, 1517377231341461, 1517377231341459, 1517377231341456, 1517377231340452, 1517377231340449, 1517377231340448, 1517377231340441, 1517377231340434, 1517377231339429, 1517377231339424, 1517377231339421, 1517377231339419, 1517377231339412, 1517377231338408, 1517377231338402, 1517377231338395, 1517377231338394, 1517377231338392, 1517377231338388, 1517377231337385, 1517377231337381, 1517377231337377, 1517377231337371, 1517377231337368, 1517377231336363, 1517377231336358, 1517377231336355, 1517377231336351, 1517377231336349, 1517377231335346, 1517377231335344, 1517377231335342, 1517377231335340, 1517377231335338, 1517377231335333, 1517377231334331, 1517377231334327, 1517377231334321, 1513927206134583, 1513927206133579, 1513927206133578, 1513927206133577, 1513927206132575, 1513927206132572, 1513927206132571, 1513927206132570, 1513927206132568, 1513927206132566, 1513927206132565, 1513927206131564, 1513927206131563, 1513927206131561, 1513927206131560, 1513927206131558, 1513927206131552, 1513927206130551, 1513927206130550, 1513927206130549, 1513927206130547, 1513927206130546, 1513927206130545, 1513927206130543, 1513927206129542, 1513927206129541, 1513927206129540, 1513927206129538, 1513927206129536, 1513927206129535, 1513927206128534, 1513927206128532, 1513927206128530, 1513927206127528, 1513927206127526, 1513927206127525, 1513927206127524, 1513927206127523, 1513927206127522, 1513927206127520, 1513927206126519, 1513927206126518, 1513927206126514, 1513927206126513, 1513927206126512, 1513927206126510, 1513927206125509, 1513927206125508, 1513927206125507, 1513927206125506, 1513927161515401, 1513927161514400, 1513927161514397, 1513927161514396, 1513927161514395, 1513927161514394, 1513927161514392, 1513927161514389, 1513927161513387, 1513927161513386, 1513927161513385, 1513927161513384, 1513927161513382, 1513927161513381, 1513927161513380, 1513927161512379, 1513927161512378, 1513927161512377, 1513927161512376, 1513927161512375, 1513927161512374, 1513927161512373, 1513927161512371, 1513927161511370, 1513927161511369, 1513927161511367, 1513927161511365, 1513927161511363, 1513927161511362, 1513927161511361, 1513927161510360, 1513927161510358, 1513927161510357, 1513927161510356, 1513927161510354, 1513927161510352, 1513927161509350, 1513927161509349, 1513927161509348, 1513927161509347, 1513927161509345, 1513927161509344, 1513927161509343, 1513927161508342, 1513927161508341, 1513927161508340, 1513927161508339, 1513927161508337, 1513927161508336, 1513927161507334, 1512550100923871, 1213664, 1213663, 1213662, 1213661, 1213660, 1213659, 1213658, 1213657, 1213656, 1213655, 1213654, 1213653, 1213652, 1213651, 1213650, 1213649, 1213648, 1213647, 1213646, 1213645, 1213644, 1213643, 1213642, 1213641, 1213640, 1213639, 1213638, 1213637, 1213636, 1213635, 1213634, 1213633, 1213632, 1213631, 1213630, 1213629, 1213628, 1213627, 1213626, 1213625, 1213624, 1213623, 1213622, 1213621, 937470, 937469, 937468, 937467, 937466, 937465, 937464, 937463, 937462, 937461, 937460, 937459, 937458, 937457, 937456, 937455, 937454, 937453, 937452, 937451, 937450, 937449, 937448, 937447, 937446, 937445, 937444, 937443, 937442, 937441, 937440, 937439, 937438, 937437, 937436, 937435, 937434, 937433, 937432, 937431, 937430, 937429, 937428, 937427, 937426, 937425, 937424, 937423, 937422, 937421, 937420, 937419, 937418, 937417, 937416, 937415, 937414, 937413, 937412, 937411, 937410, 937409, 937408, 937407, 937406, 937405, 849912, 849911, 849910, 849909, 849908, 849907, 849906, 849905, 849904, 849903, 849902, 849901, 849900, 849899, 849898, 849897, 849896, 849895, 849894, 849893, 849892, 849891, 849890, 849889, 849888, 849887, 849886, 849885, 849884, 849883, 849882, 849881, 849880, 849879, 849878, 849877, 849876, 849875, 849874, 849873, 767437, 767436, 767435, 767434, 767433, 767432, 767431, 767430, 767429, 767428, 767427, 767426, 767425, 767424, 767423, 767422, 767421, 767420, 767419, 767418, 767417, 767416, 767415, 767414, 767413, 767412, 767411, 767410, 767409, 767408, 724467, 724466, 724465, 724464, 724463, 724462, 724461, 724460, 724459, 724458, 724457, 724456, 724455, 724454, 724453, 724452, 724451, 724450, 724449, 724448, 724447, 724446, 724445, 724444, 724443, 724442, 724441, 724440, 724439, 724438, 724437, 724436, 724435, 724434, 724433, 724432, 724431, 724430, 724429, 724428, 629740, 629739, 629738, 629737, 629736, 629735, 629734, 629733, 629732, 629731, 629730, 629729, 629728, 629727, 629726, 629725, 629724, 629723, 629722, 629721, 629720, 629719, 629718, 629717, 629716, 629715, 629714, 629713, 629712, 629711]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1629972230918815, name=手Q500区), GoodsServerSimpleDTO(id=1629972230918805, name=手Q499区), GoodsServerSimpleDTO(id=1629972230917799, name=手Q498区), GoodsServerSimpleDTO(id=1629972230917792, name=手Q497区), GoodsServerSimpleDTO(id=1629972230916785, name=手Q496区), GoodsServerSimpleDTO(id=1629972230916780, name=手Q495区), GoodsServerSimpleDTO(id=1629972230915775, name=手Q494区), GoodsServerSimpleDTO(id=1629972230915765, name=手Q493区), GoodsServerSimpleDTO(id=1629972230914760, name=手Q492区), GoodsServerSimpleDTO(id=1629972230914752, name=手Q491区), GoodsServerSimpleDTO(id=1629972230913747, name=手Q490区), GoodsServerSimpleDTO(id=1629972230913741, name=手Q489区), GoodsServerSimpleDTO(id=1629972230912736, name=手Q488区), GoodsServerSimpleDTO(id=1629972230912728, name=手Q487区), GoodsServerSimpleDTO(id=1629972230912724, name=手Q486区), GoodsServerSimpleDTO(id=1629972230911714, name=手Q485区), GoodsServerSimpleDTO(id=1629972230911702, name=手Q484区), GoodsServerSimpleDTO(id=1629972230910687, name=手Q483区), GoodsServerSimpleDTO(id=1629972230910678, name=手Q482区), GoodsServerSimpleDTO(id=1629972230909674, name=手Q481区), GoodsServerSimpleDTO(id=1629972230909668, name=手Q480区), GoodsServerSimpleDTO(id=1629972230908662, name=手Q479区), GoodsServerSimpleDTO(id=1629972230908654, name=手Q478区), GoodsServerSimpleDTO(id=1629972230907645, name=手Q477区), GoodsServerSimpleDTO(id=1629972230907639, name=手Q476区), GoodsServerSimpleDTO(id=1629972230906629, name=手Q475区), GoodsServerSimpleDTO(id=1629972230906626, name=手Q474区), GoodsServerSimpleDTO(id=1629972230905621, name=手Q473区), GoodsServerSimpleDTO(id=1629972230905612, name=手Q472区), GoodsServerSimpleDTO(id=1629972230904604, name=手Q471区), GoodsServerSimpleDTO(id=1629972230904600, name=手Q470区), GoodsServerSimpleDTO(id=1629972230904593, name=手Q469区), GoodsServerSimpleDTO(id=1629972230903584, name=手Q468区), GoodsServerSimpleDTO(id=1629972230903578, name=手Q467区), GoodsServerSimpleDTO(id=1629972230902567, name=手Q466区), GoodsServerSimpleDTO(id=1629972230902554, name=手Q465区), GoodsServerSimpleDTO(id=1629972230901544, name=手Q464区), GoodsServerSimpleDTO(id=1629972230901534, name=手Q463区), GoodsServerSimpleDTO(id=1629972230900528, name=手Q462区), GoodsServerSimpleDTO(id=1629972230900523, name=手Q461区), GoodsServerSimpleDTO(id=1629972230899514, name=手Q460区), GoodsServerSimpleDTO(id=1629972230899507, name=手Q459区), GoodsServerSimpleDTO(id=1629972230898504, name=手Q458区), GoodsServerSimpleDTO(id=1629972230898498, name=手Q457区), GoodsServerSimpleDTO(id=1629972230897493, name=手Q456区), GoodsServerSimpleDTO(id=1629972230897485, name=手Q455区), GoodsServerSimpleDTO(id=1629972230896482, name=手Q454区), GoodsServerSimpleDTO(id=1629972230896474, name=手Q453区), GoodsServerSimpleDTO(id=1629972230895468, name=手Q452区), GoodsServerSimpleDTO(id=1629972230895462, name=手Q451区), GoodsServerSimpleDTO(id=1629972230894457, name=手Q450区), GoodsServerSimpleDTO(id=1629972230894451, name=手Q449区), GoodsServerSimpleDTO(id=1629972230893444, name=手Q448区), GoodsServerSimpleDTO(id=1629972230893439, name=手Q447区), GoodsServerSimpleDTO(id=1629972230893432, name=手Q446区), GoodsServerSimpleDTO(id=1629972230892422, name=手Q445区), GoodsServerSimpleDTO(id=1629972230892414, name=手Q444区), GoodsServerSimpleDTO(id=1629972230891405, name=手Q443区), GoodsServerSimpleDTO(id=1629972230891401, name=手Q442区), GoodsServerSimpleDTO(id=1629972230890394, name=手Q441区), GoodsServerSimpleDTO(id=1629972230890386, name=手Q440区), GoodsServerSimpleDTO(id=1629972230889382, name=手Q439区), GoodsServerSimpleDTO(id=1629972230889379, name=手Q438区), GoodsServerSimpleDTO(id=1629972230888370, name=手Q437区), GoodsServerSimpleDTO(id=1629972230888365, name=手Q436区), GoodsServerSimpleDTO(id=1629972230887354, name=手Q435区), GoodsServerSimpleDTO(id=1629972230887350, name=手Q434区), GoodsServerSimpleDTO(id=1629972230886343, name=手Q433区), GoodsServerSimpleDTO(id=1629972230886335, name=手Q432区), GoodsServerSimpleDTO(id=1629972230885330, name=手Q431区), GoodsServerSimpleDTO(id=1629972230885328, name=手Q430区), GoodsServerSimpleDTO(id=1629972230884318, name=手Q429区), GoodsServerSimpleDTO(id=1629972230884313, name=手Q428区), GoodsServerSimpleDTO(id=1629972230883310, name=手Q427区), GoodsServerSimpleDTO(id=1629972230883305, name=手Q426区), GoodsServerSimpleDTO(id=1629972230882293, name=手Q425区), GoodsServerSimpleDTO(id=1629972230882283, name=手Q424区), GoodsServerSimpleDTO(id=1629972230881277, name=手Q423区), GoodsServerSimpleDTO(id=1629972230881273, name=手Q422区), GoodsServerSimpleDTO(id=1629972230880262, name=手Q421区), GoodsServerSimpleDTO(id=1629972230880254, name=手Q420区), GoodsServerSimpleDTO(id=1629972230879251, name=手Q419区), GoodsServerSimpleDTO(id=1629972230879243, name=手Q418区), GoodsServerSimpleDTO(id=1629972230878237, name=手Q417区), GoodsServerSimpleDTO(id=1629972230878230, name=手Q416区), GoodsServerSimpleDTO(id=1629972230877223, name=手Q415区), GoodsServerSimpleDTO(id=1629972230877217, name=手Q414区), GoodsServerSimpleDTO(id=1629972230876207, name=手Q413区), GoodsServerSimpleDTO(id=1629972230876198, name=手Q412区), GoodsServerSimpleDTO(id=1629972230875192, name=手Q411区), GoodsServerSimpleDTO(id=1629972230875185, name=手Q410区), GoodsServerSimpleDTO(id=1629972230874175, name=手Q409区), GoodsServerSimpleDTO(id=1629972230874171, name=手Q408区), GoodsServerSimpleDTO(id=1629972230873166, name=手Q407区), GoodsServerSimpleDTO(id=1629972230873159, name=手Q406区), GoodsServerSimpleDTO(id=1629972230872150, name=手Q405区), GoodsServerSimpleDTO(id=1629972230871141, name=手Q404区), GoodsServerSimpleDTO(id=1629972230871136, name=手Q403区), GoodsServerSimpleDTO(id=1629972230870123, name=手Q402区), GoodsServerSimpleDTO(id=1629972230870110, name=手Q401区), GoodsServerSimpleDTO(id=1531903059072340, name=安卓全平台通用), GoodsServerSimpleDTO(id=1520564679426026, name=手Q全服通用), GoodsServerSimpleDTO(id=1517377231343510, name=手Q400区), GoodsServerSimpleDTO(id=1517377231343504, name=手Q399区), GoodsServerSimpleDTO(id=1517377231343501, name=手Q398区), GoodsServerSimpleDTO(id=1517377231343493, name=手Q397区), GoodsServerSimpleDTO(id=1517377231342492, name=手Q396区), GoodsServerSimpleDTO(id=1517377231342482, name=手Q395区), GoodsServerSimpleDTO(id=1517377231342481, name=手Q394区), GoodsServerSimpleDTO(id=1517377231342479, name=手Q393区), GoodsServerSimpleDTO(id=1517377231342477, name=手Q392区), GoodsServerSimpleDTO(id=1517377231342471, name=手Q391区), GoodsServerSimpleDTO(id=1517377231341467, name=手Q390区), GoodsServerSimpleDTO(id=1517377231341465, name=手Q389区), GoodsServerSimpleDTO(id=1517377231341461, name=手Q388区), GoodsServerSimpleDTO(id=1517377231341459, name=手Q387区), GoodsServerSimpleDTO(id=1517377231341456, name=手Q386区), GoodsServerSimpleDTO(id=1517377231340452, name=手Q385区), GoodsServerSimpleDTO(id=1517377231340449, name=手Q384区), GoodsServerSimpleDTO(id=1517377231340448, name=手Q383区), GoodsServerSimpleDTO(id=1517377231340441, name=手Q382区), GoodsServerSimpleDTO(id=1517377231340434, name=手Q381区), GoodsServerSimpleDTO(id=1517377231339429, name=手Q380区), GoodsServerSimpleDTO(id=1517377231339424, name=手Q379区), GoodsServerSimpleDTO(id=1517377231339421, name=手Q378区), GoodsServerSimpleDTO(id=1517377231339419, name=手Q377区), GoodsServerSimpleDTO(id=1517377231339412, name=手Q376区), GoodsServerSimpleDTO(id=1517377231338408, name=手Q375区), GoodsServerSimpleDTO(id=1517377231338402, name=手Q374区), GoodsServerSimpleDTO(id=1517377231338395, name=手Q373区), GoodsServerSimpleDTO(id=1517377231338394, name=手Q372区), GoodsServerSimpleDTO(id=1517377231338392, name=手Q371区), GoodsServerSimpleDTO(id=1517377231338388, name=手Q370区), GoodsServerSimpleDTO(id=1517377231337385, name=手Q369区), GoodsServerSimpleDTO(id=1517377231337381, name=手Q368区), GoodsServerSimpleDTO(id=1517377231337377, name=手Q367区), GoodsServerSimpleDTO(id=1517377231337371, name=手Q366区), GoodsServerSimpleDTO(id=1517377231337368, name=手Q365区), GoodsServerSimpleDTO(id=1517377231336363, name=手Q364区), GoodsServerSimpleDTO(id=1517377231336358, name=手Q363区), GoodsServerSimpleDTO(id=1517377231336355, name=手Q362区), GoodsServerSimpleDTO(id=1517377231336351, name=手Q361区), GoodsServerSimpleDTO(id=1517377231336349, name=手Q360区), GoodsServerSimpleDTO(id=1517377231335346, name=手Q359区), GoodsServerSimpleDTO(id=1517377231335344, name=手Q358区), GoodsServerSimpleDTO(id=1517377231335342, name=手Q357区), GoodsServerSimpleDTO(id=1517377231335340, name=手Q356区), GoodsServerSimpleDTO(id=1517377231335338, name=手Q355区), GoodsServerSimpleDTO(id=1517377231335333, name=手Q354区), GoodsServerSimpleDTO(id=1517377231334331, name=手Q353区), GoodsServerSimpleDTO(id=1517377231334327, name=手Q352区), GoodsServerSimpleDTO(id=1517377231334321, name=手Q351区), GoodsServerSimpleDTO(id=1513927206134583, name=手Q350区), GoodsServerSimpleDTO(id=1513927206133579, name=手Q349区), GoodsServerSimpleDTO(id=1513927206133578, name=手Q348区), GoodsServerSimpleDTO(id=1513927206133577, name=手Q347区), GoodsServerSimpleDTO(id=1513927206132575, name=手Q346区), GoodsServerSimpleDTO(id=1513927206132572, name=手Q345区), GoodsServerSimpleDTO(id=1513927206132571, name=手Q344区), GoodsServerSimpleDTO(id=1513927206132570, name=手Q343区), GoodsServerSimpleDTO(id=1513927206132568, name=手Q342区), GoodsServerSimpleDTO(id=1513927206132566, name=手Q341区), GoodsServerSimpleDTO(id=1513927206132565, name=手Q340区), GoodsServerSimpleDTO(id=1513927206131564, name=手Q339区), GoodsServerSimpleDTO(id=1513927206131563, name=手Q338区), GoodsServerSimpleDTO(id=1513927206131561, name=手Q337区), GoodsServerSimpleDTO(id=1513927206131560, name=手Q336区), GoodsServerSimpleDTO(id=1513927206131558, name=手Q335区), GoodsServerSimpleDTO(id=1513927206131552, name=手Q334区), GoodsServerSimpleDTO(id=1513927206130551, name=手Q333区), GoodsServerSimpleDTO(id=1513927206130550, name=手Q332区), GoodsServerSimpleDTO(id=1513927206130549, name=手Q331区), GoodsServerSimpleDTO(id=1513927206130547, name=手Q330区), GoodsServerSimpleDTO(id=1513927206130546, name=手Q329区), GoodsServerSimpleDTO(id=1513927206130545, name=手Q328区), GoodsServerSimpleDTO(id=1513927206130543, name=手Q327区), GoodsServerSimpleDTO(id=1513927206129542, name=手Q326区), GoodsServerSimpleDTO(id=1513927206129541, name=手Q325区), GoodsServerSimpleDTO(id=1513927206129540, name=手Q324区), GoodsServerSimpleDTO(id=1513927206129538, name=手Q323区), GoodsServerSimpleDTO(id=1513927206129536, name=手Q322区), GoodsServerSimpleDTO(id=1513927206129535, name=手Q321区), GoodsServerSimpleDTO(id=1513927206128534, name=手Q320区), GoodsServerSimpleDTO(id=1513927206128532, name=手Q319区), GoodsServerSimpleDTO(id=1513927206128530, name=手Q318区), GoodsServerSimpleDTO(id=1513927206127528, name=手Q317区), GoodsServerSimpleDTO(id=1513927206127526, name=手Q316区), GoodsServerSimpleDTO(id=1513927206127525, name=手Q315区), GoodsServerSimpleDTO(id=1513927206127524, name=手Q314区), GoodsServerSimpleDTO(id=1513927206127523, name=手Q313区), GoodsServerSimpleDTO(id=1513927206127522, name=手Q312区), GoodsServerSimpleDTO(id=1513927206127520, name=手Q311区), GoodsServerSimpleDTO(id=1513927206126519, name=手Q310区), GoodsServerSimpleDTO(id=1513927206126518, name=手Q309区), GoodsServerSimpleDTO(id=1513927206126514, name=手Q308区), GoodsServerSimpleDTO(id=1513927206126513, name=手Q307区), GoodsServerSimpleDTO(id=1513927206126512, name=手Q306区), GoodsServerSimpleDTO(id=1513927206126510, name=手Q305区), GoodsServerSimpleDTO(id=1513927206125509, name=手Q304区), GoodsServerSimpleDTO(id=1513927206125508, name=手Q303区), GoodsServerSimpleDTO(id=1513927206125507, name=手Q302区), GoodsServerSimpleDTO(id=1513927206125506, name=手Q301区), GoodsServerSimpleDTO(id=1513927161515401, name=手Q300区), GoodsServerSimpleDTO(id=1513927161514400, name=手Q299区), GoodsServerSimpleDTO(id=1513927161514397, name=手Q298区), GoodsServerSimpleDTO(id=1513927161514396, name=手Q297区), GoodsServerSimpleDTO(id=1513927161514395, name=手Q296区), GoodsServerSimpleDTO(id=1513927161514394, name=手Q295区), GoodsServerSimpleDTO(id=1513927161514392, name=手Q294区), GoodsServerSimpleDTO(id=1513927161514389, name=手Q293区), GoodsServerSimpleDTO(id=1513927161513387, name=手Q292区), GoodsServerSimpleDTO(id=1513927161513386, name=手Q291区), GoodsServerSimpleDTO(id=1513927161513385, name=手Q290区), GoodsServerSimpleDTO(id=1513927161513384, name=手Q289区), GoodsServerSimpleDTO(id=1513927161513382, name=手Q288区), GoodsServerSimpleDTO(id=1513927161513381, name=手Q287区), GoodsServerSimpleDTO(id=1513927161513380, name=手Q286区), GoodsServerSimpleDTO(id=1513927161512379, name=手Q285区), GoodsServerSimpleDTO(id=1513927161512378, name=手Q284区), GoodsServerSimpleDTO(id=1513927161512377, name=手Q283区), GoodsServerSimpleDTO(id=1513927161512376, name=手Q282区), GoodsServerSimpleDTO(id=1513927161512375, name=手Q281区), GoodsServerSimpleDTO(id=1513927161512374, name=手Q280区), GoodsServerSimpleDTO(id=1513927161512373, name=手Q279区), GoodsServerSimpleDTO(id=1513927161512371, name=手Q278区), GoodsServerSimpleDTO(id=1513927161511370, name=手Q277区), GoodsServerSimpleDTO(id=1513927161511369, name=手Q276区), GoodsServerSimpleDTO(id=1513927161511367, name=手Q275区), GoodsServerSimpleDTO(id=1513927161511365, name=手Q274区), GoodsServerSimpleDTO(id=1513927161511363, name=手Q273区), GoodsServerSimpleDTO(id=1513927161511362, name=手Q272区), GoodsServerSimpleDTO(id=1513927161511361, name=手Q271区), GoodsServerSimpleDTO(id=1513927161510360, name=手Q270区), GoodsServerSimpleDTO(id=1513927161510358, name=手Q269区), GoodsServerSimpleDTO(id=1513927161510357, name=手Q268区), GoodsServerSimpleDTO(id=1513927161510356, name=手Q267区), GoodsServerSimpleDTO(id=1513927161510354, name=手Q266区), GoodsServerSimpleDTO(id=1513927161510352, name=手Q265区), GoodsServerSimpleDTO(id=1513927161509350, name=手Q264区), GoodsServerSimpleDTO(id=1513927161509349, name=手Q263区), GoodsServerSimpleDTO(id=1513927161509348, name=手Q262区), GoodsServerSimpleDTO(id=1513927161509347, name=手Q261区), GoodsServerSimpleDTO(id=1513927161509345, name=手Q260区), GoodsServerSimpleDTO(id=1513927161509344, name=手Q259区), GoodsServerSimpleDTO(id=1513927161509343, name=手Q258区), GoodsServerSimpleDTO(id=1513927161508342, name=手Q257区), GoodsServerSimpleDTO(id=1513927161508341, name=手Q256区), GoodsServerSimpleDTO(id=1513927161508340, name=手Q255区), GoodsServerSimpleDTO(id=1513927161508339, name=手Q254区), GoodsServerSimpleDTO(id=1513927161508337, name=手Q253区), GoodsServerSimpleDTO(id=1513927161508336, name=手Q252区), GoodsServerSimpleDTO(id=1513927161507334, name=手Q251区), GoodsServerSimpleDTO(id=1512550100923871, name=QQ王者抢先服), GoodsServerSimpleDTO(id=1213664, name=手Q250区), GoodsServerSimpleDTO(id=1213663, name=手Q249区), GoodsServerSimpleDTO(id=1213662, name=手Q248区), GoodsServerSimpleDTO(id=1213661, name=手Q247区), GoodsServerSimpleDTO(id=1213660, name=手Q246区), GoodsServerSimpleDTO(id=1213659, name=手Q245区), GoodsServerSimpleDTO(id=1213658, name=手Q244区), GoodsServerSimpleDTO(id=1213657, name=手Q243区), GoodsServerSimpleDTO(id=1213656, name=手Q242区), GoodsServerSimpleDTO(id=1213655, name=手Q241区), GoodsServerSimpleDTO(id=1213654, name=手Q240区), GoodsServerSimpleDTO(id=1213653, name=手Q239区), GoodsServerSimpleDTO(id=1213652, name=手Q238区), GoodsServerSimpleDTO(id=1213651, name=手Q237区), GoodsServerSimpleDTO(id=1213650, name=手Q236区), GoodsServerSimpleDTO(id=1213649, name=手Q235区), GoodsServerSimpleDTO(id=1213648, name=手Q234区), GoodsServerSimpleDTO(id=1213647, name=手Q233区), GoodsServerSimpleDTO(id=1213646, name=手Q232区), GoodsServerSimpleDTO(id=1213645, name=手Q231区), GoodsServerSimpleDTO(id=1213644, name=手Q230区), GoodsServerSimpleDTO(id=1213643, name=手Q229区), GoodsServerSimpleDTO(id=1213642, name=手Q228区), GoodsServerSimpleDTO(id=1213641, name=手Q227区), GoodsServerSimpleDTO(id=1213640, name=手Q226区), GoodsServerSimpleDTO(id=1213639, name=手Q225区), GoodsServerSimpleDTO(id=1213638, name=手Q224区), GoodsServerSimpleDTO(id=1213637, name=手Q223区), GoodsServerSimpleDTO(id=1213636, name=手Q222区), GoodsServerSimpleDTO(id=1213635, name=手Q221区), GoodsServerSimpleDTO(id=1213634, name=手Q220区), GoodsServerSimpleDTO(id=1213633, name=手Q219区), GoodsServerSimpleDTO(id=1213632, name=手Q218区), GoodsServerSimpleDTO(id=1213631, name=手Q217区), GoodsServerSimpleDTO(id=1213630, name=手Q216区), GoodsServerSimpleDTO(id=1213629, name=手Q215区), GoodsServerSimpleDTO(id=1213628, name=手Q214区), GoodsServerSimpleDTO(id=1213627, name=手Q213区), GoodsServerSimpleDTO(id=1213626, name=手Q212区), GoodsServerSimpleDTO(id=1213625, name=手Q211区), GoodsServerSimpleDTO(id=1213624, name=手Q210区), GoodsServerSimpleDTO(id=1213623, name=手Q209区), GoodsServerSimpleDTO(id=1213622, name=手Q208区), GoodsServerSimpleDTO(id=1213621, name=手Q207区), GoodsServerSimpleDTO(id=937470, name=手Q206区), GoodsServerSimpleDTO(id=937469, name=手Q205区), GoodsServerSimpleDTO(id=937468, name=手Q204区), GoodsServerSimpleDTO(id=937467, name=手Q203区), GoodsServerSimpleDTO(id=937466, name=手Q202区), GoodsServerSimpleDTO(id=937465, name=手Q201区), GoodsServerSimpleDTO(id=937464, name=手Q200区), GoodsServerSimpleDTO(id=937463, name=手Q199区), GoodsServerSimpleDTO(id=937462, name=手Q198区), GoodsServerSimpleDTO(id=937461, name=手Q197区), GoodsServerSimpleDTO(id=937460, name=手Q196区), GoodsServerSimpleDTO(id=937459, name=手Q195区), GoodsServerSimpleDTO(id=937458, name=手Q194区), GoodsServerSimpleDTO(id=937457, name=手Q193区), GoodsServerSimpleDTO(id=937456, name=手Q192区), GoodsServerSimpleDTO(id=937455, name=手Q191区), GoodsServerSimpleDTO(id=937454, name=手Q190区), GoodsServerSimpleDTO(id=937453, name=手Q189区), GoodsServerSimpleDTO(id=937452, name=手Q188区), GoodsServerSimpleDTO(id=937451, name=手Q187区), GoodsServerSimpleDTO(id=937450, name=手Q186区), GoodsServerSimpleDTO(id=937449, name=手Q185区), GoodsServerSimpleDTO(id=937448, name=手Q184区), GoodsServerSimpleDTO(id=937447, name=手Q183区), GoodsServerSimpleDTO(id=937446, name=手Q182区), GoodsServerSimpleDTO(id=937445, name=手Q181区), GoodsServerSimpleDTO(id=937444, name=手Q180区), GoodsServerSimpleDTO(id=937443, name=手Q179区), GoodsServerSimpleDTO(id=937442, name=手Q178区), GoodsServerSimpleDTO(id=937441, name=手Q177区), GoodsServerSimpleDTO(id=937440, name=手Q176区), GoodsServerSimpleDTO(id=937439, name=手Q175区), GoodsServerSimpleDTO(id=937438, name=手Q174区), GoodsServerSimpleDTO(id=937437, name=手Q173区), GoodsServerSimpleDTO(id=937436, name=手Q172区), GoodsServerSimpleDTO(id=937435, name=手Q171区), GoodsServerSimpleDTO(id=937434, name=手Q170区), GoodsServerSimpleDTO(id=937433, name=手Q169区), GoodsServerSimpleDTO(id=937432, name=手Q168区), GoodsServerSimpleDTO(id=937431, name=手Q167区), GoodsServerSimpleDTO(id=937430, name=手Q166区), GoodsServerSimpleDTO(id=937429, name=手Q165区), GoodsServerSimpleDTO(id=937428, name=手Q164区), GoodsServerSimpleDTO(id=937427, name=手Q163区), GoodsServerSimpleDTO(id=937426, name=手Q162区), GoodsServerSimpleDTO(id=937425, name=手Q161区), GoodsServerSimpleDTO(id=937424, name=手Q160区), GoodsServerSimpleDTO(id=937423, name=手Q159区), GoodsServerSimpleDTO(id=937422, name=手Q158区), GoodsServerSimpleDTO(id=937421, name=手Q157区), GoodsServerSimpleDTO(id=937420, name=手Q156区), GoodsServerSimpleDTO(id=937419, name=手Q155区), GoodsServerSimpleDTO(id=937418, name=手Q154区), GoodsServerSimpleDTO(id=937417, name=手Q153区), GoodsServerSimpleDTO(id=937416, name=手Q152区), GoodsServerSimpleDTO(id=937415, name=手Q151区), GoodsServerSimpleDTO(id=937414, name=手Q150区), GoodsServerSimpleDTO(id=937413, name=手Q149区), GoodsServerSimpleDTO(id=937412, name=手Q148区), GoodsServerSimpleDTO(id=937411, name=手Q147区), GoodsServerSimpleDTO(id=937410, name=手Q146区), GoodsServerSimpleDTO(id=937409, name=手Q145区), GoodsServerSimpleDTO(id=937408, name=手Q144区), GoodsServerSimpleDTO(id=937407, name=手Q143区), GoodsServerSimpleDTO(id=937406, name=手Q142区), GoodsServerSimpleDTO(id=937405, name=手Q141区), GoodsServerSimpleDTO(id=849912, name=手Q140区), GoodsServerSimpleDTO(id=849911, name=手Q139区), GoodsServerSimpleDTO(id=849910, name=手Q138区), GoodsServerSimpleDTO(id=849909, name=手Q137区), GoodsServerSimpleDTO(id=849908, name=手Q136区), GoodsServerSimpleDTO(id=849907, name=手Q135区), GoodsServerSimpleDTO(id=849906, name=手Q134区), GoodsServerSimpleDTO(id=849905, name=手Q133区), GoodsServerSimpleDTO(id=849904, name=手Q132区), GoodsServerSimpleDTO(id=849903, name=手Q131区), GoodsServerSimpleDTO(id=849902, name=手Q130区), GoodsServerSimpleDTO(id=849901, name=手Q129区), GoodsServerSimpleDTO(id=849900, name=手Q128区), GoodsServerSimpleDTO(id=849899, name=手Q127区), GoodsServerSimpleDTO(id=849898, name=手Q126区), GoodsServerSimpleDTO(id=849897, name=手Q125区), GoodsServerSimpleDTO(id=849896, name=手Q124区), GoodsServerSimpleDTO(id=849895, name=手Q123区), GoodsServerSimpleDTO(id=849894, name=手Q122区), GoodsServerSimpleDTO(id=849893, name=手Q121区), GoodsServerSimpleDTO(id=849892, name=手Q120区), GoodsServerSimpleDTO(id=849891, name=手Q119区), GoodsServerSimpleDTO(id=849890, name=手Q118区), GoodsServerSimpleDTO(id=849889, name=手Q117区), GoodsServerSimpleDTO(id=849888, name=手Q116区), GoodsServerSimpleDTO(id=849887, name=手Q115区), GoodsServerSimpleDTO(id=849886, name=手Q114区), GoodsServerSimpleDTO(id=849885, name=手Q113区), GoodsServerSimpleDTO(id=849884, name=手Q112区), GoodsServerSimpleDTO(id=849883, name=手Q111区), GoodsServerSimpleDTO(id=849882, name=手Q110区), GoodsServerSimpleDTO(id=849881, name=手Q109区), GoodsServerSimpleDTO(id=849880, name=手Q108区), GoodsServerSimpleDTO(id=849879, name=手Q107区), GoodsServerSimpleDTO(id=849878, name=手Q106区), GoodsServerSimpleDTO(id=849877, name=手Q105区), GoodsServerSimpleDTO(id=849876, name=手Q104区), GoodsServerSimpleDTO(id=849875, name=手Q103区), GoodsServerSimpleDTO(id=849874, name=手Q102区), GoodsServerSimpleDTO(id=849873, name=手Q101区), GoodsServerSimpleDTO(id=767437, name=手Q100区), GoodsServerSimpleDTO(id=767436, name=手Q99区), GoodsServerSimpleDTO(id=767435, name=手Q98区), GoodsServerSimpleDTO(id=767434, name=手Q97区), GoodsServerSimpleDTO(id=767433, name=手Q96区), GoodsServerSimpleDTO(id=767432, name=手Q95区), GoodsServerSimpleDTO(id=767431, name=手Q94区), GoodsServerSimpleDTO(id=767430, name=手Q93区), GoodsServerSimpleDTO(id=767429, name=手Q92区), GoodsServerSimpleDTO(id=767428, name=手Q91区), GoodsServerSimpleDTO(id=767427, name=手Q90区), GoodsServerSimpleDTO(id=767426, name=手Q89区), GoodsServerSimpleDTO(id=767425, name=手Q88区), GoodsServerSimpleDTO(id=767424, name=手Q87区), GoodsServerSimpleDTO(id=767423, name=手Q86区), GoodsServerSimpleDTO(id=767422, name=手Q85区), GoodsServerSimpleDTO(id=767421, name=手Q84区), GoodsServerSimpleDTO(id=767420, name=手Q83区), GoodsServerSimpleDTO(id=767419, name=手Q82区), GoodsServerSimpleDTO(id=767418, name=手Q81区), GoodsServerSimpleDTO(id=767417, name=手Q80区), GoodsServerSimpleDTO(id=767416, name=手Q79区), GoodsServerSimpleDTO(id=767415, name=手Q78区), GoodsServerSimpleDTO(id=767414, name=手Q77区), GoodsServerSimpleDTO(id=767413, name=手Q76区), GoodsServerSimpleDTO(id=767412, name=手Q75区), GoodsServerSimpleDTO(id=767411, name=手Q74区), GoodsServerSimpleDTO(id=767410, name=手Q73区), GoodsServerSimpleDTO(id=767409, name=手Q72区), GoodsServerSimpleDTO(id=767408, name=手Q71区), GoodsServerSimpleDTO(id=724467, name=手Q70区), GoodsServerSimpleDTO(id=724466, name=手Q69区), GoodsServerSimpleDTO(id=724465, name=手Q68区), GoodsServerSimpleDTO(id=724464, name=手Q67区), GoodsServerSimpleDTO(id=724463, name=手Q66区), GoodsServerSimpleDTO(id=724462, name=手Q65区), GoodsServerSimpleDTO(id=724461, name=手Q64区), GoodsServerSimpleDTO(id=724460, name=手Q63区), GoodsServerSimpleDTO(id=724459, name=手Q62区), GoodsServerSimpleDTO(id=724458, name=手Q61区), GoodsServerSimpleDTO(id=724457, name=手Q60区), GoodsServerSimpleDTO(id=724456, name=手Q59区), GoodsServerSimpleDTO(id=724455, name=手Q58区), GoodsServerSimpleDTO(id=724454, name=手Q57区), GoodsServerSimpleDTO(id=724453, name=手Q56区), GoodsServerSimpleDTO(id=724452, name=手Q55区), GoodsServerSimpleDTO(id=724451, name=手Q54区), GoodsServerSimpleDTO(id=724450, name=手Q53区), GoodsServerSimpleDTO(id=724449, name=手Q52区), GoodsServerSimpleDTO(id=724448, name=手Q51区), GoodsServerSimpleDTO(id=724447, name=手Q50区), GoodsServerSimpleDTO(id=724446, name=手Q49区), GoodsServerSimpleDTO(id=724445, name=手Q48区), GoodsServerSimpleDTO(id=724444, name=手Q47区), GoodsServerSimpleDTO(id=724443, name=手Q46区), GoodsServerSimpleDTO(id=724442, name=手Q45区), GoodsServerSimpleDTO(id=724441, name=手Q44区), GoodsServerSimpleDTO(id=724440, name=手Q43区), GoodsServerSimpleDTO(id=724439, name=手Q42区), GoodsServerSimpleDTO(id=724438, name=手Q41区), GoodsServerSimpleDTO(id=724437, name=手Q40区), GoodsServerSimpleDTO(id=724436, name=手Q39区), GoodsServerSimpleDTO(id=724435, name=手Q38区), GoodsServerSimpleDTO(id=724434, name=手Q37区), GoodsServerSimpleDTO(id=724433, name=手Q36区), GoodsServerSimpleDTO(id=724432, name=手Q35区), GoodsServerSimpleDTO(id=724431, name=手Q34区), GoodsServerSimpleDTO(id=724430, name=手Q33区), GoodsServerSimpleDTO(id=724429, name=手Q32区), GoodsServerSimpleDTO(id=724428, name=手Q31区), GoodsServerSimpleDTO(id=629740, name=手Q30区), GoodsServerSimpleDTO(id=629739, name=手Q29区), GoodsServerSimpleDTO(id=629738, name=手Q28区), GoodsServerSimpleDTO(id=629737, name=手Q27区), GoodsServerSimpleDTO(id=629736, name=手Q26区), GoodsServerSimpleDTO(id=629735, name=手Q25区), GoodsServerSimpleDTO(id=629734, name=手Q24区), GoodsServerSimpleDTO(id=629733, name=手Q23区), GoodsServerSimpleDTO(id=629732, name=手Q22区), GoodsServerSimpleDTO(id=629731, name=手Q21区), GoodsServerSimpleDTO(id=629730, name=手Q20区), GoodsServerSimpleDTO(id=629729, name=手Q19区), GoodsServerSimpleDTO(id=629728, name=手Q18区), GoodsServerSimpleDTO(id=629727, name=手Q17区), GoodsServerSimpleDTO(id=629726, name=手Q16区), GoodsServerSimpleDTO(id=629725, name=手Q15区), GoodsServerSimpleDTO(id=629724, name=手Q14区), GoodsServerSimpleDTO(id=629723, name=手Q13区), GoodsServerSimpleDTO(id=629722, name=手Q12区), GoodsServerSimpleDTO(id=629721, name=手Q11区), GoodsServerSimpleDTO(id=629720, name=手Q10区), GoodsServerSimpleDTO(id=629719, name=手Q9区), GoodsServerSimpleDTO(id=629718, name=手Q8区), GoodsServerSimpleDTO(id=629717, name=手Q7区), GoodsServerSimpleDTO(id=629716, name=手Q6区), GoodsServerSimpleDTO(id=629715, name=手Q5区), GoodsServerSimpleDTO(id=629714, name=手Q4区), GoodsServerSimpleDTO(id=629713, name=手Q3区), GoodsServerSimpleDTO(id=629712, name=手Q2区), GoodsServerSimpleDTO(id=629711, name=手Q1区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1642579812094077</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903059072340, name=安卓全平台通用), GoodsServerSimpleDTO(id=1520565457289056, name=安卓微信400区), GoodsServerSimpleDTO(id=1520565457289055, name=安卓微信399区), GoodsServerSimpleDTO(id=1520565457289053, name=安卓微信398区), GoodsServerSimpleDTO(id=1520565457289052, name=安卓微信397区), GoodsServerSimpleDTO(id=1520565457289051, name=安卓微信396区), GoodsServerSimpleDTO(id=1520565457289049, name=安卓微信395区), GoodsServerSimpleDTO(id=1520565457289048, name=安卓微信394区), GoodsServerSimpleDTO(id=1520565457288047, name=安卓微信393区), GoodsServerSimpleDTO(id=1520565457288046, name=安卓微信392区), GoodsServerSimpleDTO(id=1520565457288045, name=安卓微信391区), GoodsServerSimpleDTO(id=1520565457288044, name=安卓微信390区), GoodsServerSimpleDTO(id=1520565457288043, name=安卓微信389区), GoodsServerSimpleDTO(id=1520565457288042, name=安卓微信388区), GoodsServerSimpleDTO(id=1520565457288041, name=安卓微信387区), GoodsServerSimpleDTO(id=1520565457287040, name=安卓微信386区), GoodsServerSimpleDTO(id=1520565457287038, name=安卓微信385区), GoodsServerSimpleDTO(id=1520565457287035, name=安卓微信384区), GoodsServerSimpleDTO(id=1520565457287032, name=安卓微信383区), GoodsServerSimpleDTO(id=1520565457287031, name=安卓微信382区), GoodsServerSimpleDTO(id=1520565457287028, name=安卓微信381区), GoodsServerSimpleDTO(id=1520565457287027, name=安卓微信380区), GoodsServerSimpleDTO(id=1520565457287025, name=安卓微信379区), GoodsServerSimpleDTO(id=1520565457286024, name=安卓微信378区), GoodsServerSimpleDTO(id=1520565457286023, name=安卓微信377区), GoodsServerSimpleDTO(id=1520565457286022, name=安卓微信376区), GoodsServerSimpleDTO(id=1520565457286021, name=安卓微信375区), GoodsServerSimpleDTO(id=1520565457286020, name=安卓微信374区), GoodsServerSimpleDTO(id=1520565457286019, name=安卓微信373区), GoodsServerSimpleDTO(id=1520565457286017, name=安卓微信372区), GoodsServerSimpleDTO(id=1520565457286016, name=安卓微信371区), GoodsServerSimpleDTO(id=1520565457285015, name=安卓微信370区), GoodsServerSimpleDTO(id=1520565457285014, name=安卓微信369区), GoodsServerSimpleDTO(id=1520565457285010, name=安卓微信368区), GoodsServerSimpleDTO(id=1520565457285009, name=安卓微信367区), GoodsServerSimpleDTO(id=1520565457284003, name=安卓微信366区), GoodsServerSimpleDTO(id=1520565457284999, name=安卓微信365区), GoodsServerSimpleDTO(id=1520565457284998, name=安卓微信364区), GoodsServerSimpleDTO(id=1520565457284997, name=安卓微信363区), GoodsServerSimpleDTO(id=1520565457284996, name=安卓微信362区), GoodsServerSimpleDTO(id=1520565457284994, name=安卓微信361区), GoodsServerSimpleDTO(id=1520565457283993, name=安卓微信360区), GoodsServerSimpleDTO(id=1520565457283990, name=安卓微信359区), GoodsServerSimpleDTO(id=1520565457283989, name=安卓微信358区), GoodsServerSimpleDTO(id=1520565457283985, name=安卓微信357区), GoodsServerSimpleDTO(id=1520565457283984, name=安卓微信356区), GoodsServerSimpleDTO(id=1520565457283982, name=安卓微信355区), GoodsServerSimpleDTO(id=1520565457283981, name=安卓微信354区), GoodsServerSimpleDTO(id=1520565457282980, name=安卓微信353区), GoodsServerSimpleDTO(id=1520565457282979, name=安卓微信352区), GoodsServerSimpleDTO(id=1520565457282976, name=安卓微信351区), GoodsServerSimpleDTO(id=1520565437178021, name=安卓微信350区), GoodsServerSimpleDTO(id=1520565437178019, name=安卓微信349区), GoodsServerSimpleDTO(id=1520565437178017, name=安卓微信348区), GoodsServerSimpleDTO(id=1520565437178016, name=安卓微信347区), GoodsServerSimpleDTO(id=1520565437178012, name=安卓微信346区), GoodsServerSimpleDTO(id=1520565437177011, name=安卓微信345区), GoodsServerSimpleDTO(id=1520565437177010, name=安卓微信344区), GoodsServerSimpleDTO(id=1520565437176004, name=安卓微信343区), GoodsServerSimpleDTO(id=1520565437176001, name=安卓微信342区), GoodsServerSimpleDTO(id=1520565437175999, name=安卓微信341区), GoodsServerSimpleDTO(id=1520565437175998, name=安卓微信340区), GoodsServerSimpleDTO(id=1520565437175994, name=安卓微信339区), GoodsServerSimpleDTO(id=1520565437175990, name=安卓微信338区), GoodsServerSimpleDTO(id=1520565437174987, name=安卓微信337区), GoodsServerSimpleDTO(id=1520565437174985, name=安卓微信336区), GoodsServerSimpleDTO(id=1520565437174984, name=安卓微信335区), GoodsServerSimpleDTO(id=1520565437174982, name=安卓微信334区), GoodsServerSimpleDTO(id=1520565437174980, name=安卓微信333区), GoodsServerSimpleDTO(id=1520565437174978, name=安卓微信332区), GoodsServerSimpleDTO(id=1520565437174976, name=安卓微信331区), GoodsServerSimpleDTO(id=1520565437173973, name=安卓微信330区), GoodsServerSimpleDTO(id=1520565437173970, name=安卓微信329区), GoodsServerSimpleDTO(id=1520565437173968, name=安卓微信328区), GoodsServerSimpleDTO(id=1520565437173967, name=安卓微信327区), GoodsServerSimpleDTO(id=1520565437173966, name=安卓微信326区), GoodsServerSimpleDTO(id=1520565437173963, name=安卓微信325区), GoodsServerSimpleDTO(id=1520565437172962, name=安卓微信324区), GoodsServerSimpleDTO(id=1520565437172961, name=安卓微信323区), GoodsServerSimpleDTO(id=1520565437172959, name=安卓微信322区), GoodsServerSimpleDTO(id=1520565437172956, name=安卓微信321区), GoodsServerSimpleDTO(id=1520565437172954, name=安卓微信320区), GoodsServerSimpleDTO(id=1520565437172953, name=安卓微信319区), GoodsServerSimpleDTO(id=1520565437172952, name=安卓微信318区), GoodsServerSimpleDTO(id=1520565437171951, name=安卓微信317区), GoodsServerSimpleDTO(id=1520565437171949, name=安卓微信316区), GoodsServerSimpleDTO(id=1520565437171946, name=安卓微信315区), GoodsServerSimpleDTO(id=1520565437171943, name=安卓微信314区), GoodsServerSimpleDTO(id=1520565437171941, name=安卓微信313区), GoodsServerSimpleDTO(id=1520565437171940, name=安卓微信312区), GoodsServerSimpleDTO(id=1520565437170937, name=安卓微信311区), GoodsServerSimpleDTO(id=1520565437170936, name=安卓微信310区), GoodsServerSimpleDTO(id=1520565437170935, name=安卓微信309区), GoodsServerSimpleDTO(id=1520565437170933, name=安卓微信308区), GoodsServerSimpleDTO(id=1520565437170932, name=安卓微信307区), GoodsServerSimpleDTO(id=1520565437170927, name=安卓微信306区), GoodsServerSimpleDTO(id=1520565437169924, name=安卓微信305区), GoodsServerSimpleDTO(id=1520565437169921, name=安卓微信304区), GoodsServerSimpleDTO(id=1520565437169919, name=安卓微信303区), GoodsServerSimpleDTO(id=1520565437169918, name=安卓微信302区), GoodsServerSimpleDTO(id=1520565437169917, name=安卓微信301区), GoodsServerSimpleDTO(id=1520565413160035, name=安卓微信300区), GoodsServerSimpleDTO(id=1520565413160034, name=安卓微信299区), GoodsServerSimpleDTO(id=1520565413160033, name=安卓微信298区), GoodsServerSimpleDTO(id=1520565413160031, name=安卓微信297区), GoodsServerSimpleDTO(id=1520565413160030, name=安卓微信296区), GoodsServerSimpleDTO(id=1520565413160029, name=安卓微信295区), GoodsServerSimpleDTO(id=1520565413160028, name=安卓微信294区), GoodsServerSimpleDTO(id=1520565413160027, name=安卓微信293区), GoodsServerSimpleDTO(id=1520565413159026, name=安卓微信292区), GoodsServerSimpleDTO(id=1520565413159024, name=安卓微信291区), GoodsServerSimpleDTO(id=1520565413159023, name=安卓微信290区), GoodsServerSimpleDTO(id=1520565413159022, name=安卓微信289区), GoodsServerSimpleDTO(id=1520565413159021, name=安卓微信288区), GoodsServerSimpleDTO(id=1520565413159020, name=安卓微信287区), GoodsServerSimpleDTO(id=1520565413159019, name=安卓微信286区), GoodsServerSimpleDTO(id=1520565413159018, name=安卓微信285区), GoodsServerSimpleDTO(id=1520565413159017, name=安卓微信284区), GoodsServerSimpleDTO(id=1520565413159016, name=安卓微信283区), GoodsServerSimpleDTO(id=1520565413159015, name=安卓微信282区), GoodsServerSimpleDTO(id=1520565413158014, name=安卓微信281区), GoodsServerSimpleDTO(id=1520565413158013, name=安卓微信280区), GoodsServerSimpleDTO(id=1520565413158012, name=安卓微信279区), GoodsServerSimpleDTO(id=1520565413158011, name=安卓微信278区), GoodsServerSimpleDTO(id=1520565413158010, name=安卓微信277区), GoodsServerSimpleDTO(id=1520565413158009, name=安卓微信276区), GoodsServerSimpleDTO(id=1520565413158008, name=安卓微信275区), GoodsServerSimpleDTO(id=1520565413158007, name=安卓微信274区), GoodsServerSimpleDTO(id=1520565413158006, name=安卓微信273区), GoodsServerSimpleDTO(id=1520565413158004, name=安卓微信272区), GoodsServerSimpleDTO(id=1520565413158003, name=安卓微信271区), GoodsServerSimpleDTO(id=1520565413157002, name=安卓微信270区), GoodsServerSimpleDTO(id=1520565413157001, name=安卓微信269区), GoodsServerSimpleDTO(id=1520565413157999, name=安卓微信268区), GoodsServerSimpleDTO(id=1520565413157998, name=安卓微信267区), GoodsServerSimpleDTO(id=1520565413157997, name=安卓微信266区), GoodsServerSimpleDTO(id=1520565413156995, name=安卓微信265区), GoodsServerSimpleDTO(id=1520565413156994, name=安卓微信264区), GoodsServerSimpleDTO(id=1520565413156993, name=安卓微信263区), GoodsServerSimpleDTO(id=1520565413156992, name=安卓微信262区), GoodsServerSimpleDTO(id=1520565413156990, name=安卓微信261区), GoodsServerSimpleDTO(id=1520565413156987, name=安卓微信260区), GoodsServerSimpleDTO(id=1520565413156986, name=安卓微信259区), GoodsServerSimpleDTO(id=1520565413156985, name=安卓微信258区), GoodsServerSimpleDTO(id=1520565413156984, name=安卓微信257区), GoodsServerSimpleDTO(id=1520565413155983, name=安卓微信256区), GoodsServerSimpleDTO(id=1520565413155982, name=安卓微信255区), GoodsServerSimpleDTO(id=1520565413155980, name=安卓微信254区), GoodsServerSimpleDTO(id=1520565413155979, name=安卓微信253区), GoodsServerSimpleDTO(id=1520565413155978, name=安卓微信252区), GoodsServerSimpleDTO(id=1520565413155977, name=安卓微信251区), GoodsServerSimpleDTO(id=1520565387477445, name=安卓微信250区), GoodsServerSimpleDTO(id=1520565387477443, name=安卓微信249区), GoodsServerSimpleDTO(id=1520565387476441, name=安卓微信248区), GoodsServerSimpleDTO(id=1520565387476440, name=安卓微信247区), GoodsServerSimpleDTO(id=1520565387476438, name=安卓微信246区), GoodsServerSimpleDTO(id=1520565387476437, name=安卓微信245区), GoodsServerSimpleDTO(id=1520565387476434, name=安卓微信244区), GoodsServerSimpleDTO(id=1520565387476432, name=安卓微信243区), GoodsServerSimpleDTO(id=1520565387476430, name=安卓微信242区), GoodsServerSimpleDTO(id=1520565387476429, name=安卓微信241区), GoodsServerSimpleDTO(id=1520565387476427, name=安卓微信240区), GoodsServerSimpleDTO(id=1520565387475423, name=安卓微信239区), GoodsServerSimpleDTO(id=1520565387475422, name=安卓微信238区), GoodsServerSimpleDTO(id=1520565387475421, name=安卓微信237区), GoodsServerSimpleDTO(id=1520565387475419, name=安卓微信236区), GoodsServerSimpleDTO(id=1520565387475418, name=安卓微信235区), GoodsServerSimpleDTO(id=1520565387475414, name=安卓微信234区), GoodsServerSimpleDTO(id=1520565387475412, name=安卓微信233区), GoodsServerSimpleDTO(id=1520565387475411, name=安卓微信232区), GoodsServerSimpleDTO(id=1520565387475409, name=安卓微信231区), GoodsServerSimpleDTO(id=1520564772841752, name=微信全服通用), GoodsServerSimpleDTO(id=1512550113721286, name=王者抢先服), GoodsServerSimpleDTO(id=1510736392178892, name=安卓微信230区), GoodsServerSimpleDTO(id=1510736392178890, name=安卓微信229区), GoodsServerSimpleDTO(id=1510736392178889, name=安卓微信228区), GoodsServerSimpleDTO(id=1510736392178888, name=安卓微信227区), GoodsServerSimpleDTO(id=1510736392178886, name=安卓微信226区), GoodsServerSimpleDTO(id=1510736392177883, name=安卓微信225区), GoodsServerSimpleDTO(id=1510736392177880, name=安卓微信224区), GoodsServerSimpleDTO(id=1510736392177879, name=安卓微信223区), GoodsServerSimpleDTO(id=1510736392177877, name=安卓微信222区), GoodsServerSimpleDTO(id=1510736392177876, name=安卓微信221区), GoodsServerSimpleDTO(id=1510736392176875, name=安卓微信220区), GoodsServerSimpleDTO(id=1510736392176873, name=安卓微信219区), GoodsServerSimpleDTO(id=1510736392176871, name=安卓微信218区), GoodsServerSimpleDTO(id=1510736392176869, name=安卓微信217区), GoodsServerSimpleDTO(id=1510736392176867, name=安卓微信216区), GoodsServerSimpleDTO(id=1510736392176865, name=安卓微信215区), GoodsServerSimpleDTO(id=1510736392175864, name=安卓微信214区), GoodsServerSimpleDTO(id=1510736392175862, name=安卓微信213区), GoodsServerSimpleDTO(id=1510736392175860, name=安卓微信212区), GoodsServerSimpleDTO(id=1510736392175859, name=安卓微信211区), GoodsServerSimpleDTO(id=1510736392175858, name=安卓微信210区), GoodsServerSimpleDTO(id=1510736392175856, name=安卓微信209区), GoodsServerSimpleDTO(id=1510736392175855, name=安卓微信208区), GoodsServerSimpleDTO(id=1510736392174853, name=安卓微信207区), GoodsServerSimpleDTO(id=1510736392174852, name=安卓微信206区), GoodsServerSimpleDTO(id=1510736392174851, name=安卓微信205区), GoodsServerSimpleDTO(id=1510736392174850, name=安卓微信204区), GoodsServerSimpleDTO(id=1510736392174846, name=安卓微信203区), GoodsServerSimpleDTO(id=1510736392173844, name=安卓微信202区), GoodsServerSimpleDTO(id=1510736392173842, name=安卓微信201区), GoodsServerSimpleDTO(id=1510736392173838, name=安卓微信200区), GoodsServerSimpleDTO(id=1510736392173835, name=安卓微信199区), GoodsServerSimpleDTO(id=1510736392173833, name=安卓微信198区), GoodsServerSimpleDTO(id=1510736392173831, name=安卓微信197区), GoodsServerSimpleDTO(id=1510736392172829, name=安卓微信196区), GoodsServerSimpleDTO(id=1510736392172828, name=安卓微信195区), GoodsServerSimpleDTO(id=1510736392172826, name=安卓微信194区), GoodsServerSimpleDTO(id=1510736392172824, name=安卓微信193区), GoodsServerSimpleDTO(id=1510736392172823, name=安卓微信192区), GoodsServerSimpleDTO(id=1510736392172821, name=安卓微信191区), GoodsServerSimpleDTO(id=1510736392172820, name=安卓微信190区), GoodsServerSimpleDTO(id=1510736392172819, name=安卓微信189区), GoodsServerSimpleDTO(id=1510736392171818, name=安卓微信188区), GoodsServerSimpleDTO(id=1510736392171817, name=安卓微信187区), GoodsServerSimpleDTO(id=1510736392171814, name=安卓微信186区), GoodsServerSimpleDTO(id=1510736392171812, name=安卓微信185区), GoodsServerSimpleDTO(id=1510736392170807, name=安卓微信184区), GoodsServerSimpleDTO(id=1510736392170802, name=安卓微信183区), GoodsServerSimpleDTO(id=1510736392170801, name=安卓微信182区), GoodsServerSimpleDTO(id=1510736392170799, name=安卓微信181区), GoodsServerSimpleDTO(id=1510736392170797, name=安卓微信180区), GoodsServerSimpleDTO(id=1510736212235743, name=安卓微信179区), GoodsServerSimpleDTO(id=1510736212235742, name=安卓微信178区), GoodsServerSimpleDTO(id=1510736212235741, name=安卓微信177区), GoodsServerSimpleDTO(id=1510736212235740, name=安卓微信176区), GoodsServerSimpleDTO(id=1510736212234739, name=安卓微信175区), GoodsServerSimpleDTO(id=1510736212234737, name=安卓微信174区), GoodsServerSimpleDTO(id=1510736212234735, name=安卓微信173区), GoodsServerSimpleDTO(id=1510736212234731, name=安卓微信172区), GoodsServerSimpleDTO(id=1510736212234730, name=安卓微信171区), GoodsServerSimpleDTO(id=1510736212234728, name=安卓微信170区), GoodsServerSimpleDTO(id=1510736212233726, name=安卓微信169区), GoodsServerSimpleDTO(id=1510736212233725, name=安卓微信168区), GoodsServerSimpleDTO(id=1510736212233724, name=安卓微信167区), GoodsServerSimpleDTO(id=1510736212233722, name=安卓微信166区), GoodsServerSimpleDTO(id=1510736212233721, name=安卓微信165区), GoodsServerSimpleDTO(id=1510736212233720, name=安卓微信164区), GoodsServerSimpleDTO(id=1510736212232719, name=安卓微信163区), GoodsServerSimpleDTO(id=1510736212232717, name=安卓微信162区), GoodsServerSimpleDTO(id=1510736212232715, name=安卓微信161区), GoodsServerSimpleDTO(id=1510736212232713, name=安卓微信160区), GoodsServerSimpleDTO(id=1510736212232712, name=安卓微信159区), GoodsServerSimpleDTO(id=1510736212232709, name=安卓微信158区), GoodsServerSimpleDTO(id=1510736212231707, name=安卓微信157区), GoodsServerSimpleDTO(id=1510736212231705, name=安卓微信156区), GoodsServerSimpleDTO(id=1510736212231702, name=安卓微信155区), GoodsServerSimpleDTO(id=1510736212231701, name=安卓微信154区), GoodsServerSimpleDTO(id=1510736212231700, name=安卓微信153区), GoodsServerSimpleDTO(id=1510736212231697, name=安卓微信152区), GoodsServerSimpleDTO(id=1510736212231694, name=安卓微信151区), GoodsServerSimpleDTO(id=1510736212230693, name=安卓微信150区), GoodsServerSimpleDTO(id=1510736212230692, name=安卓微信149区), GoodsServerSimpleDTO(id=1510736212230691, name=安卓微信148区), GoodsServerSimpleDTO(id=1510736212230690, name=安卓微信147区), GoodsServerSimpleDTO(id=1510736212230689, name=安卓微信146区), GoodsServerSimpleDTO(id=1510736212230688, name=安卓微信145区), GoodsServerSimpleDTO(id=1510736212230685, name=安卓微信144区), GoodsServerSimpleDTO(id=1510736212229684, name=安卓微信143区), GoodsServerSimpleDTO(id=1510736212229682, name=安卓微信142区), GoodsServerSimpleDTO(id=1510736212229680, name=安卓微信141区), GoodsServerSimpleDTO(id=1510736212229678, name=安卓微信140区), GoodsServerSimpleDTO(id=1510736212229675, name=安卓微信139区), GoodsServerSimpleDTO(id=1510736212229674, name=安卓微信138区), GoodsServerSimpleDTO(id=1510736212229673, name=安卓微信137区), GoodsServerSimpleDTO(id=1510736212229670, name=安卓微信136区), GoodsServerSimpleDTO(id=1510736212228669, name=安卓微信135区), GoodsServerSimpleDTO(id=1510736212228668, name=安卓微信134区), GoodsServerSimpleDTO(id=1510736212228667, name=安卓微信133区), GoodsServerSimpleDTO(id=1510736212228666, name=安卓微信132区), GoodsServerSimpleDTO(id=1510736212228664, name=安卓微信131区), GoodsServerSimpleDTO(id=1498479823532088, name=安卓微信130区), GoodsServerSimpleDTO(id=1498479823532086, name=安卓微信129区), GoodsServerSimpleDTO(id=1498479823532085, name=安卓微信128区), GoodsServerSimpleDTO(id=1498479823532084, name=安卓微信127区), GoodsServerSimpleDTO(id=1498479823532083, name=安卓微信126区), GoodsServerSimpleDTO(id=1498479823532081, name=安卓微信125区), GoodsServerSimpleDTO(id=1498479823532080, name=安卓微信124区), GoodsServerSimpleDTO(id=1498479823531078, name=安卓微信123区), GoodsServerSimpleDTO(id=1498479823531076, name=安卓微信122区), GoodsServerSimpleDTO(id=1498479823531072, name=安卓微信121区), GoodsServerSimpleDTO(id=1498479823531070, name=安卓微信120区), GoodsServerSimpleDTO(id=1498479823531068, name=安卓微信119区), GoodsServerSimpleDTO(id=1498479823531067, name=安卓微信118区), GoodsServerSimpleDTO(id=1498479823531066, name=安卓微信117区), GoodsServerSimpleDTO(id=1498479823530065, name=安卓微信116区), GoodsServerSimpleDTO(id=1498479823530064, name=安卓微信115区), GoodsServerSimpleDTO(id=1498479823530063, name=安卓微信114区), GoodsServerSimpleDTO(id=1498479823530062, name=安卓微信113区), GoodsServerSimpleDTO(id=1498479823530061, name=安卓微信112区), GoodsServerSimpleDTO(id=1498479823530060, name=安卓微信111区), GoodsServerSimpleDTO(id=1498479823530059, name=安卓微信110区), GoodsServerSimpleDTO(id=1498479823530056, name=安卓微信109区), GoodsServerSimpleDTO(id=1498479823529055, name=安卓微信108区), GoodsServerSimpleDTO(id=1498479823529054, name=安卓微信107区), GoodsServerSimpleDTO(id=1498479823529053, name=安卓微信106区), GoodsServerSimpleDTO(id=1498479823529052, name=安卓微信105区), GoodsServerSimpleDTO(id=1498479823529050, name=安卓微信104区), GoodsServerSimpleDTO(id=1498479823529046, name=安卓微信103区), GoodsServerSimpleDTO(id=1498479823528045, name=安卓微信102区), GoodsServerSimpleDTO(id=1498479823528044, name=安卓微信101区), GoodsServerSimpleDTO(id=1498479823528042, name=安卓微信100区), GoodsServerSimpleDTO(id=1498479823528040, name=安卓微信99区), GoodsServerSimpleDTO(id=1498479823528039, name=安卓微信98区), GoodsServerSimpleDTO(id=1498479823528038, name=安卓微信97区), GoodsServerSimpleDTO(id=1498479823528037, name=安卓微信96区), GoodsServerSimpleDTO(id=1498479823527036, name=安卓微信95区), GoodsServerSimpleDTO(id=1498479823527035, name=安卓微信94区), GoodsServerSimpleDTO(id=1498479823527034, name=安卓微信93区), GoodsServerSimpleDTO(id=1498479823527033, name=安卓微信92区), GoodsServerSimpleDTO(id=1498479823527032, name=安卓微信91区), GoodsServerSimpleDTO(id=1487511934651655, name=安卓微信90区), GoodsServerSimpleDTO(id=1487511934651654, name=安卓微信89区), GoodsServerSimpleDTO(id=1487511934651652, name=安卓微信88区), GoodsServerSimpleDTO(id=1487511934650651, name=安卓微信87区), GoodsServerSimpleDTO(id=1487511934650650, name=安卓微信86区), GoodsServerSimpleDTO(id=1487511934650649, name=安卓微信85区), GoodsServerSimpleDTO(id=1487511934650648, name=安卓微信84区), GoodsServerSimpleDTO(id=1487511934650646, name=安卓微信83区), GoodsServerSimpleDTO(id=1487511934650644, name=安卓微信82区), GoodsServerSimpleDTO(id=1487511934650643, name=安卓微信81区), GoodsServerSimpleDTO(id=1472176401666367, name=安卓微信80区), GoodsServerSimpleDTO(id=1472176401666366, name=安卓微信79区), GoodsServerSimpleDTO(id=1472176401666365, name=安卓微信78区), GoodsServerSimpleDTO(id=1472176401666364, name=安卓微信77区), GoodsServerSimpleDTO(id=1472176401666363, name=安卓微信76区), GoodsServerSimpleDTO(id=1472176401666361, name=安卓微信75区), GoodsServerSimpleDTO(id=1472176401666360, name=安卓微信74区), GoodsServerSimpleDTO(id=1472176401665359, name=安卓微信73区), GoodsServerSimpleDTO(id=1472176401665358, name=安卓微信72区), GoodsServerSimpleDTO(id=1472176401665357, name=安卓微信71区), GoodsServerSimpleDTO(id=1472176401665356, name=安卓微信70区), GoodsServerSimpleDTO(id=1472176401665355, name=安卓微信69区), GoodsServerSimpleDTO(id=1472176401665354, name=安卓微信68区), GoodsServerSimpleDTO(id=1472176401665353, name=安卓微信67区), GoodsServerSimpleDTO(id=1472176401664351, name=安卓微信66区), GoodsServerSimpleDTO(id=1472176401664350, name=安卓微信65区), GoodsServerSimpleDTO(id=1472176401664348, name=安卓微信64区), GoodsServerSimpleDTO(id=1472176401664347, name=安卓微信63区), GoodsServerSimpleDTO(id=1472176401664346, name=安卓微信62区), GoodsServerSimpleDTO(id=1472176401664345, name=安卓微信61区), GoodsServerSimpleDTO(id=1472176401664344, name=安卓微信60区), GoodsServerSimpleDTO(id=1472176401663343, name=安卓微信59区), GoodsServerSimpleDTO(id=1472176401663342, name=安卓微信58区), GoodsServerSimpleDTO(id=1472176401663341, name=安卓微信57区), GoodsServerSimpleDTO(id=1472176401663340, name=安卓微信56区), GoodsServerSimpleDTO(id=1472176401663339, name=安卓微信55区), GoodsServerSimpleDTO(id=1472176401663338, name=安卓微信54区), GoodsServerSimpleDTO(id=1472176401663337, name=安卓微信53区), GoodsServerSimpleDTO(id=1472176401662336, name=安卓微信52区), GoodsServerSimpleDTO(id=1472176401662335, name=安卓微信51区), GoodsServerSimpleDTO(id=1472176401662334, name=安卓微信50区), GoodsServerSimpleDTO(id=1472176401662333, name=安卓微信49区), GoodsServerSimpleDTO(id=1472176401662332, name=安卓微信48区), GoodsServerSimpleDTO(id=1472176401662331, name=安卓微信47区), GoodsServerSimpleDTO(id=1472176401662329, name=安卓微信46区), GoodsServerSimpleDTO(id=1472176401662328, name=安卓微信45区), GoodsServerSimpleDTO(id=1472176401661327, name=安卓微信44区), GoodsServerSimpleDTO(id=1472176401661326, name=安卓微信43区), GoodsServerSimpleDTO(id=1472176401661325, name=安卓微信42区), GoodsServerSimpleDTO(id=1472176401661324, name=安卓微信41区), GoodsServerSimpleDTO(id=1472176401661323, name=安卓微信40区), GoodsServerSimpleDTO(id=1472176401661322, name=安卓微信39区), GoodsServerSimpleDTO(id=1472176401661321, name=安卓微信38区), GoodsServerSimpleDTO(id=1472176401661319, name=安卓微信37区), GoodsServerSimpleDTO(id=1472176401660317, name=安卓微信36区), GoodsServerSimpleDTO(id=1472176401660316, name=安卓微信35区), GoodsServerSimpleDTO(id=1472176401660315, name=安卓微信34区), GoodsServerSimpleDTO(id=1472176401660314, name=安卓微信33区), GoodsServerSimpleDTO(id=1472176401660313, name=安卓微信32区), GoodsServerSimpleDTO(id=1472176401660312, name=安卓微信31区), GoodsServerSimpleDTO(id=1472176401660310, name=安卓微信30区), GoodsServerSimpleDTO(id=1472176401659309, name=安卓微信29区), GoodsServerSimpleDTO(id=1472176401659308, name=安卓微信28区), GoodsServerSimpleDTO(id=1472176401659307, name=安卓微信27区), GoodsServerSimpleDTO(id=1472176401659306, name=安卓微信26区), GoodsServerSimpleDTO(id=1472176401659305, name=安卓微信25区), GoodsServerSimpleDTO(id=1472176401659304, name=安卓微信24区), GoodsServerSimpleDTO(id=1472176401659303, name=安卓微信23区), GoodsServerSimpleDTO(id=1472176401659302, name=安卓微信22区), GoodsServerSimpleDTO(id=1472176401658300, name=安卓微信21区), GoodsServerSimpleDTO(id=1472176401658299, name=安卓微信20区), GoodsServerSimpleDTO(id=1472176401658298, name=安卓微信19区), GoodsServerSimpleDTO(id=1472176401658297, name=安卓微信18区), GoodsServerSimpleDTO(id=1472176401658296, name=安卓微信17区), GoodsServerSimpleDTO(id=1472176401658295, name=安卓微信16区), GoodsServerSimpleDTO(id=1472176401658294, name=安卓微信15区), GoodsServerSimpleDTO(id=1472176401658293, name=安卓微信14区), GoodsServerSimpleDTO(id=1472176401657292, name=安卓微信13区), GoodsServerSimpleDTO(id=1472176401657291, name=安卓微信12区), GoodsServerSimpleDTO(id=1472176401657290, name=安卓微信11区), GoodsServerSimpleDTO(id=1472176401657289, name=安卓微信10区), GoodsServerSimpleDTO(id=1472176401657288, name=安卓微信9区), GoodsServerSimpleDTO(id=1472176401657287, name=安卓微信8区), GoodsServerSimpleDTO(id=1472176401657286, name=安卓微信7区), GoodsServerSimpleDTO(id=1472176401657284, name=安卓微信6区), GoodsServerSimpleDTO(id=1472176401656283, name=安卓微信5区), GoodsServerSimpleDTO(id=1472176401656282, name=安卓微信4区), GoodsServerSimpleDTO(id=1472176401656280, name=安卓微信3区), GoodsServerSimpleDTO(id=1472176401656279, name=安卓微信2区), GoodsServerSimpleDTO(id=1472176401656278, name=安卓微信1区), GoodsServerSimpleDTO(id=817904, name=新区预售)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1642581061788074</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903070868728, name=全平台通用), GoodsServerSimpleDTO(id=1520565539285187, name=苹果微信400区), GoodsServerSimpleDTO(id=1520565539285185, name=苹果微信399区), GoodsServerSimpleDTO(id=1520565539285184, name=398区), GoodsServerSimpleDTO(id=1520565539285180, name=397区), GoodsServerSimpleDTO(id=1520565539284179, name=396区), GoodsServerSimpleDTO(id=1520565539284178, name=395区), GoodsServerSimpleDTO(id=1520565539284177, name=394区), GoodsServerSimpleDTO(id=1520565539284175, name=393区), GoodsServerSimpleDTO(id=1520565539284173, name=392区), GoodsServerSimpleDTO(id=1520565539284172, name=391区), GoodsServerSimpleDTO(id=1520565539284171, name=390区), GoodsServerSimpleDTO(id=1520565539283169, name=389区), GoodsServerSimpleDTO(id=1520565539283168, name=388区), GoodsServerSimpleDTO(id=1520565539283164, name=387区), GoodsServerSimpleDTO(id=1520565539283162, name=386区), GoodsServerSimpleDTO(id=1520565539283161, name=385区), GoodsServerSimpleDTO(id=1520565539283159, name=384区), GoodsServerSimpleDTO(id=1520565539282157, name=383区), GoodsServerSimpleDTO(id=1520565539282153, name=382区), GoodsServerSimpleDTO(id=1520565539282152, name=381区), GoodsServerSimpleDTO(id=1520565539282151, name=380区), GoodsServerSimpleDTO(id=1520565539282149, name=379区), GoodsServerSimpleDTO(id=1520565539282147, name=378区), GoodsServerSimpleDTO(id=1520565539281145, name=377区), GoodsServerSimpleDTO(id=1520565539281143, name=376区), GoodsServerSimpleDTO(id=1520565539281140, name=375区), GoodsServerSimpleDTO(id=1520565539281138, name=374区), GoodsServerSimpleDTO(id=1520565539281135, name=373区), GoodsServerSimpleDTO(id=1520565539281134, name=372区), GoodsServerSimpleDTO(id=1520565539280133, name=371区), GoodsServerSimpleDTO(id=1520565539280132, name=370区), GoodsServerSimpleDTO(id=1520565539280129, name=369区), GoodsServerSimpleDTO(id=1520565539280127, name=368区), GoodsServerSimpleDTO(id=1520565539280125, name=367区), GoodsServerSimpleDTO(id=1520565539279122, name=366区), GoodsServerSimpleDTO(id=1520565539279120, name=365区), GoodsServerSimpleDTO(id=1520565539279118, name=364区), GoodsServerSimpleDTO(id=1520565539279115, name=363区), GoodsServerSimpleDTO(id=1520565539278112, name=362区), GoodsServerSimpleDTO(id=1520565539278107, name=361区), GoodsServerSimpleDTO(id=1520565539278106, name=360区), GoodsServerSimpleDTO(id=1520565539278103, name=359区), GoodsServerSimpleDTO(id=1520565539278102, name=358区), GoodsServerSimpleDTO(id=1520565539278100, name=357区), GoodsServerSimpleDTO(id=1520565539277099, name=356区), GoodsServerSimpleDTO(id=1520565539277096, name=355区), GoodsServerSimpleDTO(id=1520565539277093, name=354区), GoodsServerSimpleDTO(id=1520565539277091, name=353区), GoodsServerSimpleDTO(id=1520565539277089, name=352区), GoodsServerSimpleDTO(id=1520565539277086, name=351区), GoodsServerSimpleDTO(id=1520565519651677, name=350区), GoodsServerSimpleDTO(id=1520565519651676, name=349区), GoodsServerSimpleDTO(id=1520565519651675, name=348区), GoodsServerSimpleDTO(id=1520565519650674, name=347区), GoodsServerSimpleDTO(id=1520565519650672, name=346区), GoodsServerSimpleDTO(id=1520565519650671, name=345区), GoodsServerSimpleDTO(id=1520565519650670, name=344区), GoodsServerSimpleDTO(id=1520565519650667, name=343区), GoodsServerSimpleDTO(id=1520565519650665, name=342区), GoodsServerSimpleDTO(id=1520565519650664, name=341区), GoodsServerSimpleDTO(id=1520565519649663, name=340区), GoodsServerSimpleDTO(id=1520565519649662, name=339区), GoodsServerSimpleDTO(id=1520565519649660, name=338区), GoodsServerSimpleDTO(id=1520565519649659, name=337区), GoodsServerSimpleDTO(id=1520565519649658, name=336区), GoodsServerSimpleDTO(id=1520565519649655, name=335区), GoodsServerSimpleDTO(id=1520565519649652, name=334区), GoodsServerSimpleDTO(id=1520565519648651, name=333区), GoodsServerSimpleDTO(id=1520565519648650, name=332区), GoodsServerSimpleDTO(id=1520565519648649, name=331区), GoodsServerSimpleDTO(id=1520565519648648, name=330区), GoodsServerSimpleDTO(id=1520565519648646, name=329区), GoodsServerSimpleDTO(id=1520565519648645, name=328区), GoodsServerSimpleDTO(id=1520565519648643, name=327区), GoodsServerSimpleDTO(id=1520565519647642, name=326区), GoodsServerSimpleDTO(id=1520565519647639, name=325区), GoodsServerSimpleDTO(id=1520565519647638, name=324区), GoodsServerSimpleDTO(id=1520565519646636, name=323区), GoodsServerSimpleDTO(id=1520565519646634, name=322区), GoodsServerSimpleDTO(id=1520565519646631, name=321区), GoodsServerSimpleDTO(id=1520565519645629, name=320区), GoodsServerSimpleDTO(id=1520565519645626, name=319区), GoodsServerSimpleDTO(id=1520565519645624, name=318区), GoodsServerSimpleDTO(id=1520565519645623, name=317区), GoodsServerSimpleDTO(id=1520565519645622, name=316区), GoodsServerSimpleDTO(id=1520565519645621, name=315区), GoodsServerSimpleDTO(id=1520565519645620, name=314区), GoodsServerSimpleDTO(id=1520565519644618, name=313区), GoodsServerSimpleDTO(id=1520565519644617, name=312区), GoodsServerSimpleDTO(id=1520565519644616, name=311区), GoodsServerSimpleDTO(id=1520565519644615, name=310区), GoodsServerSimpleDTO(id=1520565519644612, name=309区), GoodsServerSimpleDTO(id=1520565519643611, name=308区), GoodsServerSimpleDTO(id=1520565519643610, name=307区), GoodsServerSimpleDTO(id=1520565519643608, name=306区), GoodsServerSimpleDTO(id=1520565519643606, name=305区), GoodsServerSimpleDTO(id=1520565519643605, name=304区), GoodsServerSimpleDTO(id=1520565519643603, name=303区), GoodsServerSimpleDTO(id=1520565519642602, name=苹果微信302区), GoodsServerSimpleDTO(id=1520565519642600, name=301区), GoodsServerSimpleDTO(id=1520565499183983, name=300区), GoodsServerSimpleDTO(id=1520565499183982, name=299区), GoodsServerSimpleDTO(id=1520565499183980, name=298区), GoodsServerSimpleDTO(id=1520565499183978, name=297区), GoodsServerSimpleDTO(id=1520565499183977, name=296区), GoodsServerSimpleDTO(id=1520565499182975, name=295区), GoodsServerSimpleDTO(id=1520565499182973, name=294区), GoodsServerSimpleDTO(id=1520565499182971, name=293区), GoodsServerSimpleDTO(id=1520565499182970, name=292区), GoodsServerSimpleDTO(id=1520565499182969, name=291区), GoodsServerSimpleDTO(id=1520565499182968, name=290区), GoodsServerSimpleDTO(id=1520565499182967, name=289区), GoodsServerSimpleDTO(id=1520565499182966, name=288区), GoodsServerSimpleDTO(id=1520565499182963, name=287区), GoodsServerSimpleDTO(id=1520565499182961, name=286区), GoodsServerSimpleDTO(id=1520565499181960, name=285区), GoodsServerSimpleDTO(id=1520565499181959, name=284区), GoodsServerSimpleDTO(id=1520565499181957, name=283区), GoodsServerSimpleDTO(id=1520565499181956, name=282区), GoodsServerSimpleDTO(id=1520565499181955, name=281区), GoodsServerSimpleDTO(id=1520565499181953, name=280区), GoodsServerSimpleDTO(id=1520565499181951, name=279区), GoodsServerSimpleDTO(id=1520565499181950, name=278区), GoodsServerSimpleDTO(id=1520565499181949, name=277区), GoodsServerSimpleDTO(id=1520565499180946, name=276区), GoodsServerSimpleDTO(id=1520565499180945, name=275区), GoodsServerSimpleDTO(id=1520565499180943, name=274区), GoodsServerSimpleDTO(id=1520565499180942, name=273区), GoodsServerSimpleDTO(id=1520565499180940, name=272区), GoodsServerSimpleDTO(id=1520565499180939, name=271区), GoodsServerSimpleDTO(id=1520565499180938, name=270区), GoodsServerSimpleDTO(id=1520565499180937, name=269区), GoodsServerSimpleDTO(id=1520565499180935, name=268区), GoodsServerSimpleDTO(id=1520565499179934, name=267区), GoodsServerSimpleDTO(id=1520565499179932, name=266区), GoodsServerSimpleDTO(id=1520565499179931, name=265区), GoodsServerSimpleDTO(id=1520565499179929, name=264区), GoodsServerSimpleDTO(id=1520565499179927, name=苹果微信263区), GoodsServerSimpleDTO(id=1520565499179926, name=苹果微信262区), GoodsServerSimpleDTO(id=1520565499179924, name=苹果微信261区), GoodsServerSimpleDTO(id=1520565499179923, name=苹果微信260区), GoodsServerSimpleDTO(id=1520565499179922, name=苹果微信259区), GoodsServerSimpleDTO(id=1520565499179921, name=苹果微信258区), GoodsServerSimpleDTO(id=1520565499179920, name=苹果微信257区), GoodsServerSimpleDTO(id=1520565499178918, name=苹果微信256区), GoodsServerSimpleDTO(id=1520565499178917, name=苹果微信255区), GoodsServerSimpleDTO(id=1520565499178916, name=苹果微信254区), GoodsServerSimpleDTO(id=1520565499178915, name=苹果微信253区), GoodsServerSimpleDTO(id=1520565499178914, name=苹果微信252区), GoodsServerSimpleDTO(id=1520565499178910, name=苹果微信251区), GoodsServerSimpleDTO(id=1520565482676345, name=苹果微信250区), GoodsServerSimpleDTO(id=1520565482676344, name=苹果微信249区), GoodsServerSimpleDTO(id=1520565482676343, name=苹果微信248区), GoodsServerSimpleDTO(id=1520565482676342, name=苹果微信247区), GoodsServerSimpleDTO(id=1520565482676341, name=苹果微信246区), GoodsServerSimpleDTO(id=1520565482675339, name=苹果微信245区), GoodsServerSimpleDTO(id=1520565482675336, name=苹果微信244区), GoodsServerSimpleDTO(id=1520565482675334, name=苹果微信243区), GoodsServerSimpleDTO(id=1520565482674333, name=苹果微信242区), GoodsServerSimpleDTO(id=1520565482674331, name=苹果微信241区), GoodsServerSimpleDTO(id=1520565482674327, name=苹果微信240区), GoodsServerSimpleDTO(id=1520565482673326, name=苹果微信239区), GoodsServerSimpleDTO(id=1520565482673325, name=苹果微信238区), GoodsServerSimpleDTO(id=1520565482673321, name=苹果微信237区), GoodsServerSimpleDTO(id=1520565482672320, name=苹果微信236区), GoodsServerSimpleDTO(id=1520565482672318, name=苹果微信235区), GoodsServerSimpleDTO(id=1520565482672317, name=苹果微信234区), GoodsServerSimpleDTO(id=1520565482671314, name=苹果微信233区), GoodsServerSimpleDTO(id=1520565482670311, name=苹果微信232区), GoodsServerSimpleDTO(id=1520565482670309, name=苹果微信231区), GoodsServerSimpleDTO(id=1520565482670307, name=苹果微信230区), GoodsServerSimpleDTO(id=1520565482670306, name=苹果微信229区), GoodsServerSimpleDTO(id=1520565482669303, name=苹果微信228区), GoodsServerSimpleDTO(id=1520565482669300, name=苹果微信227区), GoodsServerSimpleDTO(id=1520565482669298, name=苹果微信226区), GoodsServerSimpleDTO(id=1520565482669296, name=苹果微信225区), GoodsServerSimpleDTO(id=1520565482669295, name=苹果微信224区), GoodsServerSimpleDTO(id=1520565482669294, name=苹果微信223区), GoodsServerSimpleDTO(id=1520565482668293, name=苹果微信222区), GoodsServerSimpleDTO(id=1520565482668292, name=苹果微信221区), GoodsServerSimpleDTO(id=1520565482668290, name=苹果微信220区), GoodsServerSimpleDTO(id=1520565482668288, name=苹果微信219区), GoodsServerSimpleDTO(id=1520565482668285, name=苹果微信218区), GoodsServerSimpleDTO(id=1520565482668283, name=苹果微信217区), GoodsServerSimpleDTO(id=1520565482667279, name=苹果微信216区), GoodsServerSimpleDTO(id=1520565482667278, name=苹果微信215区), GoodsServerSimpleDTO(id=1520565482667277, name=苹果微信214区), GoodsServerSimpleDTO(id=1520565482667276, name=苹果微信213区), GoodsServerSimpleDTO(id=1520565482667275, name=苹果微信212区), GoodsServerSimpleDTO(id=1520565482667274, name=苹果微信211区), GoodsServerSimpleDTO(id=1520565482667273, name=苹果微信210区), GoodsServerSimpleDTO(id=1520565482666272, name=苹果微信209区), GoodsServerSimpleDTO(id=1520565482666271, name=苹果微信208区), GoodsServerSimpleDTO(id=1520565482666267, name=苹果微信207区), GoodsServerSimpleDTO(id=1520565482666264, name=苹果微信206区), GoodsServerSimpleDTO(id=1520565482666262, name=苹果微信205区), GoodsServerSimpleDTO(id=1520565482665260, name=苹果微信204区), GoodsServerSimpleDTO(id=1520565482665258, name=苹果微信203区), GoodsServerSimpleDTO(id=1520565482665257, name=苹果微信202区), GoodsServerSimpleDTO(id=1520565482664254, name=苹果微信201区), GoodsServerSimpleDTO(id=1520564772841752, name=微信全服通用), GoodsServerSimpleDTO(id=1513927403776737, name=苹果微信200区), GoodsServerSimpleDTO(id=1513927403776733, name=苹果微信199区), GoodsServerSimpleDTO(id=1513927403776729, name=苹果微信198区), GoodsServerSimpleDTO(id=1513927403776727, name=苹果微信197区), GoodsServerSimpleDTO(id=1513927403775725, name=苹果微信196区), GoodsServerSimpleDTO(id=1513927403775722, name=苹果微信195区), GoodsServerSimpleDTO(id=1513927403775720, name=苹果微信194区), GoodsServerSimpleDTO(id=1513927403775718, name=苹果微信193区), GoodsServerSimpleDTO(id=1513927403775717, name=苹果微信192区), GoodsServerSimpleDTO(id=1513927403775715, name=苹果微信191区), GoodsServerSimpleDTO(id=1513927403774714, name=苹果微信190区), GoodsServerSimpleDTO(id=1513927403774712, name=苹果微信189区), GoodsServerSimpleDTO(id=1513927403774711, name=苹果微信188区), GoodsServerSimpleDTO(id=1513927403774709, name=苹果微信187区), GoodsServerSimpleDTO(id=1513927403774708, name=苹果微信186区), GoodsServerSimpleDTO(id=1513927403774704, name=苹果微信185区), GoodsServerSimpleDTO(id=1513927403774702, name=苹果微信184区), GoodsServerSimpleDTO(id=1513927403773700, name=苹果微信183区), GoodsServerSimpleDTO(id=1513927403773699, name=苹果微信182区), GoodsServerSimpleDTO(id=1513927403773698, name=苹果微信181区), GoodsServerSimpleDTO(id=1513927403773695, name=苹果微信180区), GoodsServerSimpleDTO(id=1513927403772694, name=苹果微信179区), GoodsServerSimpleDTO(id=1513927403772692, name=苹果微信178区), GoodsServerSimpleDTO(id=1513927403772691, name=苹果微信177区), GoodsServerSimpleDTO(id=1513927403772689, name=苹果微信176区), GoodsServerSimpleDTO(id=1513927403772686, name=苹果微信175区), GoodsServerSimpleDTO(id=1513927403772685, name=苹果微信174区), GoodsServerSimpleDTO(id=1513927403772683, name=苹果微信173区), GoodsServerSimpleDTO(id=1513927403772682, name=苹果微信172区), GoodsServerSimpleDTO(id=1513927403771680, name=苹果微信171区), GoodsServerSimpleDTO(id=1513927403771679, name=苹果微信170区), GoodsServerSimpleDTO(id=1513927403771678, name=苹果微信169区), GoodsServerSimpleDTO(id=1513927403771677, name=苹果微信168区), GoodsServerSimpleDTO(id=1513927403771676, name=苹果微信167区), GoodsServerSimpleDTO(id=1513927403771675, name=苹果微信166区), GoodsServerSimpleDTO(id=1513927403770673, name=苹果微信165区), GoodsServerSimpleDTO(id=1513927403770671, name=苹果微信164区), GoodsServerSimpleDTO(id=1513927403770670, name=苹果微信163区), GoodsServerSimpleDTO(id=1513927403770668, name=苹果微信162区), GoodsServerSimpleDTO(id=1513927403770667, name=苹果微信161区), GoodsServerSimpleDTO(id=1513927403770664, name=苹果微信160区), GoodsServerSimpleDTO(id=1513927403770663, name=苹果微信159区), GoodsServerSimpleDTO(id=1513927403769661, name=苹果微信158区), GoodsServerSimpleDTO(id=1513927403769660, name=苹果微信157区), GoodsServerSimpleDTO(id=1513927403769659, name=苹果微信156区), GoodsServerSimpleDTO(id=1513927403769658, name=苹果微信155区), GoodsServerSimpleDTO(id=1513927403769657, name=苹果微信154区), GoodsServerSimpleDTO(id=1513927403769655, name=苹果微信153区), GoodsServerSimpleDTO(id=1513927403769654, name=苹果微信152区), GoodsServerSimpleDTO(id=1513927403768651, name=苹果微信151区), GoodsServerSimpleDTO(id=1513927388418232, name=苹果微信150区), GoodsServerSimpleDTO(id=1513927388418231, name=苹果微信149区), GoodsServerSimpleDTO(id=1513927388417229, name=苹果微信148区), GoodsServerSimpleDTO(id=1513927388417227, name=苹果微信147区), GoodsServerSimpleDTO(id=1513927388417225, name=苹果微信146区), GoodsServerSimpleDTO(id=1513927388417224, name=苹果微信145区), GoodsServerSimpleDTO(id=1513927388417223, name=苹果微信144区), GoodsServerSimpleDTO(id=1513927388417221, name=苹果微信143区), GoodsServerSimpleDTO(id=1513927388416220, name=苹果微信142区), GoodsServerSimpleDTO(id=1513927388416219, name=苹果微信141区), GoodsServerSimpleDTO(id=1513927388416218, name=苹果微信140区), GoodsServerSimpleDTO(id=1513927388416216, name=苹果微信139区), GoodsServerSimpleDTO(id=1513927388416211, name=苹果微信138区), GoodsServerSimpleDTO(id=1513927388415209, name=苹果微信137区), GoodsServerSimpleDTO(id=1513927388415208, name=苹果微信136区), GoodsServerSimpleDTO(id=1513927388415206, name=苹果微信135区), GoodsServerSimpleDTO(id=1513927388415205, name=苹果微信134区), GoodsServerSimpleDTO(id=1513927388415203, name=苹果微信133区), GoodsServerSimpleDTO(id=1513927388415202, name=苹果微信132区), GoodsServerSimpleDTO(id=1513927388415201, name=苹果微信131区), GoodsServerSimpleDTO(id=1513927388415200, name=苹果微信130区), GoodsServerSimpleDTO(id=1513927388414198, name=苹果微信129区), GoodsServerSimpleDTO(id=1513927388414196, name=苹果微信128区), GoodsServerSimpleDTO(id=1513927388414195, name=苹果微信127区), GoodsServerSimpleDTO(id=1513927388414193, name=苹果微信126区), GoodsServerSimpleDTO(id=1513927388414191, name=苹果微信125区), GoodsServerSimpleDTO(id=1513927388414189, name=苹果微信124区), GoodsServerSimpleDTO(id=1513927388414187, name=苹果微信123区), GoodsServerSimpleDTO(id=1513927388413184, name=苹果微信122区), GoodsServerSimpleDTO(id=1513927388413183, name=苹果微信121区), GoodsServerSimpleDTO(id=1513927388413182, name=苹果微信120区), GoodsServerSimpleDTO(id=1513927388413181, name=苹果微信119区), GoodsServerSimpleDTO(id=1513927388413178, name=苹果微信118区), GoodsServerSimpleDTO(id=1513927388413177, name=苹果微信117区), GoodsServerSimpleDTO(id=1513927388412176, name=苹果微信116区), GoodsServerSimpleDTO(id=1513927388412174, name=苹果微信115区), GoodsServerSimpleDTO(id=1513927388412173, name=苹果微信114区), GoodsServerSimpleDTO(id=1513927388412172, name=苹果微信113区), GoodsServerSimpleDTO(id=1513927388412171, name=苹果微信112区), GoodsServerSimpleDTO(id=1513927388412170, name=苹果微信111区), GoodsServerSimpleDTO(id=1513927388412168, name=苹果微信110区), GoodsServerSimpleDTO(id=1513927388412167, name=苹果微信109区), GoodsServerSimpleDTO(id=1513927388411166, name=苹果微信108区), GoodsServerSimpleDTO(id=1513927388411164, name=苹果微信107区), GoodsServerSimpleDTO(id=1513927388411161, name=苹果微信106区), GoodsServerSimpleDTO(id=1513927388411159, name=苹果微信105区), GoodsServerSimpleDTO(id=1513927388411156, name=苹果微信104区), GoodsServerSimpleDTO(id=1513927388411155, name=苹果微信103区), GoodsServerSimpleDTO(id=1513927388410154, name=苹果微信102区), GoodsServerSimpleDTO(id=1513927388410153, name=苹果微信101区), GoodsServerSimpleDTO(id=1510736665094776, name=苹果微信100区), GoodsServerSimpleDTO(id=1510736665093774, name=苹果微信99区), GoodsServerSimpleDTO(id=1510736665093773, name=苹果微信98区), GoodsServerSimpleDTO(id=1510736665093772, name=苹果微信97区), GoodsServerSimpleDTO(id=1510736665093770, name=苹果微信96区), GoodsServerSimpleDTO(id=1510736665093769, name=苹果微信95区), GoodsServerSimpleDTO(id=1510736665093768, name=苹果微信94区), GoodsServerSimpleDTO(id=1510736665092766, name=苹果微信93区), GoodsServerSimpleDTO(id=1510736665092765, name=苹果微信92区), GoodsServerSimpleDTO(id=1510736665092764, name=苹果微信91区), GoodsServerSimpleDTO(id=1510736665092763, name=苹果微信90区), GoodsServerSimpleDTO(id=1510736665092762, name=苹果微信89区), GoodsServerSimpleDTO(id=1510736665092760, name=苹果微信88区), GoodsServerSimpleDTO(id=1510736665092758, name=苹果微信87区), GoodsServerSimpleDTO(id=1510736665091757, name=苹果微信86区), GoodsServerSimpleDTO(id=1510736665091756, name=苹果微信85区), GoodsServerSimpleDTO(id=1510736665091755, name=苹果微信84区), GoodsServerSimpleDTO(id=1510736665091752, name=苹果微信83区), GoodsServerSimpleDTO(id=1510736665091751, name=苹果微信82区), GoodsServerSimpleDTO(id=1510736665091750, name=苹果微信81区), GoodsServerSimpleDTO(id=1498479938502429, name=苹果微信80区), GoodsServerSimpleDTO(id=1498479938502428, name=苹果微信79区), GoodsServerSimpleDTO(id=1498479938502427, name=苹果微信78区), GoodsServerSimpleDTO(id=1498479938501426, name=苹果微信77区), GoodsServerSimpleDTO(id=1498479938501425, name=苹果微信76区), GoodsServerSimpleDTO(id=1498479938501423, name=苹果微信75区), GoodsServerSimpleDTO(id=1498479938501421, name=苹果微信74区), GoodsServerSimpleDTO(id=1498479938501420, name=苹果微信73区), GoodsServerSimpleDTO(id=1498479938501419, name=苹果微信72区), GoodsServerSimpleDTO(id=1498479938501418, name=苹果微信71区), GoodsServerSimpleDTO(id=1498479938501417, name=苹果微信70区), GoodsServerSimpleDTO(id=1498479938501415, name=苹果微信69区), GoodsServerSimpleDTO(id=1498479938501412, name=苹果微信68区), GoodsServerSimpleDTO(id=1498479938500410, name=苹果微信67区), GoodsServerSimpleDTO(id=1498479938500409, name=苹果微信66区), GoodsServerSimpleDTO(id=1498479938500407, name=苹果微信65区), GoodsServerSimpleDTO(id=1498479938500406, name=苹果微信64区), GoodsServerSimpleDTO(id=1498479938500404, name=苹果微信63区), GoodsServerSimpleDTO(id=1498479938500403, name=苹果微信62区), GoodsServerSimpleDTO(id=1498479938500402, name=苹果微信61区), GoodsServerSimpleDTO(id=1498479938500401, name=苹果微信60区), GoodsServerSimpleDTO(id=1498479938500400, name=59区), GoodsServerSimpleDTO(id=1498479938499399, name=58区), GoodsServerSimpleDTO(id=1498479938499398, name=57区), GoodsServerSimpleDTO(id=1498479938499396, name=56区), GoodsServerSimpleDTO(id=1498479938499395, name=55区), GoodsServerSimpleDTO(id=1498479938499394, name=54区), GoodsServerSimpleDTO(id=1498479938499393, name=53区), GoodsServerSimpleDTO(id=1498479938499392, name=52区), GoodsServerSimpleDTO(id=1498479938499391, name=51区), GoodsServerSimpleDTO(id=1495881343246451, name=50区), GoodsServerSimpleDTO(id=1495881343246449, name=49区), GoodsServerSimpleDTO(id=1495881343246447, name=48区), GoodsServerSimpleDTO(id=1495881343246446, name=47区), GoodsServerSimpleDTO(id=1495881343246445, name=46区), GoodsServerSimpleDTO(id=1495881343246444, name=45区), GoodsServerSimpleDTO(id=1495881343246443, name=44区), GoodsServerSimpleDTO(id=1495881343245442, name=43区), GoodsServerSimpleDTO(id=1495881343245441, name=42区), GoodsServerSimpleDTO(id=1495881343245440, name=41区), GoodsServerSimpleDTO(id=1495881343245439, name=40区), GoodsServerSimpleDTO(id=1495881343245438, name=39区), GoodsServerSimpleDTO(id=1495881343245436, name=38区), GoodsServerSimpleDTO(id=1495881343245435, name=37区), GoodsServerSimpleDTO(id=1495881343245434, name=36区), GoodsServerSimpleDTO(id=1495881343244432, name=35区), GoodsServerSimpleDTO(id=1495881343244431, name=34区), GoodsServerSimpleDTO(id=1495881343244430, name=33区), GoodsServerSimpleDTO(id=1495881343244429, name=32区), GoodsServerSimpleDTO(id=1495881343244428, name=31区), GoodsServerSimpleDTO(id=1495881343244426, name=30区), GoodsServerSimpleDTO(id=1495881343244425, name=29区), GoodsServerSimpleDTO(id=1495881343244424, name=28区), GoodsServerSimpleDTO(id=1495881343244423, name=27区), GoodsServerSimpleDTO(id=1495881343243422, name=26区), GoodsServerSimpleDTO(id=1495881343243421, name=25区), GoodsServerSimpleDTO(id=1495881343243420, name=24区), GoodsServerSimpleDTO(id=1495881343243419, name=23区), GoodsServerSimpleDTO(id=1495881343243418, name=22区), GoodsServerSimpleDTO(id=1495881343243417, name=21区), GoodsServerSimpleDTO(id=1495881343243416, name=20区), GoodsServerSimpleDTO(id=1495881343243415, name=19区), GoodsServerSimpleDTO(id=1495881343242414, name=18区), GoodsServerSimpleDTO(id=1495881343242413, name=17区), GoodsServerSimpleDTO(id=1495881343242411, name=16区), GoodsServerSimpleDTO(id=1495881343242410, name=15区), GoodsServerSimpleDTO(id=1495881343242409, name=14区), GoodsServerSimpleDTO(id=1495881343242408, name=13区), GoodsServerSimpleDTO(id=1495881343242406, name=12区), GoodsServerSimpleDTO(id=1495881343241405, name=11区), GoodsServerSimpleDTO(id=1495881343241404, name=10区), GoodsServerSimpleDTO(id=1495881343241403, name=9区), GoodsServerSimpleDTO(id=1495881343241399, name=8区), GoodsServerSimpleDTO(id=1495881343240398, name=7区), GoodsServerSimpleDTO(id=1495881343240396, name=6区), GoodsServerSimpleDTO(id=1495881343240395, name=5区), GoodsServerSimpleDTO(id=1495881343240394, name=4区), GoodsServerSimpleDTO(id=1495881343240393, name=3区), GoodsServerSimpleDTO(id=1495881343240392, name=2区), GoodsServerSimpleDTO(id=1495881343239391, name=1区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1642580017608072</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1531903070868728, 1520565340141895, 1520565340141894, 1520565340141893, 1520565340141892, 1520565340140891, 1520565340140889, 1520565340140887, 1520565340140885, 1520565340140882, 1520565340140879, 1520565340140878, 1520565340139877, 1520565340139876, 1520565340139873, 1520565340139872, 1520565340139871, 1520565340139870, 1520565340138869, 1520565340138868, 1520565340138866, 1520565340138863, 1520565340138861, 1520565340138857, 1520565340137856, 1520565340137855, 1520565340137853, 1520565340137849, 1520565340136841, 1520565340136840, 1520565340136839, 1520565340136837, 1520565340136836, 1520565340136833, 1520565340136830, 1520565340135829, 1520565340135827, 1520565340135821, 1520565340135820, 1520565340135819, 1520565340135818, 1520565340135815, 1520565340134814, 1520565340134813, 1520565340134812, 1520565340134809, 1520565340134806, 1520565340134804, 1520565340134802, 1520565340134800, 1520565340133799, 1520565305855966, 1520565305854964, 1520565305854963, 1520565305854961, 1520565305854960, 1520565305854959, 1520565305853956, 1520565305853949, 1520565305853947, 1520565305853944, 1520565305853943, 1520565305853941, 1520565305852938, 1520565305852935, 1520565305852934, 1520565305852932, 1520565305852930, 1520565305852928, 1520565305852927, 1520565305852926, 1520565305851925, 1520565305851924, 1520565305851919, 1520565305851917, 1520565305851915, 1520565305851912, 1520565305851910, 1520565305850909, 1520565305850907, 1520565305850903, 1520565305850901, 1520565305850900, 1520565305850898, 1520565305849893, 1520565305849892, 1520565305849890, 1520565305849888, 1520565305849887, 1520565305849885, 1520565305849884, 1520565305848880, 1520565305848877, 1520565305848876, 1520565305848875, 1520565305848873, 1520565305848872, 1520565305847868, 1520565305847867, 1520565305847866, 1520565305847865, 1520564679426026, 1517377426627295, 1517377426627294, 1517377426627292, 1517377426627291, 1517377426627289, 1517377426626288, 1517377426626286, 1517377426626285, 1517377426626282, 1517377426626280, 1517377426626279, 1517377426625277, 1517377426625276, 1517377426625275, 1517377426625274, 1517377426625273, 1517377426625270, 1517377426624267, 1517377426624261, 1517377426624259, 1517377426623258, 1517377426623257, 1517377426623256, 1517377426623255, 1517377426623253, 1517377426623250, 1517377426622249, 1517377426622246, 1517377426622245, 1517377426622244, 1517377426622241, 1517377426622239, 1517377426621238, 1517377426621237, 1517377426621236, 1517377426621234, 1517377426621230, 1517377426620224, 1517377426620223, 1517377426620222, 1517377426620221, 1517377426620219, 1517377426620216, 1517377426619214, 1517377426619213, 1517377426619211, 1517377426619209, 1517377426619206, 1517377426619205, 1517377426618202, 1517377383212286, 1517377383212281, 1517377383212280, 1517377383212279, 1517377383212278, 1517377383212275, 1517377383211273, 1517377383211272, 1517377383211269, 1517377383211268, 1517377383211266, 1517377383211262, 1517377383211261, 1517377383211259, 1517377383211257, 1517377383210256, 1517377383210254, 1517377383210251, 1517377383210250, 1517377383210249, 1517377383210248, 1517377383210247, 1517377383210245, 1517377383210244, 1517377383210243, 1517377383209240, 1517377383209236, 1517377383209234, 1517377383209232, 1517377383209230, 1517377383209228, 1517377383209226, 1517377383209225, 1517377383209224, 1517377383208223, 1517377383208222, 1517377383208220, 1517377383208217, 1517377383208215, 1517377383208214, 1517377383208211, 1517377383208210, 1517377383208209, 1517377383208208, 1517377383207205, 1517377383207203, 1517377383207201, 1517377383207200, 1517377383207197, 1517377383207195, 1513927335090886, 1513927335090885, 1513927335090884, 1513927335090882, 1513927335090881, 1513927335090880, 1513927335090879, 1513927335090877, 1513927335090874, 1513927335090872, 1513927335089871, 1513927335089870, 1513927335089869, 1513927335089868, 1513927335089867, 1513927335089866, 1513927335089864, 1513927335089862, 1513927335089860, 1513927335089858, 1513927335088857, 1513927335088856, 1513927335088855, 1513927335088854, 1513927335088853, 1513927335088851, 1513927335088850, 1513927335088849, 1513927335088847, 1513927335087845, 1513927335087843, 1513927335087840, 1513927335087837, 1513927335087836, 1513927335087835, 1513927335087834, 1513927335087833, 1513927335087832, 1513927335086830, 1513927335086828, 1513927335086827, 1513927335086826, 1513927335086825, 1513927335086824, 1513927335086823, 1513927335086822, 1513927335086821, 1513927335086820, 1513927335085819, 1513927335085818, 1513927318881507, 1513927318880506, 1513927318880505, 1513927318880504, 1513927318880503, 1513927318880502, 1513927318880501, 1513927318880499, 1513927318879496, 1513927318879493, 1513927318879490, 1513927318879489, 1513927318879488, 1513927318879487, 1513927318879486, 1513927318878485, 1513927318878484, 1513927318878481, 1513927318878479, 1513927318878476, 1513927318878475, 1513927318878474, 1513927318877472, 1513927318877468, 1513927318877466, 1513927318877465, 1513927318877464, 1513927318877463, 1513927318877462, 1513927318877461, 1513927318876460, 1513927318876459, 1513927318876458, 1513927318876457, 1513927318876456, 1513927318876454, 1513927318876452, 1513927318876451, 1513927318875450, 1513927318875449, 1513927318875447, 1513927318875444, 1513927318875443, 1513927318875441, 1513927318875439, 1513927318874438, 1513927318874437, 1513927318874436, 1513927318874435, 1513927318874434, 1510736613738838, 1510736613738837, 1510736613738836, 1510736613738835, 1510736613738834, 1510736613738833, 1510736613738830, 1510736613738829, 1510736613738828, 1510736613737824, 1510736613737823, 1510736613737822, 1510736613737821, 1510736613737820, 1510736613737819, 1510736613737818, 1510736613737816, 1510736613737815, 1510736613736812, 1510736613736810, 1498479938500400, 1498479938499399, 1498479938499398, 1498479938499396, 1498479938499395, 1498479938499394, 1498479938499393, 1498479938499392, 1498479938499391, 1498479881164324, 1498479881164323, 1498479881164322, 1498479881164321, 1498479881164319, 1498479881164318, 1498479881164317, 1498479881164315, 1498479881163314, 1498479881163313, 1498479881163312, 1498479881163310, 1498479881163309, 1498479881163308, 1498479881163306, 1498479881162304, 1498479881162302, 1498479881162299, 1498479881162298, 1498479881162297, 1498479881161294, 817861, 817860, 817859, 817858, 817857, 817856, 817855, 817854, 817853, 817852, 817851, 817850, 817849, 817848, 817847, 817846, 817845, 817844, 817843, 817842, 817841, 817840, 817839, 817838, 817837, 817836, 817835, 817834, 718033, 817833, 718032, 718031, 718030, 718029, 718028, 718027, 718026, 718025, 718024, 718023, 718022, 718021, 718020, 718019, 718018, 718017, 718016, 718015, 718014, 718013, 718012, 718011, 718010, 718009, 718008, 718007, 718006, 718005, 718004]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1531903070868728, name=全平台通用), GoodsServerSimpleDTO(id=1520565340141895, name=苹果QQ400区), GoodsServerSimpleDTO(id=1520565340141894, name=苹果QQ399区), GoodsServerSimpleDTO(id=1520565340141893, name=苹果QQ398区), GoodsServerSimpleDTO(id=1520565340141892, name=苹果QQ397区), GoodsServerSimpleDTO(id=1520565340140891, name=苹果QQ396区), GoodsServerSimpleDTO(id=1520565340140889, name=苹果QQ395区), GoodsServerSimpleDTO(id=1520565340140887, name=苹果QQ394区), GoodsServerSimpleDTO(id=1520565340140885, name=苹果QQ393区), GoodsServerSimpleDTO(id=1520565340140882, name=苹果QQ392区), GoodsServerSimpleDTO(id=1520565340140879, name=苹果QQ391区), GoodsServerSimpleDTO(id=1520565340140878, name=苹果QQ390区), GoodsServerSimpleDTO(id=1520565340139877, name=苹果QQ389区), GoodsServerSimpleDTO(id=1520565340139876, name=苹果QQ388区), GoodsServerSimpleDTO(id=1520565340139873, name=苹果QQ387区), GoodsServerSimpleDTO(id=1520565340139872, name=苹果QQ386区), GoodsServerSimpleDTO(id=1520565340139871, name=苹果QQ385区), GoodsServerSimpleDTO(id=1520565340139870, name=苹果QQ384区), GoodsServerSimpleDTO(id=1520565340138869, name=苹果QQ383区), GoodsServerSimpleDTO(id=1520565340138868, name=苹果QQ382区), GoodsServerSimpleDTO(id=1520565340138866, name=苹果QQ381区), GoodsServerSimpleDTO(id=1520565340138863, name=苹果QQ380区), GoodsServerSimpleDTO(id=1520565340138861, name=苹果QQ379区), GoodsServerSimpleDTO(id=1520565340138857, name=苹果QQ378区), GoodsServerSimpleDTO(id=1520565340137856, name=苹果QQ377区), GoodsServerSimpleDTO(id=1520565340137855, name=苹果QQ376区), GoodsServerSimpleDTO(id=1520565340137853, name=苹果QQ375区), GoodsServerSimpleDTO(id=1520565340137849, name=苹果QQ374区), GoodsServerSimpleDTO(id=1520565340136841, name=苹果QQ373区), GoodsServerSimpleDTO(id=1520565340136840, name=苹果QQ372区), GoodsServerSimpleDTO(id=1520565340136839, name=苹果QQ371区), GoodsServerSimpleDTO(id=1520565340136837, name=苹果QQ370区), GoodsServerSimpleDTO(id=1520565340136836, name=苹果QQ369区), GoodsServerSimpleDTO(id=1520565340136833, name=苹果QQ368区), GoodsServerSimpleDTO(id=1520565340136830, name=苹果QQ367区), GoodsServerSimpleDTO(id=1520565340135829, name=苹果QQ366区), GoodsServerSimpleDTO(id=1520565340135827, name=苹果QQ365区), GoodsServerSimpleDTO(id=1520565340135821, name=苹果QQ364区), GoodsServerSimpleDTO(id=1520565340135820, name=苹果QQ363区), GoodsServerSimpleDTO(id=1520565340135819, name=苹果QQ362区), GoodsServerSimpleDTO(id=1520565340135818, name=苹果QQ361区), GoodsServerSimpleDTO(id=1520565340135815, name=苹果QQ360区), GoodsServerSimpleDTO(id=1520565340134814, name=苹果QQ359区), GoodsServerSimpleDTO(id=1520565340134813, name=苹果QQ358区), GoodsServerSimpleDTO(id=1520565340134812, name=苹果QQ357区), GoodsServerSimpleDTO(id=1520565340134809, name=苹果QQ356区), GoodsServerSimpleDTO(id=1520565340134806, name=苹果QQ355区), GoodsServerSimpleDTO(id=1520565340134804, name=苹果QQ354区), GoodsServerSimpleDTO(id=1520565340134802, name=苹果QQ353区), GoodsServerSimpleDTO(id=1520565340134800, name=苹果QQ352区), GoodsServerSimpleDTO(id=1520565340133799, name=苹果QQ351区), GoodsServerSimpleDTO(id=1520565305855966, name=苹果QQ350区), GoodsServerSimpleDTO(id=1520565305854964, name=苹果QQ349区), GoodsServerSimpleDTO(id=1520565305854963, name=苹果QQ348区), GoodsServerSimpleDTO(id=1520565305854961, name=苹果QQ347区), GoodsServerSimpleDTO(id=1520565305854960, name=苹果QQ346区), GoodsServerSimpleDTO(id=1520565305854959, name=苹果QQ345区), GoodsServerSimpleDTO(id=1520565305853956, name=苹果QQ344区), GoodsServerSimpleDTO(id=1520565305853949, name=苹果QQ343区), GoodsServerSimpleDTO(id=1520565305853947, name=苹果QQ342区), GoodsServerSimpleDTO(id=1520565305853944, name=苹果QQ341区), GoodsServerSimpleDTO(id=1520565305853943, name=苹果QQ340区), GoodsServerSimpleDTO(id=1520565305853941, name=苹果QQ339区), GoodsServerSimpleDTO(id=1520565305852938, name=苹果QQ338区), GoodsServerSimpleDTO(id=1520565305852935, name=苹果QQ337区), GoodsServerSimpleDTO(id=1520565305852934, name=苹果QQ336区), GoodsServerSimpleDTO(id=1520565305852932, name=苹果QQ335区), GoodsServerSimpleDTO(id=1520565305852930, name=苹果QQ334区), GoodsServerSimpleDTO(id=1520565305852928, name=苹果QQ333区), GoodsServerSimpleDTO(id=1520565305852927, name=苹果QQ332区), GoodsServerSimpleDTO(id=1520565305852926, name=苹果QQ331区), GoodsServerSimpleDTO(id=1520565305851925, name=苹果QQ330区), GoodsServerSimpleDTO(id=1520565305851924, name=苹果QQ329区), GoodsServerSimpleDTO(id=1520565305851919, name=苹果QQ328区), GoodsServerSimpleDTO(id=1520565305851917, name=苹果QQ327区), GoodsServerSimpleDTO(id=1520565305851915, name=苹果QQ326区), GoodsServerSimpleDTO(id=1520565305851912, name=苹果QQ325区), GoodsServerSimpleDTO(id=1520565305851910, name=苹果QQ324区), GoodsServerSimpleDTO(id=1520565305850909, name=苹果QQ323区), GoodsServerSimpleDTO(id=1520565305850907, name=苹果QQ322区), GoodsServerSimpleDTO(id=1520565305850903, name=苹果QQ321区), GoodsServerSimpleDTO(id=1520565305850901, name=苹果QQ320区), GoodsServerSimpleDTO(id=1520565305850900, name=苹果QQ319区), GoodsServerSimpleDTO(id=1520565305850898, name=苹果QQ318区), GoodsServerSimpleDTO(id=1520565305849893, name=苹果QQ317区), GoodsServerSimpleDTO(id=1520565305849892, name=苹果QQ316区), GoodsServerSimpleDTO(id=1520565305849890, name=苹果QQ315区), GoodsServerSimpleDTO(id=1520565305849888, name=苹果QQ314区), GoodsServerSimpleDTO(id=1520565305849887, name=苹果QQ313区), GoodsServerSimpleDTO(id=1520565305849885, name=苹果QQ312区), GoodsServerSimpleDTO(id=1520565305849884, name=苹果QQ311区), GoodsServerSimpleDTO(id=1520565305848880, name=苹果QQ310区), GoodsServerSimpleDTO(id=1520565305848877, name=苹果QQ309区), GoodsServerSimpleDTO(id=1520565305848876, name=苹果QQ308区), GoodsServerSimpleDTO(id=1520565305848875, name=苹果QQ307区), GoodsServerSimpleDTO(id=1520565305848873, name=苹果QQ306区), GoodsServerSimpleDTO(id=1520565305848872, name=苹果QQ305区), GoodsServerSimpleDTO(id=1520565305847868, name=苹果QQ304区), GoodsServerSimpleDTO(id=1520565305847867, name=苹果QQ303区), GoodsServerSimpleDTO(id=1520565305847866, name=苹果QQ302区), GoodsServerSimpleDTO(id=1520565305847865, name=苹果QQ301区), GoodsServerSimpleDTO(id=1520564679426026, name=手Q全服通用), GoodsServerSimpleDTO(id=1517377426627295, name=苹果QQ300区), GoodsServerSimpleDTO(id=1517377426627294, name=苹果QQ299区), GoodsServerSimpleDTO(id=1517377426627292, name=苹果QQ298区), GoodsServerSimpleDTO(id=1517377426627291, name=苹果QQ297区), GoodsServerSimpleDTO(id=1517377426627289, name=苹果QQ296区), GoodsServerSimpleDTO(id=1517377426626288, name=苹果QQ295区), GoodsServerSimpleDTO(id=1517377426626286, name=苹果QQ294区), GoodsServerSimpleDTO(id=1517377426626285, name=苹果QQ293区), GoodsServerSimpleDTO(id=1517377426626282, name=苹果QQ292区), GoodsServerSimpleDTO(id=1517377426626280, name=苹果QQ291区), GoodsServerSimpleDTO(id=1517377426626279, name=苹果QQ290区), GoodsServerSimpleDTO(id=1517377426625277, name=苹果QQ289区), GoodsServerSimpleDTO(id=1517377426625276, name=苹果QQ288区), GoodsServerSimpleDTO(id=1517377426625275, name=苹果QQ287区), GoodsServerSimpleDTO(id=1517377426625274, name=苹果QQ286区), GoodsServerSimpleDTO(id=1517377426625273, name=苹果QQ285区), GoodsServerSimpleDTO(id=1517377426625270, name=苹果QQ284区), GoodsServerSimpleDTO(id=1517377426624267, name=苹果QQ283区), GoodsServerSimpleDTO(id=1517377426624261, name=苹果QQ282区), GoodsServerSimpleDTO(id=1517377426624259, name=苹果QQ281区), GoodsServerSimpleDTO(id=1517377426623258, name=苹果QQ280区), GoodsServerSimpleDTO(id=1517377426623257, name=苹果QQ279区), GoodsServerSimpleDTO(id=1517377426623256, name=苹果QQ278区), GoodsServerSimpleDTO(id=1517377426623255, name=苹果QQ277区), GoodsServerSimpleDTO(id=1517377426623253, name=苹果QQ276区), GoodsServerSimpleDTO(id=1517377426623250, name=苹果QQ275区), GoodsServerSimpleDTO(id=1517377426622249, name=苹果QQ274区), GoodsServerSimpleDTO(id=1517377426622246, name=苹果QQ273区), GoodsServerSimpleDTO(id=1517377426622245, name=苹果QQ272区), GoodsServerSimpleDTO(id=1517377426622244, name=苹果QQ271区), GoodsServerSimpleDTO(id=1517377426622241, name=苹果QQ270区), GoodsServerSimpleDTO(id=1517377426622239, name=苹果QQ269区), GoodsServerSimpleDTO(id=1517377426621238, name=苹果QQ268区), GoodsServerSimpleDTO(id=1517377426621237, name=苹果QQ267区), GoodsServerSimpleDTO(id=1517377426621236, name=苹果QQ266区), GoodsServerSimpleDTO(id=1517377426621234, name=苹果QQ265区), GoodsServerSimpleDTO(id=1517377426621230, name=苹果QQ264区), GoodsServerSimpleDTO(id=1517377426620224, name=苹果QQ263区), GoodsServerSimpleDTO(id=1517377426620223, name=苹果QQ262区), GoodsServerSimpleDTO(id=1517377426620222, name=苹果QQ261区), GoodsServerSimpleDTO(id=1517377426620221, name=苹果QQ260区), GoodsServerSimpleDTO(id=1517377426620219, name=苹果QQ259区), GoodsServerSimpleDTO(id=1517377426620216, name=苹果QQ258区), GoodsServerSimpleDTO(id=1517377426619214, name=苹果QQ257区), GoodsServerSimpleDTO(id=1517377426619213, name=苹果QQ256区), GoodsServerSimpleDTO(id=1517377426619211, name=苹果QQ255区), GoodsServerSimpleDTO(id=1517377426619209, name=苹果QQ254区), GoodsServerSimpleDTO(id=1517377426619206, name=苹果QQ253区), GoodsServerSimpleDTO(id=1517377426619205, name=苹果QQ252区), GoodsServerSimpleDTO(id=1517377426618202, name=苹果QQ251区), GoodsServerSimpleDTO(id=1517377383212286, name=苹果QQ250区), GoodsServerSimpleDTO(id=1517377383212281, name=苹果QQ249区), GoodsServerSimpleDTO(id=1517377383212280, name=苹果QQ248区), GoodsServerSimpleDTO(id=1517377383212279, name=苹果QQ247区), GoodsServerSimpleDTO(id=1517377383212278, name=苹果QQ246区), GoodsServerSimpleDTO(id=1517377383212275, name=苹果QQ245区), GoodsServerSimpleDTO(id=1517377383211273, name=苹果QQ244区), GoodsServerSimpleDTO(id=1517377383211272, name=苹果QQ243区), GoodsServerSimpleDTO(id=1517377383211269, name=苹果QQ242区), GoodsServerSimpleDTO(id=1517377383211268, name=苹果QQ241区), GoodsServerSimpleDTO(id=1517377383211266, name=苹果QQ240区), GoodsServerSimpleDTO(id=1517377383211262, name=苹果QQ239区), GoodsServerSimpleDTO(id=1517377383211261, name=苹果QQ238区), GoodsServerSimpleDTO(id=1517377383211259, name=苹果QQ237区), GoodsServerSimpleDTO(id=1517377383211257, name=苹果QQ236区), GoodsServerSimpleDTO(id=1517377383210256, name=苹果QQ235区), GoodsServerSimpleDTO(id=1517377383210254, name=苹果QQ234区), GoodsServerSimpleDTO(id=1517377383210251, name=苹果QQ233区), GoodsServerSimpleDTO(id=1517377383210250, name=苹果QQ232区), GoodsServerSimpleDTO(id=1517377383210249, name=苹果QQ231区), GoodsServerSimpleDTO(id=1517377383210248, name=苹果QQ230区), GoodsServerSimpleDTO(id=1517377383210247, name=苹果QQ229区), GoodsServerSimpleDTO(id=1517377383210245, name=苹果QQ228区), GoodsServerSimpleDTO(id=1517377383210244, name=苹果QQ227区), GoodsServerSimpleDTO(id=1517377383210243, name=苹果QQ226区), GoodsServerSimpleDTO(id=1517377383209240, name=苹果QQ225区), GoodsServerSimpleDTO(id=1517377383209236, name=苹果QQ224区), GoodsServerSimpleDTO(id=1517377383209234, name=苹果QQ223区), GoodsServerSimpleDTO(id=1517377383209232, name=苹果QQ222区), GoodsServerSimpleDTO(id=1517377383209230, name=苹果QQ221区), GoodsServerSimpleDTO(id=1517377383209228, name=苹果QQ220区), GoodsServerSimpleDTO(id=1517377383209226, name=苹果QQ219区), GoodsServerSimpleDTO(id=1517377383209225, name=苹果QQ218区), GoodsServerSimpleDTO(id=1517377383209224, name=苹果QQ217区), GoodsServerSimpleDTO(id=1517377383208223, name=苹果QQ216区), GoodsServerSimpleDTO(id=1517377383208222, name=苹果QQ215区), GoodsServerSimpleDTO(id=1517377383208220, name=苹果QQ214区), GoodsServerSimpleDTO(id=1517377383208217, name=苹果QQ213区), GoodsServerSimpleDTO(id=1517377383208215, name=苹果QQ212区), GoodsServerSimpleDTO(id=1517377383208214, name=苹果QQ211区), GoodsServerSimpleDTO(id=1517377383208211, name=苹果QQ210区), GoodsServerSimpleDTO(id=1517377383208210, name=苹果QQ209区), GoodsServerSimpleDTO(id=1517377383208209, name=苹果QQ208区), GoodsServerSimpleDTO(id=1517377383208208, name=苹果QQ207区), GoodsServerSimpleDTO(id=1517377383207205, name=苹果QQ206区), GoodsServerSimpleDTO(id=1517377383207203, name=苹果QQ205区), GoodsServerSimpleDTO(id=1517377383207201, name=苹果QQ204区), GoodsServerSimpleDTO(id=1517377383207200, name=苹果QQ203区), GoodsServerSimpleDTO(id=1517377383207197, name=苹果QQ202区), GoodsServerSimpleDTO(id=1517377383207195, name=苹果QQ201区), GoodsServerSimpleDTO(id=1513927335090886, name=苹果QQ200区), GoodsServerSimpleDTO(id=1513927335090885, name=苹果QQ199区), GoodsServerSimpleDTO(id=1513927335090884, name=苹果QQ198区), GoodsServerSimpleDTO(id=1513927335090882, name=苹果QQ197区), GoodsServerSimpleDTO(id=1513927335090881, name=苹果QQ196区), GoodsServerSimpleDTO(id=1513927335090880, name=苹果QQ195区), GoodsServerSimpleDTO(id=1513927335090879, name=苹果QQ194区), GoodsServerSimpleDTO(id=1513927335090877, name=苹果QQ193区), GoodsServerSimpleDTO(id=1513927335090874, name=苹果QQ192区), GoodsServerSimpleDTO(id=1513927335090872, name=苹果QQ191区), GoodsServerSimpleDTO(id=1513927335089871, name=苹果QQ190区), GoodsServerSimpleDTO(id=1513927335089870, name=苹果QQ189区), GoodsServerSimpleDTO(id=1513927335089869, name=苹果QQ188区), GoodsServerSimpleDTO(id=1513927335089868, name=苹果QQ187区), GoodsServerSimpleDTO(id=1513927335089867, name=苹果QQ186区), GoodsServerSimpleDTO(id=1513927335089866, name=苹果QQ185区), GoodsServerSimpleDTO(id=1513927335089864, name=苹果QQ184区), GoodsServerSimpleDTO(id=1513927335089862, name=苹果QQ183区), GoodsServerSimpleDTO(id=1513927335089860, name=苹果QQ182区), GoodsServerSimpleDTO(id=1513927335089858, name=苹果QQ181区), GoodsServerSimpleDTO(id=1513927335088857, name=苹果QQ180区), GoodsServerSimpleDTO(id=1513927335088856, name=苹果QQ179区), GoodsServerSimpleDTO(id=1513927335088855, name=苹果QQ178区), GoodsServerSimpleDTO(id=1513927335088854, name=苹果QQ177区), GoodsServerSimpleDTO(id=1513927335088853, name=苹果QQ176区), GoodsServerSimpleDTO(id=1513927335088851, name=苹果QQ175区), GoodsServerSimpleDTO(id=1513927335088850, name=苹果QQ174区), GoodsServerSimpleDTO(id=1513927335088849, name=苹果QQ173区), GoodsServerSimpleDTO(id=1513927335088847, name=苹果QQ172区), GoodsServerSimpleDTO(id=1513927335087845, name=苹果QQ171区), GoodsServerSimpleDTO(id=1513927335087843, name=苹果QQ170区), GoodsServerSimpleDTO(id=1513927335087840, name=苹果QQ169区), GoodsServerSimpleDTO(id=1513927335087837, name=苹果QQ168区), GoodsServerSimpleDTO(id=1513927335087836, name=苹果QQ167区), GoodsServerSimpleDTO(id=1513927335087835, name=苹果QQ166区), GoodsServerSimpleDTO(id=1513927335087834, name=苹果QQ165区), GoodsServerSimpleDTO(id=1513927335087833, name=苹果QQ164区), GoodsServerSimpleDTO(id=1513927335087832, name=苹果QQ163区), GoodsServerSimpleDTO(id=1513927335086830, name=苹果QQ162区), GoodsServerSimpleDTO(id=1513927335086828, name=苹果QQ161区), GoodsServerSimpleDTO(id=1513927335086827, name=苹果QQ160区), GoodsServerSimpleDTO(id=1513927335086826, name=苹果QQ159区), GoodsServerSimpleDTO(id=1513927335086825, name=苹果QQ158区), GoodsServerSimpleDTO(id=1513927335086824, name=苹果QQ157区), GoodsServerSimpleDTO(id=1513927335086823, name=苹果QQ156区), GoodsServerSimpleDTO(id=1513927335086822, name=苹果QQ155区), GoodsServerSimpleDTO(id=1513927335086821, name=苹果QQ154区), GoodsServerSimpleDTO(id=1513927335086820, name=苹果QQ153区), GoodsServerSimpleDTO(id=1513927335085819, name=苹果QQ152区), GoodsServerSimpleDTO(id=1513927335085818, name=苹果QQ151区), GoodsServerSimpleDTO(id=1513927318881507, name=苹果QQ150区), GoodsServerSimpleDTO(id=1513927318880506, name=苹果QQ149区), GoodsServerSimpleDTO(id=1513927318880505, name=苹果QQ148区), GoodsServerSimpleDTO(id=1513927318880504, name=苹果QQ147区), GoodsServerSimpleDTO(id=1513927318880503, name=苹果QQ146区), GoodsServerSimpleDTO(id=1513927318880502, name=苹果QQ145区), GoodsServerSimpleDTO(id=1513927318880501, name=苹果QQ144区), GoodsServerSimpleDTO(id=1513927318880499, name=苹果QQ143区), GoodsServerSimpleDTO(id=1513927318879496, name=苹果QQ142区), GoodsServerSimpleDTO(id=1513927318879493, name=苹果QQ141区), GoodsServerSimpleDTO(id=1513927318879490, name=苹果QQ140区), GoodsServerSimpleDTO(id=1513927318879489, name=苹果QQ139区), GoodsServerSimpleDTO(id=1513927318879488, name=苹果QQ138区), GoodsServerSimpleDTO(id=1513927318879487, name=苹果QQ137区), GoodsServerSimpleDTO(id=1513927318879486, name=苹果QQ136区), GoodsServerSimpleDTO(id=1513927318878485, name=苹果QQ135区), GoodsServerSimpleDTO(id=1513927318878484, name=苹果QQ134区), GoodsServerSimpleDTO(id=1513927318878481, name=苹果QQ133区), GoodsServerSimpleDTO(id=1513927318878479, name=苹果QQ132区), GoodsServerSimpleDTO(id=1513927318878476, name=苹果QQ131区), GoodsServerSimpleDTO(id=1513927318878475, name=苹果QQ130区), GoodsServerSimpleDTO(id=1513927318878474, name=苹果QQ129区), GoodsServerSimpleDTO(id=1513927318877472, name=苹果QQ128区), GoodsServerSimpleDTO(id=1513927318877468, name=苹果QQ127区), GoodsServerSimpleDTO(id=1513927318877466, name=苹果QQ126区), GoodsServerSimpleDTO(id=1513927318877465, name=苹果QQ125区), GoodsServerSimpleDTO(id=1513927318877464, name=苹果QQ124区), GoodsServerSimpleDTO(id=1513927318877463, name=苹果QQ123区), GoodsServerSimpleDTO(id=1513927318877462, name=苹果QQ122区), GoodsServerSimpleDTO(id=1513927318877461, name=苹果QQ121区), GoodsServerSimpleDTO(id=1513927318876460, name=苹果QQ120区), GoodsServerSimpleDTO(id=1513927318876459, name=苹果QQ119区), GoodsServerSimpleDTO(id=1513927318876458, name=苹果QQ118区), GoodsServerSimpleDTO(id=1513927318876457, name=苹果QQ117区), GoodsServerSimpleDTO(id=1513927318876456, name=苹果QQ116区), GoodsServerSimpleDTO(id=1513927318876454, name=苹果QQ115区), GoodsServerSimpleDTO(id=1513927318876452, name=苹果QQ114区), GoodsServerSimpleDTO(id=1513927318876451, name=苹果QQ113区), GoodsServerSimpleDTO(id=1513927318875450, name=苹果QQ112区), GoodsServerSimpleDTO(id=1513927318875449, name=苹果QQ111区), GoodsServerSimpleDTO(id=1513927318875447, name=苹果QQ110区), GoodsServerSimpleDTO(id=1513927318875444, name=苹果QQ109区), GoodsServerSimpleDTO(id=1513927318875443, name=苹果QQ108区), GoodsServerSimpleDTO(id=1513927318875441, name=苹果QQ107区), GoodsServerSimpleDTO(id=1513927318875439, name=苹果QQ106区), GoodsServerSimpleDTO(id=1513927318874438, name=苹果QQ105区), GoodsServerSimpleDTO(id=1513927318874437, name=苹果QQ104区), GoodsServerSimpleDTO(id=1513927318874436, name=苹果QQ103区), GoodsServerSimpleDTO(id=1513927318874435, name=苹果QQ102区), GoodsServerSimpleDTO(id=1513927318874434, name=苹果QQ101区), GoodsServerSimpleDTO(id=1510736613738838, name=苹果QQ100区), GoodsServerSimpleDTO(id=1510736613738837, name=苹果QQ99区), GoodsServerSimpleDTO(id=1510736613738836, name=苹果QQ98区), GoodsServerSimpleDTO(id=1510736613738835, name=苹果QQ97区), GoodsServerSimpleDTO(id=1510736613738834, name=苹果QQ96区), GoodsServerSimpleDTO(id=1510736613738833, name=苹果QQ95区), GoodsServerSimpleDTO(id=1510736613738830, name=苹果QQ94区), GoodsServerSimpleDTO(id=1510736613738829, name=苹果QQ93区), GoodsServerSimpleDTO(id=1510736613738828, name=苹果QQ92区), GoodsServerSimpleDTO(id=1510736613737824, name=苹果QQ91区), GoodsServerSimpleDTO(id=1510736613737823, name=苹果QQ90区), GoodsServerSimpleDTO(id=1510736613737822, name=苹果QQ89区), GoodsServerSimpleDTO(id=1510736613737821, name=苹果QQ88区), GoodsServerSimpleDTO(id=1510736613737820, name=苹果QQ87区), GoodsServerSimpleDTO(id=1510736613737819, name=苹果QQ86区), GoodsServerSimpleDTO(id=1510736613737818, name=苹果QQ85区), GoodsServerSimpleDTO(id=1510736613737816, name=苹果QQ84区), GoodsServerSimpleDTO(id=1510736613737815, name=苹果QQ83区), GoodsServerSimpleDTO(id=1510736613736812, name=苹果QQ82区), GoodsServerSimpleDTO(id=1510736613736810, name=苹果QQ81区), GoodsServerSimpleDTO(id=1498479938500400, name=59区), GoodsServerSimpleDTO(id=1498479938499399, name=58区), GoodsServerSimpleDTO(id=1498479938499398, name=57区), GoodsServerSimpleDTO(id=1498479938499396, name=56区), GoodsServerSimpleDTO(id=1498479938499395, name=55区), GoodsServerSimpleDTO(id=1498479938499394, name=54区), GoodsServerSimpleDTO(id=1498479938499393, name=53区), GoodsServerSimpleDTO(id=1498479938499392, name=52区), GoodsServerSimpleDTO(id=1498479938499391, name=51区), GoodsServerSimpleDTO(id=1498479881164324, name=苹果QQ80区), GoodsServerSimpleDTO(id=1498479881164323, name=苹果QQ79区), GoodsServerSimpleDTO(id=1498479881164322, name=苹果QQ78区), GoodsServerSimpleDTO(id=1498479881164321, name=苹果QQ77区), GoodsServerSimpleDTO(id=1498479881164319, name=苹果QQ76区), GoodsServerSimpleDTO(id=1498479881164318, name=苹果QQ75区), GoodsServerSimpleDTO(id=1498479881164317, name=苹果QQ74区), GoodsServerSimpleDTO(id=1498479881164315, name=苹果QQ73区), GoodsServerSimpleDTO(id=1498479881163314, name=苹果QQ72区), GoodsServerSimpleDTO(id=1498479881163313, name=苹果QQ71区), GoodsServerSimpleDTO(id=1498479881163312, name=苹果QQ70区), GoodsServerSimpleDTO(id=1498479881163310, name=苹果QQ69区), GoodsServerSimpleDTO(id=1498479881163309, name=苹果QQ68区), GoodsServerSimpleDTO(id=1498479881163308, name=苹果QQ67区), GoodsServerSimpleDTO(id=1498479881163306, name=苹果QQ66区), GoodsServerSimpleDTO(id=1498479881162304, name=苹果QQ65区), GoodsServerSimpleDTO(id=1498479881162302, name=苹果QQ64区), GoodsServerSimpleDTO(id=1498479881162299, name=苹果QQ63区), GoodsServerSimpleDTO(id=1498479881162298, name=苹果QQ62区), GoodsServerSimpleDTO(id=1498479881162297, name=苹果QQ61区), GoodsServerSimpleDTO(id=1498479881161294, name=苹果QQ60区), GoodsServerSimpleDTO(id=817861, name=苹果QQ59区), GoodsServerSimpleDTO(id=817860, name=苹果QQ58区), GoodsServerSimpleDTO(id=817859, name=苹果QQ57区), GoodsServerSimpleDTO(id=817858, name=苹果QQ56区), GoodsServerSimpleDTO(id=817857, name=苹果QQ55区), GoodsServerSimpleDTO(id=817856, name=苹果QQ54区), GoodsServerSimpleDTO(id=817855, name=苹果QQ53区), GoodsServerSimpleDTO(id=817854, name=苹果QQ52区), GoodsServerSimpleDTO(id=817853, name=苹果QQ51区), GoodsServerSimpleDTO(id=817852, name=苹果QQ50区), GoodsServerSimpleDTO(id=817851, name=苹果QQ49区), GoodsServerSimpleDTO(id=817850, name=苹果QQ48区), GoodsServerSimpleDTO(id=817849, name=苹果QQ47区), GoodsServerSimpleDTO(id=817848, name=苹果QQ46区), GoodsServerSimpleDTO(id=817847, name=苹果QQ45区), GoodsServerSimpleDTO(id=817846, name=苹果QQ44区), GoodsServerSimpleDTO(id=817845, name=苹果QQ43区), GoodsServerSimpleDTO(id=817844, name=苹果QQ42区), GoodsServerSimpleDTO(id=817843, name=苹果QQ41区), GoodsServerSimpleDTO(id=817842, name=苹果QQ40区), GoodsServerSimpleDTO(id=817841, name=苹果QQ39区), GoodsServerSimpleDTO(id=817840, name=苹果QQ38区), GoodsServerSimpleDTO(id=817839, name=苹果QQ37区), GoodsServerSimpleDTO(id=817838, name=苹果QQ36区), GoodsServerSimpleDTO(id=817837, name=苹果QQ35区), GoodsServerSimpleDTO(id=817836, name=苹果QQ34区), GoodsServerSimpleDTO(id=817835, name=苹果QQ33区), GoodsServerSimpleDTO(id=817834, name=苹果QQ32区), GoodsServerSimpleDTO(id=718033, name=苹果QQ30区), GoodsServerSimpleDTO(id=817833, name=苹果QQ31区), GoodsServerSimpleDTO(id=718032, name=苹果QQ29区), GoodsServerSimpleDTO(id=718031, name=苹果QQ28区), GoodsServerSimpleDTO(id=718030, name=苹果QQ27区), GoodsServerSimpleDTO(id=718029, name=苹果QQ26区), GoodsServerSimpleDTO(id=718028, name=苹果QQ25区), GoodsServerSimpleDTO(id=718027, name=苹果QQ24区), GoodsServerSimpleDTO(id=718026, name=苹果QQ23区), GoodsServerSimpleDTO(id=718025, name=苹果QQ22区), GoodsServerSimpleDTO(id=718024, name=苹果QQ21区), GoodsServerSimpleDTO(id=718023, name=苹果QQ20区), GoodsServerSimpleDTO(id=718022, name=苹果QQ19区), GoodsServerSimpleDTO(id=718021, name=苹果QQ18区), GoodsServerSimpleDTO(id=718020, name=苹果QQ17区), GoodsServerSimpleDTO(id=718019, name=苹果QQ16区), GoodsServerSimpleDTO(id=718018, name=苹果QQ15区), GoodsServerSimpleDTO(id=718017, name=苹果QQ14区), GoodsServerSimpleDTO(id=718016, name=苹果QQ13区), GoodsServerSimpleDTO(id=718015, name=苹果QQ12区), GoodsServerSimpleDTO(id=718014, name=苹果QQ11区), GoodsServerSimpleDTO(id=718013, name=苹果QQ10区), GoodsServerSimpleDTO(id=718012, name=苹果QQ9区), GoodsServerSimpleDTO(id=718011, name=苹果QQ8区), GoodsServerSimpleDTO(id=718010, name=苹果QQ7区), GoodsServerSimpleDTO(id=718009, name=苹果QQ6区), GoodsServerSimpleDTO(id=718008, name=苹果QQ5区), GoodsServerSimpleDTO(id=718007, name=苹果QQ4区), GoodsServerSimpleDTO(id=718006, name=苹果QQ3区), GoodsServerSimpleDTO(id=718005, name=苹果QQ2区), GoodsServerSimpleDTO(id=718004, name=苹果QQ1区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1580902730218531, 1580896125355665]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1580902730218531, name=通用服务器), GoodsServerSimpleDTO(id=1580896125355665, name=新区预售)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1642583287483026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1580902730218531</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1642583633272220</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1642579782516108</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1470047035887265</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>原神（优质卖家）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>王者荣耀（优质卖家）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>和平精英</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1645695979530442</t>
@@ -710,30 +710,30 @@
   </si>
   <si>
     <t>1645695786823202</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1645695622670122</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1006473</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1645695907124136</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[1535364178344308]</t>
   </si>
   <si>
     <t>1645695979530442</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[GoodsServerSimpleDTO(id=1539844295575679, name=苹果微信专区)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,7 +749,7 @@
       </rPr>
       <t>itle</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -765,15 +765,15 @@
       </rPr>
       <t>equired</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>visible</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -789,38 +789,38 @@
       </rPr>
       <t>in</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>max</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
     <t>storage</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>format</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>^[0-9]\\d*$</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>image</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>keyProperties</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -836,7 +836,7 @@
       </rPr>
       <t>ameClient</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -863,7 +863,7 @@
       </rPr>
       <t>端</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -880,15 +880,15 @@
       </rPr>
       <t>戏</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>game</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>gameServer</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -915,19 +915,19 @@
       </rPr>
       <t>器</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>extProperties</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>propertyName</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583287497040</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -965,25 +965,25 @@
       </rPr>
       <t>阶</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>contentType</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -999,7 +999,7 @@
       </rPr>
       <t>ropertyContentType</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1025,7 +1025,7 @@
       </rPr>
       <t>15</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1051,53 +1051,53 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>len5</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>placeholder</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>propertyGrade</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>categoryAttrType</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>propertyId</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>tagcode</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>sys_auto_complete</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583287506046</t>
   </si>
   <si>
     <t>1642583287506046</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>五星角色</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1113,37 +1113,37 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>opthions.id</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>opthions.attrId</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>opthions.name</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>opthions.value</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1645597046631544</t>
@@ -1515,18 +1515,18 @@
       </rPr>
       <t>200</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583287574139</t>
   </si>
   <si>
     <t>1642583287574139</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>五星武器</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1644890755462117</t>
@@ -2075,7 +2075,7 @@
   </si>
   <si>
     <t>1642583287658252</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2120,7 +2120,7 @@
       </rPr>
       <t>定</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2136,7 +2136,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2152,7 +2152,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2168,11 +2168,11 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>saft_attr</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583287662255</t>
@@ -2302,7 +2302,7 @@
       </rPr>
       <t>ame1</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2318,14 +2318,14 @@
       </rPr>
       <t>ame2</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583287692288</t>
   </si>
   <si>
     <t>1642583287692288</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2342,7 +2342,7 @@
       </rPr>
       <t>线</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2358,7 +2358,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583287695291</t>
@@ -2417,7 +2417,7 @@
   </si>
   <si>
     <t>sellerAccountProperties</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583287494038</t>
@@ -2747,7 +2747,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2763,7 +2763,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2779,31 +2779,31 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>len11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>^1[3|4|5|6|7|8|9][0-9]\\d{8}$</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>mobile</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>addlService</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>bargain</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>len10</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2848,15 +2848,15 @@
       </rPr>
       <t>定</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2873,27 +2873,27 @@
       </rPr>
       <t>线</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>len200</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583177647207</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583177661225</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1645597022181111</t>
@@ -2969,7 +2969,7 @@
   </si>
   <si>
     <t>1642583177747353</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1644890717788307</t>
@@ -3063,7 +3063,7 @@
   </si>
   <si>
     <t>1642583177855483</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583177858487</t>
@@ -3088,7 +3088,7 @@
   </si>
   <si>
     <t>1642583177892531</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583177896534</t>
@@ -3152,22 +3152,22 @@
   </si>
   <si>
     <t>1642583633272220</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583217552236</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583217571262</t>
   </si>
   <si>
     <t>1642583217571262</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1645597011052300</t>
@@ -3243,7 +3243,7 @@
   </si>
   <si>
     <t>1642583217657360</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1644890701945043</t>
@@ -3337,7 +3337,7 @@
   </si>
   <si>
     <t>1642583217768016</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583217772022</t>
@@ -3362,7 +3362,7 @@
   </si>
   <si>
     <t>1642583217811076</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583217815078</t>
@@ -3498,14 +3498,14 @@
   </si>
   <si>
     <t>1642583633292243</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583633307257</t>
   </si>
   <si>
     <t>1642583633307257</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1645597077501546</t>
@@ -3581,7 +3581,7 @@
   </si>
   <si>
     <t>1642583633378358</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1644890812478155</t>
@@ -3675,7 +3675,7 @@
   </si>
   <si>
     <t>1642583633480503</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583633488507</t>
@@ -3700,7 +3700,7 @@
   </si>
   <si>
     <t>1642583633522551</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1642583633526559</t>
@@ -3770,31 +3770,31 @@
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batch.modifyprice</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batch.onsale</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batchtask.query</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.detail.query</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.status.batch.query</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batch.offsale</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>alibaba.jym.item.external.goods.batch.publish</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -3821,7 +3821,7 @@
       </rPr>
       <t>核</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -3848,19 +3848,19 @@
       </rPr>
       <t>核</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>已上架</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>您⾃⼰操作下架</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>超出商品有效期</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -3898,7 +3898,7 @@
       </rPr>
       <t>毕</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -3936,7 +3936,7 @@
       </rPr>
       <t>过</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -3963,7 +3963,7 @@
       </rPr>
       <t>核下架</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -3990,7 +3990,7 @@
       </rPr>
       <t>停交易</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4017,11 +4017,11 @@
       </rPr>
       <t>布撤回</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>待提交</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4048,7 +4048,7 @@
       </rPr>
       <t>除</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4104,7 +4104,7 @@
       </rPr>
       <t>过</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4153,7 +4153,7 @@
       <t>下
 架</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4181,7 +4181,7 @@
       <t>全信息不完
 整下架</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4208,7 +4208,7 @@
       </rPr>
       <t>全</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4225,11 +4225,11 @@
       </rPr>
       <t>设计</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>商品属性</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4251,7 +4251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>等</t>
@@ -4267,15 +4267,15 @@
       </rPr>
       <t>级</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>五星武器</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>五星角色</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4320,7 +4320,7 @@
       </rPr>
       <t>定</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4337,7 +4337,7 @@
       </rPr>
       <t>线</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4354,7 +4354,7 @@
       </rPr>
       <t>选</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4373,12 +4373,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>入</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4395,7 +4395,7 @@
       </rPr>
       <t>线</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4417,12 +4417,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>箱</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -4441,28 +4441,35 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>家属性</t>
     </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>随机数</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>随机数，但每个商品不同</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4757,7 +4764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4767,64 +4774,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -4833,44 +4837,80 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4881,37 +4921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5204,7 +5214,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>193808</xdr:colOff>
+      <xdr:colOff>196348</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -5506,9 +5516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>278784</xdr:colOff>
+      <xdr:colOff>280054</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5550,9 +5560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>107688</xdr:colOff>
+      <xdr:colOff>108958</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>8371</xdr:rowOff>
+      <xdr:rowOff>7101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5594,9 +5604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>88585</xdr:colOff>
+      <xdr:colOff>89855</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>140379</xdr:rowOff>
+      <xdr:rowOff>139109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5638,9 +5648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>602940</xdr:colOff>
+      <xdr:colOff>604210</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>123183</xdr:rowOff>
+      <xdr:rowOff>121913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5682,9 +5692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>263934</xdr:colOff>
+      <xdr:colOff>261394</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>138661</xdr:rowOff>
+      <xdr:rowOff>141201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5831,9 +5841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>505982</xdr:colOff>
+      <xdr:colOff>507252</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>148338</xdr:rowOff>
+      <xdr:rowOff>145798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6468,10 +6478,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -6503,8 +6513,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6534,8 +6544,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6567,8 +6577,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
@@ -6598,10 +6608,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -6633,8 +6643,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6664,8 +6674,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6697,8 +6707,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -6728,10 +6738,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6763,8 +6773,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -6794,8 +6804,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6827,8 +6837,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -6858,10 +6868,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6893,8 +6903,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -6924,8 +6934,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -6957,8 +6967,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
@@ -7061,7 +7071,7 @@
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -7096,7 +7106,7 @@
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -7129,7 +7139,7 @@
       <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
@@ -7162,7 +7172,7 @@
       <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="9" t="s">
         <v>77</v>
       </c>
@@ -7195,7 +7205,7 @@
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
@@ -7228,7 +7238,7 @@
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="9" t="s">
         <v>84</v>
       </c>
@@ -7258,10 +7268,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
@@ -7293,8 +7303,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="40"/>
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -7324,8 +7334,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -7354,8 +7364,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -7385,7 +7395,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B30" t="s">
@@ -7420,7 +7430,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -7488,10 +7498,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.1" hidden="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="44" t="s">
         <v>151</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -7523,8 +7533,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.1" hidden="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="10" t="s">
         <v>142</v>
       </c>
@@ -7554,8 +7564,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.1" hidden="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -7587,8 +7597,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.1" hidden="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="10" t="s">
         <v>144</v>
       </c>
@@ -7621,7 +7631,7 @@
       <c r="A37" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -7656,7 +7666,7 @@
       <c r="A38" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="48"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12" t="s">
         <v>147</v>
       </c>
@@ -7689,7 +7699,7 @@
       <c r="A39" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
@@ -7722,7 +7732,7 @@
       <c r="A40" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -7757,13 +7767,13 @@
       <c r="A41" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="51"/>
+      <c r="B41" s="48"/>
     </row>
     <row r="42" spans="1:11" ht="14.1" hidden="1">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -7795,8 +7805,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.1" hidden="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="13" t="s">
         <v>142</v>
       </c>
@@ -7826,8 +7836,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.1" hidden="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -7859,8 +7869,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.1" hidden="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="13" t="s">
         <v>142</v>
       </c>
@@ -7898,6 +7908,19 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
@@ -7910,21 +7933,8 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11957,7 +11967,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U68" xr:uid="{C0314255-BA1E-415D-9135-CBCAB74AFBC7}"/>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15990,7 +16000,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U68" xr:uid="{C0314255-BA1E-415D-9135-CBCAB74AFBC7}"/>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20087,7 +20097,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U68" xr:uid="{C0314255-BA1E-415D-9135-CBCAB74AFBC7}"/>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24062,7 +24072,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U68" xr:uid="{C0314255-BA1E-415D-9135-CBCAB74AFBC7}"/>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24071,8 +24081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0176187F-DC31-4CF0-B866-A70992D73C90}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9"/>
@@ -24112,18 +24122,18 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="38" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="38" t="s">
         <v>734</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="38" t="s">
         <v>735</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -24134,10 +24144,10 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="38" t="s">
         <v>737</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="38" t="s">
         <v>740</v>
       </c>
     </row>
@@ -24145,10 +24155,10 @@
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="38" t="s">
         <v>736</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="38" t="s">
         <v>740</v>
       </c>
     </row>
@@ -24156,10 +24166,10 @@
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="38" t="s">
         <v>738</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="38" t="s">
         <v>743</v>
       </c>
     </row>
@@ -24167,10 +24177,10 @@
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="38" t="s">
         <v>739</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="38" t="s">
         <v>742</v>
       </c>
     </row>
@@ -24184,7 +24194,7 @@
       <c r="C41" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="53" t="s">
         <v>745</v>
       </c>
     </row>
@@ -24195,7 +24205,7 @@
       <c r="C42" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="53" t="s">
         <v>745</v>
       </c>
     </row>
@@ -24206,7 +24216,7 @@
       <c r="C43" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="53" t="s">
         <v>745</v>
       </c>
     </row>
@@ -24217,7 +24227,7 @@
       <c r="C44" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="53" t="s">
         <v>745</v>
       </c>
     </row>
@@ -24228,7 +24238,7 @@
       <c r="C45" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="53" t="s">
         <v>745</v>
       </c>
     </row>
@@ -24377,7 +24387,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
